--- a/2 - Bilans/2022-2023/Unipoly_Bilan_Quadrimestriel_22-23.xlsx
+++ b/2 - Bilans/2022-2023/Unipoly_Bilan_Quadrimestriel_22-23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\Clara\Unipoly\UPSecretrariat\2 - Bilans\2022-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EE9D67D-693E-4D34-A2A1-6F50EFF5CE8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05B7710-2111-4278-B270-8AC39C302526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{34F8AD7C-3B1E-42A7-8AF2-50C33241ADA4}"/>
   </bookViews>
@@ -39,7 +39,6 @@
     <sheet name="REBUILT_Clôtures" sheetId="24" r:id="rId24"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -612,7 +611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -695,16 +694,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -713,28 +706,43 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -749,29 +757,23 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1089,9 +1091,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A55C92-786C-4AB3-96FC-7473E4CC0A9B}">
   <dimension ref="A1:Y64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C51" sqref="C51:C52"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14" zeroHeight="1"/>
@@ -1110,35 +1112,35 @@
     <row r="2" spans="1:23" ht="36" customHeight="1">
       <c r="B2" s="29"/>
       <c r="C2" s="30"/>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="40"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="57"/>
     </row>
     <row r="3" spans="1:23" ht="14" customHeight="1">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="42" t="s">
+      <c r="C3" s="46"/>
+      <c r="D3" s="54" t="s">
         <v>87</v>
       </c>
       <c r="E3" s="41"/>
@@ -1162,10 +1164,10 @@
         <v>10</v>
       </c>
       <c r="O3" s="41"/>
-      <c r="P3" s="32" t="s">
+      <c r="P3" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="32"/>
+      <c r="Q3" s="42"/>
       <c r="R3" s="41" t="s">
         <v>88</v>
       </c>
@@ -1177,13 +1179,13 @@
       <c r="V3" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="W3" s="32"/>
-    </row>
-    <row r="4" spans="1:23" ht="20">
-      <c r="B4" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="51"/>
+      <c r="W3" s="42"/>
+    </row>
+    <row r="4" spans="1:23" ht="20" hidden="1">
+      <c r="B4" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="44"/>
       <c r="D4" s="5" t="s">
         <v>42</v>
       </c>
@@ -1245,46 +1247,46 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="15.5">
-      <c r="B5" s="54" t="s">
+    <row r="5" spans="1:23" ht="15.5" hidden="1">
+      <c r="B5" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="55"/>
+      <c r="C5" s="38"/>
       <c r="D5" s="6">
         <f>14813.98+3472.78+3833.79</f>
         <v>22120.55</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="32">
         <f>D5-D6</f>
         <v>16225.66</v>
       </c>
       <c r="F5" s="6"/>
-      <c r="G5" s="33">
+      <c r="G5" s="32">
         <f>F5-F6+E5</f>
         <v>8919.0999999999985</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="33">
+      <c r="I5" s="32">
         <f>H5-H6+G5</f>
         <v>2037.9899999999989</v>
       </c>
       <c r="J5" s="6"/>
-      <c r="K5" s="33">
+      <c r="K5" s="32">
         <f>J5-J6+I5</f>
         <v>2037.9899999999989</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="M5" s="33">
+      <c r="M5" s="32">
         <f>L5-L6+K5</f>
         <v>2037.9899999999989</v>
       </c>
       <c r="N5" s="6"/>
-      <c r="O5" s="33">
+      <c r="O5" s="32">
         <f>N5-N6+M5</f>
         <v>2037.9899999999989</v>
       </c>
       <c r="P5" s="6"/>
-      <c r="Q5" s="34">
+      <c r="Q5" s="33">
         <f>P5-P6+M5</f>
         <v>2037.9899999999989</v>
       </c>
@@ -1292,7 +1294,7 @@
         <f>R8+R30</f>
         <v>7306.56</v>
       </c>
-      <c r="S5" s="33">
+      <c r="S5" s="32">
         <f>R5-R6+Q5</f>
         <v>9344.5499999999993</v>
       </c>
@@ -1300,60 +1302,60 @@
         <f>T8+T30</f>
         <v>6881.11</v>
       </c>
-      <c r="U5" s="33">
+      <c r="U5" s="32">
         <f>T5-T6+S5</f>
         <v>16225.66</v>
       </c>
       <c r="V5" s="6">
         <v>2214.0300000000002</v>
       </c>
-      <c r="W5" s="34">
+      <c r="W5" s="33">
         <f>V5-V6+U5</f>
         <v>18439.689999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="15.5">
-      <c r="B6" s="56"/>
-      <c r="C6" s="57"/>
+    <row r="6" spans="1:23" ht="15.5" hidden="1">
+      <c r="B6" s="39"/>
+      <c r="C6" s="40"/>
       <c r="D6" s="7">
         <v>5894.89</v>
       </c>
-      <c r="E6" s="33"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="7">
         <f>F7+F29</f>
         <v>7306.56</v>
       </c>
-      <c r="G6" s="33"/>
+      <c r="G6" s="32"/>
       <c r="H6" s="7">
         <f>H7+H29</f>
         <v>6881.11</v>
       </c>
-      <c r="I6" s="35"/>
+      <c r="I6" s="47"/>
       <c r="J6" s="27"/>
-      <c r="K6" s="35"/>
+      <c r="K6" s="47"/>
       <c r="L6" s="27"/>
-      <c r="M6" s="35"/>
+      <c r="M6" s="47"/>
       <c r="N6" s="27"/>
-      <c r="O6" s="35"/>
+      <c r="O6" s="47"/>
       <c r="P6" s="27"/>
-      <c r="Q6" s="35"/>
+      <c r="Q6" s="47"/>
       <c r="R6" s="27"/>
-      <c r="S6" s="35"/>
+      <c r="S6" s="47"/>
       <c r="T6" s="27"/>
-      <c r="U6" s="35"/>
+      <c r="U6" s="47"/>
       <c r="V6" s="27"/>
-      <c r="W6" s="35"/>
-    </row>
-    <row r="7" spans="1:23" ht="15.5">
-      <c r="B7" s="54" t="s">
+      <c r="W6" s="47"/>
+    </row>
+    <row r="7" spans="1:23" ht="15.5" hidden="1">
+      <c r="B7" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="55"/>
+      <c r="C7" s="38"/>
       <c r="D7" s="8">
         <f>D9+D11+D13+D15+D17+D19+D21+D23+D25+D27</f>
         <v>0</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="33">
         <f>D7-D8</f>
         <v>0</v>
       </c>
@@ -1361,7 +1363,7 @@
         <f>F9+F11+F13+F15+F17+F19+F21+F23+F25+F27</f>
         <v>0</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="33">
         <f>F7-F8+E7</f>
         <v>0</v>
       </c>
@@ -1369,7 +1371,7 @@
         <f>H9+H11+H13+H15+H17+H19+H21+H23+H25+H27</f>
         <v>3370</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="32">
         <f>H7-H8+G7</f>
         <v>3370</v>
       </c>
@@ -1377,7 +1379,7 @@
         <f>J9+J11+J13+J15+J17+J19+J21+J23+J25+J27</f>
         <v>35.1</v>
       </c>
-      <c r="K7" s="33">
+      <c r="K7" s="32">
         <f>J7-J8+I7</f>
         <v>2848.13</v>
       </c>
@@ -1385,7 +1387,7 @@
         <f>L9+L11+L13+L15+L17+L19+L21+L23+L25+L27</f>
         <v>0</v>
       </c>
-      <c r="M7" s="33">
+      <c r="M7" s="32">
         <f>L7-L8+K7</f>
         <v>2848.13</v>
       </c>
@@ -1393,7 +1395,7 @@
         <f>N9+N11+N13+N15+N17+N19+N21+N23+N25+N27</f>
         <v>0</v>
       </c>
-      <c r="O7" s="33">
+      <c r="O7" s="32">
         <f>N7-N8+M7</f>
         <v>2848.13</v>
       </c>
@@ -1401,7 +1403,7 @@
         <f>P9+P11+P13+P15+P17+P19+P21+P23+P25+P27</f>
         <v>#REF!</v>
       </c>
-      <c r="Q7" s="34" t="e">
+      <c r="Q7" s="33" t="e">
         <f>P7-P8+O7</f>
         <v>#REF!</v>
       </c>
@@ -1409,100 +1411,100 @@
         <f>R9+R11+R13+R15+R17+R19+R21+R23+R25+R27</f>
         <v>0</v>
       </c>
-      <c r="S7" s="33" t="e">
-        <f>R7-R8+Q7</f>
-        <v>#REF!</v>
+      <c r="S7" s="32">
+        <f>R7-R8+O7</f>
+        <v>2848.13</v>
       </c>
       <c r="T7" s="6">
         <f>T9+T11+T13+T15+T17+T19+T21+T23+T25+T27</f>
         <v>0</v>
       </c>
-      <c r="U7" s="33" t="e">
+      <c r="U7" s="32">
         <f>T7-T8+S7</f>
-        <v>#REF!</v>
+        <v>-521.86999999999989</v>
       </c>
       <c r="V7" s="6">
         <f>V9+V11+V13+V15+V17+V19+V21+V23+V25+V27</f>
         <v>12560.309999999998</v>
       </c>
-      <c r="W7" s="44" t="e">
+      <c r="W7" s="48">
         <f>V7-V8+U7</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="15.5">
-      <c r="B8" s="56"/>
-      <c r="C8" s="57"/>
+        <v>-7902.0700000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="15.5" hidden="1">
+      <c r="B8" s="39"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="7">
         <f>D10+D12+D14+D16+D18+D20+D22+D24+D26+D28</f>
         <v>0</v>
       </c>
-      <c r="E8" s="33"/>
+      <c r="E8" s="32"/>
       <c r="F8" s="7">
         <f>F10+F12+F14+F16+F18+F20+F22+F24+F26+F28</f>
         <v>0</v>
       </c>
-      <c r="G8" s="33"/>
+      <c r="G8" s="32"/>
       <c r="H8" s="7">
         <f>H10+H12+H14+H16+H18+H20+H22+H24+H26+H28</f>
         <v>0</v>
       </c>
-      <c r="I8" s="33"/>
+      <c r="I8" s="32"/>
       <c r="J8" s="7">
         <f>J10+J12+J14+J16+J18+J20+J22+J24+J26+J28</f>
         <v>556.97</v>
       </c>
-      <c r="K8" s="33"/>
+      <c r="K8" s="32"/>
       <c r="L8" s="7">
         <f>L10+L12+L14+L16+L18+L20+L22+L24+L26+L28</f>
         <v>0</v>
       </c>
-      <c r="M8" s="33"/>
+      <c r="M8" s="32"/>
       <c r="N8" s="7">
         <f>N10+N12+N14+N16+N18+N20+N22+N24+N26+N28</f>
         <v>0</v>
       </c>
-      <c r="O8" s="33"/>
+      <c r="O8" s="32"/>
       <c r="P8" s="7" t="e">
         <f>P10+P12+P14+P16+P18+P20+P22+P24+P26+P28</f>
         <v>#REF!</v>
       </c>
-      <c r="Q8" s="33"/>
+      <c r="Q8" s="58"/>
       <c r="R8" s="7">
         <f>R10+R12+R14+R16+R18+R20+R22+R24+R26+R28</f>
         <v>0</v>
       </c>
-      <c r="S8" s="33"/>
+      <c r="S8" s="32"/>
       <c r="T8" s="7">
         <f>T10+T12+T14+T16+T18+T20+T22+T24+T26+T28</f>
         <v>3370</v>
       </c>
-      <c r="U8" s="33"/>
+      <c r="U8" s="32"/>
       <c r="V8" s="7">
         <f>V10+V12+V14+V16+V18+V20+V22+V24+V26+V28</f>
         <v>19940.509999999998</v>
       </c>
-      <c r="W8" s="44"/>
-    </row>
-    <row r="9" spans="1:23" ht="15.5">
+      <c r="W8" s="48"/>
+    </row>
+    <row r="9" spans="1:23" ht="15.5" hidden="1">
       <c r="B9" s="9"/>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="36" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="33">
+      <c r="E9" s="32">
         <f>D9-D10</f>
         <v>0</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="33">
+      <c r="G9" s="32">
         <f>F9-F10+E9</f>
         <v>0</v>
       </c>
       <c r="H9" s="6">
         <v>1000</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="32">
         <f>H9-H10+G9</f>
         <v>1000</v>
       </c>
@@ -1510,7 +1512,7 @@
         <f>COHE_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K9" s="33">
+      <c r="K9" s="32">
         <f>J9-J10+I9</f>
         <v>686.5</v>
       </c>
@@ -1518,7 +1520,7 @@
         <f>COHE_Clôtures!C5</f>
         <v>0</v>
       </c>
-      <c r="M9" s="33">
+      <c r="M9" s="32">
         <f>L9-L10+K9</f>
         <v>686.5</v>
       </c>
@@ -1526,7 +1528,7 @@
         <f>COHE_Clôtures!D5</f>
         <v>0</v>
       </c>
-      <c r="O9" s="33">
+      <c r="O9" s="32">
         <f>N9-N10+M9</f>
         <v>686.5</v>
       </c>
@@ -1534,91 +1536,91 @@
         <f>COHE_Clôtures!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q9" s="33" t="e">
+      <c r="Q9" s="32" t="e">
         <f t="shared" ref="Q9" si="0">P9-P10+O9</f>
         <v>#REF!</v>
       </c>
       <c r="R9" s="6"/>
-      <c r="S9" s="33" t="e">
-        <f>R9-R10+Q9</f>
-        <v>#REF!</v>
+      <c r="S9" s="32">
+        <f>R9-R10+O9</f>
+        <v>686.5</v>
       </c>
       <c r="T9" s="6"/>
-      <c r="U9" s="33" t="e">
+      <c r="U9" s="32">
         <f>T9-T10+S9</f>
-        <v>#REF!</v>
+        <v>-313.5</v>
       </c>
       <c r="V9" s="6">
         <v>2309.38</v>
       </c>
-      <c r="W9" s="44" t="e">
+      <c r="W9" s="48">
         <f>V9-V10+U9</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="15.5">
+        <v>102.43000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="15.5" hidden="1">
       <c r="B10" s="9"/>
-      <c r="C10" s="43"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="33"/>
+      <c r="E10" s="32"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="33"/>
+      <c r="G10" s="32"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="33"/>
+      <c r="I10" s="32"/>
       <c r="J10" s="7">
         <f>COHE_Clôtures!$B$9</f>
         <v>313.5</v>
       </c>
-      <c r="K10" s="33"/>
+      <c r="K10" s="32"/>
       <c r="L10" s="7">
         <f>COHE_Clôtures!C9</f>
         <v>0</v>
       </c>
-      <c r="M10" s="33"/>
+      <c r="M10" s="32"/>
       <c r="N10" s="7">
         <f>COHE_Clôtures!D9</f>
         <v>0</v>
       </c>
-      <c r="O10" s="33"/>
+      <c r="O10" s="32"/>
       <c r="P10" s="7" t="e">
         <f>COHE_Clôtures!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q10" s="33"/>
+      <c r="Q10" s="32"/>
       <c r="R10" s="7">
         <f>F9</f>
         <v>0</v>
       </c>
-      <c r="S10" s="33"/>
+      <c r="S10" s="32"/>
       <c r="T10" s="7">
         <f>H9</f>
         <v>1000</v>
       </c>
-      <c r="U10" s="33"/>
+      <c r="U10" s="32"/>
       <c r="V10" s="7">
         <v>1893.45</v>
       </c>
-      <c r="W10" s="44"/>
-    </row>
-    <row r="11" spans="1:23" ht="15.5">
+      <c r="W10" s="48"/>
+    </row>
+    <row r="11" spans="1:23" ht="15.5" hidden="1">
       <c r="B11" s="9"/>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="36" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="33">
+      <c r="E11" s="32">
         <f>D11-D12</f>
         <v>0</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="33">
+      <c r="G11" s="32">
         <f t="shared" ref="G11" si="1">F11-F12+E11</f>
         <v>0</v>
       </c>
       <c r="H11" s="6">
         <v>750</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="32">
         <f>H11-H12+G11</f>
         <v>750</v>
       </c>
@@ -1626,7 +1628,7 @@
         <f>COM_Clôtures!$B$3</f>
         <v>35.1</v>
       </c>
-      <c r="K11" s="33">
+      <c r="K11" s="32">
         <f t="shared" ref="K11" si="2">J11-J12+I11</f>
         <v>617.23</v>
       </c>
@@ -1634,7 +1636,7 @@
         <f>COM_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M11" s="33">
+      <c r="M11" s="32">
         <f>L11-L12+K11</f>
         <v>617.23</v>
       </c>
@@ -1642,7 +1644,7 @@
         <f>COM_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O11" s="33">
+      <c r="O11" s="32">
         <f>N11-N12+M11</f>
         <v>617.23</v>
       </c>
@@ -1650,91 +1652,91 @@
         <f>COM_Clôtures!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q11" s="33" t="e">
+      <c r="Q11" s="32" t="e">
         <f>P11-P12+O11</f>
         <v>#REF!</v>
       </c>
       <c r="R11" s="6"/>
-      <c r="S11" s="33" t="e">
-        <f>R11-R12+Q11</f>
-        <v>#REF!</v>
+      <c r="S11" s="32">
+        <f>R11-R12+O11</f>
+        <v>617.23</v>
       </c>
       <c r="T11" s="6"/>
-      <c r="U11" s="33" t="e">
+      <c r="U11" s="32">
         <f>T11-T12+S11</f>
-        <v>#REF!</v>
+        <v>-132.76999999999998</v>
       </c>
       <c r="V11" s="6">
         <v>883.34</v>
       </c>
-      <c r="W11" s="31" t="e">
+      <c r="W11" s="31">
         <f>V11-V12+U11</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="15.5">
+        <v>622.37000000000012</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="15.5" hidden="1">
       <c r="B12" s="9"/>
-      <c r="C12" s="43"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="33"/>
+      <c r="E12" s="32"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="33"/>
+      <c r="G12" s="32"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="33"/>
+      <c r="I12" s="32"/>
       <c r="J12" s="7">
         <f>COM_Clôtures!$B$5</f>
         <v>167.87</v>
       </c>
-      <c r="K12" s="33"/>
+      <c r="K12" s="32"/>
       <c r="L12" s="7">
         <f>COM_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M12" s="33"/>
+      <c r="M12" s="32"/>
       <c r="N12" s="7">
         <f>COM_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O12" s="33"/>
+      <c r="O12" s="32"/>
       <c r="P12" s="7" t="e">
         <f>COM_Clôtures!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q12" s="33"/>
+      <c r="Q12" s="32"/>
       <c r="R12" s="7">
         <f>F11</f>
         <v>0</v>
       </c>
-      <c r="S12" s="33"/>
+      <c r="S12" s="32"/>
       <c r="T12" s="7">
         <f>H11</f>
         <v>750</v>
       </c>
-      <c r="U12" s="33"/>
+      <c r="U12" s="32"/>
       <c r="V12" s="7">
         <v>128.19999999999999</v>
       </c>
       <c r="W12" s="31"/>
     </row>
-    <row r="13" spans="1:23" ht="15.5">
+    <row r="13" spans="1:23" ht="15.5" hidden="1">
       <c r="B13" s="9"/>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="36" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="33">
+      <c r="E13" s="32">
         <f>D13-D14</f>
         <v>0</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="33">
+      <c r="G13" s="32">
         <f t="shared" ref="G13" si="3">F13-F14+E13</f>
         <v>0</v>
       </c>
       <c r="H13" s="6">
         <v>170</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="32">
         <f>H13-H14+G13</f>
         <v>170</v>
       </c>
@@ -1742,7 +1744,7 @@
         <f>CONTRIB_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K13" s="33">
+      <c r="K13" s="32">
         <f t="shared" ref="K13" si="4">J13-J14+I13</f>
         <v>94.4</v>
       </c>
@@ -1750,7 +1752,7 @@
         <f>CONTRIB_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M13" s="33">
+      <c r="M13" s="32">
         <f>L13-L14+K13</f>
         <v>94.4</v>
       </c>
@@ -1758,7 +1760,7 @@
         <f>CONTRIB_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O13" s="33">
+      <c r="O13" s="32">
         <f>N13-N14+M13</f>
         <v>94.4</v>
       </c>
@@ -1766,89 +1768,89 @@
         <f>CONTRIB_Clôtures!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q13" s="33" t="e">
+      <c r="Q13" s="32" t="e">
         <f t="shared" ref="Q13" si="5">P13-P14+O13</f>
         <v>#REF!</v>
       </c>
       <c r="R13" s="6"/>
-      <c r="S13" s="33" t="e">
-        <f>R13-R14+Q13</f>
-        <v>#REF!</v>
+      <c r="S13" s="32">
+        <f>R13-R14+O13</f>
+        <v>94.4</v>
       </c>
       <c r="T13" s="6"/>
-      <c r="U13" s="33" t="e">
+      <c r="U13" s="32">
         <f t="shared" ref="U13" si="6">T13-T14+S13</f>
-        <v>#REF!</v>
+        <v>-75.599999999999994</v>
       </c>
       <c r="V13" s="6">
         <v>171.6</v>
       </c>
-      <c r="W13" s="44" t="e">
+      <c r="W13" s="48">
         <f t="shared" ref="W13" si="7">V13-V14+U13</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="15.5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="15.5" hidden="1">
       <c r="B14" s="9"/>
-      <c r="C14" s="43"/>
+      <c r="C14" s="36"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="33"/>
+      <c r="E14" s="32"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="33"/>
+      <c r="G14" s="32"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="33"/>
+      <c r="I14" s="32"/>
       <c r="J14" s="7">
         <f>CONTRIB_Clôtures!$B$7</f>
         <v>75.599999999999994</v>
       </c>
-      <c r="K14" s="33"/>
+      <c r="K14" s="32"/>
       <c r="L14" s="7">
         <f>CONTRIB_Clôtures!$C$7</f>
         <v>0</v>
       </c>
-      <c r="M14" s="33"/>
+      <c r="M14" s="32"/>
       <c r="N14" s="7">
         <f>CONTRIB_Clôtures!$D$7</f>
         <v>0</v>
       </c>
-      <c r="O14" s="33"/>
+      <c r="O14" s="32"/>
       <c r="P14" s="7" t="e">
         <f>CONTRIB_Clôtures!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q14" s="33"/>
+      <c r="Q14" s="32"/>
       <c r="R14" s="7">
         <f>F13</f>
         <v>0</v>
       </c>
-      <c r="S14" s="33"/>
+      <c r="S14" s="32"/>
       <c r="T14" s="7">
         <f>H13</f>
         <v>170</v>
       </c>
-      <c r="U14" s="33"/>
+      <c r="U14" s="32"/>
       <c r="V14" s="7"/>
-      <c r="W14" s="44"/>
-    </row>
-    <row r="15" spans="1:23" ht="15.5">
+      <c r="W14" s="48"/>
+    </row>
+    <row r="15" spans="1:23" ht="15.5" hidden="1">
       <c r="B15" s="9"/>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="36" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="33">
+      <c r="E15" s="32">
         <f>D15-D16</f>
         <v>0</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="33">
+      <c r="G15" s="32">
         <f t="shared" ref="G15" si="8">F15-F16+E15</f>
         <v>0</v>
       </c>
       <c r="H15" s="6">
         <v>800</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="32">
         <f t="shared" ref="I15" si="9">H15-H16+G15</f>
         <v>800</v>
       </c>
@@ -1856,7 +1858,7 @@
         <f>EVENT_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K15" s="33">
+      <c r="K15" s="32">
         <f t="shared" ref="K15" si="10">J15-J16+I15</f>
         <v>800</v>
       </c>
@@ -1864,7 +1866,7 @@
         <f>EVENT_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M15" s="33">
+      <c r="M15" s="32">
         <f>L15-L16+K15</f>
         <v>800</v>
       </c>
@@ -1872,7 +1874,7 @@
         <f>EVENT_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O15" s="33">
+      <c r="O15" s="32">
         <f>N15-N16+M15</f>
         <v>800</v>
       </c>
@@ -1880,91 +1882,91 @@
         <f>EVENT_Clôtures!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q15" s="33" t="e">
+      <c r="Q15" s="32" t="e">
         <f t="shared" ref="Q15" si="11">P15-P16+O15</f>
         <v>#REF!</v>
       </c>
       <c r="R15" s="6"/>
-      <c r="S15" s="33" t="e">
-        <f>R15-R16+Q15</f>
-        <v>#REF!</v>
+      <c r="S15" s="32">
+        <f>R15-R16+O15</f>
+        <v>800</v>
       </c>
       <c r="T15" s="6"/>
-      <c r="U15" s="33" t="e">
+      <c r="U15" s="32">
         <f t="shared" ref="U15" si="12">T15-T16+S15</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="V15" s="6">
         <v>2442.2199999999998</v>
       </c>
-      <c r="W15" s="44" t="e">
+      <c r="W15" s="48">
         <f t="shared" ref="W15" si="13">V15-V16+U15</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="15.5">
+        <v>-1931.6399999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="15.5" hidden="1">
       <c r="B16" s="9"/>
-      <c r="C16" s="43"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="33"/>
+      <c r="E16" s="32"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="33"/>
+      <c r="G16" s="32"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="33"/>
+      <c r="I16" s="32"/>
       <c r="J16" s="7">
         <f>EVENT_Clôtures!$B$12</f>
         <v>0</v>
       </c>
-      <c r="K16" s="33"/>
+      <c r="K16" s="32"/>
       <c r="L16" s="7">
         <f>EVENT_Clôtures!$C$12</f>
         <v>0</v>
       </c>
-      <c r="M16" s="33"/>
+      <c r="M16" s="32"/>
       <c r="N16" s="7">
         <f>EVENT_Clôtures!$D$12</f>
         <v>0</v>
       </c>
-      <c r="O16" s="33"/>
+      <c r="O16" s="32"/>
       <c r="P16" s="7" t="e">
         <f>EVENT_Clôtures!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q16" s="33"/>
+      <c r="Q16" s="32"/>
       <c r="R16" s="7">
         <f>F15</f>
         <v>0</v>
       </c>
-      <c r="S16" s="33"/>
+      <c r="S16" s="32"/>
       <c r="T16" s="7">
         <f>H15</f>
         <v>800</v>
       </c>
-      <c r="U16" s="33"/>
+      <c r="U16" s="32"/>
       <c r="V16" s="7">
         <v>4373.8599999999997</v>
       </c>
-      <c r="W16" s="44"/>
-    </row>
-    <row r="17" spans="2:23" ht="15.5">
+      <c r="W16" s="48"/>
+    </row>
+    <row r="17" spans="2:23" ht="15.5" hidden="1">
       <c r="B17" s="9"/>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="36" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="33">
+      <c r="E17" s="32">
         <f>D17-D18</f>
         <v>0</v>
       </c>
       <c r="F17" s="6"/>
-      <c r="G17" s="33">
+      <c r="G17" s="32">
         <f t="shared" ref="G17" si="14">F17-F18+E17</f>
         <v>0</v>
       </c>
       <c r="H17" s="6">
         <v>0</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="32">
         <f t="shared" ref="I17" si="15">H17-H18+G17</f>
         <v>0</v>
       </c>
@@ -1972,7 +1974,7 @@
         <f>EXTRA_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K17" s="33">
+      <c r="K17" s="32">
         <f t="shared" ref="K17" si="16">J17-J18+I17</f>
         <v>0</v>
       </c>
@@ -1980,7 +1982,7 @@
         <f>EXTRA_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M17" s="33">
+      <c r="M17" s="32">
         <f>L17-L18+K17</f>
         <v>0</v>
       </c>
@@ -1988,7 +1990,7 @@
         <f>EXTRA_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O17" s="33">
+      <c r="O17" s="32">
         <f>N17-N18+M17</f>
         <v>0</v>
       </c>
@@ -1996,91 +1998,91 @@
         <f>EXTRA_Clôtures!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q17" s="33" t="e">
+      <c r="Q17" s="32" t="e">
         <f t="shared" ref="Q17" si="17">P17-P18+O17</f>
         <v>#REF!</v>
       </c>
       <c r="R17" s="6"/>
-      <c r="S17" s="33" t="e">
-        <f>R17-R18+Q17</f>
-        <v>#REF!</v>
+      <c r="S17" s="32">
+        <f>R17-R18+O17</f>
+        <v>0</v>
       </c>
       <c r="T17" s="6"/>
-      <c r="U17" s="33" t="e">
+      <c r="U17" s="32">
         <f t="shared" ref="U17" si="18">T17-T18+S17</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="V17" s="6">
         <v>395.9</v>
       </c>
-      <c r="W17" s="44" t="e">
+      <c r="W17" s="48">
         <f t="shared" ref="W17" si="19">V17-V18+U17</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="18" spans="2:23" ht="15.5">
+        <v>-202.01999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" ht="15.5" hidden="1">
       <c r="B18" s="9"/>
-      <c r="C18" s="43"/>
+      <c r="C18" s="36"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="33"/>
+      <c r="E18" s="32"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="33"/>
+      <c r="G18" s="32"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="33"/>
+      <c r="I18" s="32"/>
       <c r="J18" s="7">
         <f>EXTRA_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K18" s="33"/>
+      <c r="K18" s="32"/>
       <c r="L18" s="7">
         <f>EXTRA_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M18" s="33"/>
+      <c r="M18" s="32"/>
       <c r="N18" s="7">
         <f>EXTRA_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O18" s="33"/>
+      <c r="O18" s="32"/>
       <c r="P18" s="7" t="e">
         <f>EXTRA_Clôtures!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q18" s="33"/>
+      <c r="Q18" s="32"/>
       <c r="R18" s="7">
         <f>F17</f>
         <v>0</v>
       </c>
-      <c r="S18" s="33"/>
+      <c r="S18" s="32"/>
       <c r="T18" s="7">
         <f>H17</f>
         <v>0</v>
       </c>
-      <c r="U18" s="33"/>
+      <c r="U18" s="32"/>
       <c r="V18" s="7">
         <v>597.91999999999996</v>
       </c>
-      <c r="W18" s="44"/>
-    </row>
-    <row r="19" spans="2:23" ht="15.5">
+      <c r="W18" s="48"/>
+    </row>
+    <row r="19" spans="2:23" ht="15.5" hidden="1">
       <c r="B19" s="9"/>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="36" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="33">
+      <c r="E19" s="32">
         <f>D19-D20</f>
         <v>0</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="33">
+      <c r="G19" s="32">
         <f t="shared" ref="G19" si="20">F19-F20+E19</f>
         <v>0</v>
       </c>
       <c r="H19" s="6">
         <v>0</v>
       </c>
-      <c r="I19" s="33">
+      <c r="I19" s="32">
         <f t="shared" ref="I19" si="21">H19-H20+G19</f>
         <v>0</v>
       </c>
@@ -2088,7 +2090,7 @@
         <f>FONCT_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K19" s="33">
+      <c r="K19" s="32">
         <f t="shared" ref="K19" si="22">J19-J20+I19</f>
         <v>0</v>
       </c>
@@ -2096,7 +2098,7 @@
         <f>FONCT_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M19" s="33">
+      <c r="M19" s="32">
         <f>L19-L20+K19</f>
         <v>0</v>
       </c>
@@ -2104,7 +2106,7 @@
         <f>FONCT_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O19" s="33">
+      <c r="O19" s="32">
         <f>N19-N20+M19</f>
         <v>0</v>
       </c>
@@ -2112,91 +2114,91 @@
         <f>FONCT_Clôtures!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q19" s="33" t="e">
+      <c r="Q19" s="32" t="e">
         <f t="shared" ref="Q19" si="23">P19-P20+O19</f>
         <v>#REF!</v>
       </c>
       <c r="R19" s="6"/>
-      <c r="S19" s="33" t="e">
-        <f>R19-R20+Q19</f>
-        <v>#REF!</v>
+      <c r="S19" s="32">
+        <f>R19-R20+O19</f>
+        <v>0</v>
       </c>
       <c r="T19" s="6"/>
-      <c r="U19" s="33" t="e">
+      <c r="U19" s="32">
         <f t="shared" ref="U19" si="24">T19-T20+S19</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="V19" s="6">
         <v>1055.74</v>
       </c>
-      <c r="W19" s="44" t="e">
+      <c r="W19" s="48">
         <f t="shared" ref="W19" si="25">V19-V20+U19</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="20" spans="2:23" ht="15.5">
+        <v>-7004.04</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" ht="15.5" hidden="1">
       <c r="B20" s="9"/>
-      <c r="C20" s="43"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="33"/>
+      <c r="E20" s="32"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="33"/>
+      <c r="G20" s="32"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="33"/>
+      <c r="I20" s="32"/>
       <c r="J20" s="7">
         <f>FONCT_Clôtures!$B$12</f>
         <v>0</v>
       </c>
-      <c r="K20" s="33"/>
+      <c r="K20" s="32"/>
       <c r="L20" s="7">
         <f>FONCT_Clôtures!$C$12</f>
         <v>0</v>
       </c>
-      <c r="M20" s="33"/>
+      <c r="M20" s="32"/>
       <c r="N20" s="7">
         <f>FONCT_Clôtures!$D$12</f>
         <v>0</v>
       </c>
-      <c r="O20" s="33"/>
+      <c r="O20" s="32"/>
       <c r="P20" s="7" t="e">
         <f>FONCT_Clôtures!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q20" s="33"/>
+      <c r="Q20" s="32"/>
       <c r="R20" s="7">
         <f>F19</f>
         <v>0</v>
       </c>
-      <c r="S20" s="33"/>
+      <c r="S20" s="32"/>
       <c r="T20" s="7">
         <f>H19</f>
         <v>0</v>
       </c>
-      <c r="U20" s="33"/>
+      <c r="U20" s="32"/>
       <c r="V20" s="7">
         <v>8059.78</v>
       </c>
-      <c r="W20" s="44"/>
-    </row>
-    <row r="21" spans="2:23" ht="15.5">
+      <c r="W20" s="48"/>
+    </row>
+    <row r="21" spans="2:23" ht="15.5" hidden="1">
       <c r="B21" s="9"/>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="33">
+      <c r="E21" s="32">
         <f>D21-D22</f>
         <v>0</v>
       </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="33">
+      <c r="G21" s="32">
         <f t="shared" ref="G21" si="26">F21-F22+E21</f>
         <v>0</v>
       </c>
       <c r="H21" s="6">
         <v>0</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="32">
         <f t="shared" ref="I21" si="27">H21-H22+G21</f>
         <v>0</v>
       </c>
@@ -2204,7 +2206,7 @@
         <f>CONVER_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K21" s="33">
+      <c r="K21" s="32">
         <f t="shared" ref="K21" si="28">J21-J22+I21</f>
         <v>0</v>
       </c>
@@ -2212,7 +2214,7 @@
         <f>CONVER_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M21" s="33">
+      <c r="M21" s="32">
         <f>L21-L22+K21</f>
         <v>0</v>
       </c>
@@ -2220,7 +2222,7 @@
         <f>CONVER_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O21" s="33">
+      <c r="O21" s="32">
         <f>N21-N22+M21</f>
         <v>0</v>
       </c>
@@ -2228,91 +2230,91 @@
         <f>CONVER_Clôtures!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q21" s="33" t="e">
+      <c r="Q21" s="32" t="e">
         <f t="shared" ref="Q21" si="29">P21-P22+O21</f>
         <v>#REF!</v>
       </c>
       <c r="R21" s="6"/>
-      <c r="S21" s="33" t="e">
-        <f>R21-R22+Q21</f>
-        <v>#REF!</v>
+      <c r="S21" s="32">
+        <f>R21-R22+O21</f>
+        <v>0</v>
       </c>
       <c r="T21" s="6"/>
-      <c r="U21" s="33" t="e">
+      <c r="U21" s="32">
         <f t="shared" ref="U21" si="30">T21-T22+S21</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="V21" s="6">
         <v>2405.42</v>
       </c>
-      <c r="W21" s="44" t="e">
+      <c r="W21" s="48">
         <f t="shared" ref="W21" si="31">V21-V22+U21</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="22" spans="2:23" ht="15.5">
+        <v>-594.57999999999993</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" ht="15.5" hidden="1">
       <c r="B22" s="9"/>
-      <c r="C22" s="43"/>
+      <c r="C22" s="36"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="33"/>
+      <c r="E22" s="32"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="33"/>
+      <c r="G22" s="32"/>
       <c r="H22" s="7"/>
-      <c r="I22" s="33"/>
+      <c r="I22" s="32"/>
       <c r="J22" s="7">
         <f>CONVER_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K22" s="33"/>
+      <c r="K22" s="32"/>
       <c r="L22" s="7">
         <f>CONVER_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M22" s="33"/>
+      <c r="M22" s="32"/>
       <c r="N22" s="7">
         <f>CONVER_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O22" s="33"/>
+      <c r="O22" s="32"/>
       <c r="P22" s="7" t="e">
         <f>CONVER_Clôtures!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q22" s="33"/>
+      <c r="Q22" s="32"/>
       <c r="R22" s="7">
         <f>F21</f>
         <v>0</v>
       </c>
-      <c r="S22" s="33"/>
+      <c r="S22" s="32"/>
       <c r="T22" s="7">
         <f>H21</f>
         <v>0</v>
       </c>
-      <c r="U22" s="33"/>
+      <c r="U22" s="32"/>
       <c r="V22" s="7">
         <v>3000</v>
       </c>
-      <c r="W22" s="44"/>
-    </row>
-    <row r="23" spans="2:23" ht="15.5">
+      <c r="W22" s="48"/>
+    </row>
+    <row r="23" spans="2:23" ht="15.5" hidden="1">
       <c r="B23" s="9"/>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="36" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="6"/>
-      <c r="E23" s="33">
+      <c r="E23" s="32">
         <f>D23-D24</f>
         <v>0</v>
       </c>
       <c r="F23" s="6"/>
-      <c r="G23" s="33">
+      <c r="G23" s="32">
         <f t="shared" ref="G23" si="32">F23-F24+E23</f>
         <v>0</v>
       </c>
       <c r="H23" s="6">
         <v>500</v>
       </c>
-      <c r="I23" s="33">
+      <c r="I23" s="32">
         <f t="shared" ref="I23" si="33">H23-H24+G23</f>
         <v>500</v>
       </c>
@@ -2320,7 +2322,7 @@
         <f>LOCAL_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K23" s="33">
+      <c r="K23" s="32">
         <f t="shared" ref="K23" si="34">J23-J24+I23</f>
         <v>500</v>
       </c>
@@ -2328,7 +2330,7 @@
         <f>LOCAL_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M23" s="33">
+      <c r="M23" s="32">
         <f>L23-L24+K23</f>
         <v>500</v>
       </c>
@@ -2336,7 +2338,7 @@
         <f>LOCAL_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O23" s="33">
+      <c r="O23" s="32">
         <f>N23-N24+M23</f>
         <v>500</v>
       </c>
@@ -2344,89 +2346,89 @@
         <f>LOCAL_Clôtures!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q23" s="33" t="e">
+      <c r="Q23" s="32" t="e">
         <f t="shared" ref="Q23" si="35">P23-P24+O23</f>
         <v>#REF!</v>
       </c>
       <c r="R23" s="6"/>
-      <c r="S23" s="33" t="e">
-        <f>R23-R24+Q23</f>
-        <v>#REF!</v>
+      <c r="S23" s="32">
+        <f>R23-R24+O23</f>
+        <v>500</v>
       </c>
       <c r="T23" s="6"/>
-      <c r="U23" s="33" t="e">
+      <c r="U23" s="32">
         <f t="shared" ref="U23" si="36">T23-T24+S23</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="V23" s="6">
         <v>654.46</v>
       </c>
-      <c r="W23" s="44" t="e">
+      <c r="W23" s="48">
         <f t="shared" ref="W23" si="37">V23-V24+U23</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="24" spans="2:23" ht="15.5">
+        <v>654.46</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" ht="15.5" hidden="1">
       <c r="B24" s="9"/>
-      <c r="C24" s="43"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="33"/>
+      <c r="E24" s="32"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="33"/>
+      <c r="G24" s="32"/>
       <c r="H24" s="7"/>
-      <c r="I24" s="33"/>
+      <c r="I24" s="32"/>
       <c r="J24" s="7">
         <f>LOCAL_Clôtures!$B$8</f>
         <v>0</v>
       </c>
-      <c r="K24" s="33"/>
+      <c r="K24" s="32"/>
       <c r="L24" s="7">
         <f>LOCAL_Clôtures!$C$8</f>
         <v>0</v>
       </c>
-      <c r="M24" s="33"/>
+      <c r="M24" s="32"/>
       <c r="N24" s="7">
         <f>LOCAL_Clôtures!$D$8</f>
         <v>0</v>
       </c>
-      <c r="O24" s="33"/>
+      <c r="O24" s="32"/>
       <c r="P24" s="7" t="e">
         <f>LOCAL_Clôtures!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q24" s="33"/>
+      <c r="Q24" s="32"/>
       <c r="R24" s="7">
         <f>F23</f>
         <v>0</v>
       </c>
-      <c r="S24" s="33"/>
+      <c r="S24" s="32"/>
       <c r="T24" s="7">
         <f>H23</f>
         <v>500</v>
       </c>
-      <c r="U24" s="33"/>
+      <c r="U24" s="32"/>
       <c r="V24" s="7"/>
-      <c r="W24" s="44"/>
-    </row>
-    <row r="25" spans="2:23" ht="15.5">
+      <c r="W24" s="48"/>
+    </row>
+    <row r="25" spans="2:23" ht="15.5" hidden="1">
       <c r="B25" s="9"/>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="6"/>
-      <c r="E25" s="33">
+      <c r="E25" s="32">
         <f>D25-D26</f>
         <v>0</v>
       </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="33">
+      <c r="G25" s="32">
         <f t="shared" ref="G25" si="38">F25-F26+E25</f>
         <v>0</v>
       </c>
       <c r="H25" s="6">
         <v>150</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="32">
         <f t="shared" ref="I25" si="39">H25-H26+G25</f>
         <v>150</v>
       </c>
@@ -2434,7 +2436,7 @@
         <f>LOG_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K25" s="33">
+      <c r="K25" s="32">
         <f t="shared" ref="K25" si="40">J25-J26+I25</f>
         <v>150</v>
       </c>
@@ -2442,7 +2444,7 @@
         <f>LOG_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M25" s="33">
+      <c r="M25" s="32">
         <f>L25-L26+K25</f>
         <v>150</v>
       </c>
@@ -2450,7 +2452,7 @@
         <f>LOG_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O25" s="33">
+      <c r="O25" s="32">
         <f>N25-N26+M25</f>
         <v>150</v>
       </c>
@@ -2458,89 +2460,89 @@
         <f>LOG_Clôtures!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q25" s="33" t="e">
+      <c r="Q25" s="32" t="e">
         <f>P25-P26+O25</f>
         <v>#REF!</v>
       </c>
       <c r="R25" s="6"/>
-      <c r="S25" s="33" t="e">
-        <f>R25-R26+Q25</f>
-        <v>#REF!</v>
+      <c r="S25" s="32">
+        <f>R25-R26+O25</f>
+        <v>150</v>
       </c>
       <c r="T25" s="6"/>
-      <c r="U25" s="33" t="e">
+      <c r="U25" s="32">
         <f t="shared" ref="U25" si="41">T25-T26+S25</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="V25" s="6">
         <v>354.95</v>
       </c>
-      <c r="W25" s="44" t="e">
+      <c r="W25" s="48">
         <f t="shared" ref="W25" si="42">V25-V26+U25</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="26" spans="2:23" ht="15.5">
+        <v>354.95</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" ht="15.5" hidden="1">
       <c r="B26" s="9"/>
-      <c r="C26" s="43"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="33"/>
+      <c r="E26" s="32"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="33"/>
+      <c r="G26" s="32"/>
       <c r="H26" s="7"/>
-      <c r="I26" s="33"/>
+      <c r="I26" s="32"/>
       <c r="J26" s="7">
         <f>LOG_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K26" s="33"/>
+      <c r="K26" s="32"/>
       <c r="L26" s="7">
         <f>LOG_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M26" s="33"/>
+      <c r="M26" s="32"/>
       <c r="N26" s="7">
         <f>LOG_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O26" s="33"/>
+      <c r="O26" s="32"/>
       <c r="P26" s="7" t="e">
         <f>LOG_Clôtures!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q26" s="33"/>
+      <c r="Q26" s="32"/>
       <c r="R26" s="7">
         <f>F25</f>
         <v>0</v>
       </c>
-      <c r="S26" s="33"/>
+      <c r="S26" s="32"/>
       <c r="T26" s="7">
         <f>H25</f>
         <v>150</v>
       </c>
-      <c r="U26" s="33"/>
+      <c r="U26" s="32"/>
       <c r="V26" s="7"/>
-      <c r="W26" s="44"/>
-    </row>
-    <row r="27" spans="2:23" ht="15.5">
+      <c r="W26" s="48"/>
+    </row>
+    <row r="27" spans="2:23" ht="15.5" hidden="1">
       <c r="B27" s="9"/>
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="36" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="6"/>
-      <c r="E27" s="33">
+      <c r="E27" s="32">
         <f>D27-D28</f>
         <v>0</v>
       </c>
       <c r="F27" s="6"/>
-      <c r="G27" s="33">
+      <c r="G27" s="32">
         <f>F27-F28+E27</f>
         <v>0</v>
       </c>
       <c r="H27" s="6">
         <v>0</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="32">
         <f>H27-H28+G27</f>
         <v>0</v>
       </c>
@@ -2548,7 +2550,7 @@
         <f>MOBILITY_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K27" s="33">
+      <c r="K27" s="32">
         <f>J27-J28+I27</f>
         <v>0</v>
       </c>
@@ -2556,7 +2558,7 @@
         <f>MOBILITY_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M27" s="33">
+      <c r="M27" s="32">
         <f>L27-L28+K27</f>
         <v>0</v>
       </c>
@@ -2564,7 +2566,7 @@
         <f>MOBILITY_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O27" s="33">
+      <c r="O27" s="32">
         <f>N27-N28+M27</f>
         <v>0</v>
       </c>
@@ -2572,82 +2574,82 @@
         <f>MOBILITY_Clôtures!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q27" s="33" t="e">
+      <c r="Q27" s="32" t="e">
         <f>P27-P28+O27</f>
         <v>#REF!</v>
       </c>
       <c r="R27" s="6"/>
-      <c r="S27" s="33" t="e">
-        <f>R27-R28+Q27</f>
-        <v>#REF!</v>
+      <c r="S27" s="32">
+        <f>R27-R28+O27</f>
+        <v>0</v>
       </c>
       <c r="T27" s="6"/>
-      <c r="U27" s="33" t="e">
+      <c r="U27" s="32">
         <f>T27-T28+S27</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="V27" s="6">
         <v>1887.3</v>
       </c>
-      <c r="W27" s="44" t="e">
+      <c r="W27" s="48">
         <f>V27-V28+U27</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="28" spans="2:23" ht="15.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" ht="15.5" hidden="1">
       <c r="B28" s="9"/>
-      <c r="C28" s="43"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="33"/>
+      <c r="E28" s="32"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="33"/>
+      <c r="G28" s="32"/>
       <c r="H28" s="7"/>
-      <c r="I28" s="33"/>
+      <c r="I28" s="32"/>
       <c r="J28" s="7">
         <f>MOBILITY_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K28" s="33"/>
+      <c r="K28" s="32"/>
       <c r="L28" s="7">
         <f>MOBILITY_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M28" s="33"/>
+      <c r="M28" s="32"/>
       <c r="N28" s="7">
         <f>MOBILITY_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O28" s="33"/>
+      <c r="O28" s="32"/>
       <c r="P28" s="7" t="e">
         <f>MOBILITY_Clôtures!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q28" s="35"/>
+      <c r="Q28" s="47"/>
       <c r="R28" s="27">
         <f>F27</f>
         <v>0</v>
       </c>
-      <c r="S28" s="33"/>
+      <c r="S28" s="32"/>
       <c r="T28" s="27">
         <f>H27</f>
         <v>0</v>
       </c>
-      <c r="U28" s="35"/>
+      <c r="U28" s="47"/>
       <c r="V28" s="7">
         <v>1887.3</v>
       </c>
-      <c r="W28" s="44"/>
-    </row>
-    <row r="29" spans="2:23" ht="15.5">
-      <c r="B29" s="54" t="s">
+      <c r="W28" s="48"/>
+    </row>
+    <row r="29" spans="2:23" ht="15.5" hidden="1">
+      <c r="B29" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="55"/>
+      <c r="C29" s="38"/>
       <c r="D29" s="8">
         <f>D31+D33+D35+D37+D41+D43+D45+D47+D49+D51+D53+D55+D57+D59+D61</f>
         <v>0</v>
       </c>
-      <c r="E29" s="34">
+      <c r="E29" s="33">
         <f>D29-D30</f>
         <v>0</v>
       </c>
@@ -2655,7 +2657,7 @@
         <f>F31+F33+F35+F37+F41+F43+F45+F47+F49+F51+F53+F55+F57+F59+F61+F39</f>
         <v>7306.56</v>
       </c>
-      <c r="G29" s="34">
+      <c r="G29" s="33">
         <f>F29-F30</f>
         <v>7306.56</v>
       </c>
@@ -2663,7 +2665,7 @@
         <f>H31+H33+H35+H37+H41+H43+H45+H47+H49+H51+H5+H39+H533+H55+H57+H59+H61</f>
         <v>3511.1099999999997</v>
       </c>
-      <c r="I29" s="34">
+      <c r="I29" s="33">
         <f>H29-H30+G29</f>
         <v>10817.67</v>
       </c>
@@ -2671,7 +2673,7 @@
         <f>J31+J33+J35+J37+J41+J43+J45+J47+J49+J51+J53+J55+J57+J59+J61+J39</f>
         <v>0</v>
       </c>
-      <c r="K29" s="34">
+      <c r="K29" s="33">
         <f>J29-J30+I29</f>
         <v>10817.67</v>
       </c>
@@ -2679,7 +2681,7 @@
         <f>L31+L33+L35+L37+L41+L43+L45+L47+L51+L53+L55+L57+L59+L61+L39+L49</f>
         <v>0</v>
       </c>
-      <c r="M29" s="34">
+      <c r="M29" s="33">
         <f>L29-L30+K29</f>
         <v>10817.67</v>
       </c>
@@ -2687,7 +2689,7 @@
         <f>N31+N33+N35+N37+N41+N43+N45+N47+N51+N53+N55+N57+N59+N61+N39+N49</f>
         <v>0</v>
       </c>
-      <c r="O29" s="34">
+      <c r="O29" s="33">
         <f>N29-N30+M29</f>
         <v>10817.67</v>
       </c>
@@ -2695,7 +2697,7 @@
         <f>P31+P33+P35+P37+P41+P43+P45+P47+P51+P53+P55+P57+P59+P61+P39+P49</f>
         <v>#REF!</v>
       </c>
-      <c r="Q29" s="34" t="e">
+      <c r="Q29" s="33" t="e">
         <f>P29-P30+O29</f>
         <v>#REF!</v>
       </c>
@@ -2703,100 +2705,100 @@
         <f>R31+R33+R35+R37+R41+R43+R45+R47+R51+R53+R55+R57+R59+R61+R39+R49</f>
         <v>0</v>
       </c>
-      <c r="S29" s="34" t="e">
-        <f>R29-R30+Q29</f>
-        <v>#REF!</v>
+      <c r="S29" s="32">
+        <f>R29-R30+O29</f>
+        <v>3511.1099999999997</v>
       </c>
       <c r="T29" s="6">
         <f>T31+T33+T35+T37+T41+T43+T45+T47+T51+T53+T55+T57+T59+T61+T39+T49</f>
         <v>0</v>
       </c>
-      <c r="U29" s="33" t="e">
+      <c r="U29" s="32">
         <f>T29-T30+S29</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="V29" s="8">
         <f>V31+V33+V35+V37+V41+V43+V45+V47+V51+V53+V55+V57+V59+V61+V49+V39</f>
         <v>20168.759999999998</v>
       </c>
-      <c r="W29" s="34" t="e">
+      <c r="W29" s="33">
         <f>V29-V30+U29</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="30" spans="2:23" ht="15.5">
-      <c r="B30" s="56"/>
-      <c r="C30" s="57"/>
+        <v>5166.1699999999983</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" ht="15.5" hidden="1">
+      <c r="B30" s="39"/>
+      <c r="C30" s="40"/>
       <c r="D30" s="7">
         <f>D32+D34+D36+D38+D42+D44+D46+D48+D50+D52+D54+D56+D58+D60+D62</f>
         <v>0</v>
       </c>
-      <c r="E30" s="33"/>
+      <c r="E30" s="32"/>
       <c r="F30" s="7">
         <f>F32+F34+F36+F38+F42+F44+F46+F48+F50+F52+F54+F56++F40+F58+F60+F62</f>
         <v>0</v>
       </c>
-      <c r="G30" s="33"/>
+      <c r="G30" s="32"/>
       <c r="H30" s="7">
         <f>H32+H34+H36+H38+H42+H44+H46+H48+H50+H52+H54+H40+H56+H58+H60+H56+H62</f>
         <v>0</v>
       </c>
-      <c r="I30" s="33"/>
+      <c r="I30" s="32"/>
       <c r="J30" s="7">
         <f>J32+J34+J36+J38+J42+J44+J46+J48+J50+J52+J54+J56+J58+J60+J62+J40+J62</f>
         <v>0</v>
       </c>
-      <c r="K30" s="33"/>
+      <c r="K30" s="32"/>
       <c r="L30" s="7">
         <f>L32+L34+L36+L38+L42+L44+L46+L48+L52+L54+L56+L58+L60+L62+L40+L50</f>
         <v>0</v>
       </c>
-      <c r="M30" s="33"/>
+      <c r="M30" s="32"/>
       <c r="N30" s="7">
         <f>N32+N34+N36+N38+N42+N44+N46+N48+N52+N54+N56+N58+N60+N62+N40+N50</f>
         <v>0</v>
       </c>
-      <c r="O30" s="33"/>
+      <c r="O30" s="32"/>
       <c r="P30" s="7" t="e">
         <f>P32+P34+P36+P38+P42+P44+P46+P48+P52+P54+P56+P58+P60+P62+P40+P50</f>
         <v>#REF!</v>
       </c>
-      <c r="Q30" s="33"/>
+      <c r="Q30" s="58"/>
       <c r="R30" s="7">
         <f>R32+R34+R36+R38+R42+R44+R46+R48+R52+R54+R56+R58+R60+R62+R40+R50</f>
         <v>7306.56</v>
       </c>
-      <c r="S30" s="33"/>
+      <c r="S30" s="32"/>
       <c r="T30" s="7">
         <f>T32+T34+T36+T38+T42+T44+T46+T48+T52+T54+T56+T58+T60+T62+T40+T50</f>
         <v>3511.1099999999997</v>
       </c>
-      <c r="U30" s="33"/>
+      <c r="U30" s="32"/>
       <c r="V30" s="7">
         <f>V32+V34+V36+V38+V42+V44+V46+V48+V52+V54+V56+V58+V60+V62+V40+V50</f>
         <v>15002.59</v>
       </c>
-      <c r="W30" s="33"/>
-    </row>
-    <row r="31" spans="2:23" ht="15.5">
+      <c r="W30" s="32"/>
+    </row>
+    <row r="31" spans="2:23" ht="15.5" hidden="1">
       <c r="B31" s="9"/>
-      <c r="C31" s="43" t="s">
+      <c r="C31" s="36" t="s">
         <v>21</v>
       </c>
       <c r="D31" s="6"/>
-      <c r="E31" s="33">
+      <c r="E31" s="32">
         <f>D31-D32</f>
         <v>0</v>
       </c>
       <c r="F31" s="6"/>
-      <c r="G31" s="33">
+      <c r="G31" s="32">
         <f>F31-F32+E31</f>
         <v>0</v>
       </c>
       <c r="H31" s="6">
         <v>47.5</v>
       </c>
-      <c r="I31" s="33">
+      <c r="I31" s="32">
         <f>H31-H32+G31</f>
         <v>47.5</v>
       </c>
@@ -2804,7 +2806,7 @@
         <f>REBUILT_Clôtures!$B$2</f>
         <v>0</v>
       </c>
-      <c r="K31" s="33">
+      <c r="K31" s="32">
         <f>J31-J32+I31</f>
         <v>47.5</v>
       </c>
@@ -2812,7 +2814,7 @@
         <f>REBUILT_Clôtures!$C$2</f>
         <v>0</v>
       </c>
-      <c r="M31" s="33">
+      <c r="M31" s="32">
         <f>L31-L32+K31</f>
         <v>47.5</v>
       </c>
@@ -2820,7 +2822,7 @@
         <f>REBUILT_Clôtures!$D$2</f>
         <v>0</v>
       </c>
-      <c r="O31" s="33">
+      <c r="O31" s="32">
         <f>N31-N32+M31</f>
         <v>47.5</v>
       </c>
@@ -2828,91 +2830,91 @@
         <f>REBUILT_Clôtures!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q31" s="33" t="e">
+      <c r="Q31" s="32" t="e">
         <f t="shared" ref="Q31" si="43">P31-P32+O31</f>
         <v>#REF!</v>
       </c>
       <c r="R31" s="6"/>
-      <c r="S31" s="33" t="e">
-        <f>R31-R32+Q31</f>
-        <v>#REF!</v>
+      <c r="S31" s="32">
+        <f>R31-R32+O31</f>
+        <v>47.5</v>
       </c>
       <c r="T31" s="6"/>
-      <c r="U31" s="33" t="e">
+      <c r="U31" s="32">
         <f t="shared" ref="U31" si="44">T31-T32+S31</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="V31" s="6">
         <v>720.75</v>
       </c>
-      <c r="W31" s="33" t="e">
+      <c r="W31" s="32">
         <f>V31-V32+U31</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="32" spans="2:23" ht="15.5">
+        <v>646.15</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" ht="15.5" hidden="1">
       <c r="B32" s="9"/>
-      <c r="C32" s="43"/>
+      <c r="C32" s="36"/>
       <c r="D32" s="7"/>
-      <c r="E32" s="33"/>
+      <c r="E32" s="32"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="33"/>
+      <c r="G32" s="32"/>
       <c r="H32" s="7"/>
-      <c r="I32" s="33"/>
+      <c r="I32" s="32"/>
       <c r="J32" s="7">
         <f>REBUILT_Clôtures!$B$4</f>
         <v>0</v>
       </c>
-      <c r="K32" s="33"/>
+      <c r="K32" s="32"/>
       <c r="L32" s="7">
         <f>REBUILT_Clôtures!$C$4</f>
         <v>0</v>
       </c>
-      <c r="M32" s="33"/>
+      <c r="M32" s="32"/>
       <c r="N32" s="7">
         <f>REBUILT_Clôtures!$D$4</f>
         <v>0</v>
       </c>
-      <c r="O32" s="33"/>
+      <c r="O32" s="32"/>
       <c r="P32" s="7" t="e">
         <f>REBUILT_Clôtures!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q32" s="33"/>
+      <c r="Q32" s="32"/>
       <c r="R32" s="7">
         <f>F31</f>
         <v>0</v>
       </c>
-      <c r="S32" s="33"/>
+      <c r="S32" s="32"/>
       <c r="T32" s="7">
         <f>H31</f>
         <v>47.5</v>
       </c>
-      <c r="U32" s="33"/>
+      <c r="U32" s="32"/>
       <c r="V32" s="7">
         <v>74.599999999999994</v>
       </c>
-      <c r="W32" s="33"/>
-    </row>
-    <row r="33" spans="2:23" ht="15.5">
+      <c r="W32" s="32"/>
+    </row>
+    <row r="33" spans="2:23" ht="15.5" hidden="1">
       <c r="B33" s="9"/>
-      <c r="C33" s="43" t="s">
+      <c r="C33" s="36" t="s">
         <v>22</v>
       </c>
       <c r="D33" s="6"/>
-      <c r="E33" s="33">
+      <c r="E33" s="32">
         <f>D33-D34</f>
         <v>0</v>
       </c>
       <c r="F33" s="6"/>
-      <c r="G33" s="33">
+      <c r="G33" s="32">
         <f t="shared" ref="G33" si="45">F33-F34+E33</f>
         <v>0</v>
       </c>
       <c r="H33" s="6">
         <v>700</v>
       </c>
-      <c r="I33" s="33">
+      <c r="I33" s="32">
         <f t="shared" ref="I33" si="46">H33-H34+G33</f>
         <v>700</v>
       </c>
@@ -2920,7 +2922,7 @@
         <f>API_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K33" s="33">
+      <c r="K33" s="32">
         <f t="shared" ref="K33" si="47">J33-J34+I33</f>
         <v>700</v>
       </c>
@@ -2928,7 +2930,7 @@
         <f>API_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M33" s="33">
+      <c r="M33" s="32">
         <f t="shared" ref="M33" si="48">L33-L34+K33</f>
         <v>700</v>
       </c>
@@ -2936,7 +2938,7 @@
         <f>API_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O33" s="33">
+      <c r="O33" s="32">
         <f t="shared" ref="O33" si="49">N33-N34+M33</f>
         <v>700</v>
       </c>
@@ -2944,89 +2946,89 @@
         <f>API_Clôtures!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q33" s="33" t="e">
+      <c r="Q33" s="32" t="e">
         <f t="shared" ref="Q33" si="50">P33-P34+O33</f>
         <v>#REF!</v>
       </c>
       <c r="R33" s="6"/>
-      <c r="S33" s="33" t="e">
-        <f>R33-R34+Q33</f>
-        <v>#REF!</v>
+      <c r="S33" s="32">
+        <f>R33-R34+O33</f>
+        <v>700</v>
       </c>
       <c r="T33" s="6"/>
-      <c r="U33" s="33" t="e">
+      <c r="U33" s="32">
         <f t="shared" ref="U33" si="51">T33-T34+S33</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="V33" s="6">
         <v>917.79</v>
       </c>
-      <c r="W33" s="33" t="e">
+      <c r="W33" s="32">
         <f t="shared" ref="W33" si="52">V33-V34+U33</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" ht="15.5">
+        <v>917.79</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" ht="15.5" hidden="1">
       <c r="B34" s="9"/>
-      <c r="C34" s="43"/>
+      <c r="C34" s="36"/>
       <c r="D34" s="7"/>
-      <c r="E34" s="33"/>
+      <c r="E34" s="32"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="33"/>
+      <c r="G34" s="32"/>
       <c r="H34" s="7"/>
-      <c r="I34" s="33"/>
+      <c r="I34" s="32"/>
       <c r="J34" s="7">
         <f>API_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K34" s="33"/>
+      <c r="K34" s="32"/>
       <c r="L34" s="7">
         <f>API_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M34" s="33"/>
+      <c r="M34" s="32"/>
       <c r="N34" s="7">
         <f>API_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O34" s="33"/>
+      <c r="O34" s="32"/>
       <c r="P34" s="7" t="e">
         <f>API_Clôtures!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q34" s="33"/>
+      <c r="Q34" s="32"/>
       <c r="R34" s="7">
         <f>F33</f>
         <v>0</v>
       </c>
-      <c r="S34" s="33"/>
+      <c r="S34" s="32"/>
       <c r="T34" s="7">
         <f>H33</f>
         <v>700</v>
       </c>
-      <c r="U34" s="33"/>
+      <c r="U34" s="32"/>
       <c r="V34" s="7"/>
-      <c r="W34" s="33"/>
-    </row>
-    <row r="35" spans="2:23" ht="15.5">
+      <c r="W34" s="32"/>
+    </row>
+    <row r="35" spans="2:23" ht="15.5" hidden="1">
       <c r="B35" s="9"/>
-      <c r="C35" s="43" t="s">
+      <c r="C35" s="36" t="s">
         <v>23</v>
       </c>
       <c r="D35" s="6"/>
-      <c r="E35" s="33">
+      <c r="E35" s="32">
         <f>D35-D36</f>
         <v>0</v>
       </c>
       <c r="F35" s="6"/>
-      <c r="G35" s="33">
+      <c r="G35" s="32">
         <f t="shared" ref="G35" si="53">F35-F36+E35</f>
         <v>0</v>
       </c>
       <c r="H35" s="6">
         <v>1851.35</v>
       </c>
-      <c r="I35" s="33">
+      <c r="I35" s="32">
         <f t="shared" ref="I35" si="54">H35-H36+G35</f>
         <v>1851.35</v>
       </c>
@@ -3034,7 +3036,7 @@
         <f>CANARD_Clôtures!$B$4</f>
         <v>0</v>
       </c>
-      <c r="K35" s="33">
+      <c r="K35" s="32">
         <f t="shared" ref="K35" si="55">J35-J36+I35</f>
         <v>1851.35</v>
       </c>
@@ -3042,7 +3044,7 @@
         <f>CANARD_Clôtures!$C$4</f>
         <v>0</v>
       </c>
-      <c r="M35" s="33">
+      <c r="M35" s="32">
         <f t="shared" ref="M35" si="56">L35-L36+K35</f>
         <v>1851.35</v>
       </c>
@@ -3050,7 +3052,7 @@
         <f>CANARD_Clôtures!$D$4</f>
         <v>0</v>
       </c>
-      <c r="O35" s="33">
+      <c r="O35" s="32">
         <f t="shared" ref="O35" si="57">N35-N36+M35</f>
         <v>1851.35</v>
       </c>
@@ -3058,93 +3060,93 @@
         <f>CANARD_Clôtures!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q35" s="33" t="e">
+      <c r="Q35" s="32" t="e">
         <f t="shared" ref="Q35" si="58">P35-P36+O35</f>
         <v>#REF!</v>
       </c>
       <c r="R35" s="6"/>
-      <c r="S35" s="33" t="e">
-        <f>R35-R36+Q35</f>
-        <v>#REF!</v>
+      <c r="S35" s="32">
+        <f>R35-R36+O35</f>
+        <v>1851.35</v>
       </c>
       <c r="T35" s="6"/>
-      <c r="U35" s="33" t="e">
+      <c r="U35" s="32">
         <f t="shared" ref="U35" si="59">T35-T36+S35</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="V35" s="6">
         <v>2463.1999999999998</v>
       </c>
-      <c r="W35" s="33" t="e">
+      <c r="W35" s="32">
         <f t="shared" ref="W35" si="60">V35-V36+U35</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="36" spans="2:23" ht="15.5">
+        <v>1821.35</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" ht="15.5" hidden="1">
       <c r="B36" s="9"/>
-      <c r="C36" s="43"/>
+      <c r="C36" s="36"/>
       <c r="D36" s="7"/>
-      <c r="E36" s="33"/>
+      <c r="E36" s="32"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="33"/>
+      <c r="G36" s="32"/>
       <c r="H36" s="7"/>
-      <c r="I36" s="33"/>
+      <c r="I36" s="32"/>
       <c r="J36" s="7">
         <f>CANARD_Clôtures!$B$6</f>
         <v>0</v>
       </c>
-      <c r="K36" s="33"/>
+      <c r="K36" s="32"/>
       <c r="L36" s="7">
         <f>CANARD_Clôtures!$C$6</f>
         <v>0</v>
       </c>
-      <c r="M36" s="33"/>
+      <c r="M36" s="32"/>
       <c r="N36" s="7">
         <f>CANARD_Clôtures!$D$6</f>
         <v>0</v>
       </c>
-      <c r="O36" s="33"/>
+      <c r="O36" s="32"/>
       <c r="P36" s="7" t="e">
         <f>CANARD_Clôtures!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q36" s="33"/>
+      <c r="Q36" s="32"/>
       <c r="R36" s="7">
         <f>F35</f>
         <v>0</v>
       </c>
-      <c r="S36" s="33"/>
+      <c r="S36" s="32"/>
       <c r="T36" s="7">
         <f>H35</f>
         <v>1851.35</v>
       </c>
-      <c r="U36" s="33"/>
+      <c r="U36" s="32"/>
       <c r="V36" s="7">
         <v>641.85</v>
       </c>
-      <c r="W36" s="33"/>
-    </row>
-    <row r="37" spans="2:23" ht="15.5">
+      <c r="W36" s="32"/>
+    </row>
+    <row r="37" spans="2:23" ht="15.5" hidden="1">
       <c r="B37" s="9"/>
-      <c r="C37" s="43" t="s">
+      <c r="C37" s="36" t="s">
         <v>24</v>
       </c>
       <c r="D37" s="6"/>
-      <c r="E37" s="33">
+      <c r="E37" s="32">
         <f>D37-D38</f>
         <v>0</v>
       </c>
       <c r="F37" s="6">
         <v>3472.78</v>
       </c>
-      <c r="G37" s="33">
+      <c r="G37" s="32">
         <f t="shared" ref="G37" si="61">F37-F38+E37</f>
         <v>3472.78</v>
       </c>
       <c r="H37" s="6">
         <v>0</v>
       </c>
-      <c r="I37" s="33">
+      <c r="I37" s="32">
         <f t="shared" ref="I37" si="62">H37-H38+G37</f>
         <v>3472.78</v>
       </c>
@@ -3152,7 +3154,7 @@
         <f>CASTOR_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K37" s="33">
+      <c r="K37" s="32">
         <f t="shared" ref="K37" si="63">J37-J38+I37</f>
         <v>3472.78</v>
       </c>
@@ -3160,7 +3162,7 @@
         <f>CASTOR_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M37" s="33">
+      <c r="M37" s="32">
         <f t="shared" ref="M37" si="64">L37-L38+K37</f>
         <v>3472.78</v>
       </c>
@@ -3168,7 +3170,7 @@
         <f>CASTOR_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O37" s="33">
+      <c r="O37" s="32">
         <f t="shared" ref="O37" si="65">N37-N38+M37</f>
         <v>3472.78</v>
       </c>
@@ -3176,91 +3178,91 @@
         <f>CASTOR_Clôtures!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q37" s="33" t="e">
+      <c r="Q37" s="32" t="e">
         <f t="shared" ref="Q37" si="66">P37-P38+O37</f>
         <v>#REF!</v>
       </c>
       <c r="R37" s="6"/>
-      <c r="S37" s="33" t="e">
-        <f>R37-R38+Q37</f>
-        <v>#REF!</v>
+      <c r="S37" s="32">
+        <f>R37-R38+O37</f>
+        <v>0</v>
       </c>
       <c r="T37" s="6"/>
-      <c r="U37" s="33" t="e">
+      <c r="U37" s="32">
         <f t="shared" ref="U37" si="67">T37-T38+S37</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="V37" s="6">
         <v>1445.73</v>
       </c>
-      <c r="W37" s="45" t="e">
+      <c r="W37" s="53">
         <f t="shared" ref="W37" si="68">V37-V38+U37</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="38" spans="2:23" ht="15.5">
+        <v>-933.56</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" ht="15.5" hidden="1">
       <c r="B38" s="9"/>
-      <c r="C38" s="43"/>
+      <c r="C38" s="36"/>
       <c r="D38" s="7"/>
-      <c r="E38" s="33"/>
+      <c r="E38" s="32"/>
       <c r="F38" s="7"/>
-      <c r="G38" s="33"/>
+      <c r="G38" s="32"/>
       <c r="H38" s="7"/>
-      <c r="I38" s="33"/>
+      <c r="I38" s="32"/>
       <c r="J38" s="7">
         <f>CASTOR_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K38" s="33"/>
+      <c r="K38" s="32"/>
       <c r="L38" s="7">
         <f>CASTOR_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M38" s="33"/>
+      <c r="M38" s="32"/>
       <c r="N38" s="7">
         <f>CASTOR_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O38" s="33"/>
+      <c r="O38" s="32"/>
       <c r="P38" s="7" t="e">
         <f>CASTOR_Clôtures!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q38" s="33"/>
+      <c r="Q38" s="32"/>
       <c r="R38" s="7">
         <f>F37</f>
         <v>3472.78</v>
       </c>
-      <c r="S38" s="33"/>
+      <c r="S38" s="32"/>
       <c r="T38" s="7">
         <f>H37</f>
         <v>0</v>
       </c>
-      <c r="U38" s="33"/>
+      <c r="U38" s="32"/>
       <c r="V38" s="7">
         <v>2379.29</v>
       </c>
-      <c r="W38" s="45"/>
-    </row>
-    <row r="39" spans="2:23" ht="15.5">
+      <c r="W38" s="53"/>
+    </row>
+    <row r="39" spans="2:23" ht="15.5" hidden="1">
       <c r="B39" s="9"/>
-      <c r="C39" s="43" t="s">
+      <c r="C39" s="36" t="s">
         <v>34</v>
       </c>
       <c r="D39" s="6"/>
-      <c r="E39" s="33">
+      <c r="E39" s="32">
         <f>D39-D40</f>
         <v>0</v>
       </c>
       <c r="F39" s="6"/>
-      <c r="G39" s="33">
+      <c r="G39" s="32">
         <f t="shared" ref="G39" si="69">F39-F40+E39</f>
         <v>0</v>
       </c>
       <c r="H39" s="6">
         <v>0</v>
       </c>
-      <c r="I39" s="33">
+      <c r="I39" s="32">
         <f t="shared" ref="I39" si="70">H39-H40+G39</f>
         <v>0</v>
       </c>
@@ -3268,7 +3270,7 @@
         <f>DEBOUC_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K39" s="33">
+      <c r="K39" s="32">
         <f t="shared" ref="K39" si="71">J39-J40+I39</f>
         <v>0</v>
       </c>
@@ -3276,7 +3278,7 @@
         <f>DEBOUC_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M39" s="33">
+      <c r="M39" s="32">
         <f t="shared" ref="M39" si="72">L39-L40+K39</f>
         <v>0</v>
       </c>
@@ -3284,7 +3286,7 @@
         <f>DEBOUC_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O39" s="33">
+      <c r="O39" s="32">
         <f t="shared" ref="O39" si="73">N39-N40+M39</f>
         <v>0</v>
       </c>
@@ -3292,89 +3294,89 @@
         <f>DEBOUC_Clôtures!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q39" s="33" t="e">
+      <c r="Q39" s="32" t="e">
         <f t="shared" ref="Q39" si="74">P39-P40+O39</f>
         <v>#REF!</v>
       </c>
       <c r="R39" s="6"/>
-      <c r="S39" s="33" t="e">
-        <f>R39-R40+Q39</f>
-        <v>#REF!</v>
+      <c r="S39" s="32">
+        <f>R39-R40+O39</f>
+        <v>0</v>
       </c>
       <c r="T39" s="6"/>
-      <c r="U39" s="33" t="e">
+      <c r="U39" s="32">
         <f t="shared" ref="U39" si="75">T39-T40+S39</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="V39" s="6">
         <v>128.69999999999999</v>
       </c>
-      <c r="W39" s="33" t="e">
+      <c r="W39" s="32">
         <f t="shared" ref="W39" si="76">V39-V40+U39</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="40" spans="2:23" ht="15.5">
+        <v>128.69999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" ht="15.5" hidden="1">
       <c r="B40" s="9"/>
-      <c r="C40" s="43"/>
+      <c r="C40" s="36"/>
       <c r="D40" s="7"/>
-      <c r="E40" s="33"/>
+      <c r="E40" s="32"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="33"/>
+      <c r="G40" s="32"/>
       <c r="H40" s="7"/>
-      <c r="I40" s="33"/>
+      <c r="I40" s="32"/>
       <c r="J40" s="7">
         <f>DEBOUC_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K40" s="33"/>
+      <c r="K40" s="32"/>
       <c r="L40" s="7">
         <f>DEBOUC_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M40" s="33"/>
+      <c r="M40" s="32"/>
       <c r="N40" s="7">
         <f>DEBOUC_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O40" s="33"/>
+      <c r="O40" s="32"/>
       <c r="P40" s="7" t="e">
         <f>DEBOUC_Clôtures!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q40" s="33"/>
+      <c r="Q40" s="32"/>
       <c r="R40" s="7">
         <f>F39</f>
         <v>0</v>
       </c>
-      <c r="S40" s="33"/>
+      <c r="S40" s="32"/>
       <c r="T40" s="7">
         <f>H39</f>
         <v>0</v>
       </c>
-      <c r="U40" s="33"/>
+      <c r="U40" s="32"/>
       <c r="V40" s="7"/>
-      <c r="W40" s="33"/>
-    </row>
-    <row r="41" spans="2:23" ht="15.5">
+      <c r="W40" s="32"/>
+    </row>
+    <row r="41" spans="2:23" ht="15.5" hidden="1">
       <c r="B41" s="9"/>
-      <c r="C41" s="43" t="s">
+      <c r="C41" s="36" t="s">
         <v>25</v>
       </c>
       <c r="D41" s="6"/>
-      <c r="E41" s="33">
+      <c r="E41" s="32">
         <f>D41-D42</f>
         <v>0</v>
       </c>
       <c r="F41" s="6"/>
-      <c r="G41" s="33">
+      <c r="G41" s="32">
         <f t="shared" ref="G41" si="77">F41-F42+E41</f>
         <v>0</v>
       </c>
       <c r="H41" s="6">
         <v>50</v>
       </c>
-      <c r="I41" s="33">
+      <c r="I41" s="32">
         <f t="shared" ref="I41" si="78">H41-H42+G41</f>
         <v>50</v>
       </c>
@@ -3382,7 +3384,7 @@
         <f>EVA_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K41" s="33">
+      <c r="K41" s="32">
         <f t="shared" ref="K41" si="79">J41-J42+I41</f>
         <v>50</v>
       </c>
@@ -3390,7 +3392,7 @@
         <f>EVA_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M41" s="33">
+      <c r="M41" s="32">
         <f t="shared" ref="M41" si="80">L41-L42+K41</f>
         <v>50</v>
       </c>
@@ -3398,7 +3400,7 @@
         <f>EVA_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O41" s="33">
+      <c r="O41" s="32">
         <f t="shared" ref="O41" si="81">N41-N42+M41</f>
         <v>50</v>
       </c>
@@ -3406,91 +3408,91 @@
         <f>EVA_Clôtures!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q41" s="33" t="e">
+      <c r="Q41" s="32" t="e">
         <f t="shared" ref="Q41" si="82">P41-P42+O41</f>
         <v>#REF!</v>
       </c>
       <c r="R41" s="6"/>
-      <c r="S41" s="33" t="e">
-        <f>R41-R42+Q41</f>
-        <v>#REF!</v>
+      <c r="S41" s="32">
+        <f>R41-R42+O41</f>
+        <v>50</v>
       </c>
       <c r="T41" s="6"/>
-      <c r="U41" s="33" t="e">
+      <c r="U41" s="32">
         <f t="shared" ref="U41" si="83">T41-T42+S41</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="V41" s="6">
         <v>81.900000000000006</v>
       </c>
-      <c r="W41" s="33" t="e">
+      <c r="W41" s="32">
         <f t="shared" ref="W41" si="84">V41-V42+U41</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" ht="15.5">
+        <v>-33.049999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" ht="15.5" hidden="1">
       <c r="B42" s="9"/>
-      <c r="C42" s="43"/>
+      <c r="C42" s="36"/>
       <c r="D42" s="7"/>
-      <c r="E42" s="33"/>
+      <c r="E42" s="32"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="33"/>
+      <c r="G42" s="32"/>
       <c r="H42" s="7"/>
-      <c r="I42" s="33"/>
+      <c r="I42" s="32"/>
       <c r="J42" s="7">
         <f>EVA_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K42" s="33"/>
+      <c r="K42" s="32"/>
       <c r="L42" s="7">
         <f>EVA_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M42" s="33"/>
+      <c r="M42" s="32"/>
       <c r="N42" s="7">
         <f>EVA_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O42" s="33"/>
+      <c r="O42" s="32"/>
       <c r="P42" s="7" t="e">
         <f>EVA_Clôtures!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q42" s="33"/>
+      <c r="Q42" s="32"/>
       <c r="R42" s="7">
         <f>F41</f>
         <v>0</v>
       </c>
-      <c r="S42" s="33"/>
+      <c r="S42" s="32"/>
       <c r="T42" s="7">
         <f>H41</f>
         <v>50</v>
       </c>
-      <c r="U42" s="33"/>
+      <c r="U42" s="32"/>
       <c r="V42" s="7">
         <v>114.95</v>
       </c>
-      <c r="W42" s="33"/>
-    </row>
-    <row r="43" spans="2:23" ht="15.5">
+      <c r="W42" s="32"/>
+    </row>
+    <row r="43" spans="2:23" ht="15.5" hidden="1">
       <c r="B43" s="9"/>
-      <c r="C43" s="43" t="s">
+      <c r="C43" s="36" t="s">
         <v>26</v>
       </c>
       <c r="D43" s="6"/>
-      <c r="E43" s="33">
+      <c r="E43" s="32">
         <f>D43-D44</f>
         <v>0</v>
       </c>
       <c r="F43" s="6"/>
-      <c r="G43" s="33">
+      <c r="G43" s="32">
         <f>F43-F44+E43</f>
         <v>0</v>
       </c>
       <c r="H43" s="6">
         <v>0</v>
       </c>
-      <c r="I43" s="33">
+      <c r="I43" s="32">
         <f t="shared" ref="I43" si="85">H43-H44+G43</f>
         <v>0</v>
       </c>
@@ -3498,7 +3500,7 @@
         <f>EPILIBRE_Clôtures!B2</f>
         <v>0</v>
       </c>
-      <c r="K43" s="33">
+      <c r="K43" s="32">
         <f t="shared" ref="K43" si="86">J43-J44+I43</f>
         <v>0</v>
       </c>
@@ -3506,7 +3508,7 @@
         <f>EPILIBRE_Clôtures!C2</f>
         <v>0</v>
       </c>
-      <c r="M43" s="33">
+      <c r="M43" s="32">
         <f t="shared" ref="M43" si="87">L43-L44+K43</f>
         <v>0</v>
       </c>
@@ -3514,7 +3516,7 @@
         <f>EPILIBRE_Clôtures!D2</f>
         <v>0</v>
       </c>
-      <c r="O43" s="33">
+      <c r="O43" s="32">
         <f t="shared" ref="O43" si="88">N43-N44+M43</f>
         <v>0</v>
       </c>
@@ -3522,91 +3524,91 @@
         <f>EPILIBRE_Clôtures!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q43" s="33" t="e">
+      <c r="Q43" s="32" t="e">
         <f t="shared" ref="Q43" si="89">P43-P44+O43</f>
         <v>#REF!</v>
       </c>
       <c r="R43" s="6"/>
-      <c r="S43" s="33" t="e">
-        <f>R43-R44+Q43</f>
-        <v>#REF!</v>
+      <c r="S43" s="32">
+        <f>R43-R44+O43</f>
+        <v>0</v>
       </c>
       <c r="T43" s="6"/>
-      <c r="U43" s="33" t="e">
+      <c r="U43" s="32">
         <f t="shared" ref="U43" si="90">T43-T44+S43</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="V43" s="6">
         <v>351.1</v>
       </c>
-      <c r="W43" s="33" t="e">
+      <c r="W43" s="32">
         <f t="shared" ref="W43:W45" si="91">V43-V44+U43</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" ht="15.5">
+        <v>173.35000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" ht="15.5" hidden="1">
       <c r="B44" s="9"/>
-      <c r="C44" s="43"/>
+      <c r="C44" s="36"/>
       <c r="D44" s="7"/>
-      <c r="E44" s="33"/>
+      <c r="E44" s="32"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="33"/>
+      <c r="G44" s="32"/>
       <c r="H44" s="7"/>
-      <c r="I44" s="33"/>
+      <c r="I44" s="32"/>
       <c r="J44" s="7">
         <f>EPILIBRE_Clôtures!B5</f>
         <v>0</v>
       </c>
-      <c r="K44" s="33"/>
+      <c r="K44" s="32"/>
       <c r="L44" s="7">
         <f>EPILIBRE_Clôtures!C5</f>
         <v>0</v>
       </c>
-      <c r="M44" s="33"/>
+      <c r="M44" s="32"/>
       <c r="N44" s="7">
         <f>EPILIBRE_Clôtures!D5</f>
         <v>0</v>
       </c>
-      <c r="O44" s="33"/>
+      <c r="O44" s="32"/>
       <c r="P44" s="7" t="e">
         <f>EPILIBRE_Clôtures!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q44" s="33"/>
+      <c r="Q44" s="32"/>
       <c r="R44" s="7">
         <f>F43</f>
         <v>0</v>
       </c>
-      <c r="S44" s="33"/>
+      <c r="S44" s="32"/>
       <c r="T44" s="7">
         <f>H43</f>
         <v>0</v>
       </c>
-      <c r="U44" s="33"/>
+      <c r="U44" s="32"/>
       <c r="V44" s="7">
         <v>177.75</v>
       </c>
-      <c r="W44" s="33"/>
-    </row>
-    <row r="45" spans="2:23" ht="15.5">
+      <c r="W44" s="32"/>
+    </row>
+    <row r="45" spans="2:23" ht="15.5" hidden="1">
       <c r="B45" s="9"/>
-      <c r="C45" s="43"/>
+      <c r="C45" s="36"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="33">
+      <c r="E45" s="32">
         <f>D45-D46</f>
         <v>0</v>
       </c>
       <c r="F45" s="6">
         <v>3833.78</v>
       </c>
-      <c r="G45" s="33">
+      <c r="G45" s="32">
         <f>F45-F46+E45</f>
         <v>3833.78</v>
       </c>
       <c r="H45" s="6">
         <v>0</v>
       </c>
-      <c r="I45" s="33">
+      <c r="I45" s="32">
         <f t="shared" ref="I45" si="92">H45-H46+G45</f>
         <v>3833.78</v>
       </c>
@@ -3614,7 +3616,7 @@
         <f>EPILIBRE_Clôtures!B3</f>
         <v>0</v>
       </c>
-      <c r="K45" s="33">
+      <c r="K45" s="32">
         <f t="shared" ref="K45" si="93">J45-J46+I45</f>
         <v>3833.78</v>
       </c>
@@ -3622,7 +3624,7 @@
         <f>EPILIBRE_Clôtures!C3</f>
         <v>0</v>
       </c>
-      <c r="M45" s="33">
+      <c r="M45" s="32">
         <f t="shared" ref="M45" si="94">L45-L46+K45</f>
         <v>3833.78</v>
       </c>
@@ -3630,7 +3632,7 @@
         <f>EPILIBRE_Clôtures!D3</f>
         <v>0</v>
       </c>
-      <c r="O45" s="33">
+      <c r="O45" s="32">
         <f t="shared" ref="O45" si="95">N45-N46+M45</f>
         <v>3833.78</v>
       </c>
@@ -3638,91 +3640,91 @@
         <f>EPILIBRE_Clôtures!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q45" s="33" t="e">
+      <c r="Q45" s="32" t="e">
         <f t="shared" ref="Q45" si="96">P45-P46+O45</f>
         <v>#REF!</v>
       </c>
       <c r="R45" s="6"/>
-      <c r="S45" s="33" t="e">
-        <f>R45-R46+Q45</f>
-        <v>#REF!</v>
+      <c r="S45" s="32">
+        <f>R45-R46+O45</f>
+        <v>0</v>
       </c>
       <c r="T45" s="6"/>
-      <c r="U45" s="33" t="e">
+      <c r="U45" s="32">
         <f t="shared" ref="U45" si="97">T45-T46+S45</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="V45" s="6">
         <v>1588.28</v>
       </c>
-      <c r="W45" s="45" t="e">
+      <c r="W45" s="53">
         <f t="shared" si="91"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" ht="15.5">
+        <v>-181.04999999999995</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" ht="15.5" hidden="1">
       <c r="B46" s="9"/>
-      <c r="C46" s="43"/>
+      <c r="C46" s="36"/>
       <c r="D46" s="7"/>
-      <c r="E46" s="33"/>
+      <c r="E46" s="32"/>
       <c r="F46" s="7"/>
-      <c r="G46" s="33"/>
+      <c r="G46" s="32"/>
       <c r="H46" s="7"/>
-      <c r="I46" s="33"/>
+      <c r="I46" s="32"/>
       <c r="J46" s="7">
         <f>EPILIBRE_Clôtures!B6</f>
         <v>0</v>
       </c>
-      <c r="K46" s="33"/>
+      <c r="K46" s="32"/>
       <c r="L46" s="7">
         <f>EPILIBRE_Clôtures!C6</f>
         <v>0</v>
       </c>
-      <c r="M46" s="33"/>
+      <c r="M46" s="32"/>
       <c r="N46" s="7">
         <f>EPILIBRE_Clôtures!D6</f>
         <v>0</v>
       </c>
-      <c r="O46" s="33"/>
+      <c r="O46" s="32"/>
       <c r="P46" s="7" t="e">
         <f>EPILIBRE_Clôtures!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q46" s="33"/>
+      <c r="Q46" s="32"/>
       <c r="R46" s="7">
         <f>F45</f>
         <v>3833.78</v>
       </c>
-      <c r="S46" s="33"/>
+      <c r="S46" s="32"/>
       <c r="T46" s="7">
         <f>H45</f>
         <v>0</v>
       </c>
-      <c r="U46" s="33"/>
+      <c r="U46" s="32"/>
       <c r="V46" s="7">
         <v>1769.33</v>
       </c>
-      <c r="W46" s="45"/>
-    </row>
-    <row r="47" spans="2:23" ht="15.5">
+      <c r="W46" s="53"/>
+    </row>
+    <row r="47" spans="2:23" ht="15.5" hidden="1">
       <c r="B47" s="9"/>
-      <c r="C47" s="43" t="s">
+      <c r="C47" s="36" t="s">
         <v>33</v>
       </c>
       <c r="D47" s="6"/>
-      <c r="E47" s="33">
+      <c r="E47" s="32">
         <f>D47-D48</f>
         <v>0</v>
       </c>
       <c r="F47" s="6"/>
-      <c r="G47" s="33">
+      <c r="G47" s="32">
         <f t="shared" ref="G47" si="98">F47-F48+E47</f>
         <v>0</v>
       </c>
       <c r="H47" s="6">
         <v>44.21</v>
       </c>
-      <c r="I47" s="33">
+      <c r="I47" s="32">
         <f t="shared" ref="I47" si="99">H47-H48+G47</f>
         <v>44.21</v>
       </c>
@@ -3730,7 +3732,7 @@
         <f>IE_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K47" s="33">
+      <c r="K47" s="32">
         <f t="shared" ref="K47" si="100">J47-J48+I47</f>
         <v>44.21</v>
       </c>
@@ -3738,7 +3740,7 @@
         <f>IE_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M47" s="33">
+      <c r="M47" s="32">
         <f t="shared" ref="M47" si="101">L47-L48+K47</f>
         <v>44.21</v>
       </c>
@@ -3746,7 +3748,7 @@
         <f>IE_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O47" s="33">
+      <c r="O47" s="32">
         <f t="shared" ref="O47" si="102">N47-N48+M47</f>
         <v>44.21</v>
       </c>
@@ -3754,89 +3756,89 @@
         <f>IE_Clôtures!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q47" s="33" t="e">
+      <c r="Q47" s="32" t="e">
         <f t="shared" ref="Q47" si="103">P47-P48+O47</f>
         <v>#REF!</v>
       </c>
       <c r="R47" s="6"/>
-      <c r="S47" s="33" t="e">
-        <f>R47-R48+Q47</f>
-        <v>#REF!</v>
+      <c r="S47" s="32">
+        <f>R47-R48+O47</f>
+        <v>44.21</v>
       </c>
       <c r="T47" s="6"/>
-      <c r="U47" s="33" t="e">
+      <c r="U47" s="32">
         <f t="shared" ref="U47" si="104">T47-T48+S47</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="V47" s="6">
         <v>71.709999999999994</v>
       </c>
-      <c r="W47" s="33" t="e">
+      <c r="W47" s="32">
         <f t="shared" ref="W47" si="105">V47-V48+U47</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="48" spans="2:23" ht="15.5">
+        <v>71.709999999999994</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" ht="15.5" hidden="1">
       <c r="B48" s="9"/>
-      <c r="C48" s="43"/>
+      <c r="C48" s="36"/>
       <c r="D48" s="7"/>
-      <c r="E48" s="33"/>
+      <c r="E48" s="32"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="33"/>
+      <c r="G48" s="32"/>
       <c r="H48" s="7"/>
-      <c r="I48" s="33"/>
+      <c r="I48" s="32"/>
       <c r="J48" s="7">
         <f>IE_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K48" s="33"/>
+      <c r="K48" s="32"/>
       <c r="L48" s="7">
         <f>IE_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M48" s="33"/>
+      <c r="M48" s="32"/>
       <c r="N48" s="7">
         <f>IE_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O48" s="33"/>
+      <c r="O48" s="32"/>
       <c r="P48" s="7" t="e">
         <f>IE_Clôtures!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q48" s="33"/>
+      <c r="Q48" s="32"/>
       <c r="R48" s="7">
         <f>F47</f>
         <v>0</v>
       </c>
-      <c r="S48" s="33"/>
+      <c r="S48" s="32"/>
       <c r="T48" s="7">
         <f>H47</f>
         <v>44.21</v>
       </c>
-      <c r="U48" s="33"/>
+      <c r="U48" s="32"/>
       <c r="V48" s="7"/>
-      <c r="W48" s="33"/>
-    </row>
-    <row r="49" spans="2:23" ht="15.5">
+      <c r="W48" s="32"/>
+    </row>
+    <row r="49" spans="2:23" ht="15.5" hidden="1">
       <c r="B49" s="9"/>
-      <c r="C49" s="43" t="s">
+      <c r="C49" s="36" t="s">
         <v>32</v>
       </c>
       <c r="D49" s="6"/>
-      <c r="E49" s="33">
+      <c r="E49" s="32">
         <f>D49-D50</f>
         <v>0</v>
       </c>
       <c r="F49" s="6"/>
-      <c r="G49" s="33">
+      <c r="G49" s="32">
         <f t="shared" ref="G49" si="106">F49-F50+E49</f>
         <v>0</v>
       </c>
       <c r="H49" s="6">
         <v>0</v>
       </c>
-      <c r="I49" s="33">
+      <c r="I49" s="32">
         <f t="shared" ref="I49" si="107">H49-H50+G49</f>
         <v>0</v>
       </c>
@@ -3844,7 +3846,7 @@
         <f>LOWTECH_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K49" s="33">
+      <c r="K49" s="32">
         <f t="shared" ref="K49" si="108">J49-J50+I49</f>
         <v>0</v>
       </c>
@@ -3852,7 +3854,7 @@
         <f>LOWTECH_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M49" s="33">
+      <c r="M49" s="32">
         <f t="shared" ref="M49" si="109">L49-L50+K49</f>
         <v>0</v>
       </c>
@@ -3860,7 +3862,7 @@
         <f>LOWTECH_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O49" s="33">
+      <c r="O49" s="32">
         <f t="shared" ref="O49" si="110">N49-N50+M49</f>
         <v>0</v>
       </c>
@@ -3868,91 +3870,91 @@
         <f>LOWTECH_Clôtures!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q49" s="33" t="e">
+      <c r="Q49" s="32" t="e">
         <f t="shared" ref="Q49" si="111">P49-P50+O49</f>
         <v>#REF!</v>
       </c>
       <c r="R49" s="6"/>
-      <c r="S49" s="33" t="e">
-        <f>R49-R50+Q49</f>
-        <v>#REF!</v>
+      <c r="S49" s="32">
+        <f>R49-R50+O49</f>
+        <v>0</v>
       </c>
       <c r="T49" s="6"/>
-      <c r="U49" s="33" t="e">
+      <c r="U49" s="32">
         <f t="shared" ref="U49" si="112">T49-T50+S49</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="V49" s="6">
         <v>292.47000000000003</v>
       </c>
-      <c r="W49" s="33" t="e">
+      <c r="W49" s="32">
         <f t="shared" ref="W49" si="113">V49-V50+U49</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="50" spans="2:23" ht="15.5">
+        <v>10.07000000000005</v>
+      </c>
+    </row>
+    <row r="50" spans="2:23" ht="15.5" hidden="1">
       <c r="B50" s="9"/>
-      <c r="C50" s="43"/>
+      <c r="C50" s="36"/>
       <c r="D50" s="7"/>
-      <c r="E50" s="33"/>
+      <c r="E50" s="32"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="33"/>
+      <c r="G50" s="32"/>
       <c r="H50" s="7"/>
-      <c r="I50" s="33"/>
+      <c r="I50" s="32"/>
       <c r="J50" s="7">
         <f>LOWTECH_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K50" s="33"/>
+      <c r="K50" s="32"/>
       <c r="L50" s="7">
         <f>LOWTECH_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M50" s="33"/>
+      <c r="M50" s="32"/>
       <c r="N50" s="7">
         <f>LOWTECH_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O50" s="33"/>
+      <c r="O50" s="32"/>
       <c r="P50" s="7" t="e">
         <f>LOWTECH_Clôtures!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q50" s="33"/>
+      <c r="Q50" s="32"/>
       <c r="R50" s="7">
         <f>F49</f>
         <v>0</v>
       </c>
-      <c r="S50" s="33"/>
+      <c r="S50" s="32"/>
       <c r="T50" s="7">
         <f>H49</f>
         <v>0</v>
       </c>
-      <c r="U50" s="33"/>
+      <c r="U50" s="32"/>
       <c r="V50" s="7">
         <v>282.39999999999998</v>
       </c>
-      <c r="W50" s="33"/>
-    </row>
-    <row r="51" spans="2:23" ht="15.5">
+      <c r="W50" s="32"/>
+    </row>
+    <row r="51" spans="2:23" ht="15.5" hidden="1">
       <c r="B51" s="9"/>
-      <c r="C51" s="43" t="s">
+      <c r="C51" s="36" t="s">
         <v>27</v>
       </c>
       <c r="D51" s="6"/>
-      <c r="E51" s="33">
+      <c r="E51" s="32">
         <f>D51-D52</f>
         <v>0</v>
       </c>
       <c r="F51" s="6"/>
-      <c r="G51" s="33">
+      <c r="G51" s="32">
         <f t="shared" ref="G51" si="114">F51-F52+E51</f>
         <v>0</v>
       </c>
       <c r="H51" s="6">
         <v>818.05</v>
       </c>
-      <c r="I51" s="33">
+      <c r="I51" s="32">
         <f t="shared" ref="I51" si="115">H51-H52+G51</f>
         <v>818.05</v>
       </c>
@@ -3960,7 +3962,7 @@
         <f>JARDIN_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="33">
+      <c r="K51" s="32">
         <f t="shared" ref="K51" si="116">J51-J52+I51</f>
         <v>818.05</v>
       </c>
@@ -3968,7 +3970,7 @@
         <f>JARDIN_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M51" s="33">
+      <c r="M51" s="32">
         <f t="shared" ref="M51" si="117">L51-L52+K51</f>
         <v>818.05</v>
       </c>
@@ -3976,7 +3978,7 @@
         <f>JARDIN_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O51" s="33">
+      <c r="O51" s="32">
         <f t="shared" ref="O51" si="118">N51-N52+M51</f>
         <v>818.05</v>
       </c>
@@ -3984,191 +3986,191 @@
         <f>JARDIN_Clôtures!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q51" s="33" t="e">
+      <c r="Q51" s="32" t="e">
         <f t="shared" ref="Q51" si="119">P51-P52+O51</f>
         <v>#REF!</v>
       </c>
       <c r="R51" s="6"/>
-      <c r="S51" s="33" t="e">
-        <f>R51-R52+Q51</f>
-        <v>#REF!</v>
+      <c r="S51" s="32">
+        <f>R51-R52+O51</f>
+        <v>818.05</v>
       </c>
       <c r="T51" s="6"/>
-      <c r="U51" s="33" t="e">
+      <c r="U51" s="32">
         <f t="shared" ref="U51" si="120">T51-T52+S51</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="V51" s="6">
         <v>1022.8</v>
       </c>
-      <c r="W51" s="33" t="e">
+      <c r="W51" s="32">
         <f t="shared" ref="W51" si="121">V51-V52+U51</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="52" spans="2:23" ht="15.5">
+        <v>810.8</v>
+      </c>
+    </row>
+    <row r="52" spans="2:23" ht="15.5" hidden="1">
       <c r="B52" s="9"/>
-      <c r="C52" s="43"/>
+      <c r="C52" s="36"/>
       <c r="D52" s="7"/>
-      <c r="E52" s="33"/>
+      <c r="E52" s="32"/>
       <c r="F52" s="7"/>
-      <c r="G52" s="33"/>
+      <c r="G52" s="32"/>
       <c r="H52" s="7"/>
-      <c r="I52" s="33"/>
+      <c r="I52" s="32"/>
       <c r="J52" s="7">
         <f>JARDIN_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K52" s="33"/>
+      <c r="K52" s="32"/>
       <c r="L52" s="7">
         <f>JARDIN_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M52" s="33"/>
+      <c r="M52" s="32"/>
       <c r="N52" s="7">
         <f>JARDIN_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O52" s="33"/>
+      <c r="O52" s="32"/>
       <c r="P52" s="7" t="e">
         <f>JARDIN_Clôtures!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q52" s="33"/>
+      <c r="Q52" s="32"/>
       <c r="R52" s="7">
         <f>F51</f>
         <v>0</v>
       </c>
-      <c r="S52" s="33"/>
+      <c r="S52" s="32"/>
       <c r="T52" s="7">
         <f>H51</f>
         <v>818.05</v>
       </c>
-      <c r="U52" s="33"/>
+      <c r="U52" s="32"/>
       <c r="V52" s="7">
         <v>212</v>
       </c>
-      <c r="W52" s="33"/>
-    </row>
-    <row r="53" spans="2:23" ht="15.5">
+      <c r="W52" s="32"/>
+    </row>
+    <row r="53" spans="2:23" ht="15.5" hidden="1">
       <c r="B53" s="9"/>
-      <c r="C53" s="43" t="s">
+      <c r="C53" s="36" t="s">
         <v>28</v>
       </c>
       <c r="D53" s="6"/>
-      <c r="E53" s="33">
+      <c r="E53" s="32">
         <f>D53-D54</f>
         <v>0</v>
       </c>
       <c r="F53" s="6"/>
-      <c r="G53" s="33">
+      <c r="G53" s="32">
         <f t="shared" ref="G53" si="122">F53-F54+E53</f>
         <v>0</v>
       </c>
       <c r="H53" s="6">
         <v>0</v>
       </c>
-      <c r="I53" s="33">
+      <c r="I53" s="32">
         <f t="shared" ref="I53" si="123">H53-H54+G53</f>
         <v>0</v>
       </c>
       <c r="J53" s="6"/>
-      <c r="K53" s="33">
+      <c r="K53" s="32">
         <f t="shared" ref="K53" si="124">J53-J54+I53</f>
         <v>0</v>
       </c>
       <c r="L53" s="6"/>
-      <c r="M53" s="33">
+      <c r="M53" s="32">
         <f t="shared" ref="M53" si="125">L53-L54+K53</f>
         <v>0</v>
       </c>
       <c r="N53" s="6"/>
-      <c r="O53" s="33">
+      <c r="O53" s="32">
         <f t="shared" ref="O53" si="126">N53-N54+M53</f>
         <v>0</v>
       </c>
       <c r="P53" s="6"/>
-      <c r="Q53" s="33" t="e">
+      <c r="Q53" s="32" t="e">
         <f t="shared" ref="Q53" si="127">P53-P54+O53</f>
         <v>#REF!</v>
       </c>
       <c r="R53" s="6"/>
-      <c r="S53" s="33" t="e">
-        <f>R53-R54+Q53</f>
-        <v>#REF!</v>
+      <c r="S53" s="32">
+        <f>R53-R54+O53</f>
+        <v>0</v>
       </c>
       <c r="T53" s="6"/>
-      <c r="U53" s="33" t="e">
+      <c r="U53" s="32">
         <f t="shared" ref="U53" si="128">T53-T54+S53</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="V53" s="6">
         <v>1456.25</v>
       </c>
-      <c r="W53" s="33" t="e">
+      <c r="W53" s="32">
         <f t="shared" ref="W53" si="129">V53-V54+U53</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="54" spans="2:23" ht="15.5">
+        <v>1456.25</v>
+      </c>
+    </row>
+    <row r="54" spans="2:23" ht="15.5" hidden="1">
       <c r="B54" s="9"/>
-      <c r="C54" s="43"/>
+      <c r="C54" s="36"/>
       <c r="D54" s="7"/>
-      <c r="E54" s="33"/>
+      <c r="E54" s="32"/>
       <c r="F54" s="7"/>
-      <c r="G54" s="33"/>
+      <c r="G54" s="32"/>
       <c r="H54" s="7"/>
-      <c r="I54" s="33"/>
+      <c r="I54" s="32"/>
       <c r="J54" s="7">
         <f>MEUBLE_Clôtures!$B$4</f>
         <v>0</v>
       </c>
-      <c r="K54" s="33"/>
+      <c r="K54" s="32"/>
       <c r="L54" s="7">
         <f>MEUBLE_Clôtures!$C$4</f>
         <v>0</v>
       </c>
-      <c r="M54" s="33"/>
+      <c r="M54" s="32"/>
       <c r="N54" s="7">
         <f>MEUBLE_Clôtures!$D$4</f>
         <v>0</v>
       </c>
-      <c r="O54" s="33"/>
+      <c r="O54" s="32"/>
       <c r="P54" s="7" t="e">
         <f>MEUBLE_Clôtures!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q54" s="33"/>
+      <c r="Q54" s="32"/>
       <c r="R54" s="7">
         <f>F53</f>
         <v>0</v>
       </c>
-      <c r="S54" s="33"/>
+      <c r="S54" s="32"/>
       <c r="T54" s="7">
         <f>H53</f>
         <v>0</v>
       </c>
-      <c r="U54" s="33"/>
+      <c r="U54" s="32"/>
       <c r="V54" s="7"/>
-      <c r="W54" s="33"/>
-    </row>
-    <row r="55" spans="2:23" ht="15.5">
+      <c r="W54" s="32"/>
+    </row>
+    <row r="55" spans="2:23" ht="15.5" hidden="1">
       <c r="B55" s="9"/>
-      <c r="C55" s="43"/>
+      <c r="C55" s="36"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="33">
+      <c r="E55" s="32">
         <f>D55-D56</f>
         <v>0</v>
       </c>
       <c r="F55" s="6"/>
-      <c r="G55" s="33">
+      <c r="G55" s="32">
         <f t="shared" ref="G55" si="130">F55-F56+E55</f>
         <v>0</v>
       </c>
       <c r="H55" s="6">
         <v>0</v>
       </c>
-      <c r="I55" s="33">
+      <c r="I55" s="32">
         <f t="shared" ref="I55" si="131">H55-H56+G55</f>
         <v>0</v>
       </c>
@@ -4176,7 +4178,7 @@
         <f>MEUBLE_Clôtures!$B$2</f>
         <v>0</v>
       </c>
-      <c r="K55" s="33">
+      <c r="K55" s="32">
         <f t="shared" ref="K55" si="132">J55-J56+I55</f>
         <v>0</v>
       </c>
@@ -4184,7 +4186,7 @@
         <f>MEUBLE_Clôtures!$C$2</f>
         <v>0</v>
       </c>
-      <c r="M55" s="33">
+      <c r="M55" s="32">
         <f t="shared" ref="M55" si="133">L55-L56+K55</f>
         <v>0</v>
       </c>
@@ -4192,7 +4194,7 @@
         <f>MEUBLE_Clôtures!$D$2</f>
         <v>0</v>
       </c>
-      <c r="O55" s="33">
+      <c r="O55" s="32">
         <f t="shared" ref="O55" si="134">N55-N56+M55</f>
         <v>0</v>
       </c>
@@ -4200,91 +4202,91 @@
         <f>MEUBLE_Clôtures!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q55" s="33" t="e">
+      <c r="Q55" s="32" t="e">
         <f t="shared" ref="Q55" si="135">P55-P56+O55</f>
         <v>#REF!</v>
       </c>
       <c r="R55" s="6"/>
-      <c r="S55" s="33" t="e">
-        <f>R55-R56+Q55</f>
-        <v>#REF!</v>
+      <c r="S55" s="32">
+        <f>R55-R56+O55</f>
+        <v>0</v>
       </c>
       <c r="T55" s="6"/>
-      <c r="U55" s="33" t="e">
+      <c r="U55" s="32">
         <f t="shared" ref="U55" si="136">T55-T56+S55</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="V55" s="6">
         <v>1545</v>
       </c>
-      <c r="W55" s="33" t="e">
+      <c r="W55" s="32">
         <f t="shared" ref="W55" si="137">V55-V56+U55</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="56" spans="2:23" ht="15.5">
+        <v>915.8</v>
+      </c>
+    </row>
+    <row r="56" spans="2:23" ht="15.5" hidden="1">
       <c r="B56" s="9"/>
-      <c r="C56" s="43"/>
+      <c r="C56" s="36"/>
       <c r="D56" s="7"/>
-      <c r="E56" s="33"/>
+      <c r="E56" s="32"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="33"/>
+      <c r="G56" s="32"/>
       <c r="H56" s="7"/>
-      <c r="I56" s="33"/>
+      <c r="I56" s="32"/>
       <c r="J56" s="7">
         <f>MEUBLE_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K56" s="33"/>
+      <c r="K56" s="32"/>
       <c r="L56" s="7">
         <f>MEUBLE_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M56" s="33"/>
+      <c r="M56" s="32"/>
       <c r="N56" s="7">
         <f>MEUBLE_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O56" s="33"/>
+      <c r="O56" s="32"/>
       <c r="P56" s="7" t="e">
         <f>MEUBLE_Clôtures!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q56" s="33"/>
+      <c r="Q56" s="32"/>
       <c r="R56" s="7">
         <f>F55</f>
         <v>0</v>
       </c>
-      <c r="S56" s="33"/>
+      <c r="S56" s="32"/>
       <c r="T56" s="7">
         <f>H55</f>
         <v>0</v>
       </c>
-      <c r="U56" s="33"/>
+      <c r="U56" s="32"/>
       <c r="V56" s="7">
         <v>629.20000000000005</v>
       </c>
-      <c r="W56" s="33"/>
-    </row>
-    <row r="57" spans="2:23" ht="15.5">
+      <c r="W56" s="32"/>
+    </row>
+    <row r="57" spans="2:23" ht="15.5" hidden="1">
       <c r="B57" s="9"/>
-      <c r="C57" s="43" t="s">
+      <c r="C57" s="36" t="s">
         <v>29</v>
       </c>
       <c r="D57" s="6"/>
-      <c r="E57" s="33">
+      <c r="E57" s="32">
         <f>D57-D58</f>
         <v>0</v>
       </c>
       <c r="F57" s="6"/>
-      <c r="G57" s="33">
+      <c r="G57" s="32">
         <f t="shared" ref="G57" si="138">F57-F58+E57</f>
         <v>0</v>
       </c>
       <c r="H57" s="6">
         <v>0</v>
       </c>
-      <c r="I57" s="33">
+      <c r="I57" s="32">
         <f t="shared" ref="I57" si="139">H57-H58+G57</f>
         <v>0</v>
       </c>
@@ -4292,7 +4294,7 @@
         <f>DUDU_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K57" s="33">
+      <c r="K57" s="32">
         <f t="shared" ref="K57" si="140">J57-J58+I57</f>
         <v>0</v>
       </c>
@@ -4300,7 +4302,7 @@
         <f>DUDU_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M57" s="33">
+      <c r="M57" s="32">
         <f t="shared" ref="M57" si="141">L57-L58+K57</f>
         <v>0</v>
       </c>
@@ -4308,7 +4310,7 @@
         <f>DUDU_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O57" s="33">
+      <c r="O57" s="32">
         <f t="shared" ref="O57" si="142">N57-N58+M57</f>
         <v>0</v>
       </c>
@@ -4316,191 +4318,191 @@
         <f>DUDU_Clôtures!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q57" s="33" t="e">
+      <c r="Q57" s="32" t="e">
         <f t="shared" ref="Q57" si="143">P57-P58+O57</f>
         <v>#REF!</v>
       </c>
       <c r="R57" s="6"/>
-      <c r="S57" s="33" t="e">
-        <f>R57-R58+Q57</f>
-        <v>#REF!</v>
+      <c r="S57" s="32">
+        <f>R57-R58+O57</f>
+        <v>0</v>
       </c>
       <c r="T57" s="6"/>
-      <c r="U57" s="33" t="e">
+      <c r="U57" s="32">
         <f t="shared" ref="U57" si="144">T57-T58+S57</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="V57" s="6">
         <v>6506.55</v>
       </c>
-      <c r="W57" s="33" t="e">
+      <c r="W57" s="32">
         <f t="shared" ref="W57" si="145">V57-V58+U57</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="58" spans="2:23" ht="15.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:23" ht="15.5" hidden="1">
       <c r="B58" s="9"/>
-      <c r="C58" s="43"/>
+      <c r="C58" s="36"/>
       <c r="D58" s="7"/>
-      <c r="E58" s="33"/>
+      <c r="E58" s="32"/>
       <c r="F58" s="7"/>
-      <c r="G58" s="33"/>
+      <c r="G58" s="32"/>
       <c r="H58" s="7"/>
-      <c r="I58" s="33"/>
+      <c r="I58" s="32"/>
       <c r="J58" s="7">
         <f>DUDU_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K58" s="33"/>
+      <c r="K58" s="32"/>
       <c r="L58" s="7">
         <f>DUDU_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M58" s="33"/>
+      <c r="M58" s="32"/>
       <c r="N58" s="7">
         <f>DUDU_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O58" s="33"/>
+      <c r="O58" s="32"/>
       <c r="P58" s="7" t="e">
         <f>DUDU_Clôtures!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q58" s="33"/>
+      <c r="Q58" s="32"/>
       <c r="R58" s="7">
         <f>F57</f>
         <v>0</v>
       </c>
-      <c r="S58" s="33"/>
+      <c r="S58" s="32"/>
       <c r="T58" s="7">
         <f>H57</f>
         <v>0</v>
       </c>
-      <c r="U58" s="33"/>
+      <c r="U58" s="32"/>
       <c r="V58" s="7">
         <v>6506.55</v>
       </c>
-      <c r="W58" s="33"/>
-    </row>
-    <row r="59" spans="2:23" ht="15.5">
+      <c r="W58" s="32"/>
+    </row>
+    <row r="59" spans="2:23" ht="15.5" hidden="1">
       <c r="B59" s="10"/>
-      <c r="C59" s="43" t="s">
+      <c r="C59" s="36" t="s">
         <v>30</v>
       </c>
       <c r="D59" s="6"/>
-      <c r="E59" s="33">
+      <c r="E59" s="32">
         <f>D59-D60</f>
         <v>0</v>
       </c>
       <c r="F59" s="6"/>
-      <c r="G59" s="33">
+      <c r="G59" s="32">
         <f t="shared" ref="G59" si="146">F59-F60+E59</f>
         <v>0</v>
       </c>
       <c r="H59" s="6">
         <v>0</v>
       </c>
-      <c r="I59" s="33">
+      <c r="I59" s="32">
         <f>H59-H60+G59</f>
         <v>0</v>
       </c>
       <c r="J59" s="6"/>
-      <c r="K59" s="33">
+      <c r="K59" s="32">
         <f t="shared" ref="K59" si="147">J59-J60+I59</f>
         <v>0</v>
       </c>
       <c r="L59" s="6"/>
-      <c r="M59" s="33">
+      <c r="M59" s="32">
         <f t="shared" ref="M59" si="148">L59-L60+K59</f>
         <v>0</v>
       </c>
       <c r="N59" s="6"/>
-      <c r="O59" s="33">
+      <c r="O59" s="32">
         <f t="shared" ref="O59" si="149">N59-N60+M59</f>
         <v>0</v>
       </c>
       <c r="P59" s="6"/>
-      <c r="Q59" s="33" t="e">
+      <c r="Q59" s="32" t="e">
         <f>P59-P60+O59</f>
         <v>#REF!</v>
       </c>
       <c r="R59" s="6"/>
-      <c r="S59" s="33" t="e">
-        <f>R59-R60+Q59</f>
-        <v>#REF!</v>
+      <c r="S59" s="32">
+        <f>R59-R60+O59</f>
+        <v>0</v>
       </c>
       <c r="T59" s="6"/>
-      <c r="U59" s="33" t="e">
+      <c r="U59" s="32">
         <f>T59-T60+S59</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="V59" s="6">
         <v>1576.53</v>
       </c>
-      <c r="W59" s="33" t="e">
+      <c r="W59" s="32">
         <f t="shared" ref="W59" si="150">V59-V60+U59</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="60" spans="2:23" ht="15.5">
+        <v>1576.53</v>
+      </c>
+    </row>
+    <row r="60" spans="2:23" ht="15.5" hidden="1">
       <c r="B60" s="10"/>
-      <c r="C60" s="43"/>
+      <c r="C60" s="36"/>
       <c r="D60" s="7"/>
-      <c r="E60" s="33"/>
+      <c r="E60" s="32"/>
       <c r="F60" s="7"/>
-      <c r="G60" s="33"/>
+      <c r="G60" s="32"/>
       <c r="H60" s="7"/>
-      <c r="I60" s="33"/>
+      <c r="I60" s="32"/>
       <c r="J60" s="7">
         <f>UPFL_Clôtures!$B$4</f>
         <v>0</v>
       </c>
-      <c r="K60" s="33"/>
+      <c r="K60" s="32"/>
       <c r="L60" s="7">
         <f>UPFL_Clôtures!$C$4</f>
         <v>0</v>
       </c>
-      <c r="M60" s="33"/>
+      <c r="M60" s="32"/>
       <c r="N60" s="7">
         <f>UPFL_Clôtures!$D$4</f>
         <v>0</v>
       </c>
-      <c r="O60" s="33"/>
+      <c r="O60" s="32"/>
       <c r="P60" s="7" t="e">
         <f>UPFL_Clôtures!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q60" s="33"/>
+      <c r="Q60" s="32"/>
       <c r="R60" s="7">
         <f>F59</f>
         <v>0</v>
       </c>
-      <c r="S60" s="33"/>
+      <c r="S60" s="32"/>
       <c r="T60" s="7">
         <f>H59</f>
         <v>0</v>
       </c>
-      <c r="U60" s="33"/>
+      <c r="U60" s="32"/>
       <c r="V60" s="7"/>
-      <c r="W60" s="33"/>
-    </row>
-    <row r="61" spans="2:23" ht="15.5">
+      <c r="W60" s="32"/>
+    </row>
+    <row r="61" spans="2:23" ht="15.5" hidden="1">
       <c r="B61" s="10"/>
-      <c r="C61" s="43"/>
+      <c r="C61" s="36"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="33">
+      <c r="E61" s="32">
         <f>D61-D62</f>
         <v>0</v>
       </c>
       <c r="F61" s="6"/>
-      <c r="G61" s="33">
+      <c r="G61" s="32">
         <f>F61-F62+E61</f>
         <v>0</v>
       </c>
       <c r="H61" s="6">
         <v>0</v>
       </c>
-      <c r="I61" s="33">
+      <c r="I61" s="32">
         <f>H61-H62+G61</f>
         <v>0</v>
       </c>
@@ -4508,7 +4510,7 @@
         <f>UPFL_Clôtures!$B$2</f>
         <v>0</v>
       </c>
-      <c r="K61" s="33">
+      <c r="K61" s="32">
         <f>J61-J62+I61</f>
         <v>0</v>
       </c>
@@ -4516,7 +4518,7 @@
         <f>UPFL_Clôtures!$C$2</f>
         <v>0</v>
       </c>
-      <c r="M61" s="33">
+      <c r="M61" s="32">
         <f>L61-L62+K61</f>
         <v>0</v>
       </c>
@@ -4524,7 +4526,7 @@
         <f>UPFL_Clôtures!$D$2</f>
         <v>0</v>
       </c>
-      <c r="O61" s="33">
+      <c r="O61" s="32">
         <f>N61-N62+M61</f>
         <v>0</v>
       </c>
@@ -4532,163 +4534,456 @@
         <f>UPFL_Clôtures!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q61" s="33" t="e">
+      <c r="Q61" s="32" t="e">
         <f>P61-P62+O61</f>
         <v>#REF!</v>
       </c>
       <c r="R61" s="6"/>
-      <c r="S61" s="33" t="e">
-        <f>R61-R62+Q61</f>
-        <v>#REF!</v>
+      <c r="S61" s="32">
+        <f>R61-R62+O61</f>
+        <v>0</v>
       </c>
       <c r="T61" s="6"/>
-      <c r="U61" s="33" t="e">
+      <c r="U61" s="32">
         <f>T61-T62+S61</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="V61" s="6"/>
-      <c r="W61" s="33" t="e">
+      <c r="W61" s="32">
         <f>V61-V62+U61</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="62" spans="2:23" ht="137">
+        <v>-2214.67</v>
+      </c>
+    </row>
+    <row r="62" spans="2:23" ht="15.5" hidden="1">
       <c r="B62" s="10"/>
-      <c r="C62" s="43"/>
+      <c r="C62" s="36"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="33"/>
+      <c r="E62" s="32"/>
       <c r="F62" s="6"/>
-      <c r="G62" s="33"/>
+      <c r="G62" s="32"/>
       <c r="H62" s="6"/>
-      <c r="I62" s="33"/>
+      <c r="I62" s="32"/>
       <c r="J62" s="7">
         <f>UPFL_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K62" s="33"/>
+      <c r="K62" s="32"/>
       <c r="L62" s="7">
         <f>UPFL_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M62" s="33"/>
+      <c r="M62" s="32"/>
       <c r="N62" s="7">
         <f>UPFL_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O62" s="33"/>
+      <c r="O62" s="32"/>
       <c r="P62" s="7" t="e">
         <f>UPFL_Clôtures!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q62" s="35"/>
+      <c r="Q62" s="47"/>
       <c r="R62" s="7">
         <f>F61</f>
         <v>0</v>
       </c>
-      <c r="S62" s="33"/>
+      <c r="S62" s="32"/>
       <c r="T62" s="7">
         <f>H61</f>
         <v>0</v>
       </c>
-      <c r="U62" s="33"/>
+      <c r="U62" s="32"/>
       <c r="V62" s="7">
         <v>2214.67</v>
       </c>
-      <c r="W62" s="33"/>
-    </row>
-    <row r="63" spans="2:23" ht="14.4" customHeight="1">
-      <c r="B63" s="46" t="s">
+      <c r="W62" s="32"/>
+    </row>
+    <row r="63" spans="2:23" ht="14" customHeight="1">
+      <c r="B63" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="C63" s="47"/>
-      <c r="D63" s="36">
+      <c r="C63" s="50"/>
+      <c r="D63" s="34">
         <f>E5+E7+E29</f>
         <v>16225.66</v>
       </c>
-      <c r="E63" s="36"/>
-      <c r="F63" s="36">
+      <c r="E63" s="34"/>
+      <c r="F63" s="34">
         <f>G5+G7+G29</f>
         <v>16225.66</v>
       </c>
-      <c r="G63" s="36"/>
-      <c r="H63" s="36">
+      <c r="G63" s="34"/>
+      <c r="H63" s="34">
         <f>I5+I7+I29</f>
         <v>16225.66</v>
       </c>
-      <c r="I63" s="36"/>
-      <c r="J63" s="36">
+      <c r="I63" s="34"/>
+      <c r="J63" s="34">
         <f>K5+K7+K29</f>
         <v>15703.789999999999</v>
       </c>
-      <c r="K63" s="36"/>
-      <c r="L63" s="36">
+      <c r="K63" s="34"/>
+      <c r="L63" s="34">
         <f>M5+M7+M29</f>
         <v>15703.789999999999</v>
       </c>
-      <c r="M63" s="36"/>
-      <c r="N63" s="36">
+      <c r="M63" s="34"/>
+      <c r="N63" s="34">
         <f>O5+O7+O29</f>
         <v>15703.789999999999</v>
       </c>
-      <c r="O63" s="36"/>
-      <c r="P63" s="36" t="e">
+      <c r="O63" s="34"/>
+      <c r="P63" s="34" t="e">
         <f>Q5+Q7+Q29</f>
         <v>#REF!</v>
       </c>
-      <c r="Q63" s="36"/>
-      <c r="R63" s="36" t="e">
+      <c r="Q63" s="34"/>
+      <c r="R63" s="34">
         <f>S5+S7+S29</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S63" s="36"/>
-      <c r="T63" s="36" t="e">
+        <v>15703.79</v>
+      </c>
+      <c r="S63" s="34"/>
+      <c r="T63" s="34">
         <f>U5+U7+U29</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U63" s="36"/>
-      <c r="V63" s="36" t="e">
+        <v>15703.79</v>
+      </c>
+      <c r="U63" s="34"/>
+      <c r="V63" s="34">
         <f>W5+W7+W29</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W63" s="36"/>
+        <v>15703.789999999997</v>
+      </c>
+      <c r="W63" s="34"/>
     </row>
     <row r="64" spans="2:23" ht="14.4" customHeight="1">
-      <c r="B64" s="48"/>
-      <c r="C64" s="49"/>
-      <c r="D64" s="37"/>
-      <c r="E64" s="37"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="37"/>
-      <c r="H64" s="37"/>
-      <c r="I64" s="37"/>
-      <c r="J64" s="37"/>
-      <c r="K64" s="37"/>
-      <c r="L64" s="37"/>
-      <c r="M64" s="37"/>
-      <c r="N64" s="37"/>
-      <c r="O64" s="37"/>
-      <c r="P64" s="37"/>
-      <c r="Q64" s="37"/>
-      <c r="R64" s="37"/>
-      <c r="S64" s="37"/>
-      <c r="T64" s="37"/>
-      <c r="U64" s="37"/>
-      <c r="V64" s="37"/>
-      <c r="W64" s="37"/>
+      <c r="B64" s="51"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="35"/>
+      <c r="J64" s="35"/>
+      <c r="K64" s="35"/>
+      <c r="L64" s="35"/>
+      <c r="M64" s="35"/>
+      <c r="N64" s="35"/>
+      <c r="O64" s="35"/>
+      <c r="P64" s="35"/>
+      <c r="Q64" s="35"/>
+      <c r="R64" s="35"/>
+      <c r="S64" s="35"/>
+      <c r="T64" s="35"/>
+      <c r="U64" s="35"/>
+      <c r="V64" s="35"/>
+      <c r="W64" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="339">
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="Q61:Q62"/>
+    <mergeCell ref="Q59:Q60"/>
+    <mergeCell ref="Q57:Q58"/>
+    <mergeCell ref="Q55:Q56"/>
+    <mergeCell ref="Q53:Q54"/>
+    <mergeCell ref="Q51:Q52"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="Q31:Q32"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="P63:Q64"/>
+    <mergeCell ref="Q47:Q48"/>
+    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="Q39:Q40"/>
+    <mergeCell ref="Q37:Q38"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="T63:U64"/>
+    <mergeCell ref="D2:W2"/>
+    <mergeCell ref="U43:U44"/>
+    <mergeCell ref="U45:U46"/>
+    <mergeCell ref="U47:U48"/>
+    <mergeCell ref="U49:U50"/>
+    <mergeCell ref="U51:U52"/>
+    <mergeCell ref="U53:U54"/>
+    <mergeCell ref="U55:U56"/>
+    <mergeCell ref="U57:U58"/>
+    <mergeCell ref="U59:U60"/>
+    <mergeCell ref="U21:U22"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="U29:U30"/>
+    <mergeCell ref="U31:U32"/>
+    <mergeCell ref="U33:U34"/>
+    <mergeCell ref="U35:U36"/>
+    <mergeCell ref="U37:U38"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="S47:S48"/>
+    <mergeCell ref="S49:S50"/>
+    <mergeCell ref="S51:S52"/>
+    <mergeCell ref="S21:S22"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="S29:S30"/>
+    <mergeCell ref="S31:S32"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="S37:S38"/>
+    <mergeCell ref="S39:S40"/>
+    <mergeCell ref="S41:S42"/>
+    <mergeCell ref="S43:S44"/>
+    <mergeCell ref="S45:S46"/>
+    <mergeCell ref="U39:U40"/>
+    <mergeCell ref="U41:U42"/>
+    <mergeCell ref="R63:S64"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="D63:E64"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="F63:G64"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="W61:W62"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="W49:W50"/>
+    <mergeCell ref="W47:W48"/>
+    <mergeCell ref="W51:W52"/>
+    <mergeCell ref="W53:W54"/>
+    <mergeCell ref="W55:W56"/>
+    <mergeCell ref="W57:W58"/>
+    <mergeCell ref="W59:W60"/>
+    <mergeCell ref="O59:O60"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="O57:O58"/>
+    <mergeCell ref="S53:S54"/>
+    <mergeCell ref="S55:S56"/>
+    <mergeCell ref="S57:S58"/>
+    <mergeCell ref="S59:S60"/>
+    <mergeCell ref="S61:S62"/>
+    <mergeCell ref="U61:U62"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="W21:W22"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="W25:W26"/>
+    <mergeCell ref="W27:W28"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="W29:W30"/>
+    <mergeCell ref="W31:W32"/>
+    <mergeCell ref="W33:W34"/>
+    <mergeCell ref="W35:W36"/>
+    <mergeCell ref="W37:W38"/>
+    <mergeCell ref="W41:W42"/>
+    <mergeCell ref="W43:W44"/>
+    <mergeCell ref="W45:W46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="O61:O62"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="M61:M62"/>
+    <mergeCell ref="M57:M58"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="B63:C64"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J63:K64"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="H63:I64"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="L63:M64"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="F3:G3"/>
     <mergeCell ref="N63:O64"/>
     <mergeCell ref="V63:W64"/>
     <mergeCell ref="C25:C26"/>
@@ -4713,310 +5008,17 @@
     <mergeCell ref="I31:I32"/>
     <mergeCell ref="I33:I34"/>
     <mergeCell ref="I35:I36"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="L63:M64"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="B63:C64"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J63:K64"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="H63:I64"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="O61:O62"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="M61:M62"/>
-    <mergeCell ref="M57:M58"/>
-    <mergeCell ref="M59:M60"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="W21:W22"/>
-    <mergeCell ref="W23:W24"/>
-    <mergeCell ref="W25:W26"/>
-    <mergeCell ref="W27:W28"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="W29:W30"/>
-    <mergeCell ref="W31:W32"/>
-    <mergeCell ref="W33:W34"/>
-    <mergeCell ref="W35:W36"/>
-    <mergeCell ref="W37:W38"/>
-    <mergeCell ref="W41:W42"/>
-    <mergeCell ref="W43:W44"/>
-    <mergeCell ref="W45:W46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="W61:W62"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="W49:W50"/>
-    <mergeCell ref="W47:W48"/>
-    <mergeCell ref="W51:W52"/>
-    <mergeCell ref="W53:W54"/>
-    <mergeCell ref="W55:W56"/>
-    <mergeCell ref="W57:W58"/>
-    <mergeCell ref="W59:W60"/>
-    <mergeCell ref="O59:O60"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="O57:O58"/>
-    <mergeCell ref="S53:S54"/>
-    <mergeCell ref="S55:S56"/>
-    <mergeCell ref="S57:S58"/>
-    <mergeCell ref="S59:S60"/>
-    <mergeCell ref="S61:S62"/>
-    <mergeCell ref="U61:U62"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="F63:G64"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="D63:E64"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="R63:S64"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="S47:S48"/>
-    <mergeCell ref="S49:S50"/>
-    <mergeCell ref="S51:S52"/>
-    <mergeCell ref="S21:S22"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="S27:S28"/>
-    <mergeCell ref="S29:S30"/>
-    <mergeCell ref="S31:S32"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="S35:S36"/>
-    <mergeCell ref="S37:S38"/>
-    <mergeCell ref="S39:S40"/>
-    <mergeCell ref="S41:S42"/>
-    <mergeCell ref="S43:S44"/>
-    <mergeCell ref="S45:S46"/>
-    <mergeCell ref="U39:U40"/>
-    <mergeCell ref="U41:U42"/>
-    <mergeCell ref="T63:U64"/>
-    <mergeCell ref="D2:W2"/>
-    <mergeCell ref="U43:U44"/>
-    <mergeCell ref="U45:U46"/>
-    <mergeCell ref="U47:U48"/>
-    <mergeCell ref="U49:U50"/>
-    <mergeCell ref="U51:U52"/>
-    <mergeCell ref="U53:U54"/>
-    <mergeCell ref="U55:U56"/>
-    <mergeCell ref="U57:U58"/>
-    <mergeCell ref="U59:U60"/>
-    <mergeCell ref="U21:U22"/>
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="U29:U30"/>
-    <mergeCell ref="U31:U32"/>
-    <mergeCell ref="U33:U34"/>
-    <mergeCell ref="U35:U36"/>
-    <mergeCell ref="U37:U38"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="P63:Q64"/>
-    <mergeCell ref="Q47:Q48"/>
-    <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="Q39:Q40"/>
-    <mergeCell ref="Q37:Q38"/>
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="Q61:Q62"/>
-    <mergeCell ref="Q59:Q60"/>
-    <mergeCell ref="Q57:Q58"/>
-    <mergeCell ref="Q55:Q56"/>
-    <mergeCell ref="Q53:Q54"/>
-    <mergeCell ref="Q51:Q52"/>
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="Q31:Q32"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="K25:K26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/2 - Bilans/2022-2023/Unipoly_Bilan_Quadrimestriel_22-23.xlsx
+++ b/2 - Bilans/2022-2023/Unipoly_Bilan_Quadrimestriel_22-23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\Clara\Unipoly\UPSecretrariat\2 - Bilans\2022-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05B7710-2111-4278-B270-8AC39C302526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F643C0E3-5098-4C58-90EC-2FAD7D1A986E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{34F8AD7C-3B1E-42A7-8AF2-50C33241ADA4}"/>
   </bookViews>
@@ -24,19 +24,21 @@
     <sheet name="LOCAL_Clôtures" sheetId="10" r:id="rId9"/>
     <sheet name="LOG_Clôtures" sheetId="11" r:id="rId10"/>
     <sheet name="MOBILITY_Clôtures" sheetId="8" r:id="rId11"/>
-    <sheet name="API_Clôtures" sheetId="12" r:id="rId12"/>
-    <sheet name="CANARD_Clôtures" sheetId="13" r:id="rId13"/>
-    <sheet name="CASTOR_Clôtures" sheetId="14" r:id="rId14"/>
-    <sheet name="DEBOUC_Clôtures" sheetId="15" r:id="rId15"/>
-    <sheet name="EVA_Clôtures" sheetId="16" r:id="rId16"/>
-    <sheet name="EPILIBRE_Clôtures" sheetId="17" r:id="rId17"/>
-    <sheet name="IE_Clôtures" sheetId="18" r:id="rId18"/>
-    <sheet name="JARDIN_Clôtures" sheetId="19" r:id="rId19"/>
-    <sheet name="LOWTECH_Clôtures" sheetId="20" r:id="rId20"/>
-    <sheet name="MEUBLE_Clôtures" sheetId="21" r:id="rId21"/>
-    <sheet name="DUDU_Clôtures" sheetId="22" r:id="rId22"/>
-    <sheet name="UPFL_Clôtures" sheetId="23" r:id="rId23"/>
-    <sheet name="REBUILT_Clôtures" sheetId="24" r:id="rId24"/>
+    <sheet name="REPRO_Clôtures" sheetId="25" r:id="rId12"/>
+    <sheet name="API_Clôtures" sheetId="12" r:id="rId13"/>
+    <sheet name="CANARD_Clôtures" sheetId="13" r:id="rId14"/>
+    <sheet name="CASTOR_Clôtures" sheetId="14" r:id="rId15"/>
+    <sheet name="DEBOUC_Clôtures" sheetId="15" r:id="rId16"/>
+    <sheet name="EVA_Clôtures" sheetId="16" r:id="rId17"/>
+    <sheet name="EPILIBRE_Clôtures" sheetId="17" r:id="rId18"/>
+    <sheet name="IE_Clôtures" sheetId="18" r:id="rId19"/>
+    <sheet name="JARDIN_Clôtures" sheetId="19" r:id="rId20"/>
+    <sheet name="LOWTECH_Clôtures" sheetId="20" r:id="rId21"/>
+    <sheet name="MEUBLE_Clôtures" sheetId="21" r:id="rId22"/>
+    <sheet name="DUDU_Clôtures" sheetId="22" r:id="rId23"/>
+    <sheet name="UPFL_Clôtures" sheetId="23" r:id="rId24"/>
+    <sheet name="REBUILT_Clôtures" sheetId="24" r:id="rId25"/>
+    <sheet name="FNR_Clôtures" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="96">
   <si>
     <t>Compte</t>
   </si>
@@ -92,12 +94,6 @@
     <t>Q3</t>
   </si>
   <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>Bilan Trimestriel Unipoly 21-22</t>
-  </si>
-  <si>
     <t>Fonctionnement (FONCT)</t>
   </si>
   <si>
@@ -120,9 +116,6 @@
   </si>
   <si>
     <t>Bilan</t>
-  </si>
-  <si>
-    <t>Achats Solidaires (ACHATS)</t>
   </si>
   <si>
     <t>Apiculture (API)</t>
@@ -313,9 +306,6 @@
     <t>Charges, Denrées Alimentaires</t>
   </si>
   <si>
-    <t>Charges, Maintient et Matériel</t>
-  </si>
-  <si>
     <t>Charges, Presse</t>
   </si>
   <si>
@@ -346,9 +336,6 @@
     <t>Budget</t>
   </si>
   <si>
-    <t>Femeture 20-21</t>
-  </si>
-  <si>
     <t>Fermeture Provisions</t>
   </si>
   <si>
@@ -362,6 +349,30 @@
   </si>
   <si>
     <t>Charges, Contributions Fix N'Replace</t>
+  </si>
+  <si>
+    <t>Charges, Maintien et Matériel</t>
+  </si>
+  <si>
+    <t>RebuiLT (REBUILT)</t>
+  </si>
+  <si>
+    <t>Bilan Quadrimestriel Unipoly 22-23</t>
+  </si>
+  <si>
+    <t>Reprographie EPFL (REPRO)</t>
+  </si>
+  <si>
+    <t>Produits, Reprographie EPFL</t>
+  </si>
+  <si>
+    <t>Charges, Reprographie</t>
+  </si>
+  <si>
+    <t>Fix N' Replace (FNR)</t>
+  </si>
+  <si>
+    <t>Fermeture 21-22</t>
   </si>
 </sst>
 </file>
@@ -611,7 +622,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -697,6 +708,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -772,8 +786,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1089,11 +1109,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A55C92-786C-4AB3-96FC-7473E4CC0A9B}">
-  <dimension ref="A1:Y64"/>
+  <dimension ref="A1:Y70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J62" sqref="J59:J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14" zeroHeight="1"/>
@@ -1101,261 +1121,250 @@
     <col min="1" max="1" width="2.36328125" style="3" customWidth="1"/>
     <col min="2" max="2" width="3.453125" style="4" customWidth="1"/>
     <col min="3" max="3" width="33.08984375" style="4" customWidth="1"/>
-    <col min="4" max="23" width="15.54296875" style="4" customWidth="1"/>
-    <col min="24" max="25" width="0" style="4" hidden="1" customWidth="1"/>
+    <col min="4" max="21" width="15.54296875" style="4" customWidth="1"/>
+    <col min="22" max="23" width="0" style="4" hidden="1" customWidth="1"/>
+    <col min="24" max="25" width="0" style="4" hidden="1"/>
     <col min="26" max="16384" width="11.54296875" style="4" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="12" customHeight="1">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="36" customHeight="1">
+    <row r="2" spans="1:21" ht="36" customHeight="1">
       <c r="B2" s="29"/>
       <c r="C2" s="30"/>
-      <c r="D2" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="57"/>
-    </row>
-    <row r="3" spans="1:23" ht="14" customHeight="1">
-      <c r="B3" s="45" t="s">
+      <c r="D2" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="58"/>
+    </row>
+    <row r="3" spans="1:21" ht="14" customHeight="1">
+      <c r="B3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41" t="s">
+      <c r="C3" s="47"/>
+      <c r="D3" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="41"/>
-      <c r="P3" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="W3" s="42"/>
-    </row>
-    <row r="4" spans="1:23" ht="20" hidden="1">
-      <c r="B4" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="44"/>
+      <c r="U3" s="43"/>
+    </row>
+    <row r="4" spans="1:21" ht="20">
+      <c r="B4" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="45"/>
       <c r="D4" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="W4" s="28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="15.5" hidden="1">
-      <c r="B5" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="38"/>
+        <v>39</v>
+      </c>
+      <c r="U4" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15.5">
+      <c r="B5" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="39"/>
       <c r="D5" s="6">
-        <f>14813.98+3472.78+3833.79</f>
-        <v>22120.55</v>
-      </c>
-      <c r="E5" s="32">
+        <f>D7+D31</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="33">
         <f>D5-D6</f>
-        <v>16225.66</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="32">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <f>F7+F31</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="33">
         <f>F5-F6+E5</f>
-        <v>8919.0999999999985</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="32">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <f>H7+H31</f>
+        <v>31880</v>
+      </c>
+      <c r="I5" s="33">
         <f>H5-H6+G5</f>
-        <v>2037.9899999999989</v>
+        <v>-16978</v>
       </c>
       <c r="J5" s="6"/>
-      <c r="K5" s="32">
+      <c r="K5" s="33">
         <f>J5-J6+I5</f>
-        <v>2037.9899999999989</v>
+        <v>-16978</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="M5" s="32">
+      <c r="M5" s="33">
         <f>L5-L6+K5</f>
-        <v>2037.9899999999989</v>
+        <v>-16978</v>
       </c>
       <c r="N5" s="6"/>
-      <c r="O5" s="32">
+      <c r="O5" s="33">
         <f>N5-N6+M5</f>
-        <v>2037.9899999999989</v>
-      </c>
-      <c r="P5" s="6"/>
+        <v>-16978</v>
+      </c>
+      <c r="P5" s="6">
+        <f>P8+P32</f>
+        <v>0</v>
+      </c>
       <c r="Q5" s="33">
-        <f>P5-P6+M5</f>
-        <v>2037.9899999999989</v>
+        <f>P5-P6+O5</f>
+        <v>-16978</v>
       </c>
       <c r="R5" s="6">
-        <f>R8+R30</f>
-        <v>7306.56</v>
-      </c>
-      <c r="S5" s="32">
+        <f>R8+R32</f>
+        <v>31880</v>
+      </c>
+      <c r="S5" s="33">
         <f>R5-R6+Q5</f>
-        <v>9344.5499999999993</v>
+        <v>14902</v>
       </c>
       <c r="T5" s="6">
-        <f>T8+T30</f>
-        <v>6881.11</v>
-      </c>
-      <c r="U5" s="32">
+        <v>2214.0300000000002</v>
+      </c>
+      <c r="U5" s="34">
         <f>T5-T6+S5</f>
-        <v>16225.66</v>
-      </c>
-      <c r="V5" s="6">
-        <v>2214.0300000000002</v>
-      </c>
-      <c r="W5" s="33">
-        <f>V5-V6+U5</f>
-        <v>18439.689999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="15.5" hidden="1">
-      <c r="B6" s="39"/>
-      <c r="C6" s="40"/>
+        <v>17116.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15.5">
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="7">
-        <v>5894.89</v>
-      </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="7">
-        <f>F7+F29</f>
-        <v>7306.56</v>
-      </c>
-      <c r="G6" s="32"/>
+        <f>D8+D32</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="33"/>
+      <c r="F6" s="6">
+        <f>F8+F32</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="33"/>
       <c r="H6" s="7">
-        <f>H7+H29</f>
-        <v>6881.11</v>
-      </c>
-      <c r="I6" s="47"/>
+        <f>H8+H32</f>
+        <v>48858</v>
+      </c>
+      <c r="I6" s="48"/>
       <c r="J6" s="27"/>
-      <c r="K6" s="47"/>
+      <c r="K6" s="48"/>
       <c r="L6" s="27"/>
-      <c r="M6" s="47"/>
+      <c r="M6" s="48"/>
       <c r="N6" s="27"/>
-      <c r="O6" s="47"/>
+      <c r="O6" s="48"/>
       <c r="P6" s="27"/>
-      <c r="Q6" s="47"/>
+      <c r="Q6" s="48"/>
       <c r="R6" s="27"/>
-      <c r="S6" s="47"/>
+      <c r="S6" s="48"/>
       <c r="T6" s="27"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="47"/>
-    </row>
-    <row r="7" spans="1:23" ht="15.5" hidden="1">
-      <c r="B7" s="37" t="s">
+      <c r="U6" s="48"/>
+    </row>
+    <row r="7" spans="1:21" ht="15.5">
+      <c r="B7" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="38"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="8">
         <f>D9+D11+D13+D15+D17+D19+D21+D23+D25+D27</f>
         <v>0</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="34">
         <f>D7-D8</f>
         <v>0</v>
       </c>
@@ -1363,1194 +1372,1082 @@
         <f>F9+F11+F13+F15+F17+F19+F21+F23+F25+F27</f>
         <v>0</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="34">
         <f>F7-F8+E7</f>
         <v>0</v>
       </c>
       <c r="H7" s="8">
-        <f>H9+H11+H13+H15+H17+H19+H21+H23+H25+H27</f>
-        <v>3370</v>
-      </c>
-      <c r="I7" s="32">
+        <f>H9+H11+H13+H15+H17+H19+H21+H23+H25+H27+H29</f>
+        <v>3600</v>
+      </c>
+      <c r="I7" s="33">
         <f>H7-H8+G7</f>
-        <v>3370</v>
+        <v>-4400</v>
       </c>
       <c r="J7" s="6">
-        <f>J9+J11+J13+J15+J17+J19+J21+J23+J25+J27</f>
-        <v>35.1</v>
-      </c>
-      <c r="K7" s="32">
+        <f>J9+J11+J13+J15+J17+J19+J21+J23+J25+J27+J29</f>
+        <v>4934.79</v>
+      </c>
+      <c r="K7" s="33">
         <f>J7-J8+I7</f>
-        <v>2848.13</v>
+        <v>-3482.7999999999997</v>
       </c>
       <c r="L7" s="6">
-        <f>L9+L11+L13+L15+L17+L19+L21+L23+L25+L27</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="32">
+        <f>L9+L11+L13+L15+L17+L19+L21+L23+L25+L27+L29</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="33">
         <f>L7-L8+K7</f>
-        <v>2848.13</v>
+        <v>-3482.7999999999997</v>
       </c>
       <c r="N7" s="6">
-        <f>N9+N11+N13+N15+N17+N19+N21+N23+N25+N27</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="32">
+        <f>N9+N11+N13+N15+N17+N19+N21+N23+N25+N27+N29</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="33">
         <f>N7-N8+M7</f>
-        <v>2848.13</v>
-      </c>
-      <c r="P7" s="6" t="e">
-        <f>P9+P11+P13+P15+P17+P19+P21+P23+P25+P27</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q7" s="33" t="e">
+        <v>-3482.7999999999997</v>
+      </c>
+      <c r="P7" s="6">
+        <f>P9+P11+P13+P15+P17+P19+P21+P23+P25+P27+P29</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="33">
         <f>P7-P8+O7</f>
-        <v>#REF!</v>
+        <v>-3482.7999999999997</v>
       </c>
       <c r="R7" s="6">
-        <f>R9+R11+R13+R15+R17+R19+R21+R23+R25+R27</f>
-        <v>0</v>
-      </c>
-      <c r="S7" s="32">
-        <f>R7-R8+O7</f>
-        <v>2848.13</v>
+        <f>R9+R11+R13+R15+R17+R19+R21+R23+R25+R27+R29</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="33">
+        <f>R7-R8+Q7</f>
+        <v>-7082.7999999999993</v>
       </c>
       <c r="T7" s="6">
-        <f>T9+T11+T13+T15+T17+T19+T21+T23+T25+T27</f>
-        <v>0</v>
-      </c>
-      <c r="U7" s="32">
+        <f>T9+T11+T13+T15+T17+T19+T21+T23+T25+T27+T29</f>
+        <v>12560.309999999998</v>
+      </c>
+      <c r="U7" s="49">
         <f>T7-T8+S7</f>
-        <v>-521.86999999999989</v>
-      </c>
-      <c r="V7" s="6">
-        <f>V9+V11+V13+V15+V17+V19+V21+V23+V25+V27</f>
-        <v>12560.309999999998</v>
-      </c>
-      <c r="W7" s="48">
-        <f>V7-V8+U7</f>
-        <v>-7902.0700000000006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="15.5" hidden="1">
-      <c r="B8" s="39"/>
-      <c r="C8" s="40"/>
+        <v>-14463</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15.5">
+      <c r="B8" s="40"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="7">
         <f>D10+D12+D14+D16+D18+D20+D22+D24+D26+D28</f>
         <v>0</v>
       </c>
-      <c r="E8" s="32"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="7">
         <f>F10+F12+F14+F16+F18+F20+F22+F24+F26+F28</f>
         <v>0</v>
       </c>
-      <c r="G8" s="32"/>
+      <c r="G8" s="33"/>
       <c r="H8" s="7">
-        <f>H10+H12+H14+H16+H18+H20+H22+H24+H26+H28</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="32"/>
+        <f>H10+H12+H14+H16+H18+H20+H22+H24+H26+H28+H30</f>
+        <v>8000</v>
+      </c>
+      <c r="I8" s="33"/>
       <c r="J8" s="7">
-        <f>J10+J12+J14+J16+J18+J20+J22+J24+J26+J28</f>
-        <v>556.97</v>
-      </c>
-      <c r="K8" s="32"/>
+        <f>J10+J12+J14+J16+J18+J20+J22+J24+J26+J28+J30</f>
+        <v>4017.5899999999997</v>
+      </c>
+      <c r="K8" s="33"/>
       <c r="L8" s="7">
-        <f>L10+L12+L14+L16+L18+L20+L22+L24+L26+L28</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="32"/>
+        <f>L10+L12+L14+L16+L18+L20+L22+L24+L26+L28+L30</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="33"/>
       <c r="N8" s="7">
-        <f>N10+N12+N14+N16+N18+N20+N22+N24+N26+N28</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="32"/>
-      <c r="P8" s="7" t="e">
-        <f>P10+P12+P14+P16+P18+P20+P22+P24+P26+P28</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q8" s="58"/>
+        <f>N10+N12+N14+N16+N18+N20+N22+N24+N26+N28+N30</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="33"/>
+      <c r="P8" s="7">
+        <f>P10+P12+P14+P16+P18+P20+P22+P24+P26+P28+P30</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="33"/>
       <c r="R8" s="7">
-        <f>R10+R12+R14+R16+R18+R20+R22+R24+R26+R28</f>
-        <v>0</v>
-      </c>
-      <c r="S8" s="32"/>
+        <f>R10+R12+R14+R16+R18+R20+R22+R24+R26+R28+R30</f>
+        <v>3600</v>
+      </c>
+      <c r="S8" s="33"/>
       <c r="T8" s="7">
-        <f>T10+T12+T14+T16+T18+T20+T22+T24+T26+T28</f>
-        <v>3370</v>
-      </c>
-      <c r="U8" s="32"/>
-      <c r="V8" s="7">
-        <f>V10+V12+V14+V16+V18+V20+V22+V24+V26+V28</f>
+        <f>T10+T12+T14+T16+T18+T20+T22+T24+T26+T28+T30</f>
         <v>19940.509999999998</v>
       </c>
-      <c r="W8" s="48"/>
-    </row>
-    <row r="9" spans="1:23" ht="15.5" hidden="1">
+      <c r="U8" s="49"/>
+    </row>
+    <row r="9" spans="1:21" ht="15.5">
       <c r="B9" s="9"/>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="37" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="32">
+      <c r="E9" s="33">
         <f>D9-D10</f>
         <v>0</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="32">
+      <c r="G9" s="33">
         <f>F9-F10+E9</f>
         <v>0</v>
       </c>
       <c r="H9" s="6">
-        <v>1000</v>
-      </c>
-      <c r="I9" s="32">
+        <v>800</v>
+      </c>
+      <c r="I9" s="33">
         <f>H9-H10+G9</f>
-        <v>1000</v>
+        <v>-2050</v>
       </c>
       <c r="J9" s="6">
         <f>COHE_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K9" s="32">
+      <c r="K9" s="33">
         <f>J9-J10+I9</f>
-        <v>686.5</v>
+        <v>-2363.5</v>
       </c>
       <c r="L9" s="6">
         <f>COHE_Clôtures!C5</f>
         <v>0</v>
       </c>
-      <c r="M9" s="32">
+      <c r="M9" s="33">
         <f>L9-L10+K9</f>
-        <v>686.5</v>
+        <v>-2363.5</v>
       </c>
       <c r="N9" s="6">
         <f>COHE_Clôtures!D5</f>
         <v>0</v>
       </c>
-      <c r="O9" s="32">
+      <c r="O9" s="33">
         <f>N9-N10+M9</f>
-        <v>686.5</v>
-      </c>
-      <c r="P9" s="6" t="e">
-        <f>COHE_Clôtures!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q9" s="32" t="e">
-        <f t="shared" ref="Q9" si="0">P9-P10+O9</f>
-        <v>#REF!</v>
+        <v>-2363.5</v>
+      </c>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="33">
+        <f>P9-P10+O9</f>
+        <v>-2363.5</v>
       </c>
       <c r="R9" s="6"/>
-      <c r="S9" s="32">
-        <f>R9-R10+O9</f>
-        <v>686.5</v>
-      </c>
-      <c r="T9" s="6"/>
-      <c r="U9" s="32">
+      <c r="S9" s="33">
+        <f>R9-R10+Q9</f>
+        <v>-3163.5</v>
+      </c>
+      <c r="T9" s="6">
+        <v>2309.38</v>
+      </c>
+      <c r="U9" s="49">
         <f>T9-T10+S9</f>
-        <v>-313.5</v>
-      </c>
-      <c r="V9" s="6">
-        <v>2309.38</v>
-      </c>
-      <c r="W9" s="48">
-        <f>V9-V10+U9</f>
-        <v>102.43000000000006</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="15.5" hidden="1">
+        <v>-2747.5699999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15.5">
       <c r="B10" s="9"/>
-      <c r="C10" s="36"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="32"/>
+      <c r="E10" s="33"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="32"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="7">
+        <v>2850</v>
+      </c>
+      <c r="I10" s="33"/>
       <c r="J10" s="7">
         <f>COHE_Clôtures!$B$9</f>
         <v>313.5</v>
       </c>
-      <c r="K10" s="32"/>
+      <c r="K10" s="33"/>
       <c r="L10" s="7">
         <f>COHE_Clôtures!C9</f>
         <v>0</v>
       </c>
-      <c r="M10" s="32"/>
+      <c r="M10" s="33"/>
       <c r="N10" s="7">
         <f>COHE_Clôtures!D9</f>
         <v>0</v>
       </c>
-      <c r="O10" s="32"/>
-      <c r="P10" s="7" t="e">
-        <f>COHE_Clôtures!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q10" s="32"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="7">
+        <f>F9</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="33"/>
       <c r="R10" s="7">
-        <f>F9</f>
-        <v>0</v>
-      </c>
-      <c r="S10" s="32"/>
+        <f>H9</f>
+        <v>800</v>
+      </c>
+      <c r="S10" s="33"/>
       <c r="T10" s="7">
-        <f>H9</f>
-        <v>1000</v>
-      </c>
-      <c r="U10" s="32"/>
-      <c r="V10" s="7">
         <v>1893.45</v>
       </c>
-      <c r="W10" s="48"/>
-    </row>
-    <row r="11" spans="1:23" ht="15.5" hidden="1">
+      <c r="U10" s="49"/>
+    </row>
+    <row r="11" spans="1:21" ht="15.5">
       <c r="B11" s="9"/>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="37" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="32">
+      <c r="E11" s="33">
         <f>D11-D12</f>
         <v>0</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="32">
-        <f t="shared" ref="G11" si="1">F11-F12+E11</f>
+      <c r="G11" s="33">
+        <f t="shared" ref="G11" si="0">F11-F12+E11</f>
         <v>0</v>
       </c>
       <c r="H11" s="6">
-        <v>750</v>
-      </c>
-      <c r="I11" s="32">
+        <v>150</v>
+      </c>
+      <c r="I11" s="33">
         <f>H11-H12+G11</f>
-        <v>750</v>
+        <v>-600</v>
       </c>
       <c r="J11" s="6">
         <f>COM_Clôtures!$B$3</f>
         <v>35.1</v>
       </c>
-      <c r="K11" s="32">
-        <f t="shared" ref="K11" si="2">J11-J12+I11</f>
-        <v>617.23</v>
+      <c r="K11" s="33">
+        <f t="shared" ref="K11" si="1">J11-J12+I11</f>
+        <v>-732.77</v>
       </c>
       <c r="L11" s="6">
         <f>COM_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M11" s="32">
+      <c r="M11" s="33">
         <f>L11-L12+K11</f>
-        <v>617.23</v>
+        <v>-732.77</v>
       </c>
       <c r="N11" s="6">
         <f>COM_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O11" s="32">
+      <c r="O11" s="33">
         <f>N11-N12+M11</f>
-        <v>617.23</v>
-      </c>
-      <c r="P11" s="6" t="e">
-        <f>COM_Clôtures!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q11" s="32" t="e">
+        <v>-732.77</v>
+      </c>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="33">
         <f>P11-P12+O11</f>
-        <v>#REF!</v>
+        <v>-732.77</v>
       </c>
       <c r="R11" s="6"/>
-      <c r="S11" s="32">
-        <f>R11-R12+O11</f>
-        <v>617.23</v>
-      </c>
-      <c r="T11" s="6"/>
-      <c r="U11" s="32">
+      <c r="S11" s="33">
+        <f>R11-R12+Q11</f>
+        <v>-882.77</v>
+      </c>
+      <c r="T11" s="6">
+        <v>883.34</v>
+      </c>
+      <c r="U11" s="31">
         <f>T11-T12+S11</f>
-        <v>-132.76999999999998</v>
-      </c>
-      <c r="V11" s="6">
-        <v>883.34</v>
-      </c>
-      <c r="W11" s="31">
-        <f>V11-V12+U11</f>
-        <v>622.37000000000012</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="15.5" hidden="1">
+        <v>-127.62999999999988</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15.5">
       <c r="B12" s="9"/>
-      <c r="C12" s="36"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="32"/>
+      <c r="E12" s="33"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="32"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="7">
+        <v>750</v>
+      </c>
+      <c r="I12" s="33"/>
       <c r="J12" s="7">
         <f>COM_Clôtures!$B$5</f>
         <v>167.87</v>
       </c>
-      <c r="K12" s="32"/>
+      <c r="K12" s="33"/>
       <c r="L12" s="7">
         <f>COM_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M12" s="32"/>
+      <c r="M12" s="33"/>
       <c r="N12" s="7">
         <f>COM_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O12" s="32"/>
-      <c r="P12" s="7" t="e">
-        <f>COM_Clôtures!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q12" s="32"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="7">
+        <f>F11</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="33"/>
       <c r="R12" s="7">
-        <f>F11</f>
-        <v>0</v>
-      </c>
-      <c r="S12" s="32"/>
+        <f>H11</f>
+        <v>150</v>
+      </c>
+      <c r="S12" s="33"/>
       <c r="T12" s="7">
-        <f>H11</f>
-        <v>750</v>
-      </c>
-      <c r="U12" s="32"/>
-      <c r="V12" s="7">
         <v>128.19999999999999</v>
       </c>
-      <c r="W12" s="31"/>
-    </row>
-    <row r="13" spans="1:23" ht="15.5" hidden="1">
+      <c r="U12" s="31"/>
+    </row>
+    <row r="13" spans="1:21" ht="15.5">
       <c r="B13" s="9"/>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="37" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="32">
+      <c r="E13" s="33">
         <f>D13-D14</f>
         <v>0</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="32">
-        <f t="shared" ref="G13" si="3">F13-F14+E13</f>
+      <c r="G13" s="33">
+        <f t="shared" ref="G13" si="2">F13-F14+E13</f>
         <v>0</v>
       </c>
       <c r="H13" s="6">
-        <v>170</v>
-      </c>
-      <c r="I13" s="32">
+        <v>0</v>
+      </c>
+      <c r="I13" s="33">
         <f>H13-H14+G13</f>
-        <v>170</v>
+        <v>-500</v>
       </c>
       <c r="J13" s="6">
         <f>CONTRIB_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K13" s="32">
-        <f t="shared" ref="K13" si="4">J13-J14+I13</f>
-        <v>94.4</v>
+      <c r="K13" s="33">
+        <f t="shared" ref="K13" si="3">J13-J14+I13</f>
+        <v>-575.6</v>
       </c>
       <c r="L13" s="6">
         <f>CONTRIB_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M13" s="32">
+      <c r="M13" s="33">
         <f>L13-L14+K13</f>
-        <v>94.4</v>
+        <v>-575.6</v>
       </c>
       <c r="N13" s="6">
         <f>CONTRIB_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O13" s="32">
+      <c r="O13" s="33">
         <f>N13-N14+M13</f>
-        <v>94.4</v>
-      </c>
-      <c r="P13" s="6" t="e">
-        <f>CONTRIB_Clôtures!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q13" s="32" t="e">
-        <f t="shared" ref="Q13" si="5">P13-P14+O13</f>
-        <v>#REF!</v>
+        <v>-575.6</v>
+      </c>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="33">
+        <f>P13-P14+O13</f>
+        <v>-575.6</v>
       </c>
       <c r="R13" s="6"/>
-      <c r="S13" s="32">
-        <f>R13-R14+O13</f>
-        <v>94.4</v>
-      </c>
-      <c r="T13" s="6"/>
-      <c r="U13" s="32">
-        <f t="shared" ref="U13" si="6">T13-T14+S13</f>
-        <v>-75.599999999999994</v>
-      </c>
-      <c r="V13" s="6">
+      <c r="S13" s="33">
+        <f t="shared" ref="S13" si="4">R13-R14+Q13</f>
+        <v>-575.6</v>
+      </c>
+      <c r="T13" s="6">
         <v>171.6</v>
       </c>
-      <c r="W13" s="48">
-        <f t="shared" ref="W13" si="7">V13-V14+U13</f>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="15.5" hidden="1">
+      <c r="U13" s="49">
+        <f t="shared" ref="U13" si="5">T13-T14+S13</f>
+        <v>-404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15.5">
       <c r="B14" s="9"/>
-      <c r="C14" s="36"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="32"/>
+      <c r="E14" s="33"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="32"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="7">
+        <v>500</v>
+      </c>
+      <c r="I14" s="33"/>
       <c r="J14" s="7">
         <f>CONTRIB_Clôtures!$B$7</f>
         <v>75.599999999999994</v>
       </c>
-      <c r="K14" s="32"/>
+      <c r="K14" s="33"/>
       <c r="L14" s="7">
         <f>CONTRIB_Clôtures!$C$7</f>
         <v>0</v>
       </c>
-      <c r="M14" s="32"/>
+      <c r="M14" s="33"/>
       <c r="N14" s="7">
         <f>CONTRIB_Clôtures!$D$7</f>
         <v>0</v>
       </c>
-      <c r="O14" s="32"/>
-      <c r="P14" s="7" t="e">
-        <f>CONTRIB_Clôtures!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q14" s="32"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="7">
+        <f>F13</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="33"/>
       <c r="R14" s="7">
-        <f>F13</f>
-        <v>0</v>
-      </c>
-      <c r="S14" s="32"/>
-      <c r="T14" s="7">
         <f>H13</f>
-        <v>170</v>
-      </c>
-      <c r="U14" s="32"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="48"/>
-    </row>
-    <row r="15" spans="1:23" ht="15.5" hidden="1">
+        <v>0</v>
+      </c>
+      <c r="S14" s="33"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="49"/>
+    </row>
+    <row r="15" spans="1:21" ht="15.5">
       <c r="B15" s="9"/>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="37" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="32">
+      <c r="E15" s="33">
         <f>D15-D16</f>
         <v>0</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="32">
-        <f t="shared" ref="G15" si="8">F15-F16+E15</f>
+      <c r="G15" s="33">
+        <f t="shared" ref="G15" si="6">F15-F16+E15</f>
         <v>0</v>
       </c>
       <c r="H15" s="6">
-        <v>800</v>
-      </c>
-      <c r="I15" s="32">
-        <f t="shared" ref="I15" si="9">H15-H16+G15</f>
-        <v>800</v>
+        <v>1750</v>
+      </c>
+      <c r="I15" s="33">
+        <f t="shared" ref="I15" si="7">H15-H16+G15</f>
+        <v>-1000</v>
       </c>
       <c r="J15" s="6">
         <f>EVENT_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K15" s="32">
-        <f t="shared" ref="K15" si="10">J15-J16+I15</f>
-        <v>800</v>
+      <c r="K15" s="33">
+        <f t="shared" ref="K15" si="8">J15-J16+I15</f>
+        <v>-1000</v>
       </c>
       <c r="L15" s="6">
         <f>EVENT_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M15" s="32">
+      <c r="M15" s="33">
         <f>L15-L16+K15</f>
-        <v>800</v>
+        <v>-1000</v>
       </c>
       <c r="N15" s="6">
         <f>EVENT_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O15" s="32">
+      <c r="O15" s="33">
         <f>N15-N16+M15</f>
-        <v>800</v>
-      </c>
-      <c r="P15" s="6" t="e">
-        <f>EVENT_Clôtures!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q15" s="32" t="e">
-        <f t="shared" ref="Q15" si="11">P15-P16+O15</f>
-        <v>#REF!</v>
+        <v>-1000</v>
+      </c>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="33">
+        <f>P15-P16+O15</f>
+        <v>-1000</v>
       </c>
       <c r="R15" s="6"/>
-      <c r="S15" s="32">
-        <f>R15-R16+O15</f>
-        <v>800</v>
-      </c>
-      <c r="T15" s="6"/>
-      <c r="U15" s="32">
-        <f t="shared" ref="U15" si="12">T15-T16+S15</f>
-        <v>0</v>
-      </c>
-      <c r="V15" s="6">
+      <c r="S15" s="33">
+        <f t="shared" ref="S15" si="9">R15-R16+Q15</f>
+        <v>-2750</v>
+      </c>
+      <c r="T15" s="6">
         <v>2442.2199999999998</v>
       </c>
-      <c r="W15" s="48">
-        <f t="shared" ref="W15" si="13">V15-V16+U15</f>
-        <v>-1931.6399999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="15.5" hidden="1">
+      <c r="U15" s="49">
+        <f t="shared" ref="U15" si="10">T15-T16+S15</f>
+        <v>-4681.6399999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="15.5">
       <c r="B16" s="9"/>
-      <c r="C16" s="36"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="32"/>
+      <c r="E16" s="33"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="32"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="7">
+        <v>2750</v>
+      </c>
+      <c r="I16" s="33"/>
       <c r="J16" s="7">
         <f>EVENT_Clôtures!$B$12</f>
         <v>0</v>
       </c>
-      <c r="K16" s="32"/>
+      <c r="K16" s="33"/>
       <c r="L16" s="7">
         <f>EVENT_Clôtures!$C$12</f>
         <v>0</v>
       </c>
-      <c r="M16" s="32"/>
+      <c r="M16" s="33"/>
       <c r="N16" s="7">
         <f>EVENT_Clôtures!$D$12</f>
         <v>0</v>
       </c>
-      <c r="O16" s="32"/>
-      <c r="P16" s="7" t="e">
-        <f>EVENT_Clôtures!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q16" s="32"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="7">
+        <f>F15</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="33"/>
       <c r="R16" s="7">
-        <f>F15</f>
-        <v>0</v>
-      </c>
-      <c r="S16" s="32"/>
+        <f>H15</f>
+        <v>1750</v>
+      </c>
+      <c r="S16" s="33"/>
       <c r="T16" s="7">
-        <f>H15</f>
-        <v>800</v>
-      </c>
-      <c r="U16" s="32"/>
-      <c r="V16" s="7">
         <v>4373.8599999999997</v>
       </c>
-      <c r="W16" s="48"/>
-    </row>
-    <row r="17" spans="2:23" ht="15.5" hidden="1">
+      <c r="U16" s="49"/>
+    </row>
+    <row r="17" spans="2:21" ht="15.5">
       <c r="B17" s="9"/>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="37" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="32">
+      <c r="E17" s="33">
         <f>D17-D18</f>
         <v>0</v>
       </c>
       <c r="F17" s="6"/>
-      <c r="G17" s="32">
-        <f t="shared" ref="G17" si="14">F17-F18+E17</f>
+      <c r="G17" s="33">
+        <f t="shared" ref="G17" si="11">F17-F18+E17</f>
         <v>0</v>
       </c>
       <c r="H17" s="6">
         <v>0</v>
       </c>
-      <c r="I17" s="32">
-        <f t="shared" ref="I17" si="15">H17-H18+G17</f>
+      <c r="I17" s="33">
+        <f t="shared" ref="I17" si="12">H17-H18+G17</f>
         <v>0</v>
       </c>
       <c r="J17" s="6">
         <f>EXTRA_Clôtures!$B$3</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="32">
-        <f t="shared" ref="K17" si="16">J17-J18+I17</f>
-        <v>0</v>
+        <v>1.38</v>
+      </c>
+      <c r="K17" s="33">
+        <f t="shared" ref="K17" si="13">J17-J18+I17</f>
+        <v>-2010.02</v>
       </c>
       <c r="L17" s="6">
         <f>EXTRA_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M17" s="32">
+      <c r="M17" s="33">
         <f>L17-L18+K17</f>
-        <v>0</v>
+        <v>-2010.02</v>
       </c>
       <c r="N17" s="6">
         <f>EXTRA_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O17" s="32">
+      <c r="O17" s="33">
         <f>N17-N18+M17</f>
-        <v>0</v>
-      </c>
-      <c r="P17" s="6" t="e">
-        <f>EXTRA_Clôtures!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q17" s="32" t="e">
-        <f t="shared" ref="Q17" si="17">P17-P18+O17</f>
-        <v>#REF!</v>
+        <v>-2010.02</v>
+      </c>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="33">
+        <f>P17-P18+O17</f>
+        <v>-2010.02</v>
       </c>
       <c r="R17" s="6"/>
-      <c r="S17" s="32">
-        <f>R17-R18+O17</f>
-        <v>0</v>
-      </c>
-      <c r="T17" s="6"/>
-      <c r="U17" s="32">
-        <f t="shared" ref="U17" si="18">T17-T18+S17</f>
-        <v>0</v>
-      </c>
-      <c r="V17" s="6">
+      <c r="S17" s="33">
+        <f t="shared" ref="S17" si="14">R17-R18+Q17</f>
+        <v>-2010.02</v>
+      </c>
+      <c r="T17" s="6">
         <v>395.9</v>
       </c>
-      <c r="W17" s="48">
-        <f t="shared" ref="W17" si="19">V17-V18+U17</f>
-        <v>-202.01999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="2:23" ht="15.5" hidden="1">
+      <c r="U17" s="49">
+        <f t="shared" ref="U17" si="15">T17-T18+S17</f>
+        <v>-2212.04</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" ht="15.5">
       <c r="B18" s="9"/>
-      <c r="C18" s="36"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="32"/>
+      <c r="E18" s="33"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="32"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="33"/>
       <c r="J18" s="7">
         <f>EXTRA_Clôtures!$B$5</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="32"/>
+        <v>2011.4</v>
+      </c>
+      <c r="K18" s="33"/>
       <c r="L18" s="7">
         <f>EXTRA_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M18" s="32"/>
+      <c r="M18" s="33"/>
       <c r="N18" s="7">
         <f>EXTRA_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O18" s="32"/>
-      <c r="P18" s="7" t="e">
-        <f>EXTRA_Clôtures!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q18" s="32"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="7">
+        <f>F17</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="33"/>
       <c r="R18" s="7">
-        <f>F17</f>
-        <v>0</v>
-      </c>
-      <c r="S18" s="32"/>
+        <f>H17</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="33"/>
       <c r="T18" s="7">
-        <f>H17</f>
-        <v>0</v>
-      </c>
-      <c r="U18" s="32"/>
-      <c r="V18" s="7">
         <v>597.91999999999996</v>
       </c>
-      <c r="W18" s="48"/>
-    </row>
-    <row r="19" spans="2:23" ht="15.5" hidden="1">
+      <c r="U18" s="49"/>
+    </row>
+    <row r="19" spans="2:21" ht="15.5">
       <c r="B19" s="9"/>
-      <c r="C19" s="36" t="s">
-        <v>13</v>
+      <c r="C19" s="37" t="s">
+        <v>11</v>
       </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="32">
+      <c r="E19" s="33">
         <f>D19-D20</f>
         <v>0</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="32">
-        <f t="shared" ref="G19" si="20">F19-F20+E19</f>
+      <c r="G19" s="33">
+        <f t="shared" ref="G19" si="16">F19-F20+E19</f>
         <v>0</v>
       </c>
       <c r="H19" s="6">
-        <v>0</v>
-      </c>
-      <c r="I19" s="32">
-        <f t="shared" ref="I19" si="21">H19-H20+G19</f>
-        <v>0</v>
+        <v>900</v>
+      </c>
+      <c r="I19" s="33">
+        <f t="shared" ref="I19" si="17">H19-H20+G19</f>
+        <v>100</v>
       </c>
       <c r="J19" s="6">
         <f>FONCT_Clôtures!$B$5</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="32">
-        <f t="shared" ref="K19" si="22">J19-J20+I19</f>
-        <v>0</v>
+        <v>3472.44</v>
+      </c>
+      <c r="K19" s="33">
+        <f t="shared" ref="K19" si="18">J19-J20+I19</f>
+        <v>3045.07</v>
       </c>
       <c r="L19" s="6">
         <f>FONCT_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M19" s="32">
+      <c r="M19" s="33">
         <f>L19-L20+K19</f>
-        <v>0</v>
+        <v>3045.07</v>
       </c>
       <c r="N19" s="6">
         <f>FONCT_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O19" s="32">
+      <c r="O19" s="33">
         <f>N19-N20+M19</f>
-        <v>0</v>
-      </c>
-      <c r="P19" s="6" t="e">
-        <f>FONCT_Clôtures!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q19" s="32" t="e">
-        <f t="shared" ref="Q19" si="23">P19-P20+O19</f>
-        <v>#REF!</v>
+        <v>3045.07</v>
+      </c>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="33">
+        <f>P19-P20+O19</f>
+        <v>3045.07</v>
       </c>
       <c r="R19" s="6"/>
-      <c r="S19" s="32">
-        <f>R19-R20+O19</f>
-        <v>0</v>
-      </c>
-      <c r="T19" s="6"/>
-      <c r="U19" s="32">
-        <f t="shared" ref="U19" si="24">T19-T20+S19</f>
-        <v>0</v>
-      </c>
-      <c r="V19" s="6">
+      <c r="S19" s="33">
+        <f t="shared" ref="S19" si="19">R19-R20+Q19</f>
+        <v>2145.0700000000002</v>
+      </c>
+      <c r="T19" s="6">
         <v>1055.74</v>
       </c>
-      <c r="W19" s="48">
-        <f t="shared" ref="W19" si="25">V19-V20+U19</f>
-        <v>-7004.04</v>
-      </c>
-    </row>
-    <row r="20" spans="2:23" ht="15.5" hidden="1">
+      <c r="U19" s="49">
+        <f t="shared" ref="U19" si="20">T19-T20+S19</f>
+        <v>-4858.9699999999993</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" ht="15.5">
       <c r="B20" s="9"/>
-      <c r="C20" s="36"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="32"/>
+      <c r="E20" s="33"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="32"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="7">
+        <v>800</v>
+      </c>
+      <c r="I20" s="33"/>
       <c r="J20" s="7">
         <f>FONCT_Clôtures!$B$12</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="32"/>
+        <v>527.37</v>
+      </c>
+      <c r="K20" s="33"/>
       <c r="L20" s="7">
         <f>FONCT_Clôtures!$C$12</f>
         <v>0</v>
       </c>
-      <c r="M20" s="32"/>
+      <c r="M20" s="33"/>
       <c r="N20" s="7">
         <f>FONCT_Clôtures!$D$12</f>
         <v>0</v>
       </c>
-      <c r="O20" s="32"/>
-      <c r="P20" s="7" t="e">
-        <f>FONCT_Clôtures!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q20" s="32"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="7">
+        <f>F19</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="33"/>
       <c r="R20" s="7">
-        <f>F19</f>
-        <v>0</v>
-      </c>
-      <c r="S20" s="32"/>
+        <f>H19</f>
+        <v>900</v>
+      </c>
+      <c r="S20" s="33"/>
       <c r="T20" s="7">
-        <f>H19</f>
-        <v>0</v>
-      </c>
-      <c r="U20" s="32"/>
-      <c r="V20" s="7">
         <v>8059.78</v>
       </c>
-      <c r="W20" s="48"/>
-    </row>
-    <row r="21" spans="2:23" ht="15.5" hidden="1">
+      <c r="U20" s="49"/>
+    </row>
+    <row r="21" spans="2:21" ht="15.5">
       <c r="B21" s="9"/>
-      <c r="C21" s="36" t="s">
-        <v>14</v>
+      <c r="C21" s="37" t="s">
+        <v>12</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="32">
+      <c r="E21" s="33">
         <f>D21-D22</f>
         <v>0</v>
       </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="32">
-        <f t="shared" ref="G21" si="26">F21-F22+E21</f>
+      <c r="G21" s="33">
+        <f t="shared" ref="G21" si="21">F21-F22+E21</f>
         <v>0</v>
       </c>
       <c r="H21" s="6">
         <v>0</v>
       </c>
-      <c r="I21" s="32">
-        <f t="shared" ref="I21" si="27">H21-H22+G21</f>
+      <c r="I21" s="33">
+        <f t="shared" ref="I21" si="22">H21-H22+G21</f>
         <v>0</v>
       </c>
       <c r="J21" s="6">
         <f>CONVER_Clôtures!$B$3</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="32">
-        <f t="shared" ref="K21" si="28">J21-J22+I21</f>
-        <v>0</v>
+        <v>605.41999999999996</v>
+      </c>
+      <c r="K21" s="33">
+        <f t="shared" ref="K21" si="23">J21-J22+I21</f>
+        <v>605.41999999999996</v>
       </c>
       <c r="L21" s="6">
         <f>CONVER_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M21" s="32">
+      <c r="M21" s="33">
         <f>L21-L22+K21</f>
-        <v>0</v>
+        <v>605.41999999999996</v>
       </c>
       <c r="N21" s="6">
         <f>CONVER_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O21" s="32">
+      <c r="O21" s="33">
         <f>N21-N22+M21</f>
-        <v>0</v>
-      </c>
-      <c r="P21" s="6" t="e">
-        <f>CONVER_Clôtures!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q21" s="32" t="e">
-        <f t="shared" ref="Q21" si="29">P21-P22+O21</f>
-        <v>#REF!</v>
+        <v>605.41999999999996</v>
+      </c>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="33">
+        <f>P21-P22+O21</f>
+        <v>605.41999999999996</v>
       </c>
       <c r="R21" s="6"/>
-      <c r="S21" s="32">
-        <f>R21-R22+O21</f>
-        <v>0</v>
-      </c>
-      <c r="T21" s="6"/>
-      <c r="U21" s="32">
-        <f t="shared" ref="U21" si="30">T21-T22+S21</f>
-        <v>0</v>
-      </c>
-      <c r="V21" s="6">
+      <c r="S21" s="33">
+        <f t="shared" ref="S21" si="24">R21-R22+Q21</f>
+        <v>605.41999999999996</v>
+      </c>
+      <c r="T21" s="6">
         <v>2405.42</v>
       </c>
-      <c r="W21" s="48">
-        <f t="shared" ref="W21" si="31">V21-V22+U21</f>
-        <v>-594.57999999999993</v>
-      </c>
-    </row>
-    <row r="22" spans="2:23" ht="15.5" hidden="1">
+      <c r="U21" s="49">
+        <f t="shared" ref="U21" si="25">T21-T22+S21</f>
+        <v>10.840000000000032</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" ht="15.5">
       <c r="B22" s="9"/>
-      <c r="C22" s="36"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="32"/>
+      <c r="E22" s="33"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="32"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="33"/>
       <c r="J22" s="7">
         <f>CONVER_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K22" s="32"/>
+      <c r="K22" s="33"/>
       <c r="L22" s="7">
         <f>CONVER_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M22" s="32"/>
+      <c r="M22" s="33"/>
       <c r="N22" s="7">
         <f>CONVER_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O22" s="32"/>
-      <c r="P22" s="7" t="e">
-        <f>CONVER_Clôtures!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q22" s="32"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="7">
+        <f>F21</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="33"/>
       <c r="R22" s="7">
-        <f>F21</f>
-        <v>0</v>
-      </c>
-      <c r="S22" s="32"/>
+        <f>H21</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="33"/>
       <c r="T22" s="7">
-        <f>H21</f>
-        <v>0</v>
-      </c>
-      <c r="U22" s="32"/>
-      <c r="V22" s="7">
         <v>3000</v>
       </c>
-      <c r="W22" s="48"/>
-    </row>
-    <row r="23" spans="2:23" ht="15.5" hidden="1">
+      <c r="U22" s="49"/>
+    </row>
+    <row r="23" spans="2:21" ht="15.5">
       <c r="B23" s="9"/>
-      <c r="C23" s="36" t="s">
-        <v>15</v>
+      <c r="C23" s="37" t="s">
+        <v>13</v>
       </c>
       <c r="D23" s="6"/>
-      <c r="E23" s="32">
+      <c r="E23" s="33">
         <f>D23-D24</f>
         <v>0</v>
       </c>
       <c r="F23" s="6"/>
-      <c r="G23" s="32">
-        <f t="shared" ref="G23" si="32">F23-F24+E23</f>
+      <c r="G23" s="33">
+        <f t="shared" ref="G23" si="26">F23-F24+E23</f>
         <v>0</v>
       </c>
       <c r="H23" s="6">
-        <v>500</v>
-      </c>
-      <c r="I23" s="32">
-        <f t="shared" ref="I23" si="33">H23-H24+G23</f>
-        <v>500</v>
+        <v>0</v>
+      </c>
+      <c r="I23" s="33">
+        <f t="shared" ref="I23" si="27">H23-H24+G23</f>
+        <v>-100</v>
       </c>
       <c r="J23" s="6">
         <f>LOCAL_Clôtures!$B$3</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="32">
-        <f t="shared" ref="K23" si="34">J23-J24+I23</f>
-        <v>500</v>
+        <v>255.62</v>
+      </c>
+      <c r="K23" s="33">
+        <f t="shared" ref="K23" si="28">J23-J24+I23</f>
+        <v>-96.080000000000013</v>
       </c>
       <c r="L23" s="6">
         <f>LOCAL_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M23" s="32">
+      <c r="M23" s="33">
         <f>L23-L24+K23</f>
-        <v>500</v>
+        <v>-96.080000000000013</v>
       </c>
       <c r="N23" s="6">
         <f>LOCAL_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O23" s="32">
+      <c r="O23" s="33">
         <f>N23-N24+M23</f>
-        <v>500</v>
-      </c>
-      <c r="P23" s="6" t="e">
-        <f>LOCAL_Clôtures!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q23" s="32" t="e">
-        <f t="shared" ref="Q23" si="35">P23-P24+O23</f>
-        <v>#REF!</v>
+        <v>-96.080000000000013</v>
+      </c>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="33">
+        <f>P23-P24+O23</f>
+        <v>-96.080000000000013</v>
       </c>
       <c r="R23" s="6"/>
-      <c r="S23" s="32">
-        <f>R23-R24+O23</f>
-        <v>500</v>
-      </c>
-      <c r="T23" s="6"/>
-      <c r="U23" s="32">
-        <f t="shared" ref="U23" si="36">T23-T24+S23</f>
-        <v>0</v>
-      </c>
-      <c r="V23" s="6">
+      <c r="S23" s="33">
+        <f t="shared" ref="S23" si="29">R23-R24+Q23</f>
+        <v>-96.080000000000013</v>
+      </c>
+      <c r="T23" s="6">
         <v>654.46</v>
       </c>
-      <c r="W23" s="48">
-        <f t="shared" ref="W23" si="37">V23-V24+U23</f>
-        <v>654.46</v>
-      </c>
-    </row>
-    <row r="24" spans="2:23" ht="15.5" hidden="1">
+      <c r="U23" s="49">
+        <f t="shared" ref="U23" si="30">T23-T24+S23</f>
+        <v>558.38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" ht="15.5">
       <c r="B24" s="9"/>
-      <c r="C24" s="36"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="32"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="7">
+        <v>100</v>
+      </c>
+      <c r="I24" s="33"/>
       <c r="J24" s="7">
         <f>LOCAL_Clôtures!$B$8</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="32"/>
+        <v>251.70000000000002</v>
+      </c>
+      <c r="K24" s="33"/>
       <c r="L24" s="7">
         <f>LOCAL_Clôtures!$C$8</f>
         <v>0</v>
       </c>
-      <c r="M24" s="32"/>
+      <c r="M24" s="33"/>
       <c r="N24" s="7">
         <f>LOCAL_Clôtures!$D$8</f>
         <v>0</v>
       </c>
-      <c r="O24" s="32"/>
-      <c r="P24" s="7" t="e">
-        <f>LOCAL_Clôtures!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q24" s="32"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="7">
+        <f>F23</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="33"/>
       <c r="R24" s="7">
-        <f>F23</f>
-        <v>0</v>
-      </c>
-      <c r="S24" s="32"/>
-      <c r="T24" s="7">
         <f>H23</f>
-        <v>500</v>
-      </c>
-      <c r="U24" s="32"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="48"/>
-    </row>
-    <row r="25" spans="2:23" ht="15.5" hidden="1">
+        <v>0</v>
+      </c>
+      <c r="S24" s="33"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="49"/>
+    </row>
+    <row r="25" spans="2:21" ht="15.5">
       <c r="B25" s="9"/>
-      <c r="C25" s="36" t="s">
-        <v>16</v>
+      <c r="C25" s="37" t="s">
+        <v>14</v>
       </c>
       <c r="D25" s="6"/>
-      <c r="E25" s="32">
+      <c r="E25" s="33">
         <f>D25-D26</f>
         <v>0</v>
       </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="32">
-        <f t="shared" ref="G25" si="38">F25-F26+E25</f>
+      <c r="G25" s="33">
+        <f t="shared" ref="G25" si="31">F25-F26+E25</f>
         <v>0</v>
       </c>
       <c r="H25" s="6">
-        <v>150</v>
-      </c>
-      <c r="I25" s="32">
-        <f t="shared" ref="I25" si="39">H25-H26+G25</f>
-        <v>150</v>
+        <v>0</v>
+      </c>
+      <c r="I25" s="33">
+        <f t="shared" ref="I25" si="32">H25-H26+G25</f>
+        <v>-250</v>
       </c>
       <c r="J25" s="6">
         <f>LOG_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K25" s="32">
-        <f t="shared" ref="K25" si="40">J25-J26+I25</f>
-        <v>150</v>
+      <c r="K25" s="33">
+        <f t="shared" ref="K25" si="33">J25-J26+I25</f>
+        <v>-355.32</v>
       </c>
       <c r="L25" s="6">
         <f>LOG_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M25" s="32">
+      <c r="M25" s="33">
         <f>L25-L26+K25</f>
-        <v>150</v>
+        <v>-355.32</v>
       </c>
       <c r="N25" s="6">
         <f>LOG_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O25" s="32">
+      <c r="O25" s="33">
         <f>N25-N26+M25</f>
-        <v>150</v>
-      </c>
-      <c r="P25" s="6" t="e">
-        <f>LOG_Clôtures!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q25" s="32" t="e">
+        <v>-355.32</v>
+      </c>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="33">
         <f>P25-P26+O25</f>
-        <v>#REF!</v>
+        <v>-355.32</v>
       </c>
       <c r="R25" s="6"/>
-      <c r="S25" s="32">
-        <f>R25-R26+O25</f>
-        <v>150</v>
-      </c>
-      <c r="T25" s="6"/>
-      <c r="U25" s="32">
-        <f t="shared" ref="U25" si="41">T25-T26+S25</f>
-        <v>0</v>
-      </c>
-      <c r="V25" s="6">
+      <c r="S25" s="33">
+        <f t="shared" ref="S25" si="34">R25-R26+Q25</f>
+        <v>-355.32</v>
+      </c>
+      <c r="T25" s="6">
         <v>354.95</v>
       </c>
-      <c r="W25" s="48">
-        <f t="shared" ref="W25" si="42">V25-V26+U25</f>
-        <v>354.95</v>
-      </c>
-    </row>
-    <row r="26" spans="2:23" ht="15.5" hidden="1">
+      <c r="U25" s="49">
+        <f t="shared" ref="U25" si="35">T25-T26+S25</f>
+        <v>-0.37000000000000455</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" ht="15.5">
       <c r="B26" s="9"/>
-      <c r="C26" s="36"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="32"/>
+      <c r="E26" s="33"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="32"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="7">
+        <v>250</v>
+      </c>
+      <c r="I26" s="33"/>
       <c r="J26" s="7">
         <f>LOG_Clôtures!$B$5</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="32"/>
+        <v>105.32</v>
+      </c>
+      <c r="K26" s="33"/>
       <c r="L26" s="7">
         <f>LOG_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M26" s="32"/>
+      <c r="M26" s="33"/>
       <c r="N26" s="7">
         <f>LOG_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O26" s="32"/>
-      <c r="P26" s="7" t="e">
-        <f>LOG_Clôtures!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q26" s="32"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="7">
+        <f>F25</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="33"/>
       <c r="R26" s="7">
-        <f>F25</f>
-        <v>0</v>
-      </c>
-      <c r="S26" s="32"/>
-      <c r="T26" s="7">
         <f>H25</f>
-        <v>150</v>
-      </c>
-      <c r="U26" s="32"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="48"/>
-    </row>
-    <row r="27" spans="2:23" ht="15.5" hidden="1">
+        <v>0</v>
+      </c>
+      <c r="S26" s="33"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="49"/>
+    </row>
+    <row r="27" spans="2:21" ht="15.5">
       <c r="B27" s="9"/>
-      <c r="C27" s="36" t="s">
-        <v>17</v>
+      <c r="C27" s="37" t="s">
+        <v>15</v>
       </c>
       <c r="D27" s="6"/>
-      <c r="E27" s="32">
+      <c r="E27" s="33">
         <f>D27-D28</f>
         <v>0</v>
       </c>
       <c r="F27" s="6"/>
-      <c r="G27" s="32">
+      <c r="G27" s="33">
         <f>F27-F28+E27</f>
         <v>0</v>
       </c>
       <c r="H27" s="6">
         <v>0</v>
       </c>
-      <c r="I27" s="32">
+      <c r="I27" s="33">
         <f>H27-H28+G27</f>
         <v>0</v>
       </c>
       <c r="J27" s="6">
         <f>MOBILITY_Clôtures!$B$3</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="32">
+        <v>564.83000000000004</v>
+      </c>
+      <c r="K27" s="33">
         <f>J27-J28+I27</f>
         <v>0</v>
       </c>
@@ -2558,7 +2455,7 @@
         <f>MOBILITY_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M27" s="32">
+      <c r="M27" s="33">
         <f>L27-L28+K27</f>
         <v>0</v>
       </c>
@@ -2566,2210 +2463,2196 @@
         <f>MOBILITY_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O27" s="32">
+      <c r="O27" s="33">
         <f>N27-N28+M27</f>
         <v>0</v>
       </c>
-      <c r="P27" s="6" t="e">
-        <f>MOBILITY_Clôtures!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q27" s="32" t="e">
+      <c r="P27" s="6"/>
+      <c r="Q27" s="33">
         <f>P27-P28+O27</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="R27" s="6"/>
-      <c r="S27" s="32">
-        <f>R27-R28+O27</f>
-        <v>0</v>
-      </c>
-      <c r="T27" s="6"/>
-      <c r="U27" s="32">
+      <c r="S27" s="33">
+        <f>R27-R28+Q27</f>
+        <v>0</v>
+      </c>
+      <c r="T27" s="6">
+        <v>1887.3</v>
+      </c>
+      <c r="U27" s="49">
         <f>T27-T28+S27</f>
         <v>0</v>
       </c>
-      <c r="V27" s="6">
-        <v>1887.3</v>
-      </c>
-      <c r="W27" s="48">
-        <f>V27-V28+U27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:23" ht="15.5" hidden="1">
+    </row>
+    <row r="28" spans="2:21" ht="15.5">
       <c r="B28" s="9"/>
-      <c r="C28" s="36"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="32"/>
+      <c r="E28" s="33"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="32"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="33"/>
       <c r="J28" s="7">
         <f>MOBILITY_Clôtures!$B$5</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="32"/>
+        <v>564.83000000000004</v>
+      </c>
+      <c r="K28" s="33"/>
       <c r="L28" s="7">
         <f>MOBILITY_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M28" s="32"/>
+      <c r="M28" s="33"/>
       <c r="N28" s="7">
         <f>MOBILITY_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O28" s="32"/>
-      <c r="P28" s="7" t="e">
-        <f>MOBILITY_Clôtures!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q28" s="47"/>
-      <c r="R28" s="27">
+      <c r="O28" s="33"/>
+      <c r="P28" s="59">
         <f>F27</f>
         <v>0</v>
       </c>
-      <c r="S28" s="32"/>
-      <c r="T28" s="27">
+      <c r="Q28" s="33"/>
+      <c r="R28" s="59">
         <f>H27</f>
         <v>0</v>
       </c>
-      <c r="U28" s="47"/>
-      <c r="V28" s="7">
+      <c r="S28" s="60"/>
+      <c r="T28" s="7">
         <v>1887.3</v>
       </c>
-      <c r="W28" s="48"/>
-    </row>
-    <row r="29" spans="2:23" ht="15.5" hidden="1">
-      <c r="B29" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="8">
-        <f>D31+D33+D35+D37+D41+D43+D45+D47+D49+D51+D53+D55+D57+D59+D61</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="33">
-        <f>D29-D30</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="8">
-        <f>F31+F33+F35+F37+F41+F43+F45+F47+F49+F51+F53+F55+F57+F59+F61+F39</f>
-        <v>7306.56</v>
-      </c>
+      <c r="U28" s="49"/>
+    </row>
+    <row r="29" spans="2:21" ht="15.5">
+      <c r="B29" s="9"/>
+      <c r="C29" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="7"/>
       <c r="G29" s="33">
-        <f>F29-F30</f>
-        <v>7306.56</v>
-      </c>
-      <c r="H29" s="8">
-        <f>H31+H33+H35+H37+H41+H43+H45+H47+H49+H51+H5+H39+H533+H55+H57+H59+H61</f>
-        <v>3511.1099999999997</v>
+        <f>F29-F30+E29</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="6">
+        <v>0</v>
       </c>
       <c r="I29" s="33">
         <f>H29-H30+G29</f>
-        <v>10817.67</v>
-      </c>
-      <c r="J29" s="8">
-        <f>J31+J33+J35+J37+J41+J43+J45+J47+J49+J51+J53+J55+J57+J59+J61+J39</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="6">
+        <f>REPRO_Clôtures!$B$3</f>
         <v>0</v>
       </c>
       <c r="K29" s="33">
         <f>J29-J30+I29</f>
-        <v>10817.67</v>
-      </c>
-      <c r="L29" s="8">
-        <f>L31+L33+L35+L37+L41+L43+L45+L47+L51+L53+L55+L57+L59+L61+L39+L49</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="6">
+        <f>REPRO_Clôtures!$C$3</f>
         <v>0</v>
       </c>
       <c r="M29" s="33">
         <f>L29-L30+K29</f>
-        <v>10817.67</v>
-      </c>
-      <c r="N29" s="8">
-        <f>N31+N33+N35+N37+N41+N43+N45+N47+N51+N53+N55+N57+N59+N61+N39+N49</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="6">
+        <f>REPRO_Clôtures!$D$3</f>
         <v>0</v>
       </c>
       <c r="O29" s="33">
         <f>N29-N30+M29</f>
-        <v>10817.67</v>
-      </c>
-      <c r="P29" s="8" t="e">
-        <f>P31+P33+P35+P37+P41+P43+P45+P47+P51+P53+P55+P57+P59+P61+P39+P49</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q29" s="33" t="e">
+        <v>0</v>
+      </c>
+      <c r="P29" s="59"/>
+      <c r="Q29" s="33">
         <f>P29-P30+O29</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R29" s="6">
-        <f>R31+R33+R35+R37+R41+R43+R45+R47+R51+R53+R55+R57+R59+R61+R39+R49</f>
-        <v>0</v>
-      </c>
-      <c r="S29" s="32">
-        <f>R29-R30+O29</f>
-        <v>3511.1099999999997</v>
-      </c>
-      <c r="T29" s="6">
-        <f>T31+T33+T35+T37+T41+T43+T45+T47+T51+T53+T55+T57+T59+T61+T39+T49</f>
-        <v>0</v>
-      </c>
-      <c r="U29" s="32">
+        <v>0</v>
+      </c>
+      <c r="R29" s="59"/>
+      <c r="S29" s="33">
+        <f>R29-R30+Q29</f>
+        <v>0</v>
+      </c>
+      <c r="T29" s="7"/>
+      <c r="U29" s="49">
         <f>T29-T30+S29</f>
         <v>0</v>
       </c>
-      <c r="V29" s="8">
-        <f>V31+V33+V35+V37+V41+V43+V45+V47+V51+V53+V55+V57+V59+V61+V49+V39</f>
-        <v>20168.759999999998</v>
-      </c>
-      <c r="W29" s="33">
-        <f>V29-V30+U29</f>
-        <v>5166.1699999999983</v>
-      </c>
-    </row>
-    <row r="30" spans="2:23" ht="15.5" hidden="1">
-      <c r="B30" s="39"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="7">
-        <f>D32+D34+D36+D38+D42+D44+D46+D48+D50+D52+D54+D56+D58+D60+D62</f>
-        <v>0</v>
-      </c>
+    </row>
+    <row r="30" spans="2:21" ht="15.5">
+      <c r="B30" s="9"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="7"/>
       <c r="E30" s="32"/>
-      <c r="F30" s="7">
-        <f>F32+F34+F36+F38+F42+F44+F46+F48+F50+F52+F54+F56++F40+F58+F60+F62</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="32"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="33"/>
       <c r="H30" s="7">
-        <f>H32+H34+H36+H38+H42+H44+H46+H48+H50+H52+H54+H40+H56+H58+H60+H56+H62</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="32"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="33"/>
       <c r="J30" s="7">
-        <f>J32+J34+J36+J38+J42+J44+J46+J48+J50+J52+J54+J56+J58+J60+J62+J40+J62</f>
-        <v>0</v>
-      </c>
-      <c r="K30" s="32"/>
+        <f>REPRO_Clôtures!$B$5</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="33"/>
       <c r="L30" s="7">
-        <f>L32+L34+L36+L38+L42+L44+L46+L48+L52+L54+L56+L58+L60+L62+L40+L50</f>
-        <v>0</v>
-      </c>
-      <c r="M30" s="32"/>
+        <f>REPRO_Clôtures!$C$5</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="33"/>
       <c r="N30" s="7">
-        <f>N32+N34+N36+N38+N42+N44+N46+N48+N52+N54+N56+N58+N60+N62+N40+N50</f>
-        <v>0</v>
-      </c>
-      <c r="O30" s="32"/>
-      <c r="P30" s="7" t="e">
-        <f>P32+P34+P36+P38+P42+P44+P46+P48+P52+P54+P56+P58+P60+P62+P40+P50</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q30" s="58"/>
-      <c r="R30" s="7">
-        <f>R32+R34+R36+R38+R42+R44+R46+R48+R52+R54+R56+R58+R60+R62+R40+R50</f>
-        <v>7306.56</v>
-      </c>
-      <c r="S30" s="32"/>
-      <c r="T30" s="7">
-        <f>T32+T34+T36+T38+T42+T44+T46+T48+T52+T54+T56+T58+T60+T62+T40+T50</f>
-        <v>3511.1099999999997</v>
-      </c>
-      <c r="U30" s="32"/>
-      <c r="V30" s="7">
-        <f>V32+V34+V36+V38+V42+V44+V46+V48+V52+V54+V56+V58+V60+V62+V40+V50</f>
-        <v>15002.59</v>
-      </c>
-      <c r="W30" s="32"/>
-    </row>
-    <row r="31" spans="2:23" ht="15.5" hidden="1">
-      <c r="B31" s="9"/>
-      <c r="C31" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="32">
+        <f>REPRO_Clôtures!$D$5</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="33"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="60"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="49"/>
+    </row>
+    <row r="31" spans="2:21" ht="15.5">
+      <c r="B31" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="39"/>
+      <c r="D31" s="8">
+        <f>D33+D35+D37+D41+D43+D45+D47+D49+D51+D53+D55+D57+D59+D61+D65</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="34">
         <f>D31-D32</f>
         <v>0</v>
       </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="32">
-        <f>F31-F32+E31</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="6">
-        <v>47.5</v>
-      </c>
-      <c r="I31" s="32">
+      <c r="F31" s="8">
+        <f>F33+F35+F37+F39+F41+F43+F45+F47+F49+F51+F53+F55+F57+F59+F61+F65</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="34">
+        <f>F31-F32</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="8">
+        <f>H33+H35+H37+H39+H41+H43+H45+H47+H49+H51+H53+H55+H57+H59+H61+H63+H65</f>
+        <v>28280</v>
+      </c>
+      <c r="I31" s="34">
         <f>H31-H32+G31</f>
-        <v>47.5</v>
-      </c>
-      <c r="J31" s="6">
-        <f>REBUILT_Clôtures!$B$2</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="32">
+        <v>-12578</v>
+      </c>
+      <c r="J31" s="8">
+        <f>J33+J35+J37+J39+J41+J43+J45+J47+J49+J51+J53+J55+J57+J59+J61+J63+J65</f>
+        <v>1587.34</v>
+      </c>
+      <c r="K31" s="34">
         <f>J31-J32+I31</f>
-        <v>47.5</v>
-      </c>
-      <c r="L31" s="6">
-        <f>REBUILT_Clôtures!$C$2</f>
-        <v>0</v>
-      </c>
-      <c r="M31" s="32">
+        <v>-12547.94</v>
+      </c>
+      <c r="L31" s="8">
+        <f>L33+L35+L37+L39+L41+L43+L45+L47+L49+L51+L53+L55+L57+L59+L61+L63+L65</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="34">
         <f>L31-L32+K31</f>
-        <v>47.5</v>
-      </c>
-      <c r="N31" s="6">
-        <f>REBUILT_Clôtures!$D$2</f>
-        <v>0</v>
-      </c>
-      <c r="O31" s="32">
+        <v>-12547.94</v>
+      </c>
+      <c r="N31" s="8">
+        <f>N33+N35+N37+N39+N41+N43+N45+N47+N49+N51+N53+N55+N57+N59+N61+N63+N65</f>
+        <v>0</v>
+      </c>
+      <c r="O31" s="34">
         <f>N31-N32+M31</f>
-        <v>47.5</v>
-      </c>
-      <c r="P31" s="6" t="e">
-        <f>REBUILT_Clôtures!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q31" s="32" t="e">
-        <f t="shared" ref="Q31" si="43">P31-P32+O31</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R31" s="6"/>
-      <c r="S31" s="32">
-        <f>R31-R32+O31</f>
-        <v>47.5</v>
-      </c>
-      <c r="T31" s="6"/>
-      <c r="U31" s="32">
-        <f t="shared" ref="U31" si="44">T31-T32+S31</f>
-        <v>0</v>
-      </c>
-      <c r="V31" s="6">
-        <v>720.75</v>
-      </c>
-      <c r="W31" s="32">
-        <f>V31-V32+U31</f>
-        <v>646.15</v>
-      </c>
-    </row>
-    <row r="32" spans="2:23" ht="15.5" hidden="1">
-      <c r="B32" s="9"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="32"/>
+        <v>-12547.94</v>
+      </c>
+      <c r="P31" s="6">
+        <f>P33+P35+P37+P39+P41+P43+P45+P47+P49+P51+P53+P55+P57+P59+P61+P63+P65</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="33">
+        <f>P31-P32+O31</f>
+        <v>-12547.94</v>
+      </c>
+      <c r="R31" s="6">
+        <f>R33+R35+R37+R39+R41+R43+R45+R47+R49+R51+R53+R55+R57+R59+R61+R63+R65</f>
+        <v>0</v>
+      </c>
+      <c r="S31" s="33">
+        <f>R31-R32+Q31</f>
+        <v>-40827.94</v>
+      </c>
+      <c r="T31" s="8">
+        <f>T33+T35+T37+T39+T41+T43+T45+T47+T49+T51+T53+T55+T57+T59+T61+T63+T65</f>
+        <v>20889.509999999998</v>
+      </c>
+      <c r="U31" s="34">
+        <f>T31-T32+S31</f>
+        <v>-35015.620000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" ht="15.5">
+      <c r="B32" s="40"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="7">
+        <f>D34+D36+D38+D40+D42+D44+D46+D48+D50+D52+D54+D56+D58+D60+D62+D66</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="33"/>
+      <c r="F32" s="7">
+        <f>F34+F36+F38+F40+F42+F44+F46+F48+F50+F52+F54+F56+F58+F60+F62+F66</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="33"/>
+      <c r="H32" s="7">
+        <f>H34+H36+H38+H40+H42+H44+H46+H48+H50+H52+H54+H56+H58+H60+H62+H64+H66</f>
+        <v>40858</v>
+      </c>
+      <c r="I32" s="33"/>
       <c r="J32" s="7">
-        <f>REBUILT_Clôtures!$B$4</f>
-        <v>0</v>
-      </c>
-      <c r="K32" s="32"/>
+        <f>J34+J36+J38+J40+J42+J44+J46+J48+J50+J52+J54+J56+J58+J60+J62+J64+J66</f>
+        <v>1557.28</v>
+      </c>
+      <c r="K32" s="33"/>
       <c r="L32" s="7">
-        <f>REBUILT_Clôtures!$C$4</f>
-        <v>0</v>
-      </c>
-      <c r="M32" s="32"/>
+        <f>L34+L36+L38+L40+L42+L44+L46+L48+L50+L52+L54+L56+L58+L60+L62+L64+L66</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="33"/>
       <c r="N32" s="7">
-        <f>REBUILT_Clôtures!$D$4</f>
-        <v>0</v>
-      </c>
-      <c r="O32" s="32"/>
-      <c r="P32" s="7" t="e">
-        <f>REBUILT_Clôtures!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q32" s="32"/>
+        <f>N34+N36+N38+N40+N42+N44+N46+N48+N50+N52+N54+N56+N58+N60+N62+N64+N66</f>
+        <v>0</v>
+      </c>
+      <c r="O32" s="33"/>
+      <c r="P32" s="7">
+        <f>P34+P36+P38+P40+P42+P44+P46+P48+P50+P52+P54+P56+P58+P60+P62+P64+P66</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="33"/>
       <c r="R32" s="7">
-        <f>F31</f>
-        <v>0</v>
-      </c>
-      <c r="S32" s="32"/>
+        <f>R34+R36+R38+R40+R42+R44+R46+R48+R50+R52+R54+R56+R58+R60+R62+R64+R66</f>
+        <v>28280</v>
+      </c>
+      <c r="S32" s="33"/>
       <c r="T32" s="7">
-        <f>H31</f>
-        <v>47.5</v>
-      </c>
-      <c r="U32" s="32"/>
-      <c r="V32" s="7">
-        <v>74.599999999999994</v>
-      </c>
-      <c r="W32" s="32"/>
-    </row>
-    <row r="33" spans="2:23" ht="15.5" hidden="1">
+        <f>T34+T36+T38+T40+T42+T44+T46+T48+T50+T52+T54+T56+T58+T60+T62+T64+T66</f>
+        <v>15077.19</v>
+      </c>
+      <c r="U32" s="33"/>
+    </row>
+    <row r="33" spans="2:21" ht="15.5">
       <c r="B33" s="9"/>
-      <c r="C33" s="36" t="s">
-        <v>22</v>
+      <c r="C33" s="37" t="s">
+        <v>19</v>
       </c>
       <c r="D33" s="6"/>
-      <c r="E33" s="32">
+      <c r="E33" s="33">
         <f>D33-D34</f>
         <v>0</v>
       </c>
       <c r="F33" s="6"/>
-      <c r="G33" s="32">
-        <f t="shared" ref="G33" si="45">F33-F34+E33</f>
+      <c r="G33" s="33">
+        <f t="shared" ref="G33" si="36">F33-F34+E33</f>
         <v>0</v>
       </c>
       <c r="H33" s="6">
-        <v>700</v>
-      </c>
-      <c r="I33" s="32">
-        <f t="shared" ref="I33" si="46">H33-H34+G33</f>
-        <v>700</v>
+        <v>150</v>
+      </c>
+      <c r="I33" s="33">
+        <f t="shared" ref="I33" si="37">H33-H34+G33</f>
+        <v>-200</v>
       </c>
       <c r="J33" s="6">
         <f>API_Clôtures!$B$3</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="32">
-        <f t="shared" ref="K33" si="47">J33-J34+I33</f>
-        <v>700</v>
+        <v>119</v>
+      </c>
+      <c r="K33" s="33">
+        <f t="shared" ref="K33" si="38">J33-J34+I33</f>
+        <v>-81</v>
       </c>
       <c r="L33" s="6">
         <f>API_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M33" s="32">
-        <f t="shared" ref="M33" si="48">L33-L34+K33</f>
-        <v>700</v>
+      <c r="M33" s="33">
+        <f t="shared" ref="M33" si="39">L33-L34+K33</f>
+        <v>-81</v>
       </c>
       <c r="N33" s="6">
         <f>API_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O33" s="32">
-        <f t="shared" ref="O33" si="49">N33-N34+M33</f>
-        <v>700</v>
-      </c>
-      <c r="P33" s="6" t="e">
-        <f>API_Clôtures!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q33" s="32" t="e">
-        <f t="shared" ref="Q33" si="50">P33-P34+O33</f>
-        <v>#REF!</v>
+      <c r="O33" s="33">
+        <f t="shared" ref="O33" si="40">N33-N34+M33</f>
+        <v>-81</v>
+      </c>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="33">
+        <f>P33-P34+O33</f>
+        <v>-81</v>
       </c>
       <c r="R33" s="6"/>
-      <c r="S33" s="32">
-        <f>R33-R34+O33</f>
-        <v>700</v>
-      </c>
-      <c r="T33" s="6"/>
-      <c r="U33" s="32">
-        <f t="shared" ref="U33" si="51">T33-T34+S33</f>
-        <v>0</v>
-      </c>
-      <c r="V33" s="6">
+      <c r="S33" s="33">
+        <f t="shared" ref="S33" si="41">R33-R34+Q33</f>
+        <v>-231</v>
+      </c>
+      <c r="T33" s="6">
         <v>917.79</v>
       </c>
-      <c r="W33" s="32">
-        <f t="shared" ref="W33" si="52">V33-V34+U33</f>
-        <v>917.79</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" ht="15.5" hidden="1">
+      <c r="U33" s="33">
+        <f t="shared" ref="U33" si="42">T33-T34+S33</f>
+        <v>686.79</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" ht="15.5">
       <c r="B34" s="9"/>
-      <c r="C34" s="36"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="7"/>
-      <c r="E34" s="32"/>
+      <c r="E34" s="33"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="32"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="7">
+        <v>350</v>
+      </c>
+      <c r="I34" s="33"/>
       <c r="J34" s="7">
         <f>API_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K34" s="32"/>
+      <c r="K34" s="33"/>
       <c r="L34" s="7">
         <f>API_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M34" s="32"/>
+      <c r="M34" s="33"/>
       <c r="N34" s="7">
         <f>API_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O34" s="32"/>
-      <c r="P34" s="7" t="e">
-        <f>API_Clôtures!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q34" s="32"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="7">
+        <f>F33</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="33"/>
       <c r="R34" s="7">
-        <f>F33</f>
-        <v>0</v>
-      </c>
-      <c r="S34" s="32"/>
-      <c r="T34" s="7">
         <f>H33</f>
-        <v>700</v>
-      </c>
-      <c r="U34" s="32"/>
-      <c r="V34" s="7"/>
-      <c r="W34" s="32"/>
-    </row>
-    <row r="35" spans="2:23" ht="15.5" hidden="1">
+        <v>150</v>
+      </c>
+      <c r="S34" s="33"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="33"/>
+    </row>
+    <row r="35" spans="2:21" ht="15.5">
       <c r="B35" s="9"/>
-      <c r="C35" s="36" t="s">
-        <v>23</v>
+      <c r="C35" s="37" t="s">
+        <v>20</v>
       </c>
       <c r="D35" s="6"/>
-      <c r="E35" s="32">
+      <c r="E35" s="33">
         <f>D35-D36</f>
         <v>0</v>
       </c>
       <c r="F35" s="6"/>
-      <c r="G35" s="32">
-        <f t="shared" ref="G35" si="53">F35-F36+E35</f>
+      <c r="G35" s="33">
+        <f t="shared" ref="G35" si="43">F35-F36+E35</f>
         <v>0</v>
       </c>
       <c r="H35" s="6">
-        <v>1851.35</v>
-      </c>
-      <c r="I35" s="32">
-        <f t="shared" ref="I35" si="54">H35-H36+G35</f>
-        <v>1851.35</v>
+        <v>2000</v>
+      </c>
+      <c r="I35" s="33">
+        <f t="shared" ref="I35" si="44">H35-H36+G35</f>
+        <v>-100</v>
       </c>
       <c r="J35" s="6">
         <f>CANARD_Clôtures!$B$4</f>
-        <v>0</v>
-      </c>
-      <c r="K35" s="32">
-        <f t="shared" ref="K35" si="55">J35-J36+I35</f>
-        <v>1851.35</v>
+        <v>14.93</v>
+      </c>
+      <c r="K35" s="33">
+        <f t="shared" ref="K35" si="45">J35-J36+I35</f>
+        <v>-110.12</v>
       </c>
       <c r="L35" s="6">
         <f>CANARD_Clôtures!$C$4</f>
         <v>0</v>
       </c>
-      <c r="M35" s="32">
-        <f t="shared" ref="M35" si="56">L35-L36+K35</f>
-        <v>1851.35</v>
+      <c r="M35" s="33">
+        <f t="shared" ref="M35" si="46">L35-L36+K35</f>
+        <v>-110.12</v>
       </c>
       <c r="N35" s="6">
         <f>CANARD_Clôtures!$D$4</f>
         <v>0</v>
       </c>
-      <c r="O35" s="32">
-        <f t="shared" ref="O35" si="57">N35-N36+M35</f>
-        <v>1851.35</v>
-      </c>
-      <c r="P35" s="6" t="e">
-        <f>CANARD_Clôtures!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q35" s="32" t="e">
-        <f t="shared" ref="Q35" si="58">P35-P36+O35</f>
-        <v>#REF!</v>
+      <c r="O35" s="33">
+        <f t="shared" ref="O35" si="47">N35-N36+M35</f>
+        <v>-110.12</v>
+      </c>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="33">
+        <f>P35-P36+O35</f>
+        <v>-110.12</v>
       </c>
       <c r="R35" s="6"/>
-      <c r="S35" s="32">
-        <f>R35-R36+O35</f>
-        <v>1851.35</v>
-      </c>
-      <c r="T35" s="6"/>
-      <c r="U35" s="32">
-        <f t="shared" ref="U35" si="59">T35-T36+S35</f>
-        <v>0</v>
-      </c>
-      <c r="V35" s="6">
+      <c r="S35" s="33">
+        <f t="shared" ref="S35" si="48">R35-R36+Q35</f>
+        <v>-2110.12</v>
+      </c>
+      <c r="T35" s="6">
         <v>2463.1999999999998</v>
       </c>
-      <c r="W35" s="32">
-        <f t="shared" ref="W35" si="60">V35-V36+U35</f>
-        <v>1821.35</v>
-      </c>
-    </row>
-    <row r="36" spans="2:23" ht="15.5" hidden="1">
+      <c r="U35" s="33">
+        <f t="shared" ref="U35" si="49">T35-T36+S35</f>
+        <v>-288.77</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21" ht="15.5">
       <c r="B36" s="9"/>
-      <c r="C36" s="36"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="7"/>
-      <c r="E36" s="32"/>
+      <c r="E36" s="33"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="32"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="7">
+        <v>2100</v>
+      </c>
+      <c r="I36" s="33"/>
       <c r="J36" s="7">
         <f>CANARD_Clôtures!$B$6</f>
-        <v>0</v>
-      </c>
-      <c r="K36" s="32"/>
+        <v>25.05</v>
+      </c>
+      <c r="K36" s="33"/>
       <c r="L36" s="7">
         <f>CANARD_Clôtures!$C$6</f>
         <v>0</v>
       </c>
-      <c r="M36" s="32"/>
+      <c r="M36" s="33"/>
       <c r="N36" s="7">
         <f>CANARD_Clôtures!$D$6</f>
         <v>0</v>
       </c>
-      <c r="O36" s="32"/>
-      <c r="P36" s="7" t="e">
-        <f>CANARD_Clôtures!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q36" s="32"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="7">
+        <f>F35</f>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="33"/>
       <c r="R36" s="7">
-        <f>F35</f>
-        <v>0</v>
-      </c>
-      <c r="S36" s="32"/>
+        <f>H35</f>
+        <v>2000</v>
+      </c>
+      <c r="S36" s="33"/>
       <c r="T36" s="7">
-        <f>H35</f>
-        <v>1851.35</v>
-      </c>
-      <c r="U36" s="32"/>
-      <c r="V36" s="7">
         <v>641.85</v>
       </c>
-      <c r="W36" s="32"/>
-    </row>
-    <row r="37" spans="2:23" ht="15.5" hidden="1">
+      <c r="U36" s="33"/>
+    </row>
+    <row r="37" spans="2:21" ht="15.5">
       <c r="B37" s="9"/>
-      <c r="C37" s="36" t="s">
-        <v>24</v>
+      <c r="C37" s="37" t="s">
+        <v>21</v>
       </c>
       <c r="D37" s="6"/>
-      <c r="E37" s="32">
+      <c r="E37" s="33">
         <f>D37-D38</f>
         <v>0</v>
       </c>
-      <c r="F37" s="6">
-        <v>3472.78</v>
-      </c>
-      <c r="G37" s="32">
-        <f t="shared" ref="G37" si="61">F37-F38+E37</f>
-        <v>3472.78</v>
+      <c r="F37" s="6"/>
+      <c r="G37" s="33">
+        <f t="shared" ref="G37" si="50">F37-F38+E37</f>
+        <v>0</v>
       </c>
       <c r="H37" s="6">
-        <v>0</v>
-      </c>
-      <c r="I37" s="32">
-        <f t="shared" ref="I37" si="62">H37-H38+G37</f>
-        <v>3472.78</v>
+        <v>1600</v>
+      </c>
+      <c r="I37" s="33">
+        <f t="shared" ref="I37" si="51">H37-H38+G37</f>
+        <v>-370</v>
       </c>
       <c r="J37" s="6">
         <f>CASTOR_Clôtures!$B$3</f>
-        <v>0</v>
-      </c>
-      <c r="K37" s="32">
-        <f t="shared" ref="K37" si="63">J37-J38+I37</f>
-        <v>3472.78</v>
+        <v>597.19000000000005</v>
+      </c>
+      <c r="K37" s="33">
+        <f t="shared" ref="K37" si="52">J37-J38+I37</f>
+        <v>-562.79999999999995</v>
       </c>
       <c r="L37" s="6">
         <f>CASTOR_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M37" s="32">
-        <f t="shared" ref="M37" si="64">L37-L38+K37</f>
-        <v>3472.78</v>
+      <c r="M37" s="33">
+        <f t="shared" ref="M37" si="53">L37-L38+K37</f>
+        <v>-562.79999999999995</v>
       </c>
       <c r="N37" s="6">
         <f>CASTOR_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O37" s="32">
-        <f t="shared" ref="O37" si="65">N37-N38+M37</f>
-        <v>3472.78</v>
-      </c>
-      <c r="P37" s="6" t="e">
-        <f>CASTOR_Clôtures!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q37" s="32" t="e">
-        <f t="shared" ref="Q37" si="66">P37-P38+O37</f>
-        <v>#REF!</v>
+      <c r="O37" s="33">
+        <f t="shared" ref="O37" si="54">N37-N38+M37</f>
+        <v>-562.79999999999995</v>
+      </c>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="33">
+        <f>P37-P38+O37</f>
+        <v>-562.79999999999995</v>
       </c>
       <c r="R37" s="6"/>
-      <c r="S37" s="32">
-        <f>R37-R38+O37</f>
-        <v>0</v>
-      </c>
-      <c r="T37" s="6"/>
-      <c r="U37" s="32">
-        <f t="shared" ref="U37" si="67">T37-T38+S37</f>
-        <v>0</v>
-      </c>
-      <c r="V37" s="6">
+      <c r="S37" s="33">
+        <f t="shared" ref="S37" si="55">R37-R38+Q37</f>
+        <v>-2162.8000000000002</v>
+      </c>
+      <c r="T37" s="6">
         <v>1445.73</v>
       </c>
-      <c r="W37" s="53">
-        <f t="shared" ref="W37" si="68">V37-V38+U37</f>
-        <v>-933.56</v>
-      </c>
-    </row>
-    <row r="38" spans="2:23" ht="15.5" hidden="1">
+      <c r="U37" s="54">
+        <f t="shared" ref="U37" si="56">T37-T38+S37</f>
+        <v>-3096.36</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" ht="15.5">
       <c r="B38" s="9"/>
-      <c r="C38" s="36"/>
+      <c r="C38" s="37"/>
       <c r="D38" s="7"/>
-      <c r="E38" s="32"/>
+      <c r="E38" s="33"/>
       <c r="F38" s="7"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="32"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="7">
+        <v>1970</v>
+      </c>
+      <c r="I38" s="33"/>
       <c r="J38" s="7">
         <f>CASTOR_Clôtures!$B$5</f>
-        <v>0</v>
-      </c>
-      <c r="K38" s="32"/>
+        <v>789.99</v>
+      </c>
+      <c r="K38" s="33"/>
       <c r="L38" s="7">
         <f>CASTOR_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M38" s="32"/>
+      <c r="M38" s="33"/>
       <c r="N38" s="7">
         <f>CASTOR_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O38" s="32"/>
-      <c r="P38" s="7" t="e">
-        <f>CASTOR_Clôtures!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q38" s="32"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="7">
+        <f>F37</f>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="33"/>
       <c r="R38" s="7">
-        <f>F37</f>
-        <v>3472.78</v>
-      </c>
-      <c r="S38" s="32"/>
+        <f>H37</f>
+        <v>1600</v>
+      </c>
+      <c r="S38" s="33"/>
       <c r="T38" s="7">
-        <f>H37</f>
-        <v>0</v>
-      </c>
-      <c r="U38" s="32"/>
-      <c r="V38" s="7">
         <v>2379.29</v>
       </c>
-      <c r="W38" s="53"/>
-    </row>
-    <row r="39" spans="2:23" ht="15.5" hidden="1">
+      <c r="U38" s="54"/>
+    </row>
+    <row r="39" spans="2:21" ht="15.5">
       <c r="B39" s="9"/>
-      <c r="C39" s="36" t="s">
-        <v>34</v>
+      <c r="C39" s="37" t="s">
+        <v>31</v>
       </c>
       <c r="D39" s="6"/>
-      <c r="E39" s="32">
+      <c r="E39" s="33">
         <f>D39-D40</f>
         <v>0</v>
       </c>
       <c r="F39" s="6"/>
-      <c r="G39" s="32">
-        <f t="shared" ref="G39" si="69">F39-F40+E39</f>
+      <c r="G39" s="33">
+        <f t="shared" ref="G39" si="57">F39-F40+E39</f>
         <v>0</v>
       </c>
       <c r="H39" s="6">
         <v>0</v>
       </c>
-      <c r="I39" s="32">
-        <f t="shared" ref="I39" si="70">H39-H40+G39</f>
-        <v>0</v>
+      <c r="I39" s="33">
+        <f t="shared" ref="I39" si="58">H39-H40+G39</f>
+        <v>-330</v>
       </c>
       <c r="J39" s="6">
         <f>DEBOUC_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K39" s="32">
-        <f t="shared" ref="K39" si="71">J39-J40+I39</f>
-        <v>0</v>
+      <c r="K39" s="33">
+        <f t="shared" ref="K39" si="59">J39-J40+I39</f>
+        <v>-356.33</v>
       </c>
       <c r="L39" s="6">
         <f>DEBOUC_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M39" s="32">
-        <f t="shared" ref="M39" si="72">L39-L40+K39</f>
-        <v>0</v>
+      <c r="M39" s="33">
+        <f t="shared" ref="M39" si="60">L39-L40+K39</f>
+        <v>-356.33</v>
       </c>
       <c r="N39" s="6">
         <f>DEBOUC_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O39" s="32">
-        <f t="shared" ref="O39" si="73">N39-N40+M39</f>
-        <v>0</v>
-      </c>
-      <c r="P39" s="6" t="e">
-        <f>DEBOUC_Clôtures!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q39" s="32" t="e">
-        <f t="shared" ref="Q39" si="74">P39-P40+O39</f>
-        <v>#REF!</v>
+      <c r="O39" s="33">
+        <f t="shared" ref="O39" si="61">N39-N40+M39</f>
+        <v>-356.33</v>
+      </c>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="33">
+        <f>P39-P40+O39</f>
+        <v>-356.33</v>
       </c>
       <c r="R39" s="6"/>
-      <c r="S39" s="32">
-        <f>R39-R40+O39</f>
-        <v>0</v>
-      </c>
-      <c r="T39" s="6"/>
-      <c r="U39" s="32">
-        <f t="shared" ref="U39" si="75">T39-T40+S39</f>
-        <v>0</v>
-      </c>
-      <c r="V39" s="6">
+      <c r="S39" s="33">
+        <f t="shared" ref="S39" si="62">R39-R40+Q39</f>
+        <v>-356.33</v>
+      </c>
+      <c r="T39" s="6">
         <v>128.69999999999999</v>
       </c>
-      <c r="W39" s="32">
-        <f t="shared" ref="W39" si="76">V39-V40+U39</f>
-        <v>128.69999999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="2:23" ht="15.5" hidden="1">
+      <c r="U39" s="33">
+        <f t="shared" ref="U39" si="63">T39-T40+S39</f>
+        <v>-227.63</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" ht="15.5">
       <c r="B40" s="9"/>
-      <c r="C40" s="36"/>
+      <c r="C40" s="37"/>
       <c r="D40" s="7"/>
-      <c r="E40" s="32"/>
+      <c r="E40" s="33"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="32"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="7">
+        <v>330</v>
+      </c>
+      <c r="I40" s="33"/>
       <c r="J40" s="7">
         <f>DEBOUC_Clôtures!$B$5</f>
-        <v>0</v>
-      </c>
-      <c r="K40" s="32"/>
+        <v>26.33</v>
+      </c>
+      <c r="K40" s="33"/>
       <c r="L40" s="7">
         <f>DEBOUC_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M40" s="32"/>
+      <c r="M40" s="33"/>
       <c r="N40" s="7">
         <f>DEBOUC_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O40" s="32"/>
-      <c r="P40" s="7" t="e">
-        <f>DEBOUC_Clôtures!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q40" s="32"/>
+      <c r="O40" s="33"/>
+      <c r="P40" s="7">
+        <f>F39</f>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="33"/>
       <c r="R40" s="7">
-        <f>F39</f>
-        <v>0</v>
-      </c>
-      <c r="S40" s="32"/>
-      <c r="T40" s="7">
         <f>H39</f>
         <v>0</v>
       </c>
-      <c r="U40" s="32"/>
-      <c r="V40" s="7"/>
-      <c r="W40" s="32"/>
-    </row>
-    <row r="41" spans="2:23" ht="15.5" hidden="1">
+      <c r="S40" s="33"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="33"/>
+    </row>
+    <row r="41" spans="2:21" ht="15.5">
       <c r="B41" s="9"/>
-      <c r="C41" s="36" t="s">
-        <v>25</v>
+      <c r="C41" s="37" t="s">
+        <v>22</v>
       </c>
       <c r="D41" s="6"/>
-      <c r="E41" s="32">
+      <c r="E41" s="33">
         <f>D41-D42</f>
         <v>0</v>
       </c>
       <c r="F41" s="6"/>
-      <c r="G41" s="32">
-        <f t="shared" ref="G41" si="77">F41-F42+E41</f>
+      <c r="G41" s="33">
+        <f t="shared" ref="G41" si="64">F41-F42+E41</f>
         <v>0</v>
       </c>
       <c r="H41" s="6">
-        <v>50</v>
-      </c>
-      <c r="I41" s="32">
-        <f t="shared" ref="I41" si="78">H41-H42+G41</f>
-        <v>50</v>
+        <v>600</v>
+      </c>
+      <c r="I41" s="33">
+        <f t="shared" ref="I41" si="65">H41-H42+G41</f>
+        <v>-1000</v>
       </c>
       <c r="J41" s="6">
         <f>EVA_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K41" s="32">
-        <f t="shared" ref="K41" si="79">J41-J42+I41</f>
-        <v>50</v>
+      <c r="K41" s="33">
+        <f t="shared" ref="K41" si="66">J41-J42+I41</f>
+        <v>-1269.05</v>
       </c>
       <c r="L41" s="6">
         <f>EVA_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M41" s="32">
-        <f t="shared" ref="M41" si="80">L41-L42+K41</f>
-        <v>50</v>
+      <c r="M41" s="33">
+        <f t="shared" ref="M41" si="67">L41-L42+K41</f>
+        <v>-1269.05</v>
       </c>
       <c r="N41" s="6">
         <f>EVA_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O41" s="32">
-        <f t="shared" ref="O41" si="81">N41-N42+M41</f>
-        <v>50</v>
-      </c>
-      <c r="P41" s="6" t="e">
-        <f>EVA_Clôtures!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q41" s="32" t="e">
-        <f t="shared" ref="Q41" si="82">P41-P42+O41</f>
-        <v>#REF!</v>
+      <c r="O41" s="33">
+        <f t="shared" ref="O41" si="68">N41-N42+M41</f>
+        <v>-1269.05</v>
+      </c>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="33">
+        <f>P41-P42+O41</f>
+        <v>-1269.05</v>
       </c>
       <c r="R41" s="6"/>
-      <c r="S41" s="32">
-        <f>R41-R42+O41</f>
-        <v>50</v>
-      </c>
-      <c r="T41" s="6"/>
-      <c r="U41" s="32">
-        <f t="shared" ref="U41" si="83">T41-T42+S41</f>
-        <v>0</v>
-      </c>
-      <c r="V41" s="6">
+      <c r="S41" s="33">
+        <f t="shared" ref="S41" si="69">R41-R42+Q41</f>
+        <v>-1869.05</v>
+      </c>
+      <c r="T41" s="6">
         <v>81.900000000000006</v>
       </c>
-      <c r="W41" s="32">
-        <f t="shared" ref="W41" si="84">V41-V42+U41</f>
-        <v>-33.049999999999997</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" ht="15.5" hidden="1">
+      <c r="U41" s="33">
+        <f t="shared" ref="U41" si="70">T41-T42+S41</f>
+        <v>-1902.1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" ht="15.5">
       <c r="B42" s="9"/>
-      <c r="C42" s="36"/>
+      <c r="C42" s="37"/>
       <c r="D42" s="7"/>
-      <c r="E42" s="32"/>
+      <c r="E42" s="33"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="32"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="7">
+        <v>1600</v>
+      </c>
+      <c r="I42" s="33"/>
       <c r="J42" s="7">
         <f>EVA_Clôtures!$B$5</f>
-        <v>0</v>
-      </c>
-      <c r="K42" s="32"/>
+        <v>269.05</v>
+      </c>
+      <c r="K42" s="33"/>
       <c r="L42" s="7">
         <f>EVA_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M42" s="32"/>
+      <c r="M42" s="33"/>
       <c r="N42" s="7">
         <f>EVA_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O42" s="32"/>
-      <c r="P42" s="7" t="e">
-        <f>EVA_Clôtures!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q42" s="32"/>
+      <c r="O42" s="33"/>
+      <c r="P42" s="7">
+        <f>F41</f>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="33"/>
       <c r="R42" s="7">
-        <f>F41</f>
-        <v>0</v>
-      </c>
-      <c r="S42" s="32"/>
+        <f>H41</f>
+        <v>600</v>
+      </c>
+      <c r="S42" s="33"/>
       <c r="T42" s="7">
-        <f>H41</f>
-        <v>50</v>
-      </c>
-      <c r="U42" s="32"/>
-      <c r="V42" s="7">
         <v>114.95</v>
       </c>
-      <c r="W42" s="32"/>
-    </row>
-    <row r="43" spans="2:23" ht="15.5" hidden="1">
+      <c r="U42" s="33"/>
+    </row>
+    <row r="43" spans="2:21" ht="15.5">
       <c r="B43" s="9"/>
-      <c r="C43" s="36" t="s">
-        <v>26</v>
+      <c r="C43" s="37" t="s">
+        <v>23</v>
       </c>
       <c r="D43" s="6"/>
-      <c r="E43" s="32">
+      <c r="E43" s="33">
         <f>D43-D44</f>
         <v>0</v>
       </c>
       <c r="F43" s="6"/>
-      <c r="G43" s="32">
+      <c r="G43" s="33">
         <f>F43-F44+E43</f>
         <v>0</v>
       </c>
       <c r="H43" s="6">
         <v>0</v>
       </c>
-      <c r="I43" s="32">
-        <f t="shared" ref="I43" si="85">H43-H44+G43</f>
-        <v>0</v>
+      <c r="I43" s="33">
+        <f t="shared" ref="I43" si="71">H43-H44+G43</f>
+        <v>-508</v>
       </c>
       <c r="J43" s="6">
         <f>EPILIBRE_Clôtures!B2</f>
-        <v>0</v>
-      </c>
-      <c r="K43" s="32">
-        <f t="shared" ref="K43" si="86">J43-J44+I43</f>
-        <v>0</v>
+        <v>55.5</v>
+      </c>
+      <c r="K43" s="33">
+        <f t="shared" ref="K43" si="72">J43-J44+I43</f>
+        <v>-711.85</v>
       </c>
       <c r="L43" s="6">
         <f>EPILIBRE_Clôtures!C2</f>
         <v>0</v>
       </c>
-      <c r="M43" s="32">
-        <f t="shared" ref="M43" si="87">L43-L44+K43</f>
-        <v>0</v>
+      <c r="M43" s="33">
+        <f t="shared" ref="M43" si="73">L43-L44+K43</f>
+        <v>-711.85</v>
       </c>
       <c r="N43" s="6">
         <f>EPILIBRE_Clôtures!D2</f>
         <v>0</v>
       </c>
-      <c r="O43" s="32">
-        <f t="shared" ref="O43" si="88">N43-N44+M43</f>
-        <v>0</v>
-      </c>
-      <c r="P43" s="6" t="e">
-        <f>EPILIBRE_Clôtures!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q43" s="32" t="e">
-        <f t="shared" ref="Q43" si="89">P43-P44+O43</f>
-        <v>#REF!</v>
+      <c r="O43" s="33">
+        <f t="shared" ref="O43" si="74">N43-N44+M43</f>
+        <v>-711.85</v>
+      </c>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="33">
+        <f>P43-P44+O43</f>
+        <v>-711.85</v>
       </c>
       <c r="R43" s="6"/>
-      <c r="S43" s="32">
-        <f>R43-R44+O43</f>
-        <v>0</v>
-      </c>
-      <c r="T43" s="6"/>
-      <c r="U43" s="32">
-        <f t="shared" ref="U43" si="90">T43-T44+S43</f>
-        <v>0</v>
-      </c>
-      <c r="V43" s="6">
+      <c r="S43" s="33">
+        <f t="shared" ref="S43" si="75">R43-R44+Q43</f>
+        <v>-711.85</v>
+      </c>
+      <c r="T43" s="6">
         <v>351.1</v>
       </c>
-      <c r="W43" s="32">
-        <f t="shared" ref="W43:W45" si="91">V43-V44+U43</f>
-        <v>173.35000000000002</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" ht="15.5" hidden="1">
+      <c r="U43" s="33">
+        <f t="shared" ref="U43:U45" si="76">T43-T44+S43</f>
+        <v>-538.5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" ht="15.5">
       <c r="B44" s="9"/>
-      <c r="C44" s="36"/>
+      <c r="C44" s="37"/>
       <c r="D44" s="7"/>
-      <c r="E44" s="32"/>
+      <c r="E44" s="33"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="32"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="7">
+        <v>508</v>
+      </c>
+      <c r="I44" s="33"/>
       <c r="J44" s="7">
         <f>EPILIBRE_Clôtures!B5</f>
-        <v>0</v>
-      </c>
-      <c r="K44" s="32"/>
+        <v>259.35000000000002</v>
+      </c>
+      <c r="K44" s="33"/>
       <c r="L44" s="7">
         <f>EPILIBRE_Clôtures!C5</f>
         <v>0</v>
       </c>
-      <c r="M44" s="32"/>
+      <c r="M44" s="33"/>
       <c r="N44" s="7">
         <f>EPILIBRE_Clôtures!D5</f>
         <v>0</v>
       </c>
-      <c r="O44" s="32"/>
-      <c r="P44" s="7" t="e">
-        <f>EPILIBRE_Clôtures!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q44" s="32"/>
+      <c r="O44" s="33"/>
+      <c r="P44" s="7">
+        <f>F43</f>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="33"/>
       <c r="R44" s="7">
-        <f>F43</f>
-        <v>0</v>
-      </c>
-      <c r="S44" s="32"/>
+        <f>H43</f>
+        <v>0</v>
+      </c>
+      <c r="S44" s="33"/>
       <c r="T44" s="7">
-        <f>H43</f>
-        <v>0</v>
-      </c>
-      <c r="U44" s="32"/>
-      <c r="V44" s="7">
         <v>177.75</v>
       </c>
-      <c r="W44" s="32"/>
-    </row>
-    <row r="45" spans="2:23" ht="15.5" hidden="1">
+      <c r="U44" s="33"/>
+    </row>
+    <row r="45" spans="2:21" ht="15.5">
       <c r="B45" s="9"/>
-      <c r="C45" s="36"/>
+      <c r="C45" s="37"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="32">
+      <c r="E45" s="33">
         <f>D45-D46</f>
         <v>0</v>
       </c>
-      <c r="F45" s="6">
-        <v>3833.78</v>
-      </c>
-      <c r="G45" s="32">
+      <c r="F45" s="6"/>
+      <c r="G45" s="33">
         <f>F45-F46+E45</f>
-        <v>3833.78</v>
+        <v>0</v>
       </c>
       <c r="H45" s="6">
-        <v>0</v>
-      </c>
-      <c r="I45" s="32">
-        <f t="shared" ref="I45" si="92">H45-H46+G45</f>
-        <v>3833.78</v>
+        <v>1200</v>
+      </c>
+      <c r="I45" s="33">
+        <f t="shared" ref="I45" si="77">H45-H46+G45</f>
+        <v>-300</v>
       </c>
       <c r="J45" s="6">
         <f>EPILIBRE_Clôtures!B3</f>
-        <v>0</v>
-      </c>
-      <c r="K45" s="32">
-        <f t="shared" ref="K45" si="93">J45-J46+I45</f>
-        <v>3833.78</v>
+        <v>488.15</v>
+      </c>
+      <c r="K45" s="33">
+        <f t="shared" ref="K45" si="78">J45-J46+I45</f>
+        <v>188.14999999999998</v>
       </c>
       <c r="L45" s="6">
         <f>EPILIBRE_Clôtures!C3</f>
         <v>0</v>
       </c>
-      <c r="M45" s="32">
-        <f t="shared" ref="M45" si="94">L45-L46+K45</f>
-        <v>3833.78</v>
+      <c r="M45" s="33">
+        <f t="shared" ref="M45" si="79">L45-L46+K45</f>
+        <v>188.14999999999998</v>
       </c>
       <c r="N45" s="6">
         <f>EPILIBRE_Clôtures!D3</f>
         <v>0</v>
       </c>
-      <c r="O45" s="32">
-        <f t="shared" ref="O45" si="95">N45-N46+M45</f>
-        <v>3833.78</v>
-      </c>
-      <c r="P45" s="6" t="e">
-        <f>EPILIBRE_Clôtures!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q45" s="32" t="e">
-        <f t="shared" ref="Q45" si="96">P45-P46+O45</f>
-        <v>#REF!</v>
+      <c r="O45" s="33">
+        <f t="shared" ref="O45" si="80">N45-N46+M45</f>
+        <v>188.14999999999998</v>
+      </c>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="33">
+        <f>P45-P46+O45</f>
+        <v>188.14999999999998</v>
       </c>
       <c r="R45" s="6"/>
-      <c r="S45" s="32">
-        <f>R45-R46+O45</f>
-        <v>0</v>
-      </c>
-      <c r="T45" s="6"/>
-      <c r="U45" s="32">
-        <f t="shared" ref="U45" si="97">T45-T46+S45</f>
-        <v>0</v>
-      </c>
-      <c r="V45" s="6">
+      <c r="S45" s="33">
+        <f t="shared" ref="S45" si="81">R45-R46+Q45</f>
+        <v>-1011.85</v>
+      </c>
+      <c r="T45" s="6">
         <v>1588.28</v>
       </c>
-      <c r="W45" s="53">
-        <f t="shared" si="91"/>
-        <v>-181.04999999999995</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" ht="15.5" hidden="1">
+      <c r="U45" s="54">
+        <f t="shared" si="76"/>
+        <v>-1192.9000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" ht="15.5">
       <c r="B46" s="9"/>
-      <c r="C46" s="36"/>
+      <c r="C46" s="37"/>
       <c r="D46" s="7"/>
-      <c r="E46" s="32"/>
+      <c r="E46" s="33"/>
       <c r="F46" s="7"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="32"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="7">
+        <v>1500</v>
+      </c>
+      <c r="I46" s="33"/>
       <c r="J46" s="7">
         <f>EPILIBRE_Clôtures!B6</f>
         <v>0</v>
       </c>
-      <c r="K46" s="32"/>
+      <c r="K46" s="33"/>
       <c r="L46" s="7">
         <f>EPILIBRE_Clôtures!C6</f>
         <v>0</v>
       </c>
-      <c r="M46" s="32"/>
+      <c r="M46" s="33"/>
       <c r="N46" s="7">
         <f>EPILIBRE_Clôtures!D6</f>
         <v>0</v>
       </c>
-      <c r="O46" s="32"/>
-      <c r="P46" s="7" t="e">
-        <f>EPILIBRE_Clôtures!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q46" s="32"/>
+      <c r="O46" s="33"/>
+      <c r="P46" s="7">
+        <f>F45</f>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="33"/>
       <c r="R46" s="7">
-        <f>F45</f>
-        <v>3833.78</v>
-      </c>
-      <c r="S46" s="32"/>
+        <f>H45</f>
+        <v>1200</v>
+      </c>
+      <c r="S46" s="33"/>
       <c r="T46" s="7">
-        <f>H45</f>
-        <v>0</v>
-      </c>
-      <c r="U46" s="32"/>
-      <c r="V46" s="7">
         <v>1769.33</v>
       </c>
-      <c r="W46" s="53"/>
-    </row>
-    <row r="47" spans="2:23" ht="15.5" hidden="1">
+      <c r="U46" s="54"/>
+    </row>
+    <row r="47" spans="2:21" ht="15.5">
       <c r="B47" s="9"/>
-      <c r="C47" s="36" t="s">
-        <v>33</v>
+      <c r="C47" s="37" t="s">
+        <v>30</v>
       </c>
       <c r="D47" s="6"/>
-      <c r="E47" s="32">
+      <c r="E47" s="33">
         <f>D47-D48</f>
         <v>0</v>
       </c>
       <c r="F47" s="6"/>
-      <c r="G47" s="32">
-        <f t="shared" ref="G47" si="98">F47-F48+E47</f>
+      <c r="G47" s="33">
+        <f t="shared" ref="G47" si="82">F47-F48+E47</f>
         <v>0</v>
       </c>
       <c r="H47" s="6">
-        <v>44.21</v>
-      </c>
-      <c r="I47" s="32">
-        <f t="shared" ref="I47" si="99">H47-H48+G47</f>
-        <v>44.21</v>
+        <v>0</v>
+      </c>
+      <c r="I47" s="33">
+        <f t="shared" ref="I47" si="83">H47-H48+G47</f>
+        <v>-300</v>
       </c>
       <c r="J47" s="6">
         <f>IE_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K47" s="32">
-        <f t="shared" ref="K47" si="100">J47-J48+I47</f>
-        <v>44.21</v>
+      <c r="K47" s="33">
+        <f t="shared" ref="K47" si="84">J47-J48+I47</f>
+        <v>-300</v>
       </c>
       <c r="L47" s="6">
         <f>IE_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M47" s="32">
-        <f t="shared" ref="M47" si="101">L47-L48+K47</f>
-        <v>44.21</v>
+      <c r="M47" s="33">
+        <f t="shared" ref="M47" si="85">L47-L48+K47</f>
+        <v>-300</v>
       </c>
       <c r="N47" s="6">
         <f>IE_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O47" s="32">
-        <f t="shared" ref="O47" si="102">N47-N48+M47</f>
-        <v>44.21</v>
-      </c>
-      <c r="P47" s="6" t="e">
-        <f>IE_Clôtures!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q47" s="32" t="e">
-        <f t="shared" ref="Q47" si="103">P47-P48+O47</f>
-        <v>#REF!</v>
+      <c r="O47" s="33">
+        <f t="shared" ref="O47" si="86">N47-N48+M47</f>
+        <v>-300</v>
+      </c>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="33">
+        <f>P47-P48+O47</f>
+        <v>-300</v>
       </c>
       <c r="R47" s="6"/>
-      <c r="S47" s="32">
-        <f>R47-R48+O47</f>
-        <v>44.21</v>
-      </c>
-      <c r="T47" s="6"/>
-      <c r="U47" s="32">
-        <f t="shared" ref="U47" si="104">T47-T48+S47</f>
-        <v>0</v>
-      </c>
-      <c r="V47" s="6">
+      <c r="S47" s="33">
+        <f t="shared" ref="S47" si="87">R47-R48+Q47</f>
+        <v>-300</v>
+      </c>
+      <c r="T47" s="6">
         <v>71.709999999999994</v>
       </c>
-      <c r="W47" s="32">
-        <f t="shared" ref="W47" si="105">V47-V48+U47</f>
-        <v>71.709999999999994</v>
-      </c>
-    </row>
-    <row r="48" spans="2:23" ht="15.5" hidden="1">
+      <c r="U47" s="33">
+        <f t="shared" ref="U47" si="88">T47-T48+S47</f>
+        <v>-228.29000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" ht="15.5">
       <c r="B48" s="9"/>
-      <c r="C48" s="36"/>
+      <c r="C48" s="37"/>
       <c r="D48" s="7"/>
-      <c r="E48" s="32"/>
+      <c r="E48" s="33"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="32"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="7">
+        <v>300</v>
+      </c>
+      <c r="I48" s="33"/>
       <c r="J48" s="7">
         <f>IE_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K48" s="32"/>
+      <c r="K48" s="33"/>
       <c r="L48" s="7">
         <f>IE_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M48" s="32"/>
+      <c r="M48" s="33"/>
       <c r="N48" s="7">
         <f>IE_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O48" s="32"/>
-      <c r="P48" s="7" t="e">
-        <f>IE_Clôtures!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q48" s="32"/>
+      <c r="O48" s="33"/>
+      <c r="P48" s="7">
+        <f>F47</f>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="33"/>
       <c r="R48" s="7">
-        <f>F47</f>
-        <v>0</v>
-      </c>
-      <c r="S48" s="32"/>
-      <c r="T48" s="7">
         <f>H47</f>
-        <v>44.21</v>
-      </c>
-      <c r="U48" s="32"/>
-      <c r="V48" s="7"/>
-      <c r="W48" s="32"/>
-    </row>
-    <row r="49" spans="2:23" ht="15.5" hidden="1">
+        <v>0</v>
+      </c>
+      <c r="S48" s="33"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="33"/>
+    </row>
+    <row r="49" spans="2:21" ht="15.5">
       <c r="B49" s="9"/>
-      <c r="C49" s="36" t="s">
-        <v>32</v>
+      <c r="C49" s="37" t="s">
+        <v>29</v>
       </c>
       <c r="D49" s="6"/>
-      <c r="E49" s="32">
+      <c r="E49" s="33">
         <f>D49-D50</f>
         <v>0</v>
       </c>
       <c r="F49" s="6"/>
-      <c r="G49" s="32">
-        <f t="shared" ref="G49" si="106">F49-F50+E49</f>
+      <c r="G49" s="33">
+        <f t="shared" ref="G49" si="89">F49-F50+E49</f>
         <v>0</v>
       </c>
       <c r="H49" s="6">
-        <v>0</v>
-      </c>
-      <c r="I49" s="32">
-        <f t="shared" ref="I49" si="107">H49-H50+G49</f>
-        <v>0</v>
+        <v>8000</v>
+      </c>
+      <c r="I49" s="33">
+        <f t="shared" ref="I49" si="90">H49-H50+G49</f>
+        <v>-2000</v>
       </c>
       <c r="J49" s="6">
         <f>LOWTECH_Clôtures!$B$3</f>
-        <v>0</v>
-      </c>
-      <c r="K49" s="32">
-        <f t="shared" ref="K49" si="108">J49-J50+I49</f>
-        <v>0</v>
+        <v>292.47000000000003</v>
+      </c>
+      <c r="K49" s="33">
+        <f t="shared" ref="K49" si="91">J49-J50+I49</f>
+        <v>-1721.78</v>
       </c>
       <c r="L49" s="6">
         <f>LOWTECH_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M49" s="32">
-        <f t="shared" ref="M49" si="109">L49-L50+K49</f>
-        <v>0</v>
+      <c r="M49" s="33">
+        <f t="shared" ref="M49" si="92">L49-L50+K49</f>
+        <v>-1721.78</v>
       </c>
       <c r="N49" s="6">
         <f>LOWTECH_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O49" s="32">
-        <f t="shared" ref="O49" si="110">N49-N50+M49</f>
-        <v>0</v>
-      </c>
-      <c r="P49" s="6" t="e">
-        <f>LOWTECH_Clôtures!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q49" s="32" t="e">
-        <f t="shared" ref="Q49" si="111">P49-P50+O49</f>
-        <v>#REF!</v>
+      <c r="O49" s="33">
+        <f t="shared" ref="O49" si="93">N49-N50+M49</f>
+        <v>-1721.78</v>
+      </c>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="33">
+        <f>P49-P50+O49</f>
+        <v>-1721.78</v>
       </c>
       <c r="R49" s="6"/>
-      <c r="S49" s="32">
-        <f>R49-R50+O49</f>
-        <v>0</v>
-      </c>
-      <c r="T49" s="6"/>
-      <c r="U49" s="32">
-        <f t="shared" ref="U49" si="112">T49-T50+S49</f>
-        <v>0</v>
-      </c>
-      <c r="V49" s="6">
+      <c r="S49" s="33">
+        <f t="shared" ref="S49" si="94">R49-R50+Q49</f>
+        <v>-9721.7800000000007</v>
+      </c>
+      <c r="T49" s="6">
         <v>292.47000000000003</v>
       </c>
-      <c r="W49" s="32">
-        <f t="shared" ref="W49" si="113">V49-V50+U49</f>
-        <v>10.07000000000005</v>
-      </c>
-    </row>
-    <row r="50" spans="2:23" ht="15.5" hidden="1">
+      <c r="U49" s="33">
+        <f t="shared" ref="U49" si="95">T49-T50+S49</f>
+        <v>-9711.7100000000009</v>
+      </c>
+    </row>
+    <row r="50" spans="2:21" ht="15.5">
       <c r="B50" s="9"/>
-      <c r="C50" s="36"/>
+      <c r="C50" s="37"/>
       <c r="D50" s="7"/>
-      <c r="E50" s="32"/>
+      <c r="E50" s="33"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="32"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="7">
+        <v>10000</v>
+      </c>
+      <c r="I50" s="33"/>
       <c r="J50" s="7">
         <f>LOWTECH_Clôtures!$B$5</f>
-        <v>0</v>
-      </c>
-      <c r="K50" s="32"/>
+        <v>14.25</v>
+      </c>
+      <c r="K50" s="33"/>
       <c r="L50" s="7">
         <f>LOWTECH_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M50" s="32"/>
+      <c r="M50" s="33"/>
       <c r="N50" s="7">
         <f>LOWTECH_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O50" s="32"/>
-      <c r="P50" s="7" t="e">
-        <f>LOWTECH_Clôtures!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q50" s="32"/>
+      <c r="O50" s="33"/>
+      <c r="P50" s="7">
+        <f>F49</f>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="33"/>
       <c r="R50" s="7">
-        <f>F49</f>
-        <v>0</v>
-      </c>
-      <c r="S50" s="32"/>
+        <f>H49</f>
+        <v>8000</v>
+      </c>
+      <c r="S50" s="33"/>
       <c r="T50" s="7">
-        <f>H49</f>
-        <v>0</v>
-      </c>
-      <c r="U50" s="32"/>
-      <c r="V50" s="7">
         <v>282.39999999999998</v>
       </c>
-      <c r="W50" s="32"/>
-    </row>
-    <row r="51" spans="2:23" ht="15.5" hidden="1">
+      <c r="U50" s="33"/>
+    </row>
+    <row r="51" spans="2:21" ht="15.5">
       <c r="B51" s="9"/>
-      <c r="C51" s="36" t="s">
-        <v>27</v>
+      <c r="C51" s="37" t="s">
+        <v>24</v>
       </c>
       <c r="D51" s="6"/>
-      <c r="E51" s="32">
+      <c r="E51" s="33">
         <f>D51-D52</f>
         <v>0</v>
       </c>
       <c r="F51" s="6"/>
-      <c r="G51" s="32">
-        <f t="shared" ref="G51" si="114">F51-F52+E51</f>
+      <c r="G51" s="33">
+        <f t="shared" ref="G51" si="96">F51-F52+E51</f>
         <v>0</v>
       </c>
       <c r="H51" s="6">
-        <v>818.05</v>
-      </c>
-      <c r="I51" s="32">
-        <f t="shared" ref="I51" si="115">H51-H52+G51</f>
-        <v>818.05</v>
+        <v>0</v>
+      </c>
+      <c r="I51" s="33">
+        <f t="shared" ref="I51" si="97">H51-H52+G51</f>
+        <v>-1050</v>
       </c>
       <c r="J51" s="6">
         <f>JARDIN_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="32">
-        <f t="shared" ref="K51" si="116">J51-J52+I51</f>
-        <v>818.05</v>
+      <c r="K51" s="33">
+        <f t="shared" ref="K51" si="98">J51-J52+I51</f>
+        <v>-1100</v>
       </c>
       <c r="L51" s="6">
         <f>JARDIN_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M51" s="32">
-        <f t="shared" ref="M51" si="117">L51-L52+K51</f>
-        <v>818.05</v>
+      <c r="M51" s="33">
+        <f t="shared" ref="M51" si="99">L51-L52+K51</f>
+        <v>-1100</v>
       </c>
       <c r="N51" s="6">
         <f>JARDIN_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O51" s="32">
-        <f t="shared" ref="O51" si="118">N51-N52+M51</f>
-        <v>818.05</v>
-      </c>
-      <c r="P51" s="6" t="e">
-        <f>JARDIN_Clôtures!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q51" s="32" t="e">
-        <f t="shared" ref="Q51" si="119">P51-P52+O51</f>
-        <v>#REF!</v>
+      <c r="O51" s="33">
+        <f t="shared" ref="O51" si="100">N51-N52+M51</f>
+        <v>-1100</v>
+      </c>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="33">
+        <f>P51-P52+O51</f>
+        <v>-1100</v>
       </c>
       <c r="R51" s="6"/>
-      <c r="S51" s="32">
-        <f>R51-R52+O51</f>
-        <v>818.05</v>
-      </c>
-      <c r="T51" s="6"/>
-      <c r="U51" s="32">
-        <f t="shared" ref="U51" si="120">T51-T52+S51</f>
-        <v>0</v>
-      </c>
-      <c r="V51" s="6">
+      <c r="S51" s="33">
+        <f t="shared" ref="S51" si="101">R51-R52+Q51</f>
+        <v>-1100</v>
+      </c>
+      <c r="T51" s="6">
         <v>1022.8</v>
       </c>
-      <c r="W51" s="32">
-        <f t="shared" ref="W51" si="121">V51-V52+U51</f>
-        <v>810.8</v>
-      </c>
-    </row>
-    <row r="52" spans="2:23" ht="15.5" hidden="1">
+      <c r="U51" s="33">
+        <f t="shared" ref="U51" si="102">T51-T52+S51</f>
+        <v>-289.20000000000005</v>
+      </c>
+    </row>
+    <row r="52" spans="2:21" ht="15.5">
       <c r="B52" s="9"/>
-      <c r="C52" s="36"/>
+      <c r="C52" s="37"/>
       <c r="D52" s="7"/>
-      <c r="E52" s="32"/>
+      <c r="E52" s="33"/>
       <c r="F52" s="7"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="32"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="7">
+        <v>1050</v>
+      </c>
+      <c r="I52" s="33"/>
       <c r="J52" s="7">
         <f>JARDIN_Clôtures!$B$5</f>
-        <v>0</v>
-      </c>
-      <c r="K52" s="32"/>
+        <v>50</v>
+      </c>
+      <c r="K52" s="33"/>
       <c r="L52" s="7">
         <f>JARDIN_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M52" s="32"/>
+      <c r="M52" s="33"/>
       <c r="N52" s="7">
         <f>JARDIN_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O52" s="32"/>
-      <c r="P52" s="7" t="e">
-        <f>JARDIN_Clôtures!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q52" s="32"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="7">
+        <f>F51</f>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="33"/>
       <c r="R52" s="7">
-        <f>F51</f>
-        <v>0</v>
-      </c>
-      <c r="S52" s="32"/>
+        <f>H51</f>
+        <v>0</v>
+      </c>
+      <c r="S52" s="33"/>
       <c r="T52" s="7">
-        <f>H51</f>
-        <v>818.05</v>
-      </c>
-      <c r="U52" s="32"/>
-      <c r="V52" s="7">
         <v>212</v>
       </c>
-      <c r="W52" s="32"/>
-    </row>
-    <row r="53" spans="2:23" ht="15.5" hidden="1">
+      <c r="U52" s="33"/>
+    </row>
+    <row r="53" spans="2:21" ht="15.5">
       <c r="B53" s="9"/>
-      <c r="C53" s="36" t="s">
-        <v>28</v>
+      <c r="C53" s="37" t="s">
+        <v>25</v>
       </c>
       <c r="D53" s="6"/>
-      <c r="E53" s="32">
+      <c r="E53" s="33">
         <f>D53-D54</f>
         <v>0</v>
       </c>
       <c r="F53" s="6"/>
-      <c r="G53" s="32">
-        <f t="shared" ref="G53" si="122">F53-F54+E53</f>
+      <c r="G53" s="33">
+        <f t="shared" ref="G53" si="103">F53-F54+E53</f>
         <v>0</v>
       </c>
       <c r="H53" s="6">
         <v>0</v>
       </c>
-      <c r="I53" s="32">
-        <f t="shared" ref="I53" si="123">H53-H54+G53</f>
-        <v>0</v>
+      <c r="I53" s="33">
+        <f t="shared" ref="I53" si="104">H53-H54+G53</f>
+        <v>-180</v>
       </c>
       <c r="J53" s="6"/>
-      <c r="K53" s="32">
-        <f t="shared" ref="K53" si="124">J53-J54+I53</f>
-        <v>0</v>
+      <c r="K53" s="33">
+        <f t="shared" ref="K53" si="105">J53-J54+I53</f>
+        <v>-180</v>
       </c>
       <c r="L53" s="6"/>
-      <c r="M53" s="32">
-        <f t="shared" ref="M53" si="125">L53-L54+K53</f>
-        <v>0</v>
+      <c r="M53" s="33">
+        <f t="shared" ref="M53" si="106">L53-L54+K53</f>
+        <v>-180</v>
       </c>
       <c r="N53" s="6"/>
-      <c r="O53" s="32">
-        <f t="shared" ref="O53" si="126">N53-N54+M53</f>
-        <v>0</v>
+      <c r="O53" s="33">
+        <f t="shared" ref="O53" si="107">N53-N54+M53</f>
+        <v>-180</v>
       </c>
       <c r="P53" s="6"/>
-      <c r="Q53" s="32" t="e">
-        <f t="shared" ref="Q53" si="127">P53-P54+O53</f>
-        <v>#REF!</v>
+      <c r="Q53" s="33">
+        <f>P53-P54+O53</f>
+        <v>-180</v>
       </c>
       <c r="R53" s="6"/>
-      <c r="S53" s="32">
-        <f>R53-R54+O53</f>
-        <v>0</v>
-      </c>
-      <c r="T53" s="6"/>
-      <c r="U53" s="32">
-        <f t="shared" ref="U53" si="128">T53-T54+S53</f>
-        <v>0</v>
-      </c>
-      <c r="V53" s="6">
+      <c r="S53" s="33">
+        <f t="shared" ref="S53" si="108">R53-R54+Q53</f>
+        <v>-180</v>
+      </c>
+      <c r="T53" s="6">
         <v>1456.25</v>
       </c>
-      <c r="W53" s="32">
-        <f t="shared" ref="W53" si="129">V53-V54+U53</f>
-        <v>1456.25</v>
-      </c>
-    </row>
-    <row r="54" spans="2:23" ht="15.5" hidden="1">
+      <c r="U53" s="33">
+        <f t="shared" ref="U53" si="109">T53-T54+S53</f>
+        <v>1276.25</v>
+      </c>
+    </row>
+    <row r="54" spans="2:21" ht="15.5">
       <c r="B54" s="9"/>
-      <c r="C54" s="36"/>
+      <c r="C54" s="37"/>
       <c r="D54" s="7"/>
-      <c r="E54" s="32"/>
+      <c r="E54" s="33"/>
       <c r="F54" s="7"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="32"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="7">
+        <v>180</v>
+      </c>
+      <c r="I54" s="33"/>
       <c r="J54" s="7">
         <f>MEUBLE_Clôtures!$B$4</f>
         <v>0</v>
       </c>
-      <c r="K54" s="32"/>
+      <c r="K54" s="33"/>
       <c r="L54" s="7">
         <f>MEUBLE_Clôtures!$C$4</f>
         <v>0</v>
       </c>
-      <c r="M54" s="32"/>
+      <c r="M54" s="33"/>
       <c r="N54" s="7">
         <f>MEUBLE_Clôtures!$D$4</f>
         <v>0</v>
       </c>
-      <c r="O54" s="32"/>
-      <c r="P54" s="7" t="e">
-        <f>MEUBLE_Clôtures!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q54" s="32"/>
+      <c r="O54" s="33"/>
+      <c r="P54" s="7">
+        <f>F53</f>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="33"/>
       <c r="R54" s="7">
-        <f>F53</f>
-        <v>0</v>
-      </c>
-      <c r="S54" s="32"/>
-      <c r="T54" s="7">
         <f>H53</f>
         <v>0</v>
       </c>
-      <c r="U54" s="32"/>
-      <c r="V54" s="7"/>
-      <c r="W54" s="32"/>
-    </row>
-    <row r="55" spans="2:23" ht="15.5" hidden="1">
+      <c r="S54" s="33"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="33"/>
+    </row>
+    <row r="55" spans="2:21" ht="15.5">
       <c r="B55" s="9"/>
-      <c r="C55" s="36"/>
+      <c r="C55" s="37"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="32">
+      <c r="E55" s="33">
         <f>D55-D56</f>
         <v>0</v>
       </c>
       <c r="F55" s="6"/>
-      <c r="G55" s="32">
-        <f t="shared" ref="G55" si="130">F55-F56+E55</f>
+      <c r="G55" s="33">
+        <f t="shared" ref="G55" si="110">F55-F56+E55</f>
         <v>0</v>
       </c>
       <c r="H55" s="6">
-        <v>0</v>
-      </c>
-      <c r="I55" s="32">
-        <f t="shared" ref="I55" si="131">H55-H56+G55</f>
-        <v>0</v>
+        <v>1630</v>
+      </c>
+      <c r="I55" s="33">
+        <f t="shared" ref="I55" si="111">H55-H56+G55</f>
+        <v>-310</v>
       </c>
       <c r="J55" s="6">
         <f>MEUBLE_Clôtures!$B$2</f>
         <v>0</v>
       </c>
-      <c r="K55" s="32">
-        <f t="shared" ref="K55" si="132">J55-J56+I55</f>
-        <v>0</v>
+      <c r="K55" s="33">
+        <f t="shared" ref="K55" si="112">J55-J56+I55</f>
+        <v>-310</v>
       </c>
       <c r="L55" s="6">
         <f>MEUBLE_Clôtures!$C$2</f>
         <v>0</v>
       </c>
-      <c r="M55" s="32">
-        <f t="shared" ref="M55" si="133">L55-L56+K55</f>
-        <v>0</v>
+      <c r="M55" s="33">
+        <f t="shared" ref="M55" si="113">L55-L56+K55</f>
+        <v>-310</v>
       </c>
       <c r="N55" s="6">
         <f>MEUBLE_Clôtures!$D$2</f>
         <v>0</v>
       </c>
-      <c r="O55" s="32">
-        <f t="shared" ref="O55" si="134">N55-N56+M55</f>
-        <v>0</v>
-      </c>
-      <c r="P55" s="6" t="e">
-        <f>MEUBLE_Clôtures!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q55" s="32" t="e">
-        <f t="shared" ref="Q55" si="135">P55-P56+O55</f>
-        <v>#REF!</v>
+      <c r="O55" s="33">
+        <f t="shared" ref="O55" si="114">N55-N56+M55</f>
+        <v>-310</v>
+      </c>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="33">
+        <f>P55-P56+O55</f>
+        <v>-310</v>
       </c>
       <c r="R55" s="6"/>
-      <c r="S55" s="32">
-        <f>R55-R56+O55</f>
-        <v>0</v>
-      </c>
-      <c r="T55" s="6"/>
-      <c r="U55" s="32">
-        <f t="shared" ref="U55" si="136">T55-T56+S55</f>
-        <v>0</v>
-      </c>
-      <c r="V55" s="6">
+      <c r="S55" s="33">
+        <f t="shared" ref="S55" si="115">R55-R56+Q55</f>
+        <v>-1940</v>
+      </c>
+      <c r="T55" s="6">
         <v>1545</v>
       </c>
-      <c r="W55" s="32">
-        <f t="shared" ref="W55" si="137">V55-V56+U55</f>
-        <v>915.8</v>
-      </c>
-    </row>
-    <row r="56" spans="2:23" ht="15.5" hidden="1">
+      <c r="U55" s="33">
+        <f t="shared" ref="U55" si="116">T55-T56+S55</f>
+        <v>-1024.2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:21" ht="15.5">
       <c r="B56" s="9"/>
-      <c r="C56" s="36"/>
+      <c r="C56" s="37"/>
       <c r="D56" s="7"/>
-      <c r="E56" s="32"/>
+      <c r="E56" s="33"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="32"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="7">
+        <v>1940</v>
+      </c>
+      <c r="I56" s="33"/>
       <c r="J56" s="7">
         <f>MEUBLE_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K56" s="32"/>
+      <c r="K56" s="33"/>
       <c r="L56" s="7">
         <f>MEUBLE_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M56" s="32"/>
+      <c r="M56" s="33"/>
       <c r="N56" s="7">
         <f>MEUBLE_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O56" s="32"/>
-      <c r="P56" s="7" t="e">
-        <f>MEUBLE_Clôtures!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q56" s="32"/>
+      <c r="O56" s="33"/>
+      <c r="P56" s="7">
+        <f>F55</f>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="33"/>
       <c r="R56" s="7">
-        <f>F55</f>
-        <v>0</v>
-      </c>
-      <c r="S56" s="32"/>
+        <f>H55</f>
+        <v>1630</v>
+      </c>
+      <c r="S56" s="33"/>
       <c r="T56" s="7">
-        <f>H55</f>
-        <v>0</v>
-      </c>
-      <c r="U56" s="32"/>
-      <c r="V56" s="7">
         <v>629.20000000000005</v>
       </c>
-      <c r="W56" s="32"/>
-    </row>
-    <row r="57" spans="2:23" ht="15.5" hidden="1">
+      <c r="U56" s="33"/>
+    </row>
+    <row r="57" spans="2:21" ht="15.5">
       <c r="B57" s="9"/>
-      <c r="C57" s="36" t="s">
-        <v>29</v>
+      <c r="C57" s="37" t="s">
+        <v>26</v>
       </c>
       <c r="D57" s="6"/>
-      <c r="E57" s="32">
+      <c r="E57" s="33">
         <f>D57-D58</f>
         <v>0</v>
       </c>
       <c r="F57" s="6"/>
-      <c r="G57" s="32">
-        <f t="shared" ref="G57" si="138">F57-F58+E57</f>
+      <c r="G57" s="33">
+        <f t="shared" ref="G57" si="117">F57-F58+E57</f>
         <v>0</v>
       </c>
       <c r="H57" s="6">
-        <v>0</v>
-      </c>
-      <c r="I57" s="32">
-        <f t="shared" ref="I57" si="139">H57-H58+G57</f>
+        <v>10000</v>
+      </c>
+      <c r="I57" s="33">
+        <f t="shared" ref="I57" si="118">H57-H58+G57</f>
         <v>0</v>
       </c>
       <c r="J57" s="6">
         <f>DUDU_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K57" s="32">
-        <f t="shared" ref="K57" si="140">J57-J58+I57</f>
+      <c r="K57" s="33">
+        <f t="shared" ref="K57" si="119">J57-J58+I57</f>
         <v>0</v>
       </c>
       <c r="L57" s="6">
         <f>DUDU_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M57" s="32">
-        <f t="shared" ref="M57" si="141">L57-L58+K57</f>
+      <c r="M57" s="33">
+        <f t="shared" ref="M57" si="120">L57-L58+K57</f>
         <v>0</v>
       </c>
       <c r="N57" s="6">
         <f>DUDU_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O57" s="32">
-        <f t="shared" ref="O57" si="142">N57-N58+M57</f>
-        <v>0</v>
-      </c>
-      <c r="P57" s="6" t="e">
-        <f>DUDU_Clôtures!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q57" s="32" t="e">
-        <f t="shared" ref="Q57" si="143">P57-P58+O57</f>
-        <v>#REF!</v>
+      <c r="O57" s="33">
+        <f t="shared" ref="O57" si="121">N57-N58+M57</f>
+        <v>0</v>
+      </c>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="33">
+        <f>P57-P58+O57</f>
+        <v>0</v>
       </c>
       <c r="R57" s="6"/>
-      <c r="S57" s="32">
-        <f>R57-R58+O57</f>
-        <v>0</v>
-      </c>
-      <c r="T57" s="6"/>
-      <c r="U57" s="32">
-        <f t="shared" ref="U57" si="144">T57-T58+S57</f>
-        <v>0</v>
-      </c>
-      <c r="V57" s="6">
+      <c r="S57" s="33">
+        <f t="shared" ref="S57" si="122">R57-R58+Q57</f>
+        <v>-10000</v>
+      </c>
+      <c r="T57" s="6">
         <v>6506.55</v>
       </c>
-      <c r="W57" s="32">
-        <f t="shared" ref="W57" si="145">V57-V58+U57</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:23" ht="15.5" hidden="1">
+      <c r="U57" s="33">
+        <f t="shared" ref="U57" si="123">T57-T58+S57</f>
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="58" spans="2:21" ht="15.5">
       <c r="B58" s="9"/>
-      <c r="C58" s="36"/>
+      <c r="C58" s="37"/>
       <c r="D58" s="7"/>
-      <c r="E58" s="32"/>
+      <c r="E58" s="33"/>
       <c r="F58" s="7"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="32"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="7">
+        <v>10000</v>
+      </c>
+      <c r="I58" s="33"/>
       <c r="J58" s="7">
         <f>DUDU_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K58" s="32"/>
+      <c r="K58" s="33"/>
       <c r="L58" s="7">
         <f>DUDU_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M58" s="32"/>
+      <c r="M58" s="33"/>
       <c r="N58" s="7">
         <f>DUDU_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O58" s="32"/>
-      <c r="P58" s="7" t="e">
-        <f>DUDU_Clôtures!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q58" s="32"/>
+      <c r="O58" s="33"/>
+      <c r="P58" s="7">
+        <f>F57</f>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="33"/>
       <c r="R58" s="7">
-        <f>F57</f>
-        <v>0</v>
-      </c>
-      <c r="S58" s="32"/>
+        <f>H57</f>
+        <v>10000</v>
+      </c>
+      <c r="S58" s="33"/>
       <c r="T58" s="7">
-        <f>H57</f>
-        <v>0</v>
-      </c>
-      <c r="U58" s="32"/>
-      <c r="V58" s="7">
         <v>6506.55</v>
       </c>
-      <c r="W58" s="32"/>
-    </row>
-    <row r="59" spans="2:23" ht="15.5" hidden="1">
+      <c r="U58" s="33"/>
+    </row>
+    <row r="59" spans="2:21" ht="15.5" customHeight="1">
       <c r="B59" s="10"/>
-      <c r="C59" s="36" t="s">
-        <v>30</v>
+      <c r="C59" s="37" t="s">
+        <v>27</v>
       </c>
       <c r="D59" s="6"/>
-      <c r="E59" s="32">
+      <c r="E59" s="33">
         <f>D59-D60</f>
         <v>0</v>
       </c>
       <c r="F59" s="6"/>
-      <c r="G59" s="32">
-        <f t="shared" ref="G59" si="146">F59-F60+E59</f>
+      <c r="G59" s="33">
+        <f t="shared" ref="G59" si="124">F59-F60+E59</f>
         <v>0</v>
       </c>
       <c r="H59" s="6">
-        <v>0</v>
-      </c>
-      <c r="I59" s="32">
+        <v>500</v>
+      </c>
+      <c r="I59" s="33">
         <f>H59-H60+G59</f>
-        <v>0</v>
+        <v>-6530</v>
       </c>
       <c r="J59" s="6"/>
-      <c r="K59" s="32">
-        <f t="shared" ref="K59" si="147">J59-J60+I59</f>
-        <v>0</v>
+      <c r="K59" s="33">
+        <f t="shared" ref="K59" si="125">J59-J60+I59</f>
+        <v>-6530</v>
       </c>
       <c r="L59" s="6"/>
-      <c r="M59" s="32">
-        <f t="shared" ref="M59" si="148">L59-L60+K59</f>
-        <v>0</v>
+      <c r="M59" s="33">
+        <f t="shared" ref="M59" si="126">L59-L60+K59</f>
+        <v>-6530</v>
       </c>
       <c r="N59" s="6"/>
-      <c r="O59" s="32">
-        <f t="shared" ref="O59" si="149">N59-N60+M59</f>
-        <v>0</v>
+      <c r="O59" s="33">
+        <f t="shared" ref="O59" si="127">N59-N60+M59</f>
+        <v>-6530</v>
       </c>
       <c r="P59" s="6"/>
-      <c r="Q59" s="32" t="e">
+      <c r="Q59" s="33">
         <f>P59-P60+O59</f>
-        <v>#REF!</v>
+        <v>-6530</v>
       </c>
       <c r="R59" s="6"/>
-      <c r="S59" s="32">
-        <f>R59-R60+O59</f>
-        <v>0</v>
-      </c>
-      <c r="T59" s="6"/>
-      <c r="U59" s="32">
-        <f>T59-T60+S59</f>
-        <v>0</v>
-      </c>
-      <c r="V59" s="6">
+      <c r="S59" s="33">
+        <f>R59-R60+Q59</f>
+        <v>-7030</v>
+      </c>
+      <c r="T59" s="6">
         <v>1576.53</v>
       </c>
-      <c r="W59" s="32">
-        <f t="shared" ref="W59" si="150">V59-V60+U59</f>
-        <v>1576.53</v>
-      </c>
-    </row>
-    <row r="60" spans="2:23" ht="15.5" hidden="1">
+      <c r="U59" s="33">
+        <f t="shared" ref="U59" si="128">T59-T60+S59</f>
+        <v>-5453.47</v>
+      </c>
+    </row>
+    <row r="60" spans="2:21" ht="15.5" customHeight="1">
       <c r="B60" s="10"/>
-      <c r="C60" s="36"/>
+      <c r="C60" s="37"/>
       <c r="D60" s="7"/>
-      <c r="E60" s="32"/>
+      <c r="E60" s="33"/>
       <c r="F60" s="7"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="32"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="7">
+        <v>7030</v>
+      </c>
+      <c r="I60" s="33"/>
       <c r="J60" s="7">
         <f>UPFL_Clôtures!$B$4</f>
         <v>0</v>
       </c>
-      <c r="K60" s="32"/>
+      <c r="K60" s="33"/>
       <c r="L60" s="7">
         <f>UPFL_Clôtures!$C$4</f>
         <v>0</v>
       </c>
-      <c r="M60" s="32"/>
+      <c r="M60" s="33"/>
       <c r="N60" s="7">
         <f>UPFL_Clôtures!$D$4</f>
         <v>0</v>
       </c>
-      <c r="O60" s="32"/>
-      <c r="P60" s="7" t="e">
-        <f>UPFL_Clôtures!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q60" s="32"/>
+      <c r="O60" s="33"/>
+      <c r="P60" s="7">
+        <f>F59</f>
+        <v>0</v>
+      </c>
+      <c r="Q60" s="33"/>
       <c r="R60" s="7">
-        <f>F59</f>
-        <v>0</v>
-      </c>
-      <c r="S60" s="32"/>
-      <c r="T60" s="7">
         <f>H59</f>
-        <v>0</v>
-      </c>
-      <c r="U60" s="32"/>
-      <c r="V60" s="7"/>
-      <c r="W60" s="32"/>
-    </row>
-    <row r="61" spans="2:23" ht="15.5" hidden="1">
+        <v>500</v>
+      </c>
+      <c r="S60" s="33"/>
+      <c r="T60" s="7"/>
+      <c r="U60" s="33"/>
+    </row>
+    <row r="61" spans="2:21" ht="15.5" customHeight="1">
       <c r="B61" s="10"/>
-      <c r="C61" s="36"/>
+      <c r="C61" s="37"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="32">
+      <c r="E61" s="33">
         <f>D61-D62</f>
         <v>0</v>
       </c>
       <c r="F61" s="6"/>
-      <c r="G61" s="32">
+      <c r="G61" s="33">
         <f>F61-F62+E61</f>
         <v>0</v>
       </c>
       <c r="H61" s="6">
-        <v>0</v>
-      </c>
-      <c r="I61" s="32">
+        <v>2600</v>
+      </c>
+      <c r="I61" s="33">
         <f>H61-H62+G61</f>
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="J61" s="6">
         <f>UPFL_Clôtures!$B$2</f>
         <v>0</v>
       </c>
-      <c r="K61" s="32">
+      <c r="K61" s="33">
         <f>J61-J62+I61</f>
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="L61" s="6">
         <f>UPFL_Clôtures!$C$2</f>
         <v>0</v>
       </c>
-      <c r="M61" s="32">
+      <c r="M61" s="33">
         <f>L61-L62+K61</f>
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="N61" s="6">
         <f>UPFL_Clôtures!$D$2</f>
         <v>0</v>
       </c>
-      <c r="O61" s="32">
+      <c r="O61" s="33">
         <f>N61-N62+M61</f>
-        <v>0</v>
-      </c>
-      <c r="P61" s="6" t="e">
-        <f>UPFL_Clôtures!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q61" s="32" t="e">
+        <v>2600</v>
+      </c>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="33">
         <f>P61-P62+O61</f>
-        <v>#REF!</v>
+        <v>2600</v>
       </c>
       <c r="R61" s="6"/>
-      <c r="S61" s="32">
-        <f>R61-R62+O61</f>
+      <c r="S61" s="33">
+        <f>R61-R62+Q61</f>
         <v>0</v>
       </c>
       <c r="T61" s="6"/>
-      <c r="U61" s="32">
+      <c r="U61" s="33">
         <f>T61-T62+S61</f>
-        <v>0</v>
-      </c>
-      <c r="V61" s="6"/>
-      <c r="W61" s="32">
-        <f>V61-V62+U61</f>
         <v>-2214.67</v>
       </c>
     </row>
-    <row r="62" spans="2:23" ht="15.5" hidden="1">
+    <row r="62" spans="2:21" ht="15.5" customHeight="1">
       <c r="B62" s="10"/>
-      <c r="C62" s="36"/>
+      <c r="C62" s="37"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="32"/>
+      <c r="E62" s="33"/>
       <c r="F62" s="6"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="32"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="7">
+        <v>0</v>
+      </c>
+      <c r="I62" s="33"/>
       <c r="J62" s="7">
         <f>UPFL_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K62" s="32"/>
+      <c r="K62" s="33"/>
       <c r="L62" s="7">
         <f>UPFL_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M62" s="32"/>
+      <c r="M62" s="33"/>
       <c r="N62" s="7">
         <f>UPFL_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O62" s="32"/>
-      <c r="P62" s="7" t="e">
-        <f>UPFL_Clôtures!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q62" s="47"/>
+      <c r="O62" s="33"/>
+      <c r="P62" s="7">
+        <f>F61</f>
+        <v>0</v>
+      </c>
+      <c r="Q62" s="33"/>
       <c r="R62" s="7">
-        <f>F61</f>
-        <v>0</v>
-      </c>
-      <c r="S62" s="32"/>
+        <f>H61</f>
+        <v>2600</v>
+      </c>
+      <c r="S62" s="33"/>
       <c r="T62" s="7">
-        <f>H61</f>
-        <v>0</v>
-      </c>
-      <c r="U62" s="32"/>
-      <c r="V62" s="7">
         <v>2214.67</v>
       </c>
-      <c r="W62" s="32"/>
-    </row>
-    <row r="63" spans="2:23" ht="14" customHeight="1">
-      <c r="B63" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="C63" s="50"/>
-      <c r="D63" s="34">
-        <f>E5+E7+E29</f>
-        <v>16225.66</v>
-      </c>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34">
-        <f>G5+G7+G29</f>
-        <v>16225.66</v>
-      </c>
-      <c r="G63" s="34"/>
-      <c r="H63" s="34">
-        <f>I5+I7+I29</f>
-        <v>16225.66</v>
-      </c>
-      <c r="I63" s="34"/>
-      <c r="J63" s="34">
-        <f>K5+K7+K29</f>
-        <v>15703.789999999999</v>
-      </c>
-      <c r="K63" s="34"/>
-      <c r="L63" s="34">
-        <f>M5+M7+M29</f>
-        <v>15703.789999999999</v>
-      </c>
-      <c r="M63" s="34"/>
-      <c r="N63" s="34">
-        <f>O5+O7+O29</f>
-        <v>15703.789999999999</v>
-      </c>
-      <c r="O63" s="34"/>
-      <c r="P63" s="34" t="e">
-        <f>Q5+Q7+Q29</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q63" s="34"/>
-      <c r="R63" s="34">
-        <f>S5+S7+S29</f>
-        <v>15703.79</v>
-      </c>
-      <c r="S63" s="34"/>
-      <c r="T63" s="34">
-        <f>U5+U7+U29</f>
-        <v>15703.79</v>
-      </c>
-      <c r="U63" s="34"/>
-      <c r="V63" s="34">
-        <f>W5+W7+W29</f>
-        <v>15703.789999999997</v>
-      </c>
-      <c r="W63" s="34"/>
-    </row>
-    <row r="64" spans="2:23" ht="14.4" customHeight="1">
-      <c r="B64" s="51"/>
-      <c r="C64" s="52"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
-      <c r="J64" s="35"/>
-      <c r="K64" s="35"/>
-      <c r="L64" s="35"/>
-      <c r="M64" s="35"/>
-      <c r="N64" s="35"/>
-      <c r="O64" s="35"/>
-      <c r="P64" s="35"/>
-      <c r="Q64" s="35"/>
-      <c r="R64" s="35"/>
-      <c r="S64" s="35"/>
-      <c r="T64" s="35"/>
-      <c r="U64" s="35"/>
-      <c r="V64" s="35"/>
-      <c r="W64" s="35"/>
-    </row>
+      <c r="U62" s="33"/>
+    </row>
+    <row r="63" spans="2:21" ht="15.5">
+      <c r="B63" s="9"/>
+      <c r="C63" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D63" s="6"/>
+      <c r="E63" s="33">
+        <f>D63-D64</f>
+        <v>0</v>
+      </c>
+      <c r="F63" s="6"/>
+      <c r="G63" s="33">
+        <f>F63-F64+E63</f>
+        <v>0</v>
+      </c>
+      <c r="H63" s="6">
+        <v>0</v>
+      </c>
+      <c r="I63" s="33">
+        <f>H63-H64+G63</f>
+        <v>-2000</v>
+      </c>
+      <c r="J63" s="6">
+        <v>5</v>
+      </c>
+      <c r="K63" s="33">
+        <f>J63-J64+I63</f>
+        <v>-2103.16</v>
+      </c>
+      <c r="L63" s="6">
+        <f>FNR_Clôtures!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="M63" s="33">
+        <f>L63-L64+K63</f>
+        <v>-2103.16</v>
+      </c>
+      <c r="N63" s="6">
+        <f>FNR_Clôtures!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="O63" s="33">
+        <f>N63-N64+M63</f>
+        <v>-2103.16</v>
+      </c>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="33">
+        <f>P63-P64+O63</f>
+        <v>-2103.16</v>
+      </c>
+      <c r="R63" s="6"/>
+      <c r="S63" s="33">
+        <f t="shared" ref="S63" si="129">R63-R64+Q63</f>
+        <v>-2103.16</v>
+      </c>
+      <c r="T63" s="6">
+        <v>720.75</v>
+      </c>
+      <c r="U63" s="33">
+        <f>T63-T64+S63</f>
+        <v>-1457.0099999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="2:21" ht="15.5">
+      <c r="B64" s="9"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="7">
+        <v>2000</v>
+      </c>
+      <c r="I64" s="33"/>
+      <c r="J64" s="7">
+        <v>108.16</v>
+      </c>
+      <c r="K64" s="33"/>
+      <c r="L64" s="7">
+        <f>FNR_Clôtures!$C$4</f>
+        <v>0</v>
+      </c>
+      <c r="M64" s="33"/>
+      <c r="N64" s="7">
+        <f>FNR_Clôtures!$D$4</f>
+        <v>0</v>
+      </c>
+      <c r="O64" s="33"/>
+      <c r="P64" s="7">
+        <f>F63</f>
+        <v>0</v>
+      </c>
+      <c r="Q64" s="33"/>
+      <c r="R64" s="7">
+        <f>H63</f>
+        <v>0</v>
+      </c>
+      <c r="S64" s="33"/>
+      <c r="T64" s="7">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="U64" s="33"/>
+    </row>
+    <row r="65" spans="2:21" ht="15.5">
+      <c r="B65" s="9"/>
+      <c r="C65" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D65" s="6"/>
+      <c r="E65" s="33">
+        <f>D65-D66</f>
+        <v>0</v>
+      </c>
+      <c r="F65" s="6"/>
+      <c r="G65" s="33">
+        <f>F65-F66+E65</f>
+        <v>0</v>
+      </c>
+      <c r="H65" s="6">
+        <v>0</v>
+      </c>
+      <c r="I65" s="33">
+        <f>H65-H66+G65</f>
+        <v>0</v>
+      </c>
+      <c r="J65" s="6">
+        <v>15.1</v>
+      </c>
+      <c r="K65" s="33">
+        <f>J65-J66+I65</f>
+        <v>0</v>
+      </c>
+      <c r="L65" s="6">
+        <f>REBUILT_Clôtures!$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="M65" s="33">
+        <f>L65-L66+K65</f>
+        <v>0</v>
+      </c>
+      <c r="N65" s="6">
+        <f>REBUILT_Clôtures!$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="O65" s="33">
+        <f>N65-N66+M65</f>
+        <v>0</v>
+      </c>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="33">
+        <f>P65-P66+O65</f>
+        <v>0</v>
+      </c>
+      <c r="R65" s="6"/>
+      <c r="S65" s="33">
+        <f t="shared" ref="S65" si="130">R65-R66+Q65</f>
+        <v>0</v>
+      </c>
+      <c r="T65" s="6">
+        <v>720.75</v>
+      </c>
+      <c r="U65" s="33">
+        <f>T65-T66+S65</f>
+        <v>646.15</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" ht="15.5">
+      <c r="B66" s="9"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="7">
+        <v>0</v>
+      </c>
+      <c r="I66" s="33"/>
+      <c r="J66" s="7">
+        <v>15.1</v>
+      </c>
+      <c r="K66" s="33"/>
+      <c r="L66" s="7">
+        <f>REBUILT_Clôtures!$C$4</f>
+        <v>0</v>
+      </c>
+      <c r="M66" s="33"/>
+      <c r="N66" s="7">
+        <f>REBUILT_Clôtures!$D$4</f>
+        <v>0</v>
+      </c>
+      <c r="O66" s="33"/>
+      <c r="P66" s="7">
+        <f>F65</f>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="33"/>
+      <c r="R66" s="7">
+        <f>H65</f>
+        <v>0</v>
+      </c>
+      <c r="S66" s="33"/>
+      <c r="T66" s="7">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="U66" s="33"/>
+    </row>
+    <row r="67" spans="2:21" ht="14" customHeight="1">
+      <c r="B67" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" s="51"/>
+      <c r="D67" s="35">
+        <f>E5+E7+E31</f>
+        <v>0</v>
+      </c>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35">
+        <f>G5+G7+G31</f>
+        <v>0</v>
+      </c>
+      <c r="G67" s="35"/>
+      <c r="H67" s="35">
+        <f>I5+I7+I31</f>
+        <v>-33956</v>
+      </c>
+      <c r="I67" s="35"/>
+      <c r="J67" s="35">
+        <f>K5+K7+K31</f>
+        <v>-33008.74</v>
+      </c>
+      <c r="K67" s="35"/>
+      <c r="L67" s="35">
+        <f>M5+M7+M31</f>
+        <v>-33008.74</v>
+      </c>
+      <c r="M67" s="35"/>
+      <c r="N67" s="35">
+        <f>O5+O7+O31</f>
+        <v>-33008.74</v>
+      </c>
+      <c r="O67" s="35"/>
+      <c r="P67" s="35">
+        <f>Q5+Q7+Q31</f>
+        <v>-33008.74</v>
+      </c>
+      <c r="Q67" s="35"/>
+      <c r="R67" s="35">
+        <f>S5+S7+S31</f>
+        <v>-33008.740000000005</v>
+      </c>
+      <c r="S67" s="35"/>
+      <c r="T67" s="35">
+        <f>U5+U7+U31</f>
+        <v>-32362.590000000004</v>
+      </c>
+      <c r="U67" s="35"/>
+    </row>
+    <row r="68" spans="2:21" ht="14.4" customHeight="1">
+      <c r="B68" s="52"/>
+      <c r="C68" s="53"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="36"/>
+      <c r="K68" s="36"/>
+      <c r="L68" s="36"/>
+      <c r="M68" s="36"/>
+      <c r="N68" s="36"/>
+      <c r="O68" s="36"/>
+      <c r="P68" s="36"/>
+      <c r="Q68" s="36"/>
+      <c r="R68" s="36"/>
+      <c r="S68" s="36"/>
+      <c r="T68" s="36"/>
+      <c r="U68" s="36"/>
+    </row>
+    <row r="69" spans="2:21"/>
+    <row r="70" spans="2:21"/>
   </sheetData>
-  <mergeCells count="339">
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="S11:S12"/>
+  <mergeCells count="327">
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="O63:O64"/>
+    <mergeCell ref="S63:S64"/>
+    <mergeCell ref="U63:U64"/>
+    <mergeCell ref="U29:U30"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="Q65:Q66"/>
+    <mergeCell ref="S65:S66"/>
+    <mergeCell ref="U65:U66"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="S29:S30"/>
     <mergeCell ref="Q11:Q12"/>
     <mergeCell ref="O11:O12"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="Q61:Q62"/>
-    <mergeCell ref="Q59:Q60"/>
-    <mergeCell ref="Q57:Q58"/>
-    <mergeCell ref="Q55:Q56"/>
-    <mergeCell ref="Q53:Q54"/>
-    <mergeCell ref="Q51:Q52"/>
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="Q31:Q32"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="P63:Q64"/>
-    <mergeCell ref="Q47:Q48"/>
-    <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="Q39:Q40"/>
-    <mergeCell ref="Q37:Q38"/>
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="T63:U64"/>
-    <mergeCell ref="D2:W2"/>
-    <mergeCell ref="U43:U44"/>
-    <mergeCell ref="U45:U46"/>
-    <mergeCell ref="U47:U48"/>
-    <mergeCell ref="U49:U50"/>
-    <mergeCell ref="U51:U52"/>
-    <mergeCell ref="U53:U54"/>
-    <mergeCell ref="U55:U56"/>
-    <mergeCell ref="U57:U58"/>
-    <mergeCell ref="U59:U60"/>
-    <mergeCell ref="U21:U22"/>
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="U29:U30"/>
-    <mergeCell ref="U31:U32"/>
-    <mergeCell ref="U33:U34"/>
-    <mergeCell ref="U35:U36"/>
-    <mergeCell ref="U37:U38"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="Q63:Q64"/>
+    <mergeCell ref="R67:S68"/>
+    <mergeCell ref="D2:U2"/>
+    <mergeCell ref="S43:S44"/>
+    <mergeCell ref="S45:S46"/>
     <mergeCell ref="S47:S48"/>
     <mergeCell ref="S49:S50"/>
     <mergeCell ref="S51:S52"/>
+    <mergeCell ref="S53:S54"/>
+    <mergeCell ref="S55:S56"/>
+    <mergeCell ref="S57:S58"/>
+    <mergeCell ref="S59:S60"/>
     <mergeCell ref="S21:S22"/>
     <mergeCell ref="S23:S24"/>
     <mergeCell ref="S25:S26"/>
     <mergeCell ref="S27:S28"/>
-    <mergeCell ref="S29:S30"/>
     <mergeCell ref="S31:S32"/>
     <mergeCell ref="S33:S34"/>
     <mergeCell ref="S35:S36"/>
     <mergeCell ref="S37:S38"/>
-    <mergeCell ref="S39:S40"/>
-    <mergeCell ref="S41:S42"/>
-    <mergeCell ref="S43:S44"/>
-    <mergeCell ref="S45:S46"/>
-    <mergeCell ref="U39:U40"/>
-    <mergeCell ref="U41:U42"/>
-    <mergeCell ref="R63:S64"/>
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="S5:S6"/>
     <mergeCell ref="S7:S8"/>
     <mergeCell ref="S9:S10"/>
+    <mergeCell ref="S11:S12"/>
     <mergeCell ref="S13:S14"/>
     <mergeCell ref="S15:S16"/>
     <mergeCell ref="S17:S18"/>
     <mergeCell ref="S19:S20"/>
-    <mergeCell ref="D63:E64"/>
+    <mergeCell ref="Q47:Q48"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="Q51:Q52"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="Q31:Q32"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="Q37:Q38"/>
+    <mergeCell ref="Q39:Q40"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="S39:S40"/>
+    <mergeCell ref="S41:S42"/>
+    <mergeCell ref="P67:Q68"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="D67:E68"/>
     <mergeCell ref="E45:E46"/>
     <mergeCell ref="E47:E48"/>
     <mergeCell ref="E49:E50"/>
@@ -4781,7 +4664,7 @@
     <mergeCell ref="E61:E62"/>
     <mergeCell ref="G59:G60"/>
     <mergeCell ref="G61:G62"/>
-    <mergeCell ref="F63:G64"/>
+    <mergeCell ref="F67:G68"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="E7:E8"/>
@@ -4795,7 +4678,6 @@
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="E33:E34"/>
     <mergeCell ref="E35:E36"/>
@@ -4815,7 +4697,6 @@
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G29:G30"/>
     <mergeCell ref="G31:G32"/>
     <mergeCell ref="G33:G34"/>
     <mergeCell ref="G35:G36"/>
@@ -4830,45 +4711,42 @@
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="G21:G22"/>
-    <mergeCell ref="W61:W62"/>
+    <mergeCell ref="U61:U62"/>
     <mergeCell ref="O49:O50"/>
-    <mergeCell ref="W49:W50"/>
-    <mergeCell ref="W47:W48"/>
-    <mergeCell ref="W51:W52"/>
-    <mergeCell ref="W53:W54"/>
-    <mergeCell ref="W55:W56"/>
-    <mergeCell ref="W57:W58"/>
-    <mergeCell ref="W59:W60"/>
+    <mergeCell ref="U49:U50"/>
+    <mergeCell ref="U47:U48"/>
+    <mergeCell ref="U51:U52"/>
+    <mergeCell ref="U53:U54"/>
+    <mergeCell ref="U55:U56"/>
+    <mergeCell ref="U57:U58"/>
+    <mergeCell ref="U59:U60"/>
     <mergeCell ref="O59:O60"/>
     <mergeCell ref="O47:O48"/>
     <mergeCell ref="O51:O52"/>
     <mergeCell ref="O53:O54"/>
     <mergeCell ref="O55:O56"/>
     <mergeCell ref="O57:O58"/>
-    <mergeCell ref="S53:S54"/>
-    <mergeCell ref="S55:S56"/>
-    <mergeCell ref="S57:S58"/>
-    <mergeCell ref="S59:S60"/>
+    <mergeCell ref="Q53:Q54"/>
+    <mergeCell ref="Q55:Q56"/>
+    <mergeCell ref="Q57:Q58"/>
+    <mergeCell ref="Q59:Q60"/>
+    <mergeCell ref="Q61:Q62"/>
     <mergeCell ref="S61:S62"/>
-    <mergeCell ref="U61:U62"/>
     <mergeCell ref="C59:C62"/>
-    <mergeCell ref="W21:W22"/>
-    <mergeCell ref="W23:W24"/>
-    <mergeCell ref="W25:W26"/>
-    <mergeCell ref="W27:W28"/>
+    <mergeCell ref="U21:U22"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="U27:U28"/>
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="I39:I40"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="W29:W30"/>
-    <mergeCell ref="W31:W32"/>
-    <mergeCell ref="W33:W34"/>
-    <mergeCell ref="W35:W36"/>
-    <mergeCell ref="W37:W38"/>
-    <mergeCell ref="W41:W42"/>
-    <mergeCell ref="W43:W44"/>
-    <mergeCell ref="W45:W46"/>
+    <mergeCell ref="U31:U32"/>
+    <mergeCell ref="U33:U34"/>
+    <mergeCell ref="U35:U36"/>
+    <mergeCell ref="U37:U38"/>
+    <mergeCell ref="U41:U42"/>
+    <mergeCell ref="U43:U44"/>
+    <mergeCell ref="U45:U46"/>
     <mergeCell ref="O45:O46"/>
-    <mergeCell ref="O29:O30"/>
     <mergeCell ref="O31:O32"/>
     <mergeCell ref="O33:O34"/>
     <mergeCell ref="O35:O36"/>
@@ -4878,7 +4756,6 @@
     <mergeCell ref="K47:K48"/>
     <mergeCell ref="K51:K52"/>
     <mergeCell ref="O61:O62"/>
-    <mergeCell ref="M29:M30"/>
     <mergeCell ref="M31:M32"/>
     <mergeCell ref="M33:M34"/>
     <mergeCell ref="M35:M36"/>
@@ -4896,7 +4773,7 @@
     <mergeCell ref="M61:M62"/>
     <mergeCell ref="M57:M58"/>
     <mergeCell ref="M59:M60"/>
-    <mergeCell ref="B63:C64"/>
+    <mergeCell ref="B67:C68"/>
     <mergeCell ref="C57:C58"/>
     <mergeCell ref="C53:C56"/>
     <mergeCell ref="K53:K54"/>
@@ -4912,29 +4789,29 @@
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="I41:I42"/>
     <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J63:K64"/>
+    <mergeCell ref="J67:K68"/>
     <mergeCell ref="I57:I58"/>
     <mergeCell ref="I59:I60"/>
     <mergeCell ref="I61:I62"/>
-    <mergeCell ref="H63:I64"/>
+    <mergeCell ref="H67:I68"/>
     <mergeCell ref="K55:K56"/>
     <mergeCell ref="K57:K58"/>
     <mergeCell ref="K59:K60"/>
-    <mergeCell ref="L63:M64"/>
+    <mergeCell ref="L67:M68"/>
     <mergeCell ref="K61:K62"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="O5:O6"/>
-    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="U5:U6"/>
     <mergeCell ref="O23:O24"/>
     <mergeCell ref="O25:O26"/>
     <mergeCell ref="O27:O28"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="U19:U20"/>
     <mergeCell ref="M25:M26"/>
     <mergeCell ref="M27:M28"/>
     <mergeCell ref="O7:O8"/>
@@ -4960,7 +4837,7 @@
     <mergeCell ref="M17:M18"/>
     <mergeCell ref="M19:M20"/>
     <mergeCell ref="M21:M22"/>
-    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="T3:U3"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="C17:C18"/>
@@ -4984,8 +4861,8 @@
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="N63:O64"/>
-    <mergeCell ref="V63:W64"/>
+    <mergeCell ref="N67:O68"/>
+    <mergeCell ref="T67:U68"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="C19:C20"/>
@@ -4993,7 +4870,7 @@
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B29:C30"/>
+    <mergeCell ref="B31:C32"/>
     <mergeCell ref="C43:C46"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C35:C36"/>
@@ -5002,9 +4879,8 @@
     <mergeCell ref="I23:I24"/>
     <mergeCell ref="I25:I26"/>
     <mergeCell ref="O39:O40"/>
-    <mergeCell ref="W39:W40"/>
+    <mergeCell ref="U39:U40"/>
     <mergeCell ref="I27:I28"/>
-    <mergeCell ref="I29:I30"/>
     <mergeCell ref="I31:I32"/>
     <mergeCell ref="I33:I34"/>
     <mergeCell ref="I35:I36"/>
@@ -5015,7 +4891,6 @@
     <mergeCell ref="K35:K36"/>
     <mergeCell ref="K37:K38"/>
     <mergeCell ref="K39:K40"/>
-    <mergeCell ref="K29:K30"/>
     <mergeCell ref="K31:K32"/>
     <mergeCell ref="K27:K28"/>
     <mergeCell ref="K25:K26"/>
@@ -5030,7 +4905,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -5040,7 +4915,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.5">
       <c r="A1" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>8</v>
@@ -5052,12 +4927,12 @@
         <v>10</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B2" s="18">
         <v>0</v>
@@ -5077,7 +4952,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.5">
       <c r="A3" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" s="19">
         <f>SUM(B2:B2)</f>
@@ -5100,10 +4975,10 @@
     </row>
     <row r="4" spans="1:7" ht="15.5">
       <c r="A4" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B4" s="18">
-        <v>0</v>
+        <v>105.32</v>
       </c>
       <c r="C4" s="18">
         <v>0</v>
@@ -5113,18 +4988,18 @@
       </c>
       <c r="E4" s="20">
         <f>SUM(B4:D4)</f>
-        <v>0</v>
+        <v>105.32</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" ht="15.5">
       <c r="A5" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B5" s="21">
         <f>SUM(B4:B4)</f>
-        <v>0</v>
+        <v>105.32</v>
       </c>
       <c r="C5" s="21">
         <f>SUM(C4:C4)</f>
@@ -5136,7 +5011,7 @@
       </c>
       <c r="E5" s="21">
         <f>SUM(E4:E4)</f>
-        <v>0</v>
+        <v>105.32</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
@@ -5160,7 +5035,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -5170,7 +5045,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.5">
       <c r="A1" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>8</v>
@@ -5182,15 +5057,15 @@
         <v>10</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B2" s="18">
-        <v>0</v>
+        <v>564.83000000000004</v>
       </c>
       <c r="C2" s="18">
         <v>0</v>
@@ -5200,18 +5075,18 @@
       </c>
       <c r="E2" s="20">
         <f>SUM(B2:D2)</f>
-        <v>0</v>
+        <v>564.83000000000004</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:7" ht="15.5">
       <c r="A3" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" s="19">
         <f>SUM(B2:B2)</f>
-        <v>0</v>
+        <v>564.83000000000004</v>
       </c>
       <c r="C3" s="19">
         <f>SUM(C2:C2)</f>
@@ -5223,17 +5098,17 @@
       </c>
       <c r="E3" s="19">
         <f>SUM(E2:E2)</f>
-        <v>0</v>
+        <v>564.83000000000004</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7" ht="15.5">
       <c r="A4" s="12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B4" s="18">
-        <v>0</v>
+        <v>564.83000000000004</v>
       </c>
       <c r="C4" s="18">
         <v>0</v>
@@ -5243,18 +5118,18 @@
       </c>
       <c r="E4" s="20">
         <f>SUM(B4:D4)</f>
-        <v>0</v>
+        <v>564.83000000000004</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" ht="15.5">
       <c r="A5" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B5" s="21">
         <f>SUM(B4:B4)</f>
-        <v>0</v>
+        <v>564.83000000000004</v>
       </c>
       <c r="C5" s="21">
         <f>SUM(C4:C4)</f>
@@ -5266,7 +5141,7 @@
       </c>
       <c r="E5" s="21">
         <f>SUM(E4:E4)</f>
-        <v>0</v>
+        <v>564.83000000000004</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
@@ -5334,11 +5209,124 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1F996D-A90F-4D2C-9A2F-115A65D3DE25}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="31.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.5">
+      <c r="A1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.5">
+      <c r="A2" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="18">
+        <v>0</v>
+      </c>
+      <c r="C2" s="18">
+        <v>0</v>
+      </c>
+      <c r="D2" s="18">
+        <v>0</v>
+      </c>
+      <c r="E2" s="20">
+        <f>SUM(B2:D2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.5">
+      <c r="A3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="19">
+        <f>SUM(B2:B2)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="19">
+        <f>SUM(C2:C2)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="19">
+        <f>SUM(D2:D2)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="19">
+        <f>SUM(E2:E2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.5">
+      <c r="A4" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="18">
+        <v>0</v>
+      </c>
+      <c r="C4" s="18">
+        <v>0</v>
+      </c>
+      <c r="D4" s="18">
+        <v>0</v>
+      </c>
+      <c r="E4" s="20">
+        <f>SUM(B4:D4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.5">
+      <c r="A5" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="21">
+        <f>SUM(B4:B4)</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="21">
+        <f>SUM(C4:C4)</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="21">
+        <f>SUM(D4:D4)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="21">
+        <f>SUM(E4:E4)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2BE9E6-1D19-4A23-909A-1CAEB62A0EF3}">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -5348,7 +5336,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.5">
       <c r="A1" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>8</v>
@@ -5360,15 +5348,15 @@
         <v>10</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B2" s="18">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="C2" s="18">
         <v>0</v>
@@ -5378,18 +5366,18 @@
       </c>
       <c r="E2" s="20">
         <f>SUM(B2:D2)</f>
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:7" ht="15.5">
       <c r="A3" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" s="19">
         <f>SUM(B2:B2)</f>
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="C3" s="19">
         <f>SUM(C2:C2)</f>
@@ -5401,14 +5389,14 @@
       </c>
       <c r="E3" s="19">
         <f>SUM(E2:E2)</f>
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7" ht="15.5">
       <c r="A4" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B4" s="18">
         <v>0</v>
@@ -5428,7 +5416,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.5">
       <c r="A5" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B5" s="21">
         <f>SUM(B4:B4)</f>
@@ -5511,12 +5499,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A64CDD2-E507-41CD-8560-836C4E93AF33}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -5526,7 +5514,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.5">
       <c r="A1" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>8</v>
@@ -5538,12 +5526,12 @@
         <v>10</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="26" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B2" s="18">
         <v>0</v>
@@ -5561,10 +5549,10 @@
     </row>
     <row r="3" spans="1:7" ht="15.5">
       <c r="A3" s="26" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B3" s="18">
-        <v>0</v>
+        <v>14.93</v>
       </c>
       <c r="C3" s="18">
         <v>0</v>
@@ -5574,18 +5562,18 @@
       </c>
       <c r="E3" s="20">
         <f>SUM(B3:D3)</f>
-        <v>0</v>
+        <v>14.93</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7" ht="15.5">
       <c r="A4" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" s="19">
         <f>SUM(B3:B3)</f>
-        <v>0</v>
+        <v>14.93</v>
       </c>
       <c r="C4" s="19">
         <f>SUM(C3:C3)</f>
@@ -5597,17 +5585,17 @@
       </c>
       <c r="E4" s="19">
         <f>SUM(E2:E3)</f>
-        <v>0</v>
+        <v>14.93</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" ht="15.5">
       <c r="A5" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B5" s="18">
-        <v>0</v>
+        <v>25.05</v>
       </c>
       <c r="C5" s="18">
         <v>0</v>
@@ -5617,18 +5605,18 @@
       </c>
       <c r="E5" s="20">
         <f>SUM(B5:D5)</f>
-        <v>0</v>
+        <v>25.05</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7" ht="15.5">
       <c r="A6" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B6" s="21">
         <f>SUM(B5:B5)</f>
-        <v>0</v>
+        <v>25.05</v>
       </c>
       <c r="C6" s="21">
         <f>SUM(C5:C5)</f>
@@ -5640,7 +5628,7 @@
       </c>
       <c r="E6" s="21">
         <f>SUM(E5:E5)</f>
-        <v>0</v>
+        <v>25.05</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
@@ -5707,12 +5695,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A602D5-731C-4CD8-85D0-079F01E74DA9}">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -5722,7 +5710,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.5">
       <c r="A1" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>8</v>
@@ -5734,15 +5722,15 @@
         <v>10</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B2" s="18">
-        <v>0</v>
+        <v>597.19000000000005</v>
       </c>
       <c r="C2" s="18">
         <v>0</v>
@@ -5752,18 +5740,18 @@
       </c>
       <c r="E2" s="20">
         <f>SUM(B2:D2)</f>
-        <v>0</v>
+        <v>597.19000000000005</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:7" ht="15.5">
       <c r="A3" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" s="19">
         <f>SUM(B2:B2)</f>
-        <v>0</v>
+        <v>597.19000000000005</v>
       </c>
       <c r="C3" s="19">
         <f>SUM(C2:C2)</f>
@@ -5775,17 +5763,17 @@
       </c>
       <c r="E3" s="19">
         <f>SUM(E2:E2)</f>
-        <v>0</v>
+        <v>597.19000000000005</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7" ht="15.5">
       <c r="A4" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B4" s="18">
-        <v>0</v>
+        <v>789.99</v>
       </c>
       <c r="C4" s="18">
         <v>0</v>
@@ -5795,18 +5783,18 @@
       </c>
       <c r="E4" s="20">
         <f>SUM(B4:D4)</f>
-        <v>0</v>
+        <v>789.99</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" ht="15.5">
       <c r="A5" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B5" s="21">
         <f>SUM(B4:B4)</f>
-        <v>0</v>
+        <v>789.99</v>
       </c>
       <c r="C5" s="21">
         <f>SUM(C4:C4)</f>
@@ -5818,7 +5806,7 @@
       </c>
       <c r="E5" s="21">
         <f>SUM(E4:E4)</f>
-        <v>0</v>
+        <v>789.99</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
@@ -5885,12 +5873,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD69A4B0-5846-4525-84AF-61495CEC446C}">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:E11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -5900,7 +5888,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.5">
       <c r="A1" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>8</v>
@@ -5912,12 +5900,12 @@
         <v>10</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B2" s="18">
         <v>0</v>
@@ -5937,7 +5925,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.5">
       <c r="A3" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" s="19">
         <f>SUM(B2:B2)</f>
@@ -5960,10 +5948,10 @@
     </row>
     <row r="4" spans="1:7" ht="15.5">
       <c r="A4" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B4" s="18">
-        <v>0</v>
+        <v>26.33</v>
       </c>
       <c r="C4" s="18">
         <v>0</v>
@@ -5973,18 +5961,18 @@
       </c>
       <c r="E4" s="20">
         <f>SUM(B4:D4)</f>
-        <v>0</v>
+        <v>26.33</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" ht="15.5">
       <c r="A5" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B5" s="21">
         <f>SUM(B4:B4)</f>
-        <v>0</v>
+        <v>26.33</v>
       </c>
       <c r="C5" s="21">
         <f>SUM(C4:C4)</f>
@@ -5996,7 +5984,7 @@
       </c>
       <c r="E5" s="21">
         <f>SUM(E4:E4)</f>
-        <v>0</v>
+        <v>26.33</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
@@ -6063,12 +6051,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E86DAAA-B810-46C4-8921-4B04DD5AF992}">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -6078,7 +6066,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.5">
       <c r="A1" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>8</v>
@@ -6090,12 +6078,12 @@
         <v>10</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B2" s="18">
         <v>0</v>
@@ -6115,7 +6103,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.5">
       <c r="A3" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" s="19">
         <f>SUM(B2:B2)</f>
@@ -6138,10 +6126,10 @@
     </row>
     <row r="4" spans="1:7" ht="15.5">
       <c r="A4" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B4" s="18">
-        <v>0</v>
+        <v>269.05</v>
       </c>
       <c r="C4" s="18">
         <v>0</v>
@@ -6151,18 +6139,18 @@
       </c>
       <c r="E4" s="20">
         <f>SUM(B4:D4)</f>
-        <v>0</v>
+        <v>269.05</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" ht="15.5">
       <c r="A5" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B5" s="21">
         <f>SUM(B4:B4)</f>
-        <v>0</v>
+        <v>269.05</v>
       </c>
       <c r="C5" s="21">
         <f>SUM(C4:C4)</f>
@@ -6174,7 +6162,7 @@
       </c>
       <c r="E5" s="21">
         <f>SUM(E4:E4)</f>
-        <v>0</v>
+        <v>269.05</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
@@ -6241,12 +6229,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47C1491-BEC6-4BF9-8563-D1E28937352E}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -6256,7 +6244,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.5">
       <c r="A1" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>8</v>
@@ -6268,15 +6256,15 @@
         <v>10</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="12" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B2" s="18">
-        <v>0</v>
+        <v>55.5</v>
       </c>
       <c r="C2" s="18">
         <v>0</v>
@@ -6286,15 +6274,15 @@
       </c>
       <c r="E2" s="20">
         <f>SUM(B2:D2)</f>
-        <v>0</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.5">
       <c r="A3" s="12" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B3" s="18">
-        <v>0</v>
+        <v>488.15</v>
       </c>
       <c r="C3" s="18">
         <v>0</v>
@@ -6304,18 +6292,18 @@
       </c>
       <c r="E3" s="20">
         <f>SUM(B3:D3)</f>
-        <v>0</v>
+        <v>488.15</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7" ht="15.5">
       <c r="A4" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" s="19">
         <f>SUM(B2:B3)</f>
-        <v>0</v>
+        <v>543.65</v>
       </c>
       <c r="C4" s="19">
         <f t="shared" ref="C4:D4" si="0">SUM(C2:C3)</f>
@@ -6327,17 +6315,17 @@
       </c>
       <c r="E4" s="19">
         <f>SUM(E2:E3)</f>
-        <v>0</v>
+        <v>543.65</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" ht="15.5">
       <c r="A5" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B5" s="18">
-        <v>0</v>
+        <v>259.35000000000002</v>
       </c>
       <c r="C5" s="18">
         <v>0</v>
@@ -6347,14 +6335,14 @@
       </c>
       <c r="E5" s="20">
         <f>SUM(B5:D5)</f>
-        <v>0</v>
+        <v>259.35000000000002</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7" ht="15.5">
       <c r="A6" s="12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B6" s="18">
         <v>0</v>
@@ -6374,11 +6362,11 @@
     </row>
     <row r="7" spans="1:7" ht="15.5">
       <c r="A7" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B7" s="21">
         <f>SUM(B5:B6)</f>
-        <v>0</v>
+        <v>259.35000000000002</v>
       </c>
       <c r="C7" s="21">
         <f t="shared" ref="C7:D7" si="1">SUM(C5:C6)</f>
@@ -6390,7 +6378,7 @@
       </c>
       <c r="E7" s="21">
         <f>SUM(E5:E6)</f>
-        <v>0</v>
+        <v>259.35000000000002</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
@@ -6457,7 +6445,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55AE2921-2498-4786-9E35-5DC341096E7D}">
   <dimension ref="A1:G12"/>
   <sheetViews>
@@ -6472,7 +6460,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.5">
       <c r="A1" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>8</v>
@@ -6484,12 +6472,12 @@
         <v>10</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B2" s="18">
         <v>0</v>
@@ -6509,7 +6497,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.5">
       <c r="A3" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" s="19">
         <f>SUM(B2:B2)</f>
@@ -6532,7 +6520,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.5">
       <c r="A4" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B4" s="18">
         <v>0</v>
@@ -6552,185 +6540,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.5">
       <c r="A5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="21">
-        <f>SUM(B4:B4)</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="21">
-        <f>SUM(C4:C4)</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="21">
-        <f>SUM(D4:D4)</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="21">
-        <f>SUM(E4:E4)</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C2BD503-243C-4655-A029-BE890FDDDCE2}">
-  <dimension ref="A1:G12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="37.08984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15.5">
-      <c r="A1" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="14" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.5">
-      <c r="A2" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="18">
-        <v>0</v>
-      </c>
-      <c r="C2" s="18">
-        <v>0</v>
-      </c>
-      <c r="D2" s="18">
-        <v>0</v>
-      </c>
-      <c r="E2" s="20">
-        <f>SUM(B2:D2)</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.5">
-      <c r="A3" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="19">
-        <f>SUM(B2:B2)</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="19">
-        <f>SUM(C2:C2)</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="19">
-        <f>SUM(D2:D2)</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="19">
-        <f>SUM(E2:E2)</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.5">
-      <c r="A4" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="18">
-        <v>0</v>
-      </c>
-      <c r="C4" s="18">
-        <v>0</v>
-      </c>
-      <c r="D4" s="18">
-        <v>0</v>
-      </c>
-      <c r="E4" s="20">
-        <f>SUM(B4:D4)</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.5">
-      <c r="A5" s="13" t="s">
-        <v>40</v>
       </c>
       <c r="B5" s="21">
         <f>SUM(B4:B4)</f>
@@ -6829,7 +6639,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.5">
       <c r="A1" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>8</v>
@@ -6841,12 +6651,12 @@
         <v>10</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B2" s="18">
         <v>0</v>
@@ -6866,7 +6676,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.5">
       <c r="A3" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B3" s="18">
         <v>0</v>
@@ -6886,7 +6696,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.5">
       <c r="A4" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B4" s="18">
         <v>0</v>
@@ -6906,7 +6716,7 @@
     </row>
     <row r="5" spans="1:7" s="17" customFormat="1" ht="15.5">
       <c r="A5" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B5" s="19">
         <f>SUM(B2:B4)</f>
@@ -6929,7 +6739,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.5">
       <c r="A6" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B6" s="18">
         <v>201.05</v>
@@ -6949,7 +6759,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.5">
       <c r="A7" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B7" s="18">
         <v>112.45</v>
@@ -6969,7 +6779,7 @@
     </row>
     <row r="8" spans="1:7" ht="15.5">
       <c r="A8" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B8" s="18">
         <v>0</v>
@@ -6989,7 +6799,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.5">
       <c r="A9" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B9" s="21">
         <f>SUM(B6:B8)</f>
@@ -7040,11 +6850,11 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD1FCF5-4584-43D9-BDD9-BFBBB5FBF3B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C2BD503-243C-4655-A029-BE890FDDDCE2}">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -7054,7 +6864,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.5">
       <c r="A1" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>8</v>
@@ -7066,12 +6876,12 @@
         <v>10</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B2" s="18">
         <v>0</v>
@@ -7091,7 +6901,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.5">
       <c r="A3" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" s="19">
         <f>SUM(B2:B2)</f>
@@ -7114,10 +6924,10 @@
     </row>
     <row r="4" spans="1:7" ht="15.5">
       <c r="A4" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B4" s="18">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C4" s="18">
         <v>0</v>
@@ -7127,18 +6937,18 @@
       </c>
       <c r="E4" s="20">
         <f>SUM(B4:D4)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" ht="15.5">
       <c r="A5" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B5" s="21">
         <f>SUM(B4:B4)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C5" s="21">
         <f>SUM(C4:C4)</f>
@@ -7150,7 +6960,7 @@
       </c>
       <c r="E5" s="21">
         <f>SUM(E4:E4)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
@@ -7218,6 +7028,184 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD1FCF5-4584-43D9-BDD9-BFBBB5FBF3B0}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="37.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.5">
+      <c r="A1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.5">
+      <c r="A2" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="18">
+        <v>292.47000000000003</v>
+      </c>
+      <c r="C2" s="18">
+        <v>0</v>
+      </c>
+      <c r="D2" s="18">
+        <v>0</v>
+      </c>
+      <c r="E2" s="20">
+        <f>SUM(B2:D2)</f>
+        <v>292.47000000000003</v>
+      </c>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.5">
+      <c r="A3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="19">
+        <f>SUM(B2:B2)</f>
+        <v>292.47000000000003</v>
+      </c>
+      <c r="C3" s="19">
+        <f>SUM(C2:C2)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="19">
+        <f>SUM(D2:D2)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="19">
+        <f>SUM(E2:E2)</f>
+        <v>292.47000000000003</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.5">
+      <c r="A4" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="18">
+        <v>14.25</v>
+      </c>
+      <c r="C4" s="18">
+        <v>0</v>
+      </c>
+      <c r="D4" s="18">
+        <v>0</v>
+      </c>
+      <c r="E4" s="20">
+        <f>SUM(B4:D4)</f>
+        <v>14.25</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.5">
+      <c r="A5" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="21">
+        <f>SUM(B4:B4)</f>
+        <v>14.25</v>
+      </c>
+      <c r="C5" s="21">
+        <f>SUM(C4:C4)</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="21">
+        <f>SUM(D4:D4)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="21">
+        <f>SUM(E4:E4)</f>
+        <v>14.25</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F6267E-980A-4608-8F38-7CD9BCE9CA32}">
   <dimension ref="A1:G13"/>
   <sheetViews>
@@ -7232,7 +7220,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.5">
       <c r="A1" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>8</v>
@@ -7244,12 +7232,12 @@
         <v>10</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B2" s="18">
         <v>0</v>
@@ -7269,7 +7257,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.5">
       <c r="A3" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" s="19">
         <f>SUM(B2:B2)</f>
@@ -7292,7 +7280,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.5">
       <c r="A4" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B4" s="18">
         <v>0</v>
@@ -7312,7 +7300,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.5">
       <c r="A5" s="12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B5" s="18">
         <v>0</v>
@@ -7332,7 +7320,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.5">
       <c r="A6" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B6" s="21">
         <f>SUM(B4:B4)</f>
@@ -7415,7 +7403,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{531A7888-1CD1-4E39-8382-51BE60C58E08}">
   <dimension ref="A1:G12"/>
   <sheetViews>
@@ -7430,7 +7418,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.5">
       <c r="A1" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>8</v>
@@ -7442,12 +7430,12 @@
         <v>10</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B2" s="18">
         <v>0</v>
@@ -7467,7 +7455,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.5">
       <c r="A3" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" s="19">
         <f>SUM(B2:B2)</f>
@@ -7490,7 +7478,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.5">
       <c r="A4" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B4" s="18">
         <v>0</v>
@@ -7510,7 +7498,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.5">
       <c r="A5" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B5" s="21">
         <f>SUM(B4:B4)</f>
@@ -7593,7 +7581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B817734-A454-497F-94C9-56A2D02418BC}">
   <dimension ref="A1:G13"/>
   <sheetViews>
@@ -7608,7 +7596,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.5">
       <c r="A1" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>8</v>
@@ -7620,12 +7608,12 @@
         <v>10</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B2" s="18">
         <v>0</v>
@@ -7645,7 +7633,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.5">
       <c r="A3" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" s="19">
         <f>SUM(B2:B2)</f>
@@ -7668,7 +7656,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.5">
       <c r="A4" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B4" s="18">
         <v>0</v>
@@ -7688,7 +7676,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.5">
       <c r="A5" s="12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B5" s="18">
         <v>0</v>
@@ -7708,7 +7696,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.5">
       <c r="A6" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B6" s="21">
         <f>SUM(B5:B5)</f>
@@ -7791,12 +7779,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB1AFE0-5A9B-495B-9FC5-BB69210E89D8}">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -7806,7 +7794,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.5">
       <c r="A1" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>8</v>
@@ -7818,12 +7806,12 @@
         <v>10</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B2" s="18">
         <v>0</v>
@@ -7843,7 +7831,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.5">
       <c r="A3" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" s="19">
         <f>SUM(B2:B2)</f>
@@ -7866,7 +7854,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.5">
       <c r="A4" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B4" s="18">
         <v>0</v>
@@ -7886,7 +7874,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.5">
       <c r="A5" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B5" s="21">
         <f>SUM(B4:B4)</f>
@@ -7966,6 +7954,119 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E853FB82-CB19-4D72-8A4E-E9A5F64C92C9}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="27.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.5">
+      <c r="A1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.5">
+      <c r="A2" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="18">
+        <v>0</v>
+      </c>
+      <c r="C2" s="18">
+        <v>0</v>
+      </c>
+      <c r="D2" s="18">
+        <v>0</v>
+      </c>
+      <c r="E2" s="20">
+        <f>SUM(B2:D2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.5">
+      <c r="A3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="19">
+        <f>SUM(B2:B2)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="19">
+        <f>SUM(C2:C2)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="19">
+        <f>SUM(D2:D2)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="19">
+        <f>SUM(E2:E2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.5">
+      <c r="A4" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="18">
+        <v>0</v>
+      </c>
+      <c r="C4" s="18">
+        <v>0</v>
+      </c>
+      <c r="D4" s="18">
+        <v>0</v>
+      </c>
+      <c r="E4" s="20">
+        <f>SUM(B4:D4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.5">
+      <c r="A5" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="21">
+        <f>SUM(B4:B4)</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="21">
+        <f>SUM(C4:C4)</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="21">
+        <f>SUM(D4:D4)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="21">
+        <f>SUM(E4:E4)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -7984,7 +8085,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.5">
       <c r="A1" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>8</v>
@@ -7996,12 +8097,12 @@
         <v>10</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" s="18">
         <v>35.1</v>
@@ -8021,7 +8122,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.5">
       <c r="A3" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" s="19">
         <f>SUM(B2:B2)</f>
@@ -8044,7 +8145,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.5">
       <c r="A4" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B4" s="18">
         <v>167.87</v>
@@ -8064,7 +8165,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.5">
       <c r="A5" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B5" s="21">
         <f>SUM(B4:B4)</f>
@@ -8135,7 +8236,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -8145,7 +8246,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.5">
       <c r="A1" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>8</v>
@@ -8157,12 +8258,12 @@
         <v>10</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.5">
       <c r="A2" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B2" s="25">
         <v>0</v>
@@ -8181,7 +8282,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.5">
       <c r="A3" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" s="19">
         <f>SUM(B2)</f>
@@ -8203,7 +8304,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.5">
       <c r="A4" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B4" s="25">
         <v>55.5</v>
@@ -8222,7 +8323,7 @@
     </row>
     <row r="5" spans="1:6" ht="15.5">
       <c r="A5" s="12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B5" s="25">
         <v>15.1</v>
@@ -8241,7 +8342,7 @@
     </row>
     <row r="6" spans="1:6" ht="15.5">
       <c r="A6" s="12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B6" s="25">
         <v>5</v>
@@ -8260,7 +8361,7 @@
     </row>
     <row r="7" spans="1:6" ht="15.5">
       <c r="A7" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B7" s="21">
         <f>SUM(B4:B6)</f>
@@ -8315,7 +8416,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.5">
       <c r="A1" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>8</v>
@@ -8327,12 +8428,12 @@
         <v>10</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B2" s="18">
         <v>0</v>
@@ -8352,7 +8453,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.5">
       <c r="A3" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B3" s="18">
         <v>0</v>
@@ -8372,7 +8473,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.5">
       <c r="A4" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B4" s="18">
         <v>0</v>
@@ -8392,7 +8493,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.5">
       <c r="A5" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B5" s="19">
         <f>SUM(B2:B4)</f>
@@ -8415,7 +8516,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.5">
       <c r="A6" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B6" s="18">
         <v>0</v>
@@ -8435,7 +8536,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.5">
       <c r="A7" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B7" s="18">
         <v>0</v>
@@ -8455,7 +8556,7 @@
     </row>
     <row r="8" spans="1:7" ht="15.5">
       <c r="A8" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B8" s="18">
         <v>0</v>
@@ -8475,7 +8576,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.5">
       <c r="A9" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B9" s="18">
         <v>0</v>
@@ -8495,7 +8596,7 @@
     </row>
     <row r="10" spans="1:7" ht="15.5">
       <c r="A10" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B10" s="18">
         <v>0</v>
@@ -8515,7 +8616,7 @@
     </row>
     <row r="11" spans="1:7" ht="15.5">
       <c r="A11" s="12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B11" s="18">
         <v>0</v>
@@ -8535,7 +8636,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.5">
       <c r="A12" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B12" s="21">
         <f t="shared" ref="B12:C12" si="1">SUM(B6:B11)</f>
@@ -8580,8 +8681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E9E5BE-CF0B-428E-972C-7C22FD5CFDD8}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -8591,7 +8692,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.5">
       <c r="A1" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>8</v>
@@ -8603,15 +8704,15 @@
         <v>10</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" s="18">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="C2" s="18">
         <v>0</v>
@@ -8621,18 +8722,18 @@
       </c>
       <c r="E2" s="20">
         <f>SUM(B2:D2)</f>
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:7" ht="15.5">
       <c r="A3" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" s="19">
         <f>SUM(B2:B2)</f>
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="C3" s="19">
         <f>SUM(C2:C2)</f>
@@ -8644,17 +8745,17 @@
       </c>
       <c r="E3" s="19">
         <f>SUM(E2:E2)</f>
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7" ht="15.5">
       <c r="A4" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B4" s="18">
-        <v>0</v>
+        <v>2011.4</v>
       </c>
       <c r="C4" s="18">
         <v>0</v>
@@ -8664,18 +8765,18 @@
       </c>
       <c r="E4" s="20">
         <f>SUM(B4:D4)</f>
-        <v>0</v>
+        <v>2011.4</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" ht="15.5">
       <c r="A5" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B5" s="21">
         <f>SUM(B4:B4)</f>
-        <v>0</v>
+        <v>2011.4</v>
       </c>
       <c r="C5" s="21">
         <f>SUM(C4:C4)</f>
@@ -8687,7 +8788,7 @@
       </c>
       <c r="E5" s="21">
         <f>SUM(E4:E4)</f>
-        <v>0</v>
+        <v>2011.4</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
@@ -8750,7 +8851,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -8760,7 +8861,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.5">
       <c r="A1" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>8</v>
@@ -8772,15 +8873,15 @@
         <v>10</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B2" s="18">
-        <v>0</v>
+        <v>736.8</v>
       </c>
       <c r="C2" s="18">
         <v>0</v>
@@ -8790,17 +8891,17 @@
       </c>
       <c r="E2" s="20">
         <f>SUM(B2:D2)</f>
-        <v>0</v>
+        <v>736.8</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:7" ht="15.5">
       <c r="A3" s="12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B3" s="18">
-        <v>0</v>
+        <v>615.64</v>
       </c>
       <c r="C3" s="18">
         <v>0</v>
@@ -8810,17 +8911,17 @@
       </c>
       <c r="E3" s="20">
         <f>SUM(B3:D3)</f>
-        <v>0</v>
+        <v>615.64</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7" ht="15.5">
       <c r="A4" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B4" s="18">
-        <v>0</v>
+        <v>2120</v>
       </c>
       <c r="C4" s="18">
         <v>0</v>
@@ -8830,18 +8931,18 @@
       </c>
       <c r="E4" s="20">
         <f>SUM(B4:D4)</f>
-        <v>0</v>
+        <v>2120</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" ht="15.5">
       <c r="A5" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B5" s="19">
         <f>SUM(B2:B4)</f>
-        <v>0</v>
+        <v>3472.44</v>
       </c>
       <c r="C5" s="19">
         <f>SUM(C2:C4)</f>
@@ -8853,17 +8954,17 @@
       </c>
       <c r="E5" s="19">
         <f>SUM(E2:E4)</f>
-        <v>0</v>
+        <v>3472.44</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7" ht="15.5">
       <c r="A6" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B6" s="18">
-        <v>0</v>
+        <v>154.19999999999999</v>
       </c>
       <c r="C6" s="18">
         <v>0</v>
@@ -8873,17 +8974,17 @@
       </c>
       <c r="E6" s="20">
         <f t="shared" ref="E6:E11" si="0">SUM(B6:D6)</f>
-        <v>0</v>
+        <v>154.19999999999999</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7" ht="15.5">
       <c r="A7" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B7" s="18">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C7" s="18">
         <v>0</v>
@@ -8893,17 +8994,17 @@
       </c>
       <c r="E7" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7" ht="15.5">
       <c r="A8" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B8" s="18">
-        <v>0</v>
+        <v>303.57</v>
       </c>
       <c r="C8" s="18">
         <v>0</v>
@@ -8913,14 +9014,14 @@
       </c>
       <c r="E8" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>303.57</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:7" ht="15.5">
       <c r="A9" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B9" s="18">
         <v>0</v>
@@ -8940,10 +9041,10 @@
     </row>
     <row r="10" spans="1:7" ht="15.5">
       <c r="A10" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B10" s="18">
-        <v>0</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="C10" s="18">
         <v>0</v>
@@ -8953,14 +9054,14 @@
       </c>
       <c r="E10" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:7" ht="15.5">
       <c r="A11" s="12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B11" s="18">
         <v>0</v>
@@ -8980,11 +9081,11 @@
     </row>
     <row r="12" spans="1:7" ht="15.5">
       <c r="A12" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B12" s="21">
         <f t="shared" ref="B12:C12" si="1">SUM(B6:B11)</f>
-        <v>0</v>
+        <v>527.37</v>
       </c>
       <c r="C12" s="21">
         <f t="shared" si="1"/>
@@ -8996,7 +9097,7 @@
       </c>
       <c r="E12" s="21">
         <f>SUM(E6:E11)</f>
-        <v>0</v>
+        <v>527.37</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="22"/>
@@ -9044,7 +9145,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -9054,7 +9155,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.5">
       <c r="A1" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>8</v>
@@ -9066,15 +9167,15 @@
         <v>10</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.5">
       <c r="A2" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B2" s="18">
-        <v>0</v>
+        <v>605.41999999999996</v>
       </c>
       <c r="C2" s="18">
         <v>0</v>
@@ -9084,17 +9185,17 @@
       </c>
       <c r="E2" s="20">
         <f>SUM(B2:D2)</f>
-        <v>0</v>
+        <v>605.41999999999996</v>
       </c>
       <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6" ht="15.5">
       <c r="A3" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" s="19">
         <f>SUM(B2:B2)</f>
-        <v>0</v>
+        <v>605.41999999999996</v>
       </c>
       <c r="C3" s="19">
         <f>SUM(C2:C2)</f>
@@ -9106,13 +9207,13 @@
       </c>
       <c r="E3" s="19">
         <f>SUM(E2:E2)</f>
-        <v>0</v>
+        <v>605.41999999999996</v>
       </c>
       <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:6" ht="15.5">
       <c r="A4" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B4" s="18">
         <v>0</v>
@@ -9131,7 +9232,7 @@
     </row>
     <row r="5" spans="1:6" ht="15.5">
       <c r="A5" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B5" s="21">
         <f>SUM(B4:B4)</f>
@@ -9204,7 +9305,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -9214,7 +9315,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.5">
       <c r="A1" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>8</v>
@@ -9226,15 +9327,15 @@
         <v>10</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.5">
       <c r="A2" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B2" s="18">
-        <v>0</v>
+        <v>255.62</v>
       </c>
       <c r="C2" s="18">
         <v>0</v>
@@ -9244,17 +9345,17 @@
       </c>
       <c r="E2" s="20">
         <f>SUM(B2:D2)</f>
-        <v>0</v>
+        <v>255.62</v>
       </c>
       <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6" ht="15.5">
       <c r="A3" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" s="19">
         <f>SUM(B2:B2)</f>
-        <v>0</v>
+        <v>255.62</v>
       </c>
       <c r="C3" s="19">
         <f>SUM(C2:C2)</f>
@@ -9266,13 +9367,13 @@
       </c>
       <c r="E3" s="19">
         <f>SUM(E2:E2)</f>
-        <v>0</v>
+        <v>255.62</v>
       </c>
       <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:6" ht="15.5">
       <c r="A4" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B4" s="18">
         <v>0</v>
@@ -9291,10 +9392,10 @@
     </row>
     <row r="5" spans="1:6" ht="15.5">
       <c r="A5" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B5" s="18">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="C5" s="18">
         <v>0</v>
@@ -9304,16 +9405,16 @@
       </c>
       <c r="E5" s="20">
         <f>SUM(B5:D5)</f>
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="F5" s="22"/>
     </row>
     <row r="6" spans="1:6" ht="15.5">
       <c r="A6" s="12" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B6" s="18">
-        <v>0</v>
+        <v>235.9</v>
       </c>
       <c r="C6" s="18">
         <v>0</v>
@@ -9323,13 +9424,13 @@
       </c>
       <c r="E6" s="20">
         <f>SUM(B6:D6)</f>
-        <v>0</v>
+        <v>235.9</v>
       </c>
       <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="15.5">
       <c r="A7" s="12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B7" s="18">
         <v>0</v>
@@ -9348,11 +9449,11 @@
     </row>
     <row r="8" spans="1:6" ht="15.5">
       <c r="A8" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B8" s="21">
         <f>SUM(B4:B7)</f>
-        <v>0</v>
+        <v>251.70000000000002</v>
       </c>
       <c r="C8" s="21">
         <f>SUM(C4:C7)</f>
@@ -9364,7 +9465,7 @@
       </c>
       <c r="E8" s="21">
         <f>SUM(E4:E7)</f>
-        <v>0</v>
+        <v>251.70000000000002</v>
       </c>
       <c r="F8" s="22"/>
     </row>

--- a/2 - Bilans/2022-2023/Unipoly_Bilan_Quadrimestriel_22-23.xlsx
+++ b/2 - Bilans/2022-2023/Unipoly_Bilan_Quadrimestriel_22-23.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\Clara\Unipoly\UPSecretrariat\2 - Bilans\2022-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F643C0E3-5098-4C58-90EC-2FAD7D1A986E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820E8B86-ADCE-427E-A341-ADDF4EF32F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{34F8AD7C-3B1E-42A7-8AF2-50C33241ADA4}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="97">
   <si>
     <t>Compte</t>
   </si>
@@ -373,6 +373,9 @@
   </si>
   <si>
     <t>Fermeture 21-22</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -504,7 +507,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -618,6 +621,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -709,10 +723,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -720,7 +740,49 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -735,64 +797,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1101,7 +1115,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1111,9 +1125,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A55C92-786C-4AB3-96FC-7473E4CC0A9B}">
   <dimension ref="A1:Y70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J62" sqref="J59:J62"/>
+      <selection pane="topRight" activeCell="I59" sqref="I59:I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14" zeroHeight="1"/>
@@ -1122,8 +1136,7 @@
     <col min="2" max="2" width="3.453125" style="4" customWidth="1"/>
     <col min="3" max="3" width="33.08984375" style="4" customWidth="1"/>
     <col min="4" max="21" width="15.54296875" style="4" customWidth="1"/>
-    <col min="22" max="23" width="0" style="4" hidden="1" customWidth="1"/>
-    <col min="24" max="25" width="0" style="4" hidden="1"/>
+    <col min="22" max="25" width="0" style="4" hidden="1" customWidth="1"/>
     <col min="26" max="16384" width="11.54296875" style="4" hidden="1"/>
   </cols>
   <sheetData>
@@ -1133,33 +1146,33 @@
     <row r="2" spans="1:21" ht="36" customHeight="1">
       <c r="B2" s="29"/>
       <c r="C2" s="30"/>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="58"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="41"/>
     </row>
     <row r="3" spans="1:21" ht="14" customHeight="1">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="55" t="s">
+      <c r="C3" s="60"/>
+      <c r="D3" s="44" t="s">
         <v>95</v>
       </c>
       <c r="E3" s="42"/>
@@ -1167,14 +1180,14 @@
         <v>81</v>
       </c>
       <c r="G3" s="42"/>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42" t="s">
+      <c r="I3" s="51"/>
+      <c r="J3" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="42"/>
+      <c r="K3" s="51"/>
       <c r="L3" s="42" t="s">
         <v>9</v>
       </c>
@@ -1194,13 +1207,13 @@
       <c r="T3" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="U3" s="43"/>
+      <c r="U3" s="51"/>
     </row>
     <row r="4" spans="1:21" ht="20">
-      <c r="B4" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="45"/>
+      <c r="B4" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="53"/>
       <c r="D4" s="5" t="s">
         <v>39</v>
       </c>
@@ -1257,15 +1270,15 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.5">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="39"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="6">
         <f>D7+D31</f>
         <v>0</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="34">
         <f>D5-D6</f>
         <v>0</v>
       </c>
@@ -1273,7 +1286,7 @@
         <f>F7+F31</f>
         <v>0</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="34">
         <f>F5-F6+E5</f>
         <v>0</v>
       </c>
@@ -1281,22 +1294,22 @@
         <f>H7+H31</f>
         <v>31880</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="34">
         <f>H5-H6+G5</f>
         <v>-16978</v>
       </c>
       <c r="J5" s="6"/>
-      <c r="K5" s="33">
+      <c r="K5" s="34">
         <f>J5-J6+I5</f>
         <v>-16978</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="M5" s="33">
+      <c r="M5" s="34">
         <f>L5-L6+K5</f>
         <v>-16978</v>
       </c>
       <c r="N5" s="6"/>
-      <c r="O5" s="33">
+      <c r="O5" s="34">
         <f>N5-N6+M5</f>
         <v>-16978</v>
       </c>
@@ -1304,7 +1317,7 @@
         <f>P8+P32</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="33">
+      <c r="Q5" s="34">
         <f>P5-P6+O5</f>
         <v>-16978</v>
       </c>
@@ -1312,59 +1325,59 @@
         <f>R8+R32</f>
         <v>31880</v>
       </c>
-      <c r="S5" s="33">
+      <c r="S5" s="34">
         <f>R5-R6+Q5</f>
         <v>14902</v>
       </c>
       <c r="T5" s="6">
         <v>2214.0300000000002</v>
       </c>
-      <c r="U5" s="34">
+      <c r="U5" s="45">
         <f>T5-T6+S5</f>
         <v>17116.03</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.5">
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="57"/>
       <c r="D6" s="7">
         <f>D8+D32</f>
         <v>0</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="6">
+      <c r="E6" s="34"/>
+      <c r="F6" s="7">
         <f>F8+F32</f>
         <v>0</v>
       </c>
-      <c r="G6" s="33"/>
+      <c r="G6" s="34"/>
       <c r="H6" s="7">
         <f>H8+H32</f>
         <v>48858</v>
       </c>
-      <c r="I6" s="48"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="27"/>
-      <c r="K6" s="48"/>
+      <c r="K6" s="43"/>
       <c r="L6" s="27"/>
-      <c r="M6" s="48"/>
+      <c r="M6" s="43"/>
       <c r="N6" s="27"/>
-      <c r="O6" s="48"/>
+      <c r="O6" s="43"/>
       <c r="P6" s="27"/>
-      <c r="Q6" s="48"/>
+      <c r="Q6" s="43"/>
       <c r="R6" s="27"/>
-      <c r="S6" s="48"/>
+      <c r="S6" s="43"/>
       <c r="T6" s="27"/>
-      <c r="U6" s="48"/>
+      <c r="U6" s="43"/>
     </row>
     <row r="7" spans="1:21" ht="15.5">
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="39"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="8">
         <f>D9+D11+D13+D15+D17+D19+D21+D23+D25+D27</f>
         <v>0</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="45">
         <f>D7-D8</f>
         <v>0</v>
       </c>
@@ -1372,7 +1385,7 @@
         <f>F9+F11+F13+F15+F17+F19+F21+F23+F25+F27</f>
         <v>0</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="45">
         <f>F7-F8+E7</f>
         <v>0</v>
       </c>
@@ -1380,7 +1393,7 @@
         <f>H9+H11+H13+H15+H17+H19+H21+H23+H25+H27+H29</f>
         <v>3600</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="34">
         <f>H7-H8+G7</f>
         <v>-4400</v>
       </c>
@@ -1388,7 +1401,7 @@
         <f>J9+J11+J13+J15+J17+J19+J21+J23+J25+J27+J29</f>
         <v>4934.79</v>
       </c>
-      <c r="K7" s="33">
+      <c r="K7" s="34">
         <f>J7-J8+I7</f>
         <v>-3482.7999999999997</v>
       </c>
@@ -1396,7 +1409,7 @@
         <f>L9+L11+L13+L15+L17+L19+L21+L23+L25+L27+L29</f>
         <v>0</v>
       </c>
-      <c r="M7" s="33">
+      <c r="M7" s="34">
         <f>L7-L8+K7</f>
         <v>-3482.7999999999997</v>
       </c>
@@ -1404,7 +1417,7 @@
         <f>N9+N11+N13+N15+N17+N19+N21+N23+N25+N27+N29</f>
         <v>0</v>
       </c>
-      <c r="O7" s="33">
+      <c r="O7" s="34">
         <f>N7-N8+M7</f>
         <v>-3482.7999999999997</v>
       </c>
@@ -1412,7 +1425,7 @@
         <f>P9+P11+P13+P15+P17+P19+P21+P23+P25+P27+P29</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="33">
+      <c r="Q7" s="34">
         <f>P7-P8+O7</f>
         <v>-3482.7999999999997</v>
       </c>
@@ -1420,7 +1433,7 @@
         <f>R9+R11+R13+R15+R17+R19+R21+R23+R25+R27+R29</f>
         <v>0</v>
       </c>
-      <c r="S7" s="33">
+      <c r="S7" s="34">
         <f>R7-R8+Q7</f>
         <v>-7082.7999999999993</v>
       </c>
@@ -1428,79 +1441,79 @@
         <f>T9+T11+T13+T15+T17+T19+T21+T23+T25+T27+T29</f>
         <v>12560.309999999998</v>
       </c>
-      <c r="U7" s="49">
+      <c r="U7" s="35">
         <f>T7-T8+S7</f>
         <v>-14463</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.5">
-      <c r="B8" s="40"/>
-      <c r="C8" s="41"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="57"/>
       <c r="D8" s="7">
         <f>D10+D12+D14+D16+D18+D20+D22+D24+D26+D28</f>
         <v>0</v>
       </c>
-      <c r="E8" s="33"/>
+      <c r="E8" s="34"/>
       <c r="F8" s="7">
         <f>F10+F12+F14+F16+F18+F20+F22+F24+F26+F28</f>
         <v>0</v>
       </c>
-      <c r="G8" s="33"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="7">
         <f>H10+H12+H14+H16+H18+H20+H22+H24+H26+H28+H30</f>
         <v>8000</v>
       </c>
-      <c r="I8" s="33"/>
+      <c r="I8" s="34"/>
       <c r="J8" s="7">
         <f>J10+J12+J14+J16+J18+J20+J22+J24+J26+J28+J30</f>
         <v>4017.5899999999997</v>
       </c>
-      <c r="K8" s="33"/>
+      <c r="K8" s="34"/>
       <c r="L8" s="7">
         <f>L10+L12+L14+L16+L18+L20+L22+L24+L26+L28+L30</f>
         <v>0</v>
       </c>
-      <c r="M8" s="33"/>
+      <c r="M8" s="34"/>
       <c r="N8" s="7">
         <f>N10+N12+N14+N16+N18+N20+N22+N24+N26+N28+N30</f>
         <v>0</v>
       </c>
-      <c r="O8" s="33"/>
+      <c r="O8" s="34"/>
       <c r="P8" s="7">
         <f>P10+P12+P14+P16+P18+P20+P22+P24+P26+P28+P30</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="33"/>
+      <c r="Q8" s="34"/>
       <c r="R8" s="7">
         <f>R10+R12+R14+R16+R18+R20+R22+R24+R26+R28+R30</f>
         <v>3600</v>
       </c>
-      <c r="S8" s="33"/>
+      <c r="S8" s="34"/>
       <c r="T8" s="7">
         <f>T10+T12+T14+T16+T18+T20+T22+T24+T26+T28+T30</f>
         <v>19940.509999999998</v>
       </c>
-      <c r="U8" s="49"/>
+      <c r="U8" s="35"/>
     </row>
     <row r="9" spans="1:21" ht="15.5">
       <c r="B9" s="9"/>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="33" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="33">
+      <c r="E9" s="34">
         <f>D9-D10</f>
         <v>0</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="33">
+      <c r="G9" s="34">
         <f>F9-F10+E9</f>
         <v>0</v>
       </c>
       <c r="H9" s="6">
         <v>800</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="34">
         <f>H9-H10+G9</f>
         <v>-2050</v>
       </c>
@@ -1508,7 +1521,7 @@
         <f>COHE_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K9" s="33">
+      <c r="K9" s="34">
         <f>J9-J10+I9</f>
         <v>-2363.5</v>
       </c>
@@ -1516,7 +1529,7 @@
         <f>COHE_Clôtures!C5</f>
         <v>0</v>
       </c>
-      <c r="M9" s="33">
+      <c r="M9" s="34">
         <f>L9-L10+K9</f>
         <v>-2363.5</v>
       </c>
@@ -1524,88 +1537,88 @@
         <f>COHE_Clôtures!D5</f>
         <v>0</v>
       </c>
-      <c r="O9" s="33">
+      <c r="O9" s="34">
         <f>N9-N10+M9</f>
         <v>-2363.5</v>
       </c>
       <c r="P9" s="6"/>
-      <c r="Q9" s="33">
+      <c r="Q9" s="34">
         <f>P9-P10+O9</f>
         <v>-2363.5</v>
       </c>
       <c r="R9" s="6"/>
-      <c r="S9" s="33">
+      <c r="S9" s="34">
         <f>R9-R10+Q9</f>
         <v>-3163.5</v>
       </c>
       <c r="T9" s="6">
         <v>2309.38</v>
       </c>
-      <c r="U9" s="49">
+      <c r="U9" s="35">
         <f>T9-T10+S9</f>
         <v>-2747.5699999999997</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.5">
       <c r="B10" s="9"/>
-      <c r="C10" s="37"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="33"/>
+      <c r="E10" s="34"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="33"/>
+      <c r="G10" s="34"/>
       <c r="H10" s="7">
         <v>2850</v>
       </c>
-      <c r="I10" s="33"/>
+      <c r="I10" s="34"/>
       <c r="J10" s="7">
         <f>COHE_Clôtures!$B$9</f>
         <v>313.5</v>
       </c>
-      <c r="K10" s="33"/>
+      <c r="K10" s="34"/>
       <c r="L10" s="7">
         <f>COHE_Clôtures!C9</f>
         <v>0</v>
       </c>
-      <c r="M10" s="33"/>
+      <c r="M10" s="34"/>
       <c r="N10" s="7">
         <f>COHE_Clôtures!D9</f>
         <v>0</v>
       </c>
-      <c r="O10" s="33"/>
+      <c r="O10" s="34"/>
       <c r="P10" s="7">
         <f>F9</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="33"/>
+      <c r="Q10" s="34"/>
       <c r="R10" s="7">
         <f>H9</f>
         <v>800</v>
       </c>
-      <c r="S10" s="33"/>
+      <c r="S10" s="34"/>
       <c r="T10" s="7">
         <v>1893.45</v>
       </c>
-      <c r="U10" s="49"/>
+      <c r="U10" s="35"/>
     </row>
     <row r="11" spans="1:21" ht="15.5">
       <c r="B11" s="9"/>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="33" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="33">
+      <c r="E11" s="34">
         <f>D11-D12</f>
         <v>0</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="33">
+      <c r="G11" s="34">
         <f t="shared" ref="G11" si="0">F11-F12+E11</f>
         <v>0</v>
       </c>
       <c r="H11" s="6">
         <v>150</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="34">
         <f>H11-H12+G11</f>
         <v>-600</v>
       </c>
@@ -1613,7 +1626,7 @@
         <f>COM_Clôtures!$B$3</f>
         <v>35.1</v>
       </c>
-      <c r="K11" s="33">
+      <c r="K11" s="34">
         <f t="shared" ref="K11" si="1">J11-J12+I11</f>
         <v>-732.77</v>
       </c>
@@ -1621,7 +1634,7 @@
         <f>COM_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M11" s="33">
+      <c r="M11" s="34">
         <f>L11-L12+K11</f>
         <v>-732.77</v>
       </c>
@@ -1629,17 +1642,17 @@
         <f>COM_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O11" s="33">
+      <c r="O11" s="34">
         <f>N11-N12+M11</f>
         <v>-732.77</v>
       </c>
       <c r="P11" s="6"/>
-      <c r="Q11" s="33">
+      <c r="Q11" s="34">
         <f>P11-P12+O11</f>
         <v>-732.77</v>
       </c>
       <c r="R11" s="6"/>
-      <c r="S11" s="33">
+      <c r="S11" s="34">
         <f>R11-R12+Q11</f>
         <v>-882.77</v>
       </c>
@@ -1653,40 +1666,40 @@
     </row>
     <row r="12" spans="1:21" ht="15.5">
       <c r="B12" s="9"/>
-      <c r="C12" s="37"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="33"/>
+      <c r="E12" s="34"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="33"/>
+      <c r="G12" s="34"/>
       <c r="H12" s="7">
         <v>750</v>
       </c>
-      <c r="I12" s="33"/>
+      <c r="I12" s="34"/>
       <c r="J12" s="7">
         <f>COM_Clôtures!$B$5</f>
         <v>167.87</v>
       </c>
-      <c r="K12" s="33"/>
+      <c r="K12" s="34"/>
       <c r="L12" s="7">
         <f>COM_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M12" s="33"/>
+      <c r="M12" s="34"/>
       <c r="N12" s="7">
         <f>COM_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O12" s="33"/>
+      <c r="O12" s="34"/>
       <c r="P12" s="7">
         <f>F11</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="33"/>
+      <c r="Q12" s="34"/>
       <c r="R12" s="7">
         <f>H11</f>
         <v>150</v>
       </c>
-      <c r="S12" s="33"/>
+      <c r="S12" s="34"/>
       <c r="T12" s="7">
         <v>128.19999999999999</v>
       </c>
@@ -1694,23 +1707,23 @@
     </row>
     <row r="13" spans="1:21" ht="15.5">
       <c r="B13" s="9"/>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="33" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="33">
+      <c r="E13" s="34">
         <f>D13-D14</f>
         <v>0</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="33">
+      <c r="G13" s="34">
         <f t="shared" ref="G13" si="2">F13-F14+E13</f>
         <v>0</v>
       </c>
       <c r="H13" s="6">
         <v>0</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="34">
         <f>H13-H14+G13</f>
         <v>-500</v>
       </c>
@@ -1718,7 +1731,7 @@
         <f>CONTRIB_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K13" s="33">
+      <c r="K13" s="34">
         <f t="shared" ref="K13" si="3">J13-J14+I13</f>
         <v>-575.6</v>
       </c>
@@ -1726,7 +1739,7 @@
         <f>CONTRIB_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M13" s="33">
+      <c r="M13" s="34">
         <f>L13-L14+K13</f>
         <v>-575.6</v>
       </c>
@@ -1734,86 +1747,86 @@
         <f>CONTRIB_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O13" s="33">
+      <c r="O13" s="34">
         <f>N13-N14+M13</f>
         <v>-575.6</v>
       </c>
       <c r="P13" s="6"/>
-      <c r="Q13" s="33">
+      <c r="Q13" s="34">
         <f>P13-P14+O13</f>
         <v>-575.6</v>
       </c>
       <c r="R13" s="6"/>
-      <c r="S13" s="33">
+      <c r="S13" s="34">
         <f t="shared" ref="S13" si="4">R13-R14+Q13</f>
         <v>-575.6</v>
       </c>
       <c r="T13" s="6">
         <v>171.6</v>
       </c>
-      <c r="U13" s="49">
+      <c r="U13" s="35">
         <f t="shared" ref="U13" si="5">T13-T14+S13</f>
         <v>-404</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.5">
       <c r="B14" s="9"/>
-      <c r="C14" s="37"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="33"/>
+      <c r="E14" s="34"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="33"/>
+      <c r="G14" s="34"/>
       <c r="H14" s="7">
         <v>500</v>
       </c>
-      <c r="I14" s="33"/>
+      <c r="I14" s="34"/>
       <c r="J14" s="7">
         <f>CONTRIB_Clôtures!$B$7</f>
         <v>75.599999999999994</v>
       </c>
-      <c r="K14" s="33"/>
+      <c r="K14" s="34"/>
       <c r="L14" s="7">
         <f>CONTRIB_Clôtures!$C$7</f>
         <v>0</v>
       </c>
-      <c r="M14" s="33"/>
+      <c r="M14" s="34"/>
       <c r="N14" s="7">
         <f>CONTRIB_Clôtures!$D$7</f>
         <v>0</v>
       </c>
-      <c r="O14" s="33"/>
+      <c r="O14" s="34"/>
       <c r="P14" s="7">
         <f>F13</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="33"/>
+      <c r="Q14" s="34"/>
       <c r="R14" s="7">
         <f>H13</f>
         <v>0</v>
       </c>
-      <c r="S14" s="33"/>
+      <c r="S14" s="34"/>
       <c r="T14" s="7"/>
-      <c r="U14" s="49"/>
+      <c r="U14" s="35"/>
     </row>
     <row r="15" spans="1:21" ht="15.5">
       <c r="B15" s="9"/>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="33" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="33">
+      <c r="E15" s="34">
         <f>D15-D16</f>
         <v>0</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="33">
+      <c r="G15" s="34">
         <f t="shared" ref="G15" si="6">F15-F16+E15</f>
         <v>0</v>
       </c>
       <c r="H15" s="6">
         <v>1750</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="34">
         <f t="shared" ref="I15" si="7">H15-H16+G15</f>
         <v>-1000</v>
       </c>
@@ -1821,7 +1834,7 @@
         <f>EVENT_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K15" s="33">
+      <c r="K15" s="34">
         <f t="shared" ref="K15" si="8">J15-J16+I15</f>
         <v>-1000</v>
       </c>
@@ -1829,7 +1842,7 @@
         <f>EVENT_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M15" s="33">
+      <c r="M15" s="34">
         <f>L15-L16+K15</f>
         <v>-1000</v>
       </c>
@@ -1837,88 +1850,88 @@
         <f>EVENT_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O15" s="33">
+      <c r="O15" s="34">
         <f>N15-N16+M15</f>
         <v>-1000</v>
       </c>
       <c r="P15" s="6"/>
-      <c r="Q15" s="33">
+      <c r="Q15" s="34">
         <f>P15-P16+O15</f>
         <v>-1000</v>
       </c>
       <c r="R15" s="6"/>
-      <c r="S15" s="33">
+      <c r="S15" s="34">
         <f t="shared" ref="S15" si="9">R15-R16+Q15</f>
         <v>-2750</v>
       </c>
       <c r="T15" s="6">
         <v>2442.2199999999998</v>
       </c>
-      <c r="U15" s="49">
+      <c r="U15" s="35">
         <f t="shared" ref="U15" si="10">T15-T16+S15</f>
         <v>-4681.6399999999994</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.5">
       <c r="B16" s="9"/>
-      <c r="C16" s="37"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="33"/>
+      <c r="E16" s="34"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="33"/>
+      <c r="G16" s="34"/>
       <c r="H16" s="7">
         <v>2750</v>
       </c>
-      <c r="I16" s="33"/>
+      <c r="I16" s="34"/>
       <c r="J16" s="7">
         <f>EVENT_Clôtures!$B$12</f>
         <v>0</v>
       </c>
-      <c r="K16" s="33"/>
+      <c r="K16" s="34"/>
       <c r="L16" s="7">
         <f>EVENT_Clôtures!$C$12</f>
         <v>0</v>
       </c>
-      <c r="M16" s="33"/>
+      <c r="M16" s="34"/>
       <c r="N16" s="7">
         <f>EVENT_Clôtures!$D$12</f>
         <v>0</v>
       </c>
-      <c r="O16" s="33"/>
+      <c r="O16" s="34"/>
       <c r="P16" s="7">
         <f>F15</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="33"/>
+      <c r="Q16" s="34"/>
       <c r="R16" s="7">
         <f>H15</f>
         <v>1750</v>
       </c>
-      <c r="S16" s="33"/>
+      <c r="S16" s="34"/>
       <c r="T16" s="7">
         <v>4373.8599999999997</v>
       </c>
-      <c r="U16" s="49"/>
+      <c r="U16" s="35"/>
     </row>
     <row r="17" spans="2:21" ht="15.5">
       <c r="B17" s="9"/>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="33">
+      <c r="E17" s="34">
         <f>D17-D18</f>
         <v>0</v>
       </c>
       <c r="F17" s="6"/>
-      <c r="G17" s="33">
+      <c r="G17" s="34">
         <f t="shared" ref="G17" si="11">F17-F18+E17</f>
         <v>0</v>
       </c>
       <c r="H17" s="6">
         <v>0</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="34">
         <f t="shared" ref="I17" si="12">H17-H18+G17</f>
         <v>0</v>
       </c>
@@ -1926,7 +1939,7 @@
         <f>EXTRA_Clôtures!$B$3</f>
         <v>1.38</v>
       </c>
-      <c r="K17" s="33">
+      <c r="K17" s="34">
         <f t="shared" ref="K17" si="13">J17-J18+I17</f>
         <v>-2010.02</v>
       </c>
@@ -1934,7 +1947,7 @@
         <f>EXTRA_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M17" s="33">
+      <c r="M17" s="34">
         <f>L17-L18+K17</f>
         <v>-2010.02</v>
       </c>
@@ -1942,88 +1955,88 @@
         <f>EXTRA_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O17" s="33">
+      <c r="O17" s="34">
         <f>N17-N18+M17</f>
         <v>-2010.02</v>
       </c>
       <c r="P17" s="6"/>
-      <c r="Q17" s="33">
+      <c r="Q17" s="34">
         <f>P17-P18+O17</f>
         <v>-2010.02</v>
       </c>
       <c r="R17" s="6"/>
-      <c r="S17" s="33">
+      <c r="S17" s="34">
         <f t="shared" ref="S17" si="14">R17-R18+Q17</f>
         <v>-2010.02</v>
       </c>
       <c r="T17" s="6">
         <v>395.9</v>
       </c>
-      <c r="U17" s="49">
+      <c r="U17" s="35">
         <f t="shared" ref="U17" si="15">T17-T18+S17</f>
         <v>-2212.04</v>
       </c>
     </row>
     <row r="18" spans="2:21" ht="15.5">
       <c r="B18" s="9"/>
-      <c r="C18" s="37"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="33"/>
+      <c r="E18" s="34"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="33"/>
+      <c r="G18" s="34"/>
       <c r="H18" s="7">
         <v>0</v>
       </c>
-      <c r="I18" s="33"/>
+      <c r="I18" s="34"/>
       <c r="J18" s="7">
         <f>EXTRA_Clôtures!$B$5</f>
         <v>2011.4</v>
       </c>
-      <c r="K18" s="33"/>
+      <c r="K18" s="34"/>
       <c r="L18" s="7">
         <f>EXTRA_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M18" s="33"/>
+      <c r="M18" s="34"/>
       <c r="N18" s="7">
         <f>EXTRA_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O18" s="33"/>
+      <c r="O18" s="34"/>
       <c r="P18" s="7">
         <f>F17</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="33"/>
+      <c r="Q18" s="34"/>
       <c r="R18" s="7">
         <f>H17</f>
         <v>0</v>
       </c>
-      <c r="S18" s="33"/>
+      <c r="S18" s="34"/>
       <c r="T18" s="7">
         <v>597.91999999999996</v>
       </c>
-      <c r="U18" s="49"/>
+      <c r="U18" s="35"/>
     </row>
     <row r="19" spans="2:21" ht="15.5">
       <c r="B19" s="9"/>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="33" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="33">
+      <c r="E19" s="34">
         <f>D19-D20</f>
         <v>0</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="33">
+      <c r="G19" s="34">
         <f t="shared" ref="G19" si="16">F19-F20+E19</f>
         <v>0</v>
       </c>
       <c r="H19" s="6">
         <v>900</v>
       </c>
-      <c r="I19" s="33">
+      <c r="I19" s="34">
         <f t="shared" ref="I19" si="17">H19-H20+G19</f>
         <v>100</v>
       </c>
@@ -2031,7 +2044,7 @@
         <f>FONCT_Clôtures!$B$5</f>
         <v>3472.44</v>
       </c>
-      <c r="K19" s="33">
+      <c r="K19" s="34">
         <f t="shared" ref="K19" si="18">J19-J20+I19</f>
         <v>3045.07</v>
       </c>
@@ -2039,7 +2052,7 @@
         <f>FONCT_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M19" s="33">
+      <c r="M19" s="34">
         <f>L19-L20+K19</f>
         <v>3045.07</v>
       </c>
@@ -2047,88 +2060,88 @@
         <f>FONCT_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O19" s="33">
+      <c r="O19" s="34">
         <f>N19-N20+M19</f>
         <v>3045.07</v>
       </c>
       <c r="P19" s="6"/>
-      <c r="Q19" s="33">
+      <c r="Q19" s="34">
         <f>P19-P20+O19</f>
         <v>3045.07</v>
       </c>
       <c r="R19" s="6"/>
-      <c r="S19" s="33">
+      <c r="S19" s="34">
         <f t="shared" ref="S19" si="19">R19-R20+Q19</f>
         <v>2145.0700000000002</v>
       </c>
       <c r="T19" s="6">
         <v>1055.74</v>
       </c>
-      <c r="U19" s="49">
+      <c r="U19" s="35">
         <f t="shared" ref="U19" si="20">T19-T20+S19</f>
         <v>-4858.9699999999993</v>
       </c>
     </row>
     <row r="20" spans="2:21" ht="15.5">
       <c r="B20" s="9"/>
-      <c r="C20" s="37"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="33"/>
+      <c r="E20" s="34"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="33"/>
+      <c r="G20" s="34"/>
       <c r="H20" s="7">
         <v>800</v>
       </c>
-      <c r="I20" s="33"/>
+      <c r="I20" s="34"/>
       <c r="J20" s="7">
         <f>FONCT_Clôtures!$B$12</f>
         <v>527.37</v>
       </c>
-      <c r="K20" s="33"/>
+      <c r="K20" s="34"/>
       <c r="L20" s="7">
         <f>FONCT_Clôtures!$C$12</f>
         <v>0</v>
       </c>
-      <c r="M20" s="33"/>
+      <c r="M20" s="34"/>
       <c r="N20" s="7">
         <f>FONCT_Clôtures!$D$12</f>
         <v>0</v>
       </c>
-      <c r="O20" s="33"/>
+      <c r="O20" s="34"/>
       <c r="P20" s="7">
         <f>F19</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="33"/>
+      <c r="Q20" s="34"/>
       <c r="R20" s="7">
         <f>H19</f>
         <v>900</v>
       </c>
-      <c r="S20" s="33"/>
+      <c r="S20" s="34"/>
       <c r="T20" s="7">
         <v>8059.78</v>
       </c>
-      <c r="U20" s="49"/>
+      <c r="U20" s="35"/>
     </row>
     <row r="21" spans="2:21" ht="15.5">
       <c r="B21" s="9"/>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="33" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="33">
+      <c r="E21" s="34">
         <f>D21-D22</f>
         <v>0</v>
       </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="33">
+      <c r="G21" s="34">
         <f t="shared" ref="G21" si="21">F21-F22+E21</f>
         <v>0</v>
       </c>
       <c r="H21" s="6">
         <v>0</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="34">
         <f t="shared" ref="I21" si="22">H21-H22+G21</f>
         <v>0</v>
       </c>
@@ -2136,7 +2149,7 @@
         <f>CONVER_Clôtures!$B$3</f>
         <v>605.41999999999996</v>
       </c>
-      <c r="K21" s="33">
+      <c r="K21" s="34">
         <f t="shared" ref="K21" si="23">J21-J22+I21</f>
         <v>605.41999999999996</v>
       </c>
@@ -2144,7 +2157,7 @@
         <f>CONVER_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M21" s="33">
+      <c r="M21" s="34">
         <f>L21-L22+K21</f>
         <v>605.41999999999996</v>
       </c>
@@ -2152,88 +2165,88 @@
         <f>CONVER_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O21" s="33">
+      <c r="O21" s="34">
         <f>N21-N22+M21</f>
         <v>605.41999999999996</v>
       </c>
       <c r="P21" s="6"/>
-      <c r="Q21" s="33">
+      <c r="Q21" s="34">
         <f>P21-P22+O21</f>
         <v>605.41999999999996</v>
       </c>
       <c r="R21" s="6"/>
-      <c r="S21" s="33">
+      <c r="S21" s="34">
         <f t="shared" ref="S21" si="24">R21-R22+Q21</f>
         <v>605.41999999999996</v>
       </c>
       <c r="T21" s="6">
         <v>2405.42</v>
       </c>
-      <c r="U21" s="49">
+      <c r="U21" s="35">
         <f t="shared" ref="U21" si="25">T21-T22+S21</f>
         <v>10.840000000000032</v>
       </c>
     </row>
     <row r="22" spans="2:21" ht="15.5">
       <c r="B22" s="9"/>
-      <c r="C22" s="37"/>
+      <c r="C22" s="33"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="33"/>
+      <c r="E22" s="34"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="33"/>
+      <c r="G22" s="34"/>
       <c r="H22" s="7">
         <v>0</v>
       </c>
-      <c r="I22" s="33"/>
+      <c r="I22" s="34"/>
       <c r="J22" s="7">
         <f>CONVER_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K22" s="33"/>
+      <c r="K22" s="34"/>
       <c r="L22" s="7">
         <f>CONVER_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M22" s="33"/>
+      <c r="M22" s="34"/>
       <c r="N22" s="7">
         <f>CONVER_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O22" s="33"/>
+      <c r="O22" s="34"/>
       <c r="P22" s="7">
         <f>F21</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="33"/>
+      <c r="Q22" s="34"/>
       <c r="R22" s="7">
         <f>H21</f>
         <v>0</v>
       </c>
-      <c r="S22" s="33"/>
+      <c r="S22" s="34"/>
       <c r="T22" s="7">
         <v>3000</v>
       </c>
-      <c r="U22" s="49"/>
+      <c r="U22" s="35"/>
     </row>
     <row r="23" spans="2:21" ht="15.5">
       <c r="B23" s="9"/>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="33" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="6"/>
-      <c r="E23" s="33">
+      <c r="E23" s="34">
         <f>D23-D24</f>
         <v>0</v>
       </c>
       <c r="F23" s="6"/>
-      <c r="G23" s="33">
+      <c r="G23" s="34">
         <f t="shared" ref="G23" si="26">F23-F24+E23</f>
         <v>0</v>
       </c>
       <c r="H23" s="6">
         <v>0</v>
       </c>
-      <c r="I23" s="33">
+      <c r="I23" s="34">
         <f t="shared" ref="I23" si="27">H23-H24+G23</f>
         <v>-100</v>
       </c>
@@ -2241,7 +2254,7 @@
         <f>LOCAL_Clôtures!$B$3</f>
         <v>255.62</v>
       </c>
-      <c r="K23" s="33">
+      <c r="K23" s="34">
         <f t="shared" ref="K23" si="28">J23-J24+I23</f>
         <v>-96.080000000000013</v>
       </c>
@@ -2249,7 +2262,7 @@
         <f>LOCAL_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M23" s="33">
+      <c r="M23" s="34">
         <f>L23-L24+K23</f>
         <v>-96.080000000000013</v>
       </c>
@@ -2257,86 +2270,86 @@
         <f>LOCAL_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O23" s="33">
+      <c r="O23" s="34">
         <f>N23-N24+M23</f>
         <v>-96.080000000000013</v>
       </c>
       <c r="P23" s="6"/>
-      <c r="Q23" s="33">
+      <c r="Q23" s="34">
         <f>P23-P24+O23</f>
         <v>-96.080000000000013</v>
       </c>
       <c r="R23" s="6"/>
-      <c r="S23" s="33">
+      <c r="S23" s="34">
         <f t="shared" ref="S23" si="29">R23-R24+Q23</f>
         <v>-96.080000000000013</v>
       </c>
       <c r="T23" s="6">
         <v>654.46</v>
       </c>
-      <c r="U23" s="49">
+      <c r="U23" s="35">
         <f t="shared" ref="U23" si="30">T23-T24+S23</f>
         <v>558.38</v>
       </c>
     </row>
     <row r="24" spans="2:21" ht="15.5">
       <c r="B24" s="9"/>
-      <c r="C24" s="37"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="33"/>
+      <c r="E24" s="34"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="33"/>
+      <c r="G24" s="34"/>
       <c r="H24" s="7">
         <v>100</v>
       </c>
-      <c r="I24" s="33"/>
+      <c r="I24" s="34"/>
       <c r="J24" s="7">
         <f>LOCAL_Clôtures!$B$8</f>
         <v>251.70000000000002</v>
       </c>
-      <c r="K24" s="33"/>
+      <c r="K24" s="34"/>
       <c r="L24" s="7">
         <f>LOCAL_Clôtures!$C$8</f>
         <v>0</v>
       </c>
-      <c r="M24" s="33"/>
+      <c r="M24" s="34"/>
       <c r="N24" s="7">
         <f>LOCAL_Clôtures!$D$8</f>
         <v>0</v>
       </c>
-      <c r="O24" s="33"/>
+      <c r="O24" s="34"/>
       <c r="P24" s="7">
         <f>F23</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="33"/>
+      <c r="Q24" s="34"/>
       <c r="R24" s="7">
         <f>H23</f>
         <v>0</v>
       </c>
-      <c r="S24" s="33"/>
+      <c r="S24" s="34"/>
       <c r="T24" s="7"/>
-      <c r="U24" s="49"/>
+      <c r="U24" s="35"/>
     </row>
     <row r="25" spans="2:21" ht="15.5">
       <c r="B25" s="9"/>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="33" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="6"/>
-      <c r="E25" s="33">
+      <c r="E25" s="34">
         <f>D25-D26</f>
         <v>0</v>
       </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="33">
+      <c r="G25" s="34">
         <f t="shared" ref="G25" si="31">F25-F26+E25</f>
         <v>0</v>
       </c>
       <c r="H25" s="6">
         <v>0</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="34">
         <f t="shared" ref="I25" si="32">H25-H26+G25</f>
         <v>-250</v>
       </c>
@@ -2344,7 +2357,7 @@
         <f>LOG_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K25" s="33">
+      <c r="K25" s="34">
         <f t="shared" ref="K25" si="33">J25-J26+I25</f>
         <v>-355.32</v>
       </c>
@@ -2352,7 +2365,7 @@
         <f>LOG_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M25" s="33">
+      <c r="M25" s="34">
         <f>L25-L26+K25</f>
         <v>-355.32</v>
       </c>
@@ -2360,86 +2373,86 @@
         <f>LOG_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O25" s="33">
+      <c r="O25" s="34">
         <f>N25-N26+M25</f>
         <v>-355.32</v>
       </c>
       <c r="P25" s="6"/>
-      <c r="Q25" s="33">
+      <c r="Q25" s="34">
         <f>P25-P26+O25</f>
         <v>-355.32</v>
       </c>
       <c r="R25" s="6"/>
-      <c r="S25" s="33">
+      <c r="S25" s="34">
         <f t="shared" ref="S25" si="34">R25-R26+Q25</f>
         <v>-355.32</v>
       </c>
       <c r="T25" s="6">
         <v>354.95</v>
       </c>
-      <c r="U25" s="49">
+      <c r="U25" s="35">
         <f t="shared" ref="U25" si="35">T25-T26+S25</f>
         <v>-0.37000000000000455</v>
       </c>
     </row>
     <row r="26" spans="2:21" ht="15.5">
       <c r="B26" s="9"/>
-      <c r="C26" s="37"/>
+      <c r="C26" s="33"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="33"/>
+      <c r="E26" s="34"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="33"/>
+      <c r="G26" s="34"/>
       <c r="H26" s="7">
         <v>250</v>
       </c>
-      <c r="I26" s="33"/>
+      <c r="I26" s="34"/>
       <c r="J26" s="7">
         <f>LOG_Clôtures!$B$5</f>
         <v>105.32</v>
       </c>
-      <c r="K26" s="33"/>
+      <c r="K26" s="34"/>
       <c r="L26" s="7">
         <f>LOG_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M26" s="33"/>
+      <c r="M26" s="34"/>
       <c r="N26" s="7">
         <f>LOG_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O26" s="33"/>
+      <c r="O26" s="34"/>
       <c r="P26" s="7">
         <f>F25</f>
         <v>0</v>
       </c>
-      <c r="Q26" s="33"/>
+      <c r="Q26" s="34"/>
       <c r="R26" s="7">
         <f>H25</f>
         <v>0</v>
       </c>
-      <c r="S26" s="33"/>
+      <c r="S26" s="34"/>
       <c r="T26" s="7"/>
-      <c r="U26" s="49"/>
+      <c r="U26" s="35"/>
     </row>
     <row r="27" spans="2:21" ht="15.5">
       <c r="B27" s="9"/>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="33" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="6"/>
-      <c r="E27" s="33">
+      <c r="E27" s="34">
         <f>D27-D28</f>
         <v>0</v>
       </c>
       <c r="F27" s="6"/>
-      <c r="G27" s="33">
+      <c r="G27" s="34">
         <f>F27-F28+E27</f>
         <v>0</v>
       </c>
       <c r="H27" s="6">
         <v>0</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="34">
         <f>H27-H28+G27</f>
         <v>0</v>
       </c>
@@ -2447,7 +2460,7 @@
         <f>MOBILITY_Clôtures!$B$3</f>
         <v>564.83000000000004</v>
       </c>
-      <c r="K27" s="33">
+      <c r="K27" s="34">
         <f>J27-J28+I27</f>
         <v>0</v>
       </c>
@@ -2455,7 +2468,7 @@
         <f>MOBILITY_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M27" s="33">
+      <c r="M27" s="34">
         <f>L27-L28+K27</f>
         <v>0</v>
       </c>
@@ -2463,85 +2476,85 @@
         <f>MOBILITY_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O27" s="33">
+      <c r="O27" s="34">
         <f>N27-N28+M27</f>
         <v>0</v>
       </c>
       <c r="P27" s="6"/>
-      <c r="Q27" s="33">
+      <c r="Q27" s="34">
         <f>P27-P28+O27</f>
         <v>0</v>
       </c>
       <c r="R27" s="6"/>
-      <c r="S27" s="33">
+      <c r="S27" s="34">
         <f>R27-R28+Q27</f>
         <v>0</v>
       </c>
       <c r="T27" s="6">
         <v>1887.3</v>
       </c>
-      <c r="U27" s="49">
+      <c r="U27" s="35">
         <f>T27-T28+S27</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:21" ht="15.5">
       <c r="B28" s="9"/>
-      <c r="C28" s="37"/>
+      <c r="C28" s="33"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="33"/>
+      <c r="E28" s="34"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="33"/>
+      <c r="G28" s="34"/>
       <c r="H28" s="7">
         <v>0</v>
       </c>
-      <c r="I28" s="33"/>
+      <c r="I28" s="34"/>
       <c r="J28" s="7">
         <f>MOBILITY_Clôtures!$B$5</f>
         <v>564.83000000000004</v>
       </c>
-      <c r="K28" s="33"/>
+      <c r="K28" s="34"/>
       <c r="L28" s="7">
         <f>MOBILITY_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M28" s="33"/>
+      <c r="M28" s="34"/>
       <c r="N28" s="7">
         <f>MOBILITY_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O28" s="33"/>
-      <c r="P28" s="59">
+      <c r="O28" s="34"/>
+      <c r="P28" s="7">
         <f>F27</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="59">
+      <c r="Q28" s="34"/>
+      <c r="R28" s="7">
         <f>H27</f>
         <v>0</v>
       </c>
-      <c r="S28" s="60"/>
+      <c r="S28" s="34"/>
       <c r="T28" s="7">
         <v>1887.3</v>
       </c>
-      <c r="U28" s="49"/>
+      <c r="U28" s="35"/>
     </row>
     <row r="29" spans="2:21" ht="15.5">
       <c r="B29" s="9"/>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="33" t="s">
         <v>91</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="32"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="33">
+      <c r="G29" s="34">
         <f>F29-F30+E29</f>
         <v>0</v>
       </c>
       <c r="H29" s="6">
         <v>0</v>
       </c>
-      <c r="I29" s="33">
+      <c r="I29" s="34">
         <f>H29-H30+G29</f>
         <v>0</v>
       </c>
@@ -2549,7 +2562,7 @@
         <f>REPRO_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K29" s="33">
+      <c r="K29" s="34">
         <f>J29-J30+I29</f>
         <v>0</v>
       </c>
@@ -2557,7 +2570,7 @@
         <f>REPRO_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M29" s="33">
+      <c r="M29" s="34">
         <f>L29-L30+K29</f>
         <v>0</v>
       </c>
@@ -2565,69 +2578,69 @@
         <f>REPRO_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O29" s="33">
+      <c r="O29" s="34">
         <f>N29-N30+M29</f>
         <v>0</v>
       </c>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="33">
+      <c r="P29" s="7"/>
+      <c r="Q29" s="34">
         <f>P29-P30+O29</f>
         <v>0</v>
       </c>
-      <c r="R29" s="59"/>
-      <c r="S29" s="33">
+      <c r="R29" s="7"/>
+      <c r="S29" s="34">
         <f>R29-R30+Q29</f>
         <v>0</v>
       </c>
       <c r="T29" s="7"/>
-      <c r="U29" s="49">
+      <c r="U29" s="35">
         <f>T29-T30+S29</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:21" ht="15.5">
       <c r="B30" s="9"/>
-      <c r="C30" s="61"/>
+      <c r="C30" s="36"/>
       <c r="D30" s="7"/>
       <c r="E30" s="32"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="33"/>
+      <c r="G30" s="34"/>
       <c r="H30" s="7">
         <v>0</v>
       </c>
-      <c r="I30" s="33"/>
+      <c r="I30" s="34"/>
       <c r="J30" s="7">
         <f>REPRO_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K30" s="33"/>
+      <c r="K30" s="34"/>
       <c r="L30" s="7">
         <f>REPRO_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M30" s="33"/>
+      <c r="M30" s="34"/>
       <c r="N30" s="7">
         <f>REPRO_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O30" s="33"/>
+      <c r="O30" s="34"/>
       <c r="P30" s="27"/>
-      <c r="Q30" s="33"/>
+      <c r="Q30" s="34"/>
       <c r="R30" s="27"/>
-      <c r="S30" s="60"/>
+      <c r="S30" s="34"/>
       <c r="T30" s="7"/>
-      <c r="U30" s="49"/>
+      <c r="U30" s="35"/>
     </row>
     <row r="31" spans="2:21" ht="15.5">
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="39"/>
+      <c r="C31" s="55"/>
       <c r="D31" s="8">
         <f>D33+D35+D37+D41+D43+D45+D47+D49+D51+D53+D55+D57+D59+D61+D65</f>
         <v>0</v>
       </c>
-      <c r="E31" s="34">
+      <c r="E31" s="45">
         <f>D31-D32</f>
         <v>0</v>
       </c>
@@ -2635,7 +2648,7 @@
         <f>F33+F35+F37+F39+F41+F43+F45+F47+F49+F51+F53+F55+F57+F59+F61+F65</f>
         <v>0</v>
       </c>
-      <c r="G31" s="34">
+      <c r="G31" s="45">
         <f>F31-F32</f>
         <v>0</v>
       </c>
@@ -2643,127 +2656,127 @@
         <f>H33+H35+H37+H39+H41+H43+H45+H47+H49+H51+H53+H55+H57+H59+H61+H63+H65</f>
         <v>28280</v>
       </c>
-      <c r="I31" s="34">
+      <c r="I31" s="45">
         <f>H31-H32+G31</f>
         <v>-12578</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J31" s="8" t="e">
         <f>J33+J35+J37+J39+J41+J43+J45+J47+J49+J51+J53+J55+J57+J59+J61+J63+J65</f>
-        <v>1587.34</v>
-      </c>
-      <c r="K31" s="34">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K31" s="45" t="e">
         <f>J31-J32+I31</f>
-        <v>-12547.94</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L31" s="8">
         <f>L33+L35+L37+L39+L41+L43+L45+L47+L49+L51+L53+L55+L57+L59+L61+L63+L65</f>
         <v>0</v>
       </c>
-      <c r="M31" s="34">
+      <c r="M31" s="45" t="e">
         <f>L31-L32+K31</f>
-        <v>-12547.94</v>
+        <v>#VALUE!</v>
       </c>
       <c r="N31" s="8">
         <f>N33+N35+N37+N39+N41+N43+N45+N47+N49+N51+N53+N55+N57+N59+N61+N63+N65</f>
         <v>0</v>
       </c>
-      <c r="O31" s="34">
+      <c r="O31" s="45" t="e">
         <f>N31-N32+M31</f>
-        <v>-12547.94</v>
+        <v>#VALUE!</v>
       </c>
       <c r="P31" s="6">
         <f>P33+P35+P37+P39+P41+P43+P45+P47+P49+P51+P53+P55+P57+P59+P61+P63+P65</f>
         <v>0</v>
       </c>
-      <c r="Q31" s="33">
+      <c r="Q31" s="34" t="e">
         <f>P31-P32+O31</f>
-        <v>-12547.94</v>
+        <v>#VALUE!</v>
       </c>
       <c r="R31" s="6">
         <f>R33+R35+R37+R39+R41+R43+R45+R47+R49+R51+R53+R55+R57+R59+R61+R63+R65</f>
         <v>0</v>
       </c>
-      <c r="S31" s="33">
+      <c r="S31" s="34" t="e">
         <f>R31-R32+Q31</f>
-        <v>-40827.94</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T31" s="8">
         <f>T33+T35+T37+T39+T41+T43+T45+T47+T49+T51+T53+T55+T57+T59+T61+T63+T65</f>
         <v>20889.509999999998</v>
       </c>
-      <c r="U31" s="34">
+      <c r="U31" s="45" t="e">
         <f>T31-T32+S31</f>
-        <v>-35015.620000000003</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="32" spans="2:21" ht="15.5">
-      <c r="B32" s="40"/>
-      <c r="C32" s="41"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="61"/>
       <c r="D32" s="7">
         <f>D34+D36+D38+D40+D42+D44+D46+D48+D50+D52+D54+D56+D58+D60+D62+D66</f>
         <v>0</v>
       </c>
-      <c r="E32" s="33"/>
+      <c r="E32" s="34"/>
       <c r="F32" s="7">
         <f>F34+F36+F38+F40+F42+F44+F46+F48+F50+F52+F54+F56+F58+F60+F62+F66</f>
         <v>0</v>
       </c>
-      <c r="G32" s="33"/>
+      <c r="G32" s="34"/>
       <c r="H32" s="7">
         <f>H34+H36+H38+H40+H42+H44+H46+H48+H50+H52+H54+H56+H58+H60+H62+H64+H66</f>
         <v>40858</v>
       </c>
-      <c r="I32" s="33"/>
+      <c r="I32" s="58"/>
       <c r="J32" s="7">
         <f>J34+J36+J38+J40+J42+J44+J46+J48+J50+J52+J54+J56+J58+J60+J62+J64+J66</f>
         <v>1557.28</v>
       </c>
-      <c r="K32" s="33"/>
+      <c r="K32" s="58"/>
       <c r="L32" s="7">
         <f>L34+L36+L38+L40+L42+L44+L46+L48+L50+L52+L54+L56+L58+L60+L62+L64+L66</f>
         <v>0</v>
       </c>
-      <c r="M32" s="33"/>
+      <c r="M32" s="34"/>
       <c r="N32" s="7">
         <f>N34+N36+N38+N40+N42+N44+N46+N48+N50+N52+N54+N56+N58+N60+N62+N64+N66</f>
         <v>0</v>
       </c>
-      <c r="O32" s="33"/>
+      <c r="O32" s="34"/>
       <c r="P32" s="7">
         <f>P34+P36+P38+P40+P42+P44+P46+P48+P50+P52+P54+P56+P58+P60+P62+P64+P66</f>
         <v>0</v>
       </c>
-      <c r="Q32" s="33"/>
+      <c r="Q32" s="34"/>
       <c r="R32" s="7">
         <f>R34+R36+R38+R40+R42+R44+R46+R48+R50+R52+R54+R56+R58+R60+R62+R64+R66</f>
         <v>28280</v>
       </c>
-      <c r="S32" s="33"/>
+      <c r="S32" s="34"/>
       <c r="T32" s="7">
         <f>T34+T36+T38+T40+T42+T44+T46+T48+T50+T52+T54+T56+T58+T60+T62+T64+T66</f>
         <v>15077.19</v>
       </c>
-      <c r="U32" s="33"/>
+      <c r="U32" s="34"/>
     </row>
     <row r="33" spans="2:21" ht="15.5">
       <c r="B33" s="9"/>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="33" t="s">
         <v>19</v>
       </c>
       <c r="D33" s="6"/>
-      <c r="E33" s="33">
+      <c r="E33" s="34">
         <f>D33-D34</f>
         <v>0</v>
       </c>
       <c r="F33" s="6"/>
-      <c r="G33" s="33">
+      <c r="G33" s="34">
         <f t="shared" ref="G33" si="36">F33-F34+E33</f>
         <v>0</v>
       </c>
       <c r="H33" s="6">
         <v>150</v>
       </c>
-      <c r="I33" s="33">
+      <c r="I33" s="34">
         <f t="shared" ref="I33" si="37">H33-H34+G33</f>
         <v>-200</v>
       </c>
@@ -2771,7 +2784,7 @@
         <f>API_Clôtures!$B$3</f>
         <v>119</v>
       </c>
-      <c r="K33" s="33">
+      <c r="K33" s="34">
         <f t="shared" ref="K33" si="38">J33-J34+I33</f>
         <v>-81</v>
       </c>
@@ -2779,7 +2792,7 @@
         <f>API_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M33" s="33">
+      <c r="M33" s="34">
         <f t="shared" ref="M33" si="39">L33-L34+K33</f>
         <v>-81</v>
       </c>
@@ -2787,86 +2800,86 @@
         <f>API_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O33" s="33">
+      <c r="O33" s="34">
         <f t="shared" ref="O33" si="40">N33-N34+M33</f>
         <v>-81</v>
       </c>
       <c r="P33" s="6"/>
-      <c r="Q33" s="33">
+      <c r="Q33" s="34">
         <f>P33-P34+O33</f>
         <v>-81</v>
       </c>
       <c r="R33" s="6"/>
-      <c r="S33" s="33">
+      <c r="S33" s="34">
         <f t="shared" ref="S33" si="41">R33-R34+Q33</f>
         <v>-231</v>
       </c>
       <c r="T33" s="6">
         <v>917.79</v>
       </c>
-      <c r="U33" s="33">
+      <c r="U33" s="34">
         <f t="shared" ref="U33" si="42">T33-T34+S33</f>
         <v>686.79</v>
       </c>
     </row>
     <row r="34" spans="2:21" ht="15.5">
       <c r="B34" s="9"/>
-      <c r="C34" s="37"/>
+      <c r="C34" s="33"/>
       <c r="D34" s="7"/>
-      <c r="E34" s="33"/>
+      <c r="E34" s="34"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="33"/>
+      <c r="G34" s="34"/>
       <c r="H34" s="7">
         <v>350</v>
       </c>
-      <c r="I34" s="33"/>
+      <c r="I34" s="34"/>
       <c r="J34" s="7">
         <f>API_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K34" s="33"/>
+      <c r="K34" s="34"/>
       <c r="L34" s="7">
         <f>API_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M34" s="33"/>
+      <c r="M34" s="34"/>
       <c r="N34" s="7">
         <f>API_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O34" s="33"/>
+      <c r="O34" s="34"/>
       <c r="P34" s="7">
         <f>F33</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="33"/>
+      <c r="Q34" s="34"/>
       <c r="R34" s="7">
         <f>H33</f>
         <v>150</v>
       </c>
-      <c r="S34" s="33"/>
+      <c r="S34" s="34"/>
       <c r="T34" s="7"/>
-      <c r="U34" s="33"/>
+      <c r="U34" s="34"/>
     </row>
     <row r="35" spans="2:21" ht="15.5">
       <c r="B35" s="9"/>
-      <c r="C35" s="37" t="s">
+      <c r="C35" s="33" t="s">
         <v>20</v>
       </c>
       <c r="D35" s="6"/>
-      <c r="E35" s="33">
+      <c r="E35" s="34">
         <f>D35-D36</f>
         <v>0</v>
       </c>
       <c r="F35" s="6"/>
-      <c r="G35" s="33">
+      <c r="G35" s="34">
         <f t="shared" ref="G35" si="43">F35-F36+E35</f>
         <v>0</v>
       </c>
       <c r="H35" s="6">
         <v>2000</v>
       </c>
-      <c r="I35" s="33">
+      <c r="I35" s="34">
         <f t="shared" ref="I35" si="44">H35-H36+G35</f>
         <v>-100</v>
       </c>
@@ -2874,7 +2887,7 @@
         <f>CANARD_Clôtures!$B$4</f>
         <v>14.93</v>
       </c>
-      <c r="K35" s="33">
+      <c r="K35" s="34">
         <f t="shared" ref="K35" si="45">J35-J36+I35</f>
         <v>-110.12</v>
       </c>
@@ -2882,7 +2895,7 @@
         <f>CANARD_Clôtures!$C$4</f>
         <v>0</v>
       </c>
-      <c r="M35" s="33">
+      <c r="M35" s="34">
         <f t="shared" ref="M35" si="46">L35-L36+K35</f>
         <v>-110.12</v>
       </c>
@@ -2890,88 +2903,88 @@
         <f>CANARD_Clôtures!$D$4</f>
         <v>0</v>
       </c>
-      <c r="O35" s="33">
+      <c r="O35" s="34">
         <f t="shared" ref="O35" si="47">N35-N36+M35</f>
         <v>-110.12</v>
       </c>
       <c r="P35" s="6"/>
-      <c r="Q35" s="33">
+      <c r="Q35" s="34">
         <f>P35-P36+O35</f>
         <v>-110.12</v>
       </c>
       <c r="R35" s="6"/>
-      <c r="S35" s="33">
+      <c r="S35" s="34">
         <f t="shared" ref="S35" si="48">R35-R36+Q35</f>
         <v>-2110.12</v>
       </c>
       <c r="T35" s="6">
         <v>2463.1999999999998</v>
       </c>
-      <c r="U35" s="33">
+      <c r="U35" s="34">
         <f t="shared" ref="U35" si="49">T35-T36+S35</f>
         <v>-288.77</v>
       </c>
     </row>
     <row r="36" spans="2:21" ht="15.5">
       <c r="B36" s="9"/>
-      <c r="C36" s="37"/>
+      <c r="C36" s="33"/>
       <c r="D36" s="7"/>
-      <c r="E36" s="33"/>
+      <c r="E36" s="34"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="33"/>
+      <c r="G36" s="34"/>
       <c r="H36" s="7">
         <v>2100</v>
       </c>
-      <c r="I36" s="33"/>
+      <c r="I36" s="34"/>
       <c r="J36" s="7">
         <f>CANARD_Clôtures!$B$6</f>
         <v>25.05</v>
       </c>
-      <c r="K36" s="33"/>
+      <c r="K36" s="34"/>
       <c r="L36" s="7">
         <f>CANARD_Clôtures!$C$6</f>
         <v>0</v>
       </c>
-      <c r="M36" s="33"/>
+      <c r="M36" s="34"/>
       <c r="N36" s="7">
         <f>CANARD_Clôtures!$D$6</f>
         <v>0</v>
       </c>
-      <c r="O36" s="33"/>
+      <c r="O36" s="34"/>
       <c r="P36" s="7">
         <f>F35</f>
         <v>0</v>
       </c>
-      <c r="Q36" s="33"/>
+      <c r="Q36" s="34"/>
       <c r="R36" s="7">
         <f>H35</f>
         <v>2000</v>
       </c>
-      <c r="S36" s="33"/>
+      <c r="S36" s="34"/>
       <c r="T36" s="7">
         <v>641.85</v>
       </c>
-      <c r="U36" s="33"/>
+      <c r="U36" s="34"/>
     </row>
     <row r="37" spans="2:21" ht="15.5">
       <c r="B37" s="9"/>
-      <c r="C37" s="37" t="s">
+      <c r="C37" s="33" t="s">
         <v>21</v>
       </c>
       <c r="D37" s="6"/>
-      <c r="E37" s="33">
+      <c r="E37" s="34">
         <f>D37-D38</f>
         <v>0</v>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="33">
+      <c r="G37" s="34">
         <f t="shared" ref="G37" si="50">F37-F38+E37</f>
         <v>0</v>
       </c>
       <c r="H37" s="6">
         <v>1600</v>
       </c>
-      <c r="I37" s="33">
+      <c r="I37" s="34">
         <f t="shared" ref="I37" si="51">H37-H38+G37</f>
         <v>-370</v>
       </c>
@@ -2979,7 +2992,7 @@
         <f>CASTOR_Clôtures!$B$3</f>
         <v>597.19000000000005</v>
       </c>
-      <c r="K37" s="33">
+      <c r="K37" s="34">
         <f t="shared" ref="K37" si="52">J37-J38+I37</f>
         <v>-562.79999999999995</v>
       </c>
@@ -2987,7 +3000,7 @@
         <f>CASTOR_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M37" s="33">
+      <c r="M37" s="34">
         <f t="shared" ref="M37" si="53">L37-L38+K37</f>
         <v>-562.79999999999995</v>
       </c>
@@ -2995,88 +3008,88 @@
         <f>CASTOR_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O37" s="33">
+      <c r="O37" s="34">
         <f t="shared" ref="O37" si="54">N37-N38+M37</f>
         <v>-562.79999999999995</v>
       </c>
       <c r="P37" s="6"/>
-      <c r="Q37" s="33">
+      <c r="Q37" s="34">
         <f>P37-P38+O37</f>
         <v>-562.79999999999995</v>
       </c>
       <c r="R37" s="6"/>
-      <c r="S37" s="33">
+      <c r="S37" s="34">
         <f t="shared" ref="S37" si="55">R37-R38+Q37</f>
         <v>-2162.8000000000002</v>
       </c>
       <c r="T37" s="6">
         <v>1445.73</v>
       </c>
-      <c r="U37" s="54">
+      <c r="U37" s="46">
         <f t="shared" ref="U37" si="56">T37-T38+S37</f>
         <v>-3096.36</v>
       </c>
     </row>
     <row r="38" spans="2:21" ht="15.5">
       <c r="B38" s="9"/>
-      <c r="C38" s="37"/>
+      <c r="C38" s="33"/>
       <c r="D38" s="7"/>
-      <c r="E38" s="33"/>
+      <c r="E38" s="34"/>
       <c r="F38" s="7"/>
-      <c r="G38" s="33"/>
+      <c r="G38" s="34"/>
       <c r="H38" s="7">
         <v>1970</v>
       </c>
-      <c r="I38" s="33"/>
+      <c r="I38" s="34"/>
       <c r="J38" s="7">
         <f>CASTOR_Clôtures!$B$5</f>
         <v>789.99</v>
       </c>
-      <c r="K38" s="33"/>
+      <c r="K38" s="34"/>
       <c r="L38" s="7">
         <f>CASTOR_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M38" s="33"/>
+      <c r="M38" s="34"/>
       <c r="N38" s="7">
         <f>CASTOR_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O38" s="33"/>
+      <c r="O38" s="34"/>
       <c r="P38" s="7">
         <f>F37</f>
         <v>0</v>
       </c>
-      <c r="Q38" s="33"/>
+      <c r="Q38" s="34"/>
       <c r="R38" s="7">
         <f>H37</f>
         <v>1600</v>
       </c>
-      <c r="S38" s="33"/>
+      <c r="S38" s="34"/>
       <c r="T38" s="7">
         <v>2379.29</v>
       </c>
-      <c r="U38" s="54"/>
+      <c r="U38" s="46"/>
     </row>
     <row r="39" spans="2:21" ht="15.5">
       <c r="B39" s="9"/>
-      <c r="C39" s="37" t="s">
+      <c r="C39" s="33" t="s">
         <v>31</v>
       </c>
       <c r="D39" s="6"/>
-      <c r="E39" s="33">
+      <c r="E39" s="34">
         <f>D39-D40</f>
         <v>0</v>
       </c>
       <c r="F39" s="6"/>
-      <c r="G39" s="33">
+      <c r="G39" s="34">
         <f t="shared" ref="G39" si="57">F39-F40+E39</f>
         <v>0</v>
       </c>
       <c r="H39" s="6">
         <v>0</v>
       </c>
-      <c r="I39" s="33">
+      <c r="I39" s="34">
         <f t="shared" ref="I39" si="58">H39-H40+G39</f>
         <v>-330</v>
       </c>
@@ -3084,7 +3097,7 @@
         <f>DEBOUC_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K39" s="33">
+      <c r="K39" s="34">
         <f t="shared" ref="K39" si="59">J39-J40+I39</f>
         <v>-356.33</v>
       </c>
@@ -3092,7 +3105,7 @@
         <f>DEBOUC_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M39" s="33">
+      <c r="M39" s="34">
         <f t="shared" ref="M39" si="60">L39-L40+K39</f>
         <v>-356.33</v>
       </c>
@@ -3100,86 +3113,86 @@
         <f>DEBOUC_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O39" s="33">
+      <c r="O39" s="34">
         <f t="shared" ref="O39" si="61">N39-N40+M39</f>
         <v>-356.33</v>
       </c>
       <c r="P39" s="6"/>
-      <c r="Q39" s="33">
+      <c r="Q39" s="34">
         <f>P39-P40+O39</f>
         <v>-356.33</v>
       </c>
       <c r="R39" s="6"/>
-      <c r="S39" s="33">
+      <c r="S39" s="34">
         <f t="shared" ref="S39" si="62">R39-R40+Q39</f>
         <v>-356.33</v>
       </c>
       <c r="T39" s="6">
         <v>128.69999999999999</v>
       </c>
-      <c r="U39" s="33">
+      <c r="U39" s="34">
         <f t="shared" ref="U39" si="63">T39-T40+S39</f>
         <v>-227.63</v>
       </c>
     </row>
     <row r="40" spans="2:21" ht="15.5">
       <c r="B40" s="9"/>
-      <c r="C40" s="37"/>
+      <c r="C40" s="33"/>
       <c r="D40" s="7"/>
-      <c r="E40" s="33"/>
+      <c r="E40" s="34"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="33"/>
+      <c r="G40" s="34"/>
       <c r="H40" s="7">
         <v>330</v>
       </c>
-      <c r="I40" s="33"/>
+      <c r="I40" s="34"/>
       <c r="J40" s="7">
         <f>DEBOUC_Clôtures!$B$5</f>
         <v>26.33</v>
       </c>
-      <c r="K40" s="33"/>
+      <c r="K40" s="34"/>
       <c r="L40" s="7">
         <f>DEBOUC_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M40" s="33"/>
+      <c r="M40" s="34"/>
       <c r="N40" s="7">
         <f>DEBOUC_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O40" s="33"/>
+      <c r="O40" s="34"/>
       <c r="P40" s="7">
         <f>F39</f>
         <v>0</v>
       </c>
-      <c r="Q40" s="33"/>
+      <c r="Q40" s="34"/>
       <c r="R40" s="7">
         <f>H39</f>
         <v>0</v>
       </c>
-      <c r="S40" s="33"/>
+      <c r="S40" s="34"/>
       <c r="T40" s="7"/>
-      <c r="U40" s="33"/>
+      <c r="U40" s="34"/>
     </row>
     <row r="41" spans="2:21" ht="15.5">
       <c r="B41" s="9"/>
-      <c r="C41" s="37" t="s">
+      <c r="C41" s="33" t="s">
         <v>22</v>
       </c>
       <c r="D41" s="6"/>
-      <c r="E41" s="33">
+      <c r="E41" s="34">
         <f>D41-D42</f>
         <v>0</v>
       </c>
       <c r="F41" s="6"/>
-      <c r="G41" s="33">
+      <c r="G41" s="34">
         <f t="shared" ref="G41" si="64">F41-F42+E41</f>
         <v>0</v>
       </c>
       <c r="H41" s="6">
         <v>600</v>
       </c>
-      <c r="I41" s="33">
+      <c r="I41" s="34">
         <f t="shared" ref="I41" si="65">H41-H42+G41</f>
         <v>-1000</v>
       </c>
@@ -3187,7 +3200,7 @@
         <f>EVA_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K41" s="33">
+      <c r="K41" s="34">
         <f t="shared" ref="K41" si="66">J41-J42+I41</f>
         <v>-1269.05</v>
       </c>
@@ -3195,7 +3208,7 @@
         <f>EVA_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M41" s="33">
+      <c r="M41" s="34">
         <f t="shared" ref="M41" si="67">L41-L42+K41</f>
         <v>-1269.05</v>
       </c>
@@ -3203,88 +3216,88 @@
         <f>EVA_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O41" s="33">
+      <c r="O41" s="34">
         <f t="shared" ref="O41" si="68">N41-N42+M41</f>
         <v>-1269.05</v>
       </c>
       <c r="P41" s="6"/>
-      <c r="Q41" s="33">
+      <c r="Q41" s="34">
         <f>P41-P42+O41</f>
         <v>-1269.05</v>
       </c>
       <c r="R41" s="6"/>
-      <c r="S41" s="33">
+      <c r="S41" s="34">
         <f t="shared" ref="S41" si="69">R41-R42+Q41</f>
         <v>-1869.05</v>
       </c>
       <c r="T41" s="6">
         <v>81.900000000000006</v>
       </c>
-      <c r="U41" s="33">
+      <c r="U41" s="34">
         <f t="shared" ref="U41" si="70">T41-T42+S41</f>
         <v>-1902.1</v>
       </c>
     </row>
     <row r="42" spans="2:21" ht="15.5">
       <c r="B42" s="9"/>
-      <c r="C42" s="37"/>
+      <c r="C42" s="33"/>
       <c r="D42" s="7"/>
-      <c r="E42" s="33"/>
+      <c r="E42" s="34"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="33"/>
+      <c r="G42" s="34"/>
       <c r="H42" s="7">
         <v>1600</v>
       </c>
-      <c r="I42" s="33"/>
+      <c r="I42" s="34"/>
       <c r="J42" s="7">
         <f>EVA_Clôtures!$B$5</f>
         <v>269.05</v>
       </c>
-      <c r="K42" s="33"/>
+      <c r="K42" s="34"/>
       <c r="L42" s="7">
         <f>EVA_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M42" s="33"/>
+      <c r="M42" s="34"/>
       <c r="N42" s="7">
         <f>EVA_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O42" s="33"/>
+      <c r="O42" s="34"/>
       <c r="P42" s="7">
         <f>F41</f>
         <v>0</v>
       </c>
-      <c r="Q42" s="33"/>
+      <c r="Q42" s="34"/>
       <c r="R42" s="7">
         <f>H41</f>
         <v>600</v>
       </c>
-      <c r="S42" s="33"/>
+      <c r="S42" s="34"/>
       <c r="T42" s="7">
         <v>114.95</v>
       </c>
-      <c r="U42" s="33"/>
+      <c r="U42" s="34"/>
     </row>
     <row r="43" spans="2:21" ht="15.5">
       <c r="B43" s="9"/>
-      <c r="C43" s="37" t="s">
+      <c r="C43" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D43" s="6"/>
-      <c r="E43" s="33">
+      <c r="E43" s="34">
         <f>D43-D44</f>
         <v>0</v>
       </c>
       <c r="F43" s="6"/>
-      <c r="G43" s="33">
+      <c r="G43" s="34">
         <f>F43-F44+E43</f>
         <v>0</v>
       </c>
       <c r="H43" s="6">
         <v>0</v>
       </c>
-      <c r="I43" s="33">
+      <c r="I43" s="34">
         <f t="shared" ref="I43" si="71">H43-H44+G43</f>
         <v>-508</v>
       </c>
@@ -3292,7 +3305,7 @@
         <f>EPILIBRE_Clôtures!B2</f>
         <v>55.5</v>
       </c>
-      <c r="K43" s="33">
+      <c r="K43" s="34">
         <f t="shared" ref="K43" si="72">J43-J44+I43</f>
         <v>-711.85</v>
       </c>
@@ -3300,7 +3313,7 @@
         <f>EPILIBRE_Clôtures!C2</f>
         <v>0</v>
       </c>
-      <c r="M43" s="33">
+      <c r="M43" s="34">
         <f t="shared" ref="M43" si="73">L43-L44+K43</f>
         <v>-711.85</v>
       </c>
@@ -3308,86 +3321,86 @@
         <f>EPILIBRE_Clôtures!D2</f>
         <v>0</v>
       </c>
-      <c r="O43" s="33">
+      <c r="O43" s="34">
         <f t="shared" ref="O43" si="74">N43-N44+M43</f>
         <v>-711.85</v>
       </c>
       <c r="P43" s="6"/>
-      <c r="Q43" s="33">
+      <c r="Q43" s="34">
         <f>P43-P44+O43</f>
         <v>-711.85</v>
       </c>
       <c r="R43" s="6"/>
-      <c r="S43" s="33">
+      <c r="S43" s="34">
         <f t="shared" ref="S43" si="75">R43-R44+Q43</f>
         <v>-711.85</v>
       </c>
       <c r="T43" s="6">
         <v>351.1</v>
       </c>
-      <c r="U43" s="33">
+      <c r="U43" s="34">
         <f t="shared" ref="U43:U45" si="76">T43-T44+S43</f>
         <v>-538.5</v>
       </c>
     </row>
     <row r="44" spans="2:21" ht="15.5">
       <c r="B44" s="9"/>
-      <c r="C44" s="37"/>
+      <c r="C44" s="33"/>
       <c r="D44" s="7"/>
-      <c r="E44" s="33"/>
+      <c r="E44" s="34"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="33"/>
+      <c r="G44" s="34"/>
       <c r="H44" s="7">
         <v>508</v>
       </c>
-      <c r="I44" s="33"/>
+      <c r="I44" s="34"/>
       <c r="J44" s="7">
         <f>EPILIBRE_Clôtures!B5</f>
         <v>259.35000000000002</v>
       </c>
-      <c r="K44" s="33"/>
+      <c r="K44" s="34"/>
       <c r="L44" s="7">
         <f>EPILIBRE_Clôtures!C5</f>
         <v>0</v>
       </c>
-      <c r="M44" s="33"/>
+      <c r="M44" s="34"/>
       <c r="N44" s="7">
         <f>EPILIBRE_Clôtures!D5</f>
         <v>0</v>
       </c>
-      <c r="O44" s="33"/>
+      <c r="O44" s="34"/>
       <c r="P44" s="7">
         <f>F43</f>
         <v>0</v>
       </c>
-      <c r="Q44" s="33"/>
+      <c r="Q44" s="34"/>
       <c r="R44" s="7">
         <f>H43</f>
         <v>0</v>
       </c>
-      <c r="S44" s="33"/>
+      <c r="S44" s="34"/>
       <c r="T44" s="7">
         <v>177.75</v>
       </c>
-      <c r="U44" s="33"/>
+      <c r="U44" s="34"/>
     </row>
     <row r="45" spans="2:21" ht="15.5">
       <c r="B45" s="9"/>
-      <c r="C45" s="37"/>
+      <c r="C45" s="33"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="33">
+      <c r="E45" s="34">
         <f>D45-D46</f>
         <v>0</v>
       </c>
       <c r="F45" s="6"/>
-      <c r="G45" s="33">
+      <c r="G45" s="34">
         <f>F45-F46+E45</f>
         <v>0</v>
       </c>
       <c r="H45" s="6">
         <v>1200</v>
       </c>
-      <c r="I45" s="33">
+      <c r="I45" s="34">
         <f t="shared" ref="I45" si="77">H45-H46+G45</f>
         <v>-300</v>
       </c>
@@ -3395,7 +3408,7 @@
         <f>EPILIBRE_Clôtures!B3</f>
         <v>488.15</v>
       </c>
-      <c r="K45" s="33">
+      <c r="K45" s="34">
         <f t="shared" ref="K45" si="78">J45-J46+I45</f>
         <v>188.14999999999998</v>
       </c>
@@ -3403,7 +3416,7 @@
         <f>EPILIBRE_Clôtures!C3</f>
         <v>0</v>
       </c>
-      <c r="M45" s="33">
+      <c r="M45" s="34">
         <f t="shared" ref="M45" si="79">L45-L46+K45</f>
         <v>188.14999999999998</v>
       </c>
@@ -3411,88 +3424,88 @@
         <f>EPILIBRE_Clôtures!D3</f>
         <v>0</v>
       </c>
-      <c r="O45" s="33">
+      <c r="O45" s="34">
         <f t="shared" ref="O45" si="80">N45-N46+M45</f>
         <v>188.14999999999998</v>
       </c>
       <c r="P45" s="6"/>
-      <c r="Q45" s="33">
+      <c r="Q45" s="34">
         <f>P45-P46+O45</f>
         <v>188.14999999999998</v>
       </c>
       <c r="R45" s="6"/>
-      <c r="S45" s="33">
+      <c r="S45" s="34">
         <f t="shared" ref="S45" si="81">R45-R46+Q45</f>
         <v>-1011.85</v>
       </c>
       <c r="T45" s="6">
         <v>1588.28</v>
       </c>
-      <c r="U45" s="54">
+      <c r="U45" s="46">
         <f t="shared" si="76"/>
         <v>-1192.9000000000001</v>
       </c>
     </row>
     <row r="46" spans="2:21" ht="15.5">
       <c r="B46" s="9"/>
-      <c r="C46" s="37"/>
+      <c r="C46" s="33"/>
       <c r="D46" s="7"/>
-      <c r="E46" s="33"/>
+      <c r="E46" s="34"/>
       <c r="F46" s="7"/>
-      <c r="G46" s="33"/>
+      <c r="G46" s="34"/>
       <c r="H46" s="7">
         <v>1500</v>
       </c>
-      <c r="I46" s="33"/>
+      <c r="I46" s="34"/>
       <c r="J46" s="7">
         <f>EPILIBRE_Clôtures!B6</f>
         <v>0</v>
       </c>
-      <c r="K46" s="33"/>
+      <c r="K46" s="34"/>
       <c r="L46" s="7">
         <f>EPILIBRE_Clôtures!C6</f>
         <v>0</v>
       </c>
-      <c r="M46" s="33"/>
+      <c r="M46" s="34"/>
       <c r="N46" s="7">
         <f>EPILIBRE_Clôtures!D6</f>
         <v>0</v>
       </c>
-      <c r="O46" s="33"/>
+      <c r="O46" s="34"/>
       <c r="P46" s="7">
         <f>F45</f>
         <v>0</v>
       </c>
-      <c r="Q46" s="33"/>
+      <c r="Q46" s="34"/>
       <c r="R46" s="7">
         <f>H45</f>
         <v>1200</v>
       </c>
-      <c r="S46" s="33"/>
+      <c r="S46" s="34"/>
       <c r="T46" s="7">
         <v>1769.33</v>
       </c>
-      <c r="U46" s="54"/>
+      <c r="U46" s="46"/>
     </row>
     <row r="47" spans="2:21" ht="15.5">
       <c r="B47" s="9"/>
-      <c r="C47" s="37" t="s">
+      <c r="C47" s="33" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="6"/>
-      <c r="E47" s="33">
+      <c r="E47" s="34">
         <f>D47-D48</f>
         <v>0</v>
       </c>
       <c r="F47" s="6"/>
-      <c r="G47" s="33">
+      <c r="G47" s="34">
         <f t="shared" ref="G47" si="82">F47-F48+E47</f>
         <v>0</v>
       </c>
       <c r="H47" s="6">
         <v>0</v>
       </c>
-      <c r="I47" s="33">
+      <c r="I47" s="34">
         <f t="shared" ref="I47" si="83">H47-H48+G47</f>
         <v>-300</v>
       </c>
@@ -3500,7 +3513,7 @@
         <f>IE_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K47" s="33">
+      <c r="K47" s="34">
         <f t="shared" ref="K47" si="84">J47-J48+I47</f>
         <v>-300</v>
       </c>
@@ -3508,7 +3521,7 @@
         <f>IE_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M47" s="33">
+      <c r="M47" s="34">
         <f t="shared" ref="M47" si="85">L47-L48+K47</f>
         <v>-300</v>
       </c>
@@ -3516,86 +3529,86 @@
         <f>IE_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O47" s="33">
+      <c r="O47" s="34">
         <f t="shared" ref="O47" si="86">N47-N48+M47</f>
         <v>-300</v>
       </c>
       <c r="P47" s="6"/>
-      <c r="Q47" s="33">
+      <c r="Q47" s="34">
         <f>P47-P48+O47</f>
         <v>-300</v>
       </c>
       <c r="R47" s="6"/>
-      <c r="S47" s="33">
+      <c r="S47" s="34">
         <f t="shared" ref="S47" si="87">R47-R48+Q47</f>
         <v>-300</v>
       </c>
       <c r="T47" s="6">
         <v>71.709999999999994</v>
       </c>
-      <c r="U47" s="33">
+      <c r="U47" s="34">
         <f t="shared" ref="U47" si="88">T47-T48+S47</f>
         <v>-228.29000000000002</v>
       </c>
     </row>
     <row r="48" spans="2:21" ht="15.5">
       <c r="B48" s="9"/>
-      <c r="C48" s="37"/>
+      <c r="C48" s="33"/>
       <c r="D48" s="7"/>
-      <c r="E48" s="33"/>
+      <c r="E48" s="34"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="33"/>
+      <c r="G48" s="34"/>
       <c r="H48" s="7">
         <v>300</v>
       </c>
-      <c r="I48" s="33"/>
+      <c r="I48" s="34"/>
       <c r="J48" s="7">
         <f>IE_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K48" s="33"/>
+      <c r="K48" s="34"/>
       <c r="L48" s="7">
         <f>IE_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M48" s="33"/>
+      <c r="M48" s="34"/>
       <c r="N48" s="7">
         <f>IE_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O48" s="33"/>
+      <c r="O48" s="34"/>
       <c r="P48" s="7">
         <f>F47</f>
         <v>0</v>
       </c>
-      <c r="Q48" s="33"/>
+      <c r="Q48" s="34"/>
       <c r="R48" s="7">
         <f>H47</f>
         <v>0</v>
       </c>
-      <c r="S48" s="33"/>
+      <c r="S48" s="34"/>
       <c r="T48" s="7"/>
-      <c r="U48" s="33"/>
+      <c r="U48" s="34"/>
     </row>
     <row r="49" spans="2:21" ht="15.5">
       <c r="B49" s="9"/>
-      <c r="C49" s="37" t="s">
+      <c r="C49" s="33" t="s">
         <v>29</v>
       </c>
       <c r="D49" s="6"/>
-      <c r="E49" s="33">
+      <c r="E49" s="34">
         <f>D49-D50</f>
         <v>0</v>
       </c>
       <c r="F49" s="6"/>
-      <c r="G49" s="33">
+      <c r="G49" s="34">
         <f t="shared" ref="G49" si="89">F49-F50+E49</f>
         <v>0</v>
       </c>
       <c r="H49" s="6">
         <v>8000</v>
       </c>
-      <c r="I49" s="33">
+      <c r="I49" s="34">
         <f t="shared" ref="I49" si="90">H49-H50+G49</f>
         <v>-2000</v>
       </c>
@@ -3603,7 +3616,7 @@
         <f>LOWTECH_Clôtures!$B$3</f>
         <v>292.47000000000003</v>
       </c>
-      <c r="K49" s="33">
+      <c r="K49" s="34">
         <f t="shared" ref="K49" si="91">J49-J50+I49</f>
         <v>-1721.78</v>
       </c>
@@ -3611,7 +3624,7 @@
         <f>LOWTECH_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M49" s="33">
+      <c r="M49" s="34">
         <f t="shared" ref="M49" si="92">L49-L50+K49</f>
         <v>-1721.78</v>
       </c>
@@ -3619,88 +3632,88 @@
         <f>LOWTECH_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O49" s="33">
+      <c r="O49" s="34">
         <f t="shared" ref="O49" si="93">N49-N50+M49</f>
         <v>-1721.78</v>
       </c>
       <c r="P49" s="6"/>
-      <c r="Q49" s="33">
+      <c r="Q49" s="34">
         <f>P49-P50+O49</f>
         <v>-1721.78</v>
       </c>
       <c r="R49" s="6"/>
-      <c r="S49" s="33">
+      <c r="S49" s="34">
         <f t="shared" ref="S49" si="94">R49-R50+Q49</f>
         <v>-9721.7800000000007</v>
       </c>
       <c r="T49" s="6">
         <v>292.47000000000003</v>
       </c>
-      <c r="U49" s="33">
+      <c r="U49" s="34">
         <f t="shared" ref="U49" si="95">T49-T50+S49</f>
         <v>-9711.7100000000009</v>
       </c>
     </row>
     <row r="50" spans="2:21" ht="15.5">
       <c r="B50" s="9"/>
-      <c r="C50" s="37"/>
+      <c r="C50" s="33"/>
       <c r="D50" s="7"/>
-      <c r="E50" s="33"/>
+      <c r="E50" s="34"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="33"/>
+      <c r="G50" s="34"/>
       <c r="H50" s="7">
         <v>10000</v>
       </c>
-      <c r="I50" s="33"/>
+      <c r="I50" s="34"/>
       <c r="J50" s="7">
         <f>LOWTECH_Clôtures!$B$5</f>
         <v>14.25</v>
       </c>
-      <c r="K50" s="33"/>
+      <c r="K50" s="34"/>
       <c r="L50" s="7">
         <f>LOWTECH_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M50" s="33"/>
+      <c r="M50" s="34"/>
       <c r="N50" s="7">
         <f>LOWTECH_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O50" s="33"/>
+      <c r="O50" s="34"/>
       <c r="P50" s="7">
         <f>F49</f>
         <v>0</v>
       </c>
-      <c r="Q50" s="33"/>
+      <c r="Q50" s="34"/>
       <c r="R50" s="7">
         <f>H49</f>
         <v>8000</v>
       </c>
-      <c r="S50" s="33"/>
+      <c r="S50" s="34"/>
       <c r="T50" s="7">
         <v>282.39999999999998</v>
       </c>
-      <c r="U50" s="33"/>
+      <c r="U50" s="34"/>
     </row>
     <row r="51" spans="2:21" ht="15.5">
       <c r="B51" s="9"/>
-      <c r="C51" s="37" t="s">
+      <c r="C51" s="33" t="s">
         <v>24</v>
       </c>
       <c r="D51" s="6"/>
-      <c r="E51" s="33">
+      <c r="E51" s="34">
         <f>D51-D52</f>
         <v>0</v>
       </c>
       <c r="F51" s="6"/>
-      <c r="G51" s="33">
+      <c r="G51" s="34">
         <f t="shared" ref="G51" si="96">F51-F52+E51</f>
         <v>0</v>
       </c>
       <c r="H51" s="6">
         <v>0</v>
       </c>
-      <c r="I51" s="33">
+      <c r="I51" s="34">
         <f t="shared" ref="I51" si="97">H51-H52+G51</f>
         <v>-1050</v>
       </c>
@@ -3708,7 +3721,7 @@
         <f>JARDIN_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="33">
+      <c r="K51" s="34">
         <f t="shared" ref="K51" si="98">J51-J52+I51</f>
         <v>-1100</v>
       </c>
@@ -3716,7 +3729,7 @@
         <f>JARDIN_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M51" s="33">
+      <c r="M51" s="34">
         <f t="shared" ref="M51" si="99">L51-L52+K51</f>
         <v>-1100</v>
       </c>
@@ -3724,180 +3737,186 @@
         <f>JARDIN_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O51" s="33">
+      <c r="O51" s="34">
         <f t="shared" ref="O51" si="100">N51-N52+M51</f>
         <v>-1100</v>
       </c>
       <c r="P51" s="6"/>
-      <c r="Q51" s="33">
+      <c r="Q51" s="34">
         <f>P51-P52+O51</f>
         <v>-1100</v>
       </c>
       <c r="R51" s="6"/>
-      <c r="S51" s="33">
+      <c r="S51" s="34">
         <f t="shared" ref="S51" si="101">R51-R52+Q51</f>
         <v>-1100</v>
       </c>
       <c r="T51" s="6">
         <v>1022.8</v>
       </c>
-      <c r="U51" s="33">
+      <c r="U51" s="34">
         <f t="shared" ref="U51" si="102">T51-T52+S51</f>
         <v>-289.20000000000005</v>
       </c>
     </row>
     <row r="52" spans="2:21" ht="15.5">
       <c r="B52" s="9"/>
-      <c r="C52" s="37"/>
+      <c r="C52" s="33"/>
       <c r="D52" s="7"/>
-      <c r="E52" s="33"/>
+      <c r="E52" s="34"/>
       <c r="F52" s="7"/>
-      <c r="G52" s="33"/>
+      <c r="G52" s="34"/>
       <c r="H52" s="7">
         <v>1050</v>
       </c>
-      <c r="I52" s="33"/>
+      <c r="I52" s="34"/>
       <c r="J52" s="7">
         <f>JARDIN_Clôtures!$B$5</f>
         <v>50</v>
       </c>
-      <c r="K52" s="33"/>
+      <c r="K52" s="34"/>
       <c r="L52" s="7">
         <f>JARDIN_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M52" s="33"/>
+      <c r="M52" s="34"/>
       <c r="N52" s="7">
         <f>JARDIN_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O52" s="33"/>
+      <c r="O52" s="34"/>
       <c r="P52" s="7">
         <f>F51</f>
         <v>0</v>
       </c>
-      <c r="Q52" s="33"/>
+      <c r="Q52" s="34"/>
       <c r="R52" s="7">
         <f>H51</f>
         <v>0</v>
       </c>
-      <c r="S52" s="33"/>
+      <c r="S52" s="34"/>
       <c r="T52" s="7">
         <v>212</v>
       </c>
-      <c r="U52" s="33"/>
+      <c r="U52" s="34"/>
     </row>
     <row r="53" spans="2:21" ht="15.5">
       <c r="B53" s="9"/>
-      <c r="C53" s="37" t="s">
+      <c r="C53" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="6"/>
-      <c r="E53" s="33">
+      <c r="E53" s="34">
         <f>D53-D54</f>
         <v>0</v>
       </c>
       <c r="F53" s="6"/>
-      <c r="G53" s="33">
+      <c r="G53" s="34">
         <f t="shared" ref="G53" si="103">F53-F54+E53</f>
         <v>0</v>
       </c>
       <c r="H53" s="6">
         <v>0</v>
       </c>
-      <c r="I53" s="33">
+      <c r="I53" s="34">
         <f t="shared" ref="I53" si="104">H53-H54+G53</f>
         <v>-180</v>
       </c>
-      <c r="J53" s="6"/>
-      <c r="K53" s="33">
+      <c r="J53" s="6">
+        <v>0</v>
+      </c>
+      <c r="K53" s="34">
         <f t="shared" ref="K53" si="105">J53-J54+I53</f>
         <v>-180</v>
       </c>
-      <c r="L53" s="6"/>
-      <c r="M53" s="33">
+      <c r="L53" s="6">
+        <v>0</v>
+      </c>
+      <c r="M53" s="34">
         <f t="shared" ref="M53" si="106">L53-L54+K53</f>
         <v>-180</v>
       </c>
-      <c r="N53" s="6"/>
-      <c r="O53" s="33">
+      <c r="N53" s="6">
+        <v>0</v>
+      </c>
+      <c r="O53" s="34">
         <f t="shared" ref="O53" si="107">N53-N54+M53</f>
         <v>-180</v>
       </c>
       <c r="P53" s="6"/>
-      <c r="Q53" s="33">
+      <c r="Q53" s="34">
         <f>P53-P54+O53</f>
         <v>-180</v>
       </c>
       <c r="R53" s="6"/>
-      <c r="S53" s="33">
+      <c r="S53" s="34">
         <f t="shared" ref="S53" si="108">R53-R54+Q53</f>
         <v>-180</v>
       </c>
       <c r="T53" s="6">
         <v>1456.25</v>
       </c>
-      <c r="U53" s="33">
+      <c r="U53" s="34">
         <f t="shared" ref="U53" si="109">T53-T54+S53</f>
         <v>1276.25</v>
       </c>
     </row>
     <row r="54" spans="2:21" ht="15.5">
       <c r="B54" s="9"/>
-      <c r="C54" s="37"/>
+      <c r="C54" s="33"/>
       <c r="D54" s="7"/>
-      <c r="E54" s="33"/>
+      <c r="E54" s="34"/>
       <c r="F54" s="7"/>
-      <c r="G54" s="33"/>
+      <c r="G54" s="34"/>
       <c r="H54" s="7">
         <v>180</v>
       </c>
-      <c r="I54" s="33"/>
+      <c r="I54" s="34"/>
       <c r="J54" s="7">
         <f>MEUBLE_Clôtures!$B$4</f>
         <v>0</v>
       </c>
-      <c r="K54" s="33"/>
+      <c r="K54" s="34"/>
       <c r="L54" s="7">
         <f>MEUBLE_Clôtures!$C$4</f>
         <v>0</v>
       </c>
-      <c r="M54" s="33"/>
+      <c r="M54" s="34"/>
       <c r="N54" s="7">
         <f>MEUBLE_Clôtures!$D$4</f>
         <v>0</v>
       </c>
-      <c r="O54" s="33"/>
+      <c r="O54" s="34"/>
       <c r="P54" s="7">
         <f>F53</f>
         <v>0</v>
       </c>
-      <c r="Q54" s="33"/>
+      <c r="Q54" s="34"/>
       <c r="R54" s="7">
         <f>H53</f>
         <v>0</v>
       </c>
-      <c r="S54" s="33"/>
+      <c r="S54" s="34"/>
       <c r="T54" s="7"/>
-      <c r="U54" s="33"/>
+      <c r="U54" s="34"/>
     </row>
     <row r="55" spans="2:21" ht="15.5">
       <c r="B55" s="9"/>
-      <c r="C55" s="37"/>
+      <c r="C55" s="33"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="33">
+      <c r="E55" s="34">
         <f>D55-D56</f>
         <v>0</v>
       </c>
       <c r="F55" s="6"/>
-      <c r="G55" s="33">
+      <c r="G55" s="34">
         <f t="shared" ref="G55" si="110">F55-F56+E55</f>
         <v>0</v>
       </c>
       <c r="H55" s="6">
         <v>1630</v>
       </c>
-      <c r="I55" s="33">
+      <c r="I55" s="34">
         <f t="shared" ref="I55" si="111">H55-H56+G55</f>
         <v>-310</v>
       </c>
@@ -3905,7 +3924,7 @@
         <f>MEUBLE_Clôtures!$B$2</f>
         <v>0</v>
       </c>
-      <c r="K55" s="33">
+      <c r="K55" s="34">
         <f t="shared" ref="K55" si="112">J55-J56+I55</f>
         <v>-310</v>
       </c>
@@ -3913,7 +3932,7 @@
         <f>MEUBLE_Clôtures!$C$2</f>
         <v>0</v>
       </c>
-      <c r="M55" s="33">
+      <c r="M55" s="34">
         <f t="shared" ref="M55" si="113">L55-L56+K55</f>
         <v>-310</v>
       </c>
@@ -3921,285 +3940,290 @@
         <f>MEUBLE_Clôtures!$D$2</f>
         <v>0</v>
       </c>
-      <c r="O55" s="33">
+      <c r="O55" s="34">
         <f t="shared" ref="O55" si="114">N55-N56+M55</f>
         <v>-310</v>
       </c>
       <c r="P55" s="6"/>
-      <c r="Q55" s="33">
+      <c r="Q55" s="34">
         <f>P55-P56+O55</f>
         <v>-310</v>
       </c>
       <c r="R55" s="6"/>
-      <c r="S55" s="33">
+      <c r="S55" s="34">
         <f t="shared" ref="S55" si="115">R55-R56+Q55</f>
         <v>-1940</v>
       </c>
       <c r="T55" s="6">
         <v>1545</v>
       </c>
-      <c r="U55" s="33">
+      <c r="U55" s="34">
         <f t="shared" ref="U55" si="116">T55-T56+S55</f>
         <v>-1024.2</v>
       </c>
     </row>
     <row r="56" spans="2:21" ht="15.5">
       <c r="B56" s="9"/>
-      <c r="C56" s="37"/>
+      <c r="C56" s="33"/>
       <c r="D56" s="7"/>
-      <c r="E56" s="33"/>
+      <c r="E56" s="34"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="33"/>
+      <c r="G56" s="34"/>
       <c r="H56" s="7">
         <v>1940</v>
       </c>
-      <c r="I56" s="33"/>
+      <c r="I56" s="34"/>
       <c r="J56" s="7">
         <f>MEUBLE_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K56" s="33"/>
+      <c r="K56" s="34"/>
       <c r="L56" s="7">
         <f>MEUBLE_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M56" s="33"/>
+      <c r="M56" s="34"/>
       <c r="N56" s="7">
         <f>MEUBLE_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O56" s="33"/>
+      <c r="O56" s="34"/>
       <c r="P56" s="7">
         <f>F55</f>
         <v>0</v>
       </c>
-      <c r="Q56" s="33"/>
+      <c r="Q56" s="34"/>
       <c r="R56" s="7">
         <f>H55</f>
         <v>1630</v>
       </c>
-      <c r="S56" s="33"/>
+      <c r="S56" s="34"/>
       <c r="T56" s="7">
         <v>629.20000000000005</v>
       </c>
-      <c r="U56" s="33"/>
+      <c r="U56" s="34"/>
     </row>
     <row r="57" spans="2:21" ht="15.5">
       <c r="B57" s="9"/>
-      <c r="C57" s="37" t="s">
+      <c r="C57" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D57" s="6"/>
-      <c r="E57" s="33">
+      <c r="E57" s="34">
         <f>D57-D58</f>
         <v>0</v>
       </c>
       <c r="F57" s="6"/>
-      <c r="G57" s="33">
+      <c r="G57" s="34">
         <f t="shared" ref="G57" si="117">F57-F58+E57</f>
         <v>0</v>
       </c>
       <c r="H57" s="6">
         <v>10000</v>
       </c>
-      <c r="I57" s="33">
+      <c r="I57" s="34">
         <f t="shared" ref="I57" si="118">H57-H58+G57</f>
         <v>0</v>
       </c>
-      <c r="J57" s="6">
-        <f>DUDU_Clôtures!$B$3</f>
-        <v>0</v>
-      </c>
-      <c r="K57" s="33">
+      <c r="J57" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="K57" s="34" t="e">
         <f t="shared" ref="K57" si="119">J57-J58+I57</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L57" s="6">
         <f>DUDU_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M57" s="33">
+      <c r="M57" s="34" t="e">
         <f t="shared" ref="M57" si="120">L57-L58+K57</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="N57" s="6">
         <f>DUDU_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O57" s="33">
+      <c r="O57" s="34" t="e">
         <f t="shared" ref="O57" si="121">N57-N58+M57</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="P57" s="6"/>
-      <c r="Q57" s="33">
+      <c r="Q57" s="34" t="e">
         <f>P57-P58+O57</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="R57" s="6"/>
-      <c r="S57" s="33">
+      <c r="S57" s="34" t="e">
         <f t="shared" ref="S57" si="122">R57-R58+Q57</f>
-        <v>-10000</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T57" s="6">
         <v>6506.55</v>
       </c>
-      <c r="U57" s="33">
+      <c r="U57" s="34" t="e">
         <f t="shared" ref="U57" si="123">T57-T58+S57</f>
-        <v>-10000</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="58" spans="2:21" ht="15.5">
       <c r="B58" s="9"/>
-      <c r="C58" s="37"/>
+      <c r="C58" s="33"/>
       <c r="D58" s="7"/>
-      <c r="E58" s="33"/>
+      <c r="E58" s="34"/>
       <c r="F58" s="7"/>
-      <c r="G58" s="33"/>
+      <c r="G58" s="34"/>
       <c r="H58" s="7">
         <v>10000</v>
       </c>
-      <c r="I58" s="33"/>
+      <c r="I58" s="34"/>
       <c r="J58" s="7">
         <f>DUDU_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K58" s="33"/>
+      <c r="K58" s="34"/>
       <c r="L58" s="7">
         <f>DUDU_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M58" s="33"/>
+      <c r="M58" s="34"/>
       <c r="N58" s="7">
         <f>DUDU_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O58" s="33"/>
+      <c r="O58" s="34"/>
       <c r="P58" s="7">
         <f>F57</f>
         <v>0</v>
       </c>
-      <c r="Q58" s="33"/>
+      <c r="Q58" s="34"/>
       <c r="R58" s="7">
         <f>H57</f>
         <v>10000</v>
       </c>
-      <c r="S58" s="33"/>
+      <c r="S58" s="34"/>
       <c r="T58" s="7">
         <v>6506.55</v>
       </c>
-      <c r="U58" s="33"/>
+      <c r="U58" s="34"/>
     </row>
     <row r="59" spans="2:21" ht="15.5" customHeight="1">
       <c r="B59" s="10"/>
-      <c r="C59" s="37" t="s">
+      <c r="C59" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D59" s="6"/>
-      <c r="E59" s="33">
+      <c r="E59" s="34">
         <f>D59-D60</f>
         <v>0</v>
       </c>
       <c r="F59" s="6"/>
-      <c r="G59" s="33">
+      <c r="G59" s="34">
         <f t="shared" ref="G59" si="124">F59-F60+E59</f>
         <v>0</v>
       </c>
       <c r="H59" s="6">
         <v>500</v>
       </c>
-      <c r="I59" s="33">
+      <c r="I59" s="34">
         <f>H59-H60+G59</f>
         <v>-6530</v>
       </c>
-      <c r="J59" s="6"/>
-      <c r="K59" s="33">
+      <c r="J59" s="6">
+        <v>0</v>
+      </c>
+      <c r="K59" s="34">
         <f t="shared" ref="K59" si="125">J59-J60+I59</f>
         <v>-6530</v>
       </c>
-      <c r="L59" s="6"/>
-      <c r="M59" s="33">
+      <c r="L59" s="6">
+        <v>0</v>
+      </c>
+      <c r="M59" s="34">
         <f t="shared" ref="M59" si="126">L59-L60+K59</f>
         <v>-6530</v>
       </c>
-      <c r="N59" s="6"/>
-      <c r="O59" s="33">
+      <c r="N59" s="6">
+        <v>0</v>
+      </c>
+      <c r="O59" s="34">
         <f t="shared" ref="O59" si="127">N59-N60+M59</f>
         <v>-6530</v>
       </c>
       <c r="P59" s="6"/>
-      <c r="Q59" s="33">
+      <c r="Q59" s="34">
         <f>P59-P60+O59</f>
         <v>-6530</v>
       </c>
       <c r="R59" s="6"/>
-      <c r="S59" s="33">
+      <c r="S59" s="34">
         <f>R59-R60+Q59</f>
         <v>-7030</v>
       </c>
       <c r="T59" s="6">
         <v>1576.53</v>
       </c>
-      <c r="U59" s="33">
+      <c r="U59" s="34">
         <f t="shared" ref="U59" si="128">T59-T60+S59</f>
         <v>-5453.47</v>
       </c>
     </row>
     <row r="60" spans="2:21" ht="15.5" customHeight="1">
       <c r="B60" s="10"/>
-      <c r="C60" s="37"/>
+      <c r="C60" s="33"/>
       <c r="D60" s="7"/>
-      <c r="E60" s="33"/>
+      <c r="E60" s="34"/>
       <c r="F60" s="7"/>
-      <c r="G60" s="33"/>
+      <c r="G60" s="34"/>
       <c r="H60" s="7">
         <v>7030</v>
       </c>
-      <c r="I60" s="33"/>
+      <c r="I60" s="34"/>
       <c r="J60" s="7">
         <f>UPFL_Clôtures!$B$4</f>
         <v>0</v>
       </c>
-      <c r="K60" s="33"/>
+      <c r="K60" s="34"/>
       <c r="L60" s="7">
         <f>UPFL_Clôtures!$C$4</f>
         <v>0</v>
       </c>
-      <c r="M60" s="33"/>
+      <c r="M60" s="34"/>
       <c r="N60" s="7">
         <f>UPFL_Clôtures!$D$4</f>
         <v>0</v>
       </c>
-      <c r="O60" s="33"/>
+      <c r="O60" s="34"/>
       <c r="P60" s="7">
         <f>F59</f>
         <v>0</v>
       </c>
-      <c r="Q60" s="33"/>
+      <c r="Q60" s="34"/>
       <c r="R60" s="7">
         <f>H59</f>
         <v>500</v>
       </c>
-      <c r="S60" s="33"/>
+      <c r="S60" s="34"/>
       <c r="T60" s="7"/>
-      <c r="U60" s="33"/>
+      <c r="U60" s="34"/>
     </row>
     <row r="61" spans="2:21" ht="15.5" customHeight="1">
       <c r="B61" s="10"/>
-      <c r="C61" s="37"/>
+      <c r="C61" s="33"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="33">
+      <c r="E61" s="34">
         <f>D61-D62</f>
         <v>0</v>
       </c>
       <c r="F61" s="6"/>
-      <c r="G61" s="33">
+      <c r="G61" s="34">
         <f>F61-F62+E61</f>
         <v>0</v>
       </c>
       <c r="H61" s="6">
         <v>2600</v>
       </c>
-      <c r="I61" s="33">
+      <c r="I61" s="34">
         <f>H61-H62+G61</f>
         <v>2600</v>
       </c>
@@ -4207,7 +4231,7 @@
         <f>UPFL_Clôtures!$B$2</f>
         <v>0</v>
       </c>
-      <c r="K61" s="33">
+      <c r="K61" s="34">
         <f>J61-J62+I61</f>
         <v>2600</v>
       </c>
@@ -4215,7 +4239,7 @@
         <f>UPFL_Clôtures!$C$2</f>
         <v>0</v>
       </c>
-      <c r="M61" s="33">
+      <c r="M61" s="34">
         <f>L61-L62+K61</f>
         <v>2600</v>
       </c>
@@ -4223,93 +4247,93 @@
         <f>UPFL_Clôtures!$D$2</f>
         <v>0</v>
       </c>
-      <c r="O61" s="33">
+      <c r="O61" s="34">
         <f>N61-N62+M61</f>
         <v>2600</v>
       </c>
       <c r="P61" s="6"/>
-      <c r="Q61" s="33">
+      <c r="Q61" s="34">
         <f>P61-P62+O61</f>
         <v>2600</v>
       </c>
       <c r="R61" s="6"/>
-      <c r="S61" s="33">
+      <c r="S61" s="34">
         <f>R61-R62+Q61</f>
         <v>0</v>
       </c>
       <c r="T61" s="6"/>
-      <c r="U61" s="33">
+      <c r="U61" s="34">
         <f>T61-T62+S61</f>
         <v>-2214.67</v>
       </c>
     </row>
     <row r="62" spans="2:21" ht="15.5" customHeight="1">
       <c r="B62" s="10"/>
-      <c r="C62" s="37"/>
+      <c r="C62" s="33"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="33"/>
+      <c r="E62" s="34"/>
       <c r="F62" s="6"/>
-      <c r="G62" s="33"/>
+      <c r="G62" s="34"/>
       <c r="H62" s="7">
         <v>0</v>
       </c>
-      <c r="I62" s="33"/>
+      <c r="I62" s="34"/>
       <c r="J62" s="7">
         <f>UPFL_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K62" s="33"/>
+      <c r="K62" s="34"/>
       <c r="L62" s="7">
         <f>UPFL_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M62" s="33"/>
+      <c r="M62" s="34"/>
       <c r="N62" s="7">
         <f>UPFL_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O62" s="33"/>
+      <c r="O62" s="34"/>
       <c r="P62" s="7">
         <f>F61</f>
         <v>0</v>
       </c>
-      <c r="Q62" s="33"/>
+      <c r="Q62" s="34"/>
       <c r="R62" s="7">
         <f>H61</f>
         <v>2600</v>
       </c>
-      <c r="S62" s="33"/>
+      <c r="S62" s="34"/>
       <c r="T62" s="7">
         <v>2214.67</v>
       </c>
-      <c r="U62" s="33"/>
+      <c r="U62" s="34"/>
     </row>
     <row r="63" spans="2:21" ht="15.5">
       <c r="B63" s="9"/>
-      <c r="C63" s="37" t="s">
+      <c r="C63" s="33" t="s">
         <v>94</v>
       </c>
       <c r="D63" s="6"/>
-      <c r="E63" s="33">
+      <c r="E63" s="34">
         <f>D63-D64</f>
         <v>0</v>
       </c>
       <c r="F63" s="6"/>
-      <c r="G63" s="33">
+      <c r="G63" s="34">
         <f>F63-F64+E63</f>
         <v>0</v>
       </c>
       <c r="H63" s="6">
         <v>0</v>
       </c>
-      <c r="I63" s="33">
+      <c r="I63" s="34">
         <f>H63-H64+G63</f>
         <v>-2000</v>
       </c>
       <c r="J63" s="6">
         <v>5</v>
       </c>
-      <c r="K63" s="33">
+      <c r="K63" s="34">
         <f>J63-J64+I63</f>
         <v>-2103.16</v>
       </c>
@@ -4317,7 +4341,7 @@
         <f>FNR_Clôtures!$C$2</f>
         <v>0</v>
       </c>
-      <c r="M63" s="33">
+      <c r="M63" s="34">
         <f>L63-L64+K63</f>
         <v>-2103.16</v>
       </c>
@@ -4325,94 +4349,94 @@
         <f>FNR_Clôtures!$D$2</f>
         <v>0</v>
       </c>
-      <c r="O63" s="33">
+      <c r="O63" s="34">
         <f>N63-N64+M63</f>
         <v>-2103.16</v>
       </c>
       <c r="P63" s="6"/>
-      <c r="Q63" s="33">
+      <c r="Q63" s="34">
         <f>P63-P64+O63</f>
         <v>-2103.16</v>
       </c>
       <c r="R63" s="6"/>
-      <c r="S63" s="33">
+      <c r="S63" s="34">
         <f t="shared" ref="S63" si="129">R63-R64+Q63</f>
         <v>-2103.16</v>
       </c>
       <c r="T63" s="6">
         <v>720.75</v>
       </c>
-      <c r="U63" s="33">
+      <c r="U63" s="34">
         <f>T63-T64+S63</f>
         <v>-1457.0099999999998</v>
       </c>
     </row>
     <row r="64" spans="2:21" ht="15.5">
       <c r="B64" s="9"/>
-      <c r="C64" s="37"/>
+      <c r="C64" s="33"/>
       <c r="D64" s="7"/>
-      <c r="E64" s="33"/>
+      <c r="E64" s="34"/>
       <c r="F64" s="7"/>
-      <c r="G64" s="33"/>
+      <c r="G64" s="34"/>
       <c r="H64" s="7">
         <v>2000</v>
       </c>
-      <c r="I64" s="33"/>
+      <c r="I64" s="34"/>
       <c r="J64" s="7">
         <v>108.16</v>
       </c>
-      <c r="K64" s="33"/>
+      <c r="K64" s="34"/>
       <c r="L64" s="7">
         <f>FNR_Clôtures!$C$4</f>
         <v>0</v>
       </c>
-      <c r="M64" s="33"/>
+      <c r="M64" s="34"/>
       <c r="N64" s="7">
         <f>FNR_Clôtures!$D$4</f>
         <v>0</v>
       </c>
-      <c r="O64" s="33"/>
+      <c r="O64" s="34"/>
       <c r="P64" s="7">
         <f>F63</f>
         <v>0</v>
       </c>
-      <c r="Q64" s="33"/>
+      <c r="Q64" s="34"/>
       <c r="R64" s="7">
         <f>H63</f>
         <v>0</v>
       </c>
-      <c r="S64" s="33"/>
+      <c r="S64" s="34"/>
       <c r="T64" s="7">
         <v>74.599999999999994</v>
       </c>
-      <c r="U64" s="33"/>
+      <c r="U64" s="34"/>
     </row>
     <row r="65" spans="2:21" ht="15.5">
       <c r="B65" s="9"/>
-      <c r="C65" s="37" t="s">
+      <c r="C65" s="33" t="s">
         <v>89</v>
       </c>
       <c r="D65" s="6"/>
-      <c r="E65" s="33">
+      <c r="E65" s="34">
         <f>D65-D66</f>
         <v>0</v>
       </c>
       <c r="F65" s="6"/>
-      <c r="G65" s="33">
+      <c r="G65" s="34">
         <f>F65-F66+E65</f>
         <v>0</v>
       </c>
       <c r="H65" s="6">
         <v>0</v>
       </c>
-      <c r="I65" s="33">
+      <c r="I65" s="34">
         <f>H65-H66+G65</f>
         <v>0</v>
       </c>
       <c r="J65" s="6">
         <v>15.1</v>
       </c>
-      <c r="K65" s="33">
+      <c r="K65" s="34">
         <f>J65-J66+I65</f>
         <v>0</v>
       </c>
@@ -4420,7 +4444,7 @@
         <f>REBUILT_Clôtures!$C$2</f>
         <v>0</v>
       </c>
-      <c r="M65" s="33">
+      <c r="M65" s="34">
         <f>L65-L66+K65</f>
         <v>0</v>
       </c>
@@ -4428,173 +4452,415 @@
         <f>REBUILT_Clôtures!$D$2</f>
         <v>0</v>
       </c>
-      <c r="O65" s="33">
+      <c r="O65" s="34">
         <f>N65-N66+M65</f>
         <v>0</v>
       </c>
       <c r="P65" s="6"/>
-      <c r="Q65" s="33">
+      <c r="Q65" s="34">
         <f>P65-P66+O65</f>
         <v>0</v>
       </c>
       <c r="R65" s="6"/>
-      <c r="S65" s="33">
+      <c r="S65" s="34">
         <f t="shared" ref="S65" si="130">R65-R66+Q65</f>
         <v>0</v>
       </c>
       <c r="T65" s="6">
         <v>720.75</v>
       </c>
-      <c r="U65" s="33">
+      <c r="U65" s="34">
         <f>T65-T66+S65</f>
         <v>646.15</v>
       </c>
     </row>
     <row r="66" spans="2:21" ht="15.5">
       <c r="B66" s="9"/>
-      <c r="C66" s="37"/>
+      <c r="C66" s="36"/>
       <c r="D66" s="7"/>
-      <c r="E66" s="33"/>
+      <c r="E66" s="34"/>
       <c r="F66" s="7"/>
-      <c r="G66" s="33"/>
+      <c r="G66" s="34"/>
       <c r="H66" s="7">
         <v>0</v>
       </c>
-      <c r="I66" s="33"/>
+      <c r="I66" s="43"/>
       <c r="J66" s="7">
         <v>15.1</v>
       </c>
-      <c r="K66" s="33"/>
+      <c r="K66" s="43"/>
       <c r="L66" s="7">
         <f>REBUILT_Clôtures!$C$4</f>
         <v>0</v>
       </c>
-      <c r="M66" s="33"/>
+      <c r="M66" s="34"/>
       <c r="N66" s="7">
         <f>REBUILT_Clôtures!$D$4</f>
         <v>0</v>
       </c>
-      <c r="O66" s="33"/>
+      <c r="O66" s="34"/>
       <c r="P66" s="7">
         <f>F65</f>
         <v>0</v>
       </c>
-      <c r="Q66" s="33"/>
+      <c r="Q66" s="34"/>
       <c r="R66" s="7">
         <f>H65</f>
         <v>0</v>
       </c>
-      <c r="S66" s="33"/>
+      <c r="S66" s="34"/>
       <c r="T66" s="7">
         <v>74.599999999999994</v>
       </c>
-      <c r="U66" s="33"/>
+      <c r="U66" s="34"/>
     </row>
     <row r="67" spans="2:21" ht="14" customHeight="1">
-      <c r="B67" s="50" t="s">
+      <c r="B67" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C67" s="51"/>
-      <c r="D67" s="35">
+      <c r="C67" s="48"/>
+      <c r="D67" s="37">
         <f>E5+E7+E31</f>
         <v>0</v>
       </c>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35">
+      <c r="E67" s="37"/>
+      <c r="F67" s="37">
         <f>G5+G7+G31</f>
         <v>0</v>
       </c>
-      <c r="G67" s="35"/>
-      <c r="H67" s="35">
+      <c r="G67" s="37"/>
+      <c r="H67" s="37">
         <f>I5+I7+I31</f>
         <v>-33956</v>
       </c>
-      <c r="I67" s="35"/>
-      <c r="J67" s="35">
+      <c r="I67" s="37"/>
+      <c r="J67" s="37" t="e">
         <f>K5+K7+K31</f>
-        <v>-33008.74</v>
-      </c>
-      <c r="K67" s="35"/>
-      <c r="L67" s="35">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K67" s="37"/>
+      <c r="L67" s="37" t="e">
         <f>M5+M7+M31</f>
-        <v>-33008.74</v>
-      </c>
-      <c r="M67" s="35"/>
-      <c r="N67" s="35">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M67" s="37"/>
+      <c r="N67" s="37" t="e">
         <f>O5+O7+O31</f>
-        <v>-33008.74</v>
-      </c>
-      <c r="O67" s="35"/>
-      <c r="P67" s="35">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O67" s="37"/>
+      <c r="P67" s="37" t="e">
         <f>Q5+Q7+Q31</f>
-        <v>-33008.74</v>
-      </c>
-      <c r="Q67" s="35"/>
-      <c r="R67" s="35">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q67" s="37"/>
+      <c r="R67" s="37" t="e">
         <f>S5+S7+S31</f>
-        <v>-33008.740000000005</v>
-      </c>
-      <c r="S67" s="35"/>
-      <c r="T67" s="35">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S67" s="37"/>
+      <c r="T67" s="37" t="e">
         <f>U5+U7+U31</f>
-        <v>-32362.590000000004</v>
-      </c>
-      <c r="U67" s="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U67" s="37"/>
     </row>
     <row r="68" spans="2:21" ht="14.4" customHeight="1">
-      <c r="B68" s="52"/>
-      <c r="C68" s="53"/>
-      <c r="D68" s="36"/>
-      <c r="E68" s="36"/>
-      <c r="F68" s="36"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="36"/>
-      <c r="I68" s="36"/>
-      <c r="J68" s="36"/>
-      <c r="K68" s="36"/>
-      <c r="L68" s="36"/>
-      <c r="M68" s="36"/>
-      <c r="N68" s="36"/>
-      <c r="O68" s="36"/>
-      <c r="P68" s="36"/>
-      <c r="Q68" s="36"/>
-      <c r="R68" s="36"/>
-      <c r="S68" s="36"/>
-      <c r="T68" s="36"/>
-      <c r="U68" s="36"/>
+      <c r="B68" s="49"/>
+      <c r="C68" s="50"/>
+      <c r="D68" s="38"/>
+      <c r="E68" s="38"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="38"/>
+      <c r="H68" s="38"/>
+      <c r="I68" s="38"/>
+      <c r="J68" s="38"/>
+      <c r="K68" s="38"/>
+      <c r="L68" s="38"/>
+      <c r="M68" s="38"/>
+      <c r="N68" s="38"/>
+      <c r="O68" s="38"/>
+      <c r="P68" s="38"/>
+      <c r="Q68" s="38"/>
+      <c r="R68" s="38"/>
+      <c r="S68" s="38"/>
+      <c r="T68" s="38"/>
+      <c r="U68" s="38"/>
     </row>
     <row r="69" spans="2:21"/>
     <row r="70" spans="2:21"/>
   </sheetData>
   <mergeCells count="327">
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="O63:O64"/>
-    <mergeCell ref="S63:S64"/>
-    <mergeCell ref="U63:U64"/>
-    <mergeCell ref="U29:U30"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="O65:O66"/>
-    <mergeCell ref="Q65:Q66"/>
-    <mergeCell ref="S65:S66"/>
-    <mergeCell ref="U65:U66"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="S29:S30"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="N67:O68"/>
+    <mergeCell ref="T67:U68"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B31:C32"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="U39:U40"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="M61:M62"/>
+    <mergeCell ref="M57:M58"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="B67:C68"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="J67:K68"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="H67:I68"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="L67:M68"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="U21:U22"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="U31:U32"/>
+    <mergeCell ref="U33:U34"/>
+    <mergeCell ref="U35:U36"/>
+    <mergeCell ref="U37:U38"/>
+    <mergeCell ref="U41:U42"/>
+    <mergeCell ref="U43:U44"/>
+    <mergeCell ref="U45:U46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="O61:O62"/>
+    <mergeCell ref="U61:U62"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="U49:U50"/>
+    <mergeCell ref="U47:U48"/>
+    <mergeCell ref="U51:U52"/>
+    <mergeCell ref="U53:U54"/>
+    <mergeCell ref="U55:U56"/>
+    <mergeCell ref="U57:U58"/>
+    <mergeCell ref="U59:U60"/>
+    <mergeCell ref="O59:O60"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="O57:O58"/>
+    <mergeCell ref="Q53:Q54"/>
+    <mergeCell ref="Q55:Q56"/>
+    <mergeCell ref="Q57:Q58"/>
+    <mergeCell ref="Q59:Q60"/>
+    <mergeCell ref="Q61:Q62"/>
+    <mergeCell ref="S61:S62"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F67:G68"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="D67:E68"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="P67:Q68"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="Q47:Q48"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="Q31:Q32"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="Q37:Q38"/>
+    <mergeCell ref="Q39:Q40"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="S39:S40"/>
+    <mergeCell ref="S41:S42"/>
     <mergeCell ref="Q11:Q12"/>
     <mergeCell ref="O11:O12"/>
     <mergeCell ref="Q63:Q64"/>
@@ -4619,281 +4885,39 @@
     <mergeCell ref="S37:S38"/>
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="S5:S6"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="Q47:Q48"/>
-    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="U29:U30"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="Q65:Q66"/>
+    <mergeCell ref="S65:S66"/>
+    <mergeCell ref="U65:U66"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="S29:S30"/>
     <mergeCell ref="Q51:Q52"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="Q31:Q32"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="Q37:Q38"/>
-    <mergeCell ref="Q39:Q40"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="S39:S40"/>
-    <mergeCell ref="S41:S42"/>
-    <mergeCell ref="P67:Q68"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="D67:E68"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E61:E62"/>
     <mergeCell ref="G59:G60"/>
     <mergeCell ref="G61:G62"/>
-    <mergeCell ref="F67:G68"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="G45:G46"/>
     <mergeCell ref="G47:G48"/>
     <mergeCell ref="G49:G50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="U61:U62"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="U49:U50"/>
-    <mergeCell ref="U47:U48"/>
-    <mergeCell ref="U51:U52"/>
-    <mergeCell ref="U53:U54"/>
-    <mergeCell ref="U55:U56"/>
-    <mergeCell ref="U57:U58"/>
-    <mergeCell ref="U59:U60"/>
-    <mergeCell ref="O59:O60"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="O57:O58"/>
-    <mergeCell ref="Q53:Q54"/>
-    <mergeCell ref="Q55:Q56"/>
-    <mergeCell ref="Q57:Q58"/>
-    <mergeCell ref="Q59:Q60"/>
-    <mergeCell ref="Q61:Q62"/>
-    <mergeCell ref="S61:S62"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="U21:U22"/>
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="U31:U32"/>
-    <mergeCell ref="U33:U34"/>
-    <mergeCell ref="U35:U36"/>
-    <mergeCell ref="U37:U38"/>
-    <mergeCell ref="U41:U42"/>
-    <mergeCell ref="U43:U44"/>
-    <mergeCell ref="U45:U46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="O61:O62"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="M61:M62"/>
-    <mergeCell ref="M57:M58"/>
-    <mergeCell ref="M59:M60"/>
-    <mergeCell ref="B67:C68"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J67:K68"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="H67:I68"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="L67:M68"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="N67:O68"/>
-    <mergeCell ref="T67:U68"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B31:C32"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="U39:U40"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="O63:O64"/>
+    <mergeCell ref="S63:S64"/>
+    <mergeCell ref="U63:U64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7210,7 +7234,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>

--- a/2 - Bilans/2022-2023/Unipoly_Bilan_Quadrimestriel_22-23.xlsx
+++ b/2 - Bilans/2022-2023/Unipoly_Bilan_Quadrimestriel_22-23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\Clara\Unipoly\UPSecretrariat\2 - Bilans\2022-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820E8B86-ADCE-427E-A341-ADDF4EF32F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF7DE66-15B8-4F4F-B1C7-55DBE88BF9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{34F8AD7C-3B1E-42A7-8AF2-50C33241ADA4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="779" firstSheet="18" activeTab="23" xr2:uid="{34F8AD7C-3B1E-42A7-8AF2-50C33241ADA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Bilan" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="97">
   <si>
     <t>Compte</t>
   </si>
@@ -327,9 +327,6 @@
     <t>Produits, vente denrées alimentaires</t>
   </si>
   <si>
-    <t>Produits, ventes de meubles</t>
-  </si>
-  <si>
     <t>Provisions</t>
   </si>
   <si>
@@ -375,7 +372,10 @@
     <t>Fermeture 21-22</t>
   </si>
   <si>
-    <t>s</t>
+    <t>Produits Revendables</t>
+  </si>
+  <si>
+    <t>Produits Fonctionnement</t>
   </si>
 </sst>
 </file>
@@ -636,7 +636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -723,16 +723,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -752,7 +752,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -785,6 +785,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -795,18 +801,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1125,9 +1119,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A55C92-786C-4AB3-96FC-7473E4CC0A9B}">
   <dimension ref="A1:Y70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I59" sqref="I59:I60"/>
+    <sheetView topLeftCell="A44" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H33" sqref="H33:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14" zeroHeight="1"/>
@@ -1147,7 +1141,7 @@
       <c r="B2" s="29"/>
       <c r="C2" s="30"/>
       <c r="D2" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E2" s="40"/>
       <c r="F2" s="40"/>
@@ -1168,20 +1162,20 @@
       <c r="U2" s="41"/>
     </row>
     <row r="3" spans="1:21" ht="14" customHeight="1">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="60"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E3" s="42"/>
       <c r="F3" s="42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G3" s="42"/>
       <c r="H3" s="51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I3" s="51"/>
       <c r="J3" s="51" t="s">
@@ -1197,15 +1191,15 @@
       </c>
       <c r="O3" s="42"/>
       <c r="P3" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q3" s="42"/>
       <c r="R3" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S3" s="42"/>
       <c r="T3" s="42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U3" s="51"/>
     </row>
@@ -1270,109 +1264,109 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.5">
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="55"/>
+      <c r="C5" s="57"/>
       <c r="D5" s="6">
         <f>D7+D31</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="34">
+        <v>3136.0899999999997</v>
+      </c>
+      <c r="E5" s="33">
         <f>D5-D6</f>
-        <v>0</v>
+        <v>-1901.2299999999991</v>
       </c>
       <c r="F5" s="6">
         <f>F7+F31</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="34">
+        <v>4406.34</v>
+      </c>
+      <c r="G5" s="33">
         <f>F5-F6+E5</f>
-        <v>0</v>
+        <v>2505.110000000001</v>
       </c>
       <c r="H5" s="6">
         <f>H7+H31</f>
-        <v>31880</v>
-      </c>
-      <c r="I5" s="34">
+        <v>31680</v>
+      </c>
+      <c r="I5" s="33">
         <f>H5-H6+G5</f>
-        <v>-16978</v>
+        <v>-14672.89</v>
       </c>
       <c r="J5" s="6"/>
-      <c r="K5" s="34">
+      <c r="K5" s="33">
         <f>J5-J6+I5</f>
-        <v>-16978</v>
+        <v>-14672.89</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="M5" s="34">
+      <c r="M5" s="33">
         <f>L5-L6+K5</f>
-        <v>-16978</v>
+        <v>-14672.89</v>
       </c>
       <c r="N5" s="6"/>
-      <c r="O5" s="34">
+      <c r="O5" s="33">
         <f>N5-N6+M5</f>
-        <v>-16978</v>
+        <v>-14672.89</v>
       </c>
       <c r="P5" s="6">
         <f>P8+P32</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="34">
+        <v>4406.34</v>
+      </c>
+      <c r="Q5" s="33">
         <f>P5-P6+O5</f>
-        <v>-16978</v>
+        <v>-10266.549999999999</v>
       </c>
       <c r="R5" s="6">
         <f>R8+R32</f>
-        <v>31880</v>
-      </c>
-      <c r="S5" s="34">
+        <v>31680</v>
+      </c>
+      <c r="S5" s="33">
         <f>R5-R6+Q5</f>
-        <v>14902</v>
+        <v>21413.45</v>
       </c>
       <c r="T5" s="6">
         <v>2214.0300000000002</v>
       </c>
       <c r="U5" s="45">
         <f>T5-T6+S5</f>
-        <v>17116.03</v>
+        <v>23627.48</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.5">
-      <c r="B6" s="56"/>
-      <c r="C6" s="57"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="59"/>
       <c r="D6" s="7">
         <f>D8+D32</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="34"/>
+        <v>5037.3199999999988</v>
+      </c>
+      <c r="E6" s="33"/>
       <c r="F6" s="7">
         <f>F8+F32</f>
         <v>0</v>
       </c>
-      <c r="G6" s="34"/>
+      <c r="G6" s="33"/>
       <c r="H6" s="7">
         <f>H8+H32</f>
         <v>48858</v>
       </c>
-      <c r="I6" s="43"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="27"/>
-      <c r="K6" s="43"/>
+      <c r="K6" s="36"/>
       <c r="L6" s="27"/>
-      <c r="M6" s="43"/>
+      <c r="M6" s="36"/>
       <c r="N6" s="27"/>
-      <c r="O6" s="43"/>
+      <c r="O6" s="36"/>
       <c r="P6" s="27"/>
-      <c r="Q6" s="43"/>
+      <c r="Q6" s="36"/>
       <c r="R6" s="27"/>
-      <c r="S6" s="43"/>
+      <c r="S6" s="36"/>
       <c r="T6" s="27"/>
-      <c r="U6" s="43"/>
+      <c r="U6" s="36"/>
     </row>
     <row r="7" spans="1:21" ht="15.5">
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="55"/>
+      <c r="C7" s="57"/>
       <c r="D7" s="8">
         <f>D9+D11+D13+D15+D17+D19+D21+D23+D25+D27</f>
         <v>0</v>
@@ -1391,49 +1385,49 @@
       </c>
       <c r="H7" s="8">
         <f>H9+H11+H13+H15+H17+H19+H21+H23+H25+H27+H29</f>
-        <v>3600</v>
-      </c>
-      <c r="I7" s="34">
+        <v>3400</v>
+      </c>
+      <c r="I7" s="33">
         <f>H7-H8+G7</f>
-        <v>-4400</v>
+        <v>-4600</v>
       </c>
       <c r="J7" s="6">
         <f>J9+J11+J13+J15+J17+J19+J21+J23+J25+J27+J29</f>
         <v>4934.79</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="33">
         <f>J7-J8+I7</f>
-        <v>-3482.7999999999997</v>
+        <v>-3682.7999999999997</v>
       </c>
       <c r="L7" s="6">
         <f>L9+L11+L13+L15+L17+L19+L21+L23+L25+L27+L29</f>
         <v>0</v>
       </c>
-      <c r="M7" s="34">
+      <c r="M7" s="33">
         <f>L7-L8+K7</f>
-        <v>-3482.7999999999997</v>
+        <v>-3682.7999999999997</v>
       </c>
       <c r="N7" s="6">
         <f>N9+N11+N13+N15+N17+N19+N21+N23+N25+N27+N29</f>
         <v>0</v>
       </c>
-      <c r="O7" s="34">
+      <c r="O7" s="33">
         <f>N7-N8+M7</f>
-        <v>-3482.7999999999997</v>
+        <v>-3682.7999999999997</v>
       </c>
       <c r="P7" s="6">
         <f>P9+P11+P13+P15+P17+P19+P21+P23+P25+P27+P29</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="34">
+      <c r="Q7" s="33">
         <f>P7-P8+O7</f>
-        <v>-3482.7999999999997</v>
+        <v>-3682.7999999999997</v>
       </c>
       <c r="R7" s="6">
         <f>R9+R11+R13+R15+R17+R19+R21+R23+R25+R27+R29</f>
         <v>0</v>
       </c>
-      <c r="S7" s="34">
+      <c r="S7" s="33">
         <f>R7-R8+Q7</f>
         <v>-7082.7999999999993</v>
       </c>
@@ -1441,184 +1435,184 @@
         <f>T9+T11+T13+T15+T17+T19+T21+T23+T25+T27+T29</f>
         <v>12560.309999999998</v>
       </c>
-      <c r="U7" s="35">
+      <c r="U7" s="43">
         <f>T7-T8+S7</f>
         <v>-14463</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.5">
-      <c r="B8" s="56"/>
-      <c r="C8" s="57"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="7">
         <f>D10+D12+D14+D16+D18+D20+D22+D24+D26+D28</f>
         <v>0</v>
       </c>
-      <c r="E8" s="34"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="7">
         <f>F10+F12+F14+F16+F18+F20+F22+F24+F26+F28</f>
         <v>0</v>
       </c>
-      <c r="G8" s="34"/>
+      <c r="G8" s="33"/>
       <c r="H8" s="7">
         <f>H10+H12+H14+H16+H18+H20+H22+H24+H26+H28+H30</f>
         <v>8000</v>
       </c>
-      <c r="I8" s="34"/>
+      <c r="I8" s="33"/>
       <c r="J8" s="7">
         <f>J10+J12+J14+J16+J18+J20+J22+J24+J26+J28+J30</f>
         <v>4017.5899999999997</v>
       </c>
-      <c r="K8" s="34"/>
+      <c r="K8" s="33"/>
       <c r="L8" s="7">
         <f>L10+L12+L14+L16+L18+L20+L22+L24+L26+L28+L30</f>
         <v>0</v>
       </c>
-      <c r="M8" s="34"/>
+      <c r="M8" s="33"/>
       <c r="N8" s="7">
         <f>N10+N12+N14+N16+N18+N20+N22+N24+N26+N28+N30</f>
         <v>0</v>
       </c>
-      <c r="O8" s="34"/>
+      <c r="O8" s="33"/>
       <c r="P8" s="7">
         <f>P10+P12+P14+P16+P18+P20+P22+P24+P26+P28+P30</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="34"/>
+      <c r="Q8" s="33"/>
       <c r="R8" s="7">
         <f>R10+R12+R14+R16+R18+R20+R22+R24+R26+R28+R30</f>
-        <v>3600</v>
-      </c>
-      <c r="S8" s="34"/>
+        <v>3400</v>
+      </c>
+      <c r="S8" s="33"/>
       <c r="T8" s="7">
         <f>T10+T12+T14+T16+T18+T20+T22+T24+T26+T28+T30</f>
         <v>19940.509999999998</v>
       </c>
-      <c r="U8" s="35"/>
+      <c r="U8" s="43"/>
     </row>
     <row r="9" spans="1:21" ht="15.5">
       <c r="B9" s="9"/>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="34" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="34">
+      <c r="E9" s="33">
         <f>D9-D10</f>
         <v>0</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="34">
+      <c r="G9" s="33">
         <f>F9-F10+E9</f>
         <v>0</v>
       </c>
       <c r="H9" s="6">
-        <v>800</v>
-      </c>
-      <c r="I9" s="34">
+        <v>600</v>
+      </c>
+      <c r="I9" s="33">
         <f>H9-H10+G9</f>
-        <v>-2050</v>
+        <v>-2250</v>
       </c>
       <c r="J9" s="6">
         <f>COHE_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="33">
         <f>J9-J10+I9</f>
-        <v>-2363.5</v>
+        <v>-2563.5</v>
       </c>
       <c r="L9" s="6">
         <f>COHE_Clôtures!C5</f>
         <v>0</v>
       </c>
-      <c r="M9" s="34">
+      <c r="M9" s="33">
         <f>L9-L10+K9</f>
-        <v>-2363.5</v>
+        <v>-2563.5</v>
       </c>
       <c r="N9" s="6">
         <f>COHE_Clôtures!D5</f>
         <v>0</v>
       </c>
-      <c r="O9" s="34">
+      <c r="O9" s="33">
         <f>N9-N10+M9</f>
-        <v>-2363.5</v>
+        <v>-2563.5</v>
       </c>
       <c r="P9" s="6"/>
-      <c r="Q9" s="34">
+      <c r="Q9" s="33">
         <f>P9-P10+O9</f>
-        <v>-2363.5</v>
+        <v>-2563.5</v>
       </c>
       <c r="R9" s="6"/>
-      <c r="S9" s="34">
+      <c r="S9" s="33">
         <f>R9-R10+Q9</f>
         <v>-3163.5</v>
       </c>
       <c r="T9" s="6">
         <v>2309.38</v>
       </c>
-      <c r="U9" s="35">
+      <c r="U9" s="43">
         <f>T9-T10+S9</f>
         <v>-2747.5699999999997</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.5">
       <c r="B10" s="9"/>
-      <c r="C10" s="33"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="34"/>
+      <c r="E10" s="33"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="34"/>
+      <c r="G10" s="33"/>
       <c r="H10" s="7">
         <v>2850</v>
       </c>
-      <c r="I10" s="34"/>
+      <c r="I10" s="33"/>
       <c r="J10" s="7">
         <f>COHE_Clôtures!$B$9</f>
         <v>313.5</v>
       </c>
-      <c r="K10" s="34"/>
+      <c r="K10" s="33"/>
       <c r="L10" s="7">
         <f>COHE_Clôtures!C9</f>
         <v>0</v>
       </c>
-      <c r="M10" s="34"/>
+      <c r="M10" s="33"/>
       <c r="N10" s="7">
         <f>COHE_Clôtures!D9</f>
         <v>0</v>
       </c>
-      <c r="O10" s="34"/>
+      <c r="O10" s="33"/>
       <c r="P10" s="7">
         <f>F9</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="34"/>
+      <c r="Q10" s="33"/>
       <c r="R10" s="7">
         <f>H9</f>
-        <v>800</v>
-      </c>
-      <c r="S10" s="34"/>
+        <v>600</v>
+      </c>
+      <c r="S10" s="33"/>
       <c r="T10" s="7">
         <v>1893.45</v>
       </c>
-      <c r="U10" s="35"/>
+      <c r="U10" s="43"/>
     </row>
     <row r="11" spans="1:21" ht="15.5">
       <c r="B11" s="9"/>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="34" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="34">
+      <c r="E11" s="33">
         <f>D11-D12</f>
         <v>0</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="34">
+      <c r="G11" s="33">
         <f t="shared" ref="G11" si="0">F11-F12+E11</f>
         <v>0</v>
       </c>
       <c r="H11" s="6">
         <v>150</v>
       </c>
-      <c r="I11" s="34">
+      <c r="I11" s="33">
         <f>H11-H12+G11</f>
         <v>-600</v>
       </c>
@@ -1626,7 +1620,7 @@
         <f>COM_Clôtures!$B$3</f>
         <v>35.1</v>
       </c>
-      <c r="K11" s="34">
+      <c r="K11" s="33">
         <f t="shared" ref="K11" si="1">J11-J12+I11</f>
         <v>-732.77</v>
       </c>
@@ -1634,7 +1628,7 @@
         <f>COM_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M11" s="34">
+      <c r="M11" s="33">
         <f>L11-L12+K11</f>
         <v>-732.77</v>
       </c>
@@ -1642,17 +1636,17 @@
         <f>COM_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O11" s="34">
+      <c r="O11" s="33">
         <f>N11-N12+M11</f>
         <v>-732.77</v>
       </c>
       <c r="P11" s="6"/>
-      <c r="Q11" s="34">
+      <c r="Q11" s="33">
         <f>P11-P12+O11</f>
         <v>-732.77</v>
       </c>
       <c r="R11" s="6"/>
-      <c r="S11" s="34">
+      <c r="S11" s="33">
         <f>R11-R12+Q11</f>
         <v>-882.77</v>
       </c>
@@ -1666,40 +1660,40 @@
     </row>
     <row r="12" spans="1:21" ht="15.5">
       <c r="B12" s="9"/>
-      <c r="C12" s="33"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="34"/>
+      <c r="E12" s="33"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="34"/>
+      <c r="G12" s="33"/>
       <c r="H12" s="7">
         <v>750</v>
       </c>
-      <c r="I12" s="34"/>
+      <c r="I12" s="33"/>
       <c r="J12" s="7">
         <f>COM_Clôtures!$B$5</f>
         <v>167.87</v>
       </c>
-      <c r="K12" s="34"/>
+      <c r="K12" s="33"/>
       <c r="L12" s="7">
         <f>COM_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M12" s="34"/>
+      <c r="M12" s="33"/>
       <c r="N12" s="7">
         <f>COM_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O12" s="34"/>
+      <c r="O12" s="33"/>
       <c r="P12" s="7">
         <f>F11</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="34"/>
+      <c r="Q12" s="33"/>
       <c r="R12" s="7">
         <f>H11</f>
         <v>150</v>
       </c>
-      <c r="S12" s="34"/>
+      <c r="S12" s="33"/>
       <c r="T12" s="7">
         <v>128.19999999999999</v>
       </c>
@@ -1707,23 +1701,23 @@
     </row>
     <row r="13" spans="1:21" ht="15.5">
       <c r="B13" s="9"/>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="34" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="34">
+      <c r="E13" s="33">
         <f>D13-D14</f>
         <v>0</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="34">
+      <c r="G13" s="33">
         <f t="shared" ref="G13" si="2">F13-F14+E13</f>
         <v>0</v>
       </c>
       <c r="H13" s="6">
         <v>0</v>
       </c>
-      <c r="I13" s="34">
+      <c r="I13" s="33">
         <f>H13-H14+G13</f>
         <v>-500</v>
       </c>
@@ -1731,7 +1725,7 @@
         <f>CONTRIB_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K13" s="34">
+      <c r="K13" s="33">
         <f t="shared" ref="K13" si="3">J13-J14+I13</f>
         <v>-575.6</v>
       </c>
@@ -1739,7 +1733,7 @@
         <f>CONTRIB_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M13" s="34">
+      <c r="M13" s="33">
         <f>L13-L14+K13</f>
         <v>-575.6</v>
       </c>
@@ -1747,86 +1741,86 @@
         <f>CONTRIB_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O13" s="34">
+      <c r="O13" s="33">
         <f>N13-N14+M13</f>
         <v>-575.6</v>
       </c>
       <c r="P13" s="6"/>
-      <c r="Q13" s="34">
+      <c r="Q13" s="33">
         <f>P13-P14+O13</f>
         <v>-575.6</v>
       </c>
       <c r="R13" s="6"/>
-      <c r="S13" s="34">
+      <c r="S13" s="33">
         <f t="shared" ref="S13" si="4">R13-R14+Q13</f>
         <v>-575.6</v>
       </c>
       <c r="T13" s="6">
         <v>171.6</v>
       </c>
-      <c r="U13" s="35">
+      <c r="U13" s="43">
         <f t="shared" ref="U13" si="5">T13-T14+S13</f>
         <v>-404</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.5">
       <c r="B14" s="9"/>
-      <c r="C14" s="33"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="34"/>
+      <c r="E14" s="33"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="34"/>
+      <c r="G14" s="33"/>
       <c r="H14" s="7">
         <v>500</v>
       </c>
-      <c r="I14" s="34"/>
+      <c r="I14" s="33"/>
       <c r="J14" s="7">
         <f>CONTRIB_Clôtures!$B$7</f>
         <v>75.599999999999994</v>
       </c>
-      <c r="K14" s="34"/>
+      <c r="K14" s="33"/>
       <c r="L14" s="7">
         <f>CONTRIB_Clôtures!$C$7</f>
         <v>0</v>
       </c>
-      <c r="M14" s="34"/>
+      <c r="M14" s="33"/>
       <c r="N14" s="7">
         <f>CONTRIB_Clôtures!$D$7</f>
         <v>0</v>
       </c>
-      <c r="O14" s="34"/>
+      <c r="O14" s="33"/>
       <c r="P14" s="7">
         <f>F13</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="34"/>
+      <c r="Q14" s="33"/>
       <c r="R14" s="7">
         <f>H13</f>
         <v>0</v>
       </c>
-      <c r="S14" s="34"/>
+      <c r="S14" s="33"/>
       <c r="T14" s="7"/>
-      <c r="U14" s="35"/>
+      <c r="U14" s="43"/>
     </row>
     <row r="15" spans="1:21" ht="15.5">
       <c r="B15" s="9"/>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="34" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="34">
+      <c r="E15" s="33">
         <f>D15-D16</f>
         <v>0</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="34">
+      <c r="G15" s="33">
         <f t="shared" ref="G15" si="6">F15-F16+E15</f>
         <v>0</v>
       </c>
       <c r="H15" s="6">
         <v>1750</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="33">
         <f t="shared" ref="I15" si="7">H15-H16+G15</f>
         <v>-1000</v>
       </c>
@@ -1834,7 +1828,7 @@
         <f>EVENT_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K15" s="34">
+      <c r="K15" s="33">
         <f t="shared" ref="K15" si="8">J15-J16+I15</f>
         <v>-1000</v>
       </c>
@@ -1842,7 +1836,7 @@
         <f>EVENT_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M15" s="34">
+      <c r="M15" s="33">
         <f>L15-L16+K15</f>
         <v>-1000</v>
       </c>
@@ -1850,88 +1844,88 @@
         <f>EVENT_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O15" s="34">
+      <c r="O15" s="33">
         <f>N15-N16+M15</f>
         <v>-1000</v>
       </c>
       <c r="P15" s="6"/>
-      <c r="Q15" s="34">
+      <c r="Q15" s="33">
         <f>P15-P16+O15</f>
         <v>-1000</v>
       </c>
       <c r="R15" s="6"/>
-      <c r="S15" s="34">
+      <c r="S15" s="33">
         <f t="shared" ref="S15" si="9">R15-R16+Q15</f>
         <v>-2750</v>
       </c>
       <c r="T15" s="6">
         <v>2442.2199999999998</v>
       </c>
-      <c r="U15" s="35">
+      <c r="U15" s="43">
         <f t="shared" ref="U15" si="10">T15-T16+S15</f>
         <v>-4681.6399999999994</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.5">
       <c r="B16" s="9"/>
-      <c r="C16" s="33"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="34"/>
+      <c r="E16" s="33"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="34"/>
+      <c r="G16" s="33"/>
       <c r="H16" s="7">
         <v>2750</v>
       </c>
-      <c r="I16" s="34"/>
+      <c r="I16" s="33"/>
       <c r="J16" s="7">
         <f>EVENT_Clôtures!$B$12</f>
         <v>0</v>
       </c>
-      <c r="K16" s="34"/>
+      <c r="K16" s="33"/>
       <c r="L16" s="7">
         <f>EVENT_Clôtures!$C$12</f>
         <v>0</v>
       </c>
-      <c r="M16" s="34"/>
+      <c r="M16" s="33"/>
       <c r="N16" s="7">
         <f>EVENT_Clôtures!$D$12</f>
         <v>0</v>
       </c>
-      <c r="O16" s="34"/>
+      <c r="O16" s="33"/>
       <c r="P16" s="7">
         <f>F15</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="34"/>
+      <c r="Q16" s="33"/>
       <c r="R16" s="7">
         <f>H15</f>
         <v>1750</v>
       </c>
-      <c r="S16" s="34"/>
+      <c r="S16" s="33"/>
       <c r="T16" s="7">
         <v>4373.8599999999997</v>
       </c>
-      <c r="U16" s="35"/>
+      <c r="U16" s="43"/>
     </row>
     <row r="17" spans="2:21" ht="15.5">
       <c r="B17" s="9"/>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="34" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="34">
+      <c r="E17" s="33">
         <f>D17-D18</f>
         <v>0</v>
       </c>
       <c r="F17" s="6"/>
-      <c r="G17" s="34">
+      <c r="G17" s="33">
         <f t="shared" ref="G17" si="11">F17-F18+E17</f>
         <v>0</v>
       </c>
       <c r="H17" s="6">
         <v>0</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I17" s="33">
         <f t="shared" ref="I17" si="12">H17-H18+G17</f>
         <v>0</v>
       </c>
@@ -1939,7 +1933,7 @@
         <f>EXTRA_Clôtures!$B$3</f>
         <v>1.38</v>
       </c>
-      <c r="K17" s="34">
+      <c r="K17" s="33">
         <f t="shared" ref="K17" si="13">J17-J18+I17</f>
         <v>-2010.02</v>
       </c>
@@ -1947,7 +1941,7 @@
         <f>EXTRA_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M17" s="34">
+      <c r="M17" s="33">
         <f>L17-L18+K17</f>
         <v>-2010.02</v>
       </c>
@@ -1955,88 +1949,88 @@
         <f>EXTRA_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O17" s="34">
+      <c r="O17" s="33">
         <f>N17-N18+M17</f>
         <v>-2010.02</v>
       </c>
       <c r="P17" s="6"/>
-      <c r="Q17" s="34">
+      <c r="Q17" s="33">
         <f>P17-P18+O17</f>
         <v>-2010.02</v>
       </c>
       <c r="R17" s="6"/>
-      <c r="S17" s="34">
+      <c r="S17" s="33">
         <f t="shared" ref="S17" si="14">R17-R18+Q17</f>
         <v>-2010.02</v>
       </c>
       <c r="T17" s="6">
         <v>395.9</v>
       </c>
-      <c r="U17" s="35">
+      <c r="U17" s="43">
         <f t="shared" ref="U17" si="15">T17-T18+S17</f>
         <v>-2212.04</v>
       </c>
     </row>
     <row r="18" spans="2:21" ht="15.5">
       <c r="B18" s="9"/>
-      <c r="C18" s="33"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="34"/>
+      <c r="E18" s="33"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="34"/>
+      <c r="G18" s="33"/>
       <c r="H18" s="7">
         <v>0</v>
       </c>
-      <c r="I18" s="34"/>
+      <c r="I18" s="33"/>
       <c r="J18" s="7">
         <f>EXTRA_Clôtures!$B$5</f>
         <v>2011.4</v>
       </c>
-      <c r="K18" s="34"/>
+      <c r="K18" s="33"/>
       <c r="L18" s="7">
         <f>EXTRA_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M18" s="34"/>
+      <c r="M18" s="33"/>
       <c r="N18" s="7">
         <f>EXTRA_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O18" s="34"/>
+      <c r="O18" s="33"/>
       <c r="P18" s="7">
         <f>F17</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="34"/>
+      <c r="Q18" s="33"/>
       <c r="R18" s="7">
         <f>H17</f>
         <v>0</v>
       </c>
-      <c r="S18" s="34"/>
+      <c r="S18" s="33"/>
       <c r="T18" s="7">
         <v>597.91999999999996</v>
       </c>
-      <c r="U18" s="35"/>
+      <c r="U18" s="43"/>
     </row>
     <row r="19" spans="2:21" ht="15.5">
       <c r="B19" s="9"/>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="34" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="34">
+      <c r="E19" s="33">
         <f>D19-D20</f>
         <v>0</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="34">
+      <c r="G19" s="33">
         <f t="shared" ref="G19" si="16">F19-F20+E19</f>
         <v>0</v>
       </c>
       <c r="H19" s="6">
         <v>900</v>
       </c>
-      <c r="I19" s="34">
+      <c r="I19" s="33">
         <f t="shared" ref="I19" si="17">H19-H20+G19</f>
         <v>100</v>
       </c>
@@ -2044,7 +2038,7 @@
         <f>FONCT_Clôtures!$B$5</f>
         <v>3472.44</v>
       </c>
-      <c r="K19" s="34">
+      <c r="K19" s="33">
         <f t="shared" ref="K19" si="18">J19-J20+I19</f>
         <v>3045.07</v>
       </c>
@@ -2052,7 +2046,7 @@
         <f>FONCT_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M19" s="34">
+      <c r="M19" s="33">
         <f>L19-L20+K19</f>
         <v>3045.07</v>
       </c>
@@ -2060,88 +2054,88 @@
         <f>FONCT_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O19" s="34">
+      <c r="O19" s="33">
         <f>N19-N20+M19</f>
         <v>3045.07</v>
       </c>
       <c r="P19" s="6"/>
-      <c r="Q19" s="34">
+      <c r="Q19" s="33">
         <f>P19-P20+O19</f>
         <v>3045.07</v>
       </c>
       <c r="R19" s="6"/>
-      <c r="S19" s="34">
+      <c r="S19" s="33">
         <f t="shared" ref="S19" si="19">R19-R20+Q19</f>
         <v>2145.0700000000002</v>
       </c>
       <c r="T19" s="6">
         <v>1055.74</v>
       </c>
-      <c r="U19" s="35">
+      <c r="U19" s="43">
         <f t="shared" ref="U19" si="20">T19-T20+S19</f>
         <v>-4858.9699999999993</v>
       </c>
     </row>
     <row r="20" spans="2:21" ht="15.5">
       <c r="B20" s="9"/>
-      <c r="C20" s="33"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="34"/>
+      <c r="E20" s="33"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="34"/>
+      <c r="G20" s="33"/>
       <c r="H20" s="7">
         <v>800</v>
       </c>
-      <c r="I20" s="34"/>
+      <c r="I20" s="33"/>
       <c r="J20" s="7">
         <f>FONCT_Clôtures!$B$12</f>
         <v>527.37</v>
       </c>
-      <c r="K20" s="34"/>
+      <c r="K20" s="33"/>
       <c r="L20" s="7">
         <f>FONCT_Clôtures!$C$12</f>
         <v>0</v>
       </c>
-      <c r="M20" s="34"/>
+      <c r="M20" s="33"/>
       <c r="N20" s="7">
         <f>FONCT_Clôtures!$D$12</f>
         <v>0</v>
       </c>
-      <c r="O20" s="34"/>
+      <c r="O20" s="33"/>
       <c r="P20" s="7">
         <f>F19</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="34"/>
+      <c r="Q20" s="33"/>
       <c r="R20" s="7">
         <f>H19</f>
         <v>900</v>
       </c>
-      <c r="S20" s="34"/>
+      <c r="S20" s="33"/>
       <c r="T20" s="7">
         <v>8059.78</v>
       </c>
-      <c r="U20" s="35"/>
+      <c r="U20" s="43"/>
     </row>
     <row r="21" spans="2:21" ht="15.5">
       <c r="B21" s="9"/>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="34" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="34">
+      <c r="E21" s="33">
         <f>D21-D22</f>
         <v>0</v>
       </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="34">
+      <c r="G21" s="33">
         <f t="shared" ref="G21" si="21">F21-F22+E21</f>
         <v>0</v>
       </c>
       <c r="H21" s="6">
         <v>0</v>
       </c>
-      <c r="I21" s="34">
+      <c r="I21" s="33">
         <f t="shared" ref="I21" si="22">H21-H22+G21</f>
         <v>0</v>
       </c>
@@ -2149,7 +2143,7 @@
         <f>CONVER_Clôtures!$B$3</f>
         <v>605.41999999999996</v>
       </c>
-      <c r="K21" s="34">
+      <c r="K21" s="33">
         <f t="shared" ref="K21" si="23">J21-J22+I21</f>
         <v>605.41999999999996</v>
       </c>
@@ -2157,7 +2151,7 @@
         <f>CONVER_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M21" s="34">
+      <c r="M21" s="33">
         <f>L21-L22+K21</f>
         <v>605.41999999999996</v>
       </c>
@@ -2165,88 +2159,88 @@
         <f>CONVER_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O21" s="34">
+      <c r="O21" s="33">
         <f>N21-N22+M21</f>
         <v>605.41999999999996</v>
       </c>
       <c r="P21" s="6"/>
-      <c r="Q21" s="34">
+      <c r="Q21" s="33">
         <f>P21-P22+O21</f>
         <v>605.41999999999996</v>
       </c>
       <c r="R21" s="6"/>
-      <c r="S21" s="34">
+      <c r="S21" s="33">
         <f t="shared" ref="S21" si="24">R21-R22+Q21</f>
         <v>605.41999999999996</v>
       </c>
       <c r="T21" s="6">
         <v>2405.42</v>
       </c>
-      <c r="U21" s="35">
+      <c r="U21" s="43">
         <f t="shared" ref="U21" si="25">T21-T22+S21</f>
         <v>10.840000000000032</v>
       </c>
     </row>
     <row r="22" spans="2:21" ht="15.5">
       <c r="B22" s="9"/>
-      <c r="C22" s="33"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="34"/>
+      <c r="E22" s="33"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="34"/>
+      <c r="G22" s="33"/>
       <c r="H22" s="7">
         <v>0</v>
       </c>
-      <c r="I22" s="34"/>
+      <c r="I22" s="33"/>
       <c r="J22" s="7">
         <f>CONVER_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K22" s="34"/>
+      <c r="K22" s="33"/>
       <c r="L22" s="7">
         <f>CONVER_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M22" s="34"/>
+      <c r="M22" s="33"/>
       <c r="N22" s="7">
         <f>CONVER_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O22" s="34"/>
+      <c r="O22" s="33"/>
       <c r="P22" s="7">
         <f>F21</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="34"/>
+      <c r="Q22" s="33"/>
       <c r="R22" s="7">
         <f>H21</f>
         <v>0</v>
       </c>
-      <c r="S22" s="34"/>
+      <c r="S22" s="33"/>
       <c r="T22" s="7">
         <v>3000</v>
       </c>
-      <c r="U22" s="35"/>
+      <c r="U22" s="43"/>
     </row>
     <row r="23" spans="2:21" ht="15.5">
       <c r="B23" s="9"/>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="34" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="6"/>
-      <c r="E23" s="34">
+      <c r="E23" s="33">
         <f>D23-D24</f>
         <v>0</v>
       </c>
       <c r="F23" s="6"/>
-      <c r="G23" s="34">
+      <c r="G23" s="33">
         <f t="shared" ref="G23" si="26">F23-F24+E23</f>
         <v>0</v>
       </c>
       <c r="H23" s="6">
         <v>0</v>
       </c>
-      <c r="I23" s="34">
+      <c r="I23" s="33">
         <f t="shared" ref="I23" si="27">H23-H24+G23</f>
         <v>-100</v>
       </c>
@@ -2254,7 +2248,7 @@
         <f>LOCAL_Clôtures!$B$3</f>
         <v>255.62</v>
       </c>
-      <c r="K23" s="34">
+      <c r="K23" s="33">
         <f t="shared" ref="K23" si="28">J23-J24+I23</f>
         <v>-96.080000000000013</v>
       </c>
@@ -2262,7 +2256,7 @@
         <f>LOCAL_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M23" s="34">
+      <c r="M23" s="33">
         <f>L23-L24+K23</f>
         <v>-96.080000000000013</v>
       </c>
@@ -2270,86 +2264,86 @@
         <f>LOCAL_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O23" s="34">
+      <c r="O23" s="33">
         <f>N23-N24+M23</f>
         <v>-96.080000000000013</v>
       </c>
       <c r="P23" s="6"/>
-      <c r="Q23" s="34">
+      <c r="Q23" s="33">
         <f>P23-P24+O23</f>
         <v>-96.080000000000013</v>
       </c>
       <c r="R23" s="6"/>
-      <c r="S23" s="34">
+      <c r="S23" s="33">
         <f t="shared" ref="S23" si="29">R23-R24+Q23</f>
         <v>-96.080000000000013</v>
       </c>
       <c r="T23" s="6">
         <v>654.46</v>
       </c>
-      <c r="U23" s="35">
+      <c r="U23" s="43">
         <f t="shared" ref="U23" si="30">T23-T24+S23</f>
         <v>558.38</v>
       </c>
     </row>
     <row r="24" spans="2:21" ht="15.5">
       <c r="B24" s="9"/>
-      <c r="C24" s="33"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="34"/>
+      <c r="E24" s="33"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="34"/>
+      <c r="G24" s="33"/>
       <c r="H24" s="7">
         <v>100</v>
       </c>
-      <c r="I24" s="34"/>
+      <c r="I24" s="33"/>
       <c r="J24" s="7">
         <f>LOCAL_Clôtures!$B$8</f>
         <v>251.70000000000002</v>
       </c>
-      <c r="K24" s="34"/>
+      <c r="K24" s="33"/>
       <c r="L24" s="7">
         <f>LOCAL_Clôtures!$C$8</f>
         <v>0</v>
       </c>
-      <c r="M24" s="34"/>
+      <c r="M24" s="33"/>
       <c r="N24" s="7">
         <f>LOCAL_Clôtures!$D$8</f>
         <v>0</v>
       </c>
-      <c r="O24" s="34"/>
+      <c r="O24" s="33"/>
       <c r="P24" s="7">
         <f>F23</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="34"/>
+      <c r="Q24" s="33"/>
       <c r="R24" s="7">
         <f>H23</f>
         <v>0</v>
       </c>
-      <c r="S24" s="34"/>
+      <c r="S24" s="33"/>
       <c r="T24" s="7"/>
-      <c r="U24" s="35"/>
+      <c r="U24" s="43"/>
     </row>
     <row r="25" spans="2:21" ht="15.5">
       <c r="B25" s="9"/>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="6"/>
-      <c r="E25" s="34">
+      <c r="E25" s="33">
         <f>D25-D26</f>
         <v>0</v>
       </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="34">
+      <c r="G25" s="33">
         <f t="shared" ref="G25" si="31">F25-F26+E25</f>
         <v>0</v>
       </c>
       <c r="H25" s="6">
         <v>0</v>
       </c>
-      <c r="I25" s="34">
+      <c r="I25" s="33">
         <f t="shared" ref="I25" si="32">H25-H26+G25</f>
         <v>-250</v>
       </c>
@@ -2357,7 +2351,7 @@
         <f>LOG_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K25" s="34">
+      <c r="K25" s="33">
         <f t="shared" ref="K25" si="33">J25-J26+I25</f>
         <v>-355.32</v>
       </c>
@@ -2365,7 +2359,7 @@
         <f>LOG_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M25" s="34">
+      <c r="M25" s="33">
         <f>L25-L26+K25</f>
         <v>-355.32</v>
       </c>
@@ -2373,86 +2367,86 @@
         <f>LOG_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O25" s="34">
+      <c r="O25" s="33">
         <f>N25-N26+M25</f>
         <v>-355.32</v>
       </c>
       <c r="P25" s="6"/>
-      <c r="Q25" s="34">
+      <c r="Q25" s="33">
         <f>P25-P26+O25</f>
         <v>-355.32</v>
       </c>
       <c r="R25" s="6"/>
-      <c r="S25" s="34">
+      <c r="S25" s="33">
         <f t="shared" ref="S25" si="34">R25-R26+Q25</f>
         <v>-355.32</v>
       </c>
       <c r="T25" s="6">
         <v>354.95</v>
       </c>
-      <c r="U25" s="35">
+      <c r="U25" s="43">
         <f t="shared" ref="U25" si="35">T25-T26+S25</f>
         <v>-0.37000000000000455</v>
       </c>
     </row>
     <row r="26" spans="2:21" ht="15.5">
       <c r="B26" s="9"/>
-      <c r="C26" s="33"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="34"/>
+      <c r="E26" s="33"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="34"/>
+      <c r="G26" s="33"/>
       <c r="H26" s="7">
         <v>250</v>
       </c>
-      <c r="I26" s="34"/>
+      <c r="I26" s="33"/>
       <c r="J26" s="7">
         <f>LOG_Clôtures!$B$5</f>
         <v>105.32</v>
       </c>
-      <c r="K26" s="34"/>
+      <c r="K26" s="33"/>
       <c r="L26" s="7">
         <f>LOG_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M26" s="34"/>
+      <c r="M26" s="33"/>
       <c r="N26" s="7">
         <f>LOG_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O26" s="34"/>
+      <c r="O26" s="33"/>
       <c r="P26" s="7">
         <f>F25</f>
         <v>0</v>
       </c>
-      <c r="Q26" s="34"/>
+      <c r="Q26" s="33"/>
       <c r="R26" s="7">
         <f>H25</f>
         <v>0</v>
       </c>
-      <c r="S26" s="34"/>
+      <c r="S26" s="33"/>
       <c r="T26" s="7"/>
-      <c r="U26" s="35"/>
+      <c r="U26" s="43"/>
     </row>
     <row r="27" spans="2:21" ht="15.5">
       <c r="B27" s="9"/>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="34" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="6"/>
-      <c r="E27" s="34">
+      <c r="E27" s="33">
         <f>D27-D28</f>
         <v>0</v>
       </c>
       <c r="F27" s="6"/>
-      <c r="G27" s="34">
+      <c r="G27" s="33">
         <f>F27-F28+E27</f>
         <v>0</v>
       </c>
       <c r="H27" s="6">
         <v>0</v>
       </c>
-      <c r="I27" s="34">
+      <c r="I27" s="33">
         <f>H27-H28+G27</f>
         <v>0</v>
       </c>
@@ -2460,7 +2454,7 @@
         <f>MOBILITY_Clôtures!$B$3</f>
         <v>564.83000000000004</v>
       </c>
-      <c r="K27" s="34">
+      <c r="K27" s="33">
         <f>J27-J28+I27</f>
         <v>0</v>
       </c>
@@ -2468,7 +2462,7 @@
         <f>MOBILITY_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M27" s="34">
+      <c r="M27" s="33">
         <f>L27-L28+K27</f>
         <v>0</v>
       </c>
@@ -2476,85 +2470,85 @@
         <f>MOBILITY_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O27" s="34">
+      <c r="O27" s="33">
         <f>N27-N28+M27</f>
         <v>0</v>
       </c>
       <c r="P27" s="6"/>
-      <c r="Q27" s="34">
+      <c r="Q27" s="33">
         <f>P27-P28+O27</f>
         <v>0</v>
       </c>
       <c r="R27" s="6"/>
-      <c r="S27" s="34">
+      <c r="S27" s="33">
         <f>R27-R28+Q27</f>
         <v>0</v>
       </c>
       <c r="T27" s="6">
         <v>1887.3</v>
       </c>
-      <c r="U27" s="35">
+      <c r="U27" s="43">
         <f>T27-T28+S27</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:21" ht="15.5">
       <c r="B28" s="9"/>
-      <c r="C28" s="33"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="34"/>
+      <c r="E28" s="33"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="34"/>
+      <c r="G28" s="33"/>
       <c r="H28" s="7">
         <v>0</v>
       </c>
-      <c r="I28" s="34"/>
+      <c r="I28" s="33"/>
       <c r="J28" s="7">
         <f>MOBILITY_Clôtures!$B$5</f>
         <v>564.83000000000004</v>
       </c>
-      <c r="K28" s="34"/>
+      <c r="K28" s="33"/>
       <c r="L28" s="7">
         <f>MOBILITY_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M28" s="34"/>
+      <c r="M28" s="33"/>
       <c r="N28" s="7">
         <f>MOBILITY_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O28" s="34"/>
+      <c r="O28" s="33"/>
       <c r="P28" s="7">
         <f>F27</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="34"/>
+      <c r="Q28" s="33"/>
       <c r="R28" s="7">
         <f>H27</f>
         <v>0</v>
       </c>
-      <c r="S28" s="34"/>
+      <c r="S28" s="33"/>
       <c r="T28" s="7">
         <v>1887.3</v>
       </c>
-      <c r="U28" s="35"/>
+      <c r="U28" s="43"/>
     </row>
     <row r="29" spans="2:21" ht="15.5">
       <c r="B29" s="9"/>
-      <c r="C29" s="33" t="s">
-        <v>91</v>
+      <c r="C29" s="34" t="s">
+        <v>90</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="32"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="34">
+      <c r="G29" s="33">
         <f>F29-F30+E29</f>
         <v>0</v>
       </c>
       <c r="H29" s="6">
         <v>0</v>
       </c>
-      <c r="I29" s="34">
+      <c r="I29" s="33">
         <f>H29-H30+G29</f>
         <v>0</v>
       </c>
@@ -2562,7 +2556,7 @@
         <f>REPRO_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K29" s="34">
+      <c r="K29" s="33">
         <f>J29-J30+I29</f>
         <v>0</v>
       </c>
@@ -2570,7 +2564,7 @@
         <f>REPRO_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M29" s="34">
+      <c r="M29" s="33">
         <f>L29-L30+K29</f>
         <v>0</v>
       </c>
@@ -2578,79 +2572,79 @@
         <f>REPRO_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O29" s="34">
+      <c r="O29" s="33">
         <f>N29-N30+M29</f>
         <v>0</v>
       </c>
       <c r="P29" s="7"/>
-      <c r="Q29" s="34">
+      <c r="Q29" s="33">
         <f>P29-P30+O29</f>
         <v>0</v>
       </c>
       <c r="R29" s="7"/>
-      <c r="S29" s="34">
+      <c r="S29" s="33">
         <f>R29-R30+Q29</f>
         <v>0</v>
       </c>
       <c r="T29" s="7"/>
-      <c r="U29" s="35">
+      <c r="U29" s="43">
         <f>T29-T30+S29</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:21" ht="15.5">
       <c r="B30" s="9"/>
-      <c r="C30" s="36"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="7"/>
       <c r="E30" s="32"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="34"/>
+      <c r="G30" s="33"/>
       <c r="H30" s="7">
         <v>0</v>
       </c>
-      <c r="I30" s="34"/>
+      <c r="I30" s="33"/>
       <c r="J30" s="7">
         <f>REPRO_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K30" s="34"/>
+      <c r="K30" s="33"/>
       <c r="L30" s="7">
         <f>REPRO_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M30" s="34"/>
+      <c r="M30" s="33"/>
       <c r="N30" s="7">
         <f>REPRO_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O30" s="34"/>
+      <c r="O30" s="33"/>
       <c r="P30" s="27"/>
-      <c r="Q30" s="34"/>
+      <c r="Q30" s="33"/>
       <c r="R30" s="27"/>
-      <c r="S30" s="34"/>
+      <c r="S30" s="33"/>
       <c r="T30" s="7"/>
-      <c r="U30" s="35"/>
+      <c r="U30" s="43"/>
     </row>
     <row r="31" spans="2:21" ht="15.5">
-      <c r="B31" s="54" t="s">
+      <c r="B31" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="55"/>
+      <c r="C31" s="57"/>
       <c r="D31" s="8">
         <f>D33+D35+D37+D41+D43+D45+D47+D49+D51+D53+D55+D57+D59+D61+D65</f>
-        <v>0</v>
+        <v>3136.0899999999997</v>
       </c>
       <c r="E31" s="45">
         <f>D31-D32</f>
-        <v>0</v>
+        <v>-1901.2299999999991</v>
       </c>
       <c r="F31" s="8">
         <f>F33+F35+F37+F39+F41+F43+F45+F47+F49+F51+F53+F55+F57+F59+F61+F65</f>
-        <v>0</v>
+        <v>4406.34</v>
       </c>
       <c r="G31" s="45">
         <f>F31-F32</f>
-        <v>0</v>
+        <v>4406.34</v>
       </c>
       <c r="H31" s="8">
         <f>H33+H35+H37+H39+H41+H43+H45+H47+H49+H51+H53+H55+H57+H59+H61+H63+H65</f>
@@ -2658,414 +2652,438 @@
       </c>
       <c r="I31" s="45">
         <f>H31-H32+G31</f>
-        <v>-12578</v>
-      </c>
-      <c r="J31" s="8" t="e">
+        <v>-8171.66</v>
+      </c>
+      <c r="J31" s="8">
         <f>J33+J35+J37+J39+J41+J43+J45+J47+J49+J51+J53+J55+J57+J59+J61+J63+J65</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K31" s="45" t="e">
+        <v>9661.83</v>
+      </c>
+      <c r="K31" s="45">
         <f>J31-J32+I31</f>
-        <v>#VALUE!</v>
+        <v>-2211.6800000000003</v>
       </c>
       <c r="L31" s="8">
         <f>L33+L35+L37+L39+L41+L43+L45+L47+L49+L51+L53+L55+L57+L59+L61+L63+L65</f>
         <v>0</v>
       </c>
-      <c r="M31" s="45" t="e">
+      <c r="M31" s="45">
         <f>L31-L32+K31</f>
-        <v>#VALUE!</v>
+        <v>-2211.6800000000003</v>
       </c>
       <c r="N31" s="8">
         <f>N33+N35+N37+N39+N41+N43+N45+N47+N49+N51+N53+N55+N57+N59+N61+N63+N65</f>
         <v>0</v>
       </c>
-      <c r="O31" s="45" t="e">
+      <c r="O31" s="45">
         <f>N31-N32+M31</f>
-        <v>#VALUE!</v>
+        <v>-2211.6800000000003</v>
       </c>
       <c r="P31" s="6">
         <f>P33+P35+P37+P39+P41+P43+P45+P47+P49+P51+P53+P55+P57+P59+P61+P63+P65</f>
         <v>0</v>
       </c>
-      <c r="Q31" s="34" t="e">
+      <c r="Q31" s="33">
         <f>P31-P32+O31</f>
-        <v>#VALUE!</v>
+        <v>-6618.02</v>
       </c>
       <c r="R31" s="6">
         <f>R33+R35+R37+R39+R41+R43+R45+R47+R49+R51+R53+R55+R57+R59+R61+R63+R65</f>
         <v>0</v>
       </c>
-      <c r="S31" s="34" t="e">
+      <c r="S31" s="33">
         <f>R31-R32+Q31</f>
-        <v>#VALUE!</v>
+        <v>-34898.020000000004</v>
       </c>
       <c r="T31" s="8">
         <f>T33+T35+T37+T39+T41+T43+T45+T47+T49+T51+T53+T55+T57+T59+T61+T63+T65</f>
         <v>20889.509999999998</v>
       </c>
-      <c r="U31" s="45" t="e">
+      <c r="U31" s="45">
         <f>T31-T32+S31</f>
-        <v>#VALUE!</v>
+        <v>-29085.700000000004</v>
       </c>
     </row>
     <row r="32" spans="2:21" ht="15.5">
-      <c r="B32" s="56"/>
-      <c r="C32" s="61"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="59"/>
       <c r="D32" s="7">
         <f>D34+D36+D38+D40+D42+D44+D46+D48+D50+D52+D54+D56+D58+D60+D62+D66</f>
-        <v>0</v>
-      </c>
-      <c r="E32" s="34"/>
+        <v>5037.3199999999988</v>
+      </c>
+      <c r="E32" s="33"/>
       <c r="F32" s="7">
         <f>F34+F36+F38+F40+F42+F44+F46+F48+F50+F52+F54+F56+F58+F60+F62+F66</f>
         <v>0</v>
       </c>
-      <c r="G32" s="34"/>
+      <c r="G32" s="33"/>
       <c r="H32" s="7">
         <f>H34+H36+H38+H40+H42+H44+H46+H48+H50+H52+H54+H56+H58+H60+H62+H64+H66</f>
         <v>40858</v>
       </c>
-      <c r="I32" s="58"/>
+      <c r="I32" s="33"/>
       <c r="J32" s="7">
         <f>J34+J36+J38+J40+J42+J44+J46+J48+J50+J52+J54+J56+J58+J60+J62+J64+J66</f>
-        <v>1557.28</v>
-      </c>
-      <c r="K32" s="58"/>
+        <v>3701.85</v>
+      </c>
+      <c r="K32" s="33"/>
       <c r="L32" s="7">
         <f>L34+L36+L38+L40+L42+L44+L46+L48+L50+L52+L54+L56+L58+L60+L62+L64+L66</f>
         <v>0</v>
       </c>
-      <c r="M32" s="34"/>
+      <c r="M32" s="33"/>
       <c r="N32" s="7">
         <f>N34+N36+N38+N40+N42+N44+N46+N48+N50+N52+N54+N56+N58+N60+N62+N64+N66</f>
         <v>0</v>
       </c>
-      <c r="O32" s="34"/>
+      <c r="O32" s="33"/>
       <c r="P32" s="7">
         <f>P34+P36+P38+P40+P42+P44+P46+P48+P50+P52+P54+P56+P58+P60+P62+P64+P66</f>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="34"/>
+        <v>4406.34</v>
+      </c>
+      <c r="Q32" s="33"/>
       <c r="R32" s="7">
         <f>R34+R36+R38+R40+R42+R44+R46+R48+R50+R52+R54+R56+R58+R60+R62+R64+R66</f>
         <v>28280</v>
       </c>
-      <c r="S32" s="34"/>
+      <c r="S32" s="33"/>
       <c r="T32" s="7">
         <f>T34+T36+T38+T40+T42+T44+T46+T48+T50+T52+T54+T56+T58+T60+T62+T64+T66</f>
         <v>15077.19</v>
       </c>
-      <c r="U32" s="34"/>
+      <c r="U32" s="33"/>
     </row>
     <row r="33" spans="2:21" ht="15.5">
       <c r="B33" s="9"/>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="34">
+      <c r="D33" s="6">
+        <v>0</v>
+      </c>
+      <c r="E33" s="33">
         <f>D33-D34</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="34">
+        <v>-917.79</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0</v>
+      </c>
+      <c r="G33" s="33">
         <f t="shared" ref="G33" si="36">F33-F34+E33</f>
-        <v>0</v>
+        <v>-917.79</v>
       </c>
       <c r="H33" s="6">
         <v>150</v>
       </c>
-      <c r="I33" s="34">
+      <c r="I33" s="33">
         <f t="shared" ref="I33" si="37">H33-H34+G33</f>
-        <v>-200</v>
+        <v>-1117.79</v>
       </c>
       <c r="J33" s="6">
         <f>API_Clôtures!$B$3</f>
         <v>119</v>
       </c>
-      <c r="K33" s="34">
+      <c r="K33" s="33">
         <f t="shared" ref="K33" si="38">J33-J34+I33</f>
-        <v>-81</v>
+        <v>-998.79</v>
       </c>
       <c r="L33" s="6">
         <f>API_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M33" s="34">
+      <c r="M33" s="33">
         <f t="shared" ref="M33" si="39">L33-L34+K33</f>
-        <v>-81</v>
+        <v>-998.79</v>
       </c>
       <c r="N33" s="6">
         <f>API_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O33" s="34">
+      <c r="O33" s="33">
         <f t="shared" ref="O33" si="40">N33-N34+M33</f>
-        <v>-81</v>
+        <v>-998.79</v>
       </c>
       <c r="P33" s="6"/>
-      <c r="Q33" s="34">
+      <c r="Q33" s="33">
         <f>P33-P34+O33</f>
-        <v>-81</v>
+        <v>-998.79</v>
       </c>
       <c r="R33" s="6"/>
-      <c r="S33" s="34">
+      <c r="S33" s="33">
         <f t="shared" ref="S33" si="41">R33-R34+Q33</f>
-        <v>-231</v>
+        <v>-1148.79</v>
       </c>
       <c r="T33" s="6">
         <v>917.79</v>
       </c>
-      <c r="U33" s="34">
+      <c r="U33" s="33">
         <f t="shared" ref="U33" si="42">T33-T34+S33</f>
-        <v>686.79</v>
+        <v>-231</v>
       </c>
     </row>
     <row r="34" spans="2:21" ht="15.5">
       <c r="B34" s="9"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="7">
+        <v>917.79</v>
+      </c>
+      <c r="E34" s="33"/>
+      <c r="F34" s="7">
+        <v>0</v>
+      </c>
+      <c r="G34" s="33"/>
       <c r="H34" s="7">
         <v>350</v>
       </c>
-      <c r="I34" s="34"/>
+      <c r="I34" s="33"/>
       <c r="J34" s="7">
         <f>API_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K34" s="34"/>
+      <c r="K34" s="33"/>
       <c r="L34" s="7">
         <f>API_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M34" s="34"/>
+      <c r="M34" s="33"/>
       <c r="N34" s="7">
         <f>API_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O34" s="34"/>
+      <c r="O34" s="33"/>
       <c r="P34" s="7">
         <f>F33</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="34"/>
+      <c r="Q34" s="33"/>
       <c r="R34" s="7">
         <f>H33</f>
         <v>150</v>
       </c>
-      <c r="S34" s="34"/>
+      <c r="S34" s="33"/>
       <c r="T34" s="7"/>
-      <c r="U34" s="34"/>
+      <c r="U34" s="33"/>
     </row>
     <row r="35" spans="2:21" ht="15.5">
       <c r="B35" s="9"/>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="34">
+      <c r="D35" s="6">
+        <v>641.85</v>
+      </c>
+      <c r="E35" s="33">
         <f>D35-D36</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="6"/>
-      <c r="G35" s="34">
+        <v>-1821.35</v>
+      </c>
+      <c r="F35" s="6">
+        <v>0</v>
+      </c>
+      <c r="G35" s="33">
         <f t="shared" ref="G35" si="43">F35-F36+E35</f>
-        <v>0</v>
+        <v>-1821.35</v>
       </c>
       <c r="H35" s="6">
         <v>2000</v>
       </c>
-      <c r="I35" s="34">
+      <c r="I35" s="33">
         <f t="shared" ref="I35" si="44">H35-H36+G35</f>
-        <v>-100</v>
+        <v>-1921.35</v>
       </c>
       <c r="J35" s="6">
         <f>CANARD_Clôtures!$B$4</f>
         <v>14.93</v>
       </c>
-      <c r="K35" s="34">
+      <c r="K35" s="33">
         <f t="shared" ref="K35" si="45">J35-J36+I35</f>
-        <v>-110.12</v>
+        <v>-1931.4699999999998</v>
       </c>
       <c r="L35" s="6">
         <f>CANARD_Clôtures!$C$4</f>
         <v>0</v>
       </c>
-      <c r="M35" s="34">
+      <c r="M35" s="33">
         <f t="shared" ref="M35" si="46">L35-L36+K35</f>
-        <v>-110.12</v>
+        <v>-1931.4699999999998</v>
       </c>
       <c r="N35" s="6">
         <f>CANARD_Clôtures!$D$4</f>
         <v>0</v>
       </c>
-      <c r="O35" s="34">
+      <c r="O35" s="33">
         <f t="shared" ref="O35" si="47">N35-N36+M35</f>
-        <v>-110.12</v>
+        <v>-1931.4699999999998</v>
       </c>
       <c r="P35" s="6"/>
-      <c r="Q35" s="34">
+      <c r="Q35" s="33">
         <f>P35-P36+O35</f>
-        <v>-110.12</v>
+        <v>-1931.4699999999998</v>
       </c>
       <c r="R35" s="6"/>
-      <c r="S35" s="34">
+      <c r="S35" s="33">
         <f t="shared" ref="S35" si="48">R35-R36+Q35</f>
-        <v>-2110.12</v>
+        <v>-3931.47</v>
       </c>
       <c r="T35" s="6">
         <v>2463.1999999999998</v>
       </c>
-      <c r="U35" s="34">
+      <c r="U35" s="33">
         <f t="shared" ref="U35" si="49">T35-T36+S35</f>
-        <v>-288.77</v>
+        <v>-2110.12</v>
       </c>
     </row>
     <row r="36" spans="2:21" ht="15.5">
       <c r="B36" s="9"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="7">
+        <v>2463.1999999999998</v>
+      </c>
+      <c r="E36" s="33"/>
+      <c r="F36" s="7">
+        <v>0</v>
+      </c>
+      <c r="G36" s="33"/>
       <c r="H36" s="7">
         <v>2100</v>
       </c>
-      <c r="I36" s="34"/>
+      <c r="I36" s="33"/>
       <c r="J36" s="7">
         <f>CANARD_Clôtures!$B$6</f>
         <v>25.05</v>
       </c>
-      <c r="K36" s="34"/>
+      <c r="K36" s="33"/>
       <c r="L36" s="7">
         <f>CANARD_Clôtures!$C$6</f>
         <v>0</v>
       </c>
-      <c r="M36" s="34"/>
+      <c r="M36" s="33"/>
       <c r="N36" s="7">
         <f>CANARD_Clôtures!$D$6</f>
         <v>0</v>
       </c>
-      <c r="O36" s="34"/>
+      <c r="O36" s="33"/>
       <c r="P36" s="7">
         <f>F35</f>
         <v>0</v>
       </c>
-      <c r="Q36" s="34"/>
+      <c r="Q36" s="33"/>
       <c r="R36" s="7">
         <f>H35</f>
         <v>2000</v>
       </c>
-      <c r="S36" s="34"/>
+      <c r="S36" s="33"/>
       <c r="T36" s="7">
         <v>641.85</v>
       </c>
-      <c r="U36" s="34"/>
+      <c r="U36" s="33"/>
     </row>
     <row r="37" spans="2:21" ht="15.5">
       <c r="B37" s="9"/>
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="34">
+      <c r="D37" s="6">
+        <v>2379.29</v>
+      </c>
+      <c r="E37" s="33">
         <f>D37-D38</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="6"/>
-      <c r="G37" s="34">
+        <v>933.56</v>
+      </c>
+      <c r="F37" s="6">
+        <v>4406.34</v>
+      </c>
+      <c r="G37" s="33">
         <f t="shared" ref="G37" si="50">F37-F38+E37</f>
-        <v>0</v>
+        <v>5339.9</v>
       </c>
       <c r="H37" s="6">
         <v>1600</v>
       </c>
-      <c r="I37" s="34">
+      <c r="I37" s="33">
         <f t="shared" ref="I37" si="51">H37-H38+G37</f>
-        <v>-370</v>
+        <v>4969.8999999999996</v>
       </c>
       <c r="J37" s="6">
         <f>CASTOR_Clôtures!$B$3</f>
         <v>597.19000000000005</v>
       </c>
-      <c r="K37" s="34">
+      <c r="K37" s="33">
         <f t="shared" ref="K37" si="52">J37-J38+I37</f>
-        <v>-562.79999999999995</v>
+        <v>4777.0999999999995</v>
       </c>
       <c r="L37" s="6">
         <f>CASTOR_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M37" s="34">
+      <c r="M37" s="33">
         <f t="shared" ref="M37" si="53">L37-L38+K37</f>
-        <v>-562.79999999999995</v>
+        <v>4777.0999999999995</v>
       </c>
       <c r="N37" s="6">
         <f>CASTOR_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O37" s="34">
+      <c r="O37" s="33">
         <f t="shared" ref="O37" si="54">N37-N38+M37</f>
-        <v>-562.79999999999995</v>
+        <v>4777.0999999999995</v>
       </c>
       <c r="P37" s="6"/>
-      <c r="Q37" s="34">
+      <c r="Q37" s="33">
         <f>P37-P38+O37</f>
-        <v>-562.79999999999995</v>
+        <v>370.75999999999931</v>
       </c>
       <c r="R37" s="6"/>
-      <c r="S37" s="34">
+      <c r="S37" s="33">
         <f t="shared" ref="S37" si="55">R37-R38+Q37</f>
-        <v>-2162.8000000000002</v>
+        <v>-1229.2400000000007</v>
       </c>
       <c r="T37" s="6">
         <v>1445.73</v>
       </c>
       <c r="U37" s="46">
         <f t="shared" ref="U37" si="56">T37-T38+S37</f>
-        <v>-3096.36</v>
+        <v>-2162.8000000000006</v>
       </c>
     </row>
     <row r="38" spans="2:21" ht="15.5">
       <c r="B38" s="9"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="7">
+        <v>1445.73</v>
+      </c>
+      <c r="E38" s="33"/>
+      <c r="F38" s="7">
+        <v>0</v>
+      </c>
+      <c r="G38" s="33"/>
       <c r="H38" s="7">
         <v>1970</v>
       </c>
-      <c r="I38" s="34"/>
+      <c r="I38" s="33"/>
       <c r="J38" s="7">
         <f>CASTOR_Clôtures!$B$5</f>
         <v>789.99</v>
       </c>
-      <c r="K38" s="34"/>
+      <c r="K38" s="33"/>
       <c r="L38" s="7">
         <f>CASTOR_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M38" s="34"/>
+      <c r="M38" s="33"/>
       <c r="N38" s="7">
         <f>CASTOR_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O38" s="34"/>
+      <c r="O38" s="33"/>
       <c r="P38" s="7">
         <f>F37</f>
-        <v>0</v>
-      </c>
-      <c r="Q38" s="34"/>
+        <v>4406.34</v>
+      </c>
+      <c r="Q38" s="33"/>
       <c r="R38" s="7">
         <f>H37</f>
         <v>1600</v>
       </c>
-      <c r="S38" s="34"/>
+      <c r="S38" s="33"/>
       <c r="T38" s="7">
         <v>2379.29</v>
       </c>
@@ -3073,415 +3091,427 @@
     </row>
     <row r="39" spans="2:21" ht="15.5">
       <c r="B39" s="9"/>
-      <c r="C39" s="33" t="s">
+      <c r="C39" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="34">
+      <c r="D39" s="6">
+        <v>0</v>
+      </c>
+      <c r="E39" s="33">
         <f>D39-D40</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="6"/>
-      <c r="G39" s="34">
+        <v>-128.69999999999999</v>
+      </c>
+      <c r="F39" s="6">
+        <v>0</v>
+      </c>
+      <c r="G39" s="33">
         <f t="shared" ref="G39" si="57">F39-F40+E39</f>
-        <v>0</v>
+        <v>-128.69999999999999</v>
       </c>
       <c r="H39" s="6">
         <v>0</v>
       </c>
-      <c r="I39" s="34">
+      <c r="I39" s="33">
         <f t="shared" ref="I39" si="58">H39-H40+G39</f>
-        <v>-330</v>
+        <v>-458.7</v>
       </c>
       <c r="J39" s="6">
         <f>DEBOUC_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K39" s="34">
+      <c r="K39" s="33">
         <f t="shared" ref="K39" si="59">J39-J40+I39</f>
-        <v>-356.33</v>
+        <v>-485.03</v>
       </c>
       <c r="L39" s="6">
         <f>DEBOUC_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M39" s="34">
+      <c r="M39" s="33">
         <f t="shared" ref="M39" si="60">L39-L40+K39</f>
-        <v>-356.33</v>
+        <v>-485.03</v>
       </c>
       <c r="N39" s="6">
         <f>DEBOUC_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O39" s="34">
+      <c r="O39" s="33">
         <f t="shared" ref="O39" si="61">N39-N40+M39</f>
-        <v>-356.33</v>
+        <v>-485.03</v>
       </c>
       <c r="P39" s="6"/>
-      <c r="Q39" s="34">
+      <c r="Q39" s="33">
         <f>P39-P40+O39</f>
-        <v>-356.33</v>
+        <v>-485.03</v>
       </c>
       <c r="R39" s="6"/>
-      <c r="S39" s="34">
+      <c r="S39" s="33">
         <f t="shared" ref="S39" si="62">R39-R40+Q39</f>
-        <v>-356.33</v>
+        <v>-485.03</v>
       </c>
       <c r="T39" s="6">
         <v>128.69999999999999</v>
       </c>
-      <c r="U39" s="34">
+      <c r="U39" s="33">
         <f t="shared" ref="U39" si="63">T39-T40+S39</f>
-        <v>-227.63</v>
+        <v>-356.33</v>
       </c>
     </row>
     <row r="40" spans="2:21" ht="15.5">
       <c r="B40" s="9"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="7">
+        <v>128.69999999999999</v>
+      </c>
+      <c r="E40" s="33"/>
+      <c r="F40" s="7">
+        <v>0</v>
+      </c>
+      <c r="G40" s="33"/>
       <c r="H40" s="7">
         <v>330</v>
       </c>
-      <c r="I40" s="34"/>
+      <c r="I40" s="33"/>
       <c r="J40" s="7">
         <f>DEBOUC_Clôtures!$B$5</f>
         <v>26.33</v>
       </c>
-      <c r="K40" s="34"/>
+      <c r="K40" s="33"/>
       <c r="L40" s="7">
         <f>DEBOUC_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M40" s="34"/>
+      <c r="M40" s="33"/>
       <c r="N40" s="7">
         <f>DEBOUC_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O40" s="34"/>
+      <c r="O40" s="33"/>
       <c r="P40" s="7">
         <f>F39</f>
         <v>0</v>
       </c>
-      <c r="Q40" s="34"/>
+      <c r="Q40" s="33"/>
       <c r="R40" s="7">
         <f>H39</f>
         <v>0</v>
       </c>
-      <c r="S40" s="34"/>
+      <c r="S40" s="33"/>
       <c r="T40" s="7"/>
-      <c r="U40" s="34"/>
+      <c r="U40" s="33"/>
     </row>
     <row r="41" spans="2:21" ht="15.5">
       <c r="B41" s="9"/>
-      <c r="C41" s="33" t="s">
+      <c r="C41" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="34">
+      <c r="D41" s="6">
+        <v>114.95</v>
+      </c>
+      <c r="E41" s="33">
         <f>D41-D42</f>
-        <v>0</v>
+        <v>33.049999999999997</v>
       </c>
       <c r="F41" s="6"/>
-      <c r="G41" s="34">
-        <f t="shared" ref="G41" si="64">F41-F42+E41</f>
-        <v>0</v>
+      <c r="G41" s="33">
+        <f>F41-F42+E41</f>
+        <v>33.049999999999997</v>
       </c>
       <c r="H41" s="6">
         <v>600</v>
       </c>
-      <c r="I41" s="34">
-        <f t="shared" ref="I41" si="65">H41-H42+G41</f>
-        <v>-1000</v>
+      <c r="I41" s="33">
+        <f t="shared" ref="I41" si="64">H41-H42+G41</f>
+        <v>-966.95</v>
       </c>
       <c r="J41" s="6">
         <f>EVA_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K41" s="34">
-        <f t="shared" ref="K41" si="66">J41-J42+I41</f>
-        <v>-1269.05</v>
+      <c r="K41" s="33">
+        <f t="shared" ref="K41" si="65">J41-J42+I41</f>
+        <v>-1236</v>
       </c>
       <c r="L41" s="6">
         <f>EVA_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M41" s="34">
-        <f t="shared" ref="M41" si="67">L41-L42+K41</f>
-        <v>-1269.05</v>
+      <c r="M41" s="33">
+        <f t="shared" ref="M41" si="66">L41-L42+K41</f>
+        <v>-1236</v>
       </c>
       <c r="N41" s="6">
         <f>EVA_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O41" s="34">
-        <f t="shared" ref="O41" si="68">N41-N42+M41</f>
-        <v>-1269.05</v>
+      <c r="O41" s="33">
+        <f t="shared" ref="O41" si="67">N41-N42+M41</f>
+        <v>-1236</v>
       </c>
       <c r="P41" s="6"/>
-      <c r="Q41" s="34">
+      <c r="Q41" s="33">
         <f>P41-P42+O41</f>
-        <v>-1269.05</v>
+        <v>-1236</v>
       </c>
       <c r="R41" s="6"/>
-      <c r="S41" s="34">
-        <f t="shared" ref="S41" si="69">R41-R42+Q41</f>
-        <v>-1869.05</v>
+      <c r="S41" s="33">
+        <f t="shared" ref="S41" si="68">R41-R42+Q41</f>
+        <v>-1836</v>
       </c>
       <c r="T41" s="6">
         <v>81.900000000000006</v>
       </c>
-      <c r="U41" s="34">
-        <f t="shared" ref="U41" si="70">T41-T42+S41</f>
-        <v>-1902.1</v>
+      <c r="U41" s="33">
+        <f t="shared" ref="U41" si="69">T41-T42+S41</f>
+        <v>-1869.05</v>
       </c>
     </row>
     <row r="42" spans="2:21" ht="15.5">
       <c r="B42" s="9"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="7">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="E42" s="33"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="34"/>
+      <c r="G42" s="33"/>
       <c r="H42" s="7">
         <v>1600</v>
       </c>
-      <c r="I42" s="34"/>
+      <c r="I42" s="33"/>
       <c r="J42" s="7">
         <f>EVA_Clôtures!$B$5</f>
         <v>269.05</v>
       </c>
-      <c r="K42" s="34"/>
+      <c r="K42" s="33"/>
       <c r="L42" s="7">
         <f>EVA_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M42" s="34"/>
+      <c r="M42" s="33"/>
       <c r="N42" s="7">
         <f>EVA_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O42" s="34"/>
+      <c r="O42" s="33"/>
       <c r="P42" s="7">
         <f>F41</f>
         <v>0</v>
       </c>
-      <c r="Q42" s="34"/>
+      <c r="Q42" s="33"/>
       <c r="R42" s="7">
         <f>H41</f>
         <v>600</v>
       </c>
-      <c r="S42" s="34"/>
+      <c r="S42" s="33"/>
       <c r="T42" s="7">
         <v>114.95</v>
       </c>
-      <c r="U42" s="34"/>
+      <c r="U42" s="33"/>
     </row>
     <row r="43" spans="2:21" ht="15.5">
       <c r="B43" s="9"/>
-      <c r="C43" s="33" t="s">
+      <c r="C43" s="34" t="s">
         <v>23</v>
       </c>
       <c r="D43" s="6"/>
-      <c r="E43" s="34">
+      <c r="E43" s="33">
         <f>D43-D44</f>
         <v>0</v>
       </c>
       <c r="F43" s="6"/>
-      <c r="G43" s="34">
+      <c r="G43" s="33">
         <f>F43-F44+E43</f>
         <v>0</v>
       </c>
       <c r="H43" s="6">
         <v>0</v>
       </c>
-      <c r="I43" s="34">
-        <f t="shared" ref="I43" si="71">H43-H44+G43</f>
+      <c r="I43" s="33">
+        <f t="shared" ref="I43" si="70">H43-H44+G43</f>
         <v>-508</v>
       </c>
       <c r="J43" s="6">
         <f>EPILIBRE_Clôtures!B2</f>
         <v>55.5</v>
       </c>
-      <c r="K43" s="34">
-        <f t="shared" ref="K43" si="72">J43-J44+I43</f>
+      <c r="K43" s="33">
+        <f t="shared" ref="K43" si="71">J43-J44+I43</f>
         <v>-711.85</v>
       </c>
       <c r="L43" s="6">
         <f>EPILIBRE_Clôtures!C2</f>
         <v>0</v>
       </c>
-      <c r="M43" s="34">
-        <f t="shared" ref="M43" si="73">L43-L44+K43</f>
+      <c r="M43" s="33">
+        <f t="shared" ref="M43" si="72">L43-L44+K43</f>
         <v>-711.85</v>
       </c>
       <c r="N43" s="6">
         <f>EPILIBRE_Clôtures!D2</f>
         <v>0</v>
       </c>
-      <c r="O43" s="34">
-        <f t="shared" ref="O43" si="74">N43-N44+M43</f>
+      <c r="O43" s="33">
+        <f t="shared" ref="O43" si="73">N43-N44+M43</f>
         <v>-711.85</v>
       </c>
       <c r="P43" s="6"/>
-      <c r="Q43" s="34">
+      <c r="Q43" s="33">
         <f>P43-P44+O43</f>
         <v>-711.85</v>
       </c>
       <c r="R43" s="6"/>
-      <c r="S43" s="34">
-        <f t="shared" ref="S43" si="75">R43-R44+Q43</f>
+      <c r="S43" s="33">
+        <f t="shared" ref="S43" si="74">R43-R44+Q43</f>
         <v>-711.85</v>
       </c>
       <c r="T43" s="6">
         <v>351.1</v>
       </c>
-      <c r="U43" s="34">
-        <f t="shared" ref="U43:U45" si="76">T43-T44+S43</f>
+      <c r="U43" s="33">
+        <f t="shared" ref="U43:U45" si="75">T43-T44+S43</f>
         <v>-538.5</v>
       </c>
     </row>
     <row r="44" spans="2:21" ht="15.5">
       <c r="B44" s="9"/>
-      <c r="C44" s="33"/>
+      <c r="C44" s="34"/>
       <c r="D44" s="7"/>
-      <c r="E44" s="34"/>
+      <c r="E44" s="33"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="34"/>
+      <c r="G44" s="33"/>
       <c r="H44" s="7">
         <v>508</v>
       </c>
-      <c r="I44" s="34"/>
+      <c r="I44" s="33"/>
       <c r="J44" s="7">
         <f>EPILIBRE_Clôtures!B5</f>
         <v>259.35000000000002</v>
       </c>
-      <c r="K44" s="34"/>
+      <c r="K44" s="33"/>
       <c r="L44" s="7">
         <f>EPILIBRE_Clôtures!C5</f>
         <v>0</v>
       </c>
-      <c r="M44" s="34"/>
+      <c r="M44" s="33"/>
       <c r="N44" s="7">
         <f>EPILIBRE_Clôtures!D5</f>
         <v>0</v>
       </c>
-      <c r="O44" s="34"/>
+      <c r="O44" s="33"/>
       <c r="P44" s="7">
         <f>F43</f>
         <v>0</v>
       </c>
-      <c r="Q44" s="34"/>
+      <c r="Q44" s="33"/>
       <c r="R44" s="7">
         <f>H43</f>
         <v>0</v>
       </c>
-      <c r="S44" s="34"/>
+      <c r="S44" s="33"/>
       <c r="T44" s="7">
         <v>177.75</v>
       </c>
-      <c r="U44" s="34"/>
+      <c r="U44" s="33"/>
     </row>
     <row r="45" spans="2:21" ht="15.5">
       <c r="B45" s="9"/>
-      <c r="C45" s="33"/>
+      <c r="C45" s="34"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="34">
+      <c r="E45" s="33">
         <f>D45-D46</f>
         <v>0</v>
       </c>
       <c r="F45" s="6"/>
-      <c r="G45" s="34">
+      <c r="G45" s="33">
         <f>F45-F46+E45</f>
         <v>0</v>
       </c>
       <c r="H45" s="6">
         <v>1200</v>
       </c>
-      <c r="I45" s="34">
-        <f t="shared" ref="I45" si="77">H45-H46+G45</f>
+      <c r="I45" s="33">
+        <f t="shared" ref="I45" si="76">H45-H46+G45</f>
         <v>-300</v>
       </c>
       <c r="J45" s="6">
         <f>EPILIBRE_Clôtures!B3</f>
         <v>488.15</v>
       </c>
-      <c r="K45" s="34">
-        <f t="shared" ref="K45" si="78">J45-J46+I45</f>
+      <c r="K45" s="33">
+        <f t="shared" ref="K45" si="77">J45-J46+I45</f>
         <v>188.14999999999998</v>
       </c>
       <c r="L45" s="6">
         <f>EPILIBRE_Clôtures!C3</f>
         <v>0</v>
       </c>
-      <c r="M45" s="34">
-        <f t="shared" ref="M45" si="79">L45-L46+K45</f>
+      <c r="M45" s="33">
+        <f t="shared" ref="M45" si="78">L45-L46+K45</f>
         <v>188.14999999999998</v>
       </c>
       <c r="N45" s="6">
         <f>EPILIBRE_Clôtures!D3</f>
         <v>0</v>
       </c>
-      <c r="O45" s="34">
-        <f t="shared" ref="O45" si="80">N45-N46+M45</f>
+      <c r="O45" s="33">
+        <f t="shared" ref="O45" si="79">N45-N46+M45</f>
         <v>188.14999999999998</v>
       </c>
       <c r="P45" s="6"/>
-      <c r="Q45" s="34">
+      <c r="Q45" s="33">
         <f>P45-P46+O45</f>
         <v>188.14999999999998</v>
       </c>
       <c r="R45" s="6"/>
-      <c r="S45" s="34">
-        <f t="shared" ref="S45" si="81">R45-R46+Q45</f>
+      <c r="S45" s="33">
+        <f t="shared" ref="S45" si="80">R45-R46+Q45</f>
         <v>-1011.85</v>
       </c>
       <c r="T45" s="6">
         <v>1588.28</v>
       </c>
       <c r="U45" s="46">
-        <f t="shared" si="76"/>
+        <f t="shared" si="75"/>
         <v>-1192.9000000000001</v>
       </c>
     </row>
     <row r="46" spans="2:21" ht="15.5">
       <c r="B46" s="9"/>
-      <c r="C46" s="33"/>
+      <c r="C46" s="34"/>
       <c r="D46" s="7"/>
-      <c r="E46" s="34"/>
+      <c r="E46" s="33"/>
       <c r="F46" s="7"/>
-      <c r="G46" s="34"/>
+      <c r="G46" s="33"/>
       <c r="H46" s="7">
         <v>1500</v>
       </c>
-      <c r="I46" s="34"/>
+      <c r="I46" s="33"/>
       <c r="J46" s="7">
         <f>EPILIBRE_Clôtures!B6</f>
         <v>0</v>
       </c>
-      <c r="K46" s="34"/>
+      <c r="K46" s="33"/>
       <c r="L46" s="7">
         <f>EPILIBRE_Clôtures!C6</f>
         <v>0</v>
       </c>
-      <c r="M46" s="34"/>
+      <c r="M46" s="33"/>
       <c r="N46" s="7">
         <f>EPILIBRE_Clôtures!D6</f>
         <v>0</v>
       </c>
-      <c r="O46" s="34"/>
+      <c r="O46" s="33"/>
       <c r="P46" s="7">
         <f>F45</f>
         <v>0</v>
       </c>
-      <c r="Q46" s="34"/>
+      <c r="Q46" s="33"/>
       <c r="R46" s="7">
         <f>H45</f>
         <v>1200</v>
       </c>
-      <c r="S46" s="34"/>
+      <c r="S46" s="33"/>
       <c r="T46" s="7">
         <v>1769.33</v>
       </c>
@@ -3489,851 +3519,853 @@
     </row>
     <row r="47" spans="2:21" ht="15.5">
       <c r="B47" s="9"/>
-      <c r="C47" s="33" t="s">
+      <c r="C47" s="34" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="6"/>
-      <c r="E47" s="34">
+      <c r="E47" s="33">
         <f>D47-D48</f>
         <v>0</v>
       </c>
       <c r="F47" s="6"/>
-      <c r="G47" s="34">
-        <f t="shared" ref="G47" si="82">F47-F48+E47</f>
+      <c r="G47" s="33">
+        <f t="shared" ref="G47" si="81">F47-F48+E47</f>
         <v>0</v>
       </c>
       <c r="H47" s="6">
         <v>0</v>
       </c>
-      <c r="I47" s="34">
-        <f t="shared" ref="I47" si="83">H47-H48+G47</f>
+      <c r="I47" s="33">
+        <f t="shared" ref="I47" si="82">H47-H48+G47</f>
         <v>-300</v>
       </c>
       <c r="J47" s="6">
         <f>IE_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K47" s="34">
-        <f t="shared" ref="K47" si="84">J47-J48+I47</f>
+      <c r="K47" s="33">
+        <f t="shared" ref="K47" si="83">J47-J48+I47</f>
         <v>-300</v>
       </c>
       <c r="L47" s="6">
         <f>IE_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M47" s="34">
-        <f t="shared" ref="M47" si="85">L47-L48+K47</f>
+      <c r="M47" s="33">
+        <f t="shared" ref="M47" si="84">L47-L48+K47</f>
         <v>-300</v>
       </c>
       <c r="N47" s="6">
         <f>IE_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O47" s="34">
-        <f t="shared" ref="O47" si="86">N47-N48+M47</f>
+      <c r="O47" s="33">
+        <f t="shared" ref="O47" si="85">N47-N48+M47</f>
         <v>-300</v>
       </c>
       <c r="P47" s="6"/>
-      <c r="Q47" s="34">
+      <c r="Q47" s="33">
         <f>P47-P48+O47</f>
         <v>-300</v>
       </c>
       <c r="R47" s="6"/>
-      <c r="S47" s="34">
-        <f t="shared" ref="S47" si="87">R47-R48+Q47</f>
+      <c r="S47" s="33">
+        <f t="shared" ref="S47" si="86">R47-R48+Q47</f>
         <v>-300</v>
       </c>
       <c r="T47" s="6">
         <v>71.709999999999994</v>
       </c>
-      <c r="U47" s="34">
-        <f t="shared" ref="U47" si="88">T47-T48+S47</f>
+      <c r="U47" s="33">
+        <f t="shared" ref="U47" si="87">T47-T48+S47</f>
         <v>-228.29000000000002</v>
       </c>
     </row>
     <row r="48" spans="2:21" ht="15.5">
       <c r="B48" s="9"/>
-      <c r="C48" s="33"/>
+      <c r="C48" s="34"/>
       <c r="D48" s="7"/>
-      <c r="E48" s="34"/>
+      <c r="E48" s="33"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="34"/>
+      <c r="G48" s="33"/>
       <c r="H48" s="7">
         <v>300</v>
       </c>
-      <c r="I48" s="34"/>
+      <c r="I48" s="33"/>
       <c r="J48" s="7">
         <f>IE_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K48" s="34"/>
+      <c r="K48" s="33"/>
       <c r="L48" s="7">
         <f>IE_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M48" s="34"/>
+      <c r="M48" s="33"/>
       <c r="N48" s="7">
         <f>IE_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O48" s="34"/>
+      <c r="O48" s="33"/>
       <c r="P48" s="7">
         <f>F47</f>
         <v>0</v>
       </c>
-      <c r="Q48" s="34"/>
+      <c r="Q48" s="33"/>
       <c r="R48" s="7">
         <f>H47</f>
         <v>0</v>
       </c>
-      <c r="S48" s="34"/>
+      <c r="S48" s="33"/>
       <c r="T48" s="7"/>
-      <c r="U48" s="34"/>
+      <c r="U48" s="33"/>
     </row>
     <row r="49" spans="2:21" ht="15.5">
       <c r="B49" s="9"/>
-      <c r="C49" s="33" t="s">
+      <c r="C49" s="34" t="s">
         <v>29</v>
       </c>
       <c r="D49" s="6"/>
-      <c r="E49" s="34">
+      <c r="E49" s="33">
         <f>D49-D50</f>
         <v>0</v>
       </c>
       <c r="F49" s="6"/>
-      <c r="G49" s="34">
-        <f t="shared" ref="G49" si="89">F49-F50+E49</f>
+      <c r="G49" s="33">
+        <f t="shared" ref="G49" si="88">F49-F50+E49</f>
         <v>0</v>
       </c>
       <c r="H49" s="6">
         <v>8000</v>
       </c>
-      <c r="I49" s="34">
-        <f t="shared" ref="I49" si="90">H49-H50+G49</f>
+      <c r="I49" s="33">
+        <f t="shared" ref="I49" si="89">H49-H50+G49</f>
         <v>-2000</v>
       </c>
       <c r="J49" s="6">
         <f>LOWTECH_Clôtures!$B$3</f>
         <v>292.47000000000003</v>
       </c>
-      <c r="K49" s="34">
-        <f t="shared" ref="K49" si="91">J49-J50+I49</f>
+      <c r="K49" s="33">
+        <f t="shared" ref="K49" si="90">J49-J50+I49</f>
         <v>-1721.78</v>
       </c>
       <c r="L49" s="6">
         <f>LOWTECH_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M49" s="34">
-        <f t="shared" ref="M49" si="92">L49-L50+K49</f>
+      <c r="M49" s="33">
+        <f t="shared" ref="M49" si="91">L49-L50+K49</f>
         <v>-1721.78</v>
       </c>
       <c r="N49" s="6">
         <f>LOWTECH_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O49" s="34">
-        <f t="shared" ref="O49" si="93">N49-N50+M49</f>
+      <c r="O49" s="33">
+        <f t="shared" ref="O49" si="92">N49-N50+M49</f>
         <v>-1721.78</v>
       </c>
       <c r="P49" s="6"/>
-      <c r="Q49" s="34">
+      <c r="Q49" s="33">
         <f>P49-P50+O49</f>
         <v>-1721.78</v>
       </c>
       <c r="R49" s="6"/>
-      <c r="S49" s="34">
-        <f t="shared" ref="S49" si="94">R49-R50+Q49</f>
+      <c r="S49" s="33">
+        <f t="shared" ref="S49" si="93">R49-R50+Q49</f>
         <v>-9721.7800000000007</v>
       </c>
       <c r="T49" s="6">
         <v>292.47000000000003</v>
       </c>
-      <c r="U49" s="34">
-        <f t="shared" ref="U49" si="95">T49-T50+S49</f>
+      <c r="U49" s="33">
+        <f t="shared" ref="U49" si="94">T49-T50+S49</f>
         <v>-9711.7100000000009</v>
       </c>
     </row>
     <row r="50" spans="2:21" ht="15.5">
       <c r="B50" s="9"/>
-      <c r="C50" s="33"/>
+      <c r="C50" s="34"/>
       <c r="D50" s="7"/>
-      <c r="E50" s="34"/>
+      <c r="E50" s="33"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="34"/>
+      <c r="G50" s="33"/>
       <c r="H50" s="7">
         <v>10000</v>
       </c>
-      <c r="I50" s="34"/>
+      <c r="I50" s="33"/>
       <c r="J50" s="7">
         <f>LOWTECH_Clôtures!$B$5</f>
         <v>14.25</v>
       </c>
-      <c r="K50" s="34"/>
+      <c r="K50" s="33"/>
       <c r="L50" s="7">
         <f>LOWTECH_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M50" s="34"/>
+      <c r="M50" s="33"/>
       <c r="N50" s="7">
         <f>LOWTECH_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O50" s="34"/>
+      <c r="O50" s="33"/>
       <c r="P50" s="7">
         <f>F49</f>
         <v>0</v>
       </c>
-      <c r="Q50" s="34"/>
+      <c r="Q50" s="33"/>
       <c r="R50" s="7">
         <f>H49</f>
         <v>8000</v>
       </c>
-      <c r="S50" s="34"/>
+      <c r="S50" s="33"/>
       <c r="T50" s="7">
         <v>282.39999999999998</v>
       </c>
-      <c r="U50" s="34"/>
+      <c r="U50" s="33"/>
     </row>
     <row r="51" spans="2:21" ht="15.5">
       <c r="B51" s="9"/>
-      <c r="C51" s="33" t="s">
+      <c r="C51" s="34" t="s">
         <v>24</v>
       </c>
       <c r="D51" s="6"/>
-      <c r="E51" s="34">
+      <c r="E51" s="33">
         <f>D51-D52</f>
         <v>0</v>
       </c>
       <c r="F51" s="6"/>
-      <c r="G51" s="34">
-        <f t="shared" ref="G51" si="96">F51-F52+E51</f>
+      <c r="G51" s="33">
+        <f t="shared" ref="G51" si="95">F51-F52+E51</f>
         <v>0</v>
       </c>
       <c r="H51" s="6">
         <v>0</v>
       </c>
-      <c r="I51" s="34">
-        <f t="shared" ref="I51" si="97">H51-H52+G51</f>
+      <c r="I51" s="33">
+        <f t="shared" ref="I51" si="96">H51-H52+G51</f>
         <v>-1050</v>
       </c>
       <c r="J51" s="6">
         <f>JARDIN_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="34">
-        <f t="shared" ref="K51" si="98">J51-J52+I51</f>
+      <c r="K51" s="33">
+        <f t="shared" ref="K51" si="97">J51-J52+I51</f>
         <v>-1100</v>
       </c>
       <c r="L51" s="6">
         <f>JARDIN_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M51" s="34">
-        <f t="shared" ref="M51" si="99">L51-L52+K51</f>
+      <c r="M51" s="33">
+        <f t="shared" ref="M51" si="98">L51-L52+K51</f>
         <v>-1100</v>
       </c>
       <c r="N51" s="6">
         <f>JARDIN_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O51" s="34">
-        <f t="shared" ref="O51" si="100">N51-N52+M51</f>
+      <c r="O51" s="33">
+        <f t="shared" ref="O51" si="99">N51-N52+M51</f>
         <v>-1100</v>
       </c>
       <c r="P51" s="6"/>
-      <c r="Q51" s="34">
+      <c r="Q51" s="33">
         <f>P51-P52+O51</f>
         <v>-1100</v>
       </c>
       <c r="R51" s="6"/>
-      <c r="S51" s="34">
-        <f t="shared" ref="S51" si="101">R51-R52+Q51</f>
+      <c r="S51" s="33">
+        <f t="shared" ref="S51" si="100">R51-R52+Q51</f>
         <v>-1100</v>
       </c>
       <c r="T51" s="6">
         <v>1022.8</v>
       </c>
-      <c r="U51" s="34">
-        <f t="shared" ref="U51" si="102">T51-T52+S51</f>
+      <c r="U51" s="33">
+        <f t="shared" ref="U51" si="101">T51-T52+S51</f>
         <v>-289.20000000000005</v>
       </c>
     </row>
     <row r="52" spans="2:21" ht="15.5">
       <c r="B52" s="9"/>
-      <c r="C52" s="33"/>
+      <c r="C52" s="34"/>
       <c r="D52" s="7"/>
-      <c r="E52" s="34"/>
+      <c r="E52" s="33"/>
       <c r="F52" s="7"/>
-      <c r="G52" s="34"/>
+      <c r="G52" s="33"/>
       <c r="H52" s="7">
         <v>1050</v>
       </c>
-      <c r="I52" s="34"/>
+      <c r="I52" s="33"/>
       <c r="J52" s="7">
         <f>JARDIN_Clôtures!$B$5</f>
         <v>50</v>
       </c>
-      <c r="K52" s="34"/>
+      <c r="K52" s="33"/>
       <c r="L52" s="7">
         <f>JARDIN_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M52" s="34"/>
+      <c r="M52" s="33"/>
       <c r="N52" s="7">
         <f>JARDIN_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O52" s="34"/>
+      <c r="O52" s="33"/>
       <c r="P52" s="7">
         <f>F51</f>
         <v>0</v>
       </c>
-      <c r="Q52" s="34"/>
+      <c r="Q52" s="33"/>
       <c r="R52" s="7">
         <f>H51</f>
         <v>0</v>
       </c>
-      <c r="S52" s="34"/>
+      <c r="S52" s="33"/>
       <c r="T52" s="7">
         <v>212</v>
       </c>
-      <c r="U52" s="34"/>
+      <c r="U52" s="33"/>
     </row>
     <row r="53" spans="2:21" ht="15.5">
       <c r="B53" s="9"/>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="34" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="6"/>
-      <c r="E53" s="34">
+      <c r="E53" s="33">
         <f>D53-D54</f>
         <v>0</v>
       </c>
       <c r="F53" s="6"/>
-      <c r="G53" s="34">
-        <f t="shared" ref="G53" si="103">F53-F54+E53</f>
+      <c r="G53" s="33">
+        <f t="shared" ref="G53" si="102">F53-F54+E53</f>
         <v>0</v>
       </c>
       <c r="H53" s="6">
         <v>0</v>
       </c>
-      <c r="I53" s="34">
-        <f t="shared" ref="I53" si="104">H53-H54+G53</f>
+      <c r="I53" s="33">
+        <f t="shared" ref="I53" si="103">H53-H54+G53</f>
         <v>-180</v>
       </c>
       <c r="J53" s="6">
-        <v>0</v>
-      </c>
-      <c r="K53" s="34">
-        <f t="shared" ref="K53" si="105">J53-J54+I53</f>
-        <v>-180</v>
+        <f>MEUBLE_Clôtures!$B$2</f>
+        <v>2061.25</v>
+      </c>
+      <c r="K53" s="33">
+        <f t="shared" ref="K53" si="104">J53-J54+I53</f>
+        <v>1116.4299999999998</v>
       </c>
       <c r="L53" s="6">
         <v>0</v>
       </c>
-      <c r="M53" s="34">
-        <f t="shared" ref="M53" si="106">L53-L54+K53</f>
-        <v>-180</v>
+      <c r="M53" s="33">
+        <f t="shared" ref="M53" si="105">L53-L54+K53</f>
+        <v>1116.4299999999998</v>
       </c>
       <c r="N53" s="6">
         <v>0</v>
       </c>
-      <c r="O53" s="34">
-        <f t="shared" ref="O53" si="107">N53-N54+M53</f>
-        <v>-180</v>
+      <c r="O53" s="33">
+        <f t="shared" ref="O53" si="106">N53-N54+M53</f>
+        <v>1116.4299999999998</v>
       </c>
       <c r="P53" s="6"/>
-      <c r="Q53" s="34">
+      <c r="Q53" s="33">
         <f>P53-P54+O53</f>
-        <v>-180</v>
+        <v>1116.4299999999998</v>
       </c>
       <c r="R53" s="6"/>
-      <c r="S53" s="34">
-        <f t="shared" ref="S53" si="108">R53-R54+Q53</f>
-        <v>-180</v>
+      <c r="S53" s="33">
+        <f t="shared" ref="S53" si="107">R53-R54+Q53</f>
+        <v>1116.4299999999998</v>
       </c>
       <c r="T53" s="6">
         <v>1456.25</v>
       </c>
-      <c r="U53" s="34">
-        <f t="shared" ref="U53" si="109">T53-T54+S53</f>
-        <v>1276.25</v>
+      <c r="U53" s="33">
+        <f t="shared" ref="U53" si="108">T53-T54+S53</f>
+        <v>2572.6799999999998</v>
       </c>
     </row>
     <row r="54" spans="2:21" ht="15.5">
       <c r="B54" s="9"/>
-      <c r="C54" s="33"/>
+      <c r="C54" s="34"/>
       <c r="D54" s="7"/>
-      <c r="E54" s="34"/>
+      <c r="E54" s="33"/>
       <c r="F54" s="7"/>
-      <c r="G54" s="34"/>
+      <c r="G54" s="33"/>
       <c r="H54" s="7">
         <v>180</v>
       </c>
-      <c r="I54" s="34"/>
+      <c r="I54" s="33"/>
       <c r="J54" s="7">
-        <f>MEUBLE_Clôtures!$B$4</f>
-        <v>0</v>
-      </c>
-      <c r="K54" s="34"/>
+        <f>MEUBLE_Clôtures!$B$5</f>
+        <v>764.82</v>
+      </c>
+      <c r="K54" s="33"/>
       <c r="L54" s="7">
-        <f>MEUBLE_Clôtures!$C$4</f>
-        <v>0</v>
-      </c>
-      <c r="M54" s="34"/>
+        <f>MEUBLE_Clôtures!$C$5</f>
+        <v>0</v>
+      </c>
+      <c r="M54" s="33"/>
       <c r="N54" s="7">
-        <f>MEUBLE_Clôtures!$D$4</f>
-        <v>0</v>
-      </c>
-      <c r="O54" s="34"/>
+        <f>MEUBLE_Clôtures!$D$5</f>
+        <v>0</v>
+      </c>
+      <c r="O54" s="33"/>
       <c r="P54" s="7">
         <f>F53</f>
         <v>0</v>
       </c>
-      <c r="Q54" s="34"/>
+      <c r="Q54" s="33"/>
       <c r="R54" s="7">
         <f>H53</f>
         <v>0</v>
       </c>
-      <c r="S54" s="34"/>
+      <c r="S54" s="33"/>
       <c r="T54" s="7"/>
-      <c r="U54" s="34"/>
+      <c r="U54" s="33"/>
     </row>
     <row r="55" spans="2:21" ht="15.5">
       <c r="B55" s="9"/>
-      <c r="C55" s="33"/>
+      <c r="C55" s="34"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="34">
+      <c r="E55" s="33">
         <f>D55-D56</f>
         <v>0</v>
       </c>
       <c r="F55" s="6"/>
-      <c r="G55" s="34">
-        <f t="shared" ref="G55" si="110">F55-F56+E55</f>
+      <c r="G55" s="33">
+        <f t="shared" ref="G55" si="109">F55-F56+E55</f>
         <v>0</v>
       </c>
       <c r="H55" s="6">
         <v>1630</v>
       </c>
-      <c r="I55" s="34">
-        <f t="shared" ref="I55" si="111">H55-H56+G55</f>
+      <c r="I55" s="33">
+        <f t="shared" ref="I55" si="110">H55-H56+G55</f>
         <v>-310</v>
       </c>
       <c r="J55" s="6">
-        <f>MEUBLE_Clôtures!$B$2</f>
-        <v>0</v>
-      </c>
-      <c r="K55" s="34">
-        <f t="shared" ref="K55" si="112">J55-J56+I55</f>
-        <v>-310</v>
+        <f>MEUBLE_Clôtures!$B$3</f>
+        <v>1788.71</v>
+      </c>
+      <c r="K55" s="33">
+        <f>J55-J56+I55</f>
+        <v>1478.71</v>
       </c>
       <c r="L55" s="6">
         <f>MEUBLE_Clôtures!$C$2</f>
         <v>0</v>
       </c>
-      <c r="M55" s="34">
-        <f t="shared" ref="M55" si="113">L55-L56+K55</f>
-        <v>-310</v>
+      <c r="M55" s="33">
+        <f t="shared" ref="M55" si="111">L55-L56+K55</f>
+        <v>1478.71</v>
       </c>
       <c r="N55" s="6">
         <f>MEUBLE_Clôtures!$D$2</f>
         <v>0</v>
       </c>
-      <c r="O55" s="34">
-        <f t="shared" ref="O55" si="114">N55-N56+M55</f>
-        <v>-310</v>
+      <c r="O55" s="33">
+        <f t="shared" ref="O55" si="112">N55-N56+M55</f>
+        <v>1478.71</v>
       </c>
       <c r="P55" s="6"/>
-      <c r="Q55" s="34">
+      <c r="Q55" s="33">
         <f>P55-P56+O55</f>
-        <v>-310</v>
+        <v>1478.71</v>
       </c>
       <c r="R55" s="6"/>
-      <c r="S55" s="34">
-        <f t="shared" ref="S55" si="115">R55-R56+Q55</f>
-        <v>-1940</v>
+      <c r="S55" s="33">
+        <f t="shared" ref="S55" si="113">R55-R56+Q55</f>
+        <v>-151.28999999999996</v>
       </c>
       <c r="T55" s="6">
         <v>1545</v>
       </c>
-      <c r="U55" s="34">
-        <f t="shared" ref="U55" si="116">T55-T56+S55</f>
-        <v>-1024.2</v>
+      <c r="U55" s="33">
+        <f t="shared" ref="U55" si="114">T55-T56+S55</f>
+        <v>764.51</v>
       </c>
     </row>
     <row r="56" spans="2:21" ht="15.5">
       <c r="B56" s="9"/>
-      <c r="C56" s="33"/>
+      <c r="C56" s="34"/>
       <c r="D56" s="7"/>
-      <c r="E56" s="34"/>
+      <c r="E56" s="33"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="34"/>
+      <c r="G56" s="33"/>
       <c r="H56" s="7">
         <v>1940</v>
       </c>
-      <c r="I56" s="34"/>
+      <c r="I56" s="33"/>
       <c r="J56" s="7">
-        <f>MEUBLE_Clôtures!$B$5</f>
-        <v>0</v>
-      </c>
-      <c r="K56" s="34"/>
+        <f>MEUBLE_Clôtures!$B$6</f>
+        <v>0</v>
+      </c>
+      <c r="K56" s="33"/>
       <c r="L56" s="7">
-        <f>MEUBLE_Clôtures!$C$5</f>
-        <v>0</v>
-      </c>
-      <c r="M56" s="34"/>
+        <f>MEUBLE_Clôtures!$C$6</f>
+        <v>0</v>
+      </c>
+      <c r="M56" s="33"/>
       <c r="N56" s="7">
-        <f>MEUBLE_Clôtures!$D$5</f>
-        <v>0</v>
-      </c>
-      <c r="O56" s="34"/>
+        <f>MEUBLE_Clôtures!$D$6</f>
+        <v>0</v>
+      </c>
+      <c r="O56" s="33"/>
       <c r="P56" s="7">
         <f>F55</f>
         <v>0</v>
       </c>
-      <c r="Q56" s="34"/>
+      <c r="Q56" s="33"/>
       <c r="R56" s="7">
         <f>H55</f>
         <v>1630</v>
       </c>
-      <c r="S56" s="34"/>
+      <c r="S56" s="33"/>
       <c r="T56" s="7">
         <v>629.20000000000005</v>
       </c>
-      <c r="U56" s="34"/>
+      <c r="U56" s="33"/>
     </row>
     <row r="57" spans="2:21" ht="15.5">
       <c r="B57" s="9"/>
-      <c r="C57" s="33" t="s">
+      <c r="C57" s="34" t="s">
         <v>26</v>
       </c>
       <c r="D57" s="6"/>
-      <c r="E57" s="34">
+      <c r="E57" s="33">
         <f>D57-D58</f>
         <v>0</v>
       </c>
       <c r="F57" s="6"/>
-      <c r="G57" s="34">
-        <f t="shared" ref="G57" si="117">F57-F58+E57</f>
+      <c r="G57" s="33">
+        <f t="shared" ref="G57" si="115">F57-F58+E57</f>
         <v>0</v>
       </c>
       <c r="H57" s="6">
         <v>10000</v>
       </c>
-      <c r="I57" s="34">
-        <f t="shared" ref="I57" si="118">H57-H58+G57</f>
-        <v>0</v>
-      </c>
-      <c r="J57" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K57" s="34" t="e">
-        <f t="shared" ref="K57" si="119">J57-J58+I57</f>
-        <v>#VALUE!</v>
+      <c r="I57" s="33">
+        <f t="shared" ref="I57" si="116">H57-H58+G57</f>
+        <v>0</v>
+      </c>
+      <c r="J57" s="6">
+        <v>0</v>
+      </c>
+      <c r="K57" s="33">
+        <f t="shared" ref="K57" si="117">J57-J58+I57</f>
+        <v>0</v>
       </c>
       <c r="L57" s="6">
         <f>DUDU_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M57" s="34" t="e">
-        <f t="shared" ref="M57" si="120">L57-L58+K57</f>
-        <v>#VALUE!</v>
+      <c r="M57" s="33">
+        <f t="shared" ref="M57" si="118">L57-L58+K57</f>
+        <v>0</v>
       </c>
       <c r="N57" s="6">
         <f>DUDU_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O57" s="34" t="e">
-        <f t="shared" ref="O57" si="121">N57-N58+M57</f>
-        <v>#VALUE!</v>
+      <c r="O57" s="33">
+        <f t="shared" ref="O57" si="119">N57-N58+M57</f>
+        <v>0</v>
       </c>
       <c r="P57" s="6"/>
-      <c r="Q57" s="34" t="e">
+      <c r="Q57" s="33">
         <f>P57-P58+O57</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="R57" s="6"/>
-      <c r="S57" s="34" t="e">
-        <f t="shared" ref="S57" si="122">R57-R58+Q57</f>
-        <v>#VALUE!</v>
+      <c r="S57" s="33">
+        <f t="shared" ref="S57" si="120">R57-R58+Q57</f>
+        <v>-10000</v>
       </c>
       <c r="T57" s="6">
         <v>6506.55</v>
       </c>
-      <c r="U57" s="34" t="e">
-        <f t="shared" ref="U57" si="123">T57-T58+S57</f>
-        <v>#VALUE!</v>
+      <c r="U57" s="33">
+        <f t="shared" ref="U57" si="121">T57-T58+S57</f>
+        <v>-10000</v>
       </c>
     </row>
     <row r="58" spans="2:21" ht="15.5">
       <c r="B58" s="9"/>
-      <c r="C58" s="33"/>
+      <c r="C58" s="34"/>
       <c r="D58" s="7"/>
-      <c r="E58" s="34"/>
+      <c r="E58" s="33"/>
       <c r="F58" s="7"/>
-      <c r="G58" s="34"/>
+      <c r="G58" s="33"/>
       <c r="H58" s="7">
         <v>10000</v>
       </c>
-      <c r="I58" s="34"/>
+      <c r="I58" s="33"/>
       <c r="J58" s="7">
         <f>DUDU_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K58" s="34"/>
+      <c r="K58" s="33"/>
       <c r="L58" s="7">
         <f>DUDU_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M58" s="34"/>
+      <c r="M58" s="33"/>
       <c r="N58" s="7">
         <f>DUDU_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O58" s="34"/>
+      <c r="O58" s="33"/>
       <c r="P58" s="7">
         <f>F57</f>
         <v>0</v>
       </c>
-      <c r="Q58" s="34"/>
+      <c r="Q58" s="33"/>
       <c r="R58" s="7">
         <f>H57</f>
         <v>10000</v>
       </c>
-      <c r="S58" s="34"/>
+      <c r="S58" s="33"/>
       <c r="T58" s="7">
         <v>6506.55</v>
       </c>
-      <c r="U58" s="34"/>
+      <c r="U58" s="33"/>
     </row>
     <row r="59" spans="2:21" ht="15.5" customHeight="1">
       <c r="B59" s="10"/>
-      <c r="C59" s="33" t="s">
+      <c r="C59" s="34" t="s">
         <v>27</v>
       </c>
       <c r="D59" s="6"/>
-      <c r="E59" s="34">
+      <c r="E59" s="33">
         <f>D59-D60</f>
         <v>0</v>
       </c>
       <c r="F59" s="6"/>
-      <c r="G59" s="34">
-        <f t="shared" ref="G59" si="124">F59-F60+E59</f>
+      <c r="G59" s="33">
+        <f t="shared" ref="G59" si="122">F59-F60+E59</f>
         <v>0</v>
       </c>
       <c r="H59" s="6">
         <v>500</v>
       </c>
-      <c r="I59" s="34">
+      <c r="I59" s="33">
         <f>H59-H60+G59</f>
         <v>-6530</v>
       </c>
       <c r="J59" s="6">
-        <v>0</v>
-      </c>
-      <c r="K59" s="34">
-        <f t="shared" ref="K59" si="125">J59-J60+I59</f>
-        <v>-6530</v>
+        <f>UPFL_Clôtures!$B$2</f>
+        <v>1726.53</v>
+      </c>
+      <c r="K59" s="33">
+        <f t="shared" ref="K59" si="123">J59-J60+I59</f>
+        <v>-6183.22</v>
       </c>
       <c r="L59" s="6">
         <v>0</v>
       </c>
-      <c r="M59" s="34">
-        <f t="shared" ref="M59" si="126">L59-L60+K59</f>
-        <v>-6530</v>
+      <c r="M59" s="33">
+        <f t="shared" ref="M59" si="124">L59-L60+K59</f>
+        <v>-6183.22</v>
       </c>
       <c r="N59" s="6">
         <v>0</v>
       </c>
-      <c r="O59" s="34">
-        <f t="shared" ref="O59" si="127">N59-N60+M59</f>
-        <v>-6530</v>
+      <c r="O59" s="33">
+        <f t="shared" ref="O59" si="125">N59-N60+M59</f>
+        <v>-6183.22</v>
       </c>
       <c r="P59" s="6"/>
-      <c r="Q59" s="34">
+      <c r="Q59" s="33">
         <f>P59-P60+O59</f>
-        <v>-6530</v>
+        <v>-6183.22</v>
       </c>
       <c r="R59" s="6"/>
-      <c r="S59" s="34">
+      <c r="S59" s="33">
         <f>R59-R60+Q59</f>
-        <v>-7030</v>
+        <v>-6683.22</v>
       </c>
       <c r="T59" s="6">
         <v>1576.53</v>
       </c>
-      <c r="U59" s="34">
-        <f t="shared" ref="U59" si="128">T59-T60+S59</f>
-        <v>-5453.47</v>
+      <c r="U59" s="33">
+        <f t="shared" ref="U59" si="126">T59-T60+S59</f>
+        <v>-5106.6900000000005</v>
       </c>
     </row>
     <row r="60" spans="2:21" ht="15.5" customHeight="1">
       <c r="B60" s="10"/>
-      <c r="C60" s="33"/>
+      <c r="C60" s="34"/>
       <c r="D60" s="7"/>
-      <c r="E60" s="34"/>
+      <c r="E60" s="33"/>
       <c r="F60" s="7"/>
-      <c r="G60" s="34"/>
+      <c r="G60" s="33"/>
       <c r="H60" s="7">
         <v>7030</v>
       </c>
-      <c r="I60" s="34"/>
+      <c r="I60" s="33"/>
       <c r="J60" s="7">
-        <f>UPFL_Clôtures!$B$4</f>
-        <v>0</v>
-      </c>
-      <c r="K60" s="34"/>
+        <f>UPFL_Clôtures!$B$5</f>
+        <v>1379.75</v>
+      </c>
+      <c r="K60" s="33"/>
       <c r="L60" s="7">
-        <f>UPFL_Clôtures!$C$4</f>
-        <v>0</v>
-      </c>
-      <c r="M60" s="34"/>
+        <f>UPFL_Clôtures!$C$5</f>
+        <v>0</v>
+      </c>
+      <c r="M60" s="33"/>
       <c r="N60" s="7">
-        <f>UPFL_Clôtures!$D$4</f>
-        <v>0</v>
-      </c>
-      <c r="O60" s="34"/>
+        <f>UPFL_Clôtures!$D$5</f>
+        <v>0</v>
+      </c>
+      <c r="O60" s="33"/>
       <c r="P60" s="7">
         <f>F59</f>
         <v>0</v>
       </c>
-      <c r="Q60" s="34"/>
+      <c r="Q60" s="33"/>
       <c r="R60" s="7">
         <f>H59</f>
         <v>500</v>
       </c>
-      <c r="S60" s="34"/>
+      <c r="S60" s="33"/>
       <c r="T60" s="7"/>
-      <c r="U60" s="34"/>
+      <c r="U60" s="33"/>
     </row>
     <row r="61" spans="2:21" ht="15.5" customHeight="1">
       <c r="B61" s="10"/>
-      <c r="C61" s="33"/>
+      <c r="C61" s="34"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="34">
+      <c r="E61" s="33">
         <f>D61-D62</f>
         <v>0</v>
       </c>
       <c r="F61" s="6"/>
-      <c r="G61" s="34">
+      <c r="G61" s="33">
         <f>F61-F62+E61</f>
         <v>0</v>
       </c>
       <c r="H61" s="6">
         <v>2600</v>
       </c>
-      <c r="I61" s="34">
+      <c r="I61" s="33">
         <f>H61-H62+G61</f>
         <v>2600</v>
       </c>
       <c r="J61" s="6">
-        <f>UPFL_Clôtures!$B$2</f>
-        <v>0</v>
-      </c>
-      <c r="K61" s="34">
+        <f>UPFL_Clôtures!$B$3</f>
+        <v>2498</v>
+      </c>
+      <c r="K61" s="33">
         <f>J61-J62+I61</f>
-        <v>2600</v>
+        <v>5098</v>
       </c>
       <c r="L61" s="6">
         <f>UPFL_Clôtures!$C$2</f>
         <v>0</v>
       </c>
-      <c r="M61" s="34">
+      <c r="M61" s="33">
         <f>L61-L62+K61</f>
-        <v>2600</v>
+        <v>5098</v>
       </c>
       <c r="N61" s="6">
         <f>UPFL_Clôtures!$D$2</f>
         <v>0</v>
       </c>
-      <c r="O61" s="34">
+      <c r="O61" s="33">
         <f>N61-N62+M61</f>
-        <v>2600</v>
+        <v>5098</v>
       </c>
       <c r="P61" s="6"/>
-      <c r="Q61" s="34">
+      <c r="Q61" s="33">
         <f>P61-P62+O61</f>
-        <v>2600</v>
+        <v>5098</v>
       </c>
       <c r="R61" s="6"/>
-      <c r="S61" s="34">
+      <c r="S61" s="33">
         <f>R61-R62+Q61</f>
-        <v>0</v>
+        <v>2498</v>
       </c>
       <c r="T61" s="6"/>
-      <c r="U61" s="34">
+      <c r="U61" s="33">
         <f>T61-T62+S61</f>
-        <v>-2214.67</v>
+        <v>283.32999999999993</v>
       </c>
     </row>
     <row r="62" spans="2:21" ht="15.5" customHeight="1">
       <c r="B62" s="10"/>
-      <c r="C62" s="33"/>
+      <c r="C62" s="34"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="34"/>
+      <c r="E62" s="33"/>
       <c r="F62" s="6"/>
-      <c r="G62" s="34"/>
+      <c r="G62" s="33"/>
       <c r="H62" s="7">
         <v>0</v>
       </c>
-      <c r="I62" s="34"/>
+      <c r="I62" s="33"/>
       <c r="J62" s="7">
-        <f>UPFL_Clôtures!$B$5</f>
-        <v>0</v>
-      </c>
-      <c r="K62" s="34"/>
+        <f>UPFL_Clôtures!$B$6</f>
+        <v>0</v>
+      </c>
+      <c r="K62" s="33"/>
       <c r="L62" s="7">
-        <f>UPFL_Clôtures!$C$5</f>
-        <v>0</v>
-      </c>
-      <c r="M62" s="34"/>
+        <f>UPFL_Clôtures!$C$6</f>
+        <v>0</v>
+      </c>
+      <c r="M62" s="33"/>
       <c r="N62" s="7">
-        <f>UPFL_Clôtures!$D$5</f>
-        <v>0</v>
-      </c>
-      <c r="O62" s="34"/>
+        <f>UPFL_Clôtures!$D$6</f>
+        <v>0</v>
+      </c>
+      <c r="O62" s="33"/>
       <c r="P62" s="7">
         <f>F61</f>
         <v>0</v>
       </c>
-      <c r="Q62" s="34"/>
+      <c r="Q62" s="33"/>
       <c r="R62" s="7">
         <f>H61</f>
         <v>2600</v>
       </c>
-      <c r="S62" s="34"/>
+      <c r="S62" s="33"/>
       <c r="T62" s="7">
         <v>2214.67</v>
       </c>
-      <c r="U62" s="34"/>
+      <c r="U62" s="33"/>
     </row>
     <row r="63" spans="2:21" ht="15.5">
       <c r="B63" s="9"/>
-      <c r="C63" s="33" t="s">
-        <v>94</v>
+      <c r="C63" s="34" t="s">
+        <v>93</v>
       </c>
       <c r="D63" s="6"/>
-      <c r="E63" s="34">
+      <c r="E63" s="33">
         <f>D63-D64</f>
         <v>0</v>
       </c>
       <c r="F63" s="6"/>
-      <c r="G63" s="34">
+      <c r="G63" s="33">
         <f>F63-F64+E63</f>
         <v>0</v>
       </c>
       <c r="H63" s="6">
         <v>0</v>
       </c>
-      <c r="I63" s="34">
+      <c r="I63" s="33">
         <f>H63-H64+G63</f>
         <v>-2000</v>
       </c>
       <c r="J63" s="6">
         <v>5</v>
       </c>
-      <c r="K63" s="34">
+      <c r="K63" s="33">
         <f>J63-J64+I63</f>
         <v>-2103.16</v>
       </c>
@@ -4341,7 +4373,7 @@
         <f>FNR_Clôtures!$C$2</f>
         <v>0</v>
       </c>
-      <c r="M63" s="34">
+      <c r="M63" s="33">
         <f>L63-L64+K63</f>
         <v>-2103.16</v>
       </c>
@@ -4349,94 +4381,94 @@
         <f>FNR_Clôtures!$D$2</f>
         <v>0</v>
       </c>
-      <c r="O63" s="34">
+      <c r="O63" s="33">
         <f>N63-N64+M63</f>
         <v>-2103.16</v>
       </c>
       <c r="P63" s="6"/>
-      <c r="Q63" s="34">
+      <c r="Q63" s="33">
         <f>P63-P64+O63</f>
         <v>-2103.16</v>
       </c>
       <c r="R63" s="6"/>
-      <c r="S63" s="34">
-        <f t="shared" ref="S63" si="129">R63-R64+Q63</f>
+      <c r="S63" s="33">
+        <f t="shared" ref="S63" si="127">R63-R64+Q63</f>
         <v>-2103.16</v>
       </c>
       <c r="T63" s="6">
         <v>720.75</v>
       </c>
-      <c r="U63" s="34">
+      <c r="U63" s="33">
         <f>T63-T64+S63</f>
         <v>-1457.0099999999998</v>
       </c>
     </row>
     <row r="64" spans="2:21" ht="15.5">
       <c r="B64" s="9"/>
-      <c r="C64" s="33"/>
+      <c r="C64" s="34"/>
       <c r="D64" s="7"/>
-      <c r="E64" s="34"/>
+      <c r="E64" s="33"/>
       <c r="F64" s="7"/>
-      <c r="G64" s="34"/>
+      <c r="G64" s="33"/>
       <c r="H64" s="7">
         <v>2000</v>
       </c>
-      <c r="I64" s="34"/>
+      <c r="I64" s="33"/>
       <c r="J64" s="7">
         <v>108.16</v>
       </c>
-      <c r="K64" s="34"/>
+      <c r="K64" s="33"/>
       <c r="L64" s="7">
         <f>FNR_Clôtures!$C$4</f>
         <v>0</v>
       </c>
-      <c r="M64" s="34"/>
+      <c r="M64" s="33"/>
       <c r="N64" s="7">
         <f>FNR_Clôtures!$D$4</f>
         <v>0</v>
       </c>
-      <c r="O64" s="34"/>
+      <c r="O64" s="33"/>
       <c r="P64" s="7">
         <f>F63</f>
         <v>0</v>
       </c>
-      <c r="Q64" s="34"/>
+      <c r="Q64" s="33"/>
       <c r="R64" s="7">
         <f>H63</f>
         <v>0</v>
       </c>
-      <c r="S64" s="34"/>
+      <c r="S64" s="33"/>
       <c r="T64" s="7">
         <v>74.599999999999994</v>
       </c>
-      <c r="U64" s="34"/>
+      <c r="U64" s="33"/>
     </row>
     <row r="65" spans="2:21" ht="15.5">
       <c r="B65" s="9"/>
-      <c r="C65" s="33" t="s">
-        <v>89</v>
+      <c r="C65" s="34" t="s">
+        <v>88</v>
       </c>
       <c r="D65" s="6"/>
-      <c r="E65" s="34">
+      <c r="E65" s="33">
         <f>D65-D66</f>
         <v>0</v>
       </c>
       <c r="F65" s="6"/>
-      <c r="G65" s="34">
+      <c r="G65" s="33">
         <f>F65-F66+E65</f>
         <v>0</v>
       </c>
       <c r="H65" s="6">
         <v>0</v>
       </c>
-      <c r="I65" s="34">
+      <c r="I65" s="33">
         <f>H65-H66+G65</f>
         <v>0</v>
       </c>
       <c r="J65" s="6">
         <v>15.1</v>
       </c>
-      <c r="K65" s="34">
+      <c r="K65" s="33">
         <f>J65-J66+I65</f>
         <v>0</v>
       </c>
@@ -4444,7 +4476,7 @@
         <f>REBUILT_Clôtures!$C$2</f>
         <v>0</v>
       </c>
-      <c r="M65" s="34">
+      <c r="M65" s="33">
         <f>L65-L66+K65</f>
         <v>0</v>
       </c>
@@ -4452,67 +4484,67 @@
         <f>REBUILT_Clôtures!$D$2</f>
         <v>0</v>
       </c>
-      <c r="O65" s="34">
+      <c r="O65" s="33">
         <f>N65-N66+M65</f>
         <v>0</v>
       </c>
       <c r="P65" s="6"/>
-      <c r="Q65" s="34">
+      <c r="Q65" s="33">
         <f>P65-P66+O65</f>
         <v>0</v>
       </c>
       <c r="R65" s="6"/>
-      <c r="S65" s="34">
-        <f t="shared" ref="S65" si="130">R65-R66+Q65</f>
+      <c r="S65" s="33">
+        <f t="shared" ref="S65" si="128">R65-R66+Q65</f>
         <v>0</v>
       </c>
       <c r="T65" s="6">
         <v>720.75</v>
       </c>
-      <c r="U65" s="34">
+      <c r="U65" s="33">
         <f>T65-T66+S65</f>
         <v>646.15</v>
       </c>
     </row>
     <row r="66" spans="2:21" ht="15.5">
       <c r="B66" s="9"/>
-      <c r="C66" s="36"/>
+      <c r="C66" s="35"/>
       <c r="D66" s="7"/>
-      <c r="E66" s="34"/>
+      <c r="E66" s="33"/>
       <c r="F66" s="7"/>
-      <c r="G66" s="34"/>
+      <c r="G66" s="33"/>
       <c r="H66" s="7">
         <v>0</v>
       </c>
-      <c r="I66" s="43"/>
+      <c r="I66" s="36"/>
       <c r="J66" s="7">
         <v>15.1</v>
       </c>
-      <c r="K66" s="43"/>
+      <c r="K66" s="36"/>
       <c r="L66" s="7">
         <f>REBUILT_Clôtures!$C$4</f>
         <v>0</v>
       </c>
-      <c r="M66" s="34"/>
+      <c r="M66" s="33"/>
       <c r="N66" s="7">
         <f>REBUILT_Clôtures!$D$4</f>
         <v>0</v>
       </c>
-      <c r="O66" s="34"/>
+      <c r="O66" s="33"/>
       <c r="P66" s="7">
         <f>F65</f>
         <v>0</v>
       </c>
-      <c r="Q66" s="34"/>
+      <c r="Q66" s="33"/>
       <c r="R66" s="7">
         <f>H65</f>
         <v>0</v>
       </c>
-      <c r="S66" s="34"/>
+      <c r="S66" s="33"/>
       <c r="T66" s="7">
         <v>74.599999999999994</v>
       </c>
-      <c r="U66" s="34"/>
+      <c r="U66" s="33"/>
     </row>
     <row r="67" spans="2:21" ht="14" customHeight="1">
       <c r="B67" s="47" t="s">
@@ -4521,47 +4553,47 @@
       <c r="C67" s="48"/>
       <c r="D67" s="37">
         <f>E5+E7+E31</f>
-        <v>0</v>
+        <v>-3802.4599999999982</v>
       </c>
       <c r="E67" s="37"/>
       <c r="F67" s="37">
         <f>G5+G7+G31</f>
-        <v>0</v>
+        <v>6911.4500000000007</v>
       </c>
       <c r="G67" s="37"/>
       <c r="H67" s="37">
         <f>I5+I7+I31</f>
-        <v>-33956</v>
+        <v>-27444.55</v>
       </c>
       <c r="I67" s="37"/>
-      <c r="J67" s="37" t="e">
+      <c r="J67" s="37">
         <f>K5+K7+K31</f>
-        <v>#VALUE!</v>
+        <v>-20567.37</v>
       </c>
       <c r="K67" s="37"/>
-      <c r="L67" s="37" t="e">
+      <c r="L67" s="37">
         <f>M5+M7+M31</f>
-        <v>#VALUE!</v>
+        <v>-20567.37</v>
       </c>
       <c r="M67" s="37"/>
-      <c r="N67" s="37" t="e">
+      <c r="N67" s="37">
         <f>O5+O7+O31</f>
-        <v>#VALUE!</v>
+        <v>-20567.37</v>
       </c>
       <c r="O67" s="37"/>
-      <c r="P67" s="37" t="e">
+      <c r="P67" s="37">
         <f>Q5+Q7+Q31</f>
-        <v>#VALUE!</v>
+        <v>-20567.37</v>
       </c>
       <c r="Q67" s="37"/>
-      <c r="R67" s="37" t="e">
+      <c r="R67" s="37">
         <f>S5+S7+S31</f>
-        <v>#VALUE!</v>
+        <v>-20567.370000000003</v>
       </c>
       <c r="S67" s="37"/>
-      <c r="T67" s="37" t="e">
+      <c r="T67" s="37">
         <f>U5+U7+U31</f>
-        <v>#VALUE!</v>
+        <v>-19921.220000000005</v>
       </c>
       <c r="U67" s="37"/>
     </row>
@@ -4591,15 +4623,11 @@
     <row r="70" spans="2:21"/>
   </sheetData>
   <mergeCells count="327">
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="K39:K40"/>
     <mergeCell ref="K31:K32"/>
     <mergeCell ref="K27:K28"/>
     <mergeCell ref="K25:K26"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K23:K24"/>
     <mergeCell ref="N67:O68"/>
     <mergeCell ref="T67:U68"/>
     <mergeCell ref="C25:C26"/>
@@ -4648,8 +4676,6 @@
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K23:K24"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="N3:O3"/>
@@ -4675,6 +4701,23 @@
     <mergeCell ref="U15:U16"/>
     <mergeCell ref="U17:U18"/>
     <mergeCell ref="U19:U20"/>
+    <mergeCell ref="U21:U22"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="K47:K48"/>
     <mergeCell ref="M25:M26"/>
     <mergeCell ref="M27:M28"/>
     <mergeCell ref="O7:O8"/>
@@ -4686,19 +4729,13 @@
     <mergeCell ref="K15:K16"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="K39:K40"/>
     <mergeCell ref="M53:M54"/>
     <mergeCell ref="M55:M56"/>
     <mergeCell ref="K49:K50"/>
@@ -4720,20 +4757,11 @@
     <mergeCell ref="K59:K60"/>
     <mergeCell ref="L67:M68"/>
     <mergeCell ref="K61:K62"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="M47:M48"/>
     <mergeCell ref="C59:C62"/>
-    <mergeCell ref="U21:U22"/>
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="Q61:Q62"/>
+    <mergeCell ref="S61:S62"/>
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="I39:I40"/>
     <mergeCell ref="U31:U32"/>
@@ -4750,16 +4778,12 @@
     <mergeCell ref="O37:O38"/>
     <mergeCell ref="O41:O42"/>
     <mergeCell ref="O43:O44"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="O61:O62"/>
-    <mergeCell ref="U61:U62"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="U49:U50"/>
-    <mergeCell ref="U47:U48"/>
-    <mergeCell ref="U51:U52"/>
-    <mergeCell ref="U53:U54"/>
-    <mergeCell ref="U55:U56"/>
+    <mergeCell ref="S39:S40"/>
+    <mergeCell ref="S41:S42"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="M37:M38"/>
     <mergeCell ref="U57:U58"/>
     <mergeCell ref="U59:U60"/>
     <mergeCell ref="O59:O60"/>
@@ -4772,8 +4796,14 @@
     <mergeCell ref="Q55:Q56"/>
     <mergeCell ref="Q57:Q58"/>
     <mergeCell ref="Q59:Q60"/>
-    <mergeCell ref="Q61:Q62"/>
-    <mergeCell ref="S61:S62"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G39:G40"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="G9:G10"/>
@@ -4783,18 +4813,6 @@
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G39:G40"/>
     <mergeCell ref="F67:G68"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="E5:E6"/>
@@ -4829,7 +4847,6 @@
     <mergeCell ref="E57:E58"/>
     <mergeCell ref="E59:E60"/>
     <mergeCell ref="E61:E62"/>
-    <mergeCell ref="P67:Q68"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="Q7:Q8"/>
@@ -4838,15 +4855,7 @@
     <mergeCell ref="Q15:Q16"/>
     <mergeCell ref="Q17:Q18"/>
     <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="S19:S20"/>
     <mergeCell ref="Q47:Q48"/>
-    <mergeCell ref="Q49:Q50"/>
     <mergeCell ref="Q21:Q22"/>
     <mergeCell ref="Q23:Q24"/>
     <mergeCell ref="Q25:Q26"/>
@@ -4859,11 +4868,7 @@
     <mergeCell ref="Q41:Q42"/>
     <mergeCell ref="Q43:Q44"/>
     <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="S39:S40"/>
-    <mergeCell ref="S41:S42"/>
     <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="Q63:Q64"/>
     <mergeCell ref="R67:S68"/>
     <mergeCell ref="D2:U2"/>
     <mergeCell ref="S43:S44"/>
@@ -4886,6 +4891,8 @@
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="S5:S6"/>
     <mergeCell ref="U29:U30"/>
+    <mergeCell ref="U65:U66"/>
+    <mergeCell ref="P67:Q68"/>
     <mergeCell ref="C65:C66"/>
     <mergeCell ref="E65:E66"/>
     <mergeCell ref="G65:G66"/>
@@ -4895,7 +4902,6 @@
     <mergeCell ref="O65:O66"/>
     <mergeCell ref="Q65:Q66"/>
     <mergeCell ref="S65:S66"/>
-    <mergeCell ref="U65:U66"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="G29:G30"/>
     <mergeCell ref="I29:I30"/>
@@ -4905,6 +4911,25 @@
     <mergeCell ref="Q29:Q30"/>
     <mergeCell ref="S29:S30"/>
     <mergeCell ref="Q51:Q52"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="O63:O64"/>
+    <mergeCell ref="S63:S64"/>
+    <mergeCell ref="U63:U64"/>
     <mergeCell ref="G59:G60"/>
     <mergeCell ref="G61:G62"/>
     <mergeCell ref="G47:G48"/>
@@ -4914,10 +4939,17 @@
     <mergeCell ref="G63:G64"/>
     <mergeCell ref="I63:I64"/>
     <mergeCell ref="K63:K64"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="O63:O64"/>
-    <mergeCell ref="S63:S64"/>
-    <mergeCell ref="U63:U64"/>
+    <mergeCell ref="Q63:Q64"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="O61:O62"/>
+    <mergeCell ref="U61:U62"/>
+    <mergeCell ref="U49:U50"/>
+    <mergeCell ref="U47:U48"/>
+    <mergeCell ref="U51:U52"/>
+    <mergeCell ref="U53:U54"/>
+    <mergeCell ref="U55:U56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5264,7 +5296,7 @@
     </row>
     <row r="2" spans="1:5" ht="15.5">
       <c r="A2" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="18">
         <v>0</v>
@@ -5303,7 +5335,7 @@
     </row>
     <row r="4" spans="1:5" ht="15.5">
       <c r="A4" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="18">
         <v>0</v>
@@ -7231,10 +7263,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F6267E-980A-4608-8F38-7CD9BCE9CA32}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -7261,10 +7293,10 @@
     </row>
     <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="12" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B2" s="18">
-        <v>0</v>
+        <v>2061.25</v>
       </c>
       <c r="C2" s="18">
         <v>0</v>
@@ -7274,60 +7306,60 @@
       </c>
       <c r="E2" s="20">
         <f>SUM(B2:D2)</f>
-        <v>0</v>
+        <v>2061.25</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:7" ht="15.5">
-      <c r="A3" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="19">
-        <f>SUM(B2:B2)</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="19">
-        <f>SUM(C2:C2)</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="19">
-        <f>SUM(D2:D2)</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="19">
-        <f>SUM(E2:E2)</f>
-        <v>0</v>
+      <c r="A3" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="18">
+        <v>1788.71</v>
+      </c>
+      <c r="C3" s="18">
+        <v>0</v>
+      </c>
+      <c r="D3" s="18">
+        <v>0</v>
+      </c>
+      <c r="E3" s="20">
+        <f>SUM(B3:D3)</f>
+        <v>1788.71</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7" ht="15.5">
-      <c r="A4" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="18">
-        <v>0</v>
-      </c>
-      <c r="C4" s="18">
-        <v>0</v>
-      </c>
-      <c r="D4" s="18">
-        <v>0</v>
-      </c>
-      <c r="E4" s="20">
-        <f>SUM(B4:D4)</f>
-        <v>0</v>
+      <c r="A4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="19">
+        <f>SUM(B2:B3)</f>
+        <v>3849.96</v>
+      </c>
+      <c r="C4" s="19">
+        <f>SUM(C2:C3)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="19">
+        <f>SUM(D2:D3)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="19">
+        <f>SUM(E2:E2)</f>
+        <v>2061.25</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" ht="15.5">
       <c r="A5" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B5" s="18">
-        <v>0</v>
+        <v>764.82</v>
       </c>
       <c r="C5" s="18">
         <v>0</v>
@@ -7337,39 +7369,51 @@
       </c>
       <c r="E5" s="20">
         <f>SUM(B5:D5)</f>
-        <v>0</v>
+        <v>764.82</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7" ht="15.5">
-      <c r="A6" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="21">
-        <f>SUM(B4:B4)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="21">
-        <f>SUM(C4:C4)</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="21">
-        <f>SUM(D4:D4)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="21">
-        <f>SUM(E4:E5)</f>
+      <c r="A6" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="18">
+        <v>0</v>
+      </c>
+      <c r="C6" s="18">
+        <v>0</v>
+      </c>
+      <c r="D6" s="18">
+        <v>0</v>
+      </c>
+      <c r="E6" s="20">
+        <f>SUM(B6:D6)</f>
         <v>0</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+    <row r="7" spans="1:7" ht="15.5">
+      <c r="A7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="21">
+        <f>SUM(B5:B5)</f>
+        <v>764.82</v>
+      </c>
+      <c r="C7" s="21">
+        <f>SUM(C5:C5)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="21">
+        <f>SUM(D5:D5)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="21">
+        <f>SUM(E5:E6)</f>
+        <v>764.82</v>
+      </c>
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
     </row>
@@ -7420,6 +7464,14 @@
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7607,10 +7659,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B817734-A454-497F-94C9-56A2D02418BC}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -7637,10 +7689,10 @@
     </row>
     <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="12" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="B2" s="18">
-        <v>0</v>
+        <v>1726.53</v>
       </c>
       <c r="C2" s="18">
         <v>0</v>
@@ -7650,60 +7702,60 @@
       </c>
       <c r="E2" s="20">
         <f>SUM(B2:D2)</f>
-        <v>0</v>
+        <v>1726.53</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:7" ht="15.5">
-      <c r="A3" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="19">
-        <f>SUM(B2:B2)</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="19">
-        <f>SUM(C2:C2)</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="19">
-        <f>SUM(D2:D2)</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="19">
-        <f>SUM(E2:E2)</f>
-        <v>0</v>
+      <c r="A3" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="18">
+        <v>2498</v>
+      </c>
+      <c r="C3" s="18">
+        <v>0</v>
+      </c>
+      <c r="D3" s="18">
+        <v>0</v>
+      </c>
+      <c r="E3" s="20">
+        <f>SUM(B3:D3)</f>
+        <v>2498</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7" ht="15.5">
-      <c r="A4" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="18">
-        <v>0</v>
-      </c>
-      <c r="C4" s="18">
-        <v>0</v>
-      </c>
-      <c r="D4" s="18">
-        <v>0</v>
-      </c>
-      <c r="E4" s="20">
-        <f>SUM(B4:D4)</f>
-        <v>0</v>
+      <c r="A4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="19">
+        <f>SUM(B2:B3)</f>
+        <v>4224.53</v>
+      </c>
+      <c r="C4" s="19">
+        <f>SUM(C2:C3)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="19">
+        <f>SUM(D2:D3)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="19">
+        <f>SUM(E2:E3)</f>
+        <v>4224.53</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" ht="15.5">
       <c r="A5" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B5" s="18">
-        <v>0</v>
+        <v>1379.75</v>
       </c>
       <c r="C5" s="18">
         <v>0</v>
@@ -7713,39 +7765,51 @@
       </c>
       <c r="E5" s="20">
         <f>SUM(B5:D5)</f>
-        <v>0</v>
+        <v>1379.75</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7" ht="15.5">
-      <c r="A6" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="21">
-        <f>SUM(B5:B5)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="21">
-        <f>SUM(C5:C5)</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="21">
-        <f>SUM(D5:D5)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="21">
-        <f>SUM(E4:E5)</f>
+      <c r="A6" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="18">
+        <v>0</v>
+      </c>
+      <c r="C6" s="18">
+        <v>0</v>
+      </c>
+      <c r="D6" s="18">
+        <v>0</v>
+      </c>
+      <c r="E6" s="20">
+        <f>SUM(B6:D6)</f>
         <v>0</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+    <row r="7" spans="1:7" ht="15.5">
+      <c r="A7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="21">
+        <f>SUM(B5:B6)</f>
+        <v>1379.75</v>
+      </c>
+      <c r="C7" s="21">
+        <f>SUM(C5:C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="21">
+        <f>SUM(D5:D6)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="21">
+        <f>SUM(E5:E6)</f>
+        <v>1379.75</v>
+      </c>
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
     </row>
@@ -7796,6 +7860,14 @@
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8347,7 +8419,7 @@
     </row>
     <row r="5" spans="1:6" ht="15.5">
       <c r="A5" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="25">
         <v>15.1</v>
@@ -8366,7 +8438,7 @@
     </row>
     <row r="6" spans="1:6" ht="15.5">
       <c r="A6" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="25">
         <v>5</v>
@@ -9435,7 +9507,7 @@
     </row>
     <row r="6" spans="1:6" ht="15.5">
       <c r="A6" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="18">
         <v>235.9</v>

--- a/2 - Bilans/2022-2023/Unipoly_Bilan_Quadrimestriel_22-23.xlsx
+++ b/2 - Bilans/2022-2023/Unipoly_Bilan_Quadrimestriel_22-23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\Clara\Unipoly\UPSecretrariat\2 - Bilans\2022-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF7DE66-15B8-4F4F-B1C7-55DBE88BF9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB64BC5C-C7F5-49C4-B4AD-6F32CD8B4257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="779" firstSheet="18" activeTab="23" xr2:uid="{34F8AD7C-3B1E-42A7-8AF2-50C33241ADA4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="779" xr2:uid="{34F8AD7C-3B1E-42A7-8AF2-50C33241ADA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Bilan" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="98">
   <si>
     <t>Compte</t>
   </si>
@@ -376,6 +376,9 @@
   </si>
   <si>
     <t>Produits Fonctionnement</t>
+  </si>
+  <si>
+    <t>1 364,12</t>
   </si>
 </sst>
 </file>
@@ -722,16 +725,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -740,41 +737,23 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -791,16 +770,40 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1119,9 +1122,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A55C92-786C-4AB3-96FC-7473E4CC0A9B}">
   <dimension ref="A1:Y70"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H33" sqref="H33:H34"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14" zeroHeight="1"/>
@@ -1140,33 +1143,33 @@
     <row r="2" spans="1:21" ht="36" customHeight="1">
       <c r="B2" s="29"/>
       <c r="C2" s="30"/>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="41"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="58"/>
     </row>
     <row r="3" spans="1:21" ht="14" customHeight="1">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="44" t="s">
+      <c r="C3" s="47"/>
+      <c r="D3" s="55" t="s">
         <v>94</v>
       </c>
       <c r="E3" s="42"/>
@@ -1174,14 +1177,14 @@
         <v>80</v>
       </c>
       <c r="G3" s="42"/>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51" t="s">
+      <c r="I3" s="43"/>
+      <c r="J3" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="51"/>
+      <c r="K3" s="43"/>
       <c r="L3" s="42" t="s">
         <v>9</v>
       </c>
@@ -1201,13 +1204,13 @@
       <c r="T3" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="U3" s="51"/>
+      <c r="U3" s="43"/>
     </row>
     <row r="4" spans="1:21" ht="20">
-      <c r="B4" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="53"/>
+      <c r="B4" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="45"/>
       <c r="D4" s="5" t="s">
         <v>39</v>
       </c>
@@ -1264,15 +1267,15 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.5">
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="57"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="6">
         <f>D7+D31</f>
         <v>3136.0899999999997</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="34">
         <f>D5-D6</f>
         <v>-1901.2299999999991</v>
       </c>
@@ -1280,7 +1283,7 @@
         <f>F7+F31</f>
         <v>4406.34</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="34">
         <f>F5-F6+E5</f>
         <v>2505.110000000001</v>
       </c>
@@ -1288,22 +1291,22 @@
         <f>H7+H31</f>
         <v>31680</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="34">
         <f>H5-H6+G5</f>
         <v>-14672.89</v>
       </c>
       <c r="J5" s="6"/>
-      <c r="K5" s="33">
+      <c r="K5" s="34">
         <f>J5-J6+I5</f>
         <v>-14672.89</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="M5" s="33">
+      <c r="M5" s="34">
         <f>L5-L6+K5</f>
         <v>-14672.89</v>
       </c>
       <c r="N5" s="6"/>
-      <c r="O5" s="33">
+      <c r="O5" s="34">
         <f>N5-N6+M5</f>
         <v>-14672.89</v>
       </c>
@@ -1311,7 +1314,7 @@
         <f>P8+P32</f>
         <v>4406.34</v>
       </c>
-      <c r="Q5" s="33">
+      <c r="Q5" s="34">
         <f>P5-P6+O5</f>
         <v>-10266.549999999999</v>
       </c>
@@ -1319,59 +1322,59 @@
         <f>R8+R32</f>
         <v>31680</v>
       </c>
-      <c r="S5" s="33">
+      <c r="S5" s="34">
         <f>R5-R6+Q5</f>
         <v>21413.45</v>
       </c>
       <c r="T5" s="6">
         <v>2214.0300000000002</v>
       </c>
-      <c r="U5" s="45">
+      <c r="U5" s="33">
         <f>T5-T6+S5</f>
         <v>23627.48</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.5">
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="7">
         <f>D8+D32</f>
         <v>5037.3199999999988</v>
       </c>
-      <c r="E6" s="33"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="7">
         <f>F8+F32</f>
         <v>0</v>
       </c>
-      <c r="G6" s="33"/>
+      <c r="G6" s="34"/>
       <c r="H6" s="7">
         <f>H8+H32</f>
         <v>48858</v>
       </c>
-      <c r="I6" s="36"/>
+      <c r="I6" s="48"/>
       <c r="J6" s="27"/>
-      <c r="K6" s="36"/>
+      <c r="K6" s="48"/>
       <c r="L6" s="27"/>
-      <c r="M6" s="36"/>
+      <c r="M6" s="48"/>
       <c r="N6" s="27"/>
-      <c r="O6" s="36"/>
+      <c r="O6" s="48"/>
       <c r="P6" s="27"/>
-      <c r="Q6" s="36"/>
+      <c r="Q6" s="48"/>
       <c r="R6" s="27"/>
-      <c r="S6" s="36"/>
+      <c r="S6" s="48"/>
       <c r="T6" s="27"/>
-      <c r="U6" s="36"/>
+      <c r="U6" s="48"/>
     </row>
     <row r="7" spans="1:21" ht="15.5">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="57"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="8">
         <f>D9+D11+D13+D15+D17+D19+D21+D23+D25+D27</f>
         <v>0</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="33">
         <f>D7-D8</f>
         <v>0</v>
       </c>
@@ -1379,7 +1382,7 @@
         <f>F9+F11+F13+F15+F17+F19+F21+F23+F25+F27</f>
         <v>0</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="33">
         <f>F7-F8+E7</f>
         <v>0</v>
       </c>
@@ -1387,127 +1390,127 @@
         <f>H9+H11+H13+H15+H17+H19+H21+H23+H25+H27+H29</f>
         <v>3400</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="34">
         <f>H7-H8+G7</f>
         <v>-4600</v>
       </c>
       <c r="J7" s="6">
         <f>J9+J11+J13+J15+J17+J19+J21+J23+J25+J27+J29</f>
-        <v>4934.79</v>
-      </c>
-      <c r="K7" s="33">
+        <v>5533.92</v>
+      </c>
+      <c r="K7" s="34">
         <f>J7-J8+I7</f>
-        <v>-3682.7999999999997</v>
+        <v>-3468.9800000000005</v>
       </c>
       <c r="L7" s="6">
         <f>L9+L11+L13+L15+L17+L19+L21+L23+L25+L27+L29</f>
         <v>0</v>
       </c>
-      <c r="M7" s="33">
+      <c r="M7" s="34">
         <f>L7-L8+K7</f>
-        <v>-3682.7999999999997</v>
+        <v>-3468.9800000000005</v>
       </c>
       <c r="N7" s="6">
         <f>N9+N11+N13+N15+N17+N19+N21+N23+N25+N27+N29</f>
         <v>0</v>
       </c>
-      <c r="O7" s="33">
+      <c r="O7" s="34">
         <f>N7-N8+M7</f>
-        <v>-3682.7999999999997</v>
+        <v>-3468.9800000000005</v>
       </c>
       <c r="P7" s="6">
         <f>P9+P11+P13+P15+P17+P19+P21+P23+P25+P27+P29</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="33">
+      <c r="Q7" s="34">
         <f>P7-P8+O7</f>
-        <v>-3682.7999999999997</v>
+        <v>-3468.9800000000005</v>
       </c>
       <c r="R7" s="6">
         <f>R9+R11+R13+R15+R17+R19+R21+R23+R25+R27+R29</f>
         <v>0</v>
       </c>
-      <c r="S7" s="33">
+      <c r="S7" s="34">
         <f>R7-R8+Q7</f>
-        <v>-7082.7999999999993</v>
+        <v>-6868.9800000000005</v>
       </c>
       <c r="T7" s="6">
         <f>T9+T11+T13+T15+T17+T19+T21+T23+T25+T27+T29</f>
         <v>12560.309999999998</v>
       </c>
-      <c r="U7" s="43">
+      <c r="U7" s="49">
         <f>T7-T8+S7</f>
-        <v>-14463</v>
+        <v>-14249.18</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.5">
-      <c r="B8" s="58"/>
-      <c r="C8" s="59"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="7">
         <f>D10+D12+D14+D16+D18+D20+D22+D24+D26+D28</f>
         <v>0</v>
       </c>
-      <c r="E8" s="33"/>
+      <c r="E8" s="34"/>
       <c r="F8" s="7">
         <f>F10+F12+F14+F16+F18+F20+F22+F24+F26+F28</f>
         <v>0</v>
       </c>
-      <c r="G8" s="33"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="7">
         <f>H10+H12+H14+H16+H18+H20+H22+H24+H26+H28+H30</f>
         <v>8000</v>
       </c>
-      <c r="I8" s="33"/>
+      <c r="I8" s="34"/>
       <c r="J8" s="7">
         <f>J10+J12+J14+J16+J18+J20+J22+J24+J26+J28+J30</f>
-        <v>4017.5899999999997</v>
-      </c>
-      <c r="K8" s="33"/>
+        <v>4402.9000000000005</v>
+      </c>
+      <c r="K8" s="34"/>
       <c r="L8" s="7">
         <f>L10+L12+L14+L16+L18+L20+L22+L24+L26+L28+L30</f>
         <v>0</v>
       </c>
-      <c r="M8" s="33"/>
+      <c r="M8" s="34"/>
       <c r="N8" s="7">
         <f>N10+N12+N14+N16+N18+N20+N22+N24+N26+N28+N30</f>
         <v>0</v>
       </c>
-      <c r="O8" s="33"/>
+      <c r="O8" s="34"/>
       <c r="P8" s="7">
         <f>P10+P12+P14+P16+P18+P20+P22+P24+P26+P28+P30</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="33"/>
+      <c r="Q8" s="34"/>
       <c r="R8" s="7">
         <f>R10+R12+R14+R16+R18+R20+R22+R24+R26+R28+R30</f>
         <v>3400</v>
       </c>
-      <c r="S8" s="33"/>
+      <c r="S8" s="34"/>
       <c r="T8" s="7">
         <f>T10+T12+T14+T16+T18+T20+T22+T24+T26+T28+T30</f>
         <v>19940.509999999998</v>
       </c>
-      <c r="U8" s="43"/>
+      <c r="U8" s="49"/>
     </row>
     <row r="9" spans="1:21" ht="15.5">
       <c r="B9" s="9"/>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="37" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="33">
+      <c r="E9" s="34">
         <f>D9-D10</f>
         <v>0</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="33">
+      <c r="G9" s="34">
         <f>F9-F10+E9</f>
         <v>0</v>
       </c>
       <c r="H9" s="6">
         <v>600</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="34">
         <f>H9-H10+G9</f>
         <v>-2250</v>
       </c>
@@ -1515,7 +1518,7 @@
         <f>COHE_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K9" s="33">
+      <c r="K9" s="34">
         <f>J9-J10+I9</f>
         <v>-2563.5</v>
       </c>
@@ -1523,7 +1526,7 @@
         <f>COHE_Clôtures!C5</f>
         <v>0</v>
       </c>
-      <c r="M9" s="33">
+      <c r="M9" s="34">
         <f>L9-L10+K9</f>
         <v>-2563.5</v>
       </c>
@@ -1531,88 +1534,88 @@
         <f>COHE_Clôtures!D5</f>
         <v>0</v>
       </c>
-      <c r="O9" s="33">
+      <c r="O9" s="34">
         <f>N9-N10+M9</f>
         <v>-2563.5</v>
       </c>
       <c r="P9" s="6"/>
-      <c r="Q9" s="33">
+      <c r="Q9" s="34">
         <f>P9-P10+O9</f>
         <v>-2563.5</v>
       </c>
       <c r="R9" s="6"/>
-      <c r="S9" s="33">
+      <c r="S9" s="34">
         <f>R9-R10+Q9</f>
         <v>-3163.5</v>
       </c>
       <c r="T9" s="6">
         <v>2309.38</v>
       </c>
-      <c r="U9" s="43">
+      <c r="U9" s="49">
         <f>T9-T10+S9</f>
         <v>-2747.5699999999997</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.5">
       <c r="B10" s="9"/>
-      <c r="C10" s="34"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="33"/>
+      <c r="E10" s="34"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="33"/>
+      <c r="G10" s="34"/>
       <c r="H10" s="7">
         <v>2850</v>
       </c>
-      <c r="I10" s="33"/>
+      <c r="I10" s="34"/>
       <c r="J10" s="7">
         <f>COHE_Clôtures!$B$9</f>
         <v>313.5</v>
       </c>
-      <c r="K10" s="33"/>
+      <c r="K10" s="34"/>
       <c r="L10" s="7">
         <f>COHE_Clôtures!C9</f>
         <v>0</v>
       </c>
-      <c r="M10" s="33"/>
+      <c r="M10" s="34"/>
       <c r="N10" s="7">
         <f>COHE_Clôtures!D9</f>
         <v>0</v>
       </c>
-      <c r="O10" s="33"/>
+      <c r="O10" s="34"/>
       <c r="P10" s="7">
         <f>F9</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="33"/>
+      <c r="Q10" s="34"/>
       <c r="R10" s="7">
         <f>H9</f>
         <v>600</v>
       </c>
-      <c r="S10" s="33"/>
+      <c r="S10" s="34"/>
       <c r="T10" s="7">
         <v>1893.45</v>
       </c>
-      <c r="U10" s="43"/>
+      <c r="U10" s="49"/>
     </row>
     <row r="11" spans="1:21" ht="15.5">
       <c r="B11" s="9"/>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="37" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="33">
+      <c r="E11" s="34">
         <f>D11-D12</f>
         <v>0</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="33">
+      <c r="G11" s="34">
         <f t="shared" ref="G11" si="0">F11-F12+E11</f>
         <v>0</v>
       </c>
       <c r="H11" s="6">
         <v>150</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="34">
         <f>H11-H12+G11</f>
         <v>-600</v>
       </c>
@@ -1620,7 +1623,7 @@
         <f>COM_Clôtures!$B$3</f>
         <v>35.1</v>
       </c>
-      <c r="K11" s="33">
+      <c r="K11" s="34">
         <f t="shared" ref="K11" si="1">J11-J12+I11</f>
         <v>-732.77</v>
       </c>
@@ -1628,7 +1631,7 @@
         <f>COM_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M11" s="33">
+      <c r="M11" s="34">
         <f>L11-L12+K11</f>
         <v>-732.77</v>
       </c>
@@ -1636,17 +1639,17 @@
         <f>COM_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O11" s="33">
+      <c r="O11" s="34">
         <f>N11-N12+M11</f>
         <v>-732.77</v>
       </c>
       <c r="P11" s="6"/>
-      <c r="Q11" s="33">
+      <c r="Q11" s="34">
         <f>P11-P12+O11</f>
         <v>-732.77</v>
       </c>
       <c r="R11" s="6"/>
-      <c r="S11" s="33">
+      <c r="S11" s="34">
         <f>R11-R12+Q11</f>
         <v>-882.77</v>
       </c>
@@ -1660,40 +1663,40 @@
     </row>
     <row r="12" spans="1:21" ht="15.5">
       <c r="B12" s="9"/>
-      <c r="C12" s="34"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="33"/>
+      <c r="E12" s="34"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="33"/>
+      <c r="G12" s="34"/>
       <c r="H12" s="7">
         <v>750</v>
       </c>
-      <c r="I12" s="33"/>
+      <c r="I12" s="34"/>
       <c r="J12" s="7">
         <f>COM_Clôtures!$B$5</f>
         <v>167.87</v>
       </c>
-      <c r="K12" s="33"/>
+      <c r="K12" s="34"/>
       <c r="L12" s="7">
         <f>COM_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M12" s="33"/>
+      <c r="M12" s="34"/>
       <c r="N12" s="7">
         <f>COM_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O12" s="33"/>
+      <c r="O12" s="34"/>
       <c r="P12" s="7">
         <f>F11</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="33"/>
+      <c r="Q12" s="34"/>
       <c r="R12" s="7">
         <f>H11</f>
         <v>150</v>
       </c>
-      <c r="S12" s="33"/>
+      <c r="S12" s="34"/>
       <c r="T12" s="7">
         <v>128.19999999999999</v>
       </c>
@@ -1701,23 +1704,23 @@
     </row>
     <row r="13" spans="1:21" ht="15.5">
       <c r="B13" s="9"/>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="37" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="33">
+      <c r="E13" s="34">
         <f>D13-D14</f>
         <v>0</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="33">
+      <c r="G13" s="34">
         <f t="shared" ref="G13" si="2">F13-F14+E13</f>
         <v>0</v>
       </c>
       <c r="H13" s="6">
         <v>0</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="34">
         <f>H13-H14+G13</f>
         <v>-500</v>
       </c>
@@ -1725,7 +1728,7 @@
         <f>CONTRIB_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K13" s="33">
+      <c r="K13" s="34">
         <f t="shared" ref="K13" si="3">J13-J14+I13</f>
         <v>-575.6</v>
       </c>
@@ -1733,7 +1736,7 @@
         <f>CONTRIB_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M13" s="33">
+      <c r="M13" s="34">
         <f>L13-L14+K13</f>
         <v>-575.6</v>
       </c>
@@ -1741,191 +1744,191 @@
         <f>CONTRIB_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O13" s="33">
+      <c r="O13" s="34">
         <f>N13-N14+M13</f>
         <v>-575.6</v>
       </c>
       <c r="P13" s="6"/>
-      <c r="Q13" s="33">
+      <c r="Q13" s="34">
         <f>P13-P14+O13</f>
         <v>-575.6</v>
       </c>
       <c r="R13" s="6"/>
-      <c r="S13" s="33">
+      <c r="S13" s="34">
         <f t="shared" ref="S13" si="4">R13-R14+Q13</f>
         <v>-575.6</v>
       </c>
       <c r="T13" s="6">
         <v>171.6</v>
       </c>
-      <c r="U13" s="43">
+      <c r="U13" s="49">
         <f t="shared" ref="U13" si="5">T13-T14+S13</f>
         <v>-404</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.5">
       <c r="B14" s="9"/>
-      <c r="C14" s="34"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="33"/>
+      <c r="E14" s="34"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="33"/>
+      <c r="G14" s="34"/>
       <c r="H14" s="7">
         <v>500</v>
       </c>
-      <c r="I14" s="33"/>
+      <c r="I14" s="34"/>
       <c r="J14" s="7">
         <f>CONTRIB_Clôtures!$B$7</f>
         <v>75.599999999999994</v>
       </c>
-      <c r="K14" s="33"/>
+      <c r="K14" s="34"/>
       <c r="L14" s="7">
         <f>CONTRIB_Clôtures!$C$7</f>
         <v>0</v>
       </c>
-      <c r="M14" s="33"/>
+      <c r="M14" s="34"/>
       <c r="N14" s="7">
         <f>CONTRIB_Clôtures!$D$7</f>
         <v>0</v>
       </c>
-      <c r="O14" s="33"/>
+      <c r="O14" s="34"/>
       <c r="P14" s="7">
         <f>F13</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="33"/>
+      <c r="Q14" s="34"/>
       <c r="R14" s="7">
         <f>H13</f>
         <v>0</v>
       </c>
-      <c r="S14" s="33"/>
+      <c r="S14" s="34"/>
       <c r="T14" s="7"/>
-      <c r="U14" s="43"/>
+      <c r="U14" s="49"/>
     </row>
     <row r="15" spans="1:21" ht="15.5">
       <c r="B15" s="9"/>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="37" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="33">
+      <c r="E15" s="34">
         <f>D15-D16</f>
         <v>0</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="33">
+      <c r="G15" s="34">
         <f t="shared" ref="G15" si="6">F15-F16+E15</f>
         <v>0</v>
       </c>
       <c r="H15" s="6">
         <v>1750</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="34">
         <f t="shared" ref="I15" si="7">H15-H16+G15</f>
         <v>-1000</v>
       </c>
       <c r="J15" s="6">
         <f>EVENT_Clôtures!$B$5</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="33">
+        <v>599.13</v>
+      </c>
+      <c r="K15" s="34">
         <f t="shared" ref="K15" si="8">J15-J16+I15</f>
-        <v>-1000</v>
+        <v>-786.18000000000006</v>
       </c>
       <c r="L15" s="6">
         <f>EVENT_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M15" s="33">
+      <c r="M15" s="34">
         <f>L15-L16+K15</f>
-        <v>-1000</v>
+        <v>-786.18000000000006</v>
       </c>
       <c r="N15" s="6">
         <f>EVENT_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O15" s="33">
+      <c r="O15" s="34">
         <f>N15-N16+M15</f>
-        <v>-1000</v>
+        <v>-786.18000000000006</v>
       </c>
       <c r="P15" s="6"/>
-      <c r="Q15" s="33">
+      <c r="Q15" s="34">
         <f>P15-P16+O15</f>
-        <v>-1000</v>
+        <v>-786.18000000000006</v>
       </c>
       <c r="R15" s="6"/>
-      <c r="S15" s="33">
+      <c r="S15" s="34">
         <f t="shared" ref="S15" si="9">R15-R16+Q15</f>
-        <v>-2750</v>
+        <v>-2536.1800000000003</v>
       </c>
       <c r="T15" s="6">
         <v>2442.2199999999998</v>
       </c>
-      <c r="U15" s="43">
+      <c r="U15" s="49">
         <f t="shared" ref="U15" si="10">T15-T16+S15</f>
-        <v>-4681.6399999999994</v>
+        <v>-4467.82</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.5">
       <c r="B16" s="9"/>
-      <c r="C16" s="34"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="33"/>
+      <c r="E16" s="34"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="33"/>
+      <c r="G16" s="34"/>
       <c r="H16" s="7">
         <v>2750</v>
       </c>
-      <c r="I16" s="33"/>
+      <c r="I16" s="34"/>
       <c r="J16" s="7">
         <f>EVENT_Clôtures!$B$12</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="33"/>
+        <v>385.31</v>
+      </c>
+      <c r="K16" s="34"/>
       <c r="L16" s="7">
         <f>EVENT_Clôtures!$C$12</f>
         <v>0</v>
       </c>
-      <c r="M16" s="33"/>
+      <c r="M16" s="34"/>
       <c r="N16" s="7">
         <f>EVENT_Clôtures!$D$12</f>
         <v>0</v>
       </c>
-      <c r="O16" s="33"/>
+      <c r="O16" s="34"/>
       <c r="P16" s="7">
         <f>F15</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="33"/>
+      <c r="Q16" s="34"/>
       <c r="R16" s="7">
         <f>H15</f>
         <v>1750</v>
       </c>
-      <c r="S16" s="33"/>
+      <c r="S16" s="34"/>
       <c r="T16" s="7">
         <v>4373.8599999999997</v>
       </c>
-      <c r="U16" s="43"/>
+      <c r="U16" s="49"/>
     </row>
     <row r="17" spans="2:21" ht="15.5">
       <c r="B17" s="9"/>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="37" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="33">
+      <c r="E17" s="34">
         <f>D17-D18</f>
         <v>0</v>
       </c>
       <c r="F17" s="6"/>
-      <c r="G17" s="33">
+      <c r="G17" s="34">
         <f t="shared" ref="G17" si="11">F17-F18+E17</f>
         <v>0</v>
       </c>
       <c r="H17" s="6">
         <v>0</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="34">
         <f t="shared" ref="I17" si="12">H17-H18+G17</f>
         <v>0</v>
       </c>
@@ -1933,7 +1936,7 @@
         <f>EXTRA_Clôtures!$B$3</f>
         <v>1.38</v>
       </c>
-      <c r="K17" s="33">
+      <c r="K17" s="34">
         <f t="shared" ref="K17" si="13">J17-J18+I17</f>
         <v>-2010.02</v>
       </c>
@@ -1941,7 +1944,7 @@
         <f>EXTRA_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M17" s="33">
+      <c r="M17" s="34">
         <f>L17-L18+K17</f>
         <v>-2010.02</v>
       </c>
@@ -1949,88 +1952,88 @@
         <f>EXTRA_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O17" s="33">
+      <c r="O17" s="34">
         <f>N17-N18+M17</f>
         <v>-2010.02</v>
       </c>
       <c r="P17" s="6"/>
-      <c r="Q17" s="33">
+      <c r="Q17" s="34">
         <f>P17-P18+O17</f>
         <v>-2010.02</v>
       </c>
       <c r="R17" s="6"/>
-      <c r="S17" s="33">
+      <c r="S17" s="34">
         <f t="shared" ref="S17" si="14">R17-R18+Q17</f>
         <v>-2010.02</v>
       </c>
       <c r="T17" s="6">
         <v>395.9</v>
       </c>
-      <c r="U17" s="43">
+      <c r="U17" s="49">
         <f t="shared" ref="U17" si="15">T17-T18+S17</f>
         <v>-2212.04</v>
       </c>
     </row>
     <row r="18" spans="2:21" ht="15.5">
       <c r="B18" s="9"/>
-      <c r="C18" s="34"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="33"/>
+      <c r="E18" s="34"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="33"/>
+      <c r="G18" s="34"/>
       <c r="H18" s="7">
         <v>0</v>
       </c>
-      <c r="I18" s="33"/>
+      <c r="I18" s="34"/>
       <c r="J18" s="7">
         <f>EXTRA_Clôtures!$B$5</f>
         <v>2011.4</v>
       </c>
-      <c r="K18" s="33"/>
+      <c r="K18" s="34"/>
       <c r="L18" s="7">
         <f>EXTRA_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M18" s="33"/>
+      <c r="M18" s="34"/>
       <c r="N18" s="7">
         <f>EXTRA_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O18" s="33"/>
+      <c r="O18" s="34"/>
       <c r="P18" s="7">
         <f>F17</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="33"/>
+      <c r="Q18" s="34"/>
       <c r="R18" s="7">
         <f>H17</f>
         <v>0</v>
       </c>
-      <c r="S18" s="33"/>
+      <c r="S18" s="34"/>
       <c r="T18" s="7">
         <v>597.91999999999996</v>
       </c>
-      <c r="U18" s="43"/>
+      <c r="U18" s="49"/>
     </row>
     <row r="19" spans="2:21" ht="15.5">
       <c r="B19" s="9"/>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="37" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="33">
+      <c r="E19" s="34">
         <f>D19-D20</f>
         <v>0</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="33">
+      <c r="G19" s="34">
         <f t="shared" ref="G19" si="16">F19-F20+E19</f>
         <v>0</v>
       </c>
       <c r="H19" s="6">
         <v>900</v>
       </c>
-      <c r="I19" s="33">
+      <c r="I19" s="34">
         <f t="shared" ref="I19" si="17">H19-H20+G19</f>
         <v>100</v>
       </c>
@@ -2038,7 +2041,7 @@
         <f>FONCT_Clôtures!$B$5</f>
         <v>3472.44</v>
       </c>
-      <c r="K19" s="33">
+      <c r="K19" s="34">
         <f t="shared" ref="K19" si="18">J19-J20+I19</f>
         <v>3045.07</v>
       </c>
@@ -2046,7 +2049,7 @@
         <f>FONCT_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M19" s="33">
+      <c r="M19" s="34">
         <f>L19-L20+K19</f>
         <v>3045.07</v>
       </c>
@@ -2054,88 +2057,88 @@
         <f>FONCT_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O19" s="33">
+      <c r="O19" s="34">
         <f>N19-N20+M19</f>
         <v>3045.07</v>
       </c>
       <c r="P19" s="6"/>
-      <c r="Q19" s="33">
+      <c r="Q19" s="34">
         <f>P19-P20+O19</f>
         <v>3045.07</v>
       </c>
       <c r="R19" s="6"/>
-      <c r="S19" s="33">
+      <c r="S19" s="34">
         <f t="shared" ref="S19" si="19">R19-R20+Q19</f>
         <v>2145.0700000000002</v>
       </c>
       <c r="T19" s="6">
         <v>1055.74</v>
       </c>
-      <c r="U19" s="43">
+      <c r="U19" s="49">
         <f t="shared" ref="U19" si="20">T19-T20+S19</f>
         <v>-4858.9699999999993</v>
       </c>
     </row>
     <row r="20" spans="2:21" ht="15.5">
       <c r="B20" s="9"/>
-      <c r="C20" s="34"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="33"/>
+      <c r="E20" s="34"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="33"/>
+      <c r="G20" s="34"/>
       <c r="H20" s="7">
         <v>800</v>
       </c>
-      <c r="I20" s="33"/>
+      <c r="I20" s="34"/>
       <c r="J20" s="7">
         <f>FONCT_Clôtures!$B$12</f>
         <v>527.37</v>
       </c>
-      <c r="K20" s="33"/>
+      <c r="K20" s="34"/>
       <c r="L20" s="7">
         <f>FONCT_Clôtures!$C$12</f>
         <v>0</v>
       </c>
-      <c r="M20" s="33"/>
+      <c r="M20" s="34"/>
       <c r="N20" s="7">
         <f>FONCT_Clôtures!$D$12</f>
         <v>0</v>
       </c>
-      <c r="O20" s="33"/>
+      <c r="O20" s="34"/>
       <c r="P20" s="7">
         <f>F19</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="33"/>
+      <c r="Q20" s="34"/>
       <c r="R20" s="7">
         <f>H19</f>
         <v>900</v>
       </c>
-      <c r="S20" s="33"/>
+      <c r="S20" s="34"/>
       <c r="T20" s="7">
         <v>8059.78</v>
       </c>
-      <c r="U20" s="43"/>
+      <c r="U20" s="49"/>
     </row>
     <row r="21" spans="2:21" ht="15.5">
       <c r="B21" s="9"/>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="37" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="33">
+      <c r="E21" s="34">
         <f>D21-D22</f>
         <v>0</v>
       </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="33">
+      <c r="G21" s="34">
         <f t="shared" ref="G21" si="21">F21-F22+E21</f>
         <v>0</v>
       </c>
       <c r="H21" s="6">
         <v>0</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="34">
         <f t="shared" ref="I21" si="22">H21-H22+G21</f>
         <v>0</v>
       </c>
@@ -2143,7 +2146,7 @@
         <f>CONVER_Clôtures!$B$3</f>
         <v>605.41999999999996</v>
       </c>
-      <c r="K21" s="33">
+      <c r="K21" s="34">
         <f t="shared" ref="K21" si="23">J21-J22+I21</f>
         <v>605.41999999999996</v>
       </c>
@@ -2151,7 +2154,7 @@
         <f>CONVER_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M21" s="33">
+      <c r="M21" s="34">
         <f>L21-L22+K21</f>
         <v>605.41999999999996</v>
       </c>
@@ -2159,88 +2162,88 @@
         <f>CONVER_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O21" s="33">
+      <c r="O21" s="34">
         <f>N21-N22+M21</f>
         <v>605.41999999999996</v>
       </c>
       <c r="P21" s="6"/>
-      <c r="Q21" s="33">
+      <c r="Q21" s="34">
         <f>P21-P22+O21</f>
         <v>605.41999999999996</v>
       </c>
       <c r="R21" s="6"/>
-      <c r="S21" s="33">
+      <c r="S21" s="34">
         <f t="shared" ref="S21" si="24">R21-R22+Q21</f>
         <v>605.41999999999996</v>
       </c>
       <c r="T21" s="6">
         <v>2405.42</v>
       </c>
-      <c r="U21" s="43">
+      <c r="U21" s="49">
         <f t="shared" ref="U21" si="25">T21-T22+S21</f>
         <v>10.840000000000032</v>
       </c>
     </row>
     <row r="22" spans="2:21" ht="15.5">
       <c r="B22" s="9"/>
-      <c r="C22" s="34"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="33"/>
+      <c r="E22" s="34"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="33"/>
+      <c r="G22" s="34"/>
       <c r="H22" s="7">
         <v>0</v>
       </c>
-      <c r="I22" s="33"/>
+      <c r="I22" s="34"/>
       <c r="J22" s="7">
         <f>CONVER_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K22" s="33"/>
+      <c r="K22" s="34"/>
       <c r="L22" s="7">
         <f>CONVER_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M22" s="33"/>
+      <c r="M22" s="34"/>
       <c r="N22" s="7">
         <f>CONVER_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O22" s="33"/>
+      <c r="O22" s="34"/>
       <c r="P22" s="7">
         <f>F21</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="33"/>
+      <c r="Q22" s="34"/>
       <c r="R22" s="7">
         <f>H21</f>
         <v>0</v>
       </c>
-      <c r="S22" s="33"/>
+      <c r="S22" s="34"/>
       <c r="T22" s="7">
         <v>3000</v>
       </c>
-      <c r="U22" s="43"/>
+      <c r="U22" s="49"/>
     </row>
     <row r="23" spans="2:21" ht="15.5">
       <c r="B23" s="9"/>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="37" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="6"/>
-      <c r="E23" s="33">
+      <c r="E23" s="34">
         <f>D23-D24</f>
         <v>0</v>
       </c>
       <c r="F23" s="6"/>
-      <c r="G23" s="33">
+      <c r="G23" s="34">
         <f t="shared" ref="G23" si="26">F23-F24+E23</f>
         <v>0</v>
       </c>
       <c r="H23" s="6">
         <v>0</v>
       </c>
-      <c r="I23" s="33">
+      <c r="I23" s="34">
         <f t="shared" ref="I23" si="27">H23-H24+G23</f>
         <v>-100</v>
       </c>
@@ -2248,7 +2251,7 @@
         <f>LOCAL_Clôtures!$B$3</f>
         <v>255.62</v>
       </c>
-      <c r="K23" s="33">
+      <c r="K23" s="34">
         <f t="shared" ref="K23" si="28">J23-J24+I23</f>
         <v>-96.080000000000013</v>
       </c>
@@ -2256,7 +2259,7 @@
         <f>LOCAL_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M23" s="33">
+      <c r="M23" s="34">
         <f>L23-L24+K23</f>
         <v>-96.080000000000013</v>
       </c>
@@ -2264,86 +2267,86 @@
         <f>LOCAL_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O23" s="33">
+      <c r="O23" s="34">
         <f>N23-N24+M23</f>
         <v>-96.080000000000013</v>
       </c>
       <c r="P23" s="6"/>
-      <c r="Q23" s="33">
+      <c r="Q23" s="34">
         <f>P23-P24+O23</f>
         <v>-96.080000000000013</v>
       </c>
       <c r="R23" s="6"/>
-      <c r="S23" s="33">
+      <c r="S23" s="34">
         <f t="shared" ref="S23" si="29">R23-R24+Q23</f>
         <v>-96.080000000000013</v>
       </c>
       <c r="T23" s="6">
         <v>654.46</v>
       </c>
-      <c r="U23" s="43">
+      <c r="U23" s="49">
         <f t="shared" ref="U23" si="30">T23-T24+S23</f>
         <v>558.38</v>
       </c>
     </row>
     <row r="24" spans="2:21" ht="15.5">
       <c r="B24" s="9"/>
-      <c r="C24" s="34"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="33"/>
+      <c r="E24" s="34"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="33"/>
+      <c r="G24" s="34"/>
       <c r="H24" s="7">
         <v>100</v>
       </c>
-      <c r="I24" s="33"/>
+      <c r="I24" s="34"/>
       <c r="J24" s="7">
         <f>LOCAL_Clôtures!$B$8</f>
         <v>251.70000000000002</v>
       </c>
-      <c r="K24" s="33"/>
+      <c r="K24" s="34"/>
       <c r="L24" s="7">
         <f>LOCAL_Clôtures!$C$8</f>
         <v>0</v>
       </c>
-      <c r="M24" s="33"/>
+      <c r="M24" s="34"/>
       <c r="N24" s="7">
         <f>LOCAL_Clôtures!$D$8</f>
         <v>0</v>
       </c>
-      <c r="O24" s="33"/>
+      <c r="O24" s="34"/>
       <c r="P24" s="7">
         <f>F23</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="33"/>
+      <c r="Q24" s="34"/>
       <c r="R24" s="7">
         <f>H23</f>
         <v>0</v>
       </c>
-      <c r="S24" s="33"/>
+      <c r="S24" s="34"/>
       <c r="T24" s="7"/>
-      <c r="U24" s="43"/>
+      <c r="U24" s="49"/>
     </row>
     <row r="25" spans="2:21" ht="15.5">
       <c r="B25" s="9"/>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="37" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="6"/>
-      <c r="E25" s="33">
+      <c r="E25" s="34">
         <f>D25-D26</f>
         <v>0</v>
       </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="33">
+      <c r="G25" s="34">
         <f t="shared" ref="G25" si="31">F25-F26+E25</f>
         <v>0</v>
       </c>
       <c r="H25" s="6">
         <v>0</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="34">
         <f t="shared" ref="I25" si="32">H25-H26+G25</f>
         <v>-250</v>
       </c>
@@ -2351,7 +2354,7 @@
         <f>LOG_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K25" s="33">
+      <c r="K25" s="34">
         <f t="shared" ref="K25" si="33">J25-J26+I25</f>
         <v>-355.32</v>
       </c>
@@ -2359,7 +2362,7 @@
         <f>LOG_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M25" s="33">
+      <c r="M25" s="34">
         <f>L25-L26+K25</f>
         <v>-355.32</v>
       </c>
@@ -2367,86 +2370,86 @@
         <f>LOG_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O25" s="33">
+      <c r="O25" s="34">
         <f>N25-N26+M25</f>
         <v>-355.32</v>
       </c>
       <c r="P25" s="6"/>
-      <c r="Q25" s="33">
+      <c r="Q25" s="34">
         <f>P25-P26+O25</f>
         <v>-355.32</v>
       </c>
       <c r="R25" s="6"/>
-      <c r="S25" s="33">
+      <c r="S25" s="34">
         <f t="shared" ref="S25" si="34">R25-R26+Q25</f>
         <v>-355.32</v>
       </c>
       <c r="T25" s="6">
         <v>354.95</v>
       </c>
-      <c r="U25" s="43">
+      <c r="U25" s="49">
         <f t="shared" ref="U25" si="35">T25-T26+S25</f>
         <v>-0.37000000000000455</v>
       </c>
     </row>
     <row r="26" spans="2:21" ht="15.5">
       <c r="B26" s="9"/>
-      <c r="C26" s="34"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="33"/>
+      <c r="E26" s="34"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="33"/>
+      <c r="G26" s="34"/>
       <c r="H26" s="7">
         <v>250</v>
       </c>
-      <c r="I26" s="33"/>
+      <c r="I26" s="34"/>
       <c r="J26" s="7">
         <f>LOG_Clôtures!$B$5</f>
         <v>105.32</v>
       </c>
-      <c r="K26" s="33"/>
+      <c r="K26" s="34"/>
       <c r="L26" s="7">
         <f>LOG_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M26" s="33"/>
+      <c r="M26" s="34"/>
       <c r="N26" s="7">
         <f>LOG_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O26" s="33"/>
+      <c r="O26" s="34"/>
       <c r="P26" s="7">
         <f>F25</f>
         <v>0</v>
       </c>
-      <c r="Q26" s="33"/>
+      <c r="Q26" s="34"/>
       <c r="R26" s="7">
         <f>H25</f>
         <v>0</v>
       </c>
-      <c r="S26" s="33"/>
+      <c r="S26" s="34"/>
       <c r="T26" s="7"/>
-      <c r="U26" s="43"/>
+      <c r="U26" s="49"/>
     </row>
     <row r="27" spans="2:21" ht="15.5">
       <c r="B27" s="9"/>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="37" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="6"/>
-      <c r="E27" s="33">
+      <c r="E27" s="34">
         <f>D27-D28</f>
         <v>0</v>
       </c>
       <c r="F27" s="6"/>
-      <c r="G27" s="33">
+      <c r="G27" s="34">
         <f>F27-F28+E27</f>
         <v>0</v>
       </c>
       <c r="H27" s="6">
         <v>0</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="34">
         <f>H27-H28+G27</f>
         <v>0</v>
       </c>
@@ -2454,7 +2457,7 @@
         <f>MOBILITY_Clôtures!$B$3</f>
         <v>564.83000000000004</v>
       </c>
-      <c r="K27" s="33">
+      <c r="K27" s="34">
         <f>J27-J28+I27</f>
         <v>0</v>
       </c>
@@ -2462,7 +2465,7 @@
         <f>MOBILITY_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M27" s="33">
+      <c r="M27" s="34">
         <f>L27-L28+K27</f>
         <v>0</v>
       </c>
@@ -2470,85 +2473,85 @@
         <f>MOBILITY_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O27" s="33">
+      <c r="O27" s="34">
         <f>N27-N28+M27</f>
         <v>0</v>
       </c>
       <c r="P27" s="6"/>
-      <c r="Q27" s="33">
+      <c r="Q27" s="34">
         <f>P27-P28+O27</f>
         <v>0</v>
       </c>
       <c r="R27" s="6"/>
-      <c r="S27" s="33">
+      <c r="S27" s="34">
         <f>R27-R28+Q27</f>
         <v>0</v>
       </c>
       <c r="T27" s="6">
         <v>1887.3</v>
       </c>
-      <c r="U27" s="43">
+      <c r="U27" s="49">
         <f>T27-T28+S27</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:21" ht="15.5">
       <c r="B28" s="9"/>
-      <c r="C28" s="34"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="33"/>
+      <c r="E28" s="34"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="33"/>
+      <c r="G28" s="34"/>
       <c r="H28" s="7">
         <v>0</v>
       </c>
-      <c r="I28" s="33"/>
+      <c r="I28" s="34"/>
       <c r="J28" s="7">
         <f>MOBILITY_Clôtures!$B$5</f>
         <v>564.83000000000004</v>
       </c>
-      <c r="K28" s="33"/>
+      <c r="K28" s="34"/>
       <c r="L28" s="7">
         <f>MOBILITY_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M28" s="33"/>
+      <c r="M28" s="34"/>
       <c r="N28" s="7">
         <f>MOBILITY_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O28" s="33"/>
+      <c r="O28" s="34"/>
       <c r="P28" s="7">
         <f>F27</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="33"/>
+      <c r="Q28" s="34"/>
       <c r="R28" s="7">
         <f>H27</f>
         <v>0</v>
       </c>
-      <c r="S28" s="33"/>
+      <c r="S28" s="34"/>
       <c r="T28" s="7">
         <v>1887.3</v>
       </c>
-      <c r="U28" s="43"/>
+      <c r="U28" s="49"/>
     </row>
     <row r="29" spans="2:21" ht="15.5">
       <c r="B29" s="9"/>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="37" t="s">
         <v>90</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="32"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="33">
+      <c r="G29" s="34">
         <f>F29-F30+E29</f>
         <v>0</v>
       </c>
       <c r="H29" s="6">
         <v>0</v>
       </c>
-      <c r="I29" s="33">
+      <c r="I29" s="34">
         <f>H29-H30+G29</f>
         <v>0</v>
       </c>
@@ -2556,7 +2559,7 @@
         <f>REPRO_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K29" s="33">
+      <c r="K29" s="34">
         <f>J29-J30+I29</f>
         <v>0</v>
       </c>
@@ -2564,7 +2567,7 @@
         <f>REPRO_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M29" s="33">
+      <c r="M29" s="34">
         <f>L29-L30+K29</f>
         <v>0</v>
       </c>
@@ -2572,69 +2575,69 @@
         <f>REPRO_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O29" s="33">
+      <c r="O29" s="34">
         <f>N29-N30+M29</f>
         <v>0</v>
       </c>
       <c r="P29" s="7"/>
-      <c r="Q29" s="33">
+      <c r="Q29" s="34">
         <f>P29-P30+O29</f>
         <v>0</v>
       </c>
       <c r="R29" s="7"/>
-      <c r="S29" s="33">
+      <c r="S29" s="34">
         <f>R29-R30+Q29</f>
         <v>0</v>
       </c>
       <c r="T29" s="7"/>
-      <c r="U29" s="43">
+      <c r="U29" s="49">
         <f>T29-T30+S29</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:21" ht="15.5">
       <c r="B30" s="9"/>
-      <c r="C30" s="35"/>
+      <c r="C30" s="59"/>
       <c r="D30" s="7"/>
       <c r="E30" s="32"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="33"/>
+      <c r="G30" s="34"/>
       <c r="H30" s="7">
         <v>0</v>
       </c>
-      <c r="I30" s="33"/>
+      <c r="I30" s="34"/>
       <c r="J30" s="7">
         <f>REPRO_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K30" s="33"/>
+      <c r="K30" s="34"/>
       <c r="L30" s="7">
         <f>REPRO_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M30" s="33"/>
+      <c r="M30" s="34"/>
       <c r="N30" s="7">
         <f>REPRO_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O30" s="33"/>
+      <c r="O30" s="34"/>
       <c r="P30" s="27"/>
-      <c r="Q30" s="33"/>
+      <c r="Q30" s="34"/>
       <c r="R30" s="27"/>
-      <c r="S30" s="33"/>
+      <c r="S30" s="34"/>
       <c r="T30" s="7"/>
-      <c r="U30" s="43"/>
+      <c r="U30" s="49"/>
     </row>
     <row r="31" spans="2:21" ht="15.5">
-      <c r="B31" s="56" t="s">
+      <c r="B31" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="57"/>
+      <c r="C31" s="39"/>
       <c r="D31" s="8">
         <f>D33+D35+D37+D41+D43+D45+D47+D49+D51+D53+D55+D57+D59+D61+D65</f>
         <v>3136.0899999999997</v>
       </c>
-      <c r="E31" s="45">
+      <c r="E31" s="33">
         <f>D31-D32</f>
         <v>-1901.2299999999991</v>
       </c>
@@ -2642,7 +2645,7 @@
         <f>F33+F35+F37+F39+F41+F43+F45+F47+F49+F51+F53+F55+F57+F59+F61+F65</f>
         <v>4406.34</v>
       </c>
-      <c r="G31" s="45">
+      <c r="G31" s="33">
         <f>F31-F32</f>
         <v>4406.34</v>
       </c>
@@ -2650,7 +2653,7 @@
         <f>H33+H35+H37+H39+H41+H43+H45+H47+H49+H51+H53+H55+H57+H59+H61+H63+H65</f>
         <v>28280</v>
       </c>
-      <c r="I31" s="45">
+      <c r="I31" s="33">
         <f>H31-H32+G31</f>
         <v>-8171.66</v>
       </c>
@@ -2658,7 +2661,7 @@
         <f>J33+J35+J37+J39+J41+J43+J45+J47+J49+J51+J53+J55+J57+J59+J61+J63+J65</f>
         <v>9661.83</v>
       </c>
-      <c r="K31" s="45">
+      <c r="K31" s="33">
         <f>J31-J32+I31</f>
         <v>-2211.6800000000003</v>
       </c>
@@ -2666,7 +2669,7 @@
         <f>L33+L35+L37+L39+L41+L43+L45+L47+L49+L51+L53+L55+L57+L59+L61+L63+L65</f>
         <v>0</v>
       </c>
-      <c r="M31" s="45">
+      <c r="M31" s="33">
         <f>L31-L32+K31</f>
         <v>-2211.6800000000003</v>
       </c>
@@ -2674,7 +2677,7 @@
         <f>N33+N35+N37+N39+N41+N43+N45+N47+N49+N51+N53+N55+N57+N59+N61+N63+N65</f>
         <v>0</v>
       </c>
-      <c r="O31" s="45">
+      <c r="O31" s="33">
         <f>N31-N32+M31</f>
         <v>-2211.6800000000003</v>
       </c>
@@ -2682,7 +2685,7 @@
         <f>P33+P35+P37+P39+P41+P43+P45+P47+P49+P51+P53+P55+P57+P59+P61+P63+P65</f>
         <v>0</v>
       </c>
-      <c r="Q31" s="33">
+      <c r="Q31" s="34">
         <f>P31-P32+O31</f>
         <v>-6618.02</v>
       </c>
@@ -2690,7 +2693,7 @@
         <f>R33+R35+R37+R39+R41+R43+R45+R47+R49+R51+R53+R55+R57+R59+R61+R63+R65</f>
         <v>0</v>
       </c>
-      <c r="S31" s="33">
+      <c r="S31" s="34">
         <f>R31-R32+Q31</f>
         <v>-34898.020000000004</v>
       </c>
@@ -2698,83 +2701,83 @@
         <f>T33+T35+T37+T39+T41+T43+T45+T47+T49+T51+T53+T55+T57+T59+T61+T63+T65</f>
         <v>20889.509999999998</v>
       </c>
-      <c r="U31" s="45">
+      <c r="U31" s="33">
         <f>T31-T32+S31</f>
         <v>-29085.700000000004</v>
       </c>
     </row>
     <row r="32" spans="2:21" ht="15.5">
-      <c r="B32" s="58"/>
-      <c r="C32" s="59"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="41"/>
       <c r="D32" s="7">
         <f>D34+D36+D38+D40+D42+D44+D46+D48+D50+D52+D54+D56+D58+D60+D62+D66</f>
         <v>5037.3199999999988</v>
       </c>
-      <c r="E32" s="33"/>
+      <c r="E32" s="34"/>
       <c r="F32" s="7">
         <f>F34+F36+F38+F40+F42+F44+F46+F48+F50+F52+F54+F56+F58+F60+F62+F66</f>
         <v>0</v>
       </c>
-      <c r="G32" s="33"/>
+      <c r="G32" s="34"/>
       <c r="H32" s="7">
         <f>H34+H36+H38+H40+H42+H44+H46+H48+H50+H52+H54+H56+H58+H60+H62+H64+H66</f>
         <v>40858</v>
       </c>
-      <c r="I32" s="33"/>
+      <c r="I32" s="34"/>
       <c r="J32" s="7">
         <f>J34+J36+J38+J40+J42+J44+J46+J48+J50+J52+J54+J56+J58+J60+J62+J64+J66</f>
         <v>3701.85</v>
       </c>
-      <c r="K32" s="33"/>
+      <c r="K32" s="34"/>
       <c r="L32" s="7">
         <f>L34+L36+L38+L40+L42+L44+L46+L48+L50+L52+L54+L56+L58+L60+L62+L64+L66</f>
         <v>0</v>
       </c>
-      <c r="M32" s="33"/>
+      <c r="M32" s="34"/>
       <c r="N32" s="7">
         <f>N34+N36+N38+N40+N42+N44+N46+N48+N50+N52+N54+N56+N58+N60+N62+N64+N66</f>
         <v>0</v>
       </c>
-      <c r="O32" s="33"/>
+      <c r="O32" s="34"/>
       <c r="P32" s="7">
         <f>P34+P36+P38+P40+P42+P44+P46+P48+P50+P52+P54+P56+P58+P60+P62+P64+P66</f>
         <v>4406.34</v>
       </c>
-      <c r="Q32" s="33"/>
+      <c r="Q32" s="34"/>
       <c r="R32" s="7">
         <f>R34+R36+R38+R40+R42+R44+R46+R48+R50+R52+R54+R56+R58+R60+R62+R64+R66</f>
         <v>28280</v>
       </c>
-      <c r="S32" s="33"/>
+      <c r="S32" s="34"/>
       <c r="T32" s="7">
         <f>T34+T36+T38+T40+T42+T44+T46+T48+T50+T52+T54+T56+T58+T60+T62+T64+T66</f>
         <v>15077.19</v>
       </c>
-      <c r="U32" s="33"/>
+      <c r="U32" s="34"/>
     </row>
     <row r="33" spans="2:21" ht="15.5">
       <c r="B33" s="9"/>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="37" t="s">
         <v>19</v>
       </c>
       <c r="D33" s="6">
         <v>0</v>
       </c>
-      <c r="E33" s="33">
+      <c r="E33" s="34">
         <f>D33-D34</f>
         <v>-917.79</v>
       </c>
       <c r="F33" s="6">
         <v>0</v>
       </c>
-      <c r="G33" s="33">
+      <c r="G33" s="34">
         <f t="shared" ref="G33" si="36">F33-F34+E33</f>
         <v>-917.79</v>
       </c>
       <c r="H33" s="6">
         <v>150</v>
       </c>
-      <c r="I33" s="33">
+      <c r="I33" s="34">
         <f t="shared" ref="I33" si="37">H33-H34+G33</f>
         <v>-1117.79</v>
       </c>
@@ -2782,7 +2785,7 @@
         <f>API_Clôtures!$B$3</f>
         <v>119</v>
       </c>
-      <c r="K33" s="33">
+      <c r="K33" s="34">
         <f t="shared" ref="K33" si="38">J33-J34+I33</f>
         <v>-998.79</v>
       </c>
@@ -2790,7 +2793,7 @@
         <f>API_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M33" s="33">
+      <c r="M33" s="34">
         <f t="shared" ref="M33" si="39">L33-L34+K33</f>
         <v>-998.79</v>
       </c>
@@ -2798,94 +2801,94 @@
         <f>API_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O33" s="33">
+      <c r="O33" s="34">
         <f t="shared" ref="O33" si="40">N33-N34+M33</f>
         <v>-998.79</v>
       </c>
       <c r="P33" s="6"/>
-      <c r="Q33" s="33">
+      <c r="Q33" s="34">
         <f>P33-P34+O33</f>
         <v>-998.79</v>
       </c>
       <c r="R33" s="6"/>
-      <c r="S33" s="33">
+      <c r="S33" s="34">
         <f t="shared" ref="S33" si="41">R33-R34+Q33</f>
         <v>-1148.79</v>
       </c>
       <c r="T33" s="6">
         <v>917.79</v>
       </c>
-      <c r="U33" s="33">
+      <c r="U33" s="34">
         <f t="shared" ref="U33" si="42">T33-T34+S33</f>
         <v>-231</v>
       </c>
     </row>
     <row r="34" spans="2:21" ht="15.5">
       <c r="B34" s="9"/>
-      <c r="C34" s="34"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="7">
         <v>917.79</v>
       </c>
-      <c r="E34" s="33"/>
+      <c r="E34" s="34"/>
       <c r="F34" s="7">
         <v>0</v>
       </c>
-      <c r="G34" s="33"/>
+      <c r="G34" s="34"/>
       <c r="H34" s="7">
         <v>350</v>
       </c>
-      <c r="I34" s="33"/>
+      <c r="I34" s="34"/>
       <c r="J34" s="7">
         <f>API_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K34" s="33"/>
+      <c r="K34" s="34"/>
       <c r="L34" s="7">
         <f>API_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M34" s="33"/>
+      <c r="M34" s="34"/>
       <c r="N34" s="7">
         <f>API_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O34" s="33"/>
+      <c r="O34" s="34"/>
       <c r="P34" s="7">
         <f>F33</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="33"/>
+      <c r="Q34" s="34"/>
       <c r="R34" s="7">
         <f>H33</f>
         <v>150</v>
       </c>
-      <c r="S34" s="33"/>
+      <c r="S34" s="34"/>
       <c r="T34" s="7"/>
-      <c r="U34" s="33"/>
+      <c r="U34" s="34"/>
     </row>
     <row r="35" spans="2:21" ht="15.5">
       <c r="B35" s="9"/>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D35" s="6">
         <v>641.85</v>
       </c>
-      <c r="E35" s="33">
+      <c r="E35" s="34">
         <f>D35-D36</f>
         <v>-1821.35</v>
       </c>
       <c r="F35" s="6">
         <v>0</v>
       </c>
-      <c r="G35" s="33">
+      <c r="G35" s="34">
         <f t="shared" ref="G35" si="43">F35-F36+E35</f>
         <v>-1821.35</v>
       </c>
       <c r="H35" s="6">
         <v>2000</v>
       </c>
-      <c r="I35" s="33">
+      <c r="I35" s="34">
         <f t="shared" ref="I35" si="44">H35-H36+G35</f>
         <v>-1921.35</v>
       </c>
@@ -2893,7 +2896,7 @@
         <f>CANARD_Clôtures!$B$4</f>
         <v>14.93</v>
       </c>
-      <c r="K35" s="33">
+      <c r="K35" s="34">
         <f t="shared" ref="K35" si="45">J35-J36+I35</f>
         <v>-1931.4699999999998</v>
       </c>
@@ -2901,7 +2904,7 @@
         <f>CANARD_Clôtures!$C$4</f>
         <v>0</v>
       </c>
-      <c r="M35" s="33">
+      <c r="M35" s="34">
         <f t="shared" ref="M35" si="46">L35-L36+K35</f>
         <v>-1931.4699999999998</v>
       </c>
@@ -2909,96 +2912,96 @@
         <f>CANARD_Clôtures!$D$4</f>
         <v>0</v>
       </c>
-      <c r="O35" s="33">
+      <c r="O35" s="34">
         <f t="shared" ref="O35" si="47">N35-N36+M35</f>
         <v>-1931.4699999999998</v>
       </c>
       <c r="P35" s="6"/>
-      <c r="Q35" s="33">
+      <c r="Q35" s="34">
         <f>P35-P36+O35</f>
         <v>-1931.4699999999998</v>
       </c>
       <c r="R35" s="6"/>
-      <c r="S35" s="33">
+      <c r="S35" s="34">
         <f t="shared" ref="S35" si="48">R35-R36+Q35</f>
         <v>-3931.47</v>
       </c>
       <c r="T35" s="6">
         <v>2463.1999999999998</v>
       </c>
-      <c r="U35" s="33">
+      <c r="U35" s="34">
         <f t="shared" ref="U35" si="49">T35-T36+S35</f>
         <v>-2110.12</v>
       </c>
     </row>
     <row r="36" spans="2:21" ht="15.5">
       <c r="B36" s="9"/>
-      <c r="C36" s="34"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="7">
         <v>2463.1999999999998</v>
       </c>
-      <c r="E36" s="33"/>
+      <c r="E36" s="34"/>
       <c r="F36" s="7">
         <v>0</v>
       </c>
-      <c r="G36" s="33"/>
+      <c r="G36" s="34"/>
       <c r="H36" s="7">
         <v>2100</v>
       </c>
-      <c r="I36" s="33"/>
+      <c r="I36" s="34"/>
       <c r="J36" s="7">
         <f>CANARD_Clôtures!$B$6</f>
         <v>25.05</v>
       </c>
-      <c r="K36" s="33"/>
+      <c r="K36" s="34"/>
       <c r="L36" s="7">
         <f>CANARD_Clôtures!$C$6</f>
         <v>0</v>
       </c>
-      <c r="M36" s="33"/>
+      <c r="M36" s="34"/>
       <c r="N36" s="7">
         <f>CANARD_Clôtures!$D$6</f>
         <v>0</v>
       </c>
-      <c r="O36" s="33"/>
+      <c r="O36" s="34"/>
       <c r="P36" s="7">
         <f>F35</f>
         <v>0</v>
       </c>
-      <c r="Q36" s="33"/>
+      <c r="Q36" s="34"/>
       <c r="R36" s="7">
         <f>H35</f>
         <v>2000</v>
       </c>
-      <c r="S36" s="33"/>
+      <c r="S36" s="34"/>
       <c r="T36" s="7">
         <v>641.85</v>
       </c>
-      <c r="U36" s="33"/>
+      <c r="U36" s="34"/>
     </row>
     <row r="37" spans="2:21" ht="15.5">
       <c r="B37" s="9"/>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="37" t="s">
         <v>21</v>
       </c>
       <c r="D37" s="6">
         <v>2379.29</v>
       </c>
-      <c r="E37" s="33">
+      <c r="E37" s="34">
         <f>D37-D38</f>
         <v>933.56</v>
       </c>
       <c r="F37" s="6">
         <v>4406.34</v>
       </c>
-      <c r="G37" s="33">
+      <c r="G37" s="34">
         <f t="shared" ref="G37" si="50">F37-F38+E37</f>
         <v>5339.9</v>
       </c>
       <c r="H37" s="6">
         <v>1600</v>
       </c>
-      <c r="I37" s="33">
+      <c r="I37" s="34">
         <f t="shared" ref="I37" si="51">H37-H38+G37</f>
         <v>4969.8999999999996</v>
       </c>
@@ -3006,7 +3009,7 @@
         <f>CASTOR_Clôtures!$B$3</f>
         <v>597.19000000000005</v>
       </c>
-      <c r="K37" s="33">
+      <c r="K37" s="34">
         <f t="shared" ref="K37" si="52">J37-J38+I37</f>
         <v>4777.0999999999995</v>
       </c>
@@ -3014,7 +3017,7 @@
         <f>CASTOR_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M37" s="33">
+      <c r="M37" s="34">
         <f t="shared" ref="M37" si="53">L37-L38+K37</f>
         <v>4777.0999999999995</v>
       </c>
@@ -3022,96 +3025,96 @@
         <f>CASTOR_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O37" s="33">
+      <c r="O37" s="34">
         <f t="shared" ref="O37" si="54">N37-N38+M37</f>
         <v>4777.0999999999995</v>
       </c>
       <c r="P37" s="6"/>
-      <c r="Q37" s="33">
+      <c r="Q37" s="34">
         <f>P37-P38+O37</f>
         <v>370.75999999999931</v>
       </c>
       <c r="R37" s="6"/>
-      <c r="S37" s="33">
+      <c r="S37" s="34">
         <f t="shared" ref="S37" si="55">R37-R38+Q37</f>
         <v>-1229.2400000000007</v>
       </c>
       <c r="T37" s="6">
         <v>1445.73</v>
       </c>
-      <c r="U37" s="46">
+      <c r="U37" s="54">
         <f t="shared" ref="U37" si="56">T37-T38+S37</f>
         <v>-2162.8000000000006</v>
       </c>
     </row>
     <row r="38" spans="2:21" ht="15.5">
       <c r="B38" s="9"/>
-      <c r="C38" s="34"/>
+      <c r="C38" s="37"/>
       <c r="D38" s="7">
         <v>1445.73</v>
       </c>
-      <c r="E38" s="33"/>
+      <c r="E38" s="34"/>
       <c r="F38" s="7">
         <v>0</v>
       </c>
-      <c r="G38" s="33"/>
+      <c r="G38" s="34"/>
       <c r="H38" s="7">
         <v>1970</v>
       </c>
-      <c r="I38" s="33"/>
+      <c r="I38" s="34"/>
       <c r="J38" s="7">
         <f>CASTOR_Clôtures!$B$5</f>
         <v>789.99</v>
       </c>
-      <c r="K38" s="33"/>
+      <c r="K38" s="34"/>
       <c r="L38" s="7">
         <f>CASTOR_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M38" s="33"/>
+      <c r="M38" s="34"/>
       <c r="N38" s="7">
         <f>CASTOR_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O38" s="33"/>
+      <c r="O38" s="34"/>
       <c r="P38" s="7">
         <f>F37</f>
         <v>4406.34</v>
       </c>
-      <c r="Q38" s="33"/>
+      <c r="Q38" s="34"/>
       <c r="R38" s="7">
         <f>H37</f>
         <v>1600</v>
       </c>
-      <c r="S38" s="33"/>
+      <c r="S38" s="34"/>
       <c r="T38" s="7">
         <v>2379.29</v>
       </c>
-      <c r="U38" s="46"/>
+      <c r="U38" s="54"/>
     </row>
     <row r="39" spans="2:21" ht="15.5">
       <c r="B39" s="9"/>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="37" t="s">
         <v>31</v>
       </c>
       <c r="D39" s="6">
         <v>0</v>
       </c>
-      <c r="E39" s="33">
+      <c r="E39" s="34">
         <f>D39-D40</f>
         <v>-128.69999999999999</v>
       </c>
       <c r="F39" s="6">
         <v>0</v>
       </c>
-      <c r="G39" s="33">
+      <c r="G39" s="34">
         <f t="shared" ref="G39" si="57">F39-F40+E39</f>
         <v>-128.69999999999999</v>
       </c>
       <c r="H39" s="6">
         <v>0</v>
       </c>
-      <c r="I39" s="33">
+      <c r="I39" s="34">
         <f t="shared" ref="I39" si="58">H39-H40+G39</f>
         <v>-458.7</v>
       </c>
@@ -3119,7 +3122,7 @@
         <f>DEBOUC_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K39" s="33">
+      <c r="K39" s="34">
         <f t="shared" ref="K39" si="59">J39-J40+I39</f>
         <v>-485.03</v>
       </c>
@@ -3127,7 +3130,7 @@
         <f>DEBOUC_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M39" s="33">
+      <c r="M39" s="34">
         <f t="shared" ref="M39" si="60">L39-L40+K39</f>
         <v>-485.03</v>
       </c>
@@ -3135,92 +3138,92 @@
         <f>DEBOUC_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O39" s="33">
+      <c r="O39" s="34">
         <f t="shared" ref="O39" si="61">N39-N40+M39</f>
         <v>-485.03</v>
       </c>
       <c r="P39" s="6"/>
-      <c r="Q39" s="33">
+      <c r="Q39" s="34">
         <f>P39-P40+O39</f>
         <v>-485.03</v>
       </c>
       <c r="R39" s="6"/>
-      <c r="S39" s="33">
+      <c r="S39" s="34">
         <f t="shared" ref="S39" si="62">R39-R40+Q39</f>
         <v>-485.03</v>
       </c>
       <c r="T39" s="6">
         <v>128.69999999999999</v>
       </c>
-      <c r="U39" s="33">
+      <c r="U39" s="34">
         <f t="shared" ref="U39" si="63">T39-T40+S39</f>
         <v>-356.33</v>
       </c>
     </row>
     <row r="40" spans="2:21" ht="15.5">
       <c r="B40" s="9"/>
-      <c r="C40" s="34"/>
+      <c r="C40" s="37"/>
       <c r="D40" s="7">
         <v>128.69999999999999</v>
       </c>
-      <c r="E40" s="33"/>
+      <c r="E40" s="34"/>
       <c r="F40" s="7">
         <v>0</v>
       </c>
-      <c r="G40" s="33"/>
+      <c r="G40" s="34"/>
       <c r="H40" s="7">
         <v>330</v>
       </c>
-      <c r="I40" s="33"/>
+      <c r="I40" s="34"/>
       <c r="J40" s="7">
         <f>DEBOUC_Clôtures!$B$5</f>
         <v>26.33</v>
       </c>
-      <c r="K40" s="33"/>
+      <c r="K40" s="34"/>
       <c r="L40" s="7">
         <f>DEBOUC_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M40" s="33"/>
+      <c r="M40" s="34"/>
       <c r="N40" s="7">
         <f>DEBOUC_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O40" s="33"/>
+      <c r="O40" s="34"/>
       <c r="P40" s="7">
         <f>F39</f>
         <v>0</v>
       </c>
-      <c r="Q40" s="33"/>
+      <c r="Q40" s="34"/>
       <c r="R40" s="7">
         <f>H39</f>
         <v>0</v>
       </c>
-      <c r="S40" s="33"/>
+      <c r="S40" s="34"/>
       <c r="T40" s="7"/>
-      <c r="U40" s="33"/>
+      <c r="U40" s="34"/>
     </row>
     <row r="41" spans="2:21" ht="15.5">
       <c r="B41" s="9"/>
-      <c r="C41" s="34" t="s">
+      <c r="C41" s="37" t="s">
         <v>22</v>
       </c>
       <c r="D41" s="6">
         <v>114.95</v>
       </c>
-      <c r="E41" s="33">
+      <c r="E41" s="34">
         <f>D41-D42</f>
         <v>33.049999999999997</v>
       </c>
       <c r="F41" s="6"/>
-      <c r="G41" s="33">
+      <c r="G41" s="34">
         <f>F41-F42+E41</f>
         <v>33.049999999999997</v>
       </c>
       <c r="H41" s="6">
         <v>600</v>
       </c>
-      <c r="I41" s="33">
+      <c r="I41" s="34">
         <f t="shared" ref="I41" si="64">H41-H42+G41</f>
         <v>-966.95</v>
       </c>
@@ -3228,7 +3231,7 @@
         <f>EVA_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K41" s="33">
+      <c r="K41" s="34">
         <f t="shared" ref="K41" si="65">J41-J42+I41</f>
         <v>-1236</v>
       </c>
@@ -3236,7 +3239,7 @@
         <f>EVA_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M41" s="33">
+      <c r="M41" s="34">
         <f t="shared" ref="M41" si="66">L41-L42+K41</f>
         <v>-1236</v>
       </c>
@@ -3244,90 +3247,90 @@
         <f>EVA_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O41" s="33">
+      <c r="O41" s="34">
         <f t="shared" ref="O41" si="67">N41-N42+M41</f>
         <v>-1236</v>
       </c>
       <c r="P41" s="6"/>
-      <c r="Q41" s="33">
+      <c r="Q41" s="34">
         <f>P41-P42+O41</f>
         <v>-1236</v>
       </c>
       <c r="R41" s="6"/>
-      <c r="S41" s="33">
+      <c r="S41" s="34">
         <f t="shared" ref="S41" si="68">R41-R42+Q41</f>
         <v>-1836</v>
       </c>
       <c r="T41" s="6">
         <v>81.900000000000006</v>
       </c>
-      <c r="U41" s="33">
+      <c r="U41" s="34">
         <f t="shared" ref="U41" si="69">T41-T42+S41</f>
         <v>-1869.05</v>
       </c>
     </row>
     <row r="42" spans="2:21" ht="15.5">
       <c r="B42" s="9"/>
-      <c r="C42" s="34"/>
+      <c r="C42" s="37"/>
       <c r="D42" s="7">
         <v>81.900000000000006</v>
       </c>
-      <c r="E42" s="33"/>
+      <c r="E42" s="34"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="33"/>
+      <c r="G42" s="34"/>
       <c r="H42" s="7">
         <v>1600</v>
       </c>
-      <c r="I42" s="33"/>
+      <c r="I42" s="34"/>
       <c r="J42" s="7">
         <f>EVA_Clôtures!$B$5</f>
         <v>269.05</v>
       </c>
-      <c r="K42" s="33"/>
+      <c r="K42" s="34"/>
       <c r="L42" s="7">
         <f>EVA_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M42" s="33"/>
+      <c r="M42" s="34"/>
       <c r="N42" s="7">
         <f>EVA_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O42" s="33"/>
+      <c r="O42" s="34"/>
       <c r="P42" s="7">
         <f>F41</f>
         <v>0</v>
       </c>
-      <c r="Q42" s="33"/>
+      <c r="Q42" s="34"/>
       <c r="R42" s="7">
         <f>H41</f>
         <v>600</v>
       </c>
-      <c r="S42" s="33"/>
+      <c r="S42" s="34"/>
       <c r="T42" s="7">
         <v>114.95</v>
       </c>
-      <c r="U42" s="33"/>
+      <c r="U42" s="34"/>
     </row>
     <row r="43" spans="2:21" ht="15.5">
       <c r="B43" s="9"/>
-      <c r="C43" s="34" t="s">
+      <c r="C43" s="37" t="s">
         <v>23</v>
       </c>
       <c r="D43" s="6"/>
-      <c r="E43" s="33">
+      <c r="E43" s="34">
         <f>D43-D44</f>
         <v>0</v>
       </c>
       <c r="F43" s="6"/>
-      <c r="G43" s="33">
+      <c r="G43" s="34">
         <f>F43-F44+E43</f>
         <v>0</v>
       </c>
       <c r="H43" s="6">
         <v>0</v>
       </c>
-      <c r="I43" s="33">
+      <c r="I43" s="34">
         <f t="shared" ref="I43" si="70">H43-H44+G43</f>
         <v>-508</v>
       </c>
@@ -3335,7 +3338,7 @@
         <f>EPILIBRE_Clôtures!B2</f>
         <v>55.5</v>
       </c>
-      <c r="K43" s="33">
+      <c r="K43" s="34">
         <f t="shared" ref="K43" si="71">J43-J44+I43</f>
         <v>-711.85</v>
       </c>
@@ -3343,7 +3346,7 @@
         <f>EPILIBRE_Clôtures!C2</f>
         <v>0</v>
       </c>
-      <c r="M43" s="33">
+      <c r="M43" s="34">
         <f t="shared" ref="M43" si="72">L43-L44+K43</f>
         <v>-711.85</v>
       </c>
@@ -3351,86 +3354,86 @@
         <f>EPILIBRE_Clôtures!D2</f>
         <v>0</v>
       </c>
-      <c r="O43" s="33">
+      <c r="O43" s="34">
         <f t="shared" ref="O43" si="73">N43-N44+M43</f>
         <v>-711.85</v>
       </c>
       <c r="P43" s="6"/>
-      <c r="Q43" s="33">
+      <c r="Q43" s="34">
         <f>P43-P44+O43</f>
         <v>-711.85</v>
       </c>
       <c r="R43" s="6"/>
-      <c r="S43" s="33">
+      <c r="S43" s="34">
         <f t="shared" ref="S43" si="74">R43-R44+Q43</f>
         <v>-711.85</v>
       </c>
       <c r="T43" s="6">
         <v>351.1</v>
       </c>
-      <c r="U43" s="33">
+      <c r="U43" s="34">
         <f t="shared" ref="U43:U45" si="75">T43-T44+S43</f>
         <v>-538.5</v>
       </c>
     </row>
     <row r="44" spans="2:21" ht="15.5">
       <c r="B44" s="9"/>
-      <c r="C44" s="34"/>
+      <c r="C44" s="37"/>
       <c r="D44" s="7"/>
-      <c r="E44" s="33"/>
+      <c r="E44" s="34"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="33"/>
+      <c r="G44" s="34"/>
       <c r="H44" s="7">
         <v>508</v>
       </c>
-      <c r="I44" s="33"/>
+      <c r="I44" s="34"/>
       <c r="J44" s="7">
         <f>EPILIBRE_Clôtures!B5</f>
         <v>259.35000000000002</v>
       </c>
-      <c r="K44" s="33"/>
+      <c r="K44" s="34"/>
       <c r="L44" s="7">
         <f>EPILIBRE_Clôtures!C5</f>
         <v>0</v>
       </c>
-      <c r="M44" s="33"/>
+      <c r="M44" s="34"/>
       <c r="N44" s="7">
         <f>EPILIBRE_Clôtures!D5</f>
         <v>0</v>
       </c>
-      <c r="O44" s="33"/>
+      <c r="O44" s="34"/>
       <c r="P44" s="7">
         <f>F43</f>
         <v>0</v>
       </c>
-      <c r="Q44" s="33"/>
+      <c r="Q44" s="34"/>
       <c r="R44" s="7">
         <f>H43</f>
         <v>0</v>
       </c>
-      <c r="S44" s="33"/>
+      <c r="S44" s="34"/>
       <c r="T44" s="7">
         <v>177.75</v>
       </c>
-      <c r="U44" s="33"/>
+      <c r="U44" s="34"/>
     </row>
     <row r="45" spans="2:21" ht="15.5">
       <c r="B45" s="9"/>
-      <c r="C45" s="34"/>
+      <c r="C45" s="37"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="33">
+      <c r="E45" s="34">
         <f>D45-D46</f>
         <v>0</v>
       </c>
       <c r="F45" s="6"/>
-      <c r="G45" s="33">
+      <c r="G45" s="34">
         <f>F45-F46+E45</f>
         <v>0</v>
       </c>
       <c r="H45" s="6">
         <v>1200</v>
       </c>
-      <c r="I45" s="33">
+      <c r="I45" s="34">
         <f t="shared" ref="I45" si="76">H45-H46+G45</f>
         <v>-300</v>
       </c>
@@ -3438,7 +3441,7 @@
         <f>EPILIBRE_Clôtures!B3</f>
         <v>488.15</v>
       </c>
-      <c r="K45" s="33">
+      <c r="K45" s="34">
         <f t="shared" ref="K45" si="77">J45-J46+I45</f>
         <v>188.14999999999998</v>
       </c>
@@ -3446,7 +3449,7 @@
         <f>EPILIBRE_Clôtures!C3</f>
         <v>0</v>
       </c>
-      <c r="M45" s="33">
+      <c r="M45" s="34">
         <f t="shared" ref="M45" si="78">L45-L46+K45</f>
         <v>188.14999999999998</v>
       </c>
@@ -3454,88 +3457,88 @@
         <f>EPILIBRE_Clôtures!D3</f>
         <v>0</v>
       </c>
-      <c r="O45" s="33">
+      <c r="O45" s="34">
         <f t="shared" ref="O45" si="79">N45-N46+M45</f>
         <v>188.14999999999998</v>
       </c>
       <c r="P45" s="6"/>
-      <c r="Q45" s="33">
+      <c r="Q45" s="34">
         <f>P45-P46+O45</f>
         <v>188.14999999999998</v>
       </c>
       <c r="R45" s="6"/>
-      <c r="S45" s="33">
+      <c r="S45" s="34">
         <f t="shared" ref="S45" si="80">R45-R46+Q45</f>
         <v>-1011.85</v>
       </c>
       <c r="T45" s="6">
         <v>1588.28</v>
       </c>
-      <c r="U45" s="46">
+      <c r="U45" s="54">
         <f t="shared" si="75"/>
         <v>-1192.9000000000001</v>
       </c>
     </row>
     <row r="46" spans="2:21" ht="15.5">
       <c r="B46" s="9"/>
-      <c r="C46" s="34"/>
+      <c r="C46" s="37"/>
       <c r="D46" s="7"/>
-      <c r="E46" s="33"/>
+      <c r="E46" s="34"/>
       <c r="F46" s="7"/>
-      <c r="G46" s="33"/>
+      <c r="G46" s="34"/>
       <c r="H46" s="7">
         <v>1500</v>
       </c>
-      <c r="I46" s="33"/>
+      <c r="I46" s="34"/>
       <c r="J46" s="7">
         <f>EPILIBRE_Clôtures!B6</f>
         <v>0</v>
       </c>
-      <c r="K46" s="33"/>
+      <c r="K46" s="34"/>
       <c r="L46" s="7">
         <f>EPILIBRE_Clôtures!C6</f>
         <v>0</v>
       </c>
-      <c r="M46" s="33"/>
+      <c r="M46" s="34"/>
       <c r="N46" s="7">
         <f>EPILIBRE_Clôtures!D6</f>
         <v>0</v>
       </c>
-      <c r="O46" s="33"/>
+      <c r="O46" s="34"/>
       <c r="P46" s="7">
         <f>F45</f>
         <v>0</v>
       </c>
-      <c r="Q46" s="33"/>
+      <c r="Q46" s="34"/>
       <c r="R46" s="7">
         <f>H45</f>
         <v>1200</v>
       </c>
-      <c r="S46" s="33"/>
+      <c r="S46" s="34"/>
       <c r="T46" s="7">
         <v>1769.33</v>
       </c>
-      <c r="U46" s="46"/>
+      <c r="U46" s="54"/>
     </row>
     <row r="47" spans="2:21" ht="15.5">
       <c r="B47" s="9"/>
-      <c r="C47" s="34" t="s">
+      <c r="C47" s="37" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="6"/>
-      <c r="E47" s="33">
+      <c r="E47" s="34">
         <f>D47-D48</f>
         <v>0</v>
       </c>
       <c r="F47" s="6"/>
-      <c r="G47" s="33">
+      <c r="G47" s="34">
         <f t="shared" ref="G47" si="81">F47-F48+E47</f>
         <v>0</v>
       </c>
       <c r="H47" s="6">
         <v>0</v>
       </c>
-      <c r="I47" s="33">
+      <c r="I47" s="34">
         <f t="shared" ref="I47" si="82">H47-H48+G47</f>
         <v>-300</v>
       </c>
@@ -3543,7 +3546,7 @@
         <f>IE_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K47" s="33">
+      <c r="K47" s="34">
         <f t="shared" ref="K47" si="83">J47-J48+I47</f>
         <v>-300</v>
       </c>
@@ -3551,7 +3554,7 @@
         <f>IE_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M47" s="33">
+      <c r="M47" s="34">
         <f t="shared" ref="M47" si="84">L47-L48+K47</f>
         <v>-300</v>
       </c>
@@ -3559,86 +3562,86 @@
         <f>IE_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O47" s="33">
+      <c r="O47" s="34">
         <f t="shared" ref="O47" si="85">N47-N48+M47</f>
         <v>-300</v>
       </c>
       <c r="P47" s="6"/>
-      <c r="Q47" s="33">
+      <c r="Q47" s="34">
         <f>P47-P48+O47</f>
         <v>-300</v>
       </c>
       <c r="R47" s="6"/>
-      <c r="S47" s="33">
+      <c r="S47" s="34">
         <f t="shared" ref="S47" si="86">R47-R48+Q47</f>
         <v>-300</v>
       </c>
       <c r="T47" s="6">
         <v>71.709999999999994</v>
       </c>
-      <c r="U47" s="33">
+      <c r="U47" s="34">
         <f t="shared" ref="U47" si="87">T47-T48+S47</f>
         <v>-228.29000000000002</v>
       </c>
     </row>
     <row r="48" spans="2:21" ht="15.5">
       <c r="B48" s="9"/>
-      <c r="C48" s="34"/>
+      <c r="C48" s="37"/>
       <c r="D48" s="7"/>
-      <c r="E48" s="33"/>
+      <c r="E48" s="34"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="33"/>
+      <c r="G48" s="34"/>
       <c r="H48" s="7">
         <v>300</v>
       </c>
-      <c r="I48" s="33"/>
+      <c r="I48" s="34"/>
       <c r="J48" s="7">
         <f>IE_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K48" s="33"/>
+      <c r="K48" s="34"/>
       <c r="L48" s="7">
         <f>IE_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M48" s="33"/>
+      <c r="M48" s="34"/>
       <c r="N48" s="7">
         <f>IE_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O48" s="33"/>
+      <c r="O48" s="34"/>
       <c r="P48" s="7">
         <f>F47</f>
         <v>0</v>
       </c>
-      <c r="Q48" s="33"/>
+      <c r="Q48" s="34"/>
       <c r="R48" s="7">
         <f>H47</f>
         <v>0</v>
       </c>
-      <c r="S48" s="33"/>
+      <c r="S48" s="34"/>
       <c r="T48" s="7"/>
-      <c r="U48" s="33"/>
+      <c r="U48" s="34"/>
     </row>
     <row r="49" spans="2:21" ht="15.5">
       <c r="B49" s="9"/>
-      <c r="C49" s="34" t="s">
+      <c r="C49" s="37" t="s">
         <v>29</v>
       </c>
       <c r="D49" s="6"/>
-      <c r="E49" s="33">
+      <c r="E49" s="34">
         <f>D49-D50</f>
         <v>0</v>
       </c>
       <c r="F49" s="6"/>
-      <c r="G49" s="33">
+      <c r="G49" s="34">
         <f t="shared" ref="G49" si="88">F49-F50+E49</f>
         <v>0</v>
       </c>
       <c r="H49" s="6">
         <v>8000</v>
       </c>
-      <c r="I49" s="33">
+      <c r="I49" s="34">
         <f t="shared" ref="I49" si="89">H49-H50+G49</f>
         <v>-2000</v>
       </c>
@@ -3646,7 +3649,7 @@
         <f>LOWTECH_Clôtures!$B$3</f>
         <v>292.47000000000003</v>
       </c>
-      <c r="K49" s="33">
+      <c r="K49" s="34">
         <f t="shared" ref="K49" si="90">J49-J50+I49</f>
         <v>-1721.78</v>
       </c>
@@ -3654,7 +3657,7 @@
         <f>LOWTECH_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M49" s="33">
+      <c r="M49" s="34">
         <f t="shared" ref="M49" si="91">L49-L50+K49</f>
         <v>-1721.78</v>
       </c>
@@ -3662,88 +3665,88 @@
         <f>LOWTECH_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O49" s="33">
+      <c r="O49" s="34">
         <f t="shared" ref="O49" si="92">N49-N50+M49</f>
         <v>-1721.78</v>
       </c>
       <c r="P49" s="6"/>
-      <c r="Q49" s="33">
+      <c r="Q49" s="34">
         <f>P49-P50+O49</f>
         <v>-1721.78</v>
       </c>
       <c r="R49" s="6"/>
-      <c r="S49" s="33">
+      <c r="S49" s="34">
         <f t="shared" ref="S49" si="93">R49-R50+Q49</f>
         <v>-9721.7800000000007</v>
       </c>
       <c r="T49" s="6">
         <v>292.47000000000003</v>
       </c>
-      <c r="U49" s="33">
+      <c r="U49" s="34">
         <f t="shared" ref="U49" si="94">T49-T50+S49</f>
         <v>-9711.7100000000009</v>
       </c>
     </row>
     <row r="50" spans="2:21" ht="15.5">
       <c r="B50" s="9"/>
-      <c r="C50" s="34"/>
+      <c r="C50" s="37"/>
       <c r="D50" s="7"/>
-      <c r="E50" s="33"/>
+      <c r="E50" s="34"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="33"/>
+      <c r="G50" s="34"/>
       <c r="H50" s="7">
         <v>10000</v>
       </c>
-      <c r="I50" s="33"/>
+      <c r="I50" s="34"/>
       <c r="J50" s="7">
         <f>LOWTECH_Clôtures!$B$5</f>
         <v>14.25</v>
       </c>
-      <c r="K50" s="33"/>
+      <c r="K50" s="34"/>
       <c r="L50" s="7">
         <f>LOWTECH_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M50" s="33"/>
+      <c r="M50" s="34"/>
       <c r="N50" s="7">
         <f>LOWTECH_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O50" s="33"/>
+      <c r="O50" s="34"/>
       <c r="P50" s="7">
         <f>F49</f>
         <v>0</v>
       </c>
-      <c r="Q50" s="33"/>
+      <c r="Q50" s="34"/>
       <c r="R50" s="7">
         <f>H49</f>
         <v>8000</v>
       </c>
-      <c r="S50" s="33"/>
+      <c r="S50" s="34"/>
       <c r="T50" s="7">
         <v>282.39999999999998</v>
       </c>
-      <c r="U50" s="33"/>
+      <c r="U50" s="34"/>
     </row>
     <row r="51" spans="2:21" ht="15.5">
       <c r="B51" s="9"/>
-      <c r="C51" s="34" t="s">
+      <c r="C51" s="37" t="s">
         <v>24</v>
       </c>
       <c r="D51" s="6"/>
-      <c r="E51" s="33">
+      <c r="E51" s="34">
         <f>D51-D52</f>
         <v>0</v>
       </c>
       <c r="F51" s="6"/>
-      <c r="G51" s="33">
+      <c r="G51" s="34">
         <f t="shared" ref="G51" si="95">F51-F52+E51</f>
         <v>0</v>
       </c>
       <c r="H51" s="6">
         <v>0</v>
       </c>
-      <c r="I51" s="33">
+      <c r="I51" s="34">
         <f t="shared" ref="I51" si="96">H51-H52+G51</f>
         <v>-1050</v>
       </c>
@@ -3751,7 +3754,7 @@
         <f>JARDIN_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="33">
+      <c r="K51" s="34">
         <f t="shared" ref="K51" si="97">J51-J52+I51</f>
         <v>-1100</v>
       </c>
@@ -3759,7 +3762,7 @@
         <f>JARDIN_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M51" s="33">
+      <c r="M51" s="34">
         <f t="shared" ref="M51" si="98">L51-L52+K51</f>
         <v>-1100</v>
       </c>
@@ -3767,88 +3770,88 @@
         <f>JARDIN_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O51" s="33">
+      <c r="O51" s="34">
         <f t="shared" ref="O51" si="99">N51-N52+M51</f>
         <v>-1100</v>
       </c>
       <c r="P51" s="6"/>
-      <c r="Q51" s="33">
+      <c r="Q51" s="34">
         <f>P51-P52+O51</f>
         <v>-1100</v>
       </c>
       <c r="R51" s="6"/>
-      <c r="S51" s="33">
+      <c r="S51" s="34">
         <f t="shared" ref="S51" si="100">R51-R52+Q51</f>
         <v>-1100</v>
       </c>
       <c r="T51" s="6">
         <v>1022.8</v>
       </c>
-      <c r="U51" s="33">
+      <c r="U51" s="34">
         <f t="shared" ref="U51" si="101">T51-T52+S51</f>
         <v>-289.20000000000005</v>
       </c>
     </row>
     <row r="52" spans="2:21" ht="15.5">
       <c r="B52" s="9"/>
-      <c r="C52" s="34"/>
+      <c r="C52" s="37"/>
       <c r="D52" s="7"/>
-      <c r="E52" s="33"/>
+      <c r="E52" s="34"/>
       <c r="F52" s="7"/>
-      <c r="G52" s="33"/>
+      <c r="G52" s="34"/>
       <c r="H52" s="7">
         <v>1050</v>
       </c>
-      <c r="I52" s="33"/>
+      <c r="I52" s="34"/>
       <c r="J52" s="7">
         <f>JARDIN_Clôtures!$B$5</f>
         <v>50</v>
       </c>
-      <c r="K52" s="33"/>
+      <c r="K52" s="34"/>
       <c r="L52" s="7">
         <f>JARDIN_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M52" s="33"/>
+      <c r="M52" s="34"/>
       <c r="N52" s="7">
         <f>JARDIN_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O52" s="33"/>
+      <c r="O52" s="34"/>
       <c r="P52" s="7">
         <f>F51</f>
         <v>0</v>
       </c>
-      <c r="Q52" s="33"/>
+      <c r="Q52" s="34"/>
       <c r="R52" s="7">
         <f>H51</f>
         <v>0</v>
       </c>
-      <c r="S52" s="33"/>
+      <c r="S52" s="34"/>
       <c r="T52" s="7">
         <v>212</v>
       </c>
-      <c r="U52" s="33"/>
+      <c r="U52" s="34"/>
     </row>
     <row r="53" spans="2:21" ht="15.5">
       <c r="B53" s="9"/>
-      <c r="C53" s="34" t="s">
+      <c r="C53" s="37" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="6"/>
-      <c r="E53" s="33">
+      <c r="E53" s="34">
         <f>D53-D54</f>
         <v>0</v>
       </c>
       <c r="F53" s="6"/>
-      <c r="G53" s="33">
+      <c r="G53" s="34">
         <f t="shared" ref="G53" si="102">F53-F54+E53</f>
         <v>0</v>
       </c>
       <c r="H53" s="6">
         <v>0</v>
       </c>
-      <c r="I53" s="33">
+      <c r="I53" s="34">
         <f t="shared" ref="I53" si="103">H53-H54+G53</f>
         <v>-180</v>
       </c>
@@ -3856,98 +3859,98 @@
         <f>MEUBLE_Clôtures!$B$2</f>
         <v>2061.25</v>
       </c>
-      <c r="K53" s="33">
+      <c r="K53" s="34">
         <f t="shared" ref="K53" si="104">J53-J54+I53</f>
         <v>1116.4299999999998</v>
       </c>
       <c r="L53" s="6">
         <v>0</v>
       </c>
-      <c r="M53" s="33">
+      <c r="M53" s="34">
         <f t="shared" ref="M53" si="105">L53-L54+K53</f>
         <v>1116.4299999999998</v>
       </c>
       <c r="N53" s="6">
         <v>0</v>
       </c>
-      <c r="O53" s="33">
+      <c r="O53" s="34">
         <f t="shared" ref="O53" si="106">N53-N54+M53</f>
         <v>1116.4299999999998</v>
       </c>
       <c r="P53" s="6"/>
-      <c r="Q53" s="33">
+      <c r="Q53" s="34">
         <f>P53-P54+O53</f>
         <v>1116.4299999999998</v>
       </c>
       <c r="R53" s="6"/>
-      <c r="S53" s="33">
+      <c r="S53" s="34">
         <f t="shared" ref="S53" si="107">R53-R54+Q53</f>
         <v>1116.4299999999998</v>
       </c>
       <c r="T53" s="6">
         <v>1456.25</v>
       </c>
-      <c r="U53" s="33">
+      <c r="U53" s="34">
         <f t="shared" ref="U53" si="108">T53-T54+S53</f>
         <v>2572.6799999999998</v>
       </c>
     </row>
     <row r="54" spans="2:21" ht="15.5">
       <c r="B54" s="9"/>
-      <c r="C54" s="34"/>
+      <c r="C54" s="37"/>
       <c r="D54" s="7"/>
-      <c r="E54" s="33"/>
+      <c r="E54" s="34"/>
       <c r="F54" s="7"/>
-      <c r="G54" s="33"/>
+      <c r="G54" s="34"/>
       <c r="H54" s="7">
         <v>180</v>
       </c>
-      <c r="I54" s="33"/>
+      <c r="I54" s="34"/>
       <c r="J54" s="7">
         <f>MEUBLE_Clôtures!$B$5</f>
         <v>764.82</v>
       </c>
-      <c r="K54" s="33"/>
+      <c r="K54" s="34"/>
       <c r="L54" s="7">
         <f>MEUBLE_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M54" s="33"/>
+      <c r="M54" s="34"/>
       <c r="N54" s="7">
         <f>MEUBLE_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O54" s="33"/>
+      <c r="O54" s="34"/>
       <c r="P54" s="7">
         <f>F53</f>
         <v>0</v>
       </c>
-      <c r="Q54" s="33"/>
+      <c r="Q54" s="34"/>
       <c r="R54" s="7">
         <f>H53</f>
         <v>0</v>
       </c>
-      <c r="S54" s="33"/>
+      <c r="S54" s="34"/>
       <c r="T54" s="7"/>
-      <c r="U54" s="33"/>
+      <c r="U54" s="34"/>
     </row>
     <row r="55" spans="2:21" ht="15.5">
       <c r="B55" s="9"/>
-      <c r="C55" s="34"/>
+      <c r="C55" s="37"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="33">
+      <c r="E55" s="34">
         <f>D55-D56</f>
         <v>0</v>
       </c>
       <c r="F55" s="6"/>
-      <c r="G55" s="33">
+      <c r="G55" s="34">
         <f t="shared" ref="G55" si="109">F55-F56+E55</f>
         <v>0</v>
       </c>
       <c r="H55" s="6">
         <v>1630</v>
       </c>
-      <c r="I55" s="33">
+      <c r="I55" s="34">
         <f t="shared" ref="I55" si="110">H55-H56+G55</f>
         <v>-310</v>
       </c>
@@ -3955,7 +3958,7 @@
         <f>MEUBLE_Clôtures!$B$3</f>
         <v>1788.71</v>
       </c>
-      <c r="K55" s="33">
+      <c r="K55" s="34">
         <f>J55-J56+I55</f>
         <v>1478.71</v>
       </c>
@@ -3963,7 +3966,7 @@
         <f>MEUBLE_Clôtures!$C$2</f>
         <v>0</v>
       </c>
-      <c r="M55" s="33">
+      <c r="M55" s="34">
         <f t="shared" ref="M55" si="111">L55-L56+K55</f>
         <v>1478.71</v>
       </c>
@@ -3971,95 +3974,95 @@
         <f>MEUBLE_Clôtures!$D$2</f>
         <v>0</v>
       </c>
-      <c r="O55" s="33">
+      <c r="O55" s="34">
         <f t="shared" ref="O55" si="112">N55-N56+M55</f>
         <v>1478.71</v>
       </c>
       <c r="P55" s="6"/>
-      <c r="Q55" s="33">
+      <c r="Q55" s="34">
         <f>P55-P56+O55</f>
         <v>1478.71</v>
       </c>
       <c r="R55" s="6"/>
-      <c r="S55" s="33">
+      <c r="S55" s="34">
         <f t="shared" ref="S55" si="113">R55-R56+Q55</f>
         <v>-151.28999999999996</v>
       </c>
       <c r="T55" s="6">
         <v>1545</v>
       </c>
-      <c r="U55" s="33">
+      <c r="U55" s="34">
         <f t="shared" ref="U55" si="114">T55-T56+S55</f>
         <v>764.51</v>
       </c>
     </row>
     <row r="56" spans="2:21" ht="15.5">
       <c r="B56" s="9"/>
-      <c r="C56" s="34"/>
+      <c r="C56" s="37"/>
       <c r="D56" s="7"/>
-      <c r="E56" s="33"/>
+      <c r="E56" s="34"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="33"/>
+      <c r="G56" s="34"/>
       <c r="H56" s="7">
         <v>1940</v>
       </c>
-      <c r="I56" s="33"/>
+      <c r="I56" s="34"/>
       <c r="J56" s="7">
         <f>MEUBLE_Clôtures!$B$6</f>
         <v>0</v>
       </c>
-      <c r="K56" s="33"/>
+      <c r="K56" s="34"/>
       <c r="L56" s="7">
         <f>MEUBLE_Clôtures!$C$6</f>
         <v>0</v>
       </c>
-      <c r="M56" s="33"/>
+      <c r="M56" s="34"/>
       <c r="N56" s="7">
         <f>MEUBLE_Clôtures!$D$6</f>
         <v>0</v>
       </c>
-      <c r="O56" s="33"/>
+      <c r="O56" s="34"/>
       <c r="P56" s="7">
         <f>F55</f>
         <v>0</v>
       </c>
-      <c r="Q56" s="33"/>
+      <c r="Q56" s="34"/>
       <c r="R56" s="7">
         <f>H55</f>
         <v>1630</v>
       </c>
-      <c r="S56" s="33"/>
+      <c r="S56" s="34"/>
       <c r="T56" s="7">
         <v>629.20000000000005</v>
       </c>
-      <c r="U56" s="33"/>
+      <c r="U56" s="34"/>
     </row>
     <row r="57" spans="2:21" ht="15.5">
       <c r="B57" s="9"/>
-      <c r="C57" s="34" t="s">
+      <c r="C57" s="37" t="s">
         <v>26</v>
       </c>
       <c r="D57" s="6"/>
-      <c r="E57" s="33">
+      <c r="E57" s="34">
         <f>D57-D58</f>
         <v>0</v>
       </c>
       <c r="F57" s="6"/>
-      <c r="G57" s="33">
+      <c r="G57" s="34">
         <f t="shared" ref="G57" si="115">F57-F58+E57</f>
         <v>0</v>
       </c>
       <c r="H57" s="6">
         <v>10000</v>
       </c>
-      <c r="I57" s="33">
+      <c r="I57" s="34">
         <f t="shared" ref="I57" si="116">H57-H58+G57</f>
         <v>0</v>
       </c>
       <c r="J57" s="6">
         <v>0</v>
       </c>
-      <c r="K57" s="33">
+      <c r="K57" s="34">
         <f t="shared" ref="K57" si="117">J57-J58+I57</f>
         <v>0</v>
       </c>
@@ -4067,7 +4070,7 @@
         <f>DUDU_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M57" s="33">
+      <c r="M57" s="34">
         <f t="shared" ref="M57" si="118">L57-L58+K57</f>
         <v>0</v>
       </c>
@@ -4075,88 +4078,88 @@
         <f>DUDU_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O57" s="33">
+      <c r="O57" s="34">
         <f t="shared" ref="O57" si="119">N57-N58+M57</f>
         <v>0</v>
       </c>
       <c r="P57" s="6"/>
-      <c r="Q57" s="33">
+      <c r="Q57" s="34">
         <f>P57-P58+O57</f>
         <v>0</v>
       </c>
       <c r="R57" s="6"/>
-      <c r="S57" s="33">
+      <c r="S57" s="34">
         <f t="shared" ref="S57" si="120">R57-R58+Q57</f>
         <v>-10000</v>
       </c>
       <c r="T57" s="6">
         <v>6506.55</v>
       </c>
-      <c r="U57" s="33">
+      <c r="U57" s="34">
         <f t="shared" ref="U57" si="121">T57-T58+S57</f>
         <v>-10000</v>
       </c>
     </row>
     <row r="58" spans="2:21" ht="15.5">
       <c r="B58" s="9"/>
-      <c r="C58" s="34"/>
+      <c r="C58" s="37"/>
       <c r="D58" s="7"/>
-      <c r="E58" s="33"/>
+      <c r="E58" s="34"/>
       <c r="F58" s="7"/>
-      <c r="G58" s="33"/>
+      <c r="G58" s="34"/>
       <c r="H58" s="7">
         <v>10000</v>
       </c>
-      <c r="I58" s="33"/>
+      <c r="I58" s="34"/>
       <c r="J58" s="7">
         <f>DUDU_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K58" s="33"/>
+      <c r="K58" s="34"/>
       <c r="L58" s="7">
         <f>DUDU_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M58" s="33"/>
+      <c r="M58" s="34"/>
       <c r="N58" s="7">
         <f>DUDU_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O58" s="33"/>
+      <c r="O58" s="34"/>
       <c r="P58" s="7">
         <f>F57</f>
         <v>0</v>
       </c>
-      <c r="Q58" s="33"/>
+      <c r="Q58" s="34"/>
       <c r="R58" s="7">
         <f>H57</f>
         <v>10000</v>
       </c>
-      <c r="S58" s="33"/>
+      <c r="S58" s="34"/>
       <c r="T58" s="7">
         <v>6506.55</v>
       </c>
-      <c r="U58" s="33"/>
+      <c r="U58" s="34"/>
     </row>
     <row r="59" spans="2:21" ht="15.5" customHeight="1">
       <c r="B59" s="10"/>
-      <c r="C59" s="34" t="s">
+      <c r="C59" s="37" t="s">
         <v>27</v>
       </c>
       <c r="D59" s="6"/>
-      <c r="E59" s="33">
+      <c r="E59" s="34">
         <f>D59-D60</f>
         <v>0</v>
       </c>
       <c r="F59" s="6"/>
-      <c r="G59" s="33">
+      <c r="G59" s="34">
         <f t="shared" ref="G59" si="122">F59-F60+E59</f>
         <v>0</v>
       </c>
       <c r="H59" s="6">
         <v>500</v>
       </c>
-      <c r="I59" s="33">
+      <c r="I59" s="34">
         <f>H59-H60+G59</f>
         <v>-6530</v>
       </c>
@@ -4164,98 +4167,98 @@
         <f>UPFL_Clôtures!$B$2</f>
         <v>1726.53</v>
       </c>
-      <c r="K59" s="33">
+      <c r="K59" s="34">
         <f t="shared" ref="K59" si="123">J59-J60+I59</f>
         <v>-6183.22</v>
       </c>
       <c r="L59" s="6">
         <v>0</v>
       </c>
-      <c r="M59" s="33">
+      <c r="M59" s="34">
         <f t="shared" ref="M59" si="124">L59-L60+K59</f>
         <v>-6183.22</v>
       </c>
       <c r="N59" s="6">
         <v>0</v>
       </c>
-      <c r="O59" s="33">
+      <c r="O59" s="34">
         <f t="shared" ref="O59" si="125">N59-N60+M59</f>
         <v>-6183.22</v>
       </c>
       <c r="P59" s="6"/>
-      <c r="Q59" s="33">
+      <c r="Q59" s="34">
         <f>P59-P60+O59</f>
         <v>-6183.22</v>
       </c>
       <c r="R59" s="6"/>
-      <c r="S59" s="33">
+      <c r="S59" s="34">
         <f>R59-R60+Q59</f>
         <v>-6683.22</v>
       </c>
       <c r="T59" s="6">
         <v>1576.53</v>
       </c>
-      <c r="U59" s="33">
+      <c r="U59" s="34">
         <f t="shared" ref="U59" si="126">T59-T60+S59</f>
         <v>-5106.6900000000005</v>
       </c>
     </row>
     <row r="60" spans="2:21" ht="15.5" customHeight="1">
       <c r="B60" s="10"/>
-      <c r="C60" s="34"/>
+      <c r="C60" s="37"/>
       <c r="D60" s="7"/>
-      <c r="E60" s="33"/>
+      <c r="E60" s="34"/>
       <c r="F60" s="7"/>
-      <c r="G60" s="33"/>
+      <c r="G60" s="34"/>
       <c r="H60" s="7">
         <v>7030</v>
       </c>
-      <c r="I60" s="33"/>
+      <c r="I60" s="34"/>
       <c r="J60" s="7">
         <f>UPFL_Clôtures!$B$5</f>
         <v>1379.75</v>
       </c>
-      <c r="K60" s="33"/>
+      <c r="K60" s="34"/>
       <c r="L60" s="7">
         <f>UPFL_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M60" s="33"/>
+      <c r="M60" s="34"/>
       <c r="N60" s="7">
         <f>UPFL_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O60" s="33"/>
+      <c r="O60" s="34"/>
       <c r="P60" s="7">
         <f>F59</f>
         <v>0</v>
       </c>
-      <c r="Q60" s="33"/>
+      <c r="Q60" s="34"/>
       <c r="R60" s="7">
         <f>H59</f>
         <v>500</v>
       </c>
-      <c r="S60" s="33"/>
+      <c r="S60" s="34"/>
       <c r="T60" s="7"/>
-      <c r="U60" s="33"/>
+      <c r="U60" s="34"/>
     </row>
     <row r="61" spans="2:21" ht="15.5" customHeight="1">
       <c r="B61" s="10"/>
-      <c r="C61" s="34"/>
+      <c r="C61" s="37"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="33">
+      <c r="E61" s="34">
         <f>D61-D62</f>
         <v>0</v>
       </c>
       <c r="F61" s="6"/>
-      <c r="G61" s="33">
+      <c r="G61" s="34">
         <f>F61-F62+E61</f>
         <v>0</v>
       </c>
       <c r="H61" s="6">
         <v>2600</v>
       </c>
-      <c r="I61" s="33">
+      <c r="I61" s="34">
         <f>H61-H62+G61</f>
         <v>2600</v>
       </c>
@@ -4263,7 +4266,7 @@
         <f>UPFL_Clôtures!$B$3</f>
         <v>2498</v>
       </c>
-      <c r="K61" s="33">
+      <c r="K61" s="34">
         <f>J61-J62+I61</f>
         <v>5098</v>
       </c>
@@ -4271,7 +4274,7 @@
         <f>UPFL_Clôtures!$C$2</f>
         <v>0</v>
       </c>
-      <c r="M61" s="33">
+      <c r="M61" s="34">
         <f>L61-L62+K61</f>
         <v>5098</v>
       </c>
@@ -4279,93 +4282,93 @@
         <f>UPFL_Clôtures!$D$2</f>
         <v>0</v>
       </c>
-      <c r="O61" s="33">
+      <c r="O61" s="34">
         <f>N61-N62+M61</f>
         <v>5098</v>
       </c>
       <c r="P61" s="6"/>
-      <c r="Q61" s="33">
+      <c r="Q61" s="34">
         <f>P61-P62+O61</f>
         <v>5098</v>
       </c>
       <c r="R61" s="6"/>
-      <c r="S61" s="33">
+      <c r="S61" s="34">
         <f>R61-R62+Q61</f>
         <v>2498</v>
       </c>
       <c r="T61" s="6"/>
-      <c r="U61" s="33">
+      <c r="U61" s="34">
         <f>T61-T62+S61</f>
         <v>283.32999999999993</v>
       </c>
     </row>
     <row r="62" spans="2:21" ht="15.5" customHeight="1">
       <c r="B62" s="10"/>
-      <c r="C62" s="34"/>
+      <c r="C62" s="37"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="33"/>
+      <c r="E62" s="34"/>
       <c r="F62" s="6"/>
-      <c r="G62" s="33"/>
+      <c r="G62" s="34"/>
       <c r="H62" s="7">
         <v>0</v>
       </c>
-      <c r="I62" s="33"/>
+      <c r="I62" s="34"/>
       <c r="J62" s="7">
         <f>UPFL_Clôtures!$B$6</f>
         <v>0</v>
       </c>
-      <c r="K62" s="33"/>
+      <c r="K62" s="34"/>
       <c r="L62" s="7">
         <f>UPFL_Clôtures!$C$6</f>
         <v>0</v>
       </c>
-      <c r="M62" s="33"/>
+      <c r="M62" s="34"/>
       <c r="N62" s="7">
         <f>UPFL_Clôtures!$D$6</f>
         <v>0</v>
       </c>
-      <c r="O62" s="33"/>
+      <c r="O62" s="34"/>
       <c r="P62" s="7">
         <f>F61</f>
         <v>0</v>
       </c>
-      <c r="Q62" s="33"/>
+      <c r="Q62" s="34"/>
       <c r="R62" s="7">
         <f>H61</f>
         <v>2600</v>
       </c>
-      <c r="S62" s="33"/>
+      <c r="S62" s="34"/>
       <c r="T62" s="7">
         <v>2214.67</v>
       </c>
-      <c r="U62" s="33"/>
+      <c r="U62" s="34"/>
     </row>
     <row r="63" spans="2:21" ht="15.5">
       <c r="B63" s="9"/>
-      <c r="C63" s="34" t="s">
+      <c r="C63" s="37" t="s">
         <v>93</v>
       </c>
       <c r="D63" s="6"/>
-      <c r="E63" s="33">
+      <c r="E63" s="34">
         <f>D63-D64</f>
         <v>0</v>
       </c>
       <c r="F63" s="6"/>
-      <c r="G63" s="33">
+      <c r="G63" s="34">
         <f>F63-F64+E63</f>
         <v>0</v>
       </c>
       <c r="H63" s="6">
         <v>0</v>
       </c>
-      <c r="I63" s="33">
+      <c r="I63" s="34">
         <f>H63-H64+G63</f>
         <v>-2000</v>
       </c>
       <c r="J63" s="6">
         <v>5</v>
       </c>
-      <c r="K63" s="33">
+      <c r="K63" s="34">
         <f>J63-J64+I63</f>
         <v>-2103.16</v>
       </c>
@@ -4373,7 +4376,7 @@
         <f>FNR_Clôtures!$C$2</f>
         <v>0</v>
       </c>
-      <c r="M63" s="33">
+      <c r="M63" s="34">
         <f>L63-L64+K63</f>
         <v>-2103.16</v>
       </c>
@@ -4381,94 +4384,94 @@
         <f>FNR_Clôtures!$D$2</f>
         <v>0</v>
       </c>
-      <c r="O63" s="33">
+      <c r="O63" s="34">
         <f>N63-N64+M63</f>
         <v>-2103.16</v>
       </c>
       <c r="P63" s="6"/>
-      <c r="Q63" s="33">
+      <c r="Q63" s="34">
         <f>P63-P64+O63</f>
         <v>-2103.16</v>
       </c>
       <c r="R63" s="6"/>
-      <c r="S63" s="33">
+      <c r="S63" s="34">
         <f t="shared" ref="S63" si="127">R63-R64+Q63</f>
         <v>-2103.16</v>
       </c>
       <c r="T63" s="6">
         <v>720.75</v>
       </c>
-      <c r="U63" s="33">
+      <c r="U63" s="34">
         <f>T63-T64+S63</f>
         <v>-1457.0099999999998</v>
       </c>
     </row>
     <row r="64" spans="2:21" ht="15.5">
       <c r="B64" s="9"/>
-      <c r="C64" s="34"/>
+      <c r="C64" s="37"/>
       <c r="D64" s="7"/>
-      <c r="E64" s="33"/>
+      <c r="E64" s="34"/>
       <c r="F64" s="7"/>
-      <c r="G64" s="33"/>
+      <c r="G64" s="34"/>
       <c r="H64" s="7">
         <v>2000</v>
       </c>
-      <c r="I64" s="33"/>
+      <c r="I64" s="34"/>
       <c r="J64" s="7">
         <v>108.16</v>
       </c>
-      <c r="K64" s="33"/>
+      <c r="K64" s="34"/>
       <c r="L64" s="7">
         <f>FNR_Clôtures!$C$4</f>
         <v>0</v>
       </c>
-      <c r="M64" s="33"/>
+      <c r="M64" s="34"/>
       <c r="N64" s="7">
         <f>FNR_Clôtures!$D$4</f>
         <v>0</v>
       </c>
-      <c r="O64" s="33"/>
+      <c r="O64" s="34"/>
       <c r="P64" s="7">
         <f>F63</f>
         <v>0</v>
       </c>
-      <c r="Q64" s="33"/>
+      <c r="Q64" s="34"/>
       <c r="R64" s="7">
         <f>H63</f>
         <v>0</v>
       </c>
-      <c r="S64" s="33"/>
+      <c r="S64" s="34"/>
       <c r="T64" s="7">
         <v>74.599999999999994</v>
       </c>
-      <c r="U64" s="33"/>
+      <c r="U64" s="34"/>
     </row>
     <row r="65" spans="2:21" ht="15.5">
       <c r="B65" s="9"/>
-      <c r="C65" s="34" t="s">
+      <c r="C65" s="37" t="s">
         <v>88</v>
       </c>
       <c r="D65" s="6"/>
-      <c r="E65" s="33">
+      <c r="E65" s="34">
         <f>D65-D66</f>
         <v>0</v>
       </c>
       <c r="F65" s="6"/>
-      <c r="G65" s="33">
+      <c r="G65" s="34">
         <f>F65-F66+E65</f>
         <v>0</v>
       </c>
       <c r="H65" s="6">
         <v>0</v>
       </c>
-      <c r="I65" s="33">
+      <c r="I65" s="34">
         <f>H65-H66+G65</f>
         <v>0</v>
       </c>
       <c r="J65" s="6">
         <v>15.1</v>
       </c>
-      <c r="K65" s="33">
+      <c r="K65" s="34">
         <f>J65-J66+I65</f>
         <v>0</v>
       </c>
@@ -4476,7 +4479,7 @@
         <f>REBUILT_Clôtures!$C$2</f>
         <v>0</v>
       </c>
-      <c r="M65" s="33">
+      <c r="M65" s="34">
         <f>L65-L66+K65</f>
         <v>0</v>
       </c>
@@ -4484,173 +4487,413 @@
         <f>REBUILT_Clôtures!$D$2</f>
         <v>0</v>
       </c>
-      <c r="O65" s="33">
+      <c r="O65" s="34">
         <f>N65-N66+M65</f>
         <v>0</v>
       </c>
       <c r="P65" s="6"/>
-      <c r="Q65" s="33">
+      <c r="Q65" s="34">
         <f>P65-P66+O65</f>
         <v>0</v>
       </c>
       <c r="R65" s="6"/>
-      <c r="S65" s="33">
+      <c r="S65" s="34">
         <f t="shared" ref="S65" si="128">R65-R66+Q65</f>
         <v>0</v>
       </c>
       <c r="T65" s="6">
         <v>720.75</v>
       </c>
-      <c r="U65" s="33">
+      <c r="U65" s="34">
         <f>T65-T66+S65</f>
         <v>646.15</v>
       </c>
     </row>
     <row r="66" spans="2:21" ht="15.5">
       <c r="B66" s="9"/>
-      <c r="C66" s="35"/>
+      <c r="C66" s="59"/>
       <c r="D66" s="7"/>
-      <c r="E66" s="33"/>
+      <c r="E66" s="34"/>
       <c r="F66" s="7"/>
-      <c r="G66" s="33"/>
+      <c r="G66" s="34"/>
       <c r="H66" s="7">
         <v>0</v>
       </c>
-      <c r="I66" s="36"/>
+      <c r="I66" s="48"/>
       <c r="J66" s="7">
         <v>15.1</v>
       </c>
-      <c r="K66" s="36"/>
+      <c r="K66" s="48"/>
       <c r="L66" s="7">
         <f>REBUILT_Clôtures!$C$4</f>
         <v>0</v>
       </c>
-      <c r="M66" s="33"/>
+      <c r="M66" s="34"/>
       <c r="N66" s="7">
         <f>REBUILT_Clôtures!$D$4</f>
         <v>0</v>
       </c>
-      <c r="O66" s="33"/>
+      <c r="O66" s="34"/>
       <c r="P66" s="7">
         <f>F65</f>
         <v>0</v>
       </c>
-      <c r="Q66" s="33"/>
+      <c r="Q66" s="34"/>
       <c r="R66" s="7">
         <f>H65</f>
         <v>0</v>
       </c>
-      <c r="S66" s="33"/>
+      <c r="S66" s="34"/>
       <c r="T66" s="7">
         <v>74.599999999999994</v>
       </c>
-      <c r="U66" s="33"/>
+      <c r="U66" s="34"/>
     </row>
     <row r="67" spans="2:21" ht="14" customHeight="1">
-      <c r="B67" s="47" t="s">
+      <c r="B67" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C67" s="48"/>
-      <c r="D67" s="37">
+      <c r="C67" s="51"/>
+      <c r="D67" s="35">
         <f>E5+E7+E31</f>
         <v>-3802.4599999999982</v>
       </c>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37">
+      <c r="E67" s="35"/>
+      <c r="F67" s="35">
         <f>G5+G7+G31</f>
         <v>6911.4500000000007</v>
       </c>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37">
+      <c r="G67" s="35"/>
+      <c r="H67" s="35">
         <f>I5+I7+I31</f>
         <v>-27444.55</v>
       </c>
-      <c r="I67" s="37"/>
-      <c r="J67" s="37">
+      <c r="I67" s="35"/>
+      <c r="J67" s="35">
         <f>K5+K7+K31</f>
-        <v>-20567.37</v>
-      </c>
-      <c r="K67" s="37"/>
-      <c r="L67" s="37">
+        <v>-20353.55</v>
+      </c>
+      <c r="K67" s="35"/>
+      <c r="L67" s="35">
         <f>M5+M7+M31</f>
-        <v>-20567.37</v>
-      </c>
-      <c r="M67" s="37"/>
-      <c r="N67" s="37">
+        <v>-20353.55</v>
+      </c>
+      <c r="M67" s="35"/>
+      <c r="N67" s="35">
         <f>O5+O7+O31</f>
-        <v>-20567.37</v>
-      </c>
-      <c r="O67" s="37"/>
-      <c r="P67" s="37">
+        <v>-20353.55</v>
+      </c>
+      <c r="O67" s="35"/>
+      <c r="P67" s="35">
         <f>Q5+Q7+Q31</f>
-        <v>-20567.37</v>
-      </c>
-      <c r="Q67" s="37"/>
-      <c r="R67" s="37">
+        <v>-20353.55</v>
+      </c>
+      <c r="Q67" s="35"/>
+      <c r="R67" s="35">
         <f>S5+S7+S31</f>
-        <v>-20567.370000000003</v>
-      </c>
-      <c r="S67" s="37"/>
-      <c r="T67" s="37">
+        <v>-20353.550000000003</v>
+      </c>
+      <c r="S67" s="35"/>
+      <c r="T67" s="35">
         <f>U5+U7+U31</f>
-        <v>-19921.220000000005</v>
-      </c>
-      <c r="U67" s="37"/>
+        <v>-19707.400000000005</v>
+      </c>
+      <c r="U67" s="35"/>
     </row>
     <row r="68" spans="2:21" ht="14.4" customHeight="1">
-      <c r="B68" s="49"/>
-      <c r="C68" s="50"/>
-      <c r="D68" s="38"/>
-      <c r="E68" s="38"/>
-      <c r="F68" s="38"/>
-      <c r="G68" s="38"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="38"/>
-      <c r="J68" s="38"/>
-      <c r="K68" s="38"/>
-      <c r="L68" s="38"/>
-      <c r="M68" s="38"/>
-      <c r="N68" s="38"/>
-      <c r="O68" s="38"/>
-      <c r="P68" s="38"/>
-      <c r="Q68" s="38"/>
-      <c r="R68" s="38"/>
-      <c r="S68" s="38"/>
-      <c r="T68" s="38"/>
-      <c r="U68" s="38"/>
+      <c r="B68" s="52"/>
+      <c r="C68" s="53"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="36"/>
+      <c r="K68" s="36"/>
+      <c r="L68" s="36"/>
+      <c r="M68" s="36"/>
+      <c r="N68" s="36"/>
+      <c r="O68" s="36"/>
+      <c r="P68" s="36"/>
+      <c r="Q68" s="36"/>
+      <c r="R68" s="36"/>
+      <c r="S68" s="36"/>
+      <c r="T68" s="36"/>
+      <c r="U68" s="36"/>
     </row>
     <row r="69" spans="2:21"/>
     <row r="70" spans="2:21"/>
   </sheetData>
   <mergeCells count="327">
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="N67:O68"/>
-    <mergeCell ref="T67:U68"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B31:C32"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="U39:U40"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="O63:O64"/>
+    <mergeCell ref="S63:S64"/>
+    <mergeCell ref="U63:U64"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="Q63:Q64"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="O61:O62"/>
+    <mergeCell ref="U61:U62"/>
+    <mergeCell ref="U49:U50"/>
+    <mergeCell ref="U47:U48"/>
+    <mergeCell ref="U51:U52"/>
+    <mergeCell ref="U53:U54"/>
+    <mergeCell ref="U55:U56"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="Q65:Q66"/>
+    <mergeCell ref="S65:S66"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="S29:S30"/>
+    <mergeCell ref="Q51:Q52"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="R67:S68"/>
+    <mergeCell ref="D2:U2"/>
+    <mergeCell ref="S43:S44"/>
+    <mergeCell ref="S45:S46"/>
+    <mergeCell ref="S47:S48"/>
+    <mergeCell ref="S49:S50"/>
+    <mergeCell ref="S51:S52"/>
+    <mergeCell ref="S53:S54"/>
+    <mergeCell ref="S55:S56"/>
+    <mergeCell ref="S57:S58"/>
+    <mergeCell ref="S59:S60"/>
+    <mergeCell ref="S21:S22"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="S31:S32"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="S37:S38"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="U29:U30"/>
+    <mergeCell ref="U65:U66"/>
+    <mergeCell ref="P67:Q68"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="Q47:Q48"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="Q31:Q32"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="Q37:Q38"/>
+    <mergeCell ref="Q39:Q40"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="D67:E68"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="U57:U58"/>
+    <mergeCell ref="U59:U60"/>
+    <mergeCell ref="O59:O60"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="O57:O58"/>
+    <mergeCell ref="Q53:Q54"/>
+    <mergeCell ref="Q55:Q56"/>
+    <mergeCell ref="Q57:Q58"/>
+    <mergeCell ref="Q59:Q60"/>
+    <mergeCell ref="Q61:Q62"/>
+    <mergeCell ref="S61:S62"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="U31:U32"/>
+    <mergeCell ref="U33:U34"/>
+    <mergeCell ref="U35:U36"/>
+    <mergeCell ref="U37:U38"/>
+    <mergeCell ref="U41:U42"/>
+    <mergeCell ref="U43:U44"/>
+    <mergeCell ref="U45:U46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="S39:S40"/>
+    <mergeCell ref="S41:S42"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="M61:M62"/>
+    <mergeCell ref="M57:M58"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="B67:C68"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="J67:K68"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="H67:I68"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="L67:M68"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="F67:G68"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="U21:U22"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="I21:I22"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="C13:C14"/>
@@ -4675,43 +4918,34 @@
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="I17:I18"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="U21:U22"/>
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B31:C32"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="N67:O68"/>
+    <mergeCell ref="T67:U68"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="U39:U40"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I35:I36"/>
     <mergeCell ref="I53:I54"/>
     <mergeCell ref="I55:I56"/>
     <mergeCell ref="I41:I42"/>
@@ -4719,237 +4953,6 @@
     <mergeCell ref="K55:K56"/>
     <mergeCell ref="K47:K48"/>
     <mergeCell ref="M25:M26"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="M61:M62"/>
-    <mergeCell ref="M57:M58"/>
-    <mergeCell ref="M59:M60"/>
-    <mergeCell ref="B67:C68"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="J67:K68"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="H67:I68"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="L67:M68"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="Q61:Q62"/>
-    <mergeCell ref="S61:S62"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="U31:U32"/>
-    <mergeCell ref="U33:U34"/>
-    <mergeCell ref="U35:U36"/>
-    <mergeCell ref="U37:U38"/>
-    <mergeCell ref="U41:U42"/>
-    <mergeCell ref="U43:U44"/>
-    <mergeCell ref="U45:U46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="S39:S40"/>
-    <mergeCell ref="S41:S42"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="U57:U58"/>
-    <mergeCell ref="U59:U60"/>
-    <mergeCell ref="O59:O60"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="O57:O58"/>
-    <mergeCell ref="Q53:Q54"/>
-    <mergeCell ref="Q55:Q56"/>
-    <mergeCell ref="Q57:Q58"/>
-    <mergeCell ref="Q59:Q60"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="F67:G68"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="D67:E68"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="Q47:Q48"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="Q31:Q32"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="Q37:Q38"/>
-    <mergeCell ref="Q39:Q40"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R67:S68"/>
-    <mergeCell ref="D2:U2"/>
-    <mergeCell ref="S43:S44"/>
-    <mergeCell ref="S45:S46"/>
-    <mergeCell ref="S47:S48"/>
-    <mergeCell ref="S49:S50"/>
-    <mergeCell ref="S51:S52"/>
-    <mergeCell ref="S53:S54"/>
-    <mergeCell ref="S55:S56"/>
-    <mergeCell ref="S57:S58"/>
-    <mergeCell ref="S59:S60"/>
-    <mergeCell ref="S21:S22"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="S27:S28"/>
-    <mergeCell ref="S31:S32"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="S35:S36"/>
-    <mergeCell ref="S37:S38"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="U29:U30"/>
-    <mergeCell ref="U65:U66"/>
-    <mergeCell ref="P67:Q68"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="O65:O66"/>
-    <mergeCell ref="Q65:Q66"/>
-    <mergeCell ref="S65:S66"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="S29:S30"/>
-    <mergeCell ref="Q51:Q52"/>
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="O63:O64"/>
-    <mergeCell ref="S63:S64"/>
-    <mergeCell ref="U63:U64"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="Q63:Q64"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="O61:O62"/>
-    <mergeCell ref="U61:U62"/>
-    <mergeCell ref="U49:U50"/>
-    <mergeCell ref="U47:U48"/>
-    <mergeCell ref="U51:U52"/>
-    <mergeCell ref="U53:U54"/>
-    <mergeCell ref="U55:U56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5091,7 +5094,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -7661,8 +7664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B817734-A454-497F-94C9-56A2D02418BC}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -8332,7 +8335,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -8502,7 +8505,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -8532,7 +8535,7 @@
         <v>47</v>
       </c>
       <c r="B2" s="18">
-        <v>0</v>
+        <v>343.02</v>
       </c>
       <c r="C2" s="18">
         <v>0</v>
@@ -8542,7 +8545,7 @@
       </c>
       <c r="E2" s="20">
         <f>SUM(B2:D2)</f>
-        <v>0</v>
+        <v>343.02</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
@@ -8552,7 +8555,7 @@
         <v>48</v>
       </c>
       <c r="B3" s="18">
-        <v>0</v>
+        <v>256.11</v>
       </c>
       <c r="C3" s="18">
         <v>0</v>
@@ -8562,7 +8565,7 @@
       </c>
       <c r="E3" s="20">
         <f>SUM(B3:D3)</f>
-        <v>0</v>
+        <v>256.11</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
@@ -8593,7 +8596,7 @@
       </c>
       <c r="B5" s="19">
         <f>SUM(B2:B4)</f>
-        <v>0</v>
+        <v>599.13</v>
       </c>
       <c r="C5" s="19">
         <f>SUM(C2:C4)</f>
@@ -8605,7 +8608,7 @@
       </c>
       <c r="E5" s="19">
         <f>SUM(E2:E4)</f>
-        <v>0</v>
+        <v>599.13</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
@@ -8615,7 +8618,7 @@
         <v>50</v>
       </c>
       <c r="B6" s="18">
-        <v>0</v>
+        <v>219.45</v>
       </c>
       <c r="C6" s="18">
         <v>0</v>
@@ -8625,7 +8628,7 @@
       </c>
       <c r="E6" s="20">
         <f t="shared" ref="E6:E11" si="0">SUM(B6:D6)</f>
-        <v>0</v>
+        <v>219.45</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
@@ -8634,8 +8637,8 @@
       <c r="A7" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="18">
-        <v>0</v>
+      <c r="B7" s="18" t="s">
+        <v>97</v>
       </c>
       <c r="C7" s="18">
         <v>0</v>
@@ -8675,7 +8678,7 @@
         <v>53</v>
       </c>
       <c r="B9" s="18">
-        <v>0</v>
+        <v>99.07</v>
       </c>
       <c r="C9" s="18">
         <v>0</v>
@@ -8685,7 +8688,7 @@
       </c>
       <c r="E9" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>99.07</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
@@ -8695,7 +8698,7 @@
         <v>54</v>
       </c>
       <c r="B10" s="18">
-        <v>0</v>
+        <v>66.790000000000006</v>
       </c>
       <c r="C10" s="18">
         <v>0</v>
@@ -8705,7 +8708,7 @@
       </c>
       <c r="E10" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>66.790000000000006</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
@@ -8736,7 +8739,7 @@
       </c>
       <c r="B12" s="21">
         <f t="shared" ref="B12:C12" si="1">SUM(B6:B11)</f>
-        <v>0</v>
+        <v>385.31</v>
       </c>
       <c r="C12" s="21">
         <f t="shared" si="1"/>
@@ -8748,7 +8751,7 @@
       </c>
       <c r="E12" s="21">
         <f>SUM(E6:E11)</f>
-        <v>0</v>
+        <v>385.31</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="22"/>

--- a/2 - Bilans/2022-2023/Unipoly_Bilan_Quadrimestriel_22-23.xlsx
+++ b/2 - Bilans/2022-2023/Unipoly_Bilan_Quadrimestriel_22-23.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\Clara\Unipoly\UPSecretrariat\2 - Bilans\2022-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB64BC5C-C7F5-49C4-B4AD-6F32CD8B4257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB101D4-D7B5-4671-8A46-47936C5696DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="779" xr2:uid="{34F8AD7C-3B1E-42A7-8AF2-50C33241ADA4}"/>
   </bookViews>
@@ -725,11 +725,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -737,23 +740,44 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -770,40 +794,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1122,9 +1122,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A55C92-786C-4AB3-96FC-7473E4CC0A9B}">
   <dimension ref="A1:Y70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14" zeroHeight="1"/>
@@ -1143,74 +1143,74 @@
     <row r="2" spans="1:21" ht="36" customHeight="1">
       <c r="B2" s="29"/>
       <c r="C2" s="30"/>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="58"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="40"/>
     </row>
     <row r="3" spans="1:21" ht="14" customHeight="1">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="55" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42" t="s">
+      <c r="E3" s="41"/>
+      <c r="F3" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="42"/>
-      <c r="H3" s="43" t="s">
+      <c r="G3" s="41"/>
+      <c r="H3" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43" t="s">
+      <c r="I3" s="51"/>
+      <c r="J3" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="43"/>
-      <c r="L3" s="42" t="s">
+      <c r="K3" s="51"/>
+      <c r="L3" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42" t="s">
+      <c r="M3" s="41"/>
+      <c r="N3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42" t="s">
+      <c r="O3" s="41"/>
+      <c r="P3" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42" t="s">
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42" t="s">
+      <c r="S3" s="41"/>
+      <c r="T3" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="U3" s="43"/>
+      <c r="U3" s="51"/>
     </row>
     <row r="4" spans="1:21" ht="20">
-      <c r="B4" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="45"/>
+      <c r="B4" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="53"/>
       <c r="D4" s="5" t="s">
         <v>39</v>
       </c>
@@ -1267,15 +1267,15 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.5">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="39"/>
+      <c r="C5" s="57"/>
       <c r="D5" s="6">
         <f>D7+D31</f>
         <v>3136.0899999999997</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="33">
         <f>D5-D6</f>
         <v>-1901.2299999999991</v>
       </c>
@@ -1283,7 +1283,7 @@
         <f>F7+F31</f>
         <v>4406.34</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="33">
         <f>F5-F6+E5</f>
         <v>2505.110000000001</v>
       </c>
@@ -1291,22 +1291,22 @@
         <f>H7+H31</f>
         <v>31680</v>
       </c>
-      <c r="I5" s="34">
+      <c r="I5" s="33">
         <f>H5-H6+G5</f>
         <v>-14672.89</v>
       </c>
       <c r="J5" s="6"/>
-      <c r="K5" s="34">
+      <c r="K5" s="33">
         <f>J5-J6+I5</f>
         <v>-14672.89</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="M5" s="34">
+      <c r="M5" s="33">
         <f>L5-L6+K5</f>
         <v>-14672.89</v>
       </c>
       <c r="N5" s="6"/>
-      <c r="O5" s="34">
+      <c r="O5" s="33">
         <f>N5-N6+M5</f>
         <v>-14672.89</v>
       </c>
@@ -1314,7 +1314,7 @@
         <f>P8+P32</f>
         <v>4406.34</v>
       </c>
-      <c r="Q5" s="34">
+      <c r="Q5" s="33">
         <f>P5-P6+O5</f>
         <v>-10266.549999999999</v>
       </c>
@@ -1322,59 +1322,59 @@
         <f>R8+R32</f>
         <v>31680</v>
       </c>
-      <c r="S5" s="34">
+      <c r="S5" s="33">
         <f>R5-R6+Q5</f>
         <v>21413.45</v>
       </c>
       <c r="T5" s="6">
         <v>2214.0300000000002</v>
       </c>
-      <c r="U5" s="33">
+      <c r="U5" s="44">
         <f>T5-T6+S5</f>
         <v>23627.48</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.5">
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="59"/>
       <c r="D6" s="7">
         <f>D8+D32</f>
         <v>5037.3199999999988</v>
       </c>
-      <c r="E6" s="34"/>
+      <c r="E6" s="33"/>
       <c r="F6" s="7">
         <f>F8+F32</f>
         <v>0</v>
       </c>
-      <c r="G6" s="34"/>
+      <c r="G6" s="33"/>
       <c r="H6" s="7">
         <f>H8+H32</f>
         <v>48858</v>
       </c>
-      <c r="I6" s="48"/>
+      <c r="I6" s="42"/>
       <c r="J6" s="27"/>
-      <c r="K6" s="48"/>
+      <c r="K6" s="42"/>
       <c r="L6" s="27"/>
-      <c r="M6" s="48"/>
+      <c r="M6" s="42"/>
       <c r="N6" s="27"/>
-      <c r="O6" s="48"/>
+      <c r="O6" s="42"/>
       <c r="P6" s="27"/>
-      <c r="Q6" s="48"/>
+      <c r="Q6" s="42"/>
       <c r="R6" s="27"/>
-      <c r="S6" s="48"/>
+      <c r="S6" s="42"/>
       <c r="T6" s="27"/>
-      <c r="U6" s="48"/>
+      <c r="U6" s="42"/>
     </row>
     <row r="7" spans="1:21" ht="15.5">
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="39"/>
+      <c r="C7" s="57"/>
       <c r="D7" s="8">
         <f>D9+D11+D13+D15+D17+D19+D21+D23+D25+D27</f>
         <v>0</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="44">
         <f>D7-D8</f>
         <v>0</v>
       </c>
@@ -1382,7 +1382,7 @@
         <f>F9+F11+F13+F15+F17+F19+F21+F23+F25+F27</f>
         <v>0</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="44">
         <f>F7-F8+E7</f>
         <v>0</v>
       </c>
@@ -1390,7 +1390,7 @@
         <f>H9+H11+H13+H15+H17+H19+H21+H23+H25+H27+H29</f>
         <v>3400</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7" s="33">
         <f>H7-H8+G7</f>
         <v>-4600</v>
       </c>
@@ -1398,119 +1398,119 @@
         <f>J9+J11+J13+J15+J17+J19+J21+J23+J25+J27+J29</f>
         <v>5533.92</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="33">
         <f>J7-J8+I7</f>
         <v>-3468.9800000000005</v>
       </c>
       <c r="L7" s="6">
         <f>L9+L11+L13+L15+L17+L19+L21+L23+L25+L27+L29</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="34">
+        <v>1730.13</v>
+      </c>
+      <c r="M7" s="33">
         <f>L7-L8+K7</f>
-        <v>-3468.9800000000005</v>
+        <v>-3203.8600000000006</v>
       </c>
       <c r="N7" s="6">
         <f>N9+N11+N13+N15+N17+N19+N21+N23+N25+N27+N29</f>
         <v>0</v>
       </c>
-      <c r="O7" s="34">
+      <c r="O7" s="33">
         <f>N7-N8+M7</f>
-        <v>-3468.9800000000005</v>
+        <v>-3203.8600000000006</v>
       </c>
       <c r="P7" s="6">
         <f>P9+P11+P13+P15+P17+P19+P21+P23+P25+P27+P29</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="34">
+      <c r="Q7" s="33">
         <f>P7-P8+O7</f>
-        <v>-3468.9800000000005</v>
+        <v>-3203.8600000000006</v>
       </c>
       <c r="R7" s="6">
         <f>R9+R11+R13+R15+R17+R19+R21+R23+R25+R27+R29</f>
         <v>0</v>
       </c>
-      <c r="S7" s="34">
+      <c r="S7" s="33">
         <f>R7-R8+Q7</f>
-        <v>-6868.9800000000005</v>
+        <v>-6603.8600000000006</v>
       </c>
       <c r="T7" s="6">
         <f>T9+T11+T13+T15+T17+T19+T21+T23+T25+T27+T29</f>
         <v>12560.309999999998</v>
       </c>
-      <c r="U7" s="49">
+      <c r="U7" s="43">
         <f>T7-T8+S7</f>
-        <v>-14249.18</v>
+        <v>-13984.060000000001</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.5">
-      <c r="B8" s="40"/>
-      <c r="C8" s="41"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="7">
         <f>D10+D12+D14+D16+D18+D20+D22+D24+D26+D28</f>
         <v>0</v>
       </c>
-      <c r="E8" s="34"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="7">
         <f>F10+F12+F14+F16+F18+F20+F22+F24+F26+F28</f>
         <v>0</v>
       </c>
-      <c r="G8" s="34"/>
+      <c r="G8" s="33"/>
       <c r="H8" s="7">
         <f>H10+H12+H14+H16+H18+H20+H22+H24+H26+H28+H30</f>
         <v>8000</v>
       </c>
-      <c r="I8" s="34"/>
+      <c r="I8" s="33"/>
       <c r="J8" s="7">
         <f>J10+J12+J14+J16+J18+J20+J22+J24+J26+J28+J30</f>
         <v>4402.9000000000005</v>
       </c>
-      <c r="K8" s="34"/>
+      <c r="K8" s="33"/>
       <c r="L8" s="7">
         <f>L10+L12+L14+L16+L18+L20+L22+L24+L26+L28+L30</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="34"/>
+        <v>1465.01</v>
+      </c>
+      <c r="M8" s="33"/>
       <c r="N8" s="7">
         <f>N10+N12+N14+N16+N18+N20+N22+N24+N26+N28+N30</f>
         <v>0</v>
       </c>
-      <c r="O8" s="34"/>
+      <c r="O8" s="33"/>
       <c r="P8" s="7">
         <f>P10+P12+P14+P16+P18+P20+P22+P24+P26+P28+P30</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="34"/>
+      <c r="Q8" s="33"/>
       <c r="R8" s="7">
         <f>R10+R12+R14+R16+R18+R20+R22+R24+R26+R28+R30</f>
         <v>3400</v>
       </c>
-      <c r="S8" s="34"/>
+      <c r="S8" s="33"/>
       <c r="T8" s="7">
         <f>T10+T12+T14+T16+T18+T20+T22+T24+T26+T28+T30</f>
         <v>19940.509999999998</v>
       </c>
-      <c r="U8" s="49"/>
+      <c r="U8" s="43"/>
     </row>
     <row r="9" spans="1:21" ht="15.5">
       <c r="B9" s="9"/>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="34" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="34">
+      <c r="E9" s="33">
         <f>D9-D10</f>
         <v>0</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="34">
+      <c r="G9" s="33">
         <f>F9-F10+E9</f>
         <v>0</v>
       </c>
       <c r="H9" s="6">
         <v>600</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="33">
         <f>H9-H10+G9</f>
         <v>-2250</v>
       </c>
@@ -1518,104 +1518,104 @@
         <f>COHE_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="33">
         <f>J9-J10+I9</f>
         <v>-2563.5</v>
       </c>
       <c r="L9" s="6">
         <f>COHE_Clôtures!C5</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="34">
+        <v>1730.13</v>
+      </c>
+      <c r="M9" s="33">
         <f>L9-L10+K9</f>
-        <v>-2563.5</v>
+        <v>-2298.38</v>
       </c>
       <c r="N9" s="6">
         <f>COHE_Clôtures!D5</f>
         <v>0</v>
       </c>
-      <c r="O9" s="34">
+      <c r="O9" s="33">
         <f>N9-N10+M9</f>
-        <v>-2563.5</v>
+        <v>-2298.38</v>
       </c>
       <c r="P9" s="6"/>
-      <c r="Q9" s="34">
+      <c r="Q9" s="33">
         <f>P9-P10+O9</f>
-        <v>-2563.5</v>
+        <v>-2298.38</v>
       </c>
       <c r="R9" s="6"/>
-      <c r="S9" s="34">
+      <c r="S9" s="33">
         <f>R9-R10+Q9</f>
-        <v>-3163.5</v>
+        <v>-2898.38</v>
       </c>
       <c r="T9" s="6">
         <v>2309.38</v>
       </c>
-      <c r="U9" s="49">
+      <c r="U9" s="43">
         <f>T9-T10+S9</f>
-        <v>-2747.5699999999997</v>
+        <v>-2482.4499999999998</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.5">
       <c r="B10" s="9"/>
-      <c r="C10" s="37"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="34"/>
+      <c r="E10" s="33"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="34"/>
+      <c r="G10" s="33"/>
       <c r="H10" s="7">
         <v>2850</v>
       </c>
-      <c r="I10" s="34"/>
+      <c r="I10" s="33"/>
       <c r="J10" s="7">
         <f>COHE_Clôtures!$B$9</f>
         <v>313.5</v>
       </c>
-      <c r="K10" s="34"/>
+      <c r="K10" s="33"/>
       <c r="L10" s="7">
         <f>COHE_Clôtures!C9</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="34"/>
+        <v>1465.01</v>
+      </c>
+      <c r="M10" s="33"/>
       <c r="N10" s="7">
         <f>COHE_Clôtures!D9</f>
         <v>0</v>
       </c>
-      <c r="O10" s="34"/>
+      <c r="O10" s="33"/>
       <c r="P10" s="7">
         <f>F9</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="34"/>
+      <c r="Q10" s="33"/>
       <c r="R10" s="7">
         <f>H9</f>
         <v>600</v>
       </c>
-      <c r="S10" s="34"/>
+      <c r="S10" s="33"/>
       <c r="T10" s="7">
         <v>1893.45</v>
       </c>
-      <c r="U10" s="49"/>
+      <c r="U10" s="43"/>
     </row>
     <row r="11" spans="1:21" ht="15.5">
       <c r="B11" s="9"/>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="34" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="34">
+      <c r="E11" s="33">
         <f>D11-D12</f>
         <v>0</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="34">
+      <c r="G11" s="33">
         <f t="shared" ref="G11" si="0">F11-F12+E11</f>
         <v>0</v>
       </c>
       <c r="H11" s="6">
         <v>150</v>
       </c>
-      <c r="I11" s="34">
+      <c r="I11" s="33">
         <f>H11-H12+G11</f>
         <v>-600</v>
       </c>
@@ -1623,7 +1623,7 @@
         <f>COM_Clôtures!$B$3</f>
         <v>35.1</v>
       </c>
-      <c r="K11" s="34">
+      <c r="K11" s="33">
         <f t="shared" ref="K11" si="1">J11-J12+I11</f>
         <v>-732.77</v>
       </c>
@@ -1631,7 +1631,7 @@
         <f>COM_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M11" s="34">
+      <c r="M11" s="33">
         <f>L11-L12+K11</f>
         <v>-732.77</v>
       </c>
@@ -1639,17 +1639,17 @@
         <f>COM_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O11" s="34">
+      <c r="O11" s="33">
         <f>N11-N12+M11</f>
         <v>-732.77</v>
       </c>
       <c r="P11" s="6"/>
-      <c r="Q11" s="34">
+      <c r="Q11" s="33">
         <f>P11-P12+O11</f>
         <v>-732.77</v>
       </c>
       <c r="R11" s="6"/>
-      <c r="S11" s="34">
+      <c r="S11" s="33">
         <f>R11-R12+Q11</f>
         <v>-882.77</v>
       </c>
@@ -1663,40 +1663,40 @@
     </row>
     <row r="12" spans="1:21" ht="15.5">
       <c r="B12" s="9"/>
-      <c r="C12" s="37"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="34"/>
+      <c r="E12" s="33"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="34"/>
+      <c r="G12" s="33"/>
       <c r="H12" s="7">
         <v>750</v>
       </c>
-      <c r="I12" s="34"/>
+      <c r="I12" s="33"/>
       <c r="J12" s="7">
         <f>COM_Clôtures!$B$5</f>
         <v>167.87</v>
       </c>
-      <c r="K12" s="34"/>
+      <c r="K12" s="33"/>
       <c r="L12" s="7">
         <f>COM_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M12" s="34"/>
+      <c r="M12" s="33"/>
       <c r="N12" s="7">
         <f>COM_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O12" s="34"/>
+      <c r="O12" s="33"/>
       <c r="P12" s="7">
         <f>F11</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="34"/>
+      <c r="Q12" s="33"/>
       <c r="R12" s="7">
         <f>H11</f>
         <v>150</v>
       </c>
-      <c r="S12" s="34"/>
+      <c r="S12" s="33"/>
       <c r="T12" s="7">
         <v>128.19999999999999</v>
       </c>
@@ -1704,23 +1704,23 @@
     </row>
     <row r="13" spans="1:21" ht="15.5">
       <c r="B13" s="9"/>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="34" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="34">
+      <c r="E13" s="33">
         <f>D13-D14</f>
         <v>0</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="34">
+      <c r="G13" s="33">
         <f t="shared" ref="G13" si="2">F13-F14+E13</f>
         <v>0</v>
       </c>
       <c r="H13" s="6">
         <v>0</v>
       </c>
-      <c r="I13" s="34">
+      <c r="I13" s="33">
         <f>H13-H14+G13</f>
         <v>-500</v>
       </c>
@@ -1728,7 +1728,7 @@
         <f>CONTRIB_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K13" s="34">
+      <c r="K13" s="33">
         <f t="shared" ref="K13" si="3">J13-J14+I13</f>
         <v>-575.6</v>
       </c>
@@ -1736,7 +1736,7 @@
         <f>CONTRIB_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M13" s="34">
+      <c r="M13" s="33">
         <f>L13-L14+K13</f>
         <v>-575.6</v>
       </c>
@@ -1744,86 +1744,86 @@
         <f>CONTRIB_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O13" s="34">
+      <c r="O13" s="33">
         <f>N13-N14+M13</f>
         <v>-575.6</v>
       </c>
       <c r="P13" s="6"/>
-      <c r="Q13" s="34">
+      <c r="Q13" s="33">
         <f>P13-P14+O13</f>
         <v>-575.6</v>
       </c>
       <c r="R13" s="6"/>
-      <c r="S13" s="34">
+      <c r="S13" s="33">
         <f t="shared" ref="S13" si="4">R13-R14+Q13</f>
         <v>-575.6</v>
       </c>
       <c r="T13" s="6">
         <v>171.6</v>
       </c>
-      <c r="U13" s="49">
+      <c r="U13" s="43">
         <f t="shared" ref="U13" si="5">T13-T14+S13</f>
         <v>-404</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.5">
       <c r="B14" s="9"/>
-      <c r="C14" s="37"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="34"/>
+      <c r="E14" s="33"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="34"/>
+      <c r="G14" s="33"/>
       <c r="H14" s="7">
         <v>500</v>
       </c>
-      <c r="I14" s="34"/>
+      <c r="I14" s="33"/>
       <c r="J14" s="7">
         <f>CONTRIB_Clôtures!$B$7</f>
         <v>75.599999999999994</v>
       </c>
-      <c r="K14" s="34"/>
+      <c r="K14" s="33"/>
       <c r="L14" s="7">
         <f>CONTRIB_Clôtures!$C$7</f>
         <v>0</v>
       </c>
-      <c r="M14" s="34"/>
+      <c r="M14" s="33"/>
       <c r="N14" s="7">
         <f>CONTRIB_Clôtures!$D$7</f>
         <v>0</v>
       </c>
-      <c r="O14" s="34"/>
+      <c r="O14" s="33"/>
       <c r="P14" s="7">
         <f>F13</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="34"/>
+      <c r="Q14" s="33"/>
       <c r="R14" s="7">
         <f>H13</f>
         <v>0</v>
       </c>
-      <c r="S14" s="34"/>
+      <c r="S14" s="33"/>
       <c r="T14" s="7"/>
-      <c r="U14" s="49"/>
+      <c r="U14" s="43"/>
     </row>
     <row r="15" spans="1:21" ht="15.5">
       <c r="B15" s="9"/>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="34" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="34">
+      <c r="E15" s="33">
         <f>D15-D16</f>
         <v>0</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="34">
+      <c r="G15" s="33">
         <f t="shared" ref="G15" si="6">F15-F16+E15</f>
         <v>0</v>
       </c>
       <c r="H15" s="6">
         <v>1750</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="33">
         <f t="shared" ref="I15" si="7">H15-H16+G15</f>
         <v>-1000</v>
       </c>
@@ -1831,7 +1831,7 @@
         <f>EVENT_Clôtures!$B$5</f>
         <v>599.13</v>
       </c>
-      <c r="K15" s="34">
+      <c r="K15" s="33">
         <f t="shared" ref="K15" si="8">J15-J16+I15</f>
         <v>-786.18000000000006</v>
       </c>
@@ -1839,7 +1839,7 @@
         <f>EVENT_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M15" s="34">
+      <c r="M15" s="33">
         <f>L15-L16+K15</f>
         <v>-786.18000000000006</v>
       </c>
@@ -1847,88 +1847,88 @@
         <f>EVENT_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O15" s="34">
+      <c r="O15" s="33">
         <f>N15-N16+M15</f>
         <v>-786.18000000000006</v>
       </c>
       <c r="P15" s="6"/>
-      <c r="Q15" s="34">
+      <c r="Q15" s="33">
         <f>P15-P16+O15</f>
         <v>-786.18000000000006</v>
       </c>
       <c r="R15" s="6"/>
-      <c r="S15" s="34">
+      <c r="S15" s="33">
         <f t="shared" ref="S15" si="9">R15-R16+Q15</f>
         <v>-2536.1800000000003</v>
       </c>
       <c r="T15" s="6">
         <v>2442.2199999999998</v>
       </c>
-      <c r="U15" s="49">
+      <c r="U15" s="43">
         <f t="shared" ref="U15" si="10">T15-T16+S15</f>
         <v>-4467.82</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.5">
       <c r="B16" s="9"/>
-      <c r="C16" s="37"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="34"/>
+      <c r="E16" s="33"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="34"/>
+      <c r="G16" s="33"/>
       <c r="H16" s="7">
         <v>2750</v>
       </c>
-      <c r="I16" s="34"/>
+      <c r="I16" s="33"/>
       <c r="J16" s="7">
         <f>EVENT_Clôtures!$B$12</f>
         <v>385.31</v>
       </c>
-      <c r="K16" s="34"/>
+      <c r="K16" s="33"/>
       <c r="L16" s="7">
         <f>EVENT_Clôtures!$C$12</f>
         <v>0</v>
       </c>
-      <c r="M16" s="34"/>
+      <c r="M16" s="33"/>
       <c r="N16" s="7">
         <f>EVENT_Clôtures!$D$12</f>
         <v>0</v>
       </c>
-      <c r="O16" s="34"/>
+      <c r="O16" s="33"/>
       <c r="P16" s="7">
         <f>F15</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="34"/>
+      <c r="Q16" s="33"/>
       <c r="R16" s="7">
         <f>H15</f>
         <v>1750</v>
       </c>
-      <c r="S16" s="34"/>
+      <c r="S16" s="33"/>
       <c r="T16" s="7">
         <v>4373.8599999999997</v>
       </c>
-      <c r="U16" s="49"/>
+      <c r="U16" s="43"/>
     </row>
     <row r="17" spans="2:21" ht="15.5">
       <c r="B17" s="9"/>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="34" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="34">
+      <c r="E17" s="33">
         <f>D17-D18</f>
         <v>0</v>
       </c>
       <c r="F17" s="6"/>
-      <c r="G17" s="34">
+      <c r="G17" s="33">
         <f t="shared" ref="G17" si="11">F17-F18+E17</f>
         <v>0</v>
       </c>
       <c r="H17" s="6">
         <v>0</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I17" s="33">
         <f t="shared" ref="I17" si="12">H17-H18+G17</f>
         <v>0</v>
       </c>
@@ -1936,7 +1936,7 @@
         <f>EXTRA_Clôtures!$B$3</f>
         <v>1.38</v>
       </c>
-      <c r="K17" s="34">
+      <c r="K17" s="33">
         <f t="shared" ref="K17" si="13">J17-J18+I17</f>
         <v>-2010.02</v>
       </c>
@@ -1944,7 +1944,7 @@
         <f>EXTRA_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M17" s="34">
+      <c r="M17" s="33">
         <f>L17-L18+K17</f>
         <v>-2010.02</v>
       </c>
@@ -1952,88 +1952,88 @@
         <f>EXTRA_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O17" s="34">
+      <c r="O17" s="33">
         <f>N17-N18+M17</f>
         <v>-2010.02</v>
       </c>
       <c r="P17" s="6"/>
-      <c r="Q17" s="34">
+      <c r="Q17" s="33">
         <f>P17-P18+O17</f>
         <v>-2010.02</v>
       </c>
       <c r="R17" s="6"/>
-      <c r="S17" s="34">
+      <c r="S17" s="33">
         <f t="shared" ref="S17" si="14">R17-R18+Q17</f>
         <v>-2010.02</v>
       </c>
       <c r="T17" s="6">
         <v>395.9</v>
       </c>
-      <c r="U17" s="49">
+      <c r="U17" s="43">
         <f t="shared" ref="U17" si="15">T17-T18+S17</f>
         <v>-2212.04</v>
       </c>
     </row>
     <row r="18" spans="2:21" ht="15.5">
       <c r="B18" s="9"/>
-      <c r="C18" s="37"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="34"/>
+      <c r="E18" s="33"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="34"/>
+      <c r="G18" s="33"/>
       <c r="H18" s="7">
         <v>0</v>
       </c>
-      <c r="I18" s="34"/>
+      <c r="I18" s="33"/>
       <c r="J18" s="7">
         <f>EXTRA_Clôtures!$B$5</f>
         <v>2011.4</v>
       </c>
-      <c r="K18" s="34"/>
+      <c r="K18" s="33"/>
       <c r="L18" s="7">
         <f>EXTRA_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M18" s="34"/>
+      <c r="M18" s="33"/>
       <c r="N18" s="7">
         <f>EXTRA_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O18" s="34"/>
+      <c r="O18" s="33"/>
       <c r="P18" s="7">
         <f>F17</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="34"/>
+      <c r="Q18" s="33"/>
       <c r="R18" s="7">
         <f>H17</f>
         <v>0</v>
       </c>
-      <c r="S18" s="34"/>
+      <c r="S18" s="33"/>
       <c r="T18" s="7">
         <v>597.91999999999996</v>
       </c>
-      <c r="U18" s="49"/>
+      <c r="U18" s="43"/>
     </row>
     <row r="19" spans="2:21" ht="15.5">
       <c r="B19" s="9"/>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="34" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="34">
+      <c r="E19" s="33">
         <f>D19-D20</f>
         <v>0</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="34">
+      <c r="G19" s="33">
         <f t="shared" ref="G19" si="16">F19-F20+E19</f>
         <v>0</v>
       </c>
       <c r="H19" s="6">
         <v>900</v>
       </c>
-      <c r="I19" s="34">
+      <c r="I19" s="33">
         <f t="shared" ref="I19" si="17">H19-H20+G19</f>
         <v>100</v>
       </c>
@@ -2041,7 +2041,7 @@
         <f>FONCT_Clôtures!$B$5</f>
         <v>3472.44</v>
       </c>
-      <c r="K19" s="34">
+      <c r="K19" s="33">
         <f t="shared" ref="K19" si="18">J19-J20+I19</f>
         <v>3045.07</v>
       </c>
@@ -2049,7 +2049,7 @@
         <f>FONCT_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M19" s="34">
+      <c r="M19" s="33">
         <f>L19-L20+K19</f>
         <v>3045.07</v>
       </c>
@@ -2057,88 +2057,88 @@
         <f>FONCT_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O19" s="34">
+      <c r="O19" s="33">
         <f>N19-N20+M19</f>
         <v>3045.07</v>
       </c>
       <c r="P19" s="6"/>
-      <c r="Q19" s="34">
+      <c r="Q19" s="33">
         <f>P19-P20+O19</f>
         <v>3045.07</v>
       </c>
       <c r="R19" s="6"/>
-      <c r="S19" s="34">
+      <c r="S19" s="33">
         <f t="shared" ref="S19" si="19">R19-R20+Q19</f>
         <v>2145.0700000000002</v>
       </c>
       <c r="T19" s="6">
         <v>1055.74</v>
       </c>
-      <c r="U19" s="49">
+      <c r="U19" s="43">
         <f t="shared" ref="U19" si="20">T19-T20+S19</f>
         <v>-4858.9699999999993</v>
       </c>
     </row>
     <row r="20" spans="2:21" ht="15.5">
       <c r="B20" s="9"/>
-      <c r="C20" s="37"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="34"/>
+      <c r="E20" s="33"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="34"/>
+      <c r="G20" s="33"/>
       <c r="H20" s="7">
         <v>800</v>
       </c>
-      <c r="I20" s="34"/>
+      <c r="I20" s="33"/>
       <c r="J20" s="7">
         <f>FONCT_Clôtures!$B$12</f>
         <v>527.37</v>
       </c>
-      <c r="K20" s="34"/>
+      <c r="K20" s="33"/>
       <c r="L20" s="7">
         <f>FONCT_Clôtures!$C$12</f>
         <v>0</v>
       </c>
-      <c r="M20" s="34"/>
+      <c r="M20" s="33"/>
       <c r="N20" s="7">
         <f>FONCT_Clôtures!$D$12</f>
         <v>0</v>
       </c>
-      <c r="O20" s="34"/>
+      <c r="O20" s="33"/>
       <c r="P20" s="7">
         <f>F19</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="34"/>
+      <c r="Q20" s="33"/>
       <c r="R20" s="7">
         <f>H19</f>
         <v>900</v>
       </c>
-      <c r="S20" s="34"/>
+      <c r="S20" s="33"/>
       <c r="T20" s="7">
         <v>8059.78</v>
       </c>
-      <c r="U20" s="49"/>
+      <c r="U20" s="43"/>
     </row>
     <row r="21" spans="2:21" ht="15.5">
       <c r="B21" s="9"/>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="34" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="34">
+      <c r="E21" s="33">
         <f>D21-D22</f>
         <v>0</v>
       </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="34">
+      <c r="G21" s="33">
         <f t="shared" ref="G21" si="21">F21-F22+E21</f>
         <v>0</v>
       </c>
       <c r="H21" s="6">
         <v>0</v>
       </c>
-      <c r="I21" s="34">
+      <c r="I21" s="33">
         <f t="shared" ref="I21" si="22">H21-H22+G21</f>
         <v>0</v>
       </c>
@@ -2146,7 +2146,7 @@
         <f>CONVER_Clôtures!$B$3</f>
         <v>605.41999999999996</v>
       </c>
-      <c r="K21" s="34">
+      <c r="K21" s="33">
         <f t="shared" ref="K21" si="23">J21-J22+I21</f>
         <v>605.41999999999996</v>
       </c>
@@ -2154,7 +2154,7 @@
         <f>CONVER_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M21" s="34">
+      <c r="M21" s="33">
         <f>L21-L22+K21</f>
         <v>605.41999999999996</v>
       </c>
@@ -2162,88 +2162,88 @@
         <f>CONVER_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O21" s="34">
+      <c r="O21" s="33">
         <f>N21-N22+M21</f>
         <v>605.41999999999996</v>
       </c>
       <c r="P21" s="6"/>
-      <c r="Q21" s="34">
+      <c r="Q21" s="33">
         <f>P21-P22+O21</f>
         <v>605.41999999999996</v>
       </c>
       <c r="R21" s="6"/>
-      <c r="S21" s="34">
+      <c r="S21" s="33">
         <f t="shared" ref="S21" si="24">R21-R22+Q21</f>
         <v>605.41999999999996</v>
       </c>
       <c r="T21" s="6">
         <v>2405.42</v>
       </c>
-      <c r="U21" s="49">
+      <c r="U21" s="43">
         <f t="shared" ref="U21" si="25">T21-T22+S21</f>
         <v>10.840000000000032</v>
       </c>
     </row>
     <row r="22" spans="2:21" ht="15.5">
       <c r="B22" s="9"/>
-      <c r="C22" s="37"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="34"/>
+      <c r="E22" s="33"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="34"/>
+      <c r="G22" s="33"/>
       <c r="H22" s="7">
         <v>0</v>
       </c>
-      <c r="I22" s="34"/>
+      <c r="I22" s="33"/>
       <c r="J22" s="7">
         <f>CONVER_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K22" s="34"/>
+      <c r="K22" s="33"/>
       <c r="L22" s="7">
         <f>CONVER_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M22" s="34"/>
+      <c r="M22" s="33"/>
       <c r="N22" s="7">
         <f>CONVER_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O22" s="34"/>
+      <c r="O22" s="33"/>
       <c r="P22" s="7">
         <f>F21</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="34"/>
+      <c r="Q22" s="33"/>
       <c r="R22" s="7">
         <f>H21</f>
         <v>0</v>
       </c>
-      <c r="S22" s="34"/>
+      <c r="S22" s="33"/>
       <c r="T22" s="7">
         <v>3000</v>
       </c>
-      <c r="U22" s="49"/>
+      <c r="U22" s="43"/>
     </row>
     <row r="23" spans="2:21" ht="15.5">
       <c r="B23" s="9"/>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="34" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="6"/>
-      <c r="E23" s="34">
+      <c r="E23" s="33">
         <f>D23-D24</f>
         <v>0</v>
       </c>
       <c r="F23" s="6"/>
-      <c r="G23" s="34">
+      <c r="G23" s="33">
         <f t="shared" ref="G23" si="26">F23-F24+E23</f>
         <v>0</v>
       </c>
       <c r="H23" s="6">
         <v>0</v>
       </c>
-      <c r="I23" s="34">
+      <c r="I23" s="33">
         <f t="shared" ref="I23" si="27">H23-H24+G23</f>
         <v>-100</v>
       </c>
@@ -2251,7 +2251,7 @@
         <f>LOCAL_Clôtures!$B$3</f>
         <v>255.62</v>
       </c>
-      <c r="K23" s="34">
+      <c r="K23" s="33">
         <f t="shared" ref="K23" si="28">J23-J24+I23</f>
         <v>-96.080000000000013</v>
       </c>
@@ -2259,7 +2259,7 @@
         <f>LOCAL_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M23" s="34">
+      <c r="M23" s="33">
         <f>L23-L24+K23</f>
         <v>-96.080000000000013</v>
       </c>
@@ -2267,86 +2267,86 @@
         <f>LOCAL_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O23" s="34">
+      <c r="O23" s="33">
         <f>N23-N24+M23</f>
         <v>-96.080000000000013</v>
       </c>
       <c r="P23" s="6"/>
-      <c r="Q23" s="34">
+      <c r="Q23" s="33">
         <f>P23-P24+O23</f>
         <v>-96.080000000000013</v>
       </c>
       <c r="R23" s="6"/>
-      <c r="S23" s="34">
+      <c r="S23" s="33">
         <f t="shared" ref="S23" si="29">R23-R24+Q23</f>
         <v>-96.080000000000013</v>
       </c>
       <c r="T23" s="6">
         <v>654.46</v>
       </c>
-      <c r="U23" s="49">
+      <c r="U23" s="43">
         <f t="shared" ref="U23" si="30">T23-T24+S23</f>
         <v>558.38</v>
       </c>
     </row>
     <row r="24" spans="2:21" ht="15.5">
       <c r="B24" s="9"/>
-      <c r="C24" s="37"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="34"/>
+      <c r="E24" s="33"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="34"/>
+      <c r="G24" s="33"/>
       <c r="H24" s="7">
         <v>100</v>
       </c>
-      <c r="I24" s="34"/>
+      <c r="I24" s="33"/>
       <c r="J24" s="7">
         <f>LOCAL_Clôtures!$B$8</f>
         <v>251.70000000000002</v>
       </c>
-      <c r="K24" s="34"/>
+      <c r="K24" s="33"/>
       <c r="L24" s="7">
         <f>LOCAL_Clôtures!$C$8</f>
         <v>0</v>
       </c>
-      <c r="M24" s="34"/>
+      <c r="M24" s="33"/>
       <c r="N24" s="7">
         <f>LOCAL_Clôtures!$D$8</f>
         <v>0</v>
       </c>
-      <c r="O24" s="34"/>
+      <c r="O24" s="33"/>
       <c r="P24" s="7">
         <f>F23</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="34"/>
+      <c r="Q24" s="33"/>
       <c r="R24" s="7">
         <f>H23</f>
         <v>0</v>
       </c>
-      <c r="S24" s="34"/>
+      <c r="S24" s="33"/>
       <c r="T24" s="7"/>
-      <c r="U24" s="49"/>
+      <c r="U24" s="43"/>
     </row>
     <row r="25" spans="2:21" ht="15.5">
       <c r="B25" s="9"/>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="6"/>
-      <c r="E25" s="34">
+      <c r="E25" s="33">
         <f>D25-D26</f>
         <v>0</v>
       </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="34">
+      <c r="G25" s="33">
         <f t="shared" ref="G25" si="31">F25-F26+E25</f>
         <v>0</v>
       </c>
       <c r="H25" s="6">
         <v>0</v>
       </c>
-      <c r="I25" s="34">
+      <c r="I25" s="33">
         <f t="shared" ref="I25" si="32">H25-H26+G25</f>
         <v>-250</v>
       </c>
@@ -2354,7 +2354,7 @@
         <f>LOG_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K25" s="34">
+      <c r="K25" s="33">
         <f t="shared" ref="K25" si="33">J25-J26+I25</f>
         <v>-355.32</v>
       </c>
@@ -2362,7 +2362,7 @@
         <f>LOG_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M25" s="34">
+      <c r="M25" s="33">
         <f>L25-L26+K25</f>
         <v>-355.32</v>
       </c>
@@ -2370,86 +2370,86 @@
         <f>LOG_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O25" s="34">
+      <c r="O25" s="33">
         <f>N25-N26+M25</f>
         <v>-355.32</v>
       </c>
       <c r="P25" s="6"/>
-      <c r="Q25" s="34">
+      <c r="Q25" s="33">
         <f>P25-P26+O25</f>
         <v>-355.32</v>
       </c>
       <c r="R25" s="6"/>
-      <c r="S25" s="34">
+      <c r="S25" s="33">
         <f t="shared" ref="S25" si="34">R25-R26+Q25</f>
         <v>-355.32</v>
       </c>
       <c r="T25" s="6">
         <v>354.95</v>
       </c>
-      <c r="U25" s="49">
+      <c r="U25" s="43">
         <f t="shared" ref="U25" si="35">T25-T26+S25</f>
         <v>-0.37000000000000455</v>
       </c>
     </row>
     <row r="26" spans="2:21" ht="15.5">
       <c r="B26" s="9"/>
-      <c r="C26" s="37"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="34"/>
+      <c r="E26" s="33"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="34"/>
+      <c r="G26" s="33"/>
       <c r="H26" s="7">
         <v>250</v>
       </c>
-      <c r="I26" s="34"/>
+      <c r="I26" s="33"/>
       <c r="J26" s="7">
         <f>LOG_Clôtures!$B$5</f>
         <v>105.32</v>
       </c>
-      <c r="K26" s="34"/>
+      <c r="K26" s="33"/>
       <c r="L26" s="7">
         <f>LOG_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M26" s="34"/>
+      <c r="M26" s="33"/>
       <c r="N26" s="7">
         <f>LOG_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O26" s="34"/>
+      <c r="O26" s="33"/>
       <c r="P26" s="7">
         <f>F25</f>
         <v>0</v>
       </c>
-      <c r="Q26" s="34"/>
+      <c r="Q26" s="33"/>
       <c r="R26" s="7">
         <f>H25</f>
         <v>0</v>
       </c>
-      <c r="S26" s="34"/>
+      <c r="S26" s="33"/>
       <c r="T26" s="7"/>
-      <c r="U26" s="49"/>
+      <c r="U26" s="43"/>
     </row>
     <row r="27" spans="2:21" ht="15.5">
       <c r="B27" s="9"/>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="34" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="6"/>
-      <c r="E27" s="34">
+      <c r="E27" s="33">
         <f>D27-D28</f>
         <v>0</v>
       </c>
       <c r="F27" s="6"/>
-      <c r="G27" s="34">
+      <c r="G27" s="33">
         <f>F27-F28+E27</f>
         <v>0</v>
       </c>
       <c r="H27" s="6">
         <v>0</v>
       </c>
-      <c r="I27" s="34">
+      <c r="I27" s="33">
         <f>H27-H28+G27</f>
         <v>0</v>
       </c>
@@ -2457,7 +2457,7 @@
         <f>MOBILITY_Clôtures!$B$3</f>
         <v>564.83000000000004</v>
       </c>
-      <c r="K27" s="34">
+      <c r="K27" s="33">
         <f>J27-J28+I27</f>
         <v>0</v>
       </c>
@@ -2465,7 +2465,7 @@
         <f>MOBILITY_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M27" s="34">
+      <c r="M27" s="33">
         <f>L27-L28+K27</f>
         <v>0</v>
       </c>
@@ -2473,85 +2473,85 @@
         <f>MOBILITY_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O27" s="34">
+      <c r="O27" s="33">
         <f>N27-N28+M27</f>
         <v>0</v>
       </c>
       <c r="P27" s="6"/>
-      <c r="Q27" s="34">
+      <c r="Q27" s="33">
         <f>P27-P28+O27</f>
         <v>0</v>
       </c>
       <c r="R27" s="6"/>
-      <c r="S27" s="34">
+      <c r="S27" s="33">
         <f>R27-R28+Q27</f>
         <v>0</v>
       </c>
       <c r="T27" s="6">
         <v>1887.3</v>
       </c>
-      <c r="U27" s="49">
+      <c r="U27" s="43">
         <f>T27-T28+S27</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:21" ht="15.5">
       <c r="B28" s="9"/>
-      <c r="C28" s="37"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="34"/>
+      <c r="E28" s="33"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="34"/>
+      <c r="G28" s="33"/>
       <c r="H28" s="7">
         <v>0</v>
       </c>
-      <c r="I28" s="34"/>
+      <c r="I28" s="33"/>
       <c r="J28" s="7">
         <f>MOBILITY_Clôtures!$B$5</f>
         <v>564.83000000000004</v>
       </c>
-      <c r="K28" s="34"/>
+      <c r="K28" s="33"/>
       <c r="L28" s="7">
         <f>MOBILITY_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M28" s="34"/>
+      <c r="M28" s="33"/>
       <c r="N28" s="7">
         <f>MOBILITY_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O28" s="34"/>
+      <c r="O28" s="33"/>
       <c r="P28" s="7">
         <f>F27</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="34"/>
+      <c r="Q28" s="33"/>
       <c r="R28" s="7">
         <f>H27</f>
         <v>0</v>
       </c>
-      <c r="S28" s="34"/>
+      <c r="S28" s="33"/>
       <c r="T28" s="7">
         <v>1887.3</v>
       </c>
-      <c r="U28" s="49"/>
+      <c r="U28" s="43"/>
     </row>
     <row r="29" spans="2:21" ht="15.5">
       <c r="B29" s="9"/>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="34" t="s">
         <v>90</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="32"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="34">
+      <c r="G29" s="33">
         <f>F29-F30+E29</f>
         <v>0</v>
       </c>
       <c r="H29" s="6">
         <v>0</v>
       </c>
-      <c r="I29" s="34">
+      <c r="I29" s="33">
         <f>H29-H30+G29</f>
         <v>0</v>
       </c>
@@ -2559,7 +2559,7 @@
         <f>REPRO_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K29" s="34">
+      <c r="K29" s="33">
         <f>J29-J30+I29</f>
         <v>0</v>
       </c>
@@ -2567,7 +2567,7 @@
         <f>REPRO_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M29" s="34">
+      <c r="M29" s="33">
         <f>L29-L30+K29</f>
         <v>0</v>
       </c>
@@ -2575,69 +2575,69 @@
         <f>REPRO_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O29" s="34">
+      <c r="O29" s="33">
         <f>N29-N30+M29</f>
         <v>0</v>
       </c>
       <c r="P29" s="7"/>
-      <c r="Q29" s="34">
+      <c r="Q29" s="33">
         <f>P29-P30+O29</f>
         <v>0</v>
       </c>
       <c r="R29" s="7"/>
-      <c r="S29" s="34">
+      <c r="S29" s="33">
         <f>R29-R30+Q29</f>
         <v>0</v>
       </c>
       <c r="T29" s="7"/>
-      <c r="U29" s="49">
+      <c r="U29" s="43">
         <f>T29-T30+S29</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:21" ht="15.5">
       <c r="B30" s="9"/>
-      <c r="C30" s="59"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="7"/>
       <c r="E30" s="32"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="34"/>
+      <c r="G30" s="33"/>
       <c r="H30" s="7">
         <v>0</v>
       </c>
-      <c r="I30" s="34"/>
+      <c r="I30" s="33"/>
       <c r="J30" s="7">
         <f>REPRO_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K30" s="34"/>
+      <c r="K30" s="33"/>
       <c r="L30" s="7">
         <f>REPRO_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M30" s="34"/>
+      <c r="M30" s="33"/>
       <c r="N30" s="7">
         <f>REPRO_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O30" s="34"/>
+      <c r="O30" s="33"/>
       <c r="P30" s="27"/>
-      <c r="Q30" s="34"/>
+      <c r="Q30" s="33"/>
       <c r="R30" s="27"/>
-      <c r="S30" s="34"/>
+      <c r="S30" s="33"/>
       <c r="T30" s="7"/>
-      <c r="U30" s="49"/>
+      <c r="U30" s="43"/>
     </row>
     <row r="31" spans="2:21" ht="15.5">
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="39"/>
+      <c r="C31" s="57"/>
       <c r="D31" s="8">
         <f>D33+D35+D37+D41+D43+D45+D47+D49+D51+D53+D55+D57+D59+D61+D65</f>
         <v>3136.0899999999997</v>
       </c>
-      <c r="E31" s="33">
+      <c r="E31" s="44">
         <f>D31-D32</f>
         <v>-1901.2299999999991</v>
       </c>
@@ -2645,7 +2645,7 @@
         <f>F33+F35+F37+F39+F41+F43+F45+F47+F49+F51+F53+F55+F57+F59+F61+F65</f>
         <v>4406.34</v>
       </c>
-      <c r="G31" s="33">
+      <c r="G31" s="44">
         <f>F31-F32</f>
         <v>4406.34</v>
       </c>
@@ -2653,7 +2653,7 @@
         <f>H33+H35+H37+H39+H41+H43+H45+H47+H49+H51+H53+H55+H57+H59+H61+H63+H65</f>
         <v>28280</v>
       </c>
-      <c r="I31" s="33">
+      <c r="I31" s="44">
         <f>H31-H32+G31</f>
         <v>-8171.66</v>
       </c>
@@ -2661,7 +2661,7 @@
         <f>J33+J35+J37+J39+J41+J43+J45+J47+J49+J51+J53+J55+J57+J59+J61+J63+J65</f>
         <v>9661.83</v>
       </c>
-      <c r="K31" s="33">
+      <c r="K31" s="44">
         <f>J31-J32+I31</f>
         <v>-2211.6800000000003</v>
       </c>
@@ -2669,7 +2669,7 @@
         <f>L33+L35+L37+L39+L41+L43+L45+L47+L49+L51+L53+L55+L57+L59+L61+L63+L65</f>
         <v>0</v>
       </c>
-      <c r="M31" s="33">
+      <c r="M31" s="44">
         <f>L31-L32+K31</f>
         <v>-2211.6800000000003</v>
       </c>
@@ -2677,7 +2677,7 @@
         <f>N33+N35+N37+N39+N41+N43+N45+N47+N49+N51+N53+N55+N57+N59+N61+N63+N65</f>
         <v>0</v>
       </c>
-      <c r="O31" s="33">
+      <c r="O31" s="44">
         <f>N31-N32+M31</f>
         <v>-2211.6800000000003</v>
       </c>
@@ -2685,7 +2685,7 @@
         <f>P33+P35+P37+P39+P41+P43+P45+P47+P49+P51+P53+P55+P57+P59+P61+P63+P65</f>
         <v>0</v>
       </c>
-      <c r="Q31" s="34">
+      <c r="Q31" s="33">
         <f>P31-P32+O31</f>
         <v>-6618.02</v>
       </c>
@@ -2693,7 +2693,7 @@
         <f>R33+R35+R37+R39+R41+R43+R45+R47+R49+R51+R53+R55+R57+R59+R61+R63+R65</f>
         <v>0</v>
       </c>
-      <c r="S31" s="34">
+      <c r="S31" s="33">
         <f>R31-R32+Q31</f>
         <v>-34898.020000000004</v>
       </c>
@@ -2701,83 +2701,83 @@
         <f>T33+T35+T37+T39+T41+T43+T45+T47+T49+T51+T53+T55+T57+T59+T61+T63+T65</f>
         <v>20889.509999999998</v>
       </c>
-      <c r="U31" s="33">
+      <c r="U31" s="44">
         <f>T31-T32+S31</f>
         <v>-29085.700000000004</v>
       </c>
     </row>
     <row r="32" spans="2:21" ht="15.5">
-      <c r="B32" s="40"/>
-      <c r="C32" s="41"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="59"/>
       <c r="D32" s="7">
         <f>D34+D36+D38+D40+D42+D44+D46+D48+D50+D52+D54+D56+D58+D60+D62+D66</f>
         <v>5037.3199999999988</v>
       </c>
-      <c r="E32" s="34"/>
+      <c r="E32" s="33"/>
       <c r="F32" s="7">
         <f>F34+F36+F38+F40+F42+F44+F46+F48+F50+F52+F54+F56+F58+F60+F62+F66</f>
         <v>0</v>
       </c>
-      <c r="G32" s="34"/>
+      <c r="G32" s="33"/>
       <c r="H32" s="7">
         <f>H34+H36+H38+H40+H42+H44+H46+H48+H50+H52+H54+H56+H58+H60+H62+H64+H66</f>
         <v>40858</v>
       </c>
-      <c r="I32" s="34"/>
+      <c r="I32" s="33"/>
       <c r="J32" s="7">
         <f>J34+J36+J38+J40+J42+J44+J46+J48+J50+J52+J54+J56+J58+J60+J62+J64+J66</f>
         <v>3701.85</v>
       </c>
-      <c r="K32" s="34"/>
+      <c r="K32" s="33"/>
       <c r="L32" s="7">
         <f>L34+L36+L38+L40+L42+L44+L46+L48+L50+L52+L54+L56+L58+L60+L62+L64+L66</f>
         <v>0</v>
       </c>
-      <c r="M32" s="34"/>
+      <c r="M32" s="33"/>
       <c r="N32" s="7">
         <f>N34+N36+N38+N40+N42+N44+N46+N48+N50+N52+N54+N56+N58+N60+N62+N64+N66</f>
         <v>0</v>
       </c>
-      <c r="O32" s="34"/>
+      <c r="O32" s="33"/>
       <c r="P32" s="7">
         <f>P34+P36+P38+P40+P42+P44+P46+P48+P50+P52+P54+P56+P58+P60+P62+P64+P66</f>
         <v>4406.34</v>
       </c>
-      <c r="Q32" s="34"/>
+      <c r="Q32" s="33"/>
       <c r="R32" s="7">
         <f>R34+R36+R38+R40+R42+R44+R46+R48+R50+R52+R54+R56+R58+R60+R62+R64+R66</f>
         <v>28280</v>
       </c>
-      <c r="S32" s="34"/>
+      <c r="S32" s="33"/>
       <c r="T32" s="7">
         <f>T34+T36+T38+T40+T42+T44+T46+T48+T50+T52+T54+T56+T58+T60+T62+T64+T66</f>
         <v>15077.19</v>
       </c>
-      <c r="U32" s="34"/>
+      <c r="U32" s="33"/>
     </row>
     <row r="33" spans="2:21" ht="15.5">
       <c r="B33" s="9"/>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="34" t="s">
         <v>19</v>
       </c>
       <c r="D33" s="6">
         <v>0</v>
       </c>
-      <c r="E33" s="34">
+      <c r="E33" s="33">
         <f>D33-D34</f>
         <v>-917.79</v>
       </c>
       <c r="F33" s="6">
         <v>0</v>
       </c>
-      <c r="G33" s="34">
+      <c r="G33" s="33">
         <f t="shared" ref="G33" si="36">F33-F34+E33</f>
         <v>-917.79</v>
       </c>
       <c r="H33" s="6">
         <v>150</v>
       </c>
-      <c r="I33" s="34">
+      <c r="I33" s="33">
         <f t="shared" ref="I33" si="37">H33-H34+G33</f>
         <v>-1117.79</v>
       </c>
@@ -2785,7 +2785,7 @@
         <f>API_Clôtures!$B$3</f>
         <v>119</v>
       </c>
-      <c r="K33" s="34">
+      <c r="K33" s="33">
         <f t="shared" ref="K33" si="38">J33-J34+I33</f>
         <v>-998.79</v>
       </c>
@@ -2793,7 +2793,7 @@
         <f>API_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M33" s="34">
+      <c r="M33" s="33">
         <f t="shared" ref="M33" si="39">L33-L34+K33</f>
         <v>-998.79</v>
       </c>
@@ -2801,94 +2801,94 @@
         <f>API_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O33" s="34">
+      <c r="O33" s="33">
         <f t="shared" ref="O33" si="40">N33-N34+M33</f>
         <v>-998.79</v>
       </c>
       <c r="P33" s="6"/>
-      <c r="Q33" s="34">
+      <c r="Q33" s="33">
         <f>P33-P34+O33</f>
         <v>-998.79</v>
       </c>
       <c r="R33" s="6"/>
-      <c r="S33" s="34">
+      <c r="S33" s="33">
         <f t="shared" ref="S33" si="41">R33-R34+Q33</f>
         <v>-1148.79</v>
       </c>
       <c r="T33" s="6">
         <v>917.79</v>
       </c>
-      <c r="U33" s="34">
+      <c r="U33" s="33">
         <f t="shared" ref="U33" si="42">T33-T34+S33</f>
         <v>-231</v>
       </c>
     </row>
     <row r="34" spans="2:21" ht="15.5">
       <c r="B34" s="9"/>
-      <c r="C34" s="37"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="7">
         <v>917.79</v>
       </c>
-      <c r="E34" s="34"/>
+      <c r="E34" s="33"/>
       <c r="F34" s="7">
         <v>0</v>
       </c>
-      <c r="G34" s="34"/>
+      <c r="G34" s="33"/>
       <c r="H34" s="7">
         <v>350</v>
       </c>
-      <c r="I34" s="34"/>
+      <c r="I34" s="33"/>
       <c r="J34" s="7">
         <f>API_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K34" s="34"/>
+      <c r="K34" s="33"/>
       <c r="L34" s="7">
         <f>API_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M34" s="34"/>
+      <c r="M34" s="33"/>
       <c r="N34" s="7">
         <f>API_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O34" s="34"/>
+      <c r="O34" s="33"/>
       <c r="P34" s="7">
         <f>F33</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="34"/>
+      <c r="Q34" s="33"/>
       <c r="R34" s="7">
         <f>H33</f>
         <v>150</v>
       </c>
-      <c r="S34" s="34"/>
+      <c r="S34" s="33"/>
       <c r="T34" s="7"/>
-      <c r="U34" s="34"/>
+      <c r="U34" s="33"/>
     </row>
     <row r="35" spans="2:21" ht="15.5">
       <c r="B35" s="9"/>
-      <c r="C35" s="37" t="s">
+      <c r="C35" s="34" t="s">
         <v>20</v>
       </c>
       <c r="D35" s="6">
         <v>641.85</v>
       </c>
-      <c r="E35" s="34">
+      <c r="E35" s="33">
         <f>D35-D36</f>
         <v>-1821.35</v>
       </c>
       <c r="F35" s="6">
         <v>0</v>
       </c>
-      <c r="G35" s="34">
+      <c r="G35" s="33">
         <f t="shared" ref="G35" si="43">F35-F36+E35</f>
         <v>-1821.35</v>
       </c>
       <c r="H35" s="6">
         <v>2000</v>
       </c>
-      <c r="I35" s="34">
+      <c r="I35" s="33">
         <f t="shared" ref="I35" si="44">H35-H36+G35</f>
         <v>-1921.35</v>
       </c>
@@ -2896,7 +2896,7 @@
         <f>CANARD_Clôtures!$B$4</f>
         <v>14.93</v>
       </c>
-      <c r="K35" s="34">
+      <c r="K35" s="33">
         <f t="shared" ref="K35" si="45">J35-J36+I35</f>
         <v>-1931.4699999999998</v>
       </c>
@@ -2904,7 +2904,7 @@
         <f>CANARD_Clôtures!$C$4</f>
         <v>0</v>
       </c>
-      <c r="M35" s="34">
+      <c r="M35" s="33">
         <f t="shared" ref="M35" si="46">L35-L36+K35</f>
         <v>-1931.4699999999998</v>
       </c>
@@ -2912,96 +2912,96 @@
         <f>CANARD_Clôtures!$D$4</f>
         <v>0</v>
       </c>
-      <c r="O35" s="34">
+      <c r="O35" s="33">
         <f t="shared" ref="O35" si="47">N35-N36+M35</f>
         <v>-1931.4699999999998</v>
       </c>
       <c r="P35" s="6"/>
-      <c r="Q35" s="34">
+      <c r="Q35" s="33">
         <f>P35-P36+O35</f>
         <v>-1931.4699999999998</v>
       </c>
       <c r="R35" s="6"/>
-      <c r="S35" s="34">
+      <c r="S35" s="33">
         <f t="shared" ref="S35" si="48">R35-R36+Q35</f>
         <v>-3931.47</v>
       </c>
       <c r="T35" s="6">
         <v>2463.1999999999998</v>
       </c>
-      <c r="U35" s="34">
+      <c r="U35" s="33">
         <f t="shared" ref="U35" si="49">T35-T36+S35</f>
         <v>-2110.12</v>
       </c>
     </row>
     <row r="36" spans="2:21" ht="15.5">
       <c r="B36" s="9"/>
-      <c r="C36" s="37"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="7">
         <v>2463.1999999999998</v>
       </c>
-      <c r="E36" s="34"/>
+      <c r="E36" s="33"/>
       <c r="F36" s="7">
         <v>0</v>
       </c>
-      <c r="G36" s="34"/>
+      <c r="G36" s="33"/>
       <c r="H36" s="7">
         <v>2100</v>
       </c>
-      <c r="I36" s="34"/>
+      <c r="I36" s="33"/>
       <c r="J36" s="7">
         <f>CANARD_Clôtures!$B$6</f>
         <v>25.05</v>
       </c>
-      <c r="K36" s="34"/>
+      <c r="K36" s="33"/>
       <c r="L36" s="7">
         <f>CANARD_Clôtures!$C$6</f>
         <v>0</v>
       </c>
-      <c r="M36" s="34"/>
+      <c r="M36" s="33"/>
       <c r="N36" s="7">
         <f>CANARD_Clôtures!$D$6</f>
         <v>0</v>
       </c>
-      <c r="O36" s="34"/>
+      <c r="O36" s="33"/>
       <c r="P36" s="7">
         <f>F35</f>
         <v>0</v>
       </c>
-      <c r="Q36" s="34"/>
+      <c r="Q36" s="33"/>
       <c r="R36" s="7">
         <f>H35</f>
         <v>2000</v>
       </c>
-      <c r="S36" s="34"/>
+      <c r="S36" s="33"/>
       <c r="T36" s="7">
         <v>641.85</v>
       </c>
-      <c r="U36" s="34"/>
+      <c r="U36" s="33"/>
     </row>
     <row r="37" spans="2:21" ht="15.5">
       <c r="B37" s="9"/>
-      <c r="C37" s="37" t="s">
+      <c r="C37" s="34" t="s">
         <v>21</v>
       </c>
       <c r="D37" s="6">
         <v>2379.29</v>
       </c>
-      <c r="E37" s="34">
+      <c r="E37" s="33">
         <f>D37-D38</f>
         <v>933.56</v>
       </c>
       <c r="F37" s="6">
         <v>4406.34</v>
       </c>
-      <c r="G37" s="34">
+      <c r="G37" s="33">
         <f t="shared" ref="G37" si="50">F37-F38+E37</f>
         <v>5339.9</v>
       </c>
       <c r="H37" s="6">
         <v>1600</v>
       </c>
-      <c r="I37" s="34">
+      <c r="I37" s="33">
         <f t="shared" ref="I37" si="51">H37-H38+G37</f>
         <v>4969.8999999999996</v>
       </c>
@@ -3009,7 +3009,7 @@
         <f>CASTOR_Clôtures!$B$3</f>
         <v>597.19000000000005</v>
       </c>
-      <c r="K37" s="34">
+      <c r="K37" s="33">
         <f t="shared" ref="K37" si="52">J37-J38+I37</f>
         <v>4777.0999999999995</v>
       </c>
@@ -3017,7 +3017,7 @@
         <f>CASTOR_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M37" s="34">
+      <c r="M37" s="33">
         <f t="shared" ref="M37" si="53">L37-L38+K37</f>
         <v>4777.0999999999995</v>
       </c>
@@ -3025,96 +3025,96 @@
         <f>CASTOR_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O37" s="34">
+      <c r="O37" s="33">
         <f t="shared" ref="O37" si="54">N37-N38+M37</f>
         <v>4777.0999999999995</v>
       </c>
       <c r="P37" s="6"/>
-      <c r="Q37" s="34">
+      <c r="Q37" s="33">
         <f>P37-P38+O37</f>
         <v>370.75999999999931</v>
       </c>
       <c r="R37" s="6"/>
-      <c r="S37" s="34">
+      <c r="S37" s="33">
         <f t="shared" ref="S37" si="55">R37-R38+Q37</f>
         <v>-1229.2400000000007</v>
       </c>
       <c r="T37" s="6">
         <v>1445.73</v>
       </c>
-      <c r="U37" s="54">
+      <c r="U37" s="46">
         <f t="shared" ref="U37" si="56">T37-T38+S37</f>
         <v>-2162.8000000000006</v>
       </c>
     </row>
     <row r="38" spans="2:21" ht="15.5">
       <c r="B38" s="9"/>
-      <c r="C38" s="37"/>
+      <c r="C38" s="34"/>
       <c r="D38" s="7">
         <v>1445.73</v>
       </c>
-      <c r="E38" s="34"/>
+      <c r="E38" s="33"/>
       <c r="F38" s="7">
         <v>0</v>
       </c>
-      <c r="G38" s="34"/>
+      <c r="G38" s="33"/>
       <c r="H38" s="7">
         <v>1970</v>
       </c>
-      <c r="I38" s="34"/>
+      <c r="I38" s="33"/>
       <c r="J38" s="7">
         <f>CASTOR_Clôtures!$B$5</f>
         <v>789.99</v>
       </c>
-      <c r="K38" s="34"/>
+      <c r="K38" s="33"/>
       <c r="L38" s="7">
         <f>CASTOR_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M38" s="34"/>
+      <c r="M38" s="33"/>
       <c r="N38" s="7">
         <f>CASTOR_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O38" s="34"/>
+      <c r="O38" s="33"/>
       <c r="P38" s="7">
         <f>F37</f>
         <v>4406.34</v>
       </c>
-      <c r="Q38" s="34"/>
+      <c r="Q38" s="33"/>
       <c r="R38" s="7">
         <f>H37</f>
         <v>1600</v>
       </c>
-      <c r="S38" s="34"/>
+      <c r="S38" s="33"/>
       <c r="T38" s="7">
         <v>2379.29</v>
       </c>
-      <c r="U38" s="54"/>
+      <c r="U38" s="46"/>
     </row>
     <row r="39" spans="2:21" ht="15.5">
       <c r="B39" s="9"/>
-      <c r="C39" s="37" t="s">
+      <c r="C39" s="34" t="s">
         <v>31</v>
       </c>
       <c r="D39" s="6">
         <v>0</v>
       </c>
-      <c r="E39" s="34">
+      <c r="E39" s="33">
         <f>D39-D40</f>
         <v>-128.69999999999999</v>
       </c>
       <c r="F39" s="6">
         <v>0</v>
       </c>
-      <c r="G39" s="34">
+      <c r="G39" s="33">
         <f t="shared" ref="G39" si="57">F39-F40+E39</f>
         <v>-128.69999999999999</v>
       </c>
       <c r="H39" s="6">
         <v>0</v>
       </c>
-      <c r="I39" s="34">
+      <c r="I39" s="33">
         <f t="shared" ref="I39" si="58">H39-H40+G39</f>
         <v>-458.7</v>
       </c>
@@ -3122,7 +3122,7 @@
         <f>DEBOUC_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K39" s="34">
+      <c r="K39" s="33">
         <f t="shared" ref="K39" si="59">J39-J40+I39</f>
         <v>-485.03</v>
       </c>
@@ -3130,7 +3130,7 @@
         <f>DEBOUC_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M39" s="34">
+      <c r="M39" s="33">
         <f t="shared" ref="M39" si="60">L39-L40+K39</f>
         <v>-485.03</v>
       </c>
@@ -3138,92 +3138,92 @@
         <f>DEBOUC_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O39" s="34">
+      <c r="O39" s="33">
         <f t="shared" ref="O39" si="61">N39-N40+M39</f>
         <v>-485.03</v>
       </c>
       <c r="P39" s="6"/>
-      <c r="Q39" s="34">
+      <c r="Q39" s="33">
         <f>P39-P40+O39</f>
         <v>-485.03</v>
       </c>
       <c r="R39" s="6"/>
-      <c r="S39" s="34">
+      <c r="S39" s="33">
         <f t="shared" ref="S39" si="62">R39-R40+Q39</f>
         <v>-485.03</v>
       </c>
       <c r="T39" s="6">
         <v>128.69999999999999</v>
       </c>
-      <c r="U39" s="34">
+      <c r="U39" s="33">
         <f t="shared" ref="U39" si="63">T39-T40+S39</f>
         <v>-356.33</v>
       </c>
     </row>
     <row r="40" spans="2:21" ht="15.5">
       <c r="B40" s="9"/>
-      <c r="C40" s="37"/>
+      <c r="C40" s="34"/>
       <c r="D40" s="7">
         <v>128.69999999999999</v>
       </c>
-      <c r="E40" s="34"/>
+      <c r="E40" s="33"/>
       <c r="F40" s="7">
         <v>0</v>
       </c>
-      <c r="G40" s="34"/>
+      <c r="G40" s="33"/>
       <c r="H40" s="7">
         <v>330</v>
       </c>
-      <c r="I40" s="34"/>
+      <c r="I40" s="33"/>
       <c r="J40" s="7">
         <f>DEBOUC_Clôtures!$B$5</f>
         <v>26.33</v>
       </c>
-      <c r="K40" s="34"/>
+      <c r="K40" s="33"/>
       <c r="L40" s="7">
         <f>DEBOUC_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M40" s="34"/>
+      <c r="M40" s="33"/>
       <c r="N40" s="7">
         <f>DEBOUC_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O40" s="34"/>
+      <c r="O40" s="33"/>
       <c r="P40" s="7">
         <f>F39</f>
         <v>0</v>
       </c>
-      <c r="Q40" s="34"/>
+      <c r="Q40" s="33"/>
       <c r="R40" s="7">
         <f>H39</f>
         <v>0</v>
       </c>
-      <c r="S40" s="34"/>
+      <c r="S40" s="33"/>
       <c r="T40" s="7"/>
-      <c r="U40" s="34"/>
+      <c r="U40" s="33"/>
     </row>
     <row r="41" spans="2:21" ht="15.5">
       <c r="B41" s="9"/>
-      <c r="C41" s="37" t="s">
+      <c r="C41" s="34" t="s">
         <v>22</v>
       </c>
       <c r="D41" s="6">
         <v>114.95</v>
       </c>
-      <c r="E41" s="34">
+      <c r="E41" s="33">
         <f>D41-D42</f>
         <v>33.049999999999997</v>
       </c>
       <c r="F41" s="6"/>
-      <c r="G41" s="34">
+      <c r="G41" s="33">
         <f>F41-F42+E41</f>
         <v>33.049999999999997</v>
       </c>
       <c r="H41" s="6">
         <v>600</v>
       </c>
-      <c r="I41" s="34">
+      <c r="I41" s="33">
         <f t="shared" ref="I41" si="64">H41-H42+G41</f>
         <v>-966.95</v>
       </c>
@@ -3231,7 +3231,7 @@
         <f>EVA_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K41" s="34">
+      <c r="K41" s="33">
         <f t="shared" ref="K41" si="65">J41-J42+I41</f>
         <v>-1236</v>
       </c>
@@ -3239,7 +3239,7 @@
         <f>EVA_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M41" s="34">
+      <c r="M41" s="33">
         <f t="shared" ref="M41" si="66">L41-L42+K41</f>
         <v>-1236</v>
       </c>
@@ -3247,90 +3247,90 @@
         <f>EVA_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O41" s="34">
+      <c r="O41" s="33">
         <f t="shared" ref="O41" si="67">N41-N42+M41</f>
         <v>-1236</v>
       </c>
       <c r="P41" s="6"/>
-      <c r="Q41" s="34">
+      <c r="Q41" s="33">
         <f>P41-P42+O41</f>
         <v>-1236</v>
       </c>
       <c r="R41" s="6"/>
-      <c r="S41" s="34">
+      <c r="S41" s="33">
         <f t="shared" ref="S41" si="68">R41-R42+Q41</f>
         <v>-1836</v>
       </c>
       <c r="T41" s="6">
         <v>81.900000000000006</v>
       </c>
-      <c r="U41" s="34">
+      <c r="U41" s="33">
         <f t="shared" ref="U41" si="69">T41-T42+S41</f>
         <v>-1869.05</v>
       </c>
     </row>
     <row r="42" spans="2:21" ht="15.5">
       <c r="B42" s="9"/>
-      <c r="C42" s="37"/>
+      <c r="C42" s="34"/>
       <c r="D42" s="7">
         <v>81.900000000000006</v>
       </c>
-      <c r="E42" s="34"/>
+      <c r="E42" s="33"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="34"/>
+      <c r="G42" s="33"/>
       <c r="H42" s="7">
         <v>1600</v>
       </c>
-      <c r="I42" s="34"/>
+      <c r="I42" s="33"/>
       <c r="J42" s="7">
         <f>EVA_Clôtures!$B$5</f>
         <v>269.05</v>
       </c>
-      <c r="K42" s="34"/>
+      <c r="K42" s="33"/>
       <c r="L42" s="7">
         <f>EVA_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M42" s="34"/>
+      <c r="M42" s="33"/>
       <c r="N42" s="7">
         <f>EVA_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O42" s="34"/>
+      <c r="O42" s="33"/>
       <c r="P42" s="7">
         <f>F41</f>
         <v>0</v>
       </c>
-      <c r="Q42" s="34"/>
+      <c r="Q42" s="33"/>
       <c r="R42" s="7">
         <f>H41</f>
         <v>600</v>
       </c>
-      <c r="S42" s="34"/>
+      <c r="S42" s="33"/>
       <c r="T42" s="7">
         <v>114.95</v>
       </c>
-      <c r="U42" s="34"/>
+      <c r="U42" s="33"/>
     </row>
     <row r="43" spans="2:21" ht="15.5">
       <c r="B43" s="9"/>
-      <c r="C43" s="37" t="s">
+      <c r="C43" s="34" t="s">
         <v>23</v>
       </c>
       <c r="D43" s="6"/>
-      <c r="E43" s="34">
+      <c r="E43" s="33">
         <f>D43-D44</f>
         <v>0</v>
       </c>
       <c r="F43" s="6"/>
-      <c r="G43" s="34">
+      <c r="G43" s="33">
         <f>F43-F44+E43</f>
         <v>0</v>
       </c>
       <c r="H43" s="6">
         <v>0</v>
       </c>
-      <c r="I43" s="34">
+      <c r="I43" s="33">
         <f t="shared" ref="I43" si="70">H43-H44+G43</f>
         <v>-508</v>
       </c>
@@ -3338,7 +3338,7 @@
         <f>EPILIBRE_Clôtures!B2</f>
         <v>55.5</v>
       </c>
-      <c r="K43" s="34">
+      <c r="K43" s="33">
         <f t="shared" ref="K43" si="71">J43-J44+I43</f>
         <v>-711.85</v>
       </c>
@@ -3346,7 +3346,7 @@
         <f>EPILIBRE_Clôtures!C2</f>
         <v>0</v>
       </c>
-      <c r="M43" s="34">
+      <c r="M43" s="33">
         <f t="shared" ref="M43" si="72">L43-L44+K43</f>
         <v>-711.85</v>
       </c>
@@ -3354,86 +3354,86 @@
         <f>EPILIBRE_Clôtures!D2</f>
         <v>0</v>
       </c>
-      <c r="O43" s="34">
+      <c r="O43" s="33">
         <f t="shared" ref="O43" si="73">N43-N44+M43</f>
         <v>-711.85</v>
       </c>
       <c r="P43" s="6"/>
-      <c r="Q43" s="34">
+      <c r="Q43" s="33">
         <f>P43-P44+O43</f>
         <v>-711.85</v>
       </c>
       <c r="R43" s="6"/>
-      <c r="S43" s="34">
+      <c r="S43" s="33">
         <f t="shared" ref="S43" si="74">R43-R44+Q43</f>
         <v>-711.85</v>
       </c>
       <c r="T43" s="6">
         <v>351.1</v>
       </c>
-      <c r="U43" s="34">
+      <c r="U43" s="33">
         <f t="shared" ref="U43:U45" si="75">T43-T44+S43</f>
         <v>-538.5</v>
       </c>
     </row>
     <row r="44" spans="2:21" ht="15.5">
       <c r="B44" s="9"/>
-      <c r="C44" s="37"/>
+      <c r="C44" s="34"/>
       <c r="D44" s="7"/>
-      <c r="E44" s="34"/>
+      <c r="E44" s="33"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="34"/>
+      <c r="G44" s="33"/>
       <c r="H44" s="7">
         <v>508</v>
       </c>
-      <c r="I44" s="34"/>
+      <c r="I44" s="33"/>
       <c r="J44" s="7">
         <f>EPILIBRE_Clôtures!B5</f>
         <v>259.35000000000002</v>
       </c>
-      <c r="K44" s="34"/>
+      <c r="K44" s="33"/>
       <c r="L44" s="7">
         <f>EPILIBRE_Clôtures!C5</f>
         <v>0</v>
       </c>
-      <c r="M44" s="34"/>
+      <c r="M44" s="33"/>
       <c r="N44" s="7">
         <f>EPILIBRE_Clôtures!D5</f>
         <v>0</v>
       </c>
-      <c r="O44" s="34"/>
+      <c r="O44" s="33"/>
       <c r="P44" s="7">
         <f>F43</f>
         <v>0</v>
       </c>
-      <c r="Q44" s="34"/>
+      <c r="Q44" s="33"/>
       <c r="R44" s="7">
         <f>H43</f>
         <v>0</v>
       </c>
-      <c r="S44" s="34"/>
+      <c r="S44" s="33"/>
       <c r="T44" s="7">
         <v>177.75</v>
       </c>
-      <c r="U44" s="34"/>
+      <c r="U44" s="33"/>
     </row>
     <row r="45" spans="2:21" ht="15.5">
       <c r="B45" s="9"/>
-      <c r="C45" s="37"/>
+      <c r="C45" s="34"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="34">
+      <c r="E45" s="33">
         <f>D45-D46</f>
         <v>0</v>
       </c>
       <c r="F45" s="6"/>
-      <c r="G45" s="34">
+      <c r="G45" s="33">
         <f>F45-F46+E45</f>
         <v>0</v>
       </c>
       <c r="H45" s="6">
         <v>1200</v>
       </c>
-      <c r="I45" s="34">
+      <c r="I45" s="33">
         <f t="shared" ref="I45" si="76">H45-H46+G45</f>
         <v>-300</v>
       </c>
@@ -3441,7 +3441,7 @@
         <f>EPILIBRE_Clôtures!B3</f>
         <v>488.15</v>
       </c>
-      <c r="K45" s="34">
+      <c r="K45" s="33">
         <f t="shared" ref="K45" si="77">J45-J46+I45</f>
         <v>188.14999999999998</v>
       </c>
@@ -3449,7 +3449,7 @@
         <f>EPILIBRE_Clôtures!C3</f>
         <v>0</v>
       </c>
-      <c r="M45" s="34">
+      <c r="M45" s="33">
         <f t="shared" ref="M45" si="78">L45-L46+K45</f>
         <v>188.14999999999998</v>
       </c>
@@ -3457,88 +3457,88 @@
         <f>EPILIBRE_Clôtures!D3</f>
         <v>0</v>
       </c>
-      <c r="O45" s="34">
+      <c r="O45" s="33">
         <f t="shared" ref="O45" si="79">N45-N46+M45</f>
         <v>188.14999999999998</v>
       </c>
       <c r="P45" s="6"/>
-      <c r="Q45" s="34">
+      <c r="Q45" s="33">
         <f>P45-P46+O45</f>
         <v>188.14999999999998</v>
       </c>
       <c r="R45" s="6"/>
-      <c r="S45" s="34">
+      <c r="S45" s="33">
         <f t="shared" ref="S45" si="80">R45-R46+Q45</f>
         <v>-1011.85</v>
       </c>
       <c r="T45" s="6">
         <v>1588.28</v>
       </c>
-      <c r="U45" s="54">
+      <c r="U45" s="46">
         <f t="shared" si="75"/>
         <v>-1192.9000000000001</v>
       </c>
     </row>
     <row r="46" spans="2:21" ht="15.5">
       <c r="B46" s="9"/>
-      <c r="C46" s="37"/>
+      <c r="C46" s="34"/>
       <c r="D46" s="7"/>
-      <c r="E46" s="34"/>
+      <c r="E46" s="33"/>
       <c r="F46" s="7"/>
-      <c r="G46" s="34"/>
+      <c r="G46" s="33"/>
       <c r="H46" s="7">
         <v>1500</v>
       </c>
-      <c r="I46" s="34"/>
+      <c r="I46" s="33"/>
       <c r="J46" s="7">
         <f>EPILIBRE_Clôtures!B6</f>
         <v>0</v>
       </c>
-      <c r="K46" s="34"/>
+      <c r="K46" s="33"/>
       <c r="L46" s="7">
         <f>EPILIBRE_Clôtures!C6</f>
         <v>0</v>
       </c>
-      <c r="M46" s="34"/>
+      <c r="M46" s="33"/>
       <c r="N46" s="7">
         <f>EPILIBRE_Clôtures!D6</f>
         <v>0</v>
       </c>
-      <c r="O46" s="34"/>
+      <c r="O46" s="33"/>
       <c r="P46" s="7">
         <f>F45</f>
         <v>0</v>
       </c>
-      <c r="Q46" s="34"/>
+      <c r="Q46" s="33"/>
       <c r="R46" s="7">
         <f>H45</f>
         <v>1200</v>
       </c>
-      <c r="S46" s="34"/>
+      <c r="S46" s="33"/>
       <c r="T46" s="7">
         <v>1769.33</v>
       </c>
-      <c r="U46" s="54"/>
+      <c r="U46" s="46"/>
     </row>
     <row r="47" spans="2:21" ht="15.5">
       <c r="B47" s="9"/>
-      <c r="C47" s="37" t="s">
+      <c r="C47" s="34" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="6"/>
-      <c r="E47" s="34">
+      <c r="E47" s="33">
         <f>D47-D48</f>
         <v>0</v>
       </c>
       <c r="F47" s="6"/>
-      <c r="G47" s="34">
+      <c r="G47" s="33">
         <f t="shared" ref="G47" si="81">F47-F48+E47</f>
         <v>0</v>
       </c>
       <c r="H47" s="6">
         <v>0</v>
       </c>
-      <c r="I47" s="34">
+      <c r="I47" s="33">
         <f t="shared" ref="I47" si="82">H47-H48+G47</f>
         <v>-300</v>
       </c>
@@ -3546,7 +3546,7 @@
         <f>IE_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K47" s="34">
+      <c r="K47" s="33">
         <f t="shared" ref="K47" si="83">J47-J48+I47</f>
         <v>-300</v>
       </c>
@@ -3554,7 +3554,7 @@
         <f>IE_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M47" s="34">
+      <c r="M47" s="33">
         <f t="shared" ref="M47" si="84">L47-L48+K47</f>
         <v>-300</v>
       </c>
@@ -3562,86 +3562,86 @@
         <f>IE_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O47" s="34">
+      <c r="O47" s="33">
         <f t="shared" ref="O47" si="85">N47-N48+M47</f>
         <v>-300</v>
       </c>
       <c r="P47" s="6"/>
-      <c r="Q47" s="34">
+      <c r="Q47" s="33">
         <f>P47-P48+O47</f>
         <v>-300</v>
       </c>
       <c r="R47" s="6"/>
-      <c r="S47" s="34">
+      <c r="S47" s="33">
         <f t="shared" ref="S47" si="86">R47-R48+Q47</f>
         <v>-300</v>
       </c>
       <c r="T47" s="6">
         <v>71.709999999999994</v>
       </c>
-      <c r="U47" s="34">
+      <c r="U47" s="33">
         <f t="shared" ref="U47" si="87">T47-T48+S47</f>
         <v>-228.29000000000002</v>
       </c>
     </row>
     <row r="48" spans="2:21" ht="15.5">
       <c r="B48" s="9"/>
-      <c r="C48" s="37"/>
+      <c r="C48" s="34"/>
       <c r="D48" s="7"/>
-      <c r="E48" s="34"/>
+      <c r="E48" s="33"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="34"/>
+      <c r="G48" s="33"/>
       <c r="H48" s="7">
         <v>300</v>
       </c>
-      <c r="I48" s="34"/>
+      <c r="I48" s="33"/>
       <c r="J48" s="7">
         <f>IE_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K48" s="34"/>
+      <c r="K48" s="33"/>
       <c r="L48" s="7">
         <f>IE_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M48" s="34"/>
+      <c r="M48" s="33"/>
       <c r="N48" s="7">
         <f>IE_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O48" s="34"/>
+      <c r="O48" s="33"/>
       <c r="P48" s="7">
         <f>F47</f>
         <v>0</v>
       </c>
-      <c r="Q48" s="34"/>
+      <c r="Q48" s="33"/>
       <c r="R48" s="7">
         <f>H47</f>
         <v>0</v>
       </c>
-      <c r="S48" s="34"/>
+      <c r="S48" s="33"/>
       <c r="T48" s="7"/>
-      <c r="U48" s="34"/>
+      <c r="U48" s="33"/>
     </row>
     <row r="49" spans="2:21" ht="15.5">
       <c r="B49" s="9"/>
-      <c r="C49" s="37" t="s">
+      <c r="C49" s="34" t="s">
         <v>29</v>
       </c>
       <c r="D49" s="6"/>
-      <c r="E49" s="34">
+      <c r="E49" s="33">
         <f>D49-D50</f>
         <v>0</v>
       </c>
       <c r="F49" s="6"/>
-      <c r="G49" s="34">
+      <c r="G49" s="33">
         <f t="shared" ref="G49" si="88">F49-F50+E49</f>
         <v>0</v>
       </c>
       <c r="H49" s="6">
         <v>8000</v>
       </c>
-      <c r="I49" s="34">
+      <c r="I49" s="33">
         <f t="shared" ref="I49" si="89">H49-H50+G49</f>
         <v>-2000</v>
       </c>
@@ -3649,7 +3649,7 @@
         <f>LOWTECH_Clôtures!$B$3</f>
         <v>292.47000000000003</v>
       </c>
-      <c r="K49" s="34">
+      <c r="K49" s="33">
         <f t="shared" ref="K49" si="90">J49-J50+I49</f>
         <v>-1721.78</v>
       </c>
@@ -3657,7 +3657,7 @@
         <f>LOWTECH_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M49" s="34">
+      <c r="M49" s="33">
         <f t="shared" ref="M49" si="91">L49-L50+K49</f>
         <v>-1721.78</v>
       </c>
@@ -3665,88 +3665,88 @@
         <f>LOWTECH_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O49" s="34">
+      <c r="O49" s="33">
         <f t="shared" ref="O49" si="92">N49-N50+M49</f>
         <v>-1721.78</v>
       </c>
       <c r="P49" s="6"/>
-      <c r="Q49" s="34">
+      <c r="Q49" s="33">
         <f>P49-P50+O49</f>
         <v>-1721.78</v>
       </c>
       <c r="R49" s="6"/>
-      <c r="S49" s="34">
+      <c r="S49" s="33">
         <f t="shared" ref="S49" si="93">R49-R50+Q49</f>
         <v>-9721.7800000000007</v>
       </c>
       <c r="T49" s="6">
         <v>292.47000000000003</v>
       </c>
-      <c r="U49" s="34">
+      <c r="U49" s="33">
         <f t="shared" ref="U49" si="94">T49-T50+S49</f>
         <v>-9711.7100000000009</v>
       </c>
     </row>
     <row r="50" spans="2:21" ht="15.5">
       <c r="B50" s="9"/>
-      <c r="C50" s="37"/>
+      <c r="C50" s="34"/>
       <c r="D50" s="7"/>
-      <c r="E50" s="34"/>
+      <c r="E50" s="33"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="34"/>
+      <c r="G50" s="33"/>
       <c r="H50" s="7">
         <v>10000</v>
       </c>
-      <c r="I50" s="34"/>
+      <c r="I50" s="33"/>
       <c r="J50" s="7">
         <f>LOWTECH_Clôtures!$B$5</f>
         <v>14.25</v>
       </c>
-      <c r="K50" s="34"/>
+      <c r="K50" s="33"/>
       <c r="L50" s="7">
         <f>LOWTECH_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M50" s="34"/>
+      <c r="M50" s="33"/>
       <c r="N50" s="7">
         <f>LOWTECH_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O50" s="34"/>
+      <c r="O50" s="33"/>
       <c r="P50" s="7">
         <f>F49</f>
         <v>0</v>
       </c>
-      <c r="Q50" s="34"/>
+      <c r="Q50" s="33"/>
       <c r="R50" s="7">
         <f>H49</f>
         <v>8000</v>
       </c>
-      <c r="S50" s="34"/>
+      <c r="S50" s="33"/>
       <c r="T50" s="7">
         <v>282.39999999999998</v>
       </c>
-      <c r="U50" s="34"/>
+      <c r="U50" s="33"/>
     </row>
     <row r="51" spans="2:21" ht="15.5">
       <c r="B51" s="9"/>
-      <c r="C51" s="37" t="s">
+      <c r="C51" s="34" t="s">
         <v>24</v>
       </c>
       <c r="D51" s="6"/>
-      <c r="E51" s="34">
+      <c r="E51" s="33">
         <f>D51-D52</f>
         <v>0</v>
       </c>
       <c r="F51" s="6"/>
-      <c r="G51" s="34">
+      <c r="G51" s="33">
         <f t="shared" ref="G51" si="95">F51-F52+E51</f>
         <v>0</v>
       </c>
       <c r="H51" s="6">
         <v>0</v>
       </c>
-      <c r="I51" s="34">
+      <c r="I51" s="33">
         <f t="shared" ref="I51" si="96">H51-H52+G51</f>
         <v>-1050</v>
       </c>
@@ -3754,7 +3754,7 @@
         <f>JARDIN_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="34">
+      <c r="K51" s="33">
         <f t="shared" ref="K51" si="97">J51-J52+I51</f>
         <v>-1100</v>
       </c>
@@ -3762,7 +3762,7 @@
         <f>JARDIN_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M51" s="34">
+      <c r="M51" s="33">
         <f t="shared" ref="M51" si="98">L51-L52+K51</f>
         <v>-1100</v>
       </c>
@@ -3770,88 +3770,88 @@
         <f>JARDIN_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O51" s="34">
+      <c r="O51" s="33">
         <f t="shared" ref="O51" si="99">N51-N52+M51</f>
         <v>-1100</v>
       </c>
       <c r="P51" s="6"/>
-      <c r="Q51" s="34">
+      <c r="Q51" s="33">
         <f>P51-P52+O51</f>
         <v>-1100</v>
       </c>
       <c r="R51" s="6"/>
-      <c r="S51" s="34">
+      <c r="S51" s="33">
         <f t="shared" ref="S51" si="100">R51-R52+Q51</f>
         <v>-1100</v>
       </c>
       <c r="T51" s="6">
         <v>1022.8</v>
       </c>
-      <c r="U51" s="34">
+      <c r="U51" s="33">
         <f t="shared" ref="U51" si="101">T51-T52+S51</f>
         <v>-289.20000000000005</v>
       </c>
     </row>
     <row r="52" spans="2:21" ht="15.5">
       <c r="B52" s="9"/>
-      <c r="C52" s="37"/>
+      <c r="C52" s="34"/>
       <c r="D52" s="7"/>
-      <c r="E52" s="34"/>
+      <c r="E52" s="33"/>
       <c r="F52" s="7"/>
-      <c r="G52" s="34"/>
+      <c r="G52" s="33"/>
       <c r="H52" s="7">
         <v>1050</v>
       </c>
-      <c r="I52" s="34"/>
+      <c r="I52" s="33"/>
       <c r="J52" s="7">
         <f>JARDIN_Clôtures!$B$5</f>
         <v>50</v>
       </c>
-      <c r="K52" s="34"/>
+      <c r="K52" s="33"/>
       <c r="L52" s="7">
         <f>JARDIN_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M52" s="34"/>
+      <c r="M52" s="33"/>
       <c r="N52" s="7">
         <f>JARDIN_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O52" s="34"/>
+      <c r="O52" s="33"/>
       <c r="P52" s="7">
         <f>F51</f>
         <v>0</v>
       </c>
-      <c r="Q52" s="34"/>
+      <c r="Q52" s="33"/>
       <c r="R52" s="7">
         <f>H51</f>
         <v>0</v>
       </c>
-      <c r="S52" s="34"/>
+      <c r="S52" s="33"/>
       <c r="T52" s="7">
         <v>212</v>
       </c>
-      <c r="U52" s="34"/>
+      <c r="U52" s="33"/>
     </row>
     <row r="53" spans="2:21" ht="15.5">
       <c r="B53" s="9"/>
-      <c r="C53" s="37" t="s">
+      <c r="C53" s="34" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="6"/>
-      <c r="E53" s="34">
+      <c r="E53" s="33">
         <f>D53-D54</f>
         <v>0</v>
       </c>
       <c r="F53" s="6"/>
-      <c r="G53" s="34">
+      <c r="G53" s="33">
         <f t="shared" ref="G53" si="102">F53-F54+E53</f>
         <v>0</v>
       </c>
       <c r="H53" s="6">
         <v>0</v>
       </c>
-      <c r="I53" s="34">
+      <c r="I53" s="33">
         <f t="shared" ref="I53" si="103">H53-H54+G53</f>
         <v>-180</v>
       </c>
@@ -3859,98 +3859,98 @@
         <f>MEUBLE_Clôtures!$B$2</f>
         <v>2061.25</v>
       </c>
-      <c r="K53" s="34">
+      <c r="K53" s="33">
         <f t="shared" ref="K53" si="104">J53-J54+I53</f>
         <v>1116.4299999999998</v>
       </c>
       <c r="L53" s="6">
         <v>0</v>
       </c>
-      <c r="M53" s="34">
+      <c r="M53" s="33">
         <f t="shared" ref="M53" si="105">L53-L54+K53</f>
         <v>1116.4299999999998</v>
       </c>
       <c r="N53" s="6">
         <v>0</v>
       </c>
-      <c r="O53" s="34">
+      <c r="O53" s="33">
         <f t="shared" ref="O53" si="106">N53-N54+M53</f>
         <v>1116.4299999999998</v>
       </c>
       <c r="P53" s="6"/>
-      <c r="Q53" s="34">
+      <c r="Q53" s="33">
         <f>P53-P54+O53</f>
         <v>1116.4299999999998</v>
       </c>
       <c r="R53" s="6"/>
-      <c r="S53" s="34">
+      <c r="S53" s="33">
         <f t="shared" ref="S53" si="107">R53-R54+Q53</f>
         <v>1116.4299999999998</v>
       </c>
       <c r="T53" s="6">
         <v>1456.25</v>
       </c>
-      <c r="U53" s="34">
+      <c r="U53" s="33">
         <f t="shared" ref="U53" si="108">T53-T54+S53</f>
         <v>2572.6799999999998</v>
       </c>
     </row>
     <row r="54" spans="2:21" ht="15.5">
       <c r="B54" s="9"/>
-      <c r="C54" s="37"/>
+      <c r="C54" s="34"/>
       <c r="D54" s="7"/>
-      <c r="E54" s="34"/>
+      <c r="E54" s="33"/>
       <c r="F54" s="7"/>
-      <c r="G54" s="34"/>
+      <c r="G54" s="33"/>
       <c r="H54" s="7">
         <v>180</v>
       </c>
-      <c r="I54" s="34"/>
+      <c r="I54" s="33"/>
       <c r="J54" s="7">
         <f>MEUBLE_Clôtures!$B$5</f>
         <v>764.82</v>
       </c>
-      <c r="K54" s="34"/>
+      <c r="K54" s="33"/>
       <c r="L54" s="7">
         <f>MEUBLE_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M54" s="34"/>
+      <c r="M54" s="33"/>
       <c r="N54" s="7">
         <f>MEUBLE_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O54" s="34"/>
+      <c r="O54" s="33"/>
       <c r="P54" s="7">
         <f>F53</f>
         <v>0</v>
       </c>
-      <c r="Q54" s="34"/>
+      <c r="Q54" s="33"/>
       <c r="R54" s="7">
         <f>H53</f>
         <v>0</v>
       </c>
-      <c r="S54" s="34"/>
+      <c r="S54" s="33"/>
       <c r="T54" s="7"/>
-      <c r="U54" s="34"/>
+      <c r="U54" s="33"/>
     </row>
     <row r="55" spans="2:21" ht="15.5">
       <c r="B55" s="9"/>
-      <c r="C55" s="37"/>
+      <c r="C55" s="34"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="34">
+      <c r="E55" s="33">
         <f>D55-D56</f>
         <v>0</v>
       </c>
       <c r="F55" s="6"/>
-      <c r="G55" s="34">
+      <c r="G55" s="33">
         <f t="shared" ref="G55" si="109">F55-F56+E55</f>
         <v>0</v>
       </c>
       <c r="H55" s="6">
         <v>1630</v>
       </c>
-      <c r="I55" s="34">
+      <c r="I55" s="33">
         <f t="shared" ref="I55" si="110">H55-H56+G55</f>
         <v>-310</v>
       </c>
@@ -3958,7 +3958,7 @@
         <f>MEUBLE_Clôtures!$B$3</f>
         <v>1788.71</v>
       </c>
-      <c r="K55" s="34">
+      <c r="K55" s="33">
         <f>J55-J56+I55</f>
         <v>1478.71</v>
       </c>
@@ -3966,7 +3966,7 @@
         <f>MEUBLE_Clôtures!$C$2</f>
         <v>0</v>
       </c>
-      <c r="M55" s="34">
+      <c r="M55" s="33">
         <f t="shared" ref="M55" si="111">L55-L56+K55</f>
         <v>1478.71</v>
       </c>
@@ -3974,95 +3974,95 @@
         <f>MEUBLE_Clôtures!$D$2</f>
         <v>0</v>
       </c>
-      <c r="O55" s="34">
+      <c r="O55" s="33">
         <f t="shared" ref="O55" si="112">N55-N56+M55</f>
         <v>1478.71</v>
       </c>
       <c r="P55" s="6"/>
-      <c r="Q55" s="34">
+      <c r="Q55" s="33">
         <f>P55-P56+O55</f>
         <v>1478.71</v>
       </c>
       <c r="R55" s="6"/>
-      <c r="S55" s="34">
+      <c r="S55" s="33">
         <f t="shared" ref="S55" si="113">R55-R56+Q55</f>
         <v>-151.28999999999996</v>
       </c>
       <c r="T55" s="6">
         <v>1545</v>
       </c>
-      <c r="U55" s="34">
+      <c r="U55" s="33">
         <f t="shared" ref="U55" si="114">T55-T56+S55</f>
         <v>764.51</v>
       </c>
     </row>
     <row r="56" spans="2:21" ht="15.5">
       <c r="B56" s="9"/>
-      <c r="C56" s="37"/>
+      <c r="C56" s="34"/>
       <c r="D56" s="7"/>
-      <c r="E56" s="34"/>
+      <c r="E56" s="33"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="34"/>
+      <c r="G56" s="33"/>
       <c r="H56" s="7">
         <v>1940</v>
       </c>
-      <c r="I56" s="34"/>
+      <c r="I56" s="33"/>
       <c r="J56" s="7">
         <f>MEUBLE_Clôtures!$B$6</f>
         <v>0</v>
       </c>
-      <c r="K56" s="34"/>
+      <c r="K56" s="33"/>
       <c r="L56" s="7">
         <f>MEUBLE_Clôtures!$C$6</f>
         <v>0</v>
       </c>
-      <c r="M56" s="34"/>
+      <c r="M56" s="33"/>
       <c r="N56" s="7">
         <f>MEUBLE_Clôtures!$D$6</f>
         <v>0</v>
       </c>
-      <c r="O56" s="34"/>
+      <c r="O56" s="33"/>
       <c r="P56" s="7">
         <f>F55</f>
         <v>0</v>
       </c>
-      <c r="Q56" s="34"/>
+      <c r="Q56" s="33"/>
       <c r="R56" s="7">
         <f>H55</f>
         <v>1630</v>
       </c>
-      <c r="S56" s="34"/>
+      <c r="S56" s="33"/>
       <c r="T56" s="7">
         <v>629.20000000000005</v>
       </c>
-      <c r="U56" s="34"/>
+      <c r="U56" s="33"/>
     </row>
     <row r="57" spans="2:21" ht="15.5">
       <c r="B57" s="9"/>
-      <c r="C57" s="37" t="s">
+      <c r="C57" s="34" t="s">
         <v>26</v>
       </c>
       <c r="D57" s="6"/>
-      <c r="E57" s="34">
+      <c r="E57" s="33">
         <f>D57-D58</f>
         <v>0</v>
       </c>
       <c r="F57" s="6"/>
-      <c r="G57" s="34">
+      <c r="G57" s="33">
         <f t="shared" ref="G57" si="115">F57-F58+E57</f>
         <v>0</v>
       </c>
       <c r="H57" s="6">
         <v>10000</v>
       </c>
-      <c r="I57" s="34">
+      <c r="I57" s="33">
         <f t="shared" ref="I57" si="116">H57-H58+G57</f>
         <v>0</v>
       </c>
       <c r="J57" s="6">
         <v>0</v>
       </c>
-      <c r="K57" s="34">
+      <c r="K57" s="33">
         <f t="shared" ref="K57" si="117">J57-J58+I57</f>
         <v>0</v>
       </c>
@@ -4070,7 +4070,7 @@
         <f>DUDU_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M57" s="34">
+      <c r="M57" s="33">
         <f t="shared" ref="M57" si="118">L57-L58+K57</f>
         <v>0</v>
       </c>
@@ -4078,88 +4078,88 @@
         <f>DUDU_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O57" s="34">
+      <c r="O57" s="33">
         <f t="shared" ref="O57" si="119">N57-N58+M57</f>
         <v>0</v>
       </c>
       <c r="P57" s="6"/>
-      <c r="Q57" s="34">
+      <c r="Q57" s="33">
         <f>P57-P58+O57</f>
         <v>0</v>
       </c>
       <c r="R57" s="6"/>
-      <c r="S57" s="34">
+      <c r="S57" s="33">
         <f t="shared" ref="S57" si="120">R57-R58+Q57</f>
         <v>-10000</v>
       </c>
       <c r="T57" s="6">
         <v>6506.55</v>
       </c>
-      <c r="U57" s="34">
+      <c r="U57" s="33">
         <f t="shared" ref="U57" si="121">T57-T58+S57</f>
         <v>-10000</v>
       </c>
     </row>
     <row r="58" spans="2:21" ht="15.5">
       <c r="B58" s="9"/>
-      <c r="C58" s="37"/>
+      <c r="C58" s="34"/>
       <c r="D58" s="7"/>
-      <c r="E58" s="34"/>
+      <c r="E58" s="33"/>
       <c r="F58" s="7"/>
-      <c r="G58" s="34"/>
+      <c r="G58" s="33"/>
       <c r="H58" s="7">
         <v>10000</v>
       </c>
-      <c r="I58" s="34"/>
+      <c r="I58" s="33"/>
       <c r="J58" s="7">
         <f>DUDU_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K58" s="34"/>
+      <c r="K58" s="33"/>
       <c r="L58" s="7">
         <f>DUDU_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M58" s="34"/>
+      <c r="M58" s="33"/>
       <c r="N58" s="7">
         <f>DUDU_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O58" s="34"/>
+      <c r="O58" s="33"/>
       <c r="P58" s="7">
         <f>F57</f>
         <v>0</v>
       </c>
-      <c r="Q58" s="34"/>
+      <c r="Q58" s="33"/>
       <c r="R58" s="7">
         <f>H57</f>
         <v>10000</v>
       </c>
-      <c r="S58" s="34"/>
+      <c r="S58" s="33"/>
       <c r="T58" s="7">
         <v>6506.55</v>
       </c>
-      <c r="U58" s="34"/>
+      <c r="U58" s="33"/>
     </row>
     <row r="59" spans="2:21" ht="15.5" customHeight="1">
       <c r="B59" s="10"/>
-      <c r="C59" s="37" t="s">
+      <c r="C59" s="34" t="s">
         <v>27</v>
       </c>
       <c r="D59" s="6"/>
-      <c r="E59" s="34">
+      <c r="E59" s="33">
         <f>D59-D60</f>
         <v>0</v>
       </c>
       <c r="F59" s="6"/>
-      <c r="G59" s="34">
+      <c r="G59" s="33">
         <f t="shared" ref="G59" si="122">F59-F60+E59</f>
         <v>0</v>
       </c>
       <c r="H59" s="6">
         <v>500</v>
       </c>
-      <c r="I59" s="34">
+      <c r="I59" s="33">
         <f>H59-H60+G59</f>
         <v>-6530</v>
       </c>
@@ -4167,98 +4167,98 @@
         <f>UPFL_Clôtures!$B$2</f>
         <v>1726.53</v>
       </c>
-      <c r="K59" s="34">
+      <c r="K59" s="33">
         <f t="shared" ref="K59" si="123">J59-J60+I59</f>
         <v>-6183.22</v>
       </c>
       <c r="L59" s="6">
         <v>0</v>
       </c>
-      <c r="M59" s="34">
+      <c r="M59" s="33">
         <f t="shared" ref="M59" si="124">L59-L60+K59</f>
         <v>-6183.22</v>
       </c>
       <c r="N59" s="6">
         <v>0</v>
       </c>
-      <c r="O59" s="34">
+      <c r="O59" s="33">
         <f t="shared" ref="O59" si="125">N59-N60+M59</f>
         <v>-6183.22</v>
       </c>
       <c r="P59" s="6"/>
-      <c r="Q59" s="34">
+      <c r="Q59" s="33">
         <f>P59-P60+O59</f>
         <v>-6183.22</v>
       </c>
       <c r="R59" s="6"/>
-      <c r="S59" s="34">
+      <c r="S59" s="33">
         <f>R59-R60+Q59</f>
         <v>-6683.22</v>
       </c>
       <c r="T59" s="6">
         <v>1576.53</v>
       </c>
-      <c r="U59" s="34">
+      <c r="U59" s="33">
         <f t="shared" ref="U59" si="126">T59-T60+S59</f>
         <v>-5106.6900000000005</v>
       </c>
     </row>
     <row r="60" spans="2:21" ht="15.5" customHeight="1">
       <c r="B60" s="10"/>
-      <c r="C60" s="37"/>
+      <c r="C60" s="34"/>
       <c r="D60" s="7"/>
-      <c r="E60" s="34"/>
+      <c r="E60" s="33"/>
       <c r="F60" s="7"/>
-      <c r="G60" s="34"/>
+      <c r="G60" s="33"/>
       <c r="H60" s="7">
         <v>7030</v>
       </c>
-      <c r="I60" s="34"/>
+      <c r="I60" s="33"/>
       <c r="J60" s="7">
         <f>UPFL_Clôtures!$B$5</f>
         <v>1379.75</v>
       </c>
-      <c r="K60" s="34"/>
+      <c r="K60" s="33"/>
       <c r="L60" s="7">
         <f>UPFL_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M60" s="34"/>
+      <c r="M60" s="33"/>
       <c r="N60" s="7">
         <f>UPFL_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O60" s="34"/>
+      <c r="O60" s="33"/>
       <c r="P60" s="7">
         <f>F59</f>
         <v>0</v>
       </c>
-      <c r="Q60" s="34"/>
+      <c r="Q60" s="33"/>
       <c r="R60" s="7">
         <f>H59</f>
         <v>500</v>
       </c>
-      <c r="S60" s="34"/>
+      <c r="S60" s="33"/>
       <c r="T60" s="7"/>
-      <c r="U60" s="34"/>
+      <c r="U60" s="33"/>
     </row>
     <row r="61" spans="2:21" ht="15.5" customHeight="1">
       <c r="B61" s="10"/>
-      <c r="C61" s="37"/>
+      <c r="C61" s="34"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="34">
+      <c r="E61" s="33">
         <f>D61-D62</f>
         <v>0</v>
       </c>
       <c r="F61" s="6"/>
-      <c r="G61" s="34">
+      <c r="G61" s="33">
         <f>F61-F62+E61</f>
         <v>0</v>
       </c>
       <c r="H61" s="6">
         <v>2600</v>
       </c>
-      <c r="I61" s="34">
+      <c r="I61" s="33">
         <f>H61-H62+G61</f>
         <v>2600</v>
       </c>
@@ -4266,7 +4266,7 @@
         <f>UPFL_Clôtures!$B$3</f>
         <v>2498</v>
       </c>
-      <c r="K61" s="34">
+      <c r="K61" s="33">
         <f>J61-J62+I61</f>
         <v>5098</v>
       </c>
@@ -4274,7 +4274,7 @@
         <f>UPFL_Clôtures!$C$2</f>
         <v>0</v>
       </c>
-      <c r="M61" s="34">
+      <c r="M61" s="33">
         <f>L61-L62+K61</f>
         <v>5098</v>
       </c>
@@ -4282,93 +4282,93 @@
         <f>UPFL_Clôtures!$D$2</f>
         <v>0</v>
       </c>
-      <c r="O61" s="34">
+      <c r="O61" s="33">
         <f>N61-N62+M61</f>
         <v>5098</v>
       </c>
       <c r="P61" s="6"/>
-      <c r="Q61" s="34">
+      <c r="Q61" s="33">
         <f>P61-P62+O61</f>
         <v>5098</v>
       </c>
       <c r="R61" s="6"/>
-      <c r="S61" s="34">
+      <c r="S61" s="33">
         <f>R61-R62+Q61</f>
         <v>2498</v>
       </c>
       <c r="T61" s="6"/>
-      <c r="U61" s="34">
+      <c r="U61" s="33">
         <f>T61-T62+S61</f>
         <v>283.32999999999993</v>
       </c>
     </row>
     <row r="62" spans="2:21" ht="15.5" customHeight="1">
       <c r="B62" s="10"/>
-      <c r="C62" s="37"/>
+      <c r="C62" s="34"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="34"/>
+      <c r="E62" s="33"/>
       <c r="F62" s="6"/>
-      <c r="G62" s="34"/>
+      <c r="G62" s="33"/>
       <c r="H62" s="7">
         <v>0</v>
       </c>
-      <c r="I62" s="34"/>
+      <c r="I62" s="33"/>
       <c r="J62" s="7">
         <f>UPFL_Clôtures!$B$6</f>
         <v>0</v>
       </c>
-      <c r="K62" s="34"/>
+      <c r="K62" s="33"/>
       <c r="L62" s="7">
         <f>UPFL_Clôtures!$C$6</f>
         <v>0</v>
       </c>
-      <c r="M62" s="34"/>
+      <c r="M62" s="33"/>
       <c r="N62" s="7">
         <f>UPFL_Clôtures!$D$6</f>
         <v>0</v>
       </c>
-      <c r="O62" s="34"/>
+      <c r="O62" s="33"/>
       <c r="P62" s="7">
         <f>F61</f>
         <v>0</v>
       </c>
-      <c r="Q62" s="34"/>
+      <c r="Q62" s="33"/>
       <c r="R62" s="7">
         <f>H61</f>
         <v>2600</v>
       </c>
-      <c r="S62" s="34"/>
+      <c r="S62" s="33"/>
       <c r="T62" s="7">
         <v>2214.67</v>
       </c>
-      <c r="U62" s="34"/>
+      <c r="U62" s="33"/>
     </row>
     <row r="63" spans="2:21" ht="15.5">
       <c r="B63" s="9"/>
-      <c r="C63" s="37" t="s">
+      <c r="C63" s="34" t="s">
         <v>93</v>
       </c>
       <c r="D63" s="6"/>
-      <c r="E63" s="34">
+      <c r="E63" s="33">
         <f>D63-D64</f>
         <v>0</v>
       </c>
       <c r="F63" s="6"/>
-      <c r="G63" s="34">
+      <c r="G63" s="33">
         <f>F63-F64+E63</f>
         <v>0</v>
       </c>
       <c r="H63" s="6">
         <v>0</v>
       </c>
-      <c r="I63" s="34">
+      <c r="I63" s="33">
         <f>H63-H64+G63</f>
         <v>-2000</v>
       </c>
       <c r="J63" s="6">
         <v>5</v>
       </c>
-      <c r="K63" s="34">
+      <c r="K63" s="33">
         <f>J63-J64+I63</f>
         <v>-2103.16</v>
       </c>
@@ -4376,7 +4376,7 @@
         <f>FNR_Clôtures!$C$2</f>
         <v>0</v>
       </c>
-      <c r="M63" s="34">
+      <c r="M63" s="33">
         <f>L63-L64+K63</f>
         <v>-2103.16</v>
       </c>
@@ -4384,94 +4384,94 @@
         <f>FNR_Clôtures!$D$2</f>
         <v>0</v>
       </c>
-      <c r="O63" s="34">
+      <c r="O63" s="33">
         <f>N63-N64+M63</f>
         <v>-2103.16</v>
       </c>
       <c r="P63" s="6"/>
-      <c r="Q63" s="34">
+      <c r="Q63" s="33">
         <f>P63-P64+O63</f>
         <v>-2103.16</v>
       </c>
       <c r="R63" s="6"/>
-      <c r="S63" s="34">
+      <c r="S63" s="33">
         <f t="shared" ref="S63" si="127">R63-R64+Q63</f>
         <v>-2103.16</v>
       </c>
       <c r="T63" s="6">
         <v>720.75</v>
       </c>
-      <c r="U63" s="34">
+      <c r="U63" s="33">
         <f>T63-T64+S63</f>
         <v>-1457.0099999999998</v>
       </c>
     </row>
     <row r="64" spans="2:21" ht="15.5">
       <c r="B64" s="9"/>
-      <c r="C64" s="37"/>
+      <c r="C64" s="34"/>
       <c r="D64" s="7"/>
-      <c r="E64" s="34"/>
+      <c r="E64" s="33"/>
       <c r="F64" s="7"/>
-      <c r="G64" s="34"/>
+      <c r="G64" s="33"/>
       <c r="H64" s="7">
         <v>2000</v>
       </c>
-      <c r="I64" s="34"/>
+      <c r="I64" s="33"/>
       <c r="J64" s="7">
         <v>108.16</v>
       </c>
-      <c r="K64" s="34"/>
+      <c r="K64" s="33"/>
       <c r="L64" s="7">
         <f>FNR_Clôtures!$C$4</f>
         <v>0</v>
       </c>
-      <c r="M64" s="34"/>
+      <c r="M64" s="33"/>
       <c r="N64" s="7">
         <f>FNR_Clôtures!$D$4</f>
         <v>0</v>
       </c>
-      <c r="O64" s="34"/>
+      <c r="O64" s="33"/>
       <c r="P64" s="7">
         <f>F63</f>
         <v>0</v>
       </c>
-      <c r="Q64" s="34"/>
+      <c r="Q64" s="33"/>
       <c r="R64" s="7">
         <f>H63</f>
         <v>0</v>
       </c>
-      <c r="S64" s="34"/>
+      <c r="S64" s="33"/>
       <c r="T64" s="7">
         <v>74.599999999999994</v>
       </c>
-      <c r="U64" s="34"/>
+      <c r="U64" s="33"/>
     </row>
     <row r="65" spans="2:21" ht="15.5">
       <c r="B65" s="9"/>
-      <c r="C65" s="37" t="s">
+      <c r="C65" s="34" t="s">
         <v>88</v>
       </c>
       <c r="D65" s="6"/>
-      <c r="E65" s="34">
+      <c r="E65" s="33">
         <f>D65-D66</f>
         <v>0</v>
       </c>
       <c r="F65" s="6"/>
-      <c r="G65" s="34">
+      <c r="G65" s="33">
         <f>F65-F66+E65</f>
         <v>0</v>
       </c>
       <c r="H65" s="6">
         <v>0</v>
       </c>
-      <c r="I65" s="34">
+      <c r="I65" s="33">
         <f>H65-H66+G65</f>
         <v>0</v>
       </c>
       <c r="J65" s="6">
         <v>15.1</v>
       </c>
-      <c r="K65" s="34">
+      <c r="K65" s="33">
         <f>J65-J66+I65</f>
         <v>0</v>
       </c>
@@ -4479,7 +4479,7 @@
         <f>REBUILT_Clôtures!$C$2</f>
         <v>0</v>
       </c>
-      <c r="M65" s="34">
+      <c r="M65" s="33">
         <f>L65-L66+K65</f>
         <v>0</v>
       </c>
@@ -4487,145 +4487,448 @@
         <f>REBUILT_Clôtures!$D$2</f>
         <v>0</v>
       </c>
-      <c r="O65" s="34">
+      <c r="O65" s="33">
         <f>N65-N66+M65</f>
         <v>0</v>
       </c>
       <c r="P65" s="6"/>
-      <c r="Q65" s="34">
+      <c r="Q65" s="33">
         <f>P65-P66+O65</f>
         <v>0</v>
       </c>
       <c r="R65" s="6"/>
-      <c r="S65" s="34">
+      <c r="S65" s="33">
         <f t="shared" ref="S65" si="128">R65-R66+Q65</f>
         <v>0</v>
       </c>
       <c r="T65" s="6">
         <v>720.75</v>
       </c>
-      <c r="U65" s="34">
+      <c r="U65" s="33">
         <f>T65-T66+S65</f>
         <v>646.15</v>
       </c>
     </row>
     <row r="66" spans="2:21" ht="15.5">
       <c r="B66" s="9"/>
-      <c r="C66" s="59"/>
+      <c r="C66" s="35"/>
       <c r="D66" s="7"/>
-      <c r="E66" s="34"/>
+      <c r="E66" s="33"/>
       <c r="F66" s="7"/>
-      <c r="G66" s="34"/>
+      <c r="G66" s="33"/>
       <c r="H66" s="7">
         <v>0</v>
       </c>
-      <c r="I66" s="48"/>
+      <c r="I66" s="42"/>
       <c r="J66" s="7">
         <v>15.1</v>
       </c>
-      <c r="K66" s="48"/>
+      <c r="K66" s="42"/>
       <c r="L66" s="7">
         <f>REBUILT_Clôtures!$C$4</f>
         <v>0</v>
       </c>
-      <c r="M66" s="34"/>
+      <c r="M66" s="33"/>
       <c r="N66" s="7">
         <f>REBUILT_Clôtures!$D$4</f>
         <v>0</v>
       </c>
-      <c r="O66" s="34"/>
+      <c r="O66" s="33"/>
       <c r="P66" s="7">
         <f>F65</f>
         <v>0</v>
       </c>
-      <c r="Q66" s="34"/>
+      <c r="Q66" s="33"/>
       <c r="R66" s="7">
         <f>H65</f>
         <v>0</v>
       </c>
-      <c r="S66" s="34"/>
+      <c r="S66" s="33"/>
       <c r="T66" s="7">
         <v>74.599999999999994</v>
       </c>
-      <c r="U66" s="34"/>
+      <c r="U66" s="33"/>
     </row>
     <row r="67" spans="2:21" ht="14" customHeight="1">
-      <c r="B67" s="50" t="s">
+      <c r="B67" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C67" s="51"/>
-      <c r="D67" s="35">
+      <c r="C67" s="48"/>
+      <c r="D67" s="36">
         <f>E5+E7+E31</f>
         <v>-3802.4599999999982</v>
       </c>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35">
+      <c r="E67" s="36"/>
+      <c r="F67" s="36">
         <f>G5+G7+G31</f>
         <v>6911.4500000000007</v>
       </c>
-      <c r="G67" s="35"/>
-      <c r="H67" s="35">
+      <c r="G67" s="36"/>
+      <c r="H67" s="36">
         <f>I5+I7+I31</f>
         <v>-27444.55</v>
       </c>
-      <c r="I67" s="35"/>
-      <c r="J67" s="35">
+      <c r="I67" s="36"/>
+      <c r="J67" s="36">
         <f>K5+K7+K31</f>
         <v>-20353.55</v>
       </c>
-      <c r="K67" s="35"/>
-      <c r="L67" s="35">
+      <c r="K67" s="36"/>
+      <c r="L67" s="36">
         <f>M5+M7+M31</f>
-        <v>-20353.55</v>
-      </c>
-      <c r="M67" s="35"/>
-      <c r="N67" s="35">
+        <v>-20088.43</v>
+      </c>
+      <c r="M67" s="36"/>
+      <c r="N67" s="36">
         <f>O5+O7+O31</f>
-        <v>-20353.55</v>
-      </c>
-      <c r="O67" s="35"/>
-      <c r="P67" s="35">
+        <v>-20088.43</v>
+      </c>
+      <c r="O67" s="36"/>
+      <c r="P67" s="36">
         <f>Q5+Q7+Q31</f>
-        <v>-20353.55</v>
-      </c>
-      <c r="Q67" s="35"/>
-      <c r="R67" s="35">
+        <v>-20088.43</v>
+      </c>
+      <c r="Q67" s="36"/>
+      <c r="R67" s="36">
         <f>S5+S7+S31</f>
-        <v>-20353.550000000003</v>
-      </c>
-      <c r="S67" s="35"/>
-      <c r="T67" s="35">
+        <v>-20088.430000000004</v>
+      </c>
+      <c r="S67" s="36"/>
+      <c r="T67" s="36">
         <f>U5+U7+U31</f>
-        <v>-19707.400000000005</v>
-      </c>
-      <c r="U67" s="35"/>
+        <v>-19442.280000000006</v>
+      </c>
+      <c r="U67" s="36"/>
     </row>
     <row r="68" spans="2:21" ht="14.4" customHeight="1">
-      <c r="B68" s="52"/>
-      <c r="C68" s="53"/>
-      <c r="D68" s="36"/>
-      <c r="E68" s="36"/>
-      <c r="F68" s="36"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="36"/>
-      <c r="I68" s="36"/>
-      <c r="J68" s="36"/>
-      <c r="K68" s="36"/>
-      <c r="L68" s="36"/>
-      <c r="M68" s="36"/>
-      <c r="N68" s="36"/>
-      <c r="O68" s="36"/>
-      <c r="P68" s="36"/>
-      <c r="Q68" s="36"/>
-      <c r="R68" s="36"/>
-      <c r="S68" s="36"/>
-      <c r="T68" s="36"/>
-      <c r="U68" s="36"/>
+      <c r="B68" s="49"/>
+      <c r="C68" s="50"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="37"/>
+      <c r="I68" s="37"/>
+      <c r="J68" s="37"/>
+      <c r="K68" s="37"/>
+      <c r="L68" s="37"/>
+      <c r="M68" s="37"/>
+      <c r="N68" s="37"/>
+      <c r="O68" s="37"/>
+      <c r="P68" s="37"/>
+      <c r="Q68" s="37"/>
+      <c r="R68" s="37"/>
+      <c r="S68" s="37"/>
+      <c r="T68" s="37"/>
+      <c r="U68" s="37"/>
     </row>
     <row r="69" spans="2:21"/>
     <row r="70" spans="2:21"/>
   </sheetData>
   <mergeCells count="327">
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="N67:O68"/>
+    <mergeCell ref="T67:U68"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="U39:U40"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B31:C32"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="U21:U22"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="M61:M62"/>
+    <mergeCell ref="M57:M58"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="B67:C68"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="J67:K68"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="H67:I68"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="L67:M68"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="F67:G68"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="Q61:Q62"/>
+    <mergeCell ref="S61:S62"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="U31:U32"/>
+    <mergeCell ref="U33:U34"/>
+    <mergeCell ref="U35:U36"/>
+    <mergeCell ref="U37:U38"/>
+    <mergeCell ref="U41:U42"/>
+    <mergeCell ref="U43:U44"/>
+    <mergeCell ref="U45:U46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="S39:S40"/>
+    <mergeCell ref="S41:S42"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="U57:U58"/>
+    <mergeCell ref="U59:U60"/>
+    <mergeCell ref="O59:O60"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="O57:O58"/>
+    <mergeCell ref="Q53:Q54"/>
+    <mergeCell ref="Q55:Q56"/>
+    <mergeCell ref="Q57:Q58"/>
+    <mergeCell ref="Q59:Q60"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="D67:E68"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="Q47:Q48"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="Q31:Q32"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="Q37:Q38"/>
+    <mergeCell ref="Q39:Q40"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R67:S68"/>
+    <mergeCell ref="D2:U2"/>
+    <mergeCell ref="S43:S44"/>
+    <mergeCell ref="S45:S46"/>
+    <mergeCell ref="S47:S48"/>
+    <mergeCell ref="S49:S50"/>
+    <mergeCell ref="S51:S52"/>
+    <mergeCell ref="S53:S54"/>
+    <mergeCell ref="S55:S56"/>
+    <mergeCell ref="S57:S58"/>
+    <mergeCell ref="S59:S60"/>
+    <mergeCell ref="S21:S22"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="S31:S32"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="S37:S38"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="U29:U30"/>
+    <mergeCell ref="U65:U66"/>
+    <mergeCell ref="P67:Q68"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="Q65:Q66"/>
+    <mergeCell ref="S65:S66"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="S29:S30"/>
+    <mergeCell ref="Q51:Q52"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="K43:K44"/>
     <mergeCell ref="M63:M64"/>
     <mergeCell ref="O63:O64"/>
     <mergeCell ref="S63:S64"/>
@@ -4650,309 +4953,6 @@
     <mergeCell ref="U51:U52"/>
     <mergeCell ref="U53:U54"/>
     <mergeCell ref="U55:U56"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="O65:O66"/>
-    <mergeCell ref="Q65:Q66"/>
-    <mergeCell ref="S65:S66"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="S29:S30"/>
-    <mergeCell ref="Q51:Q52"/>
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="R67:S68"/>
-    <mergeCell ref="D2:U2"/>
-    <mergeCell ref="S43:S44"/>
-    <mergeCell ref="S45:S46"/>
-    <mergeCell ref="S47:S48"/>
-    <mergeCell ref="S49:S50"/>
-    <mergeCell ref="S51:S52"/>
-    <mergeCell ref="S53:S54"/>
-    <mergeCell ref="S55:S56"/>
-    <mergeCell ref="S57:S58"/>
-    <mergeCell ref="S59:S60"/>
-    <mergeCell ref="S21:S22"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="S27:S28"/>
-    <mergeCell ref="S31:S32"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="S35:S36"/>
-    <mergeCell ref="S37:S38"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="U29:U30"/>
-    <mergeCell ref="U65:U66"/>
-    <mergeCell ref="P67:Q68"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="Q47:Q48"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="Q31:Q32"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="Q37:Q38"/>
-    <mergeCell ref="Q39:Q40"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="D67:E68"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="U57:U58"/>
-    <mergeCell ref="U59:U60"/>
-    <mergeCell ref="O59:O60"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="O57:O58"/>
-    <mergeCell ref="Q53:Q54"/>
-    <mergeCell ref="Q55:Q56"/>
-    <mergeCell ref="Q57:Q58"/>
-    <mergeCell ref="Q59:Q60"/>
-    <mergeCell ref="Q61:Q62"/>
-    <mergeCell ref="S61:S62"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="U31:U32"/>
-    <mergeCell ref="U33:U34"/>
-    <mergeCell ref="U35:U36"/>
-    <mergeCell ref="U37:U38"/>
-    <mergeCell ref="U41:U42"/>
-    <mergeCell ref="U43:U44"/>
-    <mergeCell ref="U45:U46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="S39:S40"/>
-    <mergeCell ref="S41:S42"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="M61:M62"/>
-    <mergeCell ref="M57:M58"/>
-    <mergeCell ref="M59:M60"/>
-    <mergeCell ref="B67:C68"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="J67:K68"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="H67:I68"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="L67:M68"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="F67:G68"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="U21:U22"/>
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B31:C32"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="N67:O68"/>
-    <mergeCell ref="T67:U68"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="U39:U40"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="M25:M26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6687,7 +6687,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -6761,14 +6761,14 @@
         <v>0</v>
       </c>
       <c r="C4" s="18">
-        <v>0</v>
+        <v>1730.13</v>
       </c>
       <c r="D4" s="18">
         <v>0</v>
       </c>
       <c r="E4" s="20">
         <f>SUM(B4:D4)</f>
-        <v>0</v>
+        <v>1730.13</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
@@ -6783,7 +6783,7 @@
       </c>
       <c r="C5" s="19">
         <f t="shared" ref="C5:E5" si="0">SUM(C2:C4)</f>
-        <v>0</v>
+        <v>1730.13</v>
       </c>
       <c r="D5" s="19">
         <f t="shared" si="0"/>
@@ -6791,7 +6791,7 @@
       </c>
       <c r="E5" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1730.13</v>
       </c>
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
@@ -6804,14 +6804,14 @@
         <v>201.05</v>
       </c>
       <c r="C6" s="18">
-        <v>0</v>
+        <v>53.65</v>
       </c>
       <c r="D6" s="18">
         <v>0</v>
       </c>
       <c r="E6" s="20">
         <f>SUM(B6:D6)</f>
-        <v>201.05</v>
+        <v>254.70000000000002</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
@@ -6844,14 +6844,14 @@
         <v>0</v>
       </c>
       <c r="C8" s="18">
-        <v>0</v>
+        <v>1411.36</v>
       </c>
       <c r="D8" s="18">
         <v>0</v>
       </c>
       <c r="E8" s="20">
         <f>SUM(B8:D8)</f>
-        <v>0</v>
+        <v>1411.36</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
@@ -6866,7 +6866,7 @@
       </c>
       <c r="C9" s="21">
         <f t="shared" ref="C9:E9" si="1">SUM(C6:C8)</f>
-        <v>0</v>
+        <v>1465.01</v>
       </c>
       <c r="D9" s="21">
         <f t="shared" si="1"/>
@@ -6874,7 +6874,7 @@
       </c>
       <c r="E9" s="21">
         <f t="shared" si="1"/>
-        <v>313.5</v>
+        <v>1778.51</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>

--- a/2 - Bilans/2022-2023/Unipoly_Bilan_Quadrimestriel_22-23.xlsx
+++ b/2 - Bilans/2022-2023/Unipoly_Bilan_Quadrimestriel_22-23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\Clara\Unipoly\UPSecretrariat\2 - Bilans\2022-2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theodoresavary/Desktop/Unipoly/UPSecretrariat/2 - Bilans/2022-2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB101D4-D7B5-4671-8A46-47936C5696DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B50417-854D-B843-B763-492E45F2E29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="779" xr2:uid="{34F8AD7C-3B1E-42A7-8AF2-50C33241ADA4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="779" xr2:uid="{34F8AD7C-3B1E-42A7-8AF2-50C33241ADA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Bilan" sheetId="1" r:id="rId1"/>
@@ -725,14 +725,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -740,44 +737,23 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -794,17 +770,41 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1122,19 +1122,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A55C92-786C-4AB3-96FC-7473E4CC0A9B}">
   <dimension ref="A1:Y70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M19" sqref="M19:M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.36328125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="3.453125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="33.08984375" style="4" customWidth="1"/>
-    <col min="4" max="21" width="15.54296875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="33.1640625" style="4" customWidth="1"/>
+    <col min="4" max="21" width="15.5" style="4" customWidth="1"/>
     <col min="22" max="25" width="0" style="4" hidden="1" customWidth="1"/>
-    <col min="26" max="16384" width="11.54296875" style="4" hidden="1"/>
+    <col min="26" max="16384" width="11.5" style="4" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" ht="12" customHeight="1">
@@ -1143,74 +1143,74 @@
     <row r="2" spans="1:21" ht="36" customHeight="1">
       <c r="B2" s="29"/>
       <c r="C2" s="30"/>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="40"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="59"/>
     </row>
     <row r="3" spans="1:21" ht="14" customHeight="1">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="45" t="s">
+      <c r="C3" s="47"/>
+      <c r="D3" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41" t="s">
+      <c r="E3" s="42"/>
+      <c r="F3" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="51" t="s">
+      <c r="G3" s="42"/>
+      <c r="H3" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51" t="s">
+      <c r="I3" s="43"/>
+      <c r="J3" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="51"/>
-      <c r="L3" s="41" t="s">
+      <c r="K3" s="43"/>
+      <c r="L3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41" t="s">
+      <c r="M3" s="42"/>
+      <c r="N3" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41" t="s">
+      <c r="O3" s="42"/>
+      <c r="P3" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41" t="s">
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41" t="s">
+      <c r="S3" s="42"/>
+      <c r="T3" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="U3" s="51"/>
-    </row>
-    <row r="4" spans="1:21" ht="20">
-      <c r="B4" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="53"/>
+      <c r="U3" s="43"/>
+    </row>
+    <row r="4" spans="1:21" ht="18">
+      <c r="B4" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="45"/>
       <c r="D4" s="5" t="s">
         <v>39</v>
       </c>
@@ -1266,16 +1266,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.5">
-      <c r="B5" s="56" t="s">
+    <row r="5" spans="1:21">
+      <c r="B5" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="57"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="6">
         <f>D7+D31</f>
         <v>3136.0899999999997</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="34">
         <f>D5-D6</f>
         <v>-1901.2299999999991</v>
       </c>
@@ -1283,7 +1283,7 @@
         <f>F7+F31</f>
         <v>4406.34</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="34">
         <f>F5-F6+E5</f>
         <v>2505.110000000001</v>
       </c>
@@ -1291,22 +1291,22 @@
         <f>H7+H31</f>
         <v>31680</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="34">
         <f>H5-H6+G5</f>
         <v>-14672.89</v>
       </c>
       <c r="J5" s="6"/>
-      <c r="K5" s="33">
+      <c r="K5" s="34">
         <f>J5-J6+I5</f>
         <v>-14672.89</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="M5" s="33">
+      <c r="M5" s="34">
         <f>L5-L6+K5</f>
         <v>-14672.89</v>
       </c>
       <c r="N5" s="6"/>
-      <c r="O5" s="33">
+      <c r="O5" s="34">
         <f>N5-N6+M5</f>
         <v>-14672.89</v>
       </c>
@@ -1314,7 +1314,7 @@
         <f>P8+P32</f>
         <v>4406.34</v>
       </c>
-      <c r="Q5" s="33">
+      <c r="Q5" s="34">
         <f>P5-P6+O5</f>
         <v>-10266.549999999999</v>
       </c>
@@ -1322,59 +1322,59 @@
         <f>R8+R32</f>
         <v>31680</v>
       </c>
-      <c r="S5" s="33">
+      <c r="S5" s="34">
         <f>R5-R6+Q5</f>
         <v>21413.45</v>
       </c>
       <c r="T5" s="6">
         <v>2214.0300000000002</v>
       </c>
-      <c r="U5" s="44">
+      <c r="U5" s="33">
         <f>T5-T6+S5</f>
         <v>23627.48</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.5">
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
+    <row r="6" spans="1:21">
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="7">
         <f>D8+D32</f>
         <v>5037.3199999999988</v>
       </c>
-      <c r="E6" s="33"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="7">
         <f>F8+F32</f>
         <v>0</v>
       </c>
-      <c r="G6" s="33"/>
+      <c r="G6" s="34"/>
       <c r="H6" s="7">
         <f>H8+H32</f>
         <v>48858</v>
       </c>
-      <c r="I6" s="42"/>
+      <c r="I6" s="48"/>
       <c r="J6" s="27"/>
-      <c r="K6" s="42"/>
+      <c r="K6" s="48"/>
       <c r="L6" s="27"/>
-      <c r="M6" s="42"/>
+      <c r="M6" s="48"/>
       <c r="N6" s="27"/>
-      <c r="O6" s="42"/>
+      <c r="O6" s="48"/>
       <c r="P6" s="27"/>
-      <c r="Q6" s="42"/>
+      <c r="Q6" s="48"/>
       <c r="R6" s="27"/>
-      <c r="S6" s="42"/>
+      <c r="S6" s="48"/>
       <c r="T6" s="27"/>
-      <c r="U6" s="42"/>
-    </row>
-    <row r="7" spans="1:21" ht="15.5">
-      <c r="B7" s="56" t="s">
+      <c r="U6" s="48"/>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="B7" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="57"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="8">
         <f>D9+D11+D13+D15+D17+D19+D21+D23+D25+D27</f>
         <v>0</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="33">
         <f>D7-D8</f>
         <v>0</v>
       </c>
@@ -1382,7 +1382,7 @@
         <f>F9+F11+F13+F15+F17+F19+F21+F23+F25+F27</f>
         <v>0</v>
       </c>
-      <c r="G7" s="44">
+      <c r="G7" s="33">
         <f>F7-F8+E7</f>
         <v>0</v>
       </c>
@@ -1390,7 +1390,7 @@
         <f>H9+H11+H13+H15+H17+H19+H21+H23+H25+H27+H29</f>
         <v>3400</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="34">
         <f>H7-H8+G7</f>
         <v>-4600</v>
       </c>
@@ -1398,119 +1398,119 @@
         <f>J9+J11+J13+J15+J17+J19+J21+J23+J25+J27+J29</f>
         <v>5533.92</v>
       </c>
-      <c r="K7" s="33">
+      <c r="K7" s="34">
         <f>J7-J8+I7</f>
         <v>-3468.9800000000005</v>
       </c>
       <c r="L7" s="6">
         <f>L9+L11+L13+L15+L17+L19+L21+L23+L25+L27+L29</f>
-        <v>1730.13</v>
-      </c>
-      <c r="M7" s="33">
+        <v>7222.3</v>
+      </c>
+      <c r="M7" s="34">
         <f>L7-L8+K7</f>
-        <v>-3203.8600000000006</v>
+        <v>-355.98000000000047</v>
       </c>
       <c r="N7" s="6">
         <f>N9+N11+N13+N15+N17+N19+N21+N23+N25+N27+N29</f>
         <v>0</v>
       </c>
-      <c r="O7" s="33">
+      <c r="O7" s="34">
         <f>N7-N8+M7</f>
-        <v>-3203.8600000000006</v>
+        <v>-355.98000000000047</v>
       </c>
       <c r="P7" s="6">
         <f>P9+P11+P13+P15+P17+P19+P21+P23+P25+P27+P29</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="33">
+      <c r="Q7" s="34">
         <f>P7-P8+O7</f>
-        <v>-3203.8600000000006</v>
+        <v>-355.98000000000047</v>
       </c>
       <c r="R7" s="6">
         <f>R9+R11+R13+R15+R17+R19+R21+R23+R25+R27+R29</f>
         <v>0</v>
       </c>
-      <c r="S7" s="33">
+      <c r="S7" s="34">
         <f>R7-R8+Q7</f>
-        <v>-6603.8600000000006</v>
+        <v>-3755.9800000000005</v>
       </c>
       <c r="T7" s="6">
         <f>T9+T11+T13+T15+T17+T19+T21+T23+T25+T27+T29</f>
         <v>12560.309999999998</v>
       </c>
-      <c r="U7" s="43">
+      <c r="U7" s="49">
         <f>T7-T8+S7</f>
-        <v>-13984.060000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="15.5">
-      <c r="B8" s="58"/>
-      <c r="C8" s="59"/>
+        <v>-11136.18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="B8" s="40"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="7">
         <f>D10+D12+D14+D16+D18+D20+D22+D24+D26+D28</f>
         <v>0</v>
       </c>
-      <c r="E8" s="33"/>
+      <c r="E8" s="34"/>
       <c r="F8" s="7">
         <f>F10+F12+F14+F16+F18+F20+F22+F24+F26+F28</f>
         <v>0</v>
       </c>
-      <c r="G8" s="33"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="7">
         <f>H10+H12+H14+H16+H18+H20+H22+H24+H26+H28+H30</f>
         <v>8000</v>
       </c>
-      <c r="I8" s="33"/>
+      <c r="I8" s="34"/>
       <c r="J8" s="7">
         <f>J10+J12+J14+J16+J18+J20+J22+J24+J26+J28+J30</f>
         <v>4402.9000000000005</v>
       </c>
-      <c r="K8" s="33"/>
+      <c r="K8" s="34"/>
       <c r="L8" s="7">
         <f>L10+L12+L14+L16+L18+L20+L22+L24+L26+L28+L30</f>
-        <v>1465.01</v>
-      </c>
-      <c r="M8" s="33"/>
+        <v>4109.3</v>
+      </c>
+      <c r="M8" s="34"/>
       <c r="N8" s="7">
         <f>N10+N12+N14+N16+N18+N20+N22+N24+N26+N28+N30</f>
         <v>0</v>
       </c>
-      <c r="O8" s="33"/>
+      <c r="O8" s="34"/>
       <c r="P8" s="7">
         <f>P10+P12+P14+P16+P18+P20+P22+P24+P26+P28+P30</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="33"/>
+      <c r="Q8" s="34"/>
       <c r="R8" s="7">
         <f>R10+R12+R14+R16+R18+R20+R22+R24+R26+R28+R30</f>
         <v>3400</v>
       </c>
-      <c r="S8" s="33"/>
+      <c r="S8" s="34"/>
       <c r="T8" s="7">
         <f>T10+T12+T14+T16+T18+T20+T22+T24+T26+T28+T30</f>
         <v>19940.509999999998</v>
       </c>
-      <c r="U8" s="43"/>
-    </row>
-    <row r="9" spans="1:21" ht="15.5">
+      <c r="U8" s="49"/>
+    </row>
+    <row r="9" spans="1:21">
       <c r="B9" s="9"/>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="37" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="33">
+      <c r="E9" s="34">
         <f>D9-D10</f>
         <v>0</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="33">
+      <c r="G9" s="34">
         <f>F9-F10+E9</f>
         <v>0</v>
       </c>
       <c r="H9" s="6">
         <v>600</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="34">
         <f>H9-H10+G9</f>
         <v>-2250</v>
       </c>
@@ -1518,7 +1518,7 @@
         <f>COHE_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K9" s="33">
+      <c r="K9" s="34">
         <f>J9-J10+I9</f>
         <v>-2563.5</v>
       </c>
@@ -1526,7 +1526,7 @@
         <f>COHE_Clôtures!C5</f>
         <v>1730.13</v>
       </c>
-      <c r="M9" s="33">
+      <c r="M9" s="34">
         <f>L9-L10+K9</f>
         <v>-2298.38</v>
       </c>
@@ -1534,88 +1534,88 @@
         <f>COHE_Clôtures!D5</f>
         <v>0</v>
       </c>
-      <c r="O9" s="33">
+      <c r="O9" s="34">
         <f>N9-N10+M9</f>
         <v>-2298.38</v>
       </c>
       <c r="P9" s="6"/>
-      <c r="Q9" s="33">
+      <c r="Q9" s="34">
         <f>P9-P10+O9</f>
         <v>-2298.38</v>
       </c>
       <c r="R9" s="6"/>
-      <c r="S9" s="33">
+      <c r="S9" s="34">
         <f>R9-R10+Q9</f>
         <v>-2898.38</v>
       </c>
       <c r="T9" s="6">
         <v>2309.38</v>
       </c>
-      <c r="U9" s="43">
+      <c r="U9" s="49">
         <f>T9-T10+S9</f>
         <v>-2482.4499999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.5">
+    <row r="10" spans="1:21">
       <c r="B10" s="9"/>
-      <c r="C10" s="34"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="33"/>
+      <c r="E10" s="34"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="33"/>
+      <c r="G10" s="34"/>
       <c r="H10" s="7">
         <v>2850</v>
       </c>
-      <c r="I10" s="33"/>
+      <c r="I10" s="34"/>
       <c r="J10" s="7">
         <f>COHE_Clôtures!$B$9</f>
         <v>313.5</v>
       </c>
-      <c r="K10" s="33"/>
+      <c r="K10" s="34"/>
       <c r="L10" s="7">
         <f>COHE_Clôtures!C9</f>
         <v>1465.01</v>
       </c>
-      <c r="M10" s="33"/>
+      <c r="M10" s="34"/>
       <c r="N10" s="7">
         <f>COHE_Clôtures!D9</f>
         <v>0</v>
       </c>
-      <c r="O10" s="33"/>
+      <c r="O10" s="34"/>
       <c r="P10" s="7">
         <f>F9</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="33"/>
+      <c r="Q10" s="34"/>
       <c r="R10" s="7">
         <f>H9</f>
         <v>600</v>
       </c>
-      <c r="S10" s="33"/>
+      <c r="S10" s="34"/>
       <c r="T10" s="7">
         <v>1893.45</v>
       </c>
-      <c r="U10" s="43"/>
-    </row>
-    <row r="11" spans="1:21" ht="15.5">
+      <c r="U10" s="49"/>
+    </row>
+    <row r="11" spans="1:21">
       <c r="B11" s="9"/>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="37" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="33">
+      <c r="E11" s="34">
         <f>D11-D12</f>
         <v>0</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="33">
+      <c r="G11" s="34">
         <f t="shared" ref="G11" si="0">F11-F12+E11</f>
         <v>0</v>
       </c>
       <c r="H11" s="6">
         <v>150</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="34">
         <f>H11-H12+G11</f>
         <v>-600</v>
       </c>
@@ -1623,7 +1623,7 @@
         <f>COM_Clôtures!$B$3</f>
         <v>35.1</v>
       </c>
-      <c r="K11" s="33">
+      <c r="K11" s="34">
         <f t="shared" ref="K11" si="1">J11-J12+I11</f>
         <v>-732.77</v>
       </c>
@@ -1631,7 +1631,7 @@
         <f>COM_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M11" s="33">
+      <c r="M11" s="34">
         <f>L11-L12+K11</f>
         <v>-732.77</v>
       </c>
@@ -1639,17 +1639,17 @@
         <f>COM_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O11" s="33">
+      <c r="O11" s="34">
         <f>N11-N12+M11</f>
         <v>-732.77</v>
       </c>
       <c r="P11" s="6"/>
-      <c r="Q11" s="33">
+      <c r="Q11" s="34">
         <f>P11-P12+O11</f>
         <v>-732.77</v>
       </c>
       <c r="R11" s="6"/>
-      <c r="S11" s="33">
+      <c r="S11" s="34">
         <f>R11-R12+Q11</f>
         <v>-882.77</v>
       </c>
@@ -1661,66 +1661,66 @@
         <v>-127.62999999999988</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15.5">
+    <row r="12" spans="1:21">
       <c r="B12" s="9"/>
-      <c r="C12" s="34"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="33"/>
+      <c r="E12" s="34"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="33"/>
+      <c r="G12" s="34"/>
       <c r="H12" s="7">
         <v>750</v>
       </c>
-      <c r="I12" s="33"/>
+      <c r="I12" s="34"/>
       <c r="J12" s="7">
         <f>COM_Clôtures!$B$5</f>
         <v>167.87</v>
       </c>
-      <c r="K12" s="33"/>
+      <c r="K12" s="34"/>
       <c r="L12" s="7">
         <f>COM_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M12" s="33"/>
+      <c r="M12" s="34"/>
       <c r="N12" s="7">
         <f>COM_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O12" s="33"/>
+      <c r="O12" s="34"/>
       <c r="P12" s="7">
         <f>F11</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="33"/>
+      <c r="Q12" s="34"/>
       <c r="R12" s="7">
         <f>H11</f>
         <v>150</v>
       </c>
-      <c r="S12" s="33"/>
+      <c r="S12" s="34"/>
       <c r="T12" s="7">
         <v>128.19999999999999</v>
       </c>
       <c r="U12" s="31"/>
     </row>
-    <row r="13" spans="1:21" ht="15.5">
+    <row r="13" spans="1:21">
       <c r="B13" s="9"/>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="37" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="33">
+      <c r="E13" s="34">
         <f>D13-D14</f>
         <v>0</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="33">
+      <c r="G13" s="34">
         <f t="shared" ref="G13" si="2">F13-F14+E13</f>
         <v>0</v>
       </c>
       <c r="H13" s="6">
         <v>0</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="34">
         <f>H13-H14+G13</f>
         <v>-500</v>
       </c>
@@ -1728,7 +1728,7 @@
         <f>CONTRIB_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K13" s="33">
+      <c r="K13" s="34">
         <f t="shared" ref="K13" si="3">J13-J14+I13</f>
         <v>-575.6</v>
       </c>
@@ -1736,94 +1736,94 @@
         <f>CONTRIB_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M13" s="33">
+      <c r="M13" s="34">
         <f>L13-L14+K13</f>
-        <v>-575.6</v>
+        <v>-625.9</v>
       </c>
       <c r="N13" s="6">
         <f>CONTRIB_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O13" s="33">
+      <c r="O13" s="34">
         <f>N13-N14+M13</f>
-        <v>-575.6</v>
+        <v>-625.9</v>
       </c>
       <c r="P13" s="6"/>
-      <c r="Q13" s="33">
+      <c r="Q13" s="34">
         <f>P13-P14+O13</f>
-        <v>-575.6</v>
+        <v>-625.9</v>
       </c>
       <c r="R13" s="6"/>
-      <c r="S13" s="33">
+      <c r="S13" s="34">
         <f t="shared" ref="S13" si="4">R13-R14+Q13</f>
-        <v>-575.6</v>
+        <v>-625.9</v>
       </c>
       <c r="T13" s="6">
         <v>171.6</v>
       </c>
-      <c r="U13" s="43">
+      <c r="U13" s="49">
         <f t="shared" ref="U13" si="5">T13-T14+S13</f>
-        <v>-404</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="15.5">
+        <v>-454.29999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="B14" s="9"/>
-      <c r="C14" s="34"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="33"/>
+      <c r="E14" s="34"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="33"/>
+      <c r="G14" s="34"/>
       <c r="H14" s="7">
         <v>500</v>
       </c>
-      <c r="I14" s="33"/>
+      <c r="I14" s="34"/>
       <c r="J14" s="7">
         <f>CONTRIB_Clôtures!$B$7</f>
         <v>75.599999999999994</v>
       </c>
-      <c r="K14" s="33"/>
+      <c r="K14" s="34"/>
       <c r="L14" s="7">
         <f>CONTRIB_Clôtures!$C$7</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="33"/>
+        <v>50.3</v>
+      </c>
+      <c r="M14" s="34"/>
       <c r="N14" s="7">
         <f>CONTRIB_Clôtures!$D$7</f>
         <v>0</v>
       </c>
-      <c r="O14" s="33"/>
+      <c r="O14" s="34"/>
       <c r="P14" s="7">
         <f>F13</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="33"/>
+      <c r="Q14" s="34"/>
       <c r="R14" s="7">
         <f>H13</f>
         <v>0</v>
       </c>
-      <c r="S14" s="33"/>
+      <c r="S14" s="34"/>
       <c r="T14" s="7"/>
-      <c r="U14" s="43"/>
-    </row>
-    <row r="15" spans="1:21" ht="15.5">
+      <c r="U14" s="49"/>
+    </row>
+    <row r="15" spans="1:21">
       <c r="B15" s="9"/>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="37" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="33">
+      <c r="E15" s="34">
         <f>D15-D16</f>
         <v>0</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="33">
+      <c r="G15" s="34">
         <f t="shared" ref="G15" si="6">F15-F16+E15</f>
         <v>0</v>
       </c>
       <c r="H15" s="6">
         <v>1750</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="34">
         <f t="shared" ref="I15" si="7">H15-H16+G15</f>
         <v>-1000</v>
       </c>
@@ -1831,104 +1831,104 @@
         <f>EVENT_Clôtures!$B$5</f>
         <v>599.13</v>
       </c>
-      <c r="K15" s="33">
+      <c r="K15" s="34">
         <f t="shared" ref="K15" si="8">J15-J16+I15</f>
         <v>-786.18000000000006</v>
       </c>
       <c r="L15" s="6">
         <f>EVENT_Clôtures!$C$5</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="33">
+        <v>617.29999999999995</v>
+      </c>
+      <c r="M15" s="34">
         <f>L15-L16+K15</f>
-        <v>-786.18000000000006</v>
+        <v>-1817.41</v>
       </c>
       <c r="N15" s="6">
         <f>EVENT_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O15" s="33">
+      <c r="O15" s="34">
         <f>N15-N16+M15</f>
-        <v>-786.18000000000006</v>
+        <v>-1817.41</v>
       </c>
       <c r="P15" s="6"/>
-      <c r="Q15" s="33">
+      <c r="Q15" s="34">
         <f>P15-P16+O15</f>
-        <v>-786.18000000000006</v>
+        <v>-1817.41</v>
       </c>
       <c r="R15" s="6"/>
-      <c r="S15" s="33">
+      <c r="S15" s="34">
         <f t="shared" ref="S15" si="9">R15-R16+Q15</f>
-        <v>-2536.1800000000003</v>
+        <v>-3567.41</v>
       </c>
       <c r="T15" s="6">
         <v>2442.2199999999998</v>
       </c>
-      <c r="U15" s="43">
+      <c r="U15" s="49">
         <f t="shared" ref="U15" si="10">T15-T16+S15</f>
-        <v>-4467.82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="15.5">
+        <v>-5499.0499999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="B16" s="9"/>
-      <c r="C16" s="34"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="33"/>
+      <c r="E16" s="34"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="33"/>
+      <c r="G16" s="34"/>
       <c r="H16" s="7">
         <v>2750</v>
       </c>
-      <c r="I16" s="33"/>
+      <c r="I16" s="34"/>
       <c r="J16" s="7">
         <f>EVENT_Clôtures!$B$12</f>
         <v>385.31</v>
       </c>
-      <c r="K16" s="33"/>
+      <c r="K16" s="34"/>
       <c r="L16" s="7">
         <f>EVENT_Clôtures!$C$12</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="33"/>
+        <v>1648.53</v>
+      </c>
+      <c r="M16" s="34"/>
       <c r="N16" s="7">
         <f>EVENT_Clôtures!$D$12</f>
         <v>0</v>
       </c>
-      <c r="O16" s="33"/>
+      <c r="O16" s="34"/>
       <c r="P16" s="7">
         <f>F15</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="33"/>
+      <c r="Q16" s="34"/>
       <c r="R16" s="7">
         <f>H15</f>
         <v>1750</v>
       </c>
-      <c r="S16" s="33"/>
+      <c r="S16" s="34"/>
       <c r="T16" s="7">
         <v>4373.8599999999997</v>
       </c>
-      <c r="U16" s="43"/>
-    </row>
-    <row r="17" spans="2:21" ht="15.5">
+      <c r="U16" s="49"/>
+    </row>
+    <row r="17" spans="2:21">
       <c r="B17" s="9"/>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="37" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="33">
+      <c r="E17" s="34">
         <f>D17-D18</f>
         <v>0</v>
       </c>
       <c r="F17" s="6"/>
-      <c r="G17" s="33">
+      <c r="G17" s="34">
         <f t="shared" ref="G17" si="11">F17-F18+E17</f>
         <v>0</v>
       </c>
       <c r="H17" s="6">
         <v>0</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="34">
         <f t="shared" ref="I17" si="12">H17-H18+G17</f>
         <v>0</v>
       </c>
@@ -1936,7 +1936,7 @@
         <f>EXTRA_Clôtures!$B$3</f>
         <v>1.38</v>
       </c>
-      <c r="K17" s="33">
+      <c r="K17" s="34">
         <f t="shared" ref="K17" si="13">J17-J18+I17</f>
         <v>-2010.02</v>
       </c>
@@ -1944,96 +1944,96 @@
         <f>EXTRA_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M17" s="33">
+      <c r="M17" s="34">
         <f>L17-L18+K17</f>
-        <v>-2010.02</v>
+        <v>-2019.47</v>
       </c>
       <c r="N17" s="6">
         <f>EXTRA_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O17" s="33">
+      <c r="O17" s="34">
         <f>N17-N18+M17</f>
-        <v>-2010.02</v>
+        <v>-2019.47</v>
       </c>
       <c r="P17" s="6"/>
-      <c r="Q17" s="33">
+      <c r="Q17" s="34">
         <f>P17-P18+O17</f>
-        <v>-2010.02</v>
+        <v>-2019.47</v>
       </c>
       <c r="R17" s="6"/>
-      <c r="S17" s="33">
+      <c r="S17" s="34">
         <f t="shared" ref="S17" si="14">R17-R18+Q17</f>
-        <v>-2010.02</v>
+        <v>-2019.47</v>
       </c>
       <c r="T17" s="6">
         <v>395.9</v>
       </c>
-      <c r="U17" s="43">
+      <c r="U17" s="49">
         <f t="shared" ref="U17" si="15">T17-T18+S17</f>
-        <v>-2212.04</v>
-      </c>
-    </row>
-    <row r="18" spans="2:21" ht="15.5">
+        <v>-2221.4899999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21">
       <c r="B18" s="9"/>
-      <c r="C18" s="34"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="33"/>
+      <c r="E18" s="34"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="33"/>
+      <c r="G18" s="34"/>
       <c r="H18" s="7">
         <v>0</v>
       </c>
-      <c r="I18" s="33"/>
+      <c r="I18" s="34"/>
       <c r="J18" s="7">
         <f>EXTRA_Clôtures!$B$5</f>
         <v>2011.4</v>
       </c>
-      <c r="K18" s="33"/>
+      <c r="K18" s="34"/>
       <c r="L18" s="7">
         <f>EXTRA_Clôtures!$C$5</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="33"/>
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="M18" s="34"/>
       <c r="N18" s="7">
         <f>EXTRA_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O18" s="33"/>
+      <c r="O18" s="34"/>
       <c r="P18" s="7">
         <f>F17</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="33"/>
+      <c r="Q18" s="34"/>
       <c r="R18" s="7">
         <f>H17</f>
         <v>0</v>
       </c>
-      <c r="S18" s="33"/>
+      <c r="S18" s="34"/>
       <c r="T18" s="7">
         <v>597.91999999999996</v>
       </c>
-      <c r="U18" s="43"/>
-    </row>
-    <row r="19" spans="2:21" ht="15.5">
+      <c r="U18" s="49"/>
+    </row>
+    <row r="19" spans="2:21">
       <c r="B19" s="9"/>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="37" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="33">
+      <c r="E19" s="34">
         <f>D19-D20</f>
         <v>0</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="33">
+      <c r="G19" s="34">
         <f t="shared" ref="G19" si="16">F19-F20+E19</f>
         <v>0</v>
       </c>
       <c r="H19" s="6">
         <v>900</v>
       </c>
-      <c r="I19" s="33">
+      <c r="I19" s="34">
         <f t="shared" ref="I19" si="17">H19-H20+G19</f>
         <v>100</v>
       </c>
@@ -2041,104 +2041,104 @@
         <f>FONCT_Clôtures!$B$5</f>
         <v>3472.44</v>
       </c>
-      <c r="K19" s="33">
+      <c r="K19" s="34">
         <f t="shared" ref="K19" si="18">J19-J20+I19</f>
         <v>3045.07</v>
       </c>
       <c r="L19" s="6">
         <f>FONCT_Clôtures!$C$5</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="33">
+        <v>4029.87</v>
+      </c>
+      <c r="M19" s="34">
         <f>L19-L20+K19</f>
-        <v>3045.07</v>
+        <v>7009.34</v>
       </c>
       <c r="N19" s="6">
         <f>FONCT_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O19" s="33">
+      <c r="O19" s="34">
         <f>N19-N20+M19</f>
-        <v>3045.07</v>
+        <v>7009.34</v>
       </c>
       <c r="P19" s="6"/>
-      <c r="Q19" s="33">
+      <c r="Q19" s="34">
         <f>P19-P20+O19</f>
-        <v>3045.07</v>
+        <v>7009.34</v>
       </c>
       <c r="R19" s="6"/>
-      <c r="S19" s="33">
+      <c r="S19" s="34">
         <f t="shared" ref="S19" si="19">R19-R20+Q19</f>
-        <v>2145.0700000000002</v>
+        <v>6109.34</v>
       </c>
       <c r="T19" s="6">
         <v>1055.74</v>
       </c>
-      <c r="U19" s="43">
+      <c r="U19" s="49">
         <f t="shared" ref="U19" si="20">T19-T20+S19</f>
-        <v>-4858.9699999999993</v>
-      </c>
-    </row>
-    <row r="20" spans="2:21" ht="15.5">
+        <v>-894.69999999999982</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21">
       <c r="B20" s="9"/>
-      <c r="C20" s="34"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="33"/>
+      <c r="E20" s="34"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="33"/>
+      <c r="G20" s="34"/>
       <c r="H20" s="7">
         <v>800</v>
       </c>
-      <c r="I20" s="33"/>
+      <c r="I20" s="34"/>
       <c r="J20" s="7">
         <f>FONCT_Clôtures!$B$12</f>
         <v>527.37</v>
       </c>
-      <c r="K20" s="33"/>
+      <c r="K20" s="34"/>
       <c r="L20" s="7">
         <f>FONCT_Clôtures!$C$12</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="33"/>
+        <v>65.599999999999994</v>
+      </c>
+      <c r="M20" s="34"/>
       <c r="N20" s="7">
         <f>FONCT_Clôtures!$D$12</f>
         <v>0</v>
       </c>
-      <c r="O20" s="33"/>
+      <c r="O20" s="34"/>
       <c r="P20" s="7">
         <f>F19</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="33"/>
+      <c r="Q20" s="34"/>
       <c r="R20" s="7">
         <f>H19</f>
         <v>900</v>
       </c>
-      <c r="S20" s="33"/>
+      <c r="S20" s="34"/>
       <c r="T20" s="7">
         <v>8059.78</v>
       </c>
-      <c r="U20" s="43"/>
-    </row>
-    <row r="21" spans="2:21" ht="15.5">
+      <c r="U20" s="49"/>
+    </row>
+    <row r="21" spans="2:21">
       <c r="B21" s="9"/>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="37" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="33">
+      <c r="E21" s="34">
         <f>D21-D22</f>
         <v>0</v>
       </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="33">
+      <c r="G21" s="34">
         <f t="shared" ref="G21" si="21">F21-F22+E21</f>
         <v>0</v>
       </c>
       <c r="H21" s="6">
         <v>0</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="34">
         <f t="shared" ref="I21" si="22">H21-H22+G21</f>
         <v>0</v>
       </c>
@@ -2146,7 +2146,7 @@
         <f>CONVER_Clôtures!$B$3</f>
         <v>605.41999999999996</v>
       </c>
-      <c r="K21" s="33">
+      <c r="K21" s="34">
         <f t="shared" ref="K21" si="23">J21-J22+I21</f>
         <v>605.41999999999996</v>
       </c>
@@ -2154,7 +2154,7 @@
         <f>CONVER_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M21" s="33">
+      <c r="M21" s="34">
         <f>L21-L22+K21</f>
         <v>605.41999999999996</v>
       </c>
@@ -2162,88 +2162,88 @@
         <f>CONVER_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O21" s="33">
+      <c r="O21" s="34">
         <f>N21-N22+M21</f>
         <v>605.41999999999996</v>
       </c>
       <c r="P21" s="6"/>
-      <c r="Q21" s="33">
+      <c r="Q21" s="34">
         <f>P21-P22+O21</f>
         <v>605.41999999999996</v>
       </c>
       <c r="R21" s="6"/>
-      <c r="S21" s="33">
+      <c r="S21" s="34">
         <f t="shared" ref="S21" si="24">R21-R22+Q21</f>
         <v>605.41999999999996</v>
       </c>
       <c r="T21" s="6">
         <v>2405.42</v>
       </c>
-      <c r="U21" s="43">
+      <c r="U21" s="49">
         <f t="shared" ref="U21" si="25">T21-T22+S21</f>
         <v>10.840000000000032</v>
       </c>
     </row>
-    <row r="22" spans="2:21" ht="15.5">
+    <row r="22" spans="2:21">
       <c r="B22" s="9"/>
-      <c r="C22" s="34"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="33"/>
+      <c r="E22" s="34"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="33"/>
+      <c r="G22" s="34"/>
       <c r="H22" s="7">
         <v>0</v>
       </c>
-      <c r="I22" s="33"/>
+      <c r="I22" s="34"/>
       <c r="J22" s="7">
         <f>CONVER_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K22" s="33"/>
+      <c r="K22" s="34"/>
       <c r="L22" s="7">
         <f>CONVER_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M22" s="33"/>
+      <c r="M22" s="34"/>
       <c r="N22" s="7">
         <f>CONVER_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O22" s="33"/>
+      <c r="O22" s="34"/>
       <c r="P22" s="7">
         <f>F21</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="33"/>
+      <c r="Q22" s="34"/>
       <c r="R22" s="7">
         <f>H21</f>
         <v>0</v>
       </c>
-      <c r="S22" s="33"/>
+      <c r="S22" s="34"/>
       <c r="T22" s="7">
         <v>3000</v>
       </c>
-      <c r="U22" s="43"/>
-    </row>
-    <row r="23" spans="2:21" ht="15.5">
+      <c r="U22" s="49"/>
+    </row>
+    <row r="23" spans="2:21">
       <c r="B23" s="9"/>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="37" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="6"/>
-      <c r="E23" s="33">
+      <c r="E23" s="34">
         <f>D23-D24</f>
         <v>0</v>
       </c>
       <c r="F23" s="6"/>
-      <c r="G23" s="33">
+      <c r="G23" s="34">
         <f t="shared" ref="G23" si="26">F23-F24+E23</f>
         <v>0</v>
       </c>
       <c r="H23" s="6">
         <v>0</v>
       </c>
-      <c r="I23" s="33">
+      <c r="I23" s="34">
         <f t="shared" ref="I23" si="27">H23-H24+G23</f>
         <v>-100</v>
       </c>
@@ -2251,7 +2251,7 @@
         <f>LOCAL_Clôtures!$B$3</f>
         <v>255.62</v>
       </c>
-      <c r="K23" s="33">
+      <c r="K23" s="34">
         <f t="shared" ref="K23" si="28">J23-J24+I23</f>
         <v>-96.080000000000013</v>
       </c>
@@ -2259,94 +2259,94 @@
         <f>LOCAL_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M23" s="33">
+      <c r="M23" s="34">
         <f>L23-L24+K23</f>
-        <v>-96.080000000000013</v>
+        <v>-121.48000000000002</v>
       </c>
       <c r="N23" s="6">
         <f>LOCAL_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O23" s="33">
+      <c r="O23" s="34">
         <f>N23-N24+M23</f>
-        <v>-96.080000000000013</v>
+        <v>-121.48000000000002</v>
       </c>
       <c r="P23" s="6"/>
-      <c r="Q23" s="33">
+      <c r="Q23" s="34">
         <f>P23-P24+O23</f>
-        <v>-96.080000000000013</v>
+        <v>-121.48000000000002</v>
       </c>
       <c r="R23" s="6"/>
-      <c r="S23" s="33">
+      <c r="S23" s="34">
         <f t="shared" ref="S23" si="29">R23-R24+Q23</f>
-        <v>-96.080000000000013</v>
+        <v>-121.48000000000002</v>
       </c>
       <c r="T23" s="6">
         <v>654.46</v>
       </c>
-      <c r="U23" s="43">
+      <c r="U23" s="49">
         <f t="shared" ref="U23" si="30">T23-T24+S23</f>
-        <v>558.38</v>
-      </c>
-    </row>
-    <row r="24" spans="2:21" ht="15.5">
+        <v>532.98</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21">
       <c r="B24" s="9"/>
-      <c r="C24" s="34"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="33"/>
+      <c r="E24" s="34"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="33"/>
+      <c r="G24" s="34"/>
       <c r="H24" s="7">
         <v>100</v>
       </c>
-      <c r="I24" s="33"/>
+      <c r="I24" s="34"/>
       <c r="J24" s="7">
         <f>LOCAL_Clôtures!$B$8</f>
         <v>251.70000000000002</v>
       </c>
-      <c r="K24" s="33"/>
+      <c r="K24" s="34"/>
       <c r="L24" s="7">
         <f>LOCAL_Clôtures!$C$8</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="33"/>
+        <v>25.4</v>
+      </c>
+      <c r="M24" s="34"/>
       <c r="N24" s="7">
         <f>LOCAL_Clôtures!$D$8</f>
         <v>0</v>
       </c>
-      <c r="O24" s="33"/>
+      <c r="O24" s="34"/>
       <c r="P24" s="7">
         <f>F23</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="33"/>
+      <c r="Q24" s="34"/>
       <c r="R24" s="7">
         <f>H23</f>
         <v>0</v>
       </c>
-      <c r="S24" s="33"/>
+      <c r="S24" s="34"/>
       <c r="T24" s="7"/>
-      <c r="U24" s="43"/>
-    </row>
-    <row r="25" spans="2:21" ht="15.5">
+      <c r="U24" s="49"/>
+    </row>
+    <row r="25" spans="2:21">
       <c r="B25" s="9"/>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="37" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="6"/>
-      <c r="E25" s="33">
+      <c r="E25" s="34">
         <f>D25-D26</f>
         <v>0</v>
       </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="33">
+      <c r="G25" s="34">
         <f t="shared" ref="G25" si="31">F25-F26+E25</f>
         <v>0</v>
       </c>
       <c r="H25" s="6">
         <v>0</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="34">
         <f t="shared" ref="I25" si="32">H25-H26+G25</f>
         <v>-250</v>
       </c>
@@ -2354,7 +2354,7 @@
         <f>LOG_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K25" s="33">
+      <c r="K25" s="34">
         <f t="shared" ref="K25" si="33">J25-J26+I25</f>
         <v>-355.32</v>
       </c>
@@ -2362,7 +2362,7 @@
         <f>LOG_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M25" s="33">
+      <c r="M25" s="34">
         <f>L25-L26+K25</f>
         <v>-355.32</v>
       </c>
@@ -2370,86 +2370,86 @@
         <f>LOG_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O25" s="33">
+      <c r="O25" s="34">
         <f>N25-N26+M25</f>
         <v>-355.32</v>
       </c>
       <c r="P25" s="6"/>
-      <c r="Q25" s="33">
+      <c r="Q25" s="34">
         <f>P25-P26+O25</f>
         <v>-355.32</v>
       </c>
       <c r="R25" s="6"/>
-      <c r="S25" s="33">
+      <c r="S25" s="34">
         <f t="shared" ref="S25" si="34">R25-R26+Q25</f>
         <v>-355.32</v>
       </c>
       <c r="T25" s="6">
         <v>354.95</v>
       </c>
-      <c r="U25" s="43">
+      <c r="U25" s="49">
         <f t="shared" ref="U25" si="35">T25-T26+S25</f>
         <v>-0.37000000000000455</v>
       </c>
     </row>
-    <row r="26" spans="2:21" ht="15.5">
+    <row r="26" spans="2:21">
       <c r="B26" s="9"/>
-      <c r="C26" s="34"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="33"/>
+      <c r="E26" s="34"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="33"/>
+      <c r="G26" s="34"/>
       <c r="H26" s="7">
         <v>250</v>
       </c>
-      <c r="I26" s="33"/>
+      <c r="I26" s="34"/>
       <c r="J26" s="7">
         <f>LOG_Clôtures!$B$5</f>
         <v>105.32</v>
       </c>
-      <c r="K26" s="33"/>
+      <c r="K26" s="34"/>
       <c r="L26" s="7">
         <f>LOG_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M26" s="33"/>
+      <c r="M26" s="34"/>
       <c r="N26" s="7">
         <f>LOG_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O26" s="33"/>
+      <c r="O26" s="34"/>
       <c r="P26" s="7">
         <f>F25</f>
         <v>0</v>
       </c>
-      <c r="Q26" s="33"/>
+      <c r="Q26" s="34"/>
       <c r="R26" s="7">
         <f>H25</f>
         <v>0</v>
       </c>
-      <c r="S26" s="33"/>
+      <c r="S26" s="34"/>
       <c r="T26" s="7"/>
-      <c r="U26" s="43"/>
-    </row>
-    <row r="27" spans="2:21" ht="15.5">
+      <c r="U26" s="49"/>
+    </row>
+    <row r="27" spans="2:21">
       <c r="B27" s="9"/>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="37" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="6"/>
-      <c r="E27" s="33">
+      <c r="E27" s="34">
         <f>D27-D28</f>
         <v>0</v>
       </c>
       <c r="F27" s="6"/>
-      <c r="G27" s="33">
+      <c r="G27" s="34">
         <f>F27-F28+E27</f>
         <v>0</v>
       </c>
       <c r="H27" s="6">
         <v>0</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="34">
         <f>H27-H28+G27</f>
         <v>0</v>
       </c>
@@ -2457,101 +2457,101 @@
         <f>MOBILITY_Clôtures!$B$3</f>
         <v>564.83000000000004</v>
       </c>
-      <c r="K27" s="33">
+      <c r="K27" s="34">
         <f>J27-J28+I27</f>
         <v>0</v>
       </c>
       <c r="L27" s="6">
         <f>MOBILITY_Clôtures!$C$3</f>
-        <v>0</v>
-      </c>
-      <c r="M27" s="33">
+        <v>845</v>
+      </c>
+      <c r="M27" s="34">
         <f>L27-L28+K27</f>
-        <v>0</v>
+        <v>-9.9999999999909051E-3</v>
       </c>
       <c r="N27" s="6">
         <f>MOBILITY_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O27" s="33">
+      <c r="O27" s="34">
         <f>N27-N28+M27</f>
-        <v>0</v>
+        <v>-9.9999999999909051E-3</v>
       </c>
       <c r="P27" s="6"/>
-      <c r="Q27" s="33">
+      <c r="Q27" s="34">
         <f>P27-P28+O27</f>
-        <v>0</v>
+        <v>-9.9999999999909051E-3</v>
       </c>
       <c r="R27" s="6"/>
-      <c r="S27" s="33">
+      <c r="S27" s="34">
         <f>R27-R28+Q27</f>
-        <v>0</v>
+        <v>-9.9999999999909051E-3</v>
       </c>
       <c r="T27" s="6">
         <v>1887.3</v>
       </c>
-      <c r="U27" s="43">
+      <c r="U27" s="49">
         <f>T27-T28+S27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:21" ht="15.5">
+        <v>-9.9999999999909051E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21">
       <c r="B28" s="9"/>
-      <c r="C28" s="34"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="33"/>
+      <c r="E28" s="34"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="33"/>
+      <c r="G28" s="34"/>
       <c r="H28" s="7">
         <v>0</v>
       </c>
-      <c r="I28" s="33"/>
+      <c r="I28" s="34"/>
       <c r="J28" s="7">
         <f>MOBILITY_Clôtures!$B$5</f>
         <v>564.83000000000004</v>
       </c>
-      <c r="K28" s="33"/>
+      <c r="K28" s="34"/>
       <c r="L28" s="7">
         <f>MOBILITY_Clôtures!$C$5</f>
-        <v>0</v>
-      </c>
-      <c r="M28" s="33"/>
+        <v>845.01</v>
+      </c>
+      <c r="M28" s="34"/>
       <c r="N28" s="7">
         <f>MOBILITY_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O28" s="33"/>
+      <c r="O28" s="34"/>
       <c r="P28" s="7">
         <f>F27</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="33"/>
+      <c r="Q28" s="34"/>
       <c r="R28" s="7">
         <f>H27</f>
         <v>0</v>
       </c>
-      <c r="S28" s="33"/>
+      <c r="S28" s="34"/>
       <c r="T28" s="7">
         <v>1887.3</v>
       </c>
-      <c r="U28" s="43"/>
-    </row>
-    <row r="29" spans="2:21" ht="15.5">
+      <c r="U28" s="49"/>
+    </row>
+    <row r="29" spans="2:21">
       <c r="B29" s="9"/>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="37" t="s">
         <v>90</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="32"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="33">
+      <c r="G29" s="34">
         <f>F29-F30+E29</f>
         <v>0</v>
       </c>
       <c r="H29" s="6">
         <v>0</v>
       </c>
-      <c r="I29" s="33">
+      <c r="I29" s="34">
         <f>H29-H30+G29</f>
         <v>0</v>
       </c>
@@ -2559,7 +2559,7 @@
         <f>REPRO_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K29" s="33">
+      <c r="K29" s="34">
         <f>J29-J30+I29</f>
         <v>0</v>
       </c>
@@ -2567,7 +2567,7 @@
         <f>REPRO_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M29" s="33">
+      <c r="M29" s="34">
         <f>L29-L30+K29</f>
         <v>0</v>
       </c>
@@ -2575,69 +2575,69 @@
         <f>REPRO_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O29" s="33">
+      <c r="O29" s="34">
         <f>N29-N30+M29</f>
         <v>0</v>
       </c>
       <c r="P29" s="7"/>
-      <c r="Q29" s="33">
+      <c r="Q29" s="34">
         <f>P29-P30+O29</f>
         <v>0</v>
       </c>
       <c r="R29" s="7"/>
-      <c r="S29" s="33">
+      <c r="S29" s="34">
         <f>R29-R30+Q29</f>
         <v>0</v>
       </c>
       <c r="T29" s="7"/>
-      <c r="U29" s="43">
+      <c r="U29" s="49">
         <f>T29-T30+S29</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:21" ht="15.5">
+    <row r="30" spans="2:21">
       <c r="B30" s="9"/>
-      <c r="C30" s="35"/>
+      <c r="C30" s="54"/>
       <c r="D30" s="7"/>
       <c r="E30" s="32"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="33"/>
+      <c r="G30" s="34"/>
       <c r="H30" s="7">
         <v>0</v>
       </c>
-      <c r="I30" s="33"/>
+      <c r="I30" s="34"/>
       <c r="J30" s="7">
         <f>REPRO_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K30" s="33"/>
+      <c r="K30" s="34"/>
       <c r="L30" s="7">
         <f>REPRO_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M30" s="33"/>
+      <c r="M30" s="34"/>
       <c r="N30" s="7">
         <f>REPRO_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O30" s="33"/>
+      <c r="O30" s="34"/>
       <c r="P30" s="27"/>
-      <c r="Q30" s="33"/>
+      <c r="Q30" s="34"/>
       <c r="R30" s="27"/>
-      <c r="S30" s="33"/>
+      <c r="S30" s="34"/>
       <c r="T30" s="7"/>
-      <c r="U30" s="43"/>
-    </row>
-    <row r="31" spans="2:21" ht="15.5">
-      <c r="B31" s="56" t="s">
+      <c r="U30" s="49"/>
+    </row>
+    <row r="31" spans="2:21">
+      <c r="B31" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="57"/>
+      <c r="C31" s="39"/>
       <c r="D31" s="8">
         <f>D33+D35+D37+D41+D43+D45+D47+D49+D51+D53+D55+D57+D59+D61+D65</f>
         <v>3136.0899999999997</v>
       </c>
-      <c r="E31" s="44">
+      <c r="E31" s="33">
         <f>D31-D32</f>
         <v>-1901.2299999999991</v>
       </c>
@@ -2645,7 +2645,7 @@
         <f>F33+F35+F37+F39+F41+F43+F45+F47+F49+F51+F53+F55+F57+F59+F61+F65</f>
         <v>4406.34</v>
       </c>
-      <c r="G31" s="44">
+      <c r="G31" s="33">
         <f>F31-F32</f>
         <v>4406.34</v>
       </c>
@@ -2653,7 +2653,7 @@
         <f>H33+H35+H37+H39+H41+H43+H45+H47+H49+H51+H53+H55+H57+H59+H61+H63+H65</f>
         <v>28280</v>
       </c>
-      <c r="I31" s="44">
+      <c r="I31" s="33">
         <f>H31-H32+G31</f>
         <v>-8171.66</v>
       </c>
@@ -2661,7 +2661,7 @@
         <f>J33+J35+J37+J39+J41+J43+J45+J47+J49+J51+J53+J55+J57+J59+J61+J63+J65</f>
         <v>9661.83</v>
       </c>
-      <c r="K31" s="44">
+      <c r="K31" s="33">
         <f>J31-J32+I31</f>
         <v>-2211.6800000000003</v>
       </c>
@@ -2669,7 +2669,7 @@
         <f>L33+L35+L37+L39+L41+L43+L45+L47+L49+L51+L53+L55+L57+L59+L61+L63+L65</f>
         <v>0</v>
       </c>
-      <c r="M31" s="44">
+      <c r="M31" s="33">
         <f>L31-L32+K31</f>
         <v>-2211.6800000000003</v>
       </c>
@@ -2677,7 +2677,7 @@
         <f>N33+N35+N37+N39+N41+N43+N45+N47+N49+N51+N53+N55+N57+N59+N61+N63+N65</f>
         <v>0</v>
       </c>
-      <c r="O31" s="44">
+      <c r="O31" s="33">
         <f>N31-N32+M31</f>
         <v>-2211.6800000000003</v>
       </c>
@@ -2685,7 +2685,7 @@
         <f>P33+P35+P37+P39+P41+P43+P45+P47+P49+P51+P53+P55+P57+P59+P61+P63+P65</f>
         <v>0</v>
       </c>
-      <c r="Q31" s="33">
+      <c r="Q31" s="34">
         <f>P31-P32+O31</f>
         <v>-6618.02</v>
       </c>
@@ -2693,7 +2693,7 @@
         <f>R33+R35+R37+R39+R41+R43+R45+R47+R49+R51+R53+R55+R57+R59+R61+R63+R65</f>
         <v>0</v>
       </c>
-      <c r="S31" s="33">
+      <c r="S31" s="34">
         <f>R31-R32+Q31</f>
         <v>-34898.020000000004</v>
       </c>
@@ -2701,83 +2701,83 @@
         <f>T33+T35+T37+T39+T41+T43+T45+T47+T49+T51+T53+T55+T57+T59+T61+T63+T65</f>
         <v>20889.509999999998</v>
       </c>
-      <c r="U31" s="44">
+      <c r="U31" s="33">
         <f>T31-T32+S31</f>
         <v>-29085.700000000004</v>
       </c>
     </row>
-    <row r="32" spans="2:21" ht="15.5">
-      <c r="B32" s="58"/>
-      <c r="C32" s="59"/>
+    <row r="32" spans="2:21">
+      <c r="B32" s="40"/>
+      <c r="C32" s="41"/>
       <c r="D32" s="7">
         <f>D34+D36+D38+D40+D42+D44+D46+D48+D50+D52+D54+D56+D58+D60+D62+D66</f>
         <v>5037.3199999999988</v>
       </c>
-      <c r="E32" s="33"/>
+      <c r="E32" s="34"/>
       <c r="F32" s="7">
         <f>F34+F36+F38+F40+F42+F44+F46+F48+F50+F52+F54+F56+F58+F60+F62+F66</f>
         <v>0</v>
       </c>
-      <c r="G32" s="33"/>
+      <c r="G32" s="34"/>
       <c r="H32" s="7">
         <f>H34+H36+H38+H40+H42+H44+H46+H48+H50+H52+H54+H56+H58+H60+H62+H64+H66</f>
         <v>40858</v>
       </c>
-      <c r="I32" s="33"/>
+      <c r="I32" s="34"/>
       <c r="J32" s="7">
         <f>J34+J36+J38+J40+J42+J44+J46+J48+J50+J52+J54+J56+J58+J60+J62+J64+J66</f>
         <v>3701.85</v>
       </c>
-      <c r="K32" s="33"/>
+      <c r="K32" s="34"/>
       <c r="L32" s="7">
         <f>L34+L36+L38+L40+L42+L44+L46+L48+L50+L52+L54+L56+L58+L60+L62+L64+L66</f>
         <v>0</v>
       </c>
-      <c r="M32" s="33"/>
+      <c r="M32" s="34"/>
       <c r="N32" s="7">
         <f>N34+N36+N38+N40+N42+N44+N46+N48+N50+N52+N54+N56+N58+N60+N62+N64+N66</f>
         <v>0</v>
       </c>
-      <c r="O32" s="33"/>
+      <c r="O32" s="34"/>
       <c r="P32" s="7">
         <f>P34+P36+P38+P40+P42+P44+P46+P48+P50+P52+P54+P56+P58+P60+P62+P64+P66</f>
         <v>4406.34</v>
       </c>
-      <c r="Q32" s="33"/>
+      <c r="Q32" s="34"/>
       <c r="R32" s="7">
         <f>R34+R36+R38+R40+R42+R44+R46+R48+R50+R52+R54+R56+R58+R60+R62+R64+R66</f>
         <v>28280</v>
       </c>
-      <c r="S32" s="33"/>
+      <c r="S32" s="34"/>
       <c r="T32" s="7">
         <f>T34+T36+T38+T40+T42+T44+T46+T48+T50+T52+T54+T56+T58+T60+T62+T64+T66</f>
         <v>15077.19</v>
       </c>
-      <c r="U32" s="33"/>
-    </row>
-    <row r="33" spans="2:21" ht="15.5">
+      <c r="U32" s="34"/>
+    </row>
+    <row r="33" spans="2:21">
       <c r="B33" s="9"/>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="37" t="s">
         <v>19</v>
       </c>
       <c r="D33" s="6">
         <v>0</v>
       </c>
-      <c r="E33" s="33">
+      <c r="E33" s="34">
         <f>D33-D34</f>
         <v>-917.79</v>
       </c>
       <c r="F33" s="6">
         <v>0</v>
       </c>
-      <c r="G33" s="33">
+      <c r="G33" s="34">
         <f t="shared" ref="G33" si="36">F33-F34+E33</f>
         <v>-917.79</v>
       </c>
       <c r="H33" s="6">
         <v>150</v>
       </c>
-      <c r="I33" s="33">
+      <c r="I33" s="34">
         <f t="shared" ref="I33" si="37">H33-H34+G33</f>
         <v>-1117.79</v>
       </c>
@@ -2785,7 +2785,7 @@
         <f>API_Clôtures!$B$3</f>
         <v>119</v>
       </c>
-      <c r="K33" s="33">
+      <c r="K33" s="34">
         <f t="shared" ref="K33" si="38">J33-J34+I33</f>
         <v>-998.79</v>
       </c>
@@ -2793,7 +2793,7 @@
         <f>API_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M33" s="33">
+      <c r="M33" s="34">
         <f t="shared" ref="M33" si="39">L33-L34+K33</f>
         <v>-998.79</v>
       </c>
@@ -2801,94 +2801,94 @@
         <f>API_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O33" s="33">
+      <c r="O33" s="34">
         <f t="shared" ref="O33" si="40">N33-N34+M33</f>
         <v>-998.79</v>
       </c>
       <c r="P33" s="6"/>
-      <c r="Q33" s="33">
+      <c r="Q33" s="34">
         <f>P33-P34+O33</f>
         <v>-998.79</v>
       </c>
       <c r="R33" s="6"/>
-      <c r="S33" s="33">
+      <c r="S33" s="34">
         <f t="shared" ref="S33" si="41">R33-R34+Q33</f>
         <v>-1148.79</v>
       </c>
       <c r="T33" s="6">
         <v>917.79</v>
       </c>
-      <c r="U33" s="33">
+      <c r="U33" s="34">
         <f t="shared" ref="U33" si="42">T33-T34+S33</f>
         <v>-231</v>
       </c>
     </row>
-    <row r="34" spans="2:21" ht="15.5">
+    <row r="34" spans="2:21">
       <c r="B34" s="9"/>
-      <c r="C34" s="34"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="7">
         <v>917.79</v>
       </c>
-      <c r="E34" s="33"/>
+      <c r="E34" s="34"/>
       <c r="F34" s="7">
         <v>0</v>
       </c>
-      <c r="G34" s="33"/>
+      <c r="G34" s="34"/>
       <c r="H34" s="7">
         <v>350</v>
       </c>
-      <c r="I34" s="33"/>
+      <c r="I34" s="34"/>
       <c r="J34" s="7">
         <f>API_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K34" s="33"/>
+      <c r="K34" s="34"/>
       <c r="L34" s="7">
         <f>API_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M34" s="33"/>
+      <c r="M34" s="34"/>
       <c r="N34" s="7">
         <f>API_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O34" s="33"/>
+      <c r="O34" s="34"/>
       <c r="P34" s="7">
         <f>F33</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="33"/>
+      <c r="Q34" s="34"/>
       <c r="R34" s="7">
         <f>H33</f>
         <v>150</v>
       </c>
-      <c r="S34" s="33"/>
+      <c r="S34" s="34"/>
       <c r="T34" s="7"/>
-      <c r="U34" s="33"/>
-    </row>
-    <row r="35" spans="2:21" ht="15.5">
+      <c r="U34" s="34"/>
+    </row>
+    <row r="35" spans="2:21">
       <c r="B35" s="9"/>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D35" s="6">
         <v>641.85</v>
       </c>
-      <c r="E35" s="33">
+      <c r="E35" s="34">
         <f>D35-D36</f>
         <v>-1821.35</v>
       </c>
       <c r="F35" s="6">
         <v>0</v>
       </c>
-      <c r="G35" s="33">
+      <c r="G35" s="34">
         <f t="shared" ref="G35" si="43">F35-F36+E35</f>
         <v>-1821.35</v>
       </c>
       <c r="H35" s="6">
         <v>2000</v>
       </c>
-      <c r="I35" s="33">
+      <c r="I35" s="34">
         <f t="shared" ref="I35" si="44">H35-H36+G35</f>
         <v>-1921.35</v>
       </c>
@@ -2896,7 +2896,7 @@
         <f>CANARD_Clôtures!$B$4</f>
         <v>14.93</v>
       </c>
-      <c r="K35" s="33">
+      <c r="K35" s="34">
         <f t="shared" ref="K35" si="45">J35-J36+I35</f>
         <v>-1931.4699999999998</v>
       </c>
@@ -2904,7 +2904,7 @@
         <f>CANARD_Clôtures!$C$4</f>
         <v>0</v>
       </c>
-      <c r="M35" s="33">
+      <c r="M35" s="34">
         <f t="shared" ref="M35" si="46">L35-L36+K35</f>
         <v>-1931.4699999999998</v>
       </c>
@@ -2912,96 +2912,96 @@
         <f>CANARD_Clôtures!$D$4</f>
         <v>0</v>
       </c>
-      <c r="O35" s="33">
+      <c r="O35" s="34">
         <f t="shared" ref="O35" si="47">N35-N36+M35</f>
         <v>-1931.4699999999998</v>
       </c>
       <c r="P35" s="6"/>
-      <c r="Q35" s="33">
+      <c r="Q35" s="34">
         <f>P35-P36+O35</f>
         <v>-1931.4699999999998</v>
       </c>
       <c r="R35" s="6"/>
-      <c r="S35" s="33">
+      <c r="S35" s="34">
         <f t="shared" ref="S35" si="48">R35-R36+Q35</f>
         <v>-3931.47</v>
       </c>
       <c r="T35" s="6">
         <v>2463.1999999999998</v>
       </c>
-      <c r="U35" s="33">
+      <c r="U35" s="34">
         <f t="shared" ref="U35" si="49">T35-T36+S35</f>
         <v>-2110.12</v>
       </c>
     </row>
-    <row r="36" spans="2:21" ht="15.5">
+    <row r="36" spans="2:21">
       <c r="B36" s="9"/>
-      <c r="C36" s="34"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="7">
         <v>2463.1999999999998</v>
       </c>
-      <c r="E36" s="33"/>
+      <c r="E36" s="34"/>
       <c r="F36" s="7">
         <v>0</v>
       </c>
-      <c r="G36" s="33"/>
+      <c r="G36" s="34"/>
       <c r="H36" s="7">
         <v>2100</v>
       </c>
-      <c r="I36" s="33"/>
+      <c r="I36" s="34"/>
       <c r="J36" s="7">
         <f>CANARD_Clôtures!$B$6</f>
         <v>25.05</v>
       </c>
-      <c r="K36" s="33"/>
+      <c r="K36" s="34"/>
       <c r="L36" s="7">
         <f>CANARD_Clôtures!$C$6</f>
         <v>0</v>
       </c>
-      <c r="M36" s="33"/>
+      <c r="M36" s="34"/>
       <c r="N36" s="7">
         <f>CANARD_Clôtures!$D$6</f>
         <v>0</v>
       </c>
-      <c r="O36" s="33"/>
+      <c r="O36" s="34"/>
       <c r="P36" s="7">
         <f>F35</f>
         <v>0</v>
       </c>
-      <c r="Q36" s="33"/>
+      <c r="Q36" s="34"/>
       <c r="R36" s="7">
         <f>H35</f>
         <v>2000</v>
       </c>
-      <c r="S36" s="33"/>
+      <c r="S36" s="34"/>
       <c r="T36" s="7">
         <v>641.85</v>
       </c>
-      <c r="U36" s="33"/>
-    </row>
-    <row r="37" spans="2:21" ht="15.5">
+      <c r="U36" s="34"/>
+    </row>
+    <row r="37" spans="2:21">
       <c r="B37" s="9"/>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="37" t="s">
         <v>21</v>
       </c>
       <c r="D37" s="6">
         <v>2379.29</v>
       </c>
-      <c r="E37" s="33">
+      <c r="E37" s="34">
         <f>D37-D38</f>
         <v>933.56</v>
       </c>
       <c r="F37" s="6">
         <v>4406.34</v>
       </c>
-      <c r="G37" s="33">
+      <c r="G37" s="34">
         <f t="shared" ref="G37" si="50">F37-F38+E37</f>
         <v>5339.9</v>
       </c>
       <c r="H37" s="6">
         <v>1600</v>
       </c>
-      <c r="I37" s="33">
+      <c r="I37" s="34">
         <f t="shared" ref="I37" si="51">H37-H38+G37</f>
         <v>4969.8999999999996</v>
       </c>
@@ -3009,7 +3009,7 @@
         <f>CASTOR_Clôtures!$B$3</f>
         <v>597.19000000000005</v>
       </c>
-      <c r="K37" s="33">
+      <c r="K37" s="34">
         <f t="shared" ref="K37" si="52">J37-J38+I37</f>
         <v>4777.0999999999995</v>
       </c>
@@ -3017,7 +3017,7 @@
         <f>CASTOR_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M37" s="33">
+      <c r="M37" s="34">
         <f t="shared" ref="M37" si="53">L37-L38+K37</f>
         <v>4777.0999999999995</v>
       </c>
@@ -3025,96 +3025,96 @@
         <f>CASTOR_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O37" s="33">
+      <c r="O37" s="34">
         <f t="shared" ref="O37" si="54">N37-N38+M37</f>
         <v>4777.0999999999995</v>
       </c>
       <c r="P37" s="6"/>
-      <c r="Q37" s="33">
+      <c r="Q37" s="34">
         <f>P37-P38+O37</f>
         <v>370.75999999999931</v>
       </c>
       <c r="R37" s="6"/>
-      <c r="S37" s="33">
+      <c r="S37" s="34">
         <f t="shared" ref="S37" si="55">R37-R38+Q37</f>
         <v>-1229.2400000000007</v>
       </c>
       <c r="T37" s="6">
         <v>1445.73</v>
       </c>
-      <c r="U37" s="46">
+      <c r="U37" s="55">
         <f t="shared" ref="U37" si="56">T37-T38+S37</f>
         <v>-2162.8000000000006</v>
       </c>
     </row>
-    <row r="38" spans="2:21" ht="15.5">
+    <row r="38" spans="2:21">
       <c r="B38" s="9"/>
-      <c r="C38" s="34"/>
+      <c r="C38" s="37"/>
       <c r="D38" s="7">
         <v>1445.73</v>
       </c>
-      <c r="E38" s="33"/>
+      <c r="E38" s="34"/>
       <c r="F38" s="7">
         <v>0</v>
       </c>
-      <c r="G38" s="33"/>
+      <c r="G38" s="34"/>
       <c r="H38" s="7">
         <v>1970</v>
       </c>
-      <c r="I38" s="33"/>
+      <c r="I38" s="34"/>
       <c r="J38" s="7">
         <f>CASTOR_Clôtures!$B$5</f>
         <v>789.99</v>
       </c>
-      <c r="K38" s="33"/>
+      <c r="K38" s="34"/>
       <c r="L38" s="7">
         <f>CASTOR_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M38" s="33"/>
+      <c r="M38" s="34"/>
       <c r="N38" s="7">
         <f>CASTOR_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O38" s="33"/>
+      <c r="O38" s="34"/>
       <c r="P38" s="7">
         <f>F37</f>
         <v>4406.34</v>
       </c>
-      <c r="Q38" s="33"/>
+      <c r="Q38" s="34"/>
       <c r="R38" s="7">
         <f>H37</f>
         <v>1600</v>
       </c>
-      <c r="S38" s="33"/>
+      <c r="S38" s="34"/>
       <c r="T38" s="7">
         <v>2379.29</v>
       </c>
-      <c r="U38" s="46"/>
-    </row>
-    <row r="39" spans="2:21" ht="15.5">
+      <c r="U38" s="55"/>
+    </row>
+    <row r="39" spans="2:21">
       <c r="B39" s="9"/>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="37" t="s">
         <v>31</v>
       </c>
       <c r="D39" s="6">
         <v>0</v>
       </c>
-      <c r="E39" s="33">
+      <c r="E39" s="34">
         <f>D39-D40</f>
         <v>-128.69999999999999</v>
       </c>
       <c r="F39" s="6">
         <v>0</v>
       </c>
-      <c r="G39" s="33">
+      <c r="G39" s="34">
         <f t="shared" ref="G39" si="57">F39-F40+E39</f>
         <v>-128.69999999999999</v>
       </c>
       <c r="H39" s="6">
         <v>0</v>
       </c>
-      <c r="I39" s="33">
+      <c r="I39" s="34">
         <f t="shared" ref="I39" si="58">H39-H40+G39</f>
         <v>-458.7</v>
       </c>
@@ -3122,7 +3122,7 @@
         <f>DEBOUC_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K39" s="33">
+      <c r="K39" s="34">
         <f t="shared" ref="K39" si="59">J39-J40+I39</f>
         <v>-485.03</v>
       </c>
@@ -3130,7 +3130,7 @@
         <f>DEBOUC_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M39" s="33">
+      <c r="M39" s="34">
         <f t="shared" ref="M39" si="60">L39-L40+K39</f>
         <v>-485.03</v>
       </c>
@@ -3138,92 +3138,92 @@
         <f>DEBOUC_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O39" s="33">
+      <c r="O39" s="34">
         <f t="shared" ref="O39" si="61">N39-N40+M39</f>
         <v>-485.03</v>
       </c>
       <c r="P39" s="6"/>
-      <c r="Q39" s="33">
+      <c r="Q39" s="34">
         <f>P39-P40+O39</f>
         <v>-485.03</v>
       </c>
       <c r="R39" s="6"/>
-      <c r="S39" s="33">
+      <c r="S39" s="34">
         <f t="shared" ref="S39" si="62">R39-R40+Q39</f>
         <v>-485.03</v>
       </c>
       <c r="T39" s="6">
         <v>128.69999999999999</v>
       </c>
-      <c r="U39" s="33">
+      <c r="U39" s="34">
         <f t="shared" ref="U39" si="63">T39-T40+S39</f>
         <v>-356.33</v>
       </c>
     </row>
-    <row r="40" spans="2:21" ht="15.5">
+    <row r="40" spans="2:21">
       <c r="B40" s="9"/>
-      <c r="C40" s="34"/>
+      <c r="C40" s="37"/>
       <c r="D40" s="7">
         <v>128.69999999999999</v>
       </c>
-      <c r="E40" s="33"/>
+      <c r="E40" s="34"/>
       <c r="F40" s="7">
         <v>0</v>
       </c>
-      <c r="G40" s="33"/>
+      <c r="G40" s="34"/>
       <c r="H40" s="7">
         <v>330</v>
       </c>
-      <c r="I40" s="33"/>
+      <c r="I40" s="34"/>
       <c r="J40" s="7">
         <f>DEBOUC_Clôtures!$B$5</f>
         <v>26.33</v>
       </c>
-      <c r="K40" s="33"/>
+      <c r="K40" s="34"/>
       <c r="L40" s="7">
         <f>DEBOUC_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M40" s="33"/>
+      <c r="M40" s="34"/>
       <c r="N40" s="7">
         <f>DEBOUC_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O40" s="33"/>
+      <c r="O40" s="34"/>
       <c r="P40" s="7">
         <f>F39</f>
         <v>0</v>
       </c>
-      <c r="Q40" s="33"/>
+      <c r="Q40" s="34"/>
       <c r="R40" s="7">
         <f>H39</f>
         <v>0</v>
       </c>
-      <c r="S40" s="33"/>
+      <c r="S40" s="34"/>
       <c r="T40" s="7"/>
-      <c r="U40" s="33"/>
-    </row>
-    <row r="41" spans="2:21" ht="15.5">
+      <c r="U40" s="34"/>
+    </row>
+    <row r="41" spans="2:21">
       <c r="B41" s="9"/>
-      <c r="C41" s="34" t="s">
+      <c r="C41" s="37" t="s">
         <v>22</v>
       </c>
       <c r="D41" s="6">
         <v>114.95</v>
       </c>
-      <c r="E41" s="33">
+      <c r="E41" s="34">
         <f>D41-D42</f>
         <v>33.049999999999997</v>
       </c>
       <c r="F41" s="6"/>
-      <c r="G41" s="33">
+      <c r="G41" s="34">
         <f>F41-F42+E41</f>
         <v>33.049999999999997</v>
       </c>
       <c r="H41" s="6">
         <v>600</v>
       </c>
-      <c r="I41" s="33">
+      <c r="I41" s="34">
         <f t="shared" ref="I41" si="64">H41-H42+G41</f>
         <v>-966.95</v>
       </c>
@@ -3231,7 +3231,7 @@
         <f>EVA_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K41" s="33">
+      <c r="K41" s="34">
         <f t="shared" ref="K41" si="65">J41-J42+I41</f>
         <v>-1236</v>
       </c>
@@ -3239,7 +3239,7 @@
         <f>EVA_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M41" s="33">
+      <c r="M41" s="34">
         <f t="shared" ref="M41" si="66">L41-L42+K41</f>
         <v>-1236</v>
       </c>
@@ -3247,90 +3247,90 @@
         <f>EVA_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O41" s="33">
+      <c r="O41" s="34">
         <f t="shared" ref="O41" si="67">N41-N42+M41</f>
         <v>-1236</v>
       </c>
       <c r="P41" s="6"/>
-      <c r="Q41" s="33">
+      <c r="Q41" s="34">
         <f>P41-P42+O41</f>
         <v>-1236</v>
       </c>
       <c r="R41" s="6"/>
-      <c r="S41" s="33">
+      <c r="S41" s="34">
         <f t="shared" ref="S41" si="68">R41-R42+Q41</f>
         <v>-1836</v>
       </c>
       <c r="T41" s="6">
         <v>81.900000000000006</v>
       </c>
-      <c r="U41" s="33">
+      <c r="U41" s="34">
         <f t="shared" ref="U41" si="69">T41-T42+S41</f>
         <v>-1869.05</v>
       </c>
     </row>
-    <row r="42" spans="2:21" ht="15.5">
+    <row r="42" spans="2:21">
       <c r="B42" s="9"/>
-      <c r="C42" s="34"/>
+      <c r="C42" s="37"/>
       <c r="D42" s="7">
         <v>81.900000000000006</v>
       </c>
-      <c r="E42" s="33"/>
+      <c r="E42" s="34"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="33"/>
+      <c r="G42" s="34"/>
       <c r="H42" s="7">
         <v>1600</v>
       </c>
-      <c r="I42" s="33"/>
+      <c r="I42" s="34"/>
       <c r="J42" s="7">
         <f>EVA_Clôtures!$B$5</f>
         <v>269.05</v>
       </c>
-      <c r="K42" s="33"/>
+      <c r="K42" s="34"/>
       <c r="L42" s="7">
         <f>EVA_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M42" s="33"/>
+      <c r="M42" s="34"/>
       <c r="N42" s="7">
         <f>EVA_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O42" s="33"/>
+      <c r="O42" s="34"/>
       <c r="P42" s="7">
         <f>F41</f>
         <v>0</v>
       </c>
-      <c r="Q42" s="33"/>
+      <c r="Q42" s="34"/>
       <c r="R42" s="7">
         <f>H41</f>
         <v>600</v>
       </c>
-      <c r="S42" s="33"/>
+      <c r="S42" s="34"/>
       <c r="T42" s="7">
         <v>114.95</v>
       </c>
-      <c r="U42" s="33"/>
-    </row>
-    <row r="43" spans="2:21" ht="15.5">
+      <c r="U42" s="34"/>
+    </row>
+    <row r="43" spans="2:21">
       <c r="B43" s="9"/>
-      <c r="C43" s="34" t="s">
+      <c r="C43" s="37" t="s">
         <v>23</v>
       </c>
       <c r="D43" s="6"/>
-      <c r="E43" s="33">
+      <c r="E43" s="34">
         <f>D43-D44</f>
         <v>0</v>
       </c>
       <c r="F43" s="6"/>
-      <c r="G43" s="33">
+      <c r="G43" s="34">
         <f>F43-F44+E43</f>
         <v>0</v>
       </c>
       <c r="H43" s="6">
         <v>0</v>
       </c>
-      <c r="I43" s="33">
+      <c r="I43" s="34">
         <f t="shared" ref="I43" si="70">H43-H44+G43</f>
         <v>-508</v>
       </c>
@@ -3338,7 +3338,7 @@
         <f>EPILIBRE_Clôtures!B2</f>
         <v>55.5</v>
       </c>
-      <c r="K43" s="33">
+      <c r="K43" s="34">
         <f t="shared" ref="K43" si="71">J43-J44+I43</f>
         <v>-711.85</v>
       </c>
@@ -3346,7 +3346,7 @@
         <f>EPILIBRE_Clôtures!C2</f>
         <v>0</v>
       </c>
-      <c r="M43" s="33">
+      <c r="M43" s="34">
         <f t="shared" ref="M43" si="72">L43-L44+K43</f>
         <v>-711.85</v>
       </c>
@@ -3354,86 +3354,86 @@
         <f>EPILIBRE_Clôtures!D2</f>
         <v>0</v>
       </c>
-      <c r="O43" s="33">
+      <c r="O43" s="34">
         <f t="shared" ref="O43" si="73">N43-N44+M43</f>
         <v>-711.85</v>
       </c>
       <c r="P43" s="6"/>
-      <c r="Q43" s="33">
+      <c r="Q43" s="34">
         <f>P43-P44+O43</f>
         <v>-711.85</v>
       </c>
       <c r="R43" s="6"/>
-      <c r="S43" s="33">
+      <c r="S43" s="34">
         <f t="shared" ref="S43" si="74">R43-R44+Q43</f>
         <v>-711.85</v>
       </c>
       <c r="T43" s="6">
         <v>351.1</v>
       </c>
-      <c r="U43" s="33">
+      <c r="U43" s="34">
         <f t="shared" ref="U43:U45" si="75">T43-T44+S43</f>
         <v>-538.5</v>
       </c>
     </row>
-    <row r="44" spans="2:21" ht="15.5">
+    <row r="44" spans="2:21">
       <c r="B44" s="9"/>
-      <c r="C44" s="34"/>
+      <c r="C44" s="37"/>
       <c r="D44" s="7"/>
-      <c r="E44" s="33"/>
+      <c r="E44" s="34"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="33"/>
+      <c r="G44" s="34"/>
       <c r="H44" s="7">
         <v>508</v>
       </c>
-      <c r="I44" s="33"/>
+      <c r="I44" s="34"/>
       <c r="J44" s="7">
         <f>EPILIBRE_Clôtures!B5</f>
         <v>259.35000000000002</v>
       </c>
-      <c r="K44" s="33"/>
+      <c r="K44" s="34"/>
       <c r="L44" s="7">
         <f>EPILIBRE_Clôtures!C5</f>
         <v>0</v>
       </c>
-      <c r="M44" s="33"/>
+      <c r="M44" s="34"/>
       <c r="N44" s="7">
         <f>EPILIBRE_Clôtures!D5</f>
         <v>0</v>
       </c>
-      <c r="O44" s="33"/>
+      <c r="O44" s="34"/>
       <c r="P44" s="7">
         <f>F43</f>
         <v>0</v>
       </c>
-      <c r="Q44" s="33"/>
+      <c r="Q44" s="34"/>
       <c r="R44" s="7">
         <f>H43</f>
         <v>0</v>
       </c>
-      <c r="S44" s="33"/>
+      <c r="S44" s="34"/>
       <c r="T44" s="7">
         <v>177.75</v>
       </c>
-      <c r="U44" s="33"/>
-    </row>
-    <row r="45" spans="2:21" ht="15.5">
+      <c r="U44" s="34"/>
+    </row>
+    <row r="45" spans="2:21">
       <c r="B45" s="9"/>
-      <c r="C45" s="34"/>
+      <c r="C45" s="37"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="33">
+      <c r="E45" s="34">
         <f>D45-D46</f>
         <v>0</v>
       </c>
       <c r="F45" s="6"/>
-      <c r="G45" s="33">
+      <c r="G45" s="34">
         <f>F45-F46+E45</f>
         <v>0</v>
       </c>
       <c r="H45" s="6">
         <v>1200</v>
       </c>
-      <c r="I45" s="33">
+      <c r="I45" s="34">
         <f t="shared" ref="I45" si="76">H45-H46+G45</f>
         <v>-300</v>
       </c>
@@ -3441,7 +3441,7 @@
         <f>EPILIBRE_Clôtures!B3</f>
         <v>488.15</v>
       </c>
-      <c r="K45" s="33">
+      <c r="K45" s="34">
         <f t="shared" ref="K45" si="77">J45-J46+I45</f>
         <v>188.14999999999998</v>
       </c>
@@ -3449,7 +3449,7 @@
         <f>EPILIBRE_Clôtures!C3</f>
         <v>0</v>
       </c>
-      <c r="M45" s="33">
+      <c r="M45" s="34">
         <f t="shared" ref="M45" si="78">L45-L46+K45</f>
         <v>188.14999999999998</v>
       </c>
@@ -3457,88 +3457,88 @@
         <f>EPILIBRE_Clôtures!D3</f>
         <v>0</v>
       </c>
-      <c r="O45" s="33">
+      <c r="O45" s="34">
         <f t="shared" ref="O45" si="79">N45-N46+M45</f>
         <v>188.14999999999998</v>
       </c>
       <c r="P45" s="6"/>
-      <c r="Q45" s="33">
+      <c r="Q45" s="34">
         <f>P45-P46+O45</f>
         <v>188.14999999999998</v>
       </c>
       <c r="R45" s="6"/>
-      <c r="S45" s="33">
+      <c r="S45" s="34">
         <f t="shared" ref="S45" si="80">R45-R46+Q45</f>
         <v>-1011.85</v>
       </c>
       <c r="T45" s="6">
         <v>1588.28</v>
       </c>
-      <c r="U45" s="46">
+      <c r="U45" s="55">
         <f t="shared" si="75"/>
         <v>-1192.9000000000001</v>
       </c>
     </row>
-    <row r="46" spans="2:21" ht="15.5">
+    <row r="46" spans="2:21">
       <c r="B46" s="9"/>
-      <c r="C46" s="34"/>
+      <c r="C46" s="37"/>
       <c r="D46" s="7"/>
-      <c r="E46" s="33"/>
+      <c r="E46" s="34"/>
       <c r="F46" s="7"/>
-      <c r="G46" s="33"/>
+      <c r="G46" s="34"/>
       <c r="H46" s="7">
         <v>1500</v>
       </c>
-      <c r="I46" s="33"/>
+      <c r="I46" s="34"/>
       <c r="J46" s="7">
         <f>EPILIBRE_Clôtures!B6</f>
         <v>0</v>
       </c>
-      <c r="K46" s="33"/>
+      <c r="K46" s="34"/>
       <c r="L46" s="7">
         <f>EPILIBRE_Clôtures!C6</f>
         <v>0</v>
       </c>
-      <c r="M46" s="33"/>
+      <c r="M46" s="34"/>
       <c r="N46" s="7">
         <f>EPILIBRE_Clôtures!D6</f>
         <v>0</v>
       </c>
-      <c r="O46" s="33"/>
+      <c r="O46" s="34"/>
       <c r="P46" s="7">
         <f>F45</f>
         <v>0</v>
       </c>
-      <c r="Q46" s="33"/>
+      <c r="Q46" s="34"/>
       <c r="R46" s="7">
         <f>H45</f>
         <v>1200</v>
       </c>
-      <c r="S46" s="33"/>
+      <c r="S46" s="34"/>
       <c r="T46" s="7">
         <v>1769.33</v>
       </c>
-      <c r="U46" s="46"/>
-    </row>
-    <row r="47" spans="2:21" ht="15.5">
+      <c r="U46" s="55"/>
+    </row>
+    <row r="47" spans="2:21">
       <c r="B47" s="9"/>
-      <c r="C47" s="34" t="s">
+      <c r="C47" s="37" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="6"/>
-      <c r="E47" s="33">
+      <c r="E47" s="34">
         <f>D47-D48</f>
         <v>0</v>
       </c>
       <c r="F47" s="6"/>
-      <c r="G47" s="33">
+      <c r="G47" s="34">
         <f t="shared" ref="G47" si="81">F47-F48+E47</f>
         <v>0</v>
       </c>
       <c r="H47" s="6">
         <v>0</v>
       </c>
-      <c r="I47" s="33">
+      <c r="I47" s="34">
         <f t="shared" ref="I47" si="82">H47-H48+G47</f>
         <v>-300</v>
       </c>
@@ -3546,7 +3546,7 @@
         <f>IE_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K47" s="33">
+      <c r="K47" s="34">
         <f t="shared" ref="K47" si="83">J47-J48+I47</f>
         <v>-300</v>
       </c>
@@ -3554,7 +3554,7 @@
         <f>IE_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M47" s="33">
+      <c r="M47" s="34">
         <f t="shared" ref="M47" si="84">L47-L48+K47</f>
         <v>-300</v>
       </c>
@@ -3562,86 +3562,86 @@
         <f>IE_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O47" s="33">
+      <c r="O47" s="34">
         <f t="shared" ref="O47" si="85">N47-N48+M47</f>
         <v>-300</v>
       </c>
       <c r="P47" s="6"/>
-      <c r="Q47" s="33">
+      <c r="Q47" s="34">
         <f>P47-P48+O47</f>
         <v>-300</v>
       </c>
       <c r="R47" s="6"/>
-      <c r="S47" s="33">
+      <c r="S47" s="34">
         <f t="shared" ref="S47" si="86">R47-R48+Q47</f>
         <v>-300</v>
       </c>
       <c r="T47" s="6">
         <v>71.709999999999994</v>
       </c>
-      <c r="U47" s="33">
+      <c r="U47" s="34">
         <f t="shared" ref="U47" si="87">T47-T48+S47</f>
         <v>-228.29000000000002</v>
       </c>
     </row>
-    <row r="48" spans="2:21" ht="15.5">
+    <row r="48" spans="2:21">
       <c r="B48" s="9"/>
-      <c r="C48" s="34"/>
+      <c r="C48" s="37"/>
       <c r="D48" s="7"/>
-      <c r="E48" s="33"/>
+      <c r="E48" s="34"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="33"/>
+      <c r="G48" s="34"/>
       <c r="H48" s="7">
         <v>300</v>
       </c>
-      <c r="I48" s="33"/>
+      <c r="I48" s="34"/>
       <c r="J48" s="7">
         <f>IE_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K48" s="33"/>
+      <c r="K48" s="34"/>
       <c r="L48" s="7">
         <f>IE_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M48" s="33"/>
+      <c r="M48" s="34"/>
       <c r="N48" s="7">
         <f>IE_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O48" s="33"/>
+      <c r="O48" s="34"/>
       <c r="P48" s="7">
         <f>F47</f>
         <v>0</v>
       </c>
-      <c r="Q48" s="33"/>
+      <c r="Q48" s="34"/>
       <c r="R48" s="7">
         <f>H47</f>
         <v>0</v>
       </c>
-      <c r="S48" s="33"/>
+      <c r="S48" s="34"/>
       <c r="T48" s="7"/>
-      <c r="U48" s="33"/>
-    </row>
-    <row r="49" spans="2:21" ht="15.5">
+      <c r="U48" s="34"/>
+    </row>
+    <row r="49" spans="2:21">
       <c r="B49" s="9"/>
-      <c r="C49" s="34" t="s">
+      <c r="C49" s="37" t="s">
         <v>29</v>
       </c>
       <c r="D49" s="6"/>
-      <c r="E49" s="33">
+      <c r="E49" s="34">
         <f>D49-D50</f>
         <v>0</v>
       </c>
       <c r="F49" s="6"/>
-      <c r="G49" s="33">
+      <c r="G49" s="34">
         <f t="shared" ref="G49" si="88">F49-F50+E49</f>
         <v>0</v>
       </c>
       <c r="H49" s="6">
         <v>8000</v>
       </c>
-      <c r="I49" s="33">
+      <c r="I49" s="34">
         <f t="shared" ref="I49" si="89">H49-H50+G49</f>
         <v>-2000</v>
       </c>
@@ -3649,7 +3649,7 @@
         <f>LOWTECH_Clôtures!$B$3</f>
         <v>292.47000000000003</v>
       </c>
-      <c r="K49" s="33">
+      <c r="K49" s="34">
         <f t="shared" ref="K49" si="90">J49-J50+I49</f>
         <v>-1721.78</v>
       </c>
@@ -3657,7 +3657,7 @@
         <f>LOWTECH_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M49" s="33">
+      <c r="M49" s="34">
         <f t="shared" ref="M49" si="91">L49-L50+K49</f>
         <v>-1721.78</v>
       </c>
@@ -3665,88 +3665,88 @@
         <f>LOWTECH_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O49" s="33">
+      <c r="O49" s="34">
         <f t="shared" ref="O49" si="92">N49-N50+M49</f>
         <v>-1721.78</v>
       </c>
       <c r="P49" s="6"/>
-      <c r="Q49" s="33">
+      <c r="Q49" s="34">
         <f>P49-P50+O49</f>
         <v>-1721.78</v>
       </c>
       <c r="R49" s="6"/>
-      <c r="S49" s="33">
+      <c r="S49" s="34">
         <f t="shared" ref="S49" si="93">R49-R50+Q49</f>
         <v>-9721.7800000000007</v>
       </c>
       <c r="T49" s="6">
         <v>292.47000000000003</v>
       </c>
-      <c r="U49" s="33">
+      <c r="U49" s="34">
         <f t="shared" ref="U49" si="94">T49-T50+S49</f>
         <v>-9711.7100000000009</v>
       </c>
     </row>
-    <row r="50" spans="2:21" ht="15.5">
+    <row r="50" spans="2:21">
       <c r="B50" s="9"/>
-      <c r="C50" s="34"/>
+      <c r="C50" s="37"/>
       <c r="D50" s="7"/>
-      <c r="E50" s="33"/>
+      <c r="E50" s="34"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="33"/>
+      <c r="G50" s="34"/>
       <c r="H50" s="7">
         <v>10000</v>
       </c>
-      <c r="I50" s="33"/>
+      <c r="I50" s="34"/>
       <c r="J50" s="7">
         <f>LOWTECH_Clôtures!$B$5</f>
         <v>14.25</v>
       </c>
-      <c r="K50" s="33"/>
+      <c r="K50" s="34"/>
       <c r="L50" s="7">
         <f>LOWTECH_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M50" s="33"/>
+      <c r="M50" s="34"/>
       <c r="N50" s="7">
         <f>LOWTECH_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O50" s="33"/>
+      <c r="O50" s="34"/>
       <c r="P50" s="7">
         <f>F49</f>
         <v>0</v>
       </c>
-      <c r="Q50" s="33"/>
+      <c r="Q50" s="34"/>
       <c r="R50" s="7">
         <f>H49</f>
         <v>8000</v>
       </c>
-      <c r="S50" s="33"/>
+      <c r="S50" s="34"/>
       <c r="T50" s="7">
         <v>282.39999999999998</v>
       </c>
-      <c r="U50" s="33"/>
-    </row>
-    <row r="51" spans="2:21" ht="15.5">
+      <c r="U50" s="34"/>
+    </row>
+    <row r="51" spans="2:21">
       <c r="B51" s="9"/>
-      <c r="C51" s="34" t="s">
+      <c r="C51" s="37" t="s">
         <v>24</v>
       </c>
       <c r="D51" s="6"/>
-      <c r="E51" s="33">
+      <c r="E51" s="34">
         <f>D51-D52</f>
         <v>0</v>
       </c>
       <c r="F51" s="6"/>
-      <c r="G51" s="33">
+      <c r="G51" s="34">
         <f t="shared" ref="G51" si="95">F51-F52+E51</f>
         <v>0</v>
       </c>
       <c r="H51" s="6">
         <v>0</v>
       </c>
-      <c r="I51" s="33">
+      <c r="I51" s="34">
         <f t="shared" ref="I51" si="96">H51-H52+G51</f>
         <v>-1050</v>
       </c>
@@ -3754,7 +3754,7 @@
         <f>JARDIN_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="33">
+      <c r="K51" s="34">
         <f t="shared" ref="K51" si="97">J51-J52+I51</f>
         <v>-1100</v>
       </c>
@@ -3762,7 +3762,7 @@
         <f>JARDIN_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M51" s="33">
+      <c r="M51" s="34">
         <f t="shared" ref="M51" si="98">L51-L52+K51</f>
         <v>-1100</v>
       </c>
@@ -3770,88 +3770,88 @@
         <f>JARDIN_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O51" s="33">
+      <c r="O51" s="34">
         <f t="shared" ref="O51" si="99">N51-N52+M51</f>
         <v>-1100</v>
       </c>
       <c r="P51" s="6"/>
-      <c r="Q51" s="33">
+      <c r="Q51" s="34">
         <f>P51-P52+O51</f>
         <v>-1100</v>
       </c>
       <c r="R51" s="6"/>
-      <c r="S51" s="33">
+      <c r="S51" s="34">
         <f t="shared" ref="S51" si="100">R51-R52+Q51</f>
         <v>-1100</v>
       </c>
       <c r="T51" s="6">
         <v>1022.8</v>
       </c>
-      <c r="U51" s="33">
+      <c r="U51" s="34">
         <f t="shared" ref="U51" si="101">T51-T52+S51</f>
         <v>-289.20000000000005</v>
       </c>
     </row>
-    <row r="52" spans="2:21" ht="15.5">
+    <row r="52" spans="2:21">
       <c r="B52" s="9"/>
-      <c r="C52" s="34"/>
+      <c r="C52" s="37"/>
       <c r="D52" s="7"/>
-      <c r="E52" s="33"/>
+      <c r="E52" s="34"/>
       <c r="F52" s="7"/>
-      <c r="G52" s="33"/>
+      <c r="G52" s="34"/>
       <c r="H52" s="7">
         <v>1050</v>
       </c>
-      <c r="I52" s="33"/>
+      <c r="I52" s="34"/>
       <c r="J52" s="7">
         <f>JARDIN_Clôtures!$B$5</f>
         <v>50</v>
       </c>
-      <c r="K52" s="33"/>
+      <c r="K52" s="34"/>
       <c r="L52" s="7">
         <f>JARDIN_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M52" s="33"/>
+      <c r="M52" s="34"/>
       <c r="N52" s="7">
         <f>JARDIN_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O52" s="33"/>
+      <c r="O52" s="34"/>
       <c r="P52" s="7">
         <f>F51</f>
         <v>0</v>
       </c>
-      <c r="Q52" s="33"/>
+      <c r="Q52" s="34"/>
       <c r="R52" s="7">
         <f>H51</f>
         <v>0</v>
       </c>
-      <c r="S52" s="33"/>
+      <c r="S52" s="34"/>
       <c r="T52" s="7">
         <v>212</v>
       </c>
-      <c r="U52" s="33"/>
-    </row>
-    <row r="53" spans="2:21" ht="15.5">
+      <c r="U52" s="34"/>
+    </row>
+    <row r="53" spans="2:21">
       <c r="B53" s="9"/>
-      <c r="C53" s="34" t="s">
+      <c r="C53" s="37" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="6"/>
-      <c r="E53" s="33">
+      <c r="E53" s="34">
         <f>D53-D54</f>
         <v>0</v>
       </c>
       <c r="F53" s="6"/>
-      <c r="G53" s="33">
+      <c r="G53" s="34">
         <f t="shared" ref="G53" si="102">F53-F54+E53</f>
         <v>0</v>
       </c>
       <c r="H53" s="6">
         <v>0</v>
       </c>
-      <c r="I53" s="33">
+      <c r="I53" s="34">
         <f t="shared" ref="I53" si="103">H53-H54+G53</f>
         <v>-180</v>
       </c>
@@ -3859,98 +3859,98 @@
         <f>MEUBLE_Clôtures!$B$2</f>
         <v>2061.25</v>
       </c>
-      <c r="K53" s="33">
+      <c r="K53" s="34">
         <f t="shared" ref="K53" si="104">J53-J54+I53</f>
         <v>1116.4299999999998</v>
       </c>
       <c r="L53" s="6">
         <v>0</v>
       </c>
-      <c r="M53" s="33">
+      <c r="M53" s="34">
         <f t="shared" ref="M53" si="105">L53-L54+K53</f>
         <v>1116.4299999999998</v>
       </c>
       <c r="N53" s="6">
         <v>0</v>
       </c>
-      <c r="O53" s="33">
+      <c r="O53" s="34">
         <f t="shared" ref="O53" si="106">N53-N54+M53</f>
         <v>1116.4299999999998</v>
       </c>
       <c r="P53" s="6"/>
-      <c r="Q53" s="33">
+      <c r="Q53" s="34">
         <f>P53-P54+O53</f>
         <v>1116.4299999999998</v>
       </c>
       <c r="R53" s="6"/>
-      <c r="S53" s="33">
+      <c r="S53" s="34">
         <f t="shared" ref="S53" si="107">R53-R54+Q53</f>
         <v>1116.4299999999998</v>
       </c>
       <c r="T53" s="6">
         <v>1456.25</v>
       </c>
-      <c r="U53" s="33">
+      <c r="U53" s="34">
         <f t="shared" ref="U53" si="108">T53-T54+S53</f>
         <v>2572.6799999999998</v>
       </c>
     </row>
-    <row r="54" spans="2:21" ht="15.5">
+    <row r="54" spans="2:21">
       <c r="B54" s="9"/>
-      <c r="C54" s="34"/>
+      <c r="C54" s="37"/>
       <c r="D54" s="7"/>
-      <c r="E54" s="33"/>
+      <c r="E54" s="34"/>
       <c r="F54" s="7"/>
-      <c r="G54" s="33"/>
+      <c r="G54" s="34"/>
       <c r="H54" s="7">
         <v>180</v>
       </c>
-      <c r="I54" s="33"/>
+      <c r="I54" s="34"/>
       <c r="J54" s="7">
         <f>MEUBLE_Clôtures!$B$5</f>
         <v>764.82</v>
       </c>
-      <c r="K54" s="33"/>
+      <c r="K54" s="34"/>
       <c r="L54" s="7">
         <f>MEUBLE_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M54" s="33"/>
+      <c r="M54" s="34"/>
       <c r="N54" s="7">
         <f>MEUBLE_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O54" s="33"/>
+      <c r="O54" s="34"/>
       <c r="P54" s="7">
         <f>F53</f>
         <v>0</v>
       </c>
-      <c r="Q54" s="33"/>
+      <c r="Q54" s="34"/>
       <c r="R54" s="7">
         <f>H53</f>
         <v>0</v>
       </c>
-      <c r="S54" s="33"/>
+      <c r="S54" s="34"/>
       <c r="T54" s="7"/>
-      <c r="U54" s="33"/>
-    </row>
-    <row r="55" spans="2:21" ht="15.5">
+      <c r="U54" s="34"/>
+    </row>
+    <row r="55" spans="2:21">
       <c r="B55" s="9"/>
-      <c r="C55" s="34"/>
+      <c r="C55" s="37"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="33">
+      <c r="E55" s="34">
         <f>D55-D56</f>
         <v>0</v>
       </c>
       <c r="F55" s="6"/>
-      <c r="G55" s="33">
+      <c r="G55" s="34">
         <f t="shared" ref="G55" si="109">F55-F56+E55</f>
         <v>0</v>
       </c>
       <c r="H55" s="6">
         <v>1630</v>
       </c>
-      <c r="I55" s="33">
+      <c r="I55" s="34">
         <f t="shared" ref="I55" si="110">H55-H56+G55</f>
         <v>-310</v>
       </c>
@@ -3958,7 +3958,7 @@
         <f>MEUBLE_Clôtures!$B$3</f>
         <v>1788.71</v>
       </c>
-      <c r="K55" s="33">
+      <c r="K55" s="34">
         <f>J55-J56+I55</f>
         <v>1478.71</v>
       </c>
@@ -3966,7 +3966,7 @@
         <f>MEUBLE_Clôtures!$C$2</f>
         <v>0</v>
       </c>
-      <c r="M55" s="33">
+      <c r="M55" s="34">
         <f t="shared" ref="M55" si="111">L55-L56+K55</f>
         <v>1478.71</v>
       </c>
@@ -3974,95 +3974,95 @@
         <f>MEUBLE_Clôtures!$D$2</f>
         <v>0</v>
       </c>
-      <c r="O55" s="33">
+      <c r="O55" s="34">
         <f t="shared" ref="O55" si="112">N55-N56+M55</f>
         <v>1478.71</v>
       </c>
       <c r="P55" s="6"/>
-      <c r="Q55" s="33">
+      <c r="Q55" s="34">
         <f>P55-P56+O55</f>
         <v>1478.71</v>
       </c>
       <c r="R55" s="6"/>
-      <c r="S55" s="33">
+      <c r="S55" s="34">
         <f t="shared" ref="S55" si="113">R55-R56+Q55</f>
         <v>-151.28999999999996</v>
       </c>
       <c r="T55" s="6">
         <v>1545</v>
       </c>
-      <c r="U55" s="33">
+      <c r="U55" s="34">
         <f t="shared" ref="U55" si="114">T55-T56+S55</f>
         <v>764.51</v>
       </c>
     </row>
-    <row r="56" spans="2:21" ht="15.5">
+    <row r="56" spans="2:21">
       <c r="B56" s="9"/>
-      <c r="C56" s="34"/>
+      <c r="C56" s="37"/>
       <c r="D56" s="7"/>
-      <c r="E56" s="33"/>
+      <c r="E56" s="34"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="33"/>
+      <c r="G56" s="34"/>
       <c r="H56" s="7">
         <v>1940</v>
       </c>
-      <c r="I56" s="33"/>
+      <c r="I56" s="34"/>
       <c r="J56" s="7">
         <f>MEUBLE_Clôtures!$B$6</f>
         <v>0</v>
       </c>
-      <c r="K56" s="33"/>
+      <c r="K56" s="34"/>
       <c r="L56" s="7">
         <f>MEUBLE_Clôtures!$C$6</f>
         <v>0</v>
       </c>
-      <c r="M56" s="33"/>
+      <c r="M56" s="34"/>
       <c r="N56" s="7">
         <f>MEUBLE_Clôtures!$D$6</f>
         <v>0</v>
       </c>
-      <c r="O56" s="33"/>
+      <c r="O56" s="34"/>
       <c r="P56" s="7">
         <f>F55</f>
         <v>0</v>
       </c>
-      <c r="Q56" s="33"/>
+      <c r="Q56" s="34"/>
       <c r="R56" s="7">
         <f>H55</f>
         <v>1630</v>
       </c>
-      <c r="S56" s="33"/>
+      <c r="S56" s="34"/>
       <c r="T56" s="7">
         <v>629.20000000000005</v>
       </c>
-      <c r="U56" s="33"/>
-    </row>
-    <row r="57" spans="2:21" ht="15.5">
+      <c r="U56" s="34"/>
+    </row>
+    <row r="57" spans="2:21">
       <c r="B57" s="9"/>
-      <c r="C57" s="34" t="s">
+      <c r="C57" s="37" t="s">
         <v>26</v>
       </c>
       <c r="D57" s="6"/>
-      <c r="E57" s="33">
+      <c r="E57" s="34">
         <f>D57-D58</f>
         <v>0</v>
       </c>
       <c r="F57" s="6"/>
-      <c r="G57" s="33">
+      <c r="G57" s="34">
         <f t="shared" ref="G57" si="115">F57-F58+E57</f>
         <v>0</v>
       </c>
       <c r="H57" s="6">
         <v>10000</v>
       </c>
-      <c r="I57" s="33">
+      <c r="I57" s="34">
         <f t="shared" ref="I57" si="116">H57-H58+G57</f>
         <v>0</v>
       </c>
       <c r="J57" s="6">
         <v>0</v>
       </c>
-      <c r="K57" s="33">
+      <c r="K57" s="34">
         <f t="shared" ref="K57" si="117">J57-J58+I57</f>
         <v>0</v>
       </c>
@@ -4070,7 +4070,7 @@
         <f>DUDU_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M57" s="33">
+      <c r="M57" s="34">
         <f t="shared" ref="M57" si="118">L57-L58+K57</f>
         <v>0</v>
       </c>
@@ -4078,88 +4078,88 @@
         <f>DUDU_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O57" s="33">
+      <c r="O57" s="34">
         <f t="shared" ref="O57" si="119">N57-N58+M57</f>
         <v>0</v>
       </c>
       <c r="P57" s="6"/>
-      <c r="Q57" s="33">
+      <c r="Q57" s="34">
         <f>P57-P58+O57</f>
         <v>0</v>
       </c>
       <c r="R57" s="6"/>
-      <c r="S57" s="33">
+      <c r="S57" s="34">
         <f t="shared" ref="S57" si="120">R57-R58+Q57</f>
         <v>-10000</v>
       </c>
       <c r="T57" s="6">
         <v>6506.55</v>
       </c>
-      <c r="U57" s="33">
+      <c r="U57" s="34">
         <f t="shared" ref="U57" si="121">T57-T58+S57</f>
         <v>-10000</v>
       </c>
     </row>
-    <row r="58" spans="2:21" ht="15.5">
+    <row r="58" spans="2:21">
       <c r="B58" s="9"/>
-      <c r="C58" s="34"/>
+      <c r="C58" s="37"/>
       <c r="D58" s="7"/>
-      <c r="E58" s="33"/>
+      <c r="E58" s="34"/>
       <c r="F58" s="7"/>
-      <c r="G58" s="33"/>
+      <c r="G58" s="34"/>
       <c r="H58" s="7">
         <v>10000</v>
       </c>
-      <c r="I58" s="33"/>
+      <c r="I58" s="34"/>
       <c r="J58" s="7">
         <f>DUDU_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K58" s="33"/>
+      <c r="K58" s="34"/>
       <c r="L58" s="7">
         <f>DUDU_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M58" s="33"/>
+      <c r="M58" s="34"/>
       <c r="N58" s="7">
         <f>DUDU_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O58" s="33"/>
+      <c r="O58" s="34"/>
       <c r="P58" s="7">
         <f>F57</f>
         <v>0</v>
       </c>
-      <c r="Q58" s="33"/>
+      <c r="Q58" s="34"/>
       <c r="R58" s="7">
         <f>H57</f>
         <v>10000</v>
       </c>
-      <c r="S58" s="33"/>
+      <c r="S58" s="34"/>
       <c r="T58" s="7">
         <v>6506.55</v>
       </c>
-      <c r="U58" s="33"/>
+      <c r="U58" s="34"/>
     </row>
     <row r="59" spans="2:21" ht="15.5" customHeight="1">
       <c r="B59" s="10"/>
-      <c r="C59" s="34" t="s">
+      <c r="C59" s="37" t="s">
         <v>27</v>
       </c>
       <c r="D59" s="6"/>
-      <c r="E59" s="33">
+      <c r="E59" s="34">
         <f>D59-D60</f>
         <v>0</v>
       </c>
       <c r="F59" s="6"/>
-      <c r="G59" s="33">
+      <c r="G59" s="34">
         <f t="shared" ref="G59" si="122">F59-F60+E59</f>
         <v>0</v>
       </c>
       <c r="H59" s="6">
         <v>500</v>
       </c>
-      <c r="I59" s="33">
+      <c r="I59" s="34">
         <f>H59-H60+G59</f>
         <v>-6530</v>
       </c>
@@ -4167,98 +4167,98 @@
         <f>UPFL_Clôtures!$B$2</f>
         <v>1726.53</v>
       </c>
-      <c r="K59" s="33">
+      <c r="K59" s="34">
         <f t="shared" ref="K59" si="123">J59-J60+I59</f>
         <v>-6183.22</v>
       </c>
       <c r="L59" s="6">
         <v>0</v>
       </c>
-      <c r="M59" s="33">
+      <c r="M59" s="34">
         <f t="shared" ref="M59" si="124">L59-L60+K59</f>
         <v>-6183.22</v>
       </c>
       <c r="N59" s="6">
         <v>0</v>
       </c>
-      <c r="O59" s="33">
+      <c r="O59" s="34">
         <f t="shared" ref="O59" si="125">N59-N60+M59</f>
         <v>-6183.22</v>
       </c>
       <c r="P59" s="6"/>
-      <c r="Q59" s="33">
+      <c r="Q59" s="34">
         <f>P59-P60+O59</f>
         <v>-6183.22</v>
       </c>
       <c r="R59" s="6"/>
-      <c r="S59" s="33">
+      <c r="S59" s="34">
         <f>R59-R60+Q59</f>
         <v>-6683.22</v>
       </c>
       <c r="T59" s="6">
         <v>1576.53</v>
       </c>
-      <c r="U59" s="33">
+      <c r="U59" s="34">
         <f t="shared" ref="U59" si="126">T59-T60+S59</f>
         <v>-5106.6900000000005</v>
       </c>
     </row>
     <row r="60" spans="2:21" ht="15.5" customHeight="1">
       <c r="B60" s="10"/>
-      <c r="C60" s="34"/>
+      <c r="C60" s="37"/>
       <c r="D60" s="7"/>
-      <c r="E60" s="33"/>
+      <c r="E60" s="34"/>
       <c r="F60" s="7"/>
-      <c r="G60" s="33"/>
+      <c r="G60" s="34"/>
       <c r="H60" s="7">
         <v>7030</v>
       </c>
-      <c r="I60" s="33"/>
+      <c r="I60" s="34"/>
       <c r="J60" s="7">
         <f>UPFL_Clôtures!$B$5</f>
         <v>1379.75</v>
       </c>
-      <c r="K60" s="33"/>
+      <c r="K60" s="34"/>
       <c r="L60" s="7">
         <f>UPFL_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M60" s="33"/>
+      <c r="M60" s="34"/>
       <c r="N60" s="7">
         <f>UPFL_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O60" s="33"/>
+      <c r="O60" s="34"/>
       <c r="P60" s="7">
         <f>F59</f>
         <v>0</v>
       </c>
-      <c r="Q60" s="33"/>
+      <c r="Q60" s="34"/>
       <c r="R60" s="7">
         <f>H59</f>
         <v>500</v>
       </c>
-      <c r="S60" s="33"/>
+      <c r="S60" s="34"/>
       <c r="T60" s="7"/>
-      <c r="U60" s="33"/>
+      <c r="U60" s="34"/>
     </row>
     <row r="61" spans="2:21" ht="15.5" customHeight="1">
       <c r="B61" s="10"/>
-      <c r="C61" s="34"/>
+      <c r="C61" s="37"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="33">
+      <c r="E61" s="34">
         <f>D61-D62</f>
         <v>0</v>
       </c>
       <c r="F61" s="6"/>
-      <c r="G61" s="33">
+      <c r="G61" s="34">
         <f>F61-F62+E61</f>
         <v>0</v>
       </c>
       <c r="H61" s="6">
         <v>2600</v>
       </c>
-      <c r="I61" s="33">
+      <c r="I61" s="34">
         <f>H61-H62+G61</f>
         <v>2600</v>
       </c>
@@ -4266,7 +4266,7 @@
         <f>UPFL_Clôtures!$B$3</f>
         <v>2498</v>
       </c>
-      <c r="K61" s="33">
+      <c r="K61" s="34">
         <f>J61-J62+I61</f>
         <v>5098</v>
       </c>
@@ -4274,7 +4274,7 @@
         <f>UPFL_Clôtures!$C$2</f>
         <v>0</v>
       </c>
-      <c r="M61" s="33">
+      <c r="M61" s="34">
         <f>L61-L62+K61</f>
         <v>5098</v>
       </c>
@@ -4282,93 +4282,93 @@
         <f>UPFL_Clôtures!$D$2</f>
         <v>0</v>
       </c>
-      <c r="O61" s="33">
+      <c r="O61" s="34">
         <f>N61-N62+M61</f>
         <v>5098</v>
       </c>
       <c r="P61" s="6"/>
-      <c r="Q61" s="33">
+      <c r="Q61" s="34">
         <f>P61-P62+O61</f>
         <v>5098</v>
       </c>
       <c r="R61" s="6"/>
-      <c r="S61" s="33">
+      <c r="S61" s="34">
         <f>R61-R62+Q61</f>
         <v>2498</v>
       </c>
       <c r="T61" s="6"/>
-      <c r="U61" s="33">
+      <c r="U61" s="34">
         <f>T61-T62+S61</f>
         <v>283.32999999999993</v>
       </c>
     </row>
     <row r="62" spans="2:21" ht="15.5" customHeight="1">
       <c r="B62" s="10"/>
-      <c r="C62" s="34"/>
+      <c r="C62" s="37"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="33"/>
+      <c r="E62" s="34"/>
       <c r="F62" s="6"/>
-      <c r="G62" s="33"/>
+      <c r="G62" s="34"/>
       <c r="H62" s="7">
         <v>0</v>
       </c>
-      <c r="I62" s="33"/>
+      <c r="I62" s="34"/>
       <c r="J62" s="7">
         <f>UPFL_Clôtures!$B$6</f>
         <v>0</v>
       </c>
-      <c r="K62" s="33"/>
+      <c r="K62" s="34"/>
       <c r="L62" s="7">
         <f>UPFL_Clôtures!$C$6</f>
         <v>0</v>
       </c>
-      <c r="M62" s="33"/>
+      <c r="M62" s="34"/>
       <c r="N62" s="7">
         <f>UPFL_Clôtures!$D$6</f>
         <v>0</v>
       </c>
-      <c r="O62" s="33"/>
+      <c r="O62" s="34"/>
       <c r="P62" s="7">
         <f>F61</f>
         <v>0</v>
       </c>
-      <c r="Q62" s="33"/>
+      <c r="Q62" s="34"/>
       <c r="R62" s="7">
         <f>H61</f>
         <v>2600</v>
       </c>
-      <c r="S62" s="33"/>
+      <c r="S62" s="34"/>
       <c r="T62" s="7">
         <v>2214.67</v>
       </c>
-      <c r="U62" s="33"/>
-    </row>
-    <row r="63" spans="2:21" ht="15.5">
+      <c r="U62" s="34"/>
+    </row>
+    <row r="63" spans="2:21">
       <c r="B63" s="9"/>
-      <c r="C63" s="34" t="s">
+      <c r="C63" s="37" t="s">
         <v>93</v>
       </c>
       <c r="D63" s="6"/>
-      <c r="E63" s="33">
+      <c r="E63" s="34">
         <f>D63-D64</f>
         <v>0</v>
       </c>
       <c r="F63" s="6"/>
-      <c r="G63" s="33">
+      <c r="G63" s="34">
         <f>F63-F64+E63</f>
         <v>0</v>
       </c>
       <c r="H63" s="6">
         <v>0</v>
       </c>
-      <c r="I63" s="33">
+      <c r="I63" s="34">
         <f>H63-H64+G63</f>
         <v>-2000</v>
       </c>
       <c r="J63" s="6">
         <v>5</v>
       </c>
-      <c r="K63" s="33">
+      <c r="K63" s="34">
         <f>J63-J64+I63</f>
         <v>-2103.16</v>
       </c>
@@ -4376,7 +4376,7 @@
         <f>FNR_Clôtures!$C$2</f>
         <v>0</v>
       </c>
-      <c r="M63" s="33">
+      <c r="M63" s="34">
         <f>L63-L64+K63</f>
         <v>-2103.16</v>
       </c>
@@ -4384,94 +4384,94 @@
         <f>FNR_Clôtures!$D$2</f>
         <v>0</v>
       </c>
-      <c r="O63" s="33">
+      <c r="O63" s="34">
         <f>N63-N64+M63</f>
         <v>-2103.16</v>
       </c>
       <c r="P63" s="6"/>
-      <c r="Q63" s="33">
+      <c r="Q63" s="34">
         <f>P63-P64+O63</f>
         <v>-2103.16</v>
       </c>
       <c r="R63" s="6"/>
-      <c r="S63" s="33">
+      <c r="S63" s="34">
         <f t="shared" ref="S63" si="127">R63-R64+Q63</f>
         <v>-2103.16</v>
       </c>
       <c r="T63" s="6">
         <v>720.75</v>
       </c>
-      <c r="U63" s="33">
+      <c r="U63" s="34">
         <f>T63-T64+S63</f>
         <v>-1457.0099999999998</v>
       </c>
     </row>
-    <row r="64" spans="2:21" ht="15.5">
+    <row r="64" spans="2:21">
       <c r="B64" s="9"/>
-      <c r="C64" s="34"/>
+      <c r="C64" s="37"/>
       <c r="D64" s="7"/>
-      <c r="E64" s="33"/>
+      <c r="E64" s="34"/>
       <c r="F64" s="7"/>
-      <c r="G64" s="33"/>
+      <c r="G64" s="34"/>
       <c r="H64" s="7">
         <v>2000</v>
       </c>
-      <c r="I64" s="33"/>
+      <c r="I64" s="34"/>
       <c r="J64" s="7">
         <v>108.16</v>
       </c>
-      <c r="K64" s="33"/>
+      <c r="K64" s="34"/>
       <c r="L64" s="7">
         <f>FNR_Clôtures!$C$4</f>
         <v>0</v>
       </c>
-      <c r="M64" s="33"/>
+      <c r="M64" s="34"/>
       <c r="N64" s="7">
         <f>FNR_Clôtures!$D$4</f>
         <v>0</v>
       </c>
-      <c r="O64" s="33"/>
+      <c r="O64" s="34"/>
       <c r="P64" s="7">
         <f>F63</f>
         <v>0</v>
       </c>
-      <c r="Q64" s="33"/>
+      <c r="Q64" s="34"/>
       <c r="R64" s="7">
         <f>H63</f>
         <v>0</v>
       </c>
-      <c r="S64" s="33"/>
+      <c r="S64" s="34"/>
       <c r="T64" s="7">
         <v>74.599999999999994</v>
       </c>
-      <c r="U64" s="33"/>
-    </row>
-    <row r="65" spans="2:21" ht="15.5">
+      <c r="U64" s="34"/>
+    </row>
+    <row r="65" spans="2:21">
       <c r="B65" s="9"/>
-      <c r="C65" s="34" t="s">
+      <c r="C65" s="37" t="s">
         <v>88</v>
       </c>
       <c r="D65" s="6"/>
-      <c r="E65" s="33">
+      <c r="E65" s="34">
         <f>D65-D66</f>
         <v>0</v>
       </c>
       <c r="F65" s="6"/>
-      <c r="G65" s="33">
+      <c r="G65" s="34">
         <f>F65-F66+E65</f>
         <v>0</v>
       </c>
       <c r="H65" s="6">
         <v>0</v>
       </c>
-      <c r="I65" s="33">
+      <c r="I65" s="34">
         <f>H65-H66+G65</f>
         <v>0</v>
       </c>
       <c r="J65" s="6">
         <v>15.1</v>
       </c>
-      <c r="K65" s="33">
+      <c r="K65" s="34">
         <f>J65-J66+I65</f>
         <v>0</v>
       </c>
@@ -4479,7 +4479,7 @@
         <f>REBUILT_Clôtures!$C$2</f>
         <v>0</v>
       </c>
-      <c r="M65" s="33">
+      <c r="M65" s="34">
         <f>L65-L66+K65</f>
         <v>0</v>
       </c>
@@ -4487,145 +4487,448 @@
         <f>REBUILT_Clôtures!$D$2</f>
         <v>0</v>
       </c>
-      <c r="O65" s="33">
+      <c r="O65" s="34">
         <f>N65-N66+M65</f>
         <v>0</v>
       </c>
       <c r="P65" s="6"/>
-      <c r="Q65" s="33">
+      <c r="Q65" s="34">
         <f>P65-P66+O65</f>
         <v>0</v>
       </c>
       <c r="R65" s="6"/>
-      <c r="S65" s="33">
+      <c r="S65" s="34">
         <f t="shared" ref="S65" si="128">R65-R66+Q65</f>
         <v>0</v>
       </c>
       <c r="T65" s="6">
         <v>720.75</v>
       </c>
-      <c r="U65" s="33">
+      <c r="U65" s="34">
         <f>T65-T66+S65</f>
         <v>646.15</v>
       </c>
     </row>
-    <row r="66" spans="2:21" ht="15.5">
+    <row r="66" spans="2:21">
       <c r="B66" s="9"/>
-      <c r="C66" s="35"/>
+      <c r="C66" s="54"/>
       <c r="D66" s="7"/>
-      <c r="E66" s="33"/>
+      <c r="E66" s="34"/>
       <c r="F66" s="7"/>
-      <c r="G66" s="33"/>
+      <c r="G66" s="34"/>
       <c r="H66" s="7">
         <v>0</v>
       </c>
-      <c r="I66" s="42"/>
+      <c r="I66" s="48"/>
       <c r="J66" s="7">
         <v>15.1</v>
       </c>
-      <c r="K66" s="42"/>
+      <c r="K66" s="48"/>
       <c r="L66" s="7">
         <f>REBUILT_Clôtures!$C$4</f>
         <v>0</v>
       </c>
-      <c r="M66" s="33"/>
+      <c r="M66" s="34"/>
       <c r="N66" s="7">
         <f>REBUILT_Clôtures!$D$4</f>
         <v>0</v>
       </c>
-      <c r="O66" s="33"/>
+      <c r="O66" s="34"/>
       <c r="P66" s="7">
         <f>F65</f>
         <v>0</v>
       </c>
-      <c r="Q66" s="33"/>
+      <c r="Q66" s="34"/>
       <c r="R66" s="7">
         <f>H65</f>
         <v>0</v>
       </c>
-      <c r="S66" s="33"/>
+      <c r="S66" s="34"/>
       <c r="T66" s="7">
         <v>74.599999999999994</v>
       </c>
-      <c r="U66" s="33"/>
+      <c r="U66" s="34"/>
     </row>
     <row r="67" spans="2:21" ht="14" customHeight="1">
-      <c r="B67" s="47" t="s">
+      <c r="B67" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C67" s="48"/>
-      <c r="D67" s="36">
+      <c r="C67" s="51"/>
+      <c r="D67" s="35">
         <f>E5+E7+E31</f>
         <v>-3802.4599999999982</v>
       </c>
-      <c r="E67" s="36"/>
-      <c r="F67" s="36">
+      <c r="E67" s="35"/>
+      <c r="F67" s="35">
         <f>G5+G7+G31</f>
         <v>6911.4500000000007</v>
       </c>
-      <c r="G67" s="36"/>
-      <c r="H67" s="36">
+      <c r="G67" s="35"/>
+      <c r="H67" s="35">
         <f>I5+I7+I31</f>
         <v>-27444.55</v>
       </c>
-      <c r="I67" s="36"/>
-      <c r="J67" s="36">
+      <c r="I67" s="35"/>
+      <c r="J67" s="35">
         <f>K5+K7+K31</f>
         <v>-20353.55</v>
       </c>
-      <c r="K67" s="36"/>
-      <c r="L67" s="36">
+      <c r="K67" s="35"/>
+      <c r="L67" s="35">
         <f>M5+M7+M31</f>
-        <v>-20088.43</v>
-      </c>
-      <c r="M67" s="36"/>
-      <c r="N67" s="36">
+        <v>-17240.55</v>
+      </c>
+      <c r="M67" s="35"/>
+      <c r="N67" s="35">
         <f>O5+O7+O31</f>
-        <v>-20088.43</v>
-      </c>
-      <c r="O67" s="36"/>
-      <c r="P67" s="36">
+        <v>-17240.55</v>
+      </c>
+      <c r="O67" s="35"/>
+      <c r="P67" s="35">
         <f>Q5+Q7+Q31</f>
-        <v>-20088.43</v>
-      </c>
-      <c r="Q67" s="36"/>
-      <c r="R67" s="36">
+        <v>-17240.55</v>
+      </c>
+      <c r="Q67" s="35"/>
+      <c r="R67" s="35">
         <f>S5+S7+S31</f>
-        <v>-20088.430000000004</v>
-      </c>
-      <c r="S67" s="36"/>
-      <c r="T67" s="36">
+        <v>-17240.550000000003</v>
+      </c>
+      <c r="S67" s="35"/>
+      <c r="T67" s="35">
         <f>U5+U7+U31</f>
-        <v>-19442.280000000006</v>
-      </c>
-      <c r="U67" s="36"/>
-    </row>
-    <row r="68" spans="2:21" ht="14.4" customHeight="1">
-      <c r="B68" s="49"/>
-      <c r="C68" s="50"/>
-      <c r="D68" s="37"/>
-      <c r="E68" s="37"/>
-      <c r="F68" s="37"/>
-      <c r="G68" s="37"/>
-      <c r="H68" s="37"/>
-      <c r="I68" s="37"/>
-      <c r="J68" s="37"/>
-      <c r="K68" s="37"/>
-      <c r="L68" s="37"/>
-      <c r="M68" s="37"/>
-      <c r="N68" s="37"/>
-      <c r="O68" s="37"/>
-      <c r="P68" s="37"/>
-      <c r="Q68" s="37"/>
-      <c r="R68" s="37"/>
-      <c r="S68" s="37"/>
-      <c r="T68" s="37"/>
-      <c r="U68" s="37"/>
+        <v>-16594.400000000005</v>
+      </c>
+      <c r="U67" s="35"/>
+    </row>
+    <row r="68" spans="2:21" ht="14.5" customHeight="1">
+      <c r="B68" s="52"/>
+      <c r="C68" s="53"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="36"/>
+      <c r="K68" s="36"/>
+      <c r="L68" s="36"/>
+      <c r="M68" s="36"/>
+      <c r="N68" s="36"/>
+      <c r="O68" s="36"/>
+      <c r="P68" s="36"/>
+      <c r="Q68" s="36"/>
+      <c r="R68" s="36"/>
+      <c r="S68" s="36"/>
+      <c r="T68" s="36"/>
+      <c r="U68" s="36"/>
     </row>
     <row r="69" spans="2:21"/>
     <row r="70" spans="2:21"/>
   </sheetData>
   <mergeCells count="327">
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="O63:O64"/>
+    <mergeCell ref="S63:S64"/>
+    <mergeCell ref="U63:U64"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="Q63:Q64"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="O61:O62"/>
+    <mergeCell ref="U61:U62"/>
+    <mergeCell ref="U49:U50"/>
+    <mergeCell ref="U47:U48"/>
+    <mergeCell ref="U51:U52"/>
+    <mergeCell ref="U53:U54"/>
+    <mergeCell ref="U55:U56"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="Q65:Q66"/>
+    <mergeCell ref="S65:S66"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="S29:S30"/>
+    <mergeCell ref="Q51:Q52"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="R67:S68"/>
+    <mergeCell ref="D2:U2"/>
+    <mergeCell ref="S43:S44"/>
+    <mergeCell ref="S45:S46"/>
+    <mergeCell ref="S47:S48"/>
+    <mergeCell ref="S49:S50"/>
+    <mergeCell ref="S51:S52"/>
+    <mergeCell ref="S53:S54"/>
+    <mergeCell ref="S55:S56"/>
+    <mergeCell ref="S57:S58"/>
+    <mergeCell ref="S59:S60"/>
+    <mergeCell ref="S21:S22"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="S31:S32"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="S37:S38"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="U29:U30"/>
+    <mergeCell ref="U65:U66"/>
+    <mergeCell ref="P67:Q68"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="Q47:Q48"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="Q31:Q32"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="Q37:Q38"/>
+    <mergeCell ref="Q39:Q40"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="D67:E68"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="U57:U58"/>
+    <mergeCell ref="U59:U60"/>
+    <mergeCell ref="O59:O60"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="O57:O58"/>
+    <mergeCell ref="Q53:Q54"/>
+    <mergeCell ref="Q55:Q56"/>
+    <mergeCell ref="Q57:Q58"/>
+    <mergeCell ref="Q59:Q60"/>
+    <mergeCell ref="Q61:Q62"/>
+    <mergeCell ref="S61:S62"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="U31:U32"/>
+    <mergeCell ref="U33:U34"/>
+    <mergeCell ref="U35:U36"/>
+    <mergeCell ref="U37:U38"/>
+    <mergeCell ref="U41:U42"/>
+    <mergeCell ref="U43:U44"/>
+    <mergeCell ref="U45:U46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="S39:S40"/>
+    <mergeCell ref="S41:S42"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="M61:M62"/>
+    <mergeCell ref="M57:M58"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="B67:C68"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="J67:K68"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="H67:I68"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="L67:M68"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="F67:G68"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="U21:U22"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B31:C32"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C41:C42"/>
     <mergeCell ref="K31:K32"/>
     <mergeCell ref="K27:K28"/>
     <mergeCell ref="K25:K26"/>
@@ -4650,309 +4953,6 @@
     <mergeCell ref="K55:K56"/>
     <mergeCell ref="K47:K48"/>
     <mergeCell ref="M25:M26"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B31:C32"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="U21:U22"/>
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="M61:M62"/>
-    <mergeCell ref="M57:M58"/>
-    <mergeCell ref="M59:M60"/>
-    <mergeCell ref="B67:C68"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="J67:K68"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="H67:I68"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="L67:M68"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="F67:G68"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="Q61:Q62"/>
-    <mergeCell ref="S61:S62"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="U31:U32"/>
-    <mergeCell ref="U33:U34"/>
-    <mergeCell ref="U35:U36"/>
-    <mergeCell ref="U37:U38"/>
-    <mergeCell ref="U41:U42"/>
-    <mergeCell ref="U43:U44"/>
-    <mergeCell ref="U45:U46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="S39:S40"/>
-    <mergeCell ref="S41:S42"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="U57:U58"/>
-    <mergeCell ref="U59:U60"/>
-    <mergeCell ref="O59:O60"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="O57:O58"/>
-    <mergeCell ref="Q53:Q54"/>
-    <mergeCell ref="Q55:Q56"/>
-    <mergeCell ref="Q57:Q58"/>
-    <mergeCell ref="Q59:Q60"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="D67:E68"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="Q47:Q48"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="Q31:Q32"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="Q37:Q38"/>
-    <mergeCell ref="Q39:Q40"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R67:S68"/>
-    <mergeCell ref="D2:U2"/>
-    <mergeCell ref="S43:S44"/>
-    <mergeCell ref="S45:S46"/>
-    <mergeCell ref="S47:S48"/>
-    <mergeCell ref="S49:S50"/>
-    <mergeCell ref="S51:S52"/>
-    <mergeCell ref="S53:S54"/>
-    <mergeCell ref="S55:S56"/>
-    <mergeCell ref="S57:S58"/>
-    <mergeCell ref="S59:S60"/>
-    <mergeCell ref="S21:S22"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="S27:S28"/>
-    <mergeCell ref="S31:S32"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="S35:S36"/>
-    <mergeCell ref="S37:S38"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="U29:U30"/>
-    <mergeCell ref="U65:U66"/>
-    <mergeCell ref="P67:Q68"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="O65:O66"/>
-    <mergeCell ref="Q65:Q66"/>
-    <mergeCell ref="S65:S66"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="S29:S30"/>
-    <mergeCell ref="Q51:Q52"/>
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="O63:O64"/>
-    <mergeCell ref="S63:S64"/>
-    <mergeCell ref="U63:U64"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="Q63:Q64"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="O61:O62"/>
-    <mergeCell ref="U61:U62"/>
-    <mergeCell ref="U49:U50"/>
-    <mergeCell ref="U47:U48"/>
-    <mergeCell ref="U51:U52"/>
-    <mergeCell ref="U53:U54"/>
-    <mergeCell ref="U55:U56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4967,12 +4967,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5">
+    <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
         <v>69</v>
       </c>
@@ -5009,7 +5009,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7" ht="15.5">
+    <row r="3" spans="1:7">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -5032,7 +5032,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="15.5">
+    <row r="4" spans="1:7">
       <c r="A4" s="12" t="s">
         <v>70</v>
       </c>
@@ -5052,7 +5052,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7">
       <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
@@ -5094,15 +5094,15 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.08984375" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5">
+    <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
         <v>67</v>
       </c>
@@ -5127,19 +5127,19 @@
         <v>564.83000000000004</v>
       </c>
       <c r="C2" s="18">
-        <v>0</v>
+        <v>845</v>
       </c>
       <c r="D2" s="18">
         <v>0</v>
       </c>
       <c r="E2" s="20">
         <f>SUM(B2:D2)</f>
-        <v>564.83000000000004</v>
+        <v>1409.83</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7" ht="15.5">
+    <row r="3" spans="1:7">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -5149,7 +5149,7 @@
       </c>
       <c r="C3" s="19">
         <f>SUM(C2:C2)</f>
-        <v>0</v>
+        <v>845</v>
       </c>
       <c r="D3" s="19">
         <f>SUM(D2:D2)</f>
@@ -5157,12 +5157,12 @@
       </c>
       <c r="E3" s="19">
         <f>SUM(E2:E2)</f>
-        <v>564.83000000000004</v>
+        <v>1409.83</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="15.5">
+    <row r="4" spans="1:7">
       <c r="A4" s="12" t="s">
         <v>66</v>
       </c>
@@ -5170,19 +5170,17 @@
         <v>564.83000000000004</v>
       </c>
       <c r="C4" s="18">
-        <v>0</v>
-      </c>
-      <c r="D4" s="18">
-        <v>0</v>
-      </c>
+        <v>845.01</v>
+      </c>
+      <c r="D4" s="18"/>
       <c r="E4" s="20">
         <f>SUM(B4:D4)</f>
-        <v>564.83000000000004</v>
+        <v>1409.8400000000001</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7">
       <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
@@ -5192,7 +5190,7 @@
       </c>
       <c r="C5" s="21">
         <f>SUM(C4:C4)</f>
-        <v>0</v>
+        <v>845.01</v>
       </c>
       <c r="D5" s="21">
         <f>SUM(D4:D4)</f>
@@ -5200,7 +5198,7 @@
       </c>
       <c r="E5" s="21">
         <f>SUM(E4:E4)</f>
-        <v>564.83000000000004</v>
+        <v>1409.8400000000001</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
@@ -5272,15 +5270,15 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.5">
+    <row r="1" spans="1:5">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -5297,7 +5295,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.5">
+    <row r="2" spans="1:5">
       <c r="A2" s="12" t="s">
         <v>91</v>
       </c>
@@ -5315,7 +5313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.5">
+    <row r="3" spans="1:5">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -5336,7 +5334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.5">
+    <row r="4" spans="1:5">
       <c r="A4" s="12" t="s">
         <v>92</v>
       </c>
@@ -5354,7 +5352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.5">
+    <row r="5" spans="1:5">
       <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
@@ -5388,12 +5386,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.08984375" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -5410,7 +5408,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5">
+    <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
         <v>69</v>
       </c>
@@ -5430,7 +5428,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7" ht="15.5">
+    <row r="3" spans="1:7">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -5453,7 +5451,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="15.5">
+    <row r="4" spans="1:7">
       <c r="A4" s="12" t="s">
         <v>70</v>
       </c>
@@ -5473,7 +5471,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7">
       <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
@@ -5566,12 +5564,12 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.08984375" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -5588,7 +5586,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5">
+    <row r="2" spans="1:7">
       <c r="A2" s="26" t="s">
         <v>76</v>
       </c>
@@ -5606,7 +5604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.5">
+    <row r="3" spans="1:7">
       <c r="A3" s="26" t="s">
         <v>77</v>
       </c>
@@ -5626,7 +5624,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="15.5">
+    <row r="4" spans="1:7">
       <c r="A4" s="15" t="s">
         <v>38</v>
       </c>
@@ -5649,7 +5647,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7">
       <c r="A5" s="12" t="s">
         <v>70</v>
       </c>
@@ -5669,7 +5667,7 @@
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:7" ht="15.5">
+    <row r="6" spans="1:7">
       <c r="A6" s="13" t="s">
         <v>37</v>
       </c>
@@ -5762,12 +5760,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.08984375" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -5784,7 +5782,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5">
+    <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
         <v>69</v>
       </c>
@@ -5804,7 +5802,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7" ht="15.5">
+    <row r="3" spans="1:7">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -5827,7 +5825,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="15.5">
+    <row r="4" spans="1:7">
       <c r="A4" s="12" t="s">
         <v>70</v>
       </c>
@@ -5847,7 +5845,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7">
       <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
@@ -5940,12 +5938,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.08984375" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -5962,7 +5960,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5">
+    <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
         <v>69</v>
       </c>
@@ -5982,7 +5980,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7" ht="15.5">
+    <row r="3" spans="1:7">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -6005,7 +6003,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="15.5">
+    <row r="4" spans="1:7">
       <c r="A4" s="12" t="s">
         <v>70</v>
       </c>
@@ -6025,7 +6023,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7">
       <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
@@ -6118,12 +6116,12 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.08984375" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -6140,7 +6138,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5">
+    <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
         <v>69</v>
       </c>
@@ -6160,7 +6158,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7" ht="15.5">
+    <row r="3" spans="1:7">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -6183,7 +6181,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="15.5">
+    <row r="4" spans="1:7">
       <c r="A4" s="12" t="s">
         <v>70</v>
       </c>
@@ -6203,7 +6201,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7">
       <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
@@ -6296,12 +6294,12 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -6318,7 +6316,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5">
+    <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
         <v>78</v>
       </c>
@@ -6336,7 +6334,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.5">
+    <row r="3" spans="1:7">
       <c r="A3" s="12" t="s">
         <v>79</v>
       </c>
@@ -6356,7 +6354,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="15.5">
+    <row r="4" spans="1:7">
       <c r="A4" s="15" t="s">
         <v>38</v>
       </c>
@@ -6379,7 +6377,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7">
       <c r="A5" s="12" t="s">
         <v>75</v>
       </c>
@@ -6399,7 +6397,7 @@
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:7" ht="15.5">
+    <row r="6" spans="1:7">
       <c r="A6" s="12" t="s">
         <v>74</v>
       </c>
@@ -6419,7 +6417,7 @@
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7" ht="15.5">
+    <row r="7" spans="1:7">
       <c r="A7" s="13" t="s">
         <v>37</v>
       </c>
@@ -6512,12 +6510,12 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.08984375" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -6534,7 +6532,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5">
+    <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
         <v>69</v>
       </c>
@@ -6554,7 +6552,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7" ht="15.5">
+    <row r="3" spans="1:7">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -6577,7 +6575,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="15.5">
+    <row r="4" spans="1:7">
       <c r="A4" s="12" t="s">
         <v>70</v>
       </c>
@@ -6597,7 +6595,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7">
       <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
@@ -6690,13 +6688,13 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" style="16"/>
+    <col min="5" max="5" width="11.5" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -6713,7 +6711,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5">
+    <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
         <v>40</v>
       </c>
@@ -6733,7 +6731,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7" ht="15.5">
+    <row r="3" spans="1:7">
       <c r="A3" s="12" t="s">
         <v>41</v>
       </c>
@@ -6753,7 +6751,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="15.5">
+    <row r="4" spans="1:7">
       <c r="A4" s="12" t="s">
         <v>42</v>
       </c>
@@ -6773,7 +6771,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" s="17" customFormat="1" ht="15.5">
+    <row r="5" spans="1:7" s="17" customFormat="1">
       <c r="A5" s="15" t="s">
         <v>38</v>
       </c>
@@ -6796,7 +6794,7 @@
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
     </row>
-    <row r="6" spans="1:7" ht="15.5">
+    <row r="6" spans="1:7">
       <c r="A6" s="12" t="s">
         <v>33</v>
       </c>
@@ -6816,7 +6814,7 @@
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7" ht="15.5">
+    <row r="7" spans="1:7">
       <c r="A7" s="12" t="s">
         <v>35</v>
       </c>
@@ -6836,7 +6834,7 @@
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
     </row>
-    <row r="8" spans="1:7" ht="15.5">
+    <row r="8" spans="1:7">
       <c r="A8" s="12" t="s">
         <v>36</v>
       </c>
@@ -6856,7 +6854,7 @@
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
     </row>
-    <row r="9" spans="1:7" ht="15.5">
+    <row r="9" spans="1:7">
       <c r="A9" s="13" t="s">
         <v>37</v>
       </c>
@@ -6916,12 +6914,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.08984375" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -6938,7 +6936,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5">
+    <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
         <v>69</v>
       </c>
@@ -6958,7 +6956,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7" ht="15.5">
+    <row r="3" spans="1:7">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -6981,7 +6979,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="15.5">
+    <row r="4" spans="1:7">
       <c r="A4" s="12" t="s">
         <v>70</v>
       </c>
@@ -7001,7 +6999,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7">
       <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
@@ -7094,12 +7092,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.08984375" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -7116,7 +7114,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5">
+    <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
         <v>69</v>
       </c>
@@ -7136,7 +7134,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7" ht="15.5">
+    <row r="3" spans="1:7">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -7159,7 +7157,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="15.5">
+    <row r="4" spans="1:7">
       <c r="A4" s="12" t="s">
         <v>70</v>
       </c>
@@ -7179,7 +7177,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7">
       <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
@@ -7272,12 +7270,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.08984375" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -7294,7 +7292,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5">
+    <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
         <v>96</v>
       </c>
@@ -7314,7 +7312,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7" ht="15.5">
+    <row r="3" spans="1:7">
       <c r="A3" s="12" t="s">
         <v>95</v>
       </c>
@@ -7334,7 +7332,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="15.5">
+    <row r="4" spans="1:7">
       <c r="A4" s="15" t="s">
         <v>38</v>
       </c>
@@ -7357,7 +7355,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7">
       <c r="A5" s="12" t="s">
         <v>75</v>
       </c>
@@ -7377,7 +7375,7 @@
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:7" ht="15.5">
+    <row r="6" spans="1:7">
       <c r="A6" s="12" t="s">
         <v>74</v>
       </c>
@@ -7397,7 +7395,7 @@
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7" ht="15.5">
+    <row r="7" spans="1:7">
       <c r="A7" s="13" t="s">
         <v>37</v>
       </c>
@@ -7490,12 +7488,12 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.08984375" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -7512,7 +7510,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5">
+    <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
         <v>69</v>
       </c>
@@ -7532,7 +7530,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7" ht="15.5">
+    <row r="3" spans="1:7">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -7555,7 +7553,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="15.5">
+    <row r="4" spans="1:7">
       <c r="A4" s="12" t="s">
         <v>70</v>
       </c>
@@ -7575,7 +7573,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7">
       <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
@@ -7668,12 +7666,12 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.08984375" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -7690,7 +7688,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5">
+    <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
         <v>96</v>
       </c>
@@ -7710,7 +7708,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7" ht="15.5">
+    <row r="3" spans="1:7">
       <c r="A3" s="12" t="s">
         <v>95</v>
       </c>
@@ -7730,7 +7728,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="15.5">
+    <row r="4" spans="1:7">
       <c r="A4" s="15" t="s">
         <v>38</v>
       </c>
@@ -7753,7 +7751,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7">
       <c r="A5" s="12" t="s">
         <v>75</v>
       </c>
@@ -7773,7 +7771,7 @@
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:7" ht="15.5">
+    <row r="6" spans="1:7">
       <c r="A6" s="12" t="s">
         <v>74</v>
       </c>
@@ -7793,7 +7791,7 @@
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7" ht="15.5">
+    <row r="7" spans="1:7">
       <c r="A7" s="13" t="s">
         <v>37</v>
       </c>
@@ -7886,12 +7884,12 @@
       <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.08984375" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -7908,7 +7906,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5">
+    <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
         <v>69</v>
       </c>
@@ -7928,7 +7926,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7" ht="15.5">
+    <row r="3" spans="1:7">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -7951,7 +7949,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="15.5">
+    <row r="4" spans="1:7">
       <c r="A4" s="12" t="s">
         <v>70</v>
       </c>
@@ -7971,7 +7969,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7">
       <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
@@ -8064,12 +8062,12 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.36328125" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.5">
+    <row r="1" spans="1:5">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -8086,7 +8084,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.5">
+    <row r="2" spans="1:5">
       <c r="A2" s="12" t="s">
         <v>69</v>
       </c>
@@ -8104,7 +8102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.5">
+    <row r="3" spans="1:5">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -8125,7 +8123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.5">
+    <row r="4" spans="1:5">
       <c r="A4" s="12" t="s">
         <v>70</v>
       </c>
@@ -8143,7 +8141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.5">
+    <row r="5" spans="1:5">
       <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
@@ -8177,12 +8175,12 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -8199,7 +8197,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5">
+    <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
         <v>43</v>
       </c>
@@ -8219,7 +8217,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7" ht="15.5">
+    <row r="3" spans="1:7">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -8242,7 +8240,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="15.5">
+    <row r="4" spans="1:7">
       <c r="A4" s="12" t="s">
         <v>44</v>
       </c>
@@ -8262,7 +8260,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7">
       <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
@@ -8335,15 +8333,15 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="53.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.5">
+    <row r="1" spans="1:6">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -8360,7 +8358,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.5">
+    <row r="2" spans="1:6">
       <c r="A2" s="12" t="s">
         <v>45</v>
       </c>
@@ -8379,7 +8377,7 @@
       </c>
       <c r="F2" s="22"/>
     </row>
-    <row r="3" spans="1:6" ht="15.5">
+    <row r="3" spans="1:6">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -8401,7 +8399,7 @@
       </c>
       <c r="F3" s="22"/>
     </row>
-    <row r="4" spans="1:6" ht="15.5">
+    <row r="4" spans="1:6">
       <c r="A4" s="12" t="s">
         <v>46</v>
       </c>
@@ -8409,18 +8407,18 @@
         <v>55.5</v>
       </c>
       <c r="C4" s="25">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D4" s="25">
         <v>0</v>
       </c>
       <c r="E4" s="20">
         <f>SUM(B4:D4)</f>
-        <v>55.5</v>
+        <v>85.5</v>
       </c>
       <c r="F4" s="22"/>
     </row>
-    <row r="5" spans="1:6" ht="15.5">
+    <row r="5" spans="1:6">
       <c r="A5" s="12" t="s">
         <v>85</v>
       </c>
@@ -8428,18 +8426,18 @@
         <v>15.1</v>
       </c>
       <c r="C5" s="25">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D5" s="25">
         <v>0</v>
       </c>
       <c r="E5" s="20">
         <f>SUM(B5:D5)</f>
-        <v>15.1</v>
+        <v>30.1</v>
       </c>
       <c r="F5" s="22"/>
     </row>
-    <row r="6" spans="1:6" ht="15.5">
+    <row r="6" spans="1:6">
       <c r="A6" s="12" t="s">
         <v>86</v>
       </c>
@@ -8447,18 +8445,18 @@
         <v>5</v>
       </c>
       <c r="C6" s="25">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="D6" s="25">
         <v>0</v>
       </c>
       <c r="E6" s="20">
         <f>SUM(B6:D6)</f>
-        <v>5</v>
+        <v>10.3</v>
       </c>
       <c r="F6" s="22"/>
     </row>
-    <row r="7" spans="1:6" ht="15.5">
+    <row r="7" spans="1:6">
       <c r="A7" s="13" t="s">
         <v>37</v>
       </c>
@@ -8468,7 +8466,7 @@
       </c>
       <c r="C7" s="21">
         <f t="shared" ref="C7" si="1">SUM(C4:C6)</f>
-        <v>0</v>
+        <v>50.3</v>
       </c>
       <c r="D7" s="21">
         <f>SUM(D4:D6)</f>
@@ -8476,7 +8474,7 @@
       </c>
       <c r="E7" s="21">
         <f>SUM(E4:E6)</f>
-        <v>75.599999999999994</v>
+        <v>125.89999999999999</v>
       </c>
       <c r="F7" s="22"/>
     </row>
@@ -8505,15 +8503,15 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="47.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -8530,7 +8528,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5">
+    <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
         <v>47</v>
       </c>
@@ -8538,19 +8536,19 @@
         <v>343.02</v>
       </c>
       <c r="C2" s="18">
-        <v>0</v>
+        <v>617.29999999999995</v>
       </c>
       <c r="D2" s="18">
         <v>0</v>
       </c>
       <c r="E2" s="20">
         <f>SUM(B2:D2)</f>
-        <v>343.02</v>
+        <v>960.31999999999994</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7" ht="15.5">
+    <row r="3" spans="1:7">
       <c r="A3" s="12" t="s">
         <v>48</v>
       </c>
@@ -8570,7 +8568,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="15.5">
+    <row r="4" spans="1:7">
       <c r="A4" s="12" t="s">
         <v>49</v>
       </c>
@@ -8590,7 +8588,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7">
       <c r="A5" s="15" t="s">
         <v>38</v>
       </c>
@@ -8600,7 +8598,7 @@
       </c>
       <c r="C5" s="19">
         <f>SUM(C2:C4)</f>
-        <v>0</v>
+        <v>617.29999999999995</v>
       </c>
       <c r="D5" s="19">
         <f>SUM(D2:D4)</f>
@@ -8608,12 +8606,12 @@
       </c>
       <c r="E5" s="19">
         <f>SUM(E2:E4)</f>
-        <v>599.13</v>
+        <v>1216.4299999999998</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:7" ht="15.5">
+    <row r="6" spans="1:7">
       <c r="A6" s="12" t="s">
         <v>50</v>
       </c>
@@ -8621,19 +8619,20 @@
         <v>219.45</v>
       </c>
       <c r="C6" s="18">
-        <v>0</v>
+        <f>161.2+610.7+474.62</f>
+        <v>1246.52</v>
       </c>
       <c r="D6" s="18">
         <v>0</v>
       </c>
       <c r="E6" s="20">
         <f t="shared" ref="E6:E11" si="0">SUM(B6:D6)</f>
-        <v>219.45</v>
+        <v>1465.97</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7" ht="15.5">
+    <row r="7" spans="1:7">
       <c r="A7" s="12" t="s">
         <v>51</v>
       </c>
@@ -8641,19 +8640,19 @@
         <v>97</v>
       </c>
       <c r="C7" s="18">
-        <v>0</v>
+        <v>255.5</v>
       </c>
       <c r="D7" s="18">
         <v>0</v>
       </c>
       <c r="E7" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>255.5</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
     </row>
-    <row r="8" spans="1:7" ht="15.5">
+    <row r="8" spans="1:7">
       <c r="A8" s="12" t="s">
         <v>52</v>
       </c>
@@ -8673,7 +8672,7 @@
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
     </row>
-    <row r="9" spans="1:7" ht="15.5">
+    <row r="9" spans="1:7">
       <c r="A9" s="12" t="s">
         <v>53</v>
       </c>
@@ -8693,7 +8692,7 @@
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
     </row>
-    <row r="10" spans="1:7" ht="15.5">
+    <row r="10" spans="1:7">
       <c r="A10" s="12" t="s">
         <v>54</v>
       </c>
@@ -8713,7 +8712,7 @@
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
     </row>
-    <row r="11" spans="1:7" ht="15.5">
+    <row r="11" spans="1:7">
       <c r="A11" s="12" t="s">
         <v>68</v>
       </c>
@@ -8721,19 +8720,19 @@
         <v>0</v>
       </c>
       <c r="C11" s="18">
-        <v>0</v>
+        <v>146.51</v>
       </c>
       <c r="D11" s="18">
         <v>0</v>
       </c>
       <c r="E11" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>146.51</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
     </row>
-    <row r="12" spans="1:7" ht="15.5">
+    <row r="12" spans="1:7">
       <c r="A12" s="13" t="s">
         <v>37</v>
       </c>
@@ -8743,7 +8742,7 @@
       </c>
       <c r="C12" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1648.53</v>
       </c>
       <c r="D12" s="21">
         <f>SUM(D6:D11)</f>
@@ -8751,7 +8750,7 @@
       </c>
       <c r="E12" s="21">
         <f>SUM(E6:E11)</f>
-        <v>385.31</v>
+        <v>2033.84</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="22"/>
@@ -8764,10 +8763,10 @@
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
     </row>
-    <row r="14" spans="1:7" ht="15.5">
+    <row r="14" spans="1:7">
       <c r="B14" s="18"/>
     </row>
-    <row r="15" spans="1:7" ht="15.5">
+    <row r="15" spans="1:7">
       <c r="D15" s="18"/>
     </row>
   </sheetData>
@@ -8781,15 +8780,15 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -8806,7 +8805,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5">
+    <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
         <v>55</v>
       </c>
@@ -8826,7 +8825,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7" ht="15.5">
+    <row r="3" spans="1:7">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -8849,7 +8848,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="15.5">
+    <row r="4" spans="1:7">
       <c r="A4" s="12" t="s">
         <v>56</v>
       </c>
@@ -8857,19 +8856,19 @@
         <v>2011.4</v>
       </c>
       <c r="C4" s="18">
-        <v>0</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="D4" s="18">
         <v>0</v>
       </c>
       <c r="E4" s="20">
         <f>SUM(B4:D4)</f>
-        <v>2011.4</v>
+        <v>2020.8500000000001</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7">
       <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
@@ -8879,7 +8878,7 @@
       </c>
       <c r="C5" s="21">
         <f>SUM(C4:C4)</f>
-        <v>0</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="D5" s="21">
         <f>SUM(D4:D4)</f>
@@ -8887,7 +8886,7 @@
       </c>
       <c r="E5" s="21">
         <f>SUM(E4:E4)</f>
-        <v>2011.4</v>
+        <v>2020.8500000000001</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
@@ -8950,15 +8949,15 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -8975,7 +8974,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5">
+    <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
         <v>62</v>
       </c>
@@ -8983,19 +8982,19 @@
         <v>736.8</v>
       </c>
       <c r="C2" s="18">
-        <v>0</v>
+        <v>129.87</v>
       </c>
       <c r="D2" s="18">
         <v>0</v>
       </c>
       <c r="E2" s="20">
         <f>SUM(B2:D2)</f>
-        <v>736.8</v>
+        <v>866.67</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7" ht="15.5">
+    <row r="3" spans="1:7">
       <c r="A3" s="12" t="s">
         <v>63</v>
       </c>
@@ -9003,19 +9002,19 @@
         <v>615.64</v>
       </c>
       <c r="C3" s="18">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D3" s="18">
         <v>0</v>
       </c>
       <c r="E3" s="20">
         <f>SUM(B3:D3)</f>
-        <v>615.64</v>
+        <v>650.64</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="15.5">
+    <row r="4" spans="1:7">
       <c r="A4" s="12" t="s">
         <v>64</v>
       </c>
@@ -9023,19 +9022,19 @@
         <v>2120</v>
       </c>
       <c r="C4" s="18">
-        <v>0</v>
+        <v>3865</v>
       </c>
       <c r="D4" s="18">
         <v>0</v>
       </c>
       <c r="E4" s="20">
         <f>SUM(B4:D4)</f>
-        <v>2120</v>
+        <v>5985</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7">
       <c r="A5" s="15" t="s">
         <v>38</v>
       </c>
@@ -9045,7 +9044,7 @@
       </c>
       <c r="C5" s="19">
         <f>SUM(C2:C4)</f>
-        <v>0</v>
+        <v>4029.87</v>
       </c>
       <c r="D5" s="19">
         <f>SUM(D2:D4)</f>
@@ -9053,12 +9052,12 @@
       </c>
       <c r="E5" s="19">
         <f>SUM(E2:E4)</f>
-        <v>3472.44</v>
+        <v>7502.3099999999995</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:7" ht="15.5">
+    <row r="6" spans="1:7">
       <c r="A6" s="12" t="s">
         <v>57</v>
       </c>
@@ -9066,19 +9065,19 @@
         <v>154.19999999999999</v>
       </c>
       <c r="C6" s="18">
-        <v>0</v>
+        <v>34.1</v>
       </c>
       <c r="D6" s="18">
         <v>0</v>
       </c>
       <c r="E6" s="20">
         <f t="shared" ref="E6:E11" si="0">SUM(B6:D6)</f>
-        <v>154.19999999999999</v>
+        <v>188.29999999999998</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7" ht="15.5">
+    <row r="7" spans="1:7">
       <c r="A7" s="12" t="s">
         <v>58</v>
       </c>
@@ -9098,7 +9097,7 @@
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
     </row>
-    <row r="8" spans="1:7" ht="15.5">
+    <row r="8" spans="1:7">
       <c r="A8" s="12" t="s">
         <v>59</v>
       </c>
@@ -9106,19 +9105,19 @@
         <v>303.57</v>
       </c>
       <c r="C8" s="18">
-        <v>0</v>
+        <v>31.5</v>
       </c>
       <c r="D8" s="18">
         <v>0</v>
       </c>
       <c r="E8" s="20">
         <f t="shared" si="0"/>
-        <v>303.57</v>
+        <v>335.07</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
     </row>
-    <row r="9" spans="1:7" ht="15.5">
+    <row r="9" spans="1:7">
       <c r="A9" s="12" t="s">
         <v>60</v>
       </c>
@@ -9138,7 +9137,7 @@
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
     </row>
-    <row r="10" spans="1:7" ht="15.5">
+    <row r="10" spans="1:7">
       <c r="A10" s="12" t="s">
         <v>61</v>
       </c>
@@ -9158,7 +9157,7 @@
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
     </row>
-    <row r="11" spans="1:7" ht="15.5">
+    <row r="11" spans="1:7">
       <c r="A11" s="12" t="s">
         <v>65</v>
       </c>
@@ -9178,7 +9177,7 @@
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
     </row>
-    <row r="12" spans="1:7" ht="15.5">
+    <row r="12" spans="1:7">
       <c r="A12" s="13" t="s">
         <v>37</v>
       </c>
@@ -9188,7 +9187,7 @@
       </c>
       <c r="C12" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="D12" s="21">
         <f>SUM(D6:D11)</f>
@@ -9196,7 +9195,7 @@
       </c>
       <c r="E12" s="21">
         <f>SUM(E6:E11)</f>
-        <v>527.37</v>
+        <v>592.97</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="22"/>
@@ -9244,15 +9243,15 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.5">
+    <row r="1" spans="1:6">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -9269,7 +9268,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.5">
+    <row r="2" spans="1:6">
       <c r="A2" s="12" t="s">
         <v>69</v>
       </c>
@@ -9288,7 +9287,7 @@
       </c>
       <c r="F2" s="22"/>
     </row>
-    <row r="3" spans="1:6" ht="15.5">
+    <row r="3" spans="1:6">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -9310,7 +9309,7 @@
       </c>
       <c r="F3" s="22"/>
     </row>
-    <row r="4" spans="1:6" ht="15.5">
+    <row r="4" spans="1:6">
       <c r="A4" s="12" t="s">
         <v>70</v>
       </c>
@@ -9329,7 +9328,7 @@
       </c>
       <c r="F4" s="22"/>
     </row>
-    <row r="5" spans="1:6" ht="15.5">
+    <row r="5" spans="1:6">
       <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
@@ -9404,15 +9403,15 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.5">
+    <row r="1" spans="1:6">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -9429,7 +9428,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.5">
+    <row r="2" spans="1:6">
       <c r="A2" s="12" t="s">
         <v>69</v>
       </c>
@@ -9448,7 +9447,7 @@
       </c>
       <c r="F2" s="22"/>
     </row>
-    <row r="3" spans="1:6" ht="15.5">
+    <row r="3" spans="1:6">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -9470,7 +9469,7 @@
       </c>
       <c r="F3" s="22"/>
     </row>
-    <row r="4" spans="1:6" ht="15.5">
+    <row r="4" spans="1:6">
       <c r="A4" s="12" t="s">
         <v>71</v>
       </c>
@@ -9489,7 +9488,7 @@
       </c>
       <c r="F4" s="22"/>
     </row>
-    <row r="5" spans="1:6" ht="15.5">
+    <row r="5" spans="1:6">
       <c r="A5" s="12" t="s">
         <v>72</v>
       </c>
@@ -9508,7 +9507,7 @@
       </c>
       <c r="F5" s="22"/>
     </row>
-    <row r="6" spans="1:6" ht="15.5">
+    <row r="6" spans="1:6">
       <c r="A6" s="12" t="s">
         <v>87</v>
       </c>
@@ -9516,18 +9515,18 @@
         <v>235.9</v>
       </c>
       <c r="C6" s="18">
-        <v>0</v>
+        <v>25.4</v>
       </c>
       <c r="D6" s="18">
         <v>0</v>
       </c>
       <c r="E6" s="20">
         <f>SUM(B6:D6)</f>
-        <v>235.9</v>
+        <v>261.3</v>
       </c>
       <c r="F6" s="22"/>
     </row>
-    <row r="7" spans="1:6" ht="15.5">
+    <row r="7" spans="1:6">
       <c r="A7" s="12" t="s">
         <v>73</v>
       </c>
@@ -9546,7 +9545,7 @@
       </c>
       <c r="F7" s="22"/>
     </row>
-    <row r="8" spans="1:6" ht="15.5">
+    <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>37</v>
       </c>
@@ -9556,7 +9555,7 @@
       </c>
       <c r="C8" s="21">
         <f>SUM(C4:C7)</f>
-        <v>0</v>
+        <v>25.4</v>
       </c>
       <c r="D8" s="21">
         <f>SUM(D4:D7)</f>
@@ -9564,7 +9563,7 @@
       </c>
       <c r="E8" s="21">
         <f>SUM(E4:E7)</f>
-        <v>251.70000000000002</v>
+        <v>277.10000000000002</v>
       </c>
       <c r="F8" s="22"/>
     </row>

--- a/2 - Bilans/2022-2023/Unipoly_Bilan_Quadrimestriel_22-23.xlsx
+++ b/2 - Bilans/2022-2023/Unipoly_Bilan_Quadrimestriel_22-23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theodoresavary/Desktop/Unipoly/UPSecretrariat/2 - Bilans/2022-2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B50417-854D-B843-B763-492E45F2E29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BB41D9-DE8C-2045-A0FB-A64A8FCDAAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="779" xr2:uid="{34F8AD7C-3B1E-42A7-8AF2-50C33241ADA4}"/>
   </bookViews>
@@ -1122,9 +1122,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A55C92-786C-4AB3-96FC-7473E4CC0A9B}">
   <dimension ref="A1:Y70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M19" sqref="M19:M20"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M57" sqref="M57:M58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1"/>
@@ -2667,11 +2667,11 @@
       </c>
       <c r="L31" s="8">
         <f>L33+L35+L37+L39+L41+L43+L45+L47+L49+L51+L53+L55+L57+L59+L61+L63+L65</f>
-        <v>0</v>
+        <v>4352.4800000000005</v>
       </c>
       <c r="M31" s="33">
         <f>L31-L32+K31</f>
-        <v>-2211.6800000000003</v>
+        <v>-10000.959999999999</v>
       </c>
       <c r="N31" s="8">
         <f>N33+N35+N37+N39+N41+N43+N45+N47+N49+N51+N53+N55+N57+N59+N61+N63+N65</f>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="O31" s="33">
         <f>N31-N32+M31</f>
-        <v>-2211.6800000000003</v>
+        <v>-10000.959999999999</v>
       </c>
       <c r="P31" s="6">
         <f>P33+P35+P37+P39+P41+P43+P45+P47+P49+P51+P53+P55+P57+P59+P61+P63+P65</f>
@@ -2687,7 +2687,7 @@
       </c>
       <c r="Q31" s="34">
         <f>P31-P32+O31</f>
-        <v>-6618.02</v>
+        <v>-14407.3</v>
       </c>
       <c r="R31" s="6">
         <f>R33+R35+R37+R39+R41+R43+R45+R47+R49+R51+R53+R55+R57+R59+R61+R63+R65</f>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="S31" s="34">
         <f>R31-R32+Q31</f>
-        <v>-34898.020000000004</v>
+        <v>-42687.3</v>
       </c>
       <c r="T31" s="8">
         <f>T33+T35+T37+T39+T41+T43+T45+T47+T49+T51+T53+T55+T57+T59+T61+T63+T65</f>
@@ -2703,7 +2703,7 @@
       </c>
       <c r="U31" s="33">
         <f>T31-T32+S31</f>
-        <v>-29085.700000000004</v>
+        <v>-36874.980000000003</v>
       </c>
     </row>
     <row r="32" spans="2:21">
@@ -2731,7 +2731,7 @@
       <c r="K32" s="34"/>
       <c r="L32" s="7">
         <f>L34+L36+L38+L40+L42+L44+L46+L48+L50+L52+L54+L56+L58+L60+L62+L64+L66</f>
-        <v>0</v>
+        <v>12141.76</v>
       </c>
       <c r="M32" s="34"/>
       <c r="N32" s="7">
@@ -2791,11 +2791,11 @@
       </c>
       <c r="L33" s="6">
         <f>API_Clôtures!$C$3</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="M33" s="34">
         <f t="shared" ref="M33" si="39">L33-L34+K33</f>
-        <v>-998.79</v>
+        <v>-938.79</v>
       </c>
       <c r="N33" s="6">
         <f>API_Clôtures!$D$3</f>
@@ -2803,24 +2803,24 @@
       </c>
       <c r="O33" s="34">
         <f t="shared" ref="O33" si="40">N33-N34+M33</f>
-        <v>-998.79</v>
+        <v>-938.79</v>
       </c>
       <c r="P33" s="6"/>
       <c r="Q33" s="34">
         <f>P33-P34+O33</f>
-        <v>-998.79</v>
+        <v>-938.79</v>
       </c>
       <c r="R33" s="6"/>
       <c r="S33" s="34">
         <f t="shared" ref="S33" si="41">R33-R34+Q33</f>
-        <v>-1148.79</v>
+        <v>-1088.79</v>
       </c>
       <c r="T33" s="6">
         <v>917.79</v>
       </c>
       <c r="U33" s="34">
         <f t="shared" ref="U33" si="42">T33-T34+S33</f>
-        <v>-231</v>
+        <v>-171</v>
       </c>
     </row>
     <row r="34" spans="2:21">
@@ -3019,7 +3019,7 @@
       </c>
       <c r="M37" s="34">
         <f t="shared" ref="M37" si="53">L37-L38+K37</f>
-        <v>4777.0999999999995</v>
+        <v>4702.4399999999996</v>
       </c>
       <c r="N37" s="6">
         <f>CASTOR_Clôtures!$D$3</f>
@@ -3027,24 +3027,24 @@
       </c>
       <c r="O37" s="34">
         <f t="shared" ref="O37" si="54">N37-N38+M37</f>
-        <v>4777.0999999999995</v>
+        <v>4702.4399999999996</v>
       </c>
       <c r="P37" s="6"/>
       <c r="Q37" s="34">
         <f>P37-P38+O37</f>
-        <v>370.75999999999931</v>
+        <v>296.09999999999945</v>
       </c>
       <c r="R37" s="6"/>
       <c r="S37" s="34">
         <f t="shared" ref="S37" si="55">R37-R38+Q37</f>
-        <v>-1229.2400000000007</v>
+        <v>-1303.9000000000005</v>
       </c>
       <c r="T37" s="6">
         <v>1445.73</v>
       </c>
       <c r="U37" s="55">
         <f t="shared" ref="U37" si="56">T37-T38+S37</f>
-        <v>-2162.8000000000006</v>
+        <v>-2237.4600000000005</v>
       </c>
     </row>
     <row r="38" spans="2:21">
@@ -3069,7 +3069,7 @@
       <c r="K38" s="34"/>
       <c r="L38" s="7">
         <f>CASTOR_Clôtures!$C$5</f>
-        <v>0</v>
+        <v>74.66</v>
       </c>
       <c r="M38" s="34"/>
       <c r="N38" s="7">
@@ -3132,7 +3132,7 @@
       </c>
       <c r="M39" s="34">
         <f t="shared" ref="M39" si="60">L39-L40+K39</f>
-        <v>-485.03</v>
+        <v>-500.53</v>
       </c>
       <c r="N39" s="6">
         <f>DEBOUC_Clôtures!$D$3</f>
@@ -3140,24 +3140,24 @@
       </c>
       <c r="O39" s="34">
         <f t="shared" ref="O39" si="61">N39-N40+M39</f>
-        <v>-485.03</v>
+        <v>-500.53</v>
       </c>
       <c r="P39" s="6"/>
       <c r="Q39" s="34">
         <f>P39-P40+O39</f>
-        <v>-485.03</v>
+        <v>-500.53</v>
       </c>
       <c r="R39" s="6"/>
       <c r="S39" s="34">
         <f t="shared" ref="S39" si="62">R39-R40+Q39</f>
-        <v>-485.03</v>
+        <v>-500.53</v>
       </c>
       <c r="T39" s="6">
         <v>128.69999999999999</v>
       </c>
       <c r="U39" s="34">
         <f t="shared" ref="U39" si="63">T39-T40+S39</f>
-        <v>-356.33</v>
+        <v>-371.83</v>
       </c>
     </row>
     <row r="40" spans="2:21">
@@ -3182,7 +3182,7 @@
       <c r="K40" s="34"/>
       <c r="L40" s="7">
         <f>DEBOUC_Clôtures!$C$5</f>
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="M40" s="34"/>
       <c r="N40" s="7">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="M41" s="34">
         <f t="shared" ref="M41" si="66">L41-L42+K41</f>
-        <v>-1236</v>
+        <v>-1764.35</v>
       </c>
       <c r="N41" s="6">
         <f>EVA_Clôtures!$D$3</f>
@@ -3249,24 +3249,24 @@
       </c>
       <c r="O41" s="34">
         <f t="shared" ref="O41" si="67">N41-N42+M41</f>
-        <v>-1236</v>
+        <v>-1764.35</v>
       </c>
       <c r="P41" s="6"/>
       <c r="Q41" s="34">
         <f>P41-P42+O41</f>
-        <v>-1236</v>
+        <v>-1764.35</v>
       </c>
       <c r="R41" s="6"/>
       <c r="S41" s="34">
         <f t="shared" ref="S41" si="68">R41-R42+Q41</f>
-        <v>-1836</v>
+        <v>-2364.35</v>
       </c>
       <c r="T41" s="6">
         <v>81.900000000000006</v>
       </c>
       <c r="U41" s="34">
         <f t="shared" ref="U41" si="69">T41-T42+S41</f>
-        <v>-1869.05</v>
+        <v>-2397.4</v>
       </c>
     </row>
     <row r="42" spans="2:21">
@@ -3289,7 +3289,7 @@
       <c r="K42" s="34"/>
       <c r="L42" s="7">
         <f>EVA_Clôtures!$C$5</f>
-        <v>0</v>
+        <v>528.35</v>
       </c>
       <c r="M42" s="34"/>
       <c r="N42" s="7">
@@ -3764,7 +3764,7 @@
       </c>
       <c r="M51" s="34">
         <f t="shared" ref="M51" si="98">L51-L52+K51</f>
-        <v>-1100</v>
+        <v>-1205.95</v>
       </c>
       <c r="N51" s="6">
         <f>JARDIN_Clôtures!$D$3</f>
@@ -3772,24 +3772,24 @@
       </c>
       <c r="O51" s="34">
         <f t="shared" ref="O51" si="99">N51-N52+M51</f>
-        <v>-1100</v>
+        <v>-1205.95</v>
       </c>
       <c r="P51" s="6"/>
       <c r="Q51" s="34">
         <f>P51-P52+O51</f>
-        <v>-1100</v>
+        <v>-1205.95</v>
       </c>
       <c r="R51" s="6"/>
       <c r="S51" s="34">
         <f t="shared" ref="S51" si="100">R51-R52+Q51</f>
-        <v>-1100</v>
+        <v>-1205.95</v>
       </c>
       <c r="T51" s="6">
         <v>1022.8</v>
       </c>
       <c r="U51" s="34">
         <f t="shared" ref="U51" si="101">T51-T52+S51</f>
-        <v>-289.20000000000005</v>
+        <v>-395.15000000000009</v>
       </c>
     </row>
     <row r="52" spans="2:21">
@@ -3810,7 +3810,7 @@
       <c r="K52" s="34"/>
       <c r="L52" s="7">
         <f>JARDIN_Clôtures!$C$5</f>
-        <v>0</v>
+        <v>105.95</v>
       </c>
       <c r="M52" s="34"/>
       <c r="N52" s="7">
@@ -3868,31 +3868,31 @@
       </c>
       <c r="M53" s="34">
         <f t="shared" ref="M53" si="105">L53-L54+K53</f>
-        <v>1116.4299999999998</v>
+        <v>629.18999999999983</v>
       </c>
       <c r="N53" s="6">
         <v>0</v>
       </c>
       <c r="O53" s="34">
         <f t="shared" ref="O53" si="106">N53-N54+M53</f>
-        <v>1116.4299999999998</v>
+        <v>629.18999999999983</v>
       </c>
       <c r="P53" s="6"/>
       <c r="Q53" s="34">
         <f>P53-P54+O53</f>
-        <v>1116.4299999999998</v>
+        <v>629.18999999999983</v>
       </c>
       <c r="R53" s="6"/>
       <c r="S53" s="34">
         <f t="shared" ref="S53" si="107">R53-R54+Q53</f>
-        <v>1116.4299999999998</v>
+        <v>629.18999999999983</v>
       </c>
       <c r="T53" s="6">
         <v>1456.25</v>
       </c>
       <c r="U53" s="34">
         <f t="shared" ref="U53" si="108">T53-T54+S53</f>
-        <v>2572.6799999999998</v>
+        <v>2085.4399999999996</v>
       </c>
     </row>
     <row r="54" spans="2:21">
@@ -3913,7 +3913,7 @@
       <c r="K54" s="34"/>
       <c r="L54" s="7">
         <f>MEUBLE_Clôtures!$C$5</f>
-        <v>0</v>
+        <v>487.24</v>
       </c>
       <c r="M54" s="34"/>
       <c r="N54" s="7">
@@ -3964,11 +3964,11 @@
       </c>
       <c r="L55" s="6">
         <f>MEUBLE_Clôtures!$C$2</f>
-        <v>0</v>
+        <v>370.2</v>
       </c>
       <c r="M55" s="34">
         <f t="shared" ref="M55" si="111">L55-L56+K55</f>
-        <v>1478.71</v>
+        <v>1683.91</v>
       </c>
       <c r="N55" s="6">
         <f>MEUBLE_Clôtures!$D$2</f>
@@ -3976,24 +3976,24 @@
       </c>
       <c r="O55" s="34">
         <f t="shared" ref="O55" si="112">N55-N56+M55</f>
-        <v>1478.71</v>
+        <v>1683.91</v>
       </c>
       <c r="P55" s="6"/>
       <c r="Q55" s="34">
         <f>P55-P56+O55</f>
-        <v>1478.71</v>
+        <v>1683.91</v>
       </c>
       <c r="R55" s="6"/>
       <c r="S55" s="34">
         <f t="shared" ref="S55" si="113">R55-R56+Q55</f>
-        <v>-151.28999999999996</v>
+        <v>53.910000000000082</v>
       </c>
       <c r="T55" s="6">
         <v>1545</v>
       </c>
       <c r="U55" s="34">
         <f t="shared" ref="U55" si="114">T55-T56+S55</f>
-        <v>764.51</v>
+        <v>969.71</v>
       </c>
     </row>
     <row r="56" spans="2:21">
@@ -4014,7 +4014,7 @@
       <c r="K56" s="34"/>
       <c r="L56" s="7">
         <f>MEUBLE_Clôtures!$C$6</f>
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="M56" s="34"/>
       <c r="N56" s="7">
@@ -4068,11 +4068,11 @@
       </c>
       <c r="L57" s="6">
         <f>DUDU_Clôtures!$C$3</f>
-        <v>0</v>
+        <v>3916.98</v>
       </c>
       <c r="M57" s="34">
         <f t="shared" ref="M57" si="118">L57-L58+K57</f>
-        <v>0</v>
+        <v>-3171.68</v>
       </c>
       <c r="N57" s="6">
         <f>DUDU_Clôtures!$D$3</f>
@@ -4080,24 +4080,24 @@
       </c>
       <c r="O57" s="34">
         <f t="shared" ref="O57" si="119">N57-N58+M57</f>
-        <v>0</v>
+        <v>-3171.68</v>
       </c>
       <c r="P57" s="6"/>
       <c r="Q57" s="34">
         <f>P57-P58+O57</f>
-        <v>0</v>
+        <v>-3171.68</v>
       </c>
       <c r="R57" s="6"/>
       <c r="S57" s="34">
         <f t="shared" ref="S57" si="120">R57-R58+Q57</f>
-        <v>-10000</v>
+        <v>-13171.68</v>
       </c>
       <c r="T57" s="6">
         <v>6506.55</v>
       </c>
       <c r="U57" s="34">
         <f t="shared" ref="U57" si="121">T57-T58+S57</f>
-        <v>-10000</v>
+        <v>-13171.68</v>
       </c>
     </row>
     <row r="58" spans="2:21">
@@ -4118,7 +4118,7 @@
       <c r="K58" s="34"/>
       <c r="L58" s="7">
         <f>DUDU_Clôtures!$C$5</f>
-        <v>0</v>
+        <v>7088.66</v>
       </c>
       <c r="M58" s="34"/>
       <c r="N58" s="7">
@@ -4176,31 +4176,31 @@
       </c>
       <c r="M59" s="34">
         <f t="shared" ref="M59" si="124">L59-L60+K59</f>
-        <v>-6183.22</v>
+        <v>-7927.4500000000007</v>
       </c>
       <c r="N59" s="6">
         <v>0</v>
       </c>
       <c r="O59" s="34">
         <f t="shared" ref="O59" si="125">N59-N60+M59</f>
-        <v>-6183.22</v>
+        <v>-7927.4500000000007</v>
       </c>
       <c r="P59" s="6"/>
       <c r="Q59" s="34">
         <f>P59-P60+O59</f>
-        <v>-6183.22</v>
+        <v>-7927.4500000000007</v>
       </c>
       <c r="R59" s="6"/>
       <c r="S59" s="34">
         <f>R59-R60+Q59</f>
-        <v>-6683.22</v>
+        <v>-8427.4500000000007</v>
       </c>
       <c r="T59" s="6">
         <v>1576.53</v>
       </c>
       <c r="U59" s="34">
         <f t="shared" ref="U59" si="126">T59-T60+S59</f>
-        <v>-5106.6900000000005</v>
+        <v>-6850.920000000001</v>
       </c>
     </row>
     <row r="60" spans="2:21" ht="15.5" customHeight="1">
@@ -4221,7 +4221,7 @@
       <c r="K60" s="34"/>
       <c r="L60" s="7">
         <f>UPFL_Clôtures!$C$5</f>
-        <v>0</v>
+        <v>1744.23</v>
       </c>
       <c r="M60" s="34"/>
       <c r="N60" s="7">
@@ -4374,11 +4374,11 @@
       </c>
       <c r="L63" s="6">
         <f>FNR_Clôtures!$C$2</f>
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="M63" s="34">
         <f>L63-L64+K63</f>
-        <v>-2103.16</v>
+        <v>-4030.0299999999997</v>
       </c>
       <c r="N63" s="6">
         <f>FNR_Clôtures!$D$2</f>
@@ -4386,24 +4386,24 @@
       </c>
       <c r="O63" s="34">
         <f>N63-N64+M63</f>
-        <v>-2103.16</v>
+        <v>-4030.0299999999997</v>
       </c>
       <c r="P63" s="6"/>
       <c r="Q63" s="34">
         <f>P63-P64+O63</f>
-        <v>-2103.16</v>
+        <v>-4030.0299999999997</v>
       </c>
       <c r="R63" s="6"/>
       <c r="S63" s="34">
         <f t="shared" ref="S63" si="127">R63-R64+Q63</f>
-        <v>-2103.16</v>
+        <v>-4030.0299999999997</v>
       </c>
       <c r="T63" s="6">
         <v>720.75</v>
       </c>
       <c r="U63" s="34">
         <f>T63-T64+S63</f>
-        <v>-1457.0099999999998</v>
+        <v>-3383.8799999999997</v>
       </c>
     </row>
     <row r="64" spans="2:21">
@@ -4423,7 +4423,7 @@
       <c r="K64" s="34"/>
       <c r="L64" s="7">
         <f>FNR_Clôtures!$C$4</f>
-        <v>0</v>
+        <v>1932.17</v>
       </c>
       <c r="M64" s="34"/>
       <c r="N64" s="7">
@@ -4576,27 +4576,27 @@
       <c r="K67" s="35"/>
       <c r="L67" s="35">
         <f>M5+M7+M31</f>
-        <v>-17240.55</v>
+        <v>-25029.829999999998</v>
       </c>
       <c r="M67" s="35"/>
       <c r="N67" s="35">
         <f>O5+O7+O31</f>
-        <v>-17240.55</v>
+        <v>-25029.829999999998</v>
       </c>
       <c r="O67" s="35"/>
       <c r="P67" s="35">
         <f>Q5+Q7+Q31</f>
-        <v>-17240.55</v>
+        <v>-25029.829999999998</v>
       </c>
       <c r="Q67" s="35"/>
       <c r="R67" s="35">
         <f>S5+S7+S31</f>
-        <v>-17240.550000000003</v>
+        <v>-25029.83</v>
       </c>
       <c r="S67" s="35"/>
       <c r="T67" s="35">
         <f>U5+U7+U31</f>
-        <v>-16594.400000000005</v>
+        <v>-24383.680000000004</v>
       </c>
       <c r="U67" s="35"/>
     </row>
@@ -5094,7 +5094,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5383,7 +5383,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5416,14 +5416,14 @@
         <v>119</v>
       </c>
       <c r="C2" s="18">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D2" s="18">
         <v>0</v>
       </c>
       <c r="E2" s="20">
         <f>SUM(B2:D2)</f>
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
@@ -5438,7 +5438,7 @@
       </c>
       <c r="C3" s="19">
         <f>SUM(C2:C2)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D3" s="19">
         <f>SUM(D2:D2)</f>
@@ -5446,7 +5446,7 @@
       </c>
       <c r="E3" s="19">
         <f>SUM(E2:E2)</f>
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
@@ -5757,7 +5757,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5833,14 +5833,14 @@
         <v>789.99</v>
       </c>
       <c r="C4" s="18">
-        <v>0</v>
+        <v>74.66</v>
       </c>
       <c r="D4" s="18">
         <v>0</v>
       </c>
       <c r="E4" s="20">
         <f>SUM(B4:D4)</f>
-        <v>789.99</v>
+        <v>864.65</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
@@ -5855,7 +5855,7 @@
       </c>
       <c r="C5" s="21">
         <f>SUM(C4:C4)</f>
-        <v>0</v>
+        <v>74.66</v>
       </c>
       <c r="D5" s="21">
         <f>SUM(D4:D4)</f>
@@ -5863,7 +5863,7 @@
       </c>
       <c r="E5" s="21">
         <f>SUM(E4:E4)</f>
-        <v>789.99</v>
+        <v>864.65</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
@@ -5935,7 +5935,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6011,14 +6011,14 @@
         <v>26.33</v>
       </c>
       <c r="C4" s="18">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="D4" s="18">
         <v>0</v>
       </c>
       <c r="E4" s="20">
         <f>SUM(B4:D4)</f>
-        <v>26.33</v>
+        <v>41.83</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
@@ -6033,7 +6033,7 @@
       </c>
       <c r="C5" s="21">
         <f>SUM(C4:C4)</f>
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="D5" s="21">
         <f>SUM(D4:D4)</f>
@@ -6041,7 +6041,7 @@
       </c>
       <c r="E5" s="21">
         <f>SUM(E4:E4)</f>
-        <v>26.33</v>
+        <v>41.83</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
@@ -6113,7 +6113,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6189,14 +6189,14 @@
         <v>269.05</v>
       </c>
       <c r="C4" s="18">
-        <v>0</v>
+        <v>528.35</v>
       </c>
       <c r="D4" s="18">
         <v>0</v>
       </c>
       <c r="E4" s="20">
         <f>SUM(B4:D4)</f>
-        <v>269.05</v>
+        <v>797.40000000000009</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
@@ -6211,7 +6211,7 @@
       </c>
       <c r="C5" s="21">
         <f>SUM(C4:C4)</f>
-        <v>0</v>
+        <v>528.35</v>
       </c>
       <c r="D5" s="21">
         <f>SUM(D4:D4)</f>
@@ -6219,7 +6219,7 @@
       </c>
       <c r="E5" s="21">
         <f>SUM(E4:E4)</f>
-        <v>269.05</v>
+        <v>797.40000000000009</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
@@ -6911,7 +6911,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6987,14 +6987,14 @@
         <v>50</v>
       </c>
       <c r="C4" s="18">
-        <v>0</v>
+        <v>105.95</v>
       </c>
       <c r="D4" s="18">
         <v>0</v>
       </c>
       <c r="E4" s="20">
         <f>SUM(B4:D4)</f>
-        <v>50</v>
+        <v>155.94999999999999</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
@@ -7009,7 +7009,7 @@
       </c>
       <c r="C5" s="21">
         <f>SUM(C4:C4)</f>
-        <v>0</v>
+        <v>105.95</v>
       </c>
       <c r="D5" s="21">
         <f>SUM(D4:D4)</f>
@@ -7017,7 +7017,7 @@
       </c>
       <c r="E5" s="21">
         <f>SUM(E4:E4)</f>
-        <v>50</v>
+        <v>155.94999999999999</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
@@ -7267,7 +7267,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7300,14 +7300,14 @@
         <v>2061.25</v>
       </c>
       <c r="C2" s="18">
-        <v>0</v>
+        <v>370.2</v>
       </c>
       <c r="D2" s="18">
         <v>0</v>
       </c>
       <c r="E2" s="20">
         <f>SUM(B2:D2)</f>
-        <v>2061.25</v>
+        <v>2431.4499999999998</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
@@ -7320,14 +7320,14 @@
         <v>1788.71</v>
       </c>
       <c r="C3" s="18">
-        <v>0</v>
+        <v>530.79</v>
       </c>
       <c r="D3" s="18">
         <v>0</v>
       </c>
       <c r="E3" s="20">
         <f>SUM(B3:D3)</f>
-        <v>1788.71</v>
+        <v>2319.5</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
@@ -7342,7 +7342,7 @@
       </c>
       <c r="C4" s="19">
         <f>SUM(C2:C3)</f>
-        <v>0</v>
+        <v>900.99</v>
       </c>
       <c r="D4" s="19">
         <f>SUM(D2:D3)</f>
@@ -7350,7 +7350,7 @@
       </c>
       <c r="E4" s="19">
         <f>SUM(E2:E2)</f>
-        <v>2061.25</v>
+        <v>2431.4499999999998</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
@@ -7363,14 +7363,14 @@
         <v>764.82</v>
       </c>
       <c r="C5" s="18">
-        <v>0</v>
+        <v>487.24</v>
       </c>
       <c r="D5" s="18">
         <v>0</v>
       </c>
       <c r="E5" s="20">
         <f>SUM(B5:D5)</f>
-        <v>764.82</v>
+        <v>1252.06</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
@@ -7383,14 +7383,14 @@
         <v>0</v>
       </c>
       <c r="C6" s="18">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="D6" s="18">
         <v>0</v>
       </c>
       <c r="E6" s="20">
         <f>SUM(B6:D6)</f>
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
@@ -7405,7 +7405,7 @@
       </c>
       <c r="C7" s="21">
         <f>SUM(C5:C5)</f>
-        <v>0</v>
+        <v>487.24</v>
       </c>
       <c r="D7" s="21">
         <f>SUM(D5:D5)</f>
@@ -7413,7 +7413,7 @@
       </c>
       <c r="E7" s="21">
         <f>SUM(E5:E6)</f>
-        <v>764.82</v>
+        <v>1417.06</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
@@ -7485,7 +7485,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7518,14 +7518,14 @@
         <v>0</v>
       </c>
       <c r="C2" s="18">
-        <v>0</v>
+        <v>3916.98</v>
       </c>
       <c r="D2" s="18">
         <v>0</v>
       </c>
       <c r="E2" s="20">
         <f>SUM(B2:D2)</f>
-        <v>0</v>
+        <v>3916.98</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
@@ -7540,7 +7540,7 @@
       </c>
       <c r="C3" s="19">
         <f>SUM(C2:C2)</f>
-        <v>0</v>
+        <v>3916.98</v>
       </c>
       <c r="D3" s="19">
         <f>SUM(D2:D2)</f>
@@ -7548,7 +7548,7 @@
       </c>
       <c r="E3" s="19">
         <f>SUM(E2:E2)</f>
-        <v>0</v>
+        <v>3916.98</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
@@ -7561,14 +7561,14 @@
         <v>0</v>
       </c>
       <c r="C4" s="18">
-        <v>0</v>
+        <v>7088.66</v>
       </c>
       <c r="D4" s="18">
         <v>0</v>
       </c>
       <c r="E4" s="20">
         <f>SUM(B4:D4)</f>
-        <v>0</v>
+        <v>7088.66</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
@@ -7583,7 +7583,7 @@
       </c>
       <c r="C5" s="21">
         <f>SUM(C4:C4)</f>
-        <v>0</v>
+        <v>7088.66</v>
       </c>
       <c r="D5" s="21">
         <f>SUM(D4:D4)</f>
@@ -7591,7 +7591,7 @@
       </c>
       <c r="E5" s="21">
         <f>SUM(E4:E4)</f>
-        <v>0</v>
+        <v>7088.66</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
@@ -7663,7 +7663,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7716,14 +7716,14 @@
         <v>2498</v>
       </c>
       <c r="C3" s="18">
-        <v>0</v>
+        <v>2363.5</v>
       </c>
       <c r="D3" s="18">
         <v>0</v>
       </c>
       <c r="E3" s="20">
         <f>SUM(B3:D3)</f>
-        <v>2498</v>
+        <v>4861.5</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
@@ -7738,7 +7738,7 @@
       </c>
       <c r="C4" s="19">
         <f>SUM(C2:C3)</f>
-        <v>0</v>
+        <v>2363.5</v>
       </c>
       <c r="D4" s="19">
         <f>SUM(D2:D3)</f>
@@ -7746,7 +7746,7 @@
       </c>
       <c r="E4" s="19">
         <f>SUM(E2:E3)</f>
-        <v>4224.53</v>
+        <v>6588.03</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
@@ -7759,14 +7759,14 @@
         <v>1379.75</v>
       </c>
       <c r="C5" s="18">
-        <v>0</v>
+        <v>1744.23</v>
       </c>
       <c r="D5" s="18">
         <v>0</v>
       </c>
       <c r="E5" s="20">
         <f>SUM(B5:D5)</f>
-        <v>1379.75</v>
+        <v>3123.98</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="C7" s="21">
         <f>SUM(C5:C6)</f>
-        <v>0</v>
+        <v>1744.23</v>
       </c>
       <c r="D7" s="21">
         <f>SUM(D5:D6)</f>
@@ -7809,7 +7809,7 @@
       </c>
       <c r="E7" s="21">
         <f>SUM(E5:E6)</f>
-        <v>1379.75</v>
+        <v>3123.98</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
@@ -8059,7 +8059,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8092,14 +8092,14 @@
         <v>0</v>
       </c>
       <c r="C2" s="18">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="D2" s="18">
         <v>0</v>
       </c>
       <c r="E2" s="20">
         <f>SUM(B2:D2)</f>
-        <v>0</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -8112,7 +8112,7 @@
       </c>
       <c r="C3" s="19">
         <f>SUM(C2:C2)</f>
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="D3" s="19">
         <f>SUM(D2:D2)</f>
@@ -8120,7 +8120,7 @@
       </c>
       <c r="E3" s="19">
         <f>SUM(E2:E2)</f>
-        <v>0</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -8131,14 +8131,14 @@
         <v>0</v>
       </c>
       <c r="C4" s="18">
-        <v>0</v>
+        <v>1932.17</v>
       </c>
       <c r="D4" s="18">
         <v>0</v>
       </c>
       <c r="E4" s="20">
         <f>SUM(B4:D4)</f>
-        <v>0</v>
+        <v>1932.17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8151,7 +8151,7 @@
       </c>
       <c r="C5" s="21">
         <f>SUM(C4:C4)</f>
-        <v>0</v>
+        <v>1932.17</v>
       </c>
       <c r="D5" s="21">
         <f>SUM(D4:D4)</f>
@@ -8159,7 +8159,7 @@
       </c>
       <c r="E5" s="21">
         <f>SUM(E4:E4)</f>
-        <v>0</v>
+        <v>1932.17</v>
       </c>
     </row>
   </sheetData>

--- a/2 - Bilans/2022-2023/Unipoly_Bilan_Quadrimestriel_22-23.xlsx
+++ b/2 - Bilans/2022-2023/Unipoly_Bilan_Quadrimestriel_22-23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theodoresavary/Desktop/Unipoly/UPSecretrariat/2 - Bilans/2022-2023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\Clara\Unipoly\UPSecretrariat\2 - Bilans\2022-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BB41D9-DE8C-2045-A0FB-A64A8FCDAAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510F2C1A-1DD5-45ED-B19E-B09425318C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="779" xr2:uid="{34F8AD7C-3B1E-42A7-8AF2-50C33241ADA4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="779" firstSheet="20" activeTab="24" xr2:uid="{34F8AD7C-3B1E-42A7-8AF2-50C33241ADA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Bilan" sheetId="1" r:id="rId1"/>
@@ -725,11 +725,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -737,23 +740,44 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -770,41 +794,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1122,19 +1122,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A55C92-786C-4AB3-96FC-7473E4CC0A9B}">
   <dimension ref="A1:Y70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScale="110" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="3" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="M57" sqref="M57:M58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="33.1640625" style="4" customWidth="1"/>
-    <col min="4" max="21" width="15.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.36328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.453125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="33.1796875" style="4" customWidth="1"/>
+    <col min="4" max="21" width="15.453125" style="4" customWidth="1"/>
     <col min="22" max="25" width="0" style="4" hidden="1" customWidth="1"/>
-    <col min="26" max="16384" width="11.5" style="4" hidden="1"/>
+    <col min="26" max="16384" width="11.453125" style="4" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" ht="12" customHeight="1">
@@ -1143,74 +1143,74 @@
     <row r="2" spans="1:21" ht="36" customHeight="1">
       <c r="B2" s="29"/>
       <c r="C2" s="30"/>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="59"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="40"/>
     </row>
     <row r="3" spans="1:21" ht="14" customHeight="1">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="56" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42" t="s">
+      <c r="E3" s="41"/>
+      <c r="F3" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="42"/>
-      <c r="H3" s="43" t="s">
+      <c r="G3" s="41"/>
+      <c r="H3" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43" t="s">
+      <c r="I3" s="51"/>
+      <c r="J3" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="43"/>
-      <c r="L3" s="42" t="s">
+      <c r="K3" s="51"/>
+      <c r="L3" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42" t="s">
+      <c r="M3" s="41"/>
+      <c r="N3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42" t="s">
+      <c r="O3" s="41"/>
+      <c r="P3" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42" t="s">
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42" t="s">
+      <c r="S3" s="41"/>
+      <c r="T3" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="U3" s="43"/>
-    </row>
-    <row r="4" spans="1:21" ht="18">
-      <c r="B4" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="45"/>
+      <c r="U3" s="51"/>
+    </row>
+    <row r="4" spans="1:21" ht="20">
+      <c r="B4" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="53"/>
       <c r="D4" s="5" t="s">
         <v>39</v>
       </c>
@@ -1266,16 +1266,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
-      <c r="B5" s="38" t="s">
+    <row r="5" spans="1:21" ht="15.5">
+      <c r="B5" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="39"/>
+      <c r="C5" s="57"/>
       <c r="D5" s="6">
         <f>D7+D31</f>
         <v>3136.0899999999997</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="33">
         <f>D5-D6</f>
         <v>-1901.2299999999991</v>
       </c>
@@ -1283,7 +1283,7 @@
         <f>F7+F31</f>
         <v>4406.34</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="33">
         <f>F5-F6+E5</f>
         <v>2505.110000000001</v>
       </c>
@@ -1291,22 +1291,22 @@
         <f>H7+H31</f>
         <v>31680</v>
       </c>
-      <c r="I5" s="34">
+      <c r="I5" s="33">
         <f>H5-H6+G5</f>
         <v>-14672.89</v>
       </c>
       <c r="J5" s="6"/>
-      <c r="K5" s="34">
+      <c r="K5" s="33">
         <f>J5-J6+I5</f>
         <v>-14672.89</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="M5" s="34">
+      <c r="M5" s="33">
         <f>L5-L6+K5</f>
         <v>-14672.89</v>
       </c>
       <c r="N5" s="6"/>
-      <c r="O5" s="34">
+      <c r="O5" s="33">
         <f>N5-N6+M5</f>
         <v>-14672.89</v>
       </c>
@@ -1314,7 +1314,7 @@
         <f>P8+P32</f>
         <v>4406.34</v>
       </c>
-      <c r="Q5" s="34">
+      <c r="Q5" s="33">
         <f>P5-P6+O5</f>
         <v>-10266.549999999999</v>
       </c>
@@ -1322,59 +1322,59 @@
         <f>R8+R32</f>
         <v>31680</v>
       </c>
-      <c r="S5" s="34">
+      <c r="S5" s="33">
         <f>R5-R6+Q5</f>
         <v>21413.45</v>
       </c>
       <c r="T5" s="6">
         <v>2214.0300000000002</v>
       </c>
-      <c r="U5" s="33">
+      <c r="U5" s="44">
         <f>T5-T6+S5</f>
         <v>23627.48</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
+    <row r="6" spans="1:21" ht="15.5">
+      <c r="B6" s="58"/>
+      <c r="C6" s="59"/>
       <c r="D6" s="7">
         <f>D8+D32</f>
         <v>5037.3199999999988</v>
       </c>
-      <c r="E6" s="34"/>
+      <c r="E6" s="33"/>
       <c r="F6" s="7">
         <f>F8+F32</f>
         <v>0</v>
       </c>
-      <c r="G6" s="34"/>
+      <c r="G6" s="33"/>
       <c r="H6" s="7">
         <f>H8+H32</f>
         <v>48858</v>
       </c>
-      <c r="I6" s="48"/>
+      <c r="I6" s="42"/>
       <c r="J6" s="27"/>
-      <c r="K6" s="48"/>
+      <c r="K6" s="42"/>
       <c r="L6" s="27"/>
-      <c r="M6" s="48"/>
+      <c r="M6" s="42"/>
       <c r="N6" s="27"/>
-      <c r="O6" s="48"/>
+      <c r="O6" s="42"/>
       <c r="P6" s="27"/>
-      <c r="Q6" s="48"/>
+      <c r="Q6" s="42"/>
       <c r="R6" s="27"/>
-      <c r="S6" s="48"/>
+      <c r="S6" s="42"/>
       <c r="T6" s="27"/>
-      <c r="U6" s="48"/>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="B7" s="38" t="s">
+      <c r="U6" s="42"/>
+    </row>
+    <row r="7" spans="1:21" ht="15.5">
+      <c r="B7" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="39"/>
+      <c r="C7" s="57"/>
       <c r="D7" s="8">
         <f>D9+D11+D13+D15+D17+D19+D21+D23+D25+D27</f>
         <v>0</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="44">
         <f>D7-D8</f>
         <v>0</v>
       </c>
@@ -1382,7 +1382,7 @@
         <f>F9+F11+F13+F15+F17+F19+F21+F23+F25+F27</f>
         <v>0</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="44">
         <f>F7-F8+E7</f>
         <v>0</v>
       </c>
@@ -1390,7 +1390,7 @@
         <f>H9+H11+H13+H15+H17+H19+H21+H23+H25+H27+H29</f>
         <v>3400</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7" s="33">
         <f>H7-H8+G7</f>
         <v>-4600</v>
       </c>
@@ -1398,7 +1398,7 @@
         <f>J9+J11+J13+J15+J17+J19+J21+J23+J25+J27+J29</f>
         <v>5533.92</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="33">
         <f>J7-J8+I7</f>
         <v>-3468.9800000000005</v>
       </c>
@@ -1406,7 +1406,7 @@
         <f>L9+L11+L13+L15+L17+L19+L21+L23+L25+L27+L29</f>
         <v>7222.3</v>
       </c>
-      <c r="M7" s="34">
+      <c r="M7" s="33">
         <f>L7-L8+K7</f>
         <v>-355.98000000000047</v>
       </c>
@@ -1414,7 +1414,7 @@
         <f>N9+N11+N13+N15+N17+N19+N21+N23+N25+N27+N29</f>
         <v>0</v>
       </c>
-      <c r="O7" s="34">
+      <c r="O7" s="33">
         <f>N7-N8+M7</f>
         <v>-355.98000000000047</v>
       </c>
@@ -1422,7 +1422,7 @@
         <f>P9+P11+P13+P15+P17+P19+P21+P23+P25+P27+P29</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="34">
+      <c r="Q7" s="33">
         <f>P7-P8+O7</f>
         <v>-355.98000000000047</v>
       </c>
@@ -1430,7 +1430,7 @@
         <f>R9+R11+R13+R15+R17+R19+R21+R23+R25+R27+R29</f>
         <v>0</v>
       </c>
-      <c r="S7" s="34">
+      <c r="S7" s="33">
         <f>R7-R8+Q7</f>
         <v>-3755.9800000000005</v>
       </c>
@@ -1438,79 +1438,79 @@
         <f>T9+T11+T13+T15+T17+T19+T21+T23+T25+T27+T29</f>
         <v>12560.309999999998</v>
       </c>
-      <c r="U7" s="49">
+      <c r="U7" s="43">
         <f>T7-T8+S7</f>
         <v>-11136.18</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
-      <c r="B8" s="40"/>
-      <c r="C8" s="41"/>
+    <row r="8" spans="1:21" ht="15.5">
+      <c r="B8" s="58"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="7">
         <f>D10+D12+D14+D16+D18+D20+D22+D24+D26+D28</f>
         <v>0</v>
       </c>
-      <c r="E8" s="34"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="7">
         <f>F10+F12+F14+F16+F18+F20+F22+F24+F26+F28</f>
         <v>0</v>
       </c>
-      <c r="G8" s="34"/>
+      <c r="G8" s="33"/>
       <c r="H8" s="7">
         <f>H10+H12+H14+H16+H18+H20+H22+H24+H26+H28+H30</f>
         <v>8000</v>
       </c>
-      <c r="I8" s="34"/>
+      <c r="I8" s="33"/>
       <c r="J8" s="7">
         <f>J10+J12+J14+J16+J18+J20+J22+J24+J26+J28+J30</f>
         <v>4402.9000000000005</v>
       </c>
-      <c r="K8" s="34"/>
+      <c r="K8" s="33"/>
       <c r="L8" s="7">
         <f>L10+L12+L14+L16+L18+L20+L22+L24+L26+L28+L30</f>
         <v>4109.3</v>
       </c>
-      <c r="M8" s="34"/>
+      <c r="M8" s="33"/>
       <c r="N8" s="7">
         <f>N10+N12+N14+N16+N18+N20+N22+N24+N26+N28+N30</f>
         <v>0</v>
       </c>
-      <c r="O8" s="34"/>
+      <c r="O8" s="33"/>
       <c r="P8" s="7">
         <f>P10+P12+P14+P16+P18+P20+P22+P24+P26+P28+P30</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="34"/>
+      <c r="Q8" s="33"/>
       <c r="R8" s="7">
         <f>R10+R12+R14+R16+R18+R20+R22+R24+R26+R28+R30</f>
         <v>3400</v>
       </c>
-      <c r="S8" s="34"/>
+      <c r="S8" s="33"/>
       <c r="T8" s="7">
         <f>T10+T12+T14+T16+T18+T20+T22+T24+T26+T28+T30</f>
         <v>19940.509999999998</v>
       </c>
-      <c r="U8" s="49"/>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="U8" s="43"/>
+    </row>
+    <row r="9" spans="1:21" ht="15.5">
       <c r="B9" s="9"/>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="34" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="34">
+      <c r="E9" s="33">
         <f>D9-D10</f>
         <v>0</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="34">
+      <c r="G9" s="33">
         <f>F9-F10+E9</f>
         <v>0</v>
       </c>
       <c r="H9" s="6">
         <v>600</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="33">
         <f>H9-H10+G9</f>
         <v>-2250</v>
       </c>
@@ -1518,7 +1518,7 @@
         <f>COHE_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="33">
         <f>J9-J10+I9</f>
         <v>-2563.5</v>
       </c>
@@ -1526,7 +1526,7 @@
         <f>COHE_Clôtures!C5</f>
         <v>1730.13</v>
       </c>
-      <c r="M9" s="34">
+      <c r="M9" s="33">
         <f>L9-L10+K9</f>
         <v>-2298.38</v>
       </c>
@@ -1534,88 +1534,88 @@
         <f>COHE_Clôtures!D5</f>
         <v>0</v>
       </c>
-      <c r="O9" s="34">
+      <c r="O9" s="33">
         <f>N9-N10+M9</f>
         <v>-2298.38</v>
       </c>
       <c r="P9" s="6"/>
-      <c r="Q9" s="34">
+      <c r="Q9" s="33">
         <f>P9-P10+O9</f>
         <v>-2298.38</v>
       </c>
       <c r="R9" s="6"/>
-      <c r="S9" s="34">
+      <c r="S9" s="33">
         <f>R9-R10+Q9</f>
         <v>-2898.38</v>
       </c>
       <c r="T9" s="6">
         <v>2309.38</v>
       </c>
-      <c r="U9" s="49">
+      <c r="U9" s="43">
         <f>T9-T10+S9</f>
         <v>-2482.4499999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" ht="15.5">
       <c r="B10" s="9"/>
-      <c r="C10" s="37"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="34"/>
+      <c r="E10" s="33"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="34"/>
+      <c r="G10" s="33"/>
       <c r="H10" s="7">
         <v>2850</v>
       </c>
-      <c r="I10" s="34"/>
+      <c r="I10" s="33"/>
       <c r="J10" s="7">
         <f>COHE_Clôtures!$B$9</f>
         <v>313.5</v>
       </c>
-      <c r="K10" s="34"/>
+      <c r="K10" s="33"/>
       <c r="L10" s="7">
         <f>COHE_Clôtures!C9</f>
         <v>1465.01</v>
       </c>
-      <c r="M10" s="34"/>
+      <c r="M10" s="33"/>
       <c r="N10" s="7">
         <f>COHE_Clôtures!D9</f>
         <v>0</v>
       </c>
-      <c r="O10" s="34"/>
+      <c r="O10" s="33"/>
       <c r="P10" s="7">
         <f>F9</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="34"/>
+      <c r="Q10" s="33"/>
       <c r="R10" s="7">
         <f>H9</f>
         <v>600</v>
       </c>
-      <c r="S10" s="34"/>
+      <c r="S10" s="33"/>
       <c r="T10" s="7">
         <v>1893.45</v>
       </c>
-      <c r="U10" s="49"/>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="U10" s="43"/>
+    </row>
+    <row r="11" spans="1:21" ht="15.5">
       <c r="B11" s="9"/>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="34" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="34">
+      <c r="E11" s="33">
         <f>D11-D12</f>
         <v>0</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="34">
+      <c r="G11" s="33">
         <f t="shared" ref="G11" si="0">F11-F12+E11</f>
         <v>0</v>
       </c>
       <c r="H11" s="6">
         <v>150</v>
       </c>
-      <c r="I11" s="34">
+      <c r="I11" s="33">
         <f>H11-H12+G11</f>
         <v>-600</v>
       </c>
@@ -1623,7 +1623,7 @@
         <f>COM_Clôtures!$B$3</f>
         <v>35.1</v>
       </c>
-      <c r="K11" s="34">
+      <c r="K11" s="33">
         <f t="shared" ref="K11" si="1">J11-J12+I11</f>
         <v>-732.77</v>
       </c>
@@ -1631,7 +1631,7 @@
         <f>COM_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M11" s="34">
+      <c r="M11" s="33">
         <f>L11-L12+K11</f>
         <v>-732.77</v>
       </c>
@@ -1639,17 +1639,17 @@
         <f>COM_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O11" s="34">
+      <c r="O11" s="33">
         <f>N11-N12+M11</f>
         <v>-732.77</v>
       </c>
       <c r="P11" s="6"/>
-      <c r="Q11" s="34">
+      <c r="Q11" s="33">
         <f>P11-P12+O11</f>
         <v>-732.77</v>
       </c>
       <c r="R11" s="6"/>
-      <c r="S11" s="34">
+      <c r="S11" s="33">
         <f>R11-R12+Q11</f>
         <v>-882.77</v>
       </c>
@@ -1661,66 +1661,66 @@
         <v>-127.62999999999988</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" ht="15.5">
       <c r="B12" s="9"/>
-      <c r="C12" s="37"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="34"/>
+      <c r="E12" s="33"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="34"/>
+      <c r="G12" s="33"/>
       <c r="H12" s="7">
         <v>750</v>
       </c>
-      <c r="I12" s="34"/>
+      <c r="I12" s="33"/>
       <c r="J12" s="7">
         <f>COM_Clôtures!$B$5</f>
         <v>167.87</v>
       </c>
-      <c r="K12" s="34"/>
+      <c r="K12" s="33"/>
       <c r="L12" s="7">
         <f>COM_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M12" s="34"/>
+      <c r="M12" s="33"/>
       <c r="N12" s="7">
         <f>COM_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O12" s="34"/>
+      <c r="O12" s="33"/>
       <c r="P12" s="7">
         <f>F11</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="34"/>
+      <c r="Q12" s="33"/>
       <c r="R12" s="7">
         <f>H11</f>
         <v>150</v>
       </c>
-      <c r="S12" s="34"/>
+      <c r="S12" s="33"/>
       <c r="T12" s="7">
         <v>128.19999999999999</v>
       </c>
       <c r="U12" s="31"/>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" ht="15.5">
       <c r="B13" s="9"/>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="34" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="34">
+      <c r="E13" s="33">
         <f>D13-D14</f>
         <v>0</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="34">
+      <c r="G13" s="33">
         <f t="shared" ref="G13" si="2">F13-F14+E13</f>
         <v>0</v>
       </c>
       <c r="H13" s="6">
         <v>0</v>
       </c>
-      <c r="I13" s="34">
+      <c r="I13" s="33">
         <f>H13-H14+G13</f>
         <v>-500</v>
       </c>
@@ -1728,7 +1728,7 @@
         <f>CONTRIB_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K13" s="34">
+      <c r="K13" s="33">
         <f t="shared" ref="K13" si="3">J13-J14+I13</f>
         <v>-575.6</v>
       </c>
@@ -1736,7 +1736,7 @@
         <f>CONTRIB_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M13" s="34">
+      <c r="M13" s="33">
         <f>L13-L14+K13</f>
         <v>-625.9</v>
       </c>
@@ -1744,86 +1744,86 @@
         <f>CONTRIB_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O13" s="34">
+      <c r="O13" s="33">
         <f>N13-N14+M13</f>
         <v>-625.9</v>
       </c>
       <c r="P13" s="6"/>
-      <c r="Q13" s="34">
+      <c r="Q13" s="33">
         <f>P13-P14+O13</f>
         <v>-625.9</v>
       </c>
       <c r="R13" s="6"/>
-      <c r="S13" s="34">
+      <c r="S13" s="33">
         <f t="shared" ref="S13" si="4">R13-R14+Q13</f>
         <v>-625.9</v>
       </c>
       <c r="T13" s="6">
         <v>171.6</v>
       </c>
-      <c r="U13" s="49">
+      <c r="U13" s="43">
         <f t="shared" ref="U13" si="5">T13-T14+S13</f>
         <v>-454.29999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" ht="15.5">
       <c r="B14" s="9"/>
-      <c r="C14" s="37"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="34"/>
+      <c r="E14" s="33"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="34"/>
+      <c r="G14" s="33"/>
       <c r="H14" s="7">
         <v>500</v>
       </c>
-      <c r="I14" s="34"/>
+      <c r="I14" s="33"/>
       <c r="J14" s="7">
         <f>CONTRIB_Clôtures!$B$7</f>
         <v>75.599999999999994</v>
       </c>
-      <c r="K14" s="34"/>
+      <c r="K14" s="33"/>
       <c r="L14" s="7">
         <f>CONTRIB_Clôtures!$C$7</f>
         <v>50.3</v>
       </c>
-      <c r="M14" s="34"/>
+      <c r="M14" s="33"/>
       <c r="N14" s="7">
         <f>CONTRIB_Clôtures!$D$7</f>
         <v>0</v>
       </c>
-      <c r="O14" s="34"/>
+      <c r="O14" s="33"/>
       <c r="P14" s="7">
         <f>F13</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="34"/>
+      <c r="Q14" s="33"/>
       <c r="R14" s="7">
         <f>H13</f>
         <v>0</v>
       </c>
-      <c r="S14" s="34"/>
+      <c r="S14" s="33"/>
       <c r="T14" s="7"/>
-      <c r="U14" s="49"/>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="U14" s="43"/>
+    </row>
+    <row r="15" spans="1:21" ht="15.5">
       <c r="B15" s="9"/>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="34" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="34">
+      <c r="E15" s="33">
         <f>D15-D16</f>
         <v>0</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="34">
+      <c r="G15" s="33">
         <f t="shared" ref="G15" si="6">F15-F16+E15</f>
         <v>0</v>
       </c>
       <c r="H15" s="6">
         <v>1750</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="33">
         <f t="shared" ref="I15" si="7">H15-H16+G15</f>
         <v>-1000</v>
       </c>
@@ -1831,7 +1831,7 @@
         <f>EVENT_Clôtures!$B$5</f>
         <v>599.13</v>
       </c>
-      <c r="K15" s="34">
+      <c r="K15" s="33">
         <f t="shared" ref="K15" si="8">J15-J16+I15</f>
         <v>-786.18000000000006</v>
       </c>
@@ -1839,7 +1839,7 @@
         <f>EVENT_Clôtures!$C$5</f>
         <v>617.29999999999995</v>
       </c>
-      <c r="M15" s="34">
+      <c r="M15" s="33">
         <f>L15-L16+K15</f>
         <v>-1817.41</v>
       </c>
@@ -1847,88 +1847,88 @@
         <f>EVENT_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O15" s="34">
+      <c r="O15" s="33">
         <f>N15-N16+M15</f>
         <v>-1817.41</v>
       </c>
       <c r="P15" s="6"/>
-      <c r="Q15" s="34">
+      <c r="Q15" s="33">
         <f>P15-P16+O15</f>
         <v>-1817.41</v>
       </c>
       <c r="R15" s="6"/>
-      <c r="S15" s="34">
+      <c r="S15" s="33">
         <f t="shared" ref="S15" si="9">R15-R16+Q15</f>
         <v>-3567.41</v>
       </c>
       <c r="T15" s="6">
         <v>2442.2199999999998</v>
       </c>
-      <c r="U15" s="49">
+      <c r="U15" s="43">
         <f t="shared" ref="U15" si="10">T15-T16+S15</f>
         <v>-5499.0499999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" ht="15.5">
       <c r="B16" s="9"/>
-      <c r="C16" s="37"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="34"/>
+      <c r="E16" s="33"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="34"/>
+      <c r="G16" s="33"/>
       <c r="H16" s="7">
         <v>2750</v>
       </c>
-      <c r="I16" s="34"/>
+      <c r="I16" s="33"/>
       <c r="J16" s="7">
         <f>EVENT_Clôtures!$B$12</f>
         <v>385.31</v>
       </c>
-      <c r="K16" s="34"/>
+      <c r="K16" s="33"/>
       <c r="L16" s="7">
         <f>EVENT_Clôtures!$C$12</f>
         <v>1648.53</v>
       </c>
-      <c r="M16" s="34"/>
+      <c r="M16" s="33"/>
       <c r="N16" s="7">
         <f>EVENT_Clôtures!$D$12</f>
         <v>0</v>
       </c>
-      <c r="O16" s="34"/>
+      <c r="O16" s="33"/>
       <c r="P16" s="7">
         <f>F15</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="34"/>
+      <c r="Q16" s="33"/>
       <c r="R16" s="7">
         <f>H15</f>
         <v>1750</v>
       </c>
-      <c r="S16" s="34"/>
+      <c r="S16" s="33"/>
       <c r="T16" s="7">
         <v>4373.8599999999997</v>
       </c>
-      <c r="U16" s="49"/>
-    </row>
-    <row r="17" spans="2:21">
+      <c r="U16" s="43"/>
+    </row>
+    <row r="17" spans="2:21" ht="15.5">
       <c r="B17" s="9"/>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="34" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="34">
+      <c r="E17" s="33">
         <f>D17-D18</f>
         <v>0</v>
       </c>
       <c r="F17" s="6"/>
-      <c r="G17" s="34">
+      <c r="G17" s="33">
         <f t="shared" ref="G17" si="11">F17-F18+E17</f>
         <v>0</v>
       </c>
       <c r="H17" s="6">
         <v>0</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I17" s="33">
         <f t="shared" ref="I17" si="12">H17-H18+G17</f>
         <v>0</v>
       </c>
@@ -1936,7 +1936,7 @@
         <f>EXTRA_Clôtures!$B$3</f>
         <v>1.38</v>
       </c>
-      <c r="K17" s="34">
+      <c r="K17" s="33">
         <f t="shared" ref="K17" si="13">J17-J18+I17</f>
         <v>-2010.02</v>
       </c>
@@ -1944,7 +1944,7 @@
         <f>EXTRA_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M17" s="34">
+      <c r="M17" s="33">
         <f>L17-L18+K17</f>
         <v>-2019.47</v>
       </c>
@@ -1952,88 +1952,88 @@
         <f>EXTRA_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O17" s="34">
+      <c r="O17" s="33">
         <f>N17-N18+M17</f>
         <v>-2019.47</v>
       </c>
       <c r="P17" s="6"/>
-      <c r="Q17" s="34">
+      <c r="Q17" s="33">
         <f>P17-P18+O17</f>
         <v>-2019.47</v>
       </c>
       <c r="R17" s="6"/>
-      <c r="S17" s="34">
+      <c r="S17" s="33">
         <f t="shared" ref="S17" si="14">R17-R18+Q17</f>
         <v>-2019.47</v>
       </c>
       <c r="T17" s="6">
         <v>395.9</v>
       </c>
-      <c r="U17" s="49">
+      <c r="U17" s="43">
         <f t="shared" ref="U17" si="15">T17-T18+S17</f>
         <v>-2221.4899999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:21">
+    <row r="18" spans="2:21" ht="15.5">
       <c r="B18" s="9"/>
-      <c r="C18" s="37"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="34"/>
+      <c r="E18" s="33"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="34"/>
+      <c r="G18" s="33"/>
       <c r="H18" s="7">
         <v>0</v>
       </c>
-      <c r="I18" s="34"/>
+      <c r="I18" s="33"/>
       <c r="J18" s="7">
         <f>EXTRA_Clôtures!$B$5</f>
         <v>2011.4</v>
       </c>
-      <c r="K18" s="34"/>
+      <c r="K18" s="33"/>
       <c r="L18" s="7">
         <f>EXTRA_Clôtures!$C$5</f>
         <v>9.4499999999999993</v>
       </c>
-      <c r="M18" s="34"/>
+      <c r="M18" s="33"/>
       <c r="N18" s="7">
         <f>EXTRA_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O18" s="34"/>
+      <c r="O18" s="33"/>
       <c r="P18" s="7">
         <f>F17</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="34"/>
+      <c r="Q18" s="33"/>
       <c r="R18" s="7">
         <f>H17</f>
         <v>0</v>
       </c>
-      <c r="S18" s="34"/>
+      <c r="S18" s="33"/>
       <c r="T18" s="7">
         <v>597.91999999999996</v>
       </c>
-      <c r="U18" s="49"/>
-    </row>
-    <row r="19" spans="2:21">
+      <c r="U18" s="43"/>
+    </row>
+    <row r="19" spans="2:21" ht="15.5">
       <c r="B19" s="9"/>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="34" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="34">
+      <c r="E19" s="33">
         <f>D19-D20</f>
         <v>0</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="34">
+      <c r="G19" s="33">
         <f t="shared" ref="G19" si="16">F19-F20+E19</f>
         <v>0</v>
       </c>
       <c r="H19" s="6">
         <v>900</v>
       </c>
-      <c r="I19" s="34">
+      <c r="I19" s="33">
         <f t="shared" ref="I19" si="17">H19-H20+G19</f>
         <v>100</v>
       </c>
@@ -2041,7 +2041,7 @@
         <f>FONCT_Clôtures!$B$5</f>
         <v>3472.44</v>
       </c>
-      <c r="K19" s="34">
+      <c r="K19" s="33">
         <f t="shared" ref="K19" si="18">J19-J20+I19</f>
         <v>3045.07</v>
       </c>
@@ -2049,7 +2049,7 @@
         <f>FONCT_Clôtures!$C$5</f>
         <v>4029.87</v>
       </c>
-      <c r="M19" s="34">
+      <c r="M19" s="33">
         <f>L19-L20+K19</f>
         <v>7009.34</v>
       </c>
@@ -2057,88 +2057,88 @@
         <f>FONCT_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O19" s="34">
+      <c r="O19" s="33">
         <f>N19-N20+M19</f>
         <v>7009.34</v>
       </c>
       <c r="P19" s="6"/>
-      <c r="Q19" s="34">
+      <c r="Q19" s="33">
         <f>P19-P20+O19</f>
         <v>7009.34</v>
       </c>
       <c r="R19" s="6"/>
-      <c r="S19" s="34">
+      <c r="S19" s="33">
         <f t="shared" ref="S19" si="19">R19-R20+Q19</f>
         <v>6109.34</v>
       </c>
       <c r="T19" s="6">
         <v>1055.74</v>
       </c>
-      <c r="U19" s="49">
+      <c r="U19" s="43">
         <f t="shared" ref="U19" si="20">T19-T20+S19</f>
         <v>-894.69999999999982</v>
       </c>
     </row>
-    <row r="20" spans="2:21">
+    <row r="20" spans="2:21" ht="15.5">
       <c r="B20" s="9"/>
-      <c r="C20" s="37"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="34"/>
+      <c r="E20" s="33"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="34"/>
+      <c r="G20" s="33"/>
       <c r="H20" s="7">
         <v>800</v>
       </c>
-      <c r="I20" s="34"/>
+      <c r="I20" s="33"/>
       <c r="J20" s="7">
         <f>FONCT_Clôtures!$B$12</f>
         <v>527.37</v>
       </c>
-      <c r="K20" s="34"/>
+      <c r="K20" s="33"/>
       <c r="L20" s="7">
         <f>FONCT_Clôtures!$C$12</f>
         <v>65.599999999999994</v>
       </c>
-      <c r="M20" s="34"/>
+      <c r="M20" s="33"/>
       <c r="N20" s="7">
         <f>FONCT_Clôtures!$D$12</f>
         <v>0</v>
       </c>
-      <c r="O20" s="34"/>
+      <c r="O20" s="33"/>
       <c r="P20" s="7">
         <f>F19</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="34"/>
+      <c r="Q20" s="33"/>
       <c r="R20" s="7">
         <f>H19</f>
         <v>900</v>
       </c>
-      <c r="S20" s="34"/>
+      <c r="S20" s="33"/>
       <c r="T20" s="7">
         <v>8059.78</v>
       </c>
-      <c r="U20" s="49"/>
-    </row>
-    <row r="21" spans="2:21">
+      <c r="U20" s="43"/>
+    </row>
+    <row r="21" spans="2:21" ht="15.5">
       <c r="B21" s="9"/>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="34" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="34">
+      <c r="E21" s="33">
         <f>D21-D22</f>
         <v>0</v>
       </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="34">
+      <c r="G21" s="33">
         <f t="shared" ref="G21" si="21">F21-F22+E21</f>
         <v>0</v>
       </c>
       <c r="H21" s="6">
         <v>0</v>
       </c>
-      <c r="I21" s="34">
+      <c r="I21" s="33">
         <f t="shared" ref="I21" si="22">H21-H22+G21</f>
         <v>0</v>
       </c>
@@ -2146,7 +2146,7 @@
         <f>CONVER_Clôtures!$B$3</f>
         <v>605.41999999999996</v>
       </c>
-      <c r="K21" s="34">
+      <c r="K21" s="33">
         <f t="shared" ref="K21" si="23">J21-J22+I21</f>
         <v>605.41999999999996</v>
       </c>
@@ -2154,7 +2154,7 @@
         <f>CONVER_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M21" s="34">
+      <c r="M21" s="33">
         <f>L21-L22+K21</f>
         <v>605.41999999999996</v>
       </c>
@@ -2162,88 +2162,88 @@
         <f>CONVER_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O21" s="34">
+      <c r="O21" s="33">
         <f>N21-N22+M21</f>
         <v>605.41999999999996</v>
       </c>
       <c r="P21" s="6"/>
-      <c r="Q21" s="34">
+      <c r="Q21" s="33">
         <f>P21-P22+O21</f>
         <v>605.41999999999996</v>
       </c>
       <c r="R21" s="6"/>
-      <c r="S21" s="34">
+      <c r="S21" s="33">
         <f t="shared" ref="S21" si="24">R21-R22+Q21</f>
         <v>605.41999999999996</v>
       </c>
       <c r="T21" s="6">
         <v>2405.42</v>
       </c>
-      <c r="U21" s="49">
+      <c r="U21" s="43">
         <f t="shared" ref="U21" si="25">T21-T22+S21</f>
         <v>10.840000000000032</v>
       </c>
     </row>
-    <row r="22" spans="2:21">
+    <row r="22" spans="2:21" ht="15.5">
       <c r="B22" s="9"/>
-      <c r="C22" s="37"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="34"/>
+      <c r="E22" s="33"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="34"/>
+      <c r="G22" s="33"/>
       <c r="H22" s="7">
         <v>0</v>
       </c>
-      <c r="I22" s="34"/>
+      <c r="I22" s="33"/>
       <c r="J22" s="7">
         <f>CONVER_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K22" s="34"/>
+      <c r="K22" s="33"/>
       <c r="L22" s="7">
         <f>CONVER_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M22" s="34"/>
+      <c r="M22" s="33"/>
       <c r="N22" s="7">
         <f>CONVER_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O22" s="34"/>
+      <c r="O22" s="33"/>
       <c r="P22" s="7">
         <f>F21</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="34"/>
+      <c r="Q22" s="33"/>
       <c r="R22" s="7">
         <f>H21</f>
         <v>0</v>
       </c>
-      <c r="S22" s="34"/>
+      <c r="S22" s="33"/>
       <c r="T22" s="7">
         <v>3000</v>
       </c>
-      <c r="U22" s="49"/>
-    </row>
-    <row r="23" spans="2:21">
+      <c r="U22" s="43"/>
+    </row>
+    <row r="23" spans="2:21" ht="15.5">
       <c r="B23" s="9"/>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="34" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="6"/>
-      <c r="E23" s="34">
+      <c r="E23" s="33">
         <f>D23-D24</f>
         <v>0</v>
       </c>
       <c r="F23" s="6"/>
-      <c r="G23" s="34">
+      <c r="G23" s="33">
         <f t="shared" ref="G23" si="26">F23-F24+E23</f>
         <v>0</v>
       </c>
       <c r="H23" s="6">
         <v>0</v>
       </c>
-      <c r="I23" s="34">
+      <c r="I23" s="33">
         <f t="shared" ref="I23" si="27">H23-H24+G23</f>
         <v>-100</v>
       </c>
@@ -2251,7 +2251,7 @@
         <f>LOCAL_Clôtures!$B$3</f>
         <v>255.62</v>
       </c>
-      <c r="K23" s="34">
+      <c r="K23" s="33">
         <f t="shared" ref="K23" si="28">J23-J24+I23</f>
         <v>-96.080000000000013</v>
       </c>
@@ -2259,7 +2259,7 @@
         <f>LOCAL_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M23" s="34">
+      <c r="M23" s="33">
         <f>L23-L24+K23</f>
         <v>-121.48000000000002</v>
       </c>
@@ -2267,86 +2267,86 @@
         <f>LOCAL_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O23" s="34">
+      <c r="O23" s="33">
         <f>N23-N24+M23</f>
         <v>-121.48000000000002</v>
       </c>
       <c r="P23" s="6"/>
-      <c r="Q23" s="34">
+      <c r="Q23" s="33">
         <f>P23-P24+O23</f>
         <v>-121.48000000000002</v>
       </c>
       <c r="R23" s="6"/>
-      <c r="S23" s="34">
+      <c r="S23" s="33">
         <f t="shared" ref="S23" si="29">R23-R24+Q23</f>
         <v>-121.48000000000002</v>
       </c>
       <c r="T23" s="6">
         <v>654.46</v>
       </c>
-      <c r="U23" s="49">
+      <c r="U23" s="43">
         <f t="shared" ref="U23" si="30">T23-T24+S23</f>
         <v>532.98</v>
       </c>
     </row>
-    <row r="24" spans="2:21">
+    <row r="24" spans="2:21" ht="15.5">
       <c r="B24" s="9"/>
-      <c r="C24" s="37"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="34"/>
+      <c r="E24" s="33"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="34"/>
+      <c r="G24" s="33"/>
       <c r="H24" s="7">
         <v>100</v>
       </c>
-      <c r="I24" s="34"/>
+      <c r="I24" s="33"/>
       <c r="J24" s="7">
         <f>LOCAL_Clôtures!$B$8</f>
         <v>251.70000000000002</v>
       </c>
-      <c r="K24" s="34"/>
+      <c r="K24" s="33"/>
       <c r="L24" s="7">
         <f>LOCAL_Clôtures!$C$8</f>
         <v>25.4</v>
       </c>
-      <c r="M24" s="34"/>
+      <c r="M24" s="33"/>
       <c r="N24" s="7">
         <f>LOCAL_Clôtures!$D$8</f>
         <v>0</v>
       </c>
-      <c r="O24" s="34"/>
+      <c r="O24" s="33"/>
       <c r="P24" s="7">
         <f>F23</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="34"/>
+      <c r="Q24" s="33"/>
       <c r="R24" s="7">
         <f>H23</f>
         <v>0</v>
       </c>
-      <c r="S24" s="34"/>
+      <c r="S24" s="33"/>
       <c r="T24" s="7"/>
-      <c r="U24" s="49"/>
-    </row>
-    <row r="25" spans="2:21">
+      <c r="U24" s="43"/>
+    </row>
+    <row r="25" spans="2:21" ht="15.5">
       <c r="B25" s="9"/>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="6"/>
-      <c r="E25" s="34">
+      <c r="E25" s="33">
         <f>D25-D26</f>
         <v>0</v>
       </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="34">
+      <c r="G25" s="33">
         <f t="shared" ref="G25" si="31">F25-F26+E25</f>
         <v>0</v>
       </c>
       <c r="H25" s="6">
         <v>0</v>
       </c>
-      <c r="I25" s="34">
+      <c r="I25" s="33">
         <f t="shared" ref="I25" si="32">H25-H26+G25</f>
         <v>-250</v>
       </c>
@@ -2354,7 +2354,7 @@
         <f>LOG_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K25" s="34">
+      <c r="K25" s="33">
         <f t="shared" ref="K25" si="33">J25-J26+I25</f>
         <v>-355.32</v>
       </c>
@@ -2362,7 +2362,7 @@
         <f>LOG_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M25" s="34">
+      <c r="M25" s="33">
         <f>L25-L26+K25</f>
         <v>-355.32</v>
       </c>
@@ -2370,86 +2370,86 @@
         <f>LOG_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O25" s="34">
+      <c r="O25" s="33">
         <f>N25-N26+M25</f>
         <v>-355.32</v>
       </c>
       <c r="P25" s="6"/>
-      <c r="Q25" s="34">
+      <c r="Q25" s="33">
         <f>P25-P26+O25</f>
         <v>-355.32</v>
       </c>
       <c r="R25" s="6"/>
-      <c r="S25" s="34">
+      <c r="S25" s="33">
         <f t="shared" ref="S25" si="34">R25-R26+Q25</f>
         <v>-355.32</v>
       </c>
       <c r="T25" s="6">
         <v>354.95</v>
       </c>
-      <c r="U25" s="49">
+      <c r="U25" s="43">
         <f t="shared" ref="U25" si="35">T25-T26+S25</f>
         <v>-0.37000000000000455</v>
       </c>
     </row>
-    <row r="26" spans="2:21">
+    <row r="26" spans="2:21" ht="15.5">
       <c r="B26" s="9"/>
-      <c r="C26" s="37"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="34"/>
+      <c r="E26" s="33"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="34"/>
+      <c r="G26" s="33"/>
       <c r="H26" s="7">
         <v>250</v>
       </c>
-      <c r="I26" s="34"/>
+      <c r="I26" s="33"/>
       <c r="J26" s="7">
         <f>LOG_Clôtures!$B$5</f>
         <v>105.32</v>
       </c>
-      <c r="K26" s="34"/>
+      <c r="K26" s="33"/>
       <c r="L26" s="7">
         <f>LOG_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M26" s="34"/>
+      <c r="M26" s="33"/>
       <c r="N26" s="7">
         <f>LOG_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O26" s="34"/>
+      <c r="O26" s="33"/>
       <c r="P26" s="7">
         <f>F25</f>
         <v>0</v>
       </c>
-      <c r="Q26" s="34"/>
+      <c r="Q26" s="33"/>
       <c r="R26" s="7">
         <f>H25</f>
         <v>0</v>
       </c>
-      <c r="S26" s="34"/>
+      <c r="S26" s="33"/>
       <c r="T26" s="7"/>
-      <c r="U26" s="49"/>
-    </row>
-    <row r="27" spans="2:21">
+      <c r="U26" s="43"/>
+    </row>
+    <row r="27" spans="2:21" ht="15.5">
       <c r="B27" s="9"/>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="34" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="6"/>
-      <c r="E27" s="34">
+      <c r="E27" s="33">
         <f>D27-D28</f>
         <v>0</v>
       </c>
       <c r="F27" s="6"/>
-      <c r="G27" s="34">
+      <c r="G27" s="33">
         <f>F27-F28+E27</f>
         <v>0</v>
       </c>
       <c r="H27" s="6">
         <v>0</v>
       </c>
-      <c r="I27" s="34">
+      <c r="I27" s="33">
         <f>H27-H28+G27</f>
         <v>0</v>
       </c>
@@ -2457,7 +2457,7 @@
         <f>MOBILITY_Clôtures!$B$3</f>
         <v>564.83000000000004</v>
       </c>
-      <c r="K27" s="34">
+      <c r="K27" s="33">
         <f>J27-J28+I27</f>
         <v>0</v>
       </c>
@@ -2465,7 +2465,7 @@
         <f>MOBILITY_Clôtures!$C$3</f>
         <v>845</v>
       </c>
-      <c r="M27" s="34">
+      <c r="M27" s="33">
         <f>L27-L28+K27</f>
         <v>-9.9999999999909051E-3</v>
       </c>
@@ -2473,85 +2473,85 @@
         <f>MOBILITY_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O27" s="34">
+      <c r="O27" s="33">
         <f>N27-N28+M27</f>
         <v>-9.9999999999909051E-3</v>
       </c>
       <c r="P27" s="6"/>
-      <c r="Q27" s="34">
+      <c r="Q27" s="33">
         <f>P27-P28+O27</f>
         <v>-9.9999999999909051E-3</v>
       </c>
       <c r="R27" s="6"/>
-      <c r="S27" s="34">
+      <c r="S27" s="33">
         <f>R27-R28+Q27</f>
         <v>-9.9999999999909051E-3</v>
       </c>
       <c r="T27" s="6">
         <v>1887.3</v>
       </c>
-      <c r="U27" s="49">
+      <c r="U27" s="43">
         <f>T27-T28+S27</f>
         <v>-9.9999999999909051E-3</v>
       </c>
     </row>
-    <row r="28" spans="2:21">
+    <row r="28" spans="2:21" ht="15.5">
       <c r="B28" s="9"/>
-      <c r="C28" s="37"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="34"/>
+      <c r="E28" s="33"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="34"/>
+      <c r="G28" s="33"/>
       <c r="H28" s="7">
         <v>0</v>
       </c>
-      <c r="I28" s="34"/>
+      <c r="I28" s="33"/>
       <c r="J28" s="7">
         <f>MOBILITY_Clôtures!$B$5</f>
         <v>564.83000000000004</v>
       </c>
-      <c r="K28" s="34"/>
+      <c r="K28" s="33"/>
       <c r="L28" s="7">
         <f>MOBILITY_Clôtures!$C$5</f>
         <v>845.01</v>
       </c>
-      <c r="M28" s="34"/>
+      <c r="M28" s="33"/>
       <c r="N28" s="7">
         <f>MOBILITY_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O28" s="34"/>
+      <c r="O28" s="33"/>
       <c r="P28" s="7">
         <f>F27</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="34"/>
+      <c r="Q28" s="33"/>
       <c r="R28" s="7">
         <f>H27</f>
         <v>0</v>
       </c>
-      <c r="S28" s="34"/>
+      <c r="S28" s="33"/>
       <c r="T28" s="7">
         <v>1887.3</v>
       </c>
-      <c r="U28" s="49"/>
-    </row>
-    <row r="29" spans="2:21">
+      <c r="U28" s="43"/>
+    </row>
+    <row r="29" spans="2:21" ht="15.5">
       <c r="B29" s="9"/>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="34" t="s">
         <v>90</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="32"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="34">
+      <c r="G29" s="33">
         <f>F29-F30+E29</f>
         <v>0</v>
       </c>
       <c r="H29" s="6">
         <v>0</v>
       </c>
-      <c r="I29" s="34">
+      <c r="I29" s="33">
         <f>H29-H30+G29</f>
         <v>0</v>
       </c>
@@ -2559,7 +2559,7 @@
         <f>REPRO_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K29" s="34">
+      <c r="K29" s="33">
         <f>J29-J30+I29</f>
         <v>0</v>
       </c>
@@ -2567,7 +2567,7 @@
         <f>REPRO_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M29" s="34">
+      <c r="M29" s="33">
         <f>L29-L30+K29</f>
         <v>0</v>
       </c>
@@ -2575,69 +2575,69 @@
         <f>REPRO_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O29" s="34">
+      <c r="O29" s="33">
         <f>N29-N30+M29</f>
         <v>0</v>
       </c>
       <c r="P29" s="7"/>
-      <c r="Q29" s="34">
+      <c r="Q29" s="33">
         <f>P29-P30+O29</f>
         <v>0</v>
       </c>
       <c r="R29" s="7"/>
-      <c r="S29" s="34">
+      <c r="S29" s="33">
         <f>R29-R30+Q29</f>
         <v>0</v>
       </c>
       <c r="T29" s="7"/>
-      <c r="U29" s="49">
+      <c r="U29" s="43">
         <f>T29-T30+S29</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:21">
+    <row r="30" spans="2:21" ht="15.5">
       <c r="B30" s="9"/>
-      <c r="C30" s="54"/>
+      <c r="C30" s="35"/>
       <c r="D30" s="7"/>
       <c r="E30" s="32"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="34"/>
+      <c r="G30" s="33"/>
       <c r="H30" s="7">
         <v>0</v>
       </c>
-      <c r="I30" s="34"/>
+      <c r="I30" s="33"/>
       <c r="J30" s="7">
         <f>REPRO_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K30" s="34"/>
+      <c r="K30" s="33"/>
       <c r="L30" s="7">
         <f>REPRO_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M30" s="34"/>
+      <c r="M30" s="33"/>
       <c r="N30" s="7">
         <f>REPRO_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O30" s="34"/>
+      <c r="O30" s="33"/>
       <c r="P30" s="27"/>
-      <c r="Q30" s="34"/>
+      <c r="Q30" s="33"/>
       <c r="R30" s="27"/>
-      <c r="S30" s="34"/>
+      <c r="S30" s="33"/>
       <c r="T30" s="7"/>
-      <c r="U30" s="49"/>
-    </row>
-    <row r="31" spans="2:21">
-      <c r="B31" s="38" t="s">
+      <c r="U30" s="43"/>
+    </row>
+    <row r="31" spans="2:21" ht="15.5">
+      <c r="B31" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="39"/>
+      <c r="C31" s="57"/>
       <c r="D31" s="8">
         <f>D33+D35+D37+D41+D43+D45+D47+D49+D51+D53+D55+D57+D59+D61+D65</f>
         <v>3136.0899999999997</v>
       </c>
-      <c r="E31" s="33">
+      <c r="E31" s="44">
         <f>D31-D32</f>
         <v>-1901.2299999999991</v>
       </c>
@@ -2645,7 +2645,7 @@
         <f>F33+F35+F37+F39+F41+F43+F45+F47+F49+F51+F53+F55+F57+F59+F61+F65</f>
         <v>4406.34</v>
       </c>
-      <c r="G31" s="33">
+      <c r="G31" s="44">
         <f>F31-F32</f>
         <v>4406.34</v>
       </c>
@@ -2653,7 +2653,7 @@
         <f>H33+H35+H37+H39+H41+H43+H45+H47+H49+H51+H53+H55+H57+H59+H61+H63+H65</f>
         <v>28280</v>
       </c>
-      <c r="I31" s="33">
+      <c r="I31" s="44">
         <f>H31-H32+G31</f>
         <v>-8171.66</v>
       </c>
@@ -2661,123 +2661,123 @@
         <f>J33+J35+J37+J39+J41+J43+J45+J47+J49+J51+J53+J55+J57+J59+J61+J63+J65</f>
         <v>9661.83</v>
       </c>
-      <c r="K31" s="33">
+      <c r="K31" s="44">
         <f>J31-J32+I31</f>
         <v>-2211.6800000000003</v>
       </c>
       <c r="L31" s="8">
         <f>L33+L35+L37+L39+L41+L43+L45+L47+L49+L51+L53+L55+L57+L59+L61+L63+L65</f>
-        <v>4352.4800000000005</v>
-      </c>
-      <c r="M31" s="33">
+        <v>5352.4800000000005</v>
+      </c>
+      <c r="M31" s="44">
         <f>L31-L32+K31</f>
-        <v>-10000.959999999999</v>
+        <v>-9820.9599999999991</v>
       </c>
       <c r="N31" s="8">
         <f>N33+N35+N37+N39+N41+N43+N45+N47+N49+N51+N53+N55+N57+N59+N61+N63+N65</f>
         <v>0</v>
       </c>
-      <c r="O31" s="33">
+      <c r="O31" s="44">
         <f>N31-N32+M31</f>
-        <v>-10000.959999999999</v>
+        <v>-9820.9599999999991</v>
       </c>
       <c r="P31" s="6">
         <f>P33+P35+P37+P39+P41+P43+P45+P47+P49+P51+P53+P55+P57+P59+P61+P63+P65</f>
         <v>0</v>
       </c>
-      <c r="Q31" s="34">
+      <c r="Q31" s="33">
         <f>P31-P32+O31</f>
-        <v>-14407.3</v>
+        <v>-14227.3</v>
       </c>
       <c r="R31" s="6">
         <f>R33+R35+R37+R39+R41+R43+R45+R47+R49+R51+R53+R55+R57+R59+R61+R63+R65</f>
         <v>0</v>
       </c>
-      <c r="S31" s="34">
+      <c r="S31" s="33">
         <f>R31-R32+Q31</f>
-        <v>-42687.3</v>
+        <v>-42507.3</v>
       </c>
       <c r="T31" s="8">
         <f>T33+T35+T37+T39+T41+T43+T45+T47+T49+T51+T53+T55+T57+T59+T61+T63+T65</f>
         <v>20889.509999999998</v>
       </c>
-      <c r="U31" s="33">
+      <c r="U31" s="44">
         <f>T31-T32+S31</f>
-        <v>-36874.980000000003</v>
-      </c>
-    </row>
-    <row r="32" spans="2:21">
-      <c r="B32" s="40"/>
-      <c r="C32" s="41"/>
+        <v>-36694.980000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" ht="15.5">
+      <c r="B32" s="58"/>
+      <c r="C32" s="59"/>
       <c r="D32" s="7">
         <f>D34+D36+D38+D40+D42+D44+D46+D48+D50+D52+D54+D56+D58+D60+D62+D66</f>
         <v>5037.3199999999988</v>
       </c>
-      <c r="E32" s="34"/>
+      <c r="E32" s="33"/>
       <c r="F32" s="7">
         <f>F34+F36+F38+F40+F42+F44+F46+F48+F50+F52+F54+F56+F58+F60+F62+F66</f>
         <v>0</v>
       </c>
-      <c r="G32" s="34"/>
+      <c r="G32" s="33"/>
       <c r="H32" s="7">
         <f>H34+H36+H38+H40+H42+H44+H46+H48+H50+H52+H54+H56+H58+H60+H62+H64+H66</f>
         <v>40858</v>
       </c>
-      <c r="I32" s="34"/>
+      <c r="I32" s="33"/>
       <c r="J32" s="7">
         <f>J34+J36+J38+J40+J42+J44+J46+J48+J50+J52+J54+J56+J58+J60+J62+J64+J66</f>
         <v>3701.85</v>
       </c>
-      <c r="K32" s="34"/>
+      <c r="K32" s="33"/>
       <c r="L32" s="7">
         <f>L34+L36+L38+L40+L42+L44+L46+L48+L50+L52+L54+L56+L58+L60+L62+L64+L66</f>
-        <v>12141.76</v>
-      </c>
-      <c r="M32" s="34"/>
+        <v>12961.76</v>
+      </c>
+      <c r="M32" s="33"/>
       <c r="N32" s="7">
         <f>N34+N36+N38+N40+N42+N44+N46+N48+N50+N52+N54+N56+N58+N60+N62+N64+N66</f>
         <v>0</v>
       </c>
-      <c r="O32" s="34"/>
+      <c r="O32" s="33"/>
       <c r="P32" s="7">
         <f>P34+P36+P38+P40+P42+P44+P46+P48+P50+P52+P54+P56+P58+P60+P62+P64+P66</f>
         <v>4406.34</v>
       </c>
-      <c r="Q32" s="34"/>
+      <c r="Q32" s="33"/>
       <c r="R32" s="7">
         <f>R34+R36+R38+R40+R42+R44+R46+R48+R50+R52+R54+R56+R58+R60+R62+R64+R66</f>
         <v>28280</v>
       </c>
-      <c r="S32" s="34"/>
+      <c r="S32" s="33"/>
       <c r="T32" s="7">
         <f>T34+T36+T38+T40+T42+T44+T46+T48+T50+T52+T54+T56+T58+T60+T62+T64+T66</f>
         <v>15077.19</v>
       </c>
-      <c r="U32" s="34"/>
-    </row>
-    <row r="33" spans="2:21">
+      <c r="U32" s="33"/>
+    </row>
+    <row r="33" spans="2:21" ht="15.5">
       <c r="B33" s="9"/>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="34" t="s">
         <v>19</v>
       </c>
       <c r="D33" s="6">
         <v>0</v>
       </c>
-      <c r="E33" s="34">
+      <c r="E33" s="33">
         <f>D33-D34</f>
         <v>-917.79</v>
       </c>
       <c r="F33" s="6">
         <v>0</v>
       </c>
-      <c r="G33" s="34">
+      <c r="G33" s="33">
         <f t="shared" ref="G33" si="36">F33-F34+E33</f>
         <v>-917.79</v>
       </c>
       <c r="H33" s="6">
         <v>150</v>
       </c>
-      <c r="I33" s="34">
+      <c r="I33" s="33">
         <f t="shared" ref="I33" si="37">H33-H34+G33</f>
         <v>-1117.79</v>
       </c>
@@ -2785,7 +2785,7 @@
         <f>API_Clôtures!$B$3</f>
         <v>119</v>
       </c>
-      <c r="K33" s="34">
+      <c r="K33" s="33">
         <f t="shared" ref="K33" si="38">J33-J34+I33</f>
         <v>-998.79</v>
       </c>
@@ -2793,7 +2793,7 @@
         <f>API_Clôtures!$C$3</f>
         <v>60</v>
       </c>
-      <c r="M33" s="34">
+      <c r="M33" s="33">
         <f t="shared" ref="M33" si="39">L33-L34+K33</f>
         <v>-938.79</v>
       </c>
@@ -2801,94 +2801,94 @@
         <f>API_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O33" s="34">
+      <c r="O33" s="33">
         <f t="shared" ref="O33" si="40">N33-N34+M33</f>
         <v>-938.79</v>
       </c>
       <c r="P33" s="6"/>
-      <c r="Q33" s="34">
+      <c r="Q33" s="33">
         <f>P33-P34+O33</f>
         <v>-938.79</v>
       </c>
       <c r="R33" s="6"/>
-      <c r="S33" s="34">
+      <c r="S33" s="33">
         <f t="shared" ref="S33" si="41">R33-R34+Q33</f>
         <v>-1088.79</v>
       </c>
       <c r="T33" s="6">
         <v>917.79</v>
       </c>
-      <c r="U33" s="34">
+      <c r="U33" s="33">
         <f t="shared" ref="U33" si="42">T33-T34+S33</f>
         <v>-171</v>
       </c>
     </row>
-    <row r="34" spans="2:21">
+    <row r="34" spans="2:21" ht="15.5">
       <c r="B34" s="9"/>
-      <c r="C34" s="37"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="7">
         <v>917.79</v>
       </c>
-      <c r="E34" s="34"/>
+      <c r="E34" s="33"/>
       <c r="F34" s="7">
         <v>0</v>
       </c>
-      <c r="G34" s="34"/>
+      <c r="G34" s="33"/>
       <c r="H34" s="7">
         <v>350</v>
       </c>
-      <c r="I34" s="34"/>
+      <c r="I34" s="33"/>
       <c r="J34" s="7">
         <f>API_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K34" s="34"/>
+      <c r="K34" s="33"/>
       <c r="L34" s="7">
         <f>API_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M34" s="34"/>
+      <c r="M34" s="33"/>
       <c r="N34" s="7">
         <f>API_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O34" s="34"/>
+      <c r="O34" s="33"/>
       <c r="P34" s="7">
         <f>F33</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="34"/>
+      <c r="Q34" s="33"/>
       <c r="R34" s="7">
         <f>H33</f>
         <v>150</v>
       </c>
-      <c r="S34" s="34"/>
+      <c r="S34" s="33"/>
       <c r="T34" s="7"/>
-      <c r="U34" s="34"/>
-    </row>
-    <row r="35" spans="2:21">
+      <c r="U34" s="33"/>
+    </row>
+    <row r="35" spans="2:21" ht="15.5">
       <c r="B35" s="9"/>
-      <c r="C35" s="37" t="s">
+      <c r="C35" s="34" t="s">
         <v>20</v>
       </c>
       <c r="D35" s="6">
         <v>641.85</v>
       </c>
-      <c r="E35" s="34">
+      <c r="E35" s="33">
         <f>D35-D36</f>
         <v>-1821.35</v>
       </c>
       <c r="F35" s="6">
         <v>0</v>
       </c>
-      <c r="G35" s="34">
+      <c r="G35" s="33">
         <f t="shared" ref="G35" si="43">F35-F36+E35</f>
         <v>-1821.35</v>
       </c>
       <c r="H35" s="6">
         <v>2000</v>
       </c>
-      <c r="I35" s="34">
+      <c r="I35" s="33">
         <f t="shared" ref="I35" si="44">H35-H36+G35</f>
         <v>-1921.35</v>
       </c>
@@ -2896,7 +2896,7 @@
         <f>CANARD_Clôtures!$B$4</f>
         <v>14.93</v>
       </c>
-      <c r="K35" s="34">
+      <c r="K35" s="33">
         <f t="shared" ref="K35" si="45">J35-J36+I35</f>
         <v>-1931.4699999999998</v>
       </c>
@@ -2904,7 +2904,7 @@
         <f>CANARD_Clôtures!$C$4</f>
         <v>0</v>
       </c>
-      <c r="M35" s="34">
+      <c r="M35" s="33">
         <f t="shared" ref="M35" si="46">L35-L36+K35</f>
         <v>-1931.4699999999998</v>
       </c>
@@ -2912,96 +2912,96 @@
         <f>CANARD_Clôtures!$D$4</f>
         <v>0</v>
       </c>
-      <c r="O35" s="34">
+      <c r="O35" s="33">
         <f t="shared" ref="O35" si="47">N35-N36+M35</f>
         <v>-1931.4699999999998</v>
       </c>
       <c r="P35" s="6"/>
-      <c r="Q35" s="34">
+      <c r="Q35" s="33">
         <f>P35-P36+O35</f>
         <v>-1931.4699999999998</v>
       </c>
       <c r="R35" s="6"/>
-      <c r="S35" s="34">
+      <c r="S35" s="33">
         <f t="shared" ref="S35" si="48">R35-R36+Q35</f>
         <v>-3931.47</v>
       </c>
       <c r="T35" s="6">
         <v>2463.1999999999998</v>
       </c>
-      <c r="U35" s="34">
+      <c r="U35" s="33">
         <f t="shared" ref="U35" si="49">T35-T36+S35</f>
         <v>-2110.12</v>
       </c>
     </row>
-    <row r="36" spans="2:21">
+    <row r="36" spans="2:21" ht="15.5">
       <c r="B36" s="9"/>
-      <c r="C36" s="37"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="7">
         <v>2463.1999999999998</v>
       </c>
-      <c r="E36" s="34"/>
+      <c r="E36" s="33"/>
       <c r="F36" s="7">
         <v>0</v>
       </c>
-      <c r="G36" s="34"/>
+      <c r="G36" s="33"/>
       <c r="H36" s="7">
         <v>2100</v>
       </c>
-      <c r="I36" s="34"/>
+      <c r="I36" s="33"/>
       <c r="J36" s="7">
         <f>CANARD_Clôtures!$B$6</f>
         <v>25.05</v>
       </c>
-      <c r="K36" s="34"/>
+      <c r="K36" s="33"/>
       <c r="L36" s="7">
         <f>CANARD_Clôtures!$C$6</f>
         <v>0</v>
       </c>
-      <c r="M36" s="34"/>
+      <c r="M36" s="33"/>
       <c r="N36" s="7">
         <f>CANARD_Clôtures!$D$6</f>
         <v>0</v>
       </c>
-      <c r="O36" s="34"/>
+      <c r="O36" s="33"/>
       <c r="P36" s="7">
         <f>F35</f>
         <v>0</v>
       </c>
-      <c r="Q36" s="34"/>
+      <c r="Q36" s="33"/>
       <c r="R36" s="7">
         <f>H35</f>
         <v>2000</v>
       </c>
-      <c r="S36" s="34"/>
+      <c r="S36" s="33"/>
       <c r="T36" s="7">
         <v>641.85</v>
       </c>
-      <c r="U36" s="34"/>
-    </row>
-    <row r="37" spans="2:21">
+      <c r="U36" s="33"/>
+    </row>
+    <row r="37" spans="2:21" ht="15.5">
       <c r="B37" s="9"/>
-      <c r="C37" s="37" t="s">
+      <c r="C37" s="34" t="s">
         <v>21</v>
       </c>
       <c r="D37" s="6">
         <v>2379.29</v>
       </c>
-      <c r="E37" s="34">
+      <c r="E37" s="33">
         <f>D37-D38</f>
         <v>933.56</v>
       </c>
       <c r="F37" s="6">
         <v>4406.34</v>
       </c>
-      <c r="G37" s="34">
+      <c r="G37" s="33">
         <f t="shared" ref="G37" si="50">F37-F38+E37</f>
         <v>5339.9</v>
       </c>
       <c r="H37" s="6">
         <v>1600</v>
       </c>
-      <c r="I37" s="34">
+      <c r="I37" s="33">
         <f t="shared" ref="I37" si="51">H37-H38+G37</f>
         <v>4969.8999999999996</v>
       </c>
@@ -3009,7 +3009,7 @@
         <f>CASTOR_Clôtures!$B$3</f>
         <v>597.19000000000005</v>
       </c>
-      <c r="K37" s="34">
+      <c r="K37" s="33">
         <f t="shared" ref="K37" si="52">J37-J38+I37</f>
         <v>4777.0999999999995</v>
       </c>
@@ -3017,7 +3017,7 @@
         <f>CASTOR_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M37" s="34">
+      <c r="M37" s="33">
         <f t="shared" ref="M37" si="53">L37-L38+K37</f>
         <v>4702.4399999999996</v>
       </c>
@@ -3025,96 +3025,96 @@
         <f>CASTOR_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O37" s="34">
+      <c r="O37" s="33">
         <f t="shared" ref="O37" si="54">N37-N38+M37</f>
         <v>4702.4399999999996</v>
       </c>
       <c r="P37" s="6"/>
-      <c r="Q37" s="34">
+      <c r="Q37" s="33">
         <f>P37-P38+O37</f>
         <v>296.09999999999945</v>
       </c>
       <c r="R37" s="6"/>
-      <c r="S37" s="34">
+      <c r="S37" s="33">
         <f t="shared" ref="S37" si="55">R37-R38+Q37</f>
         <v>-1303.9000000000005</v>
       </c>
       <c r="T37" s="6">
         <v>1445.73</v>
       </c>
-      <c r="U37" s="55">
+      <c r="U37" s="46">
         <f t="shared" ref="U37" si="56">T37-T38+S37</f>
         <v>-2237.4600000000005</v>
       </c>
     </row>
-    <row r="38" spans="2:21">
+    <row r="38" spans="2:21" ht="15.5">
       <c r="B38" s="9"/>
-      <c r="C38" s="37"/>
+      <c r="C38" s="34"/>
       <c r="D38" s="7">
         <v>1445.73</v>
       </c>
-      <c r="E38" s="34"/>
+      <c r="E38" s="33"/>
       <c r="F38" s="7">
         <v>0</v>
       </c>
-      <c r="G38" s="34"/>
+      <c r="G38" s="33"/>
       <c r="H38" s="7">
         <v>1970</v>
       </c>
-      <c r="I38" s="34"/>
+      <c r="I38" s="33"/>
       <c r="J38" s="7">
         <f>CASTOR_Clôtures!$B$5</f>
         <v>789.99</v>
       </c>
-      <c r="K38" s="34"/>
+      <c r="K38" s="33"/>
       <c r="L38" s="7">
         <f>CASTOR_Clôtures!$C$5</f>
         <v>74.66</v>
       </c>
-      <c r="M38" s="34"/>
+      <c r="M38" s="33"/>
       <c r="N38" s="7">
         <f>CASTOR_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O38" s="34"/>
+      <c r="O38" s="33"/>
       <c r="P38" s="7">
         <f>F37</f>
         <v>4406.34</v>
       </c>
-      <c r="Q38" s="34"/>
+      <c r="Q38" s="33"/>
       <c r="R38" s="7">
         <f>H37</f>
         <v>1600</v>
       </c>
-      <c r="S38" s="34"/>
+      <c r="S38" s="33"/>
       <c r="T38" s="7">
         <v>2379.29</v>
       </c>
-      <c r="U38" s="55"/>
-    </row>
-    <row r="39" spans="2:21">
+      <c r="U38" s="46"/>
+    </row>
+    <row r="39" spans="2:21" ht="15.5">
       <c r="B39" s="9"/>
-      <c r="C39" s="37" t="s">
+      <c r="C39" s="34" t="s">
         <v>31</v>
       </c>
       <c r="D39" s="6">
         <v>0</v>
       </c>
-      <c r="E39" s="34">
+      <c r="E39" s="33">
         <f>D39-D40</f>
         <v>-128.69999999999999</v>
       </c>
       <c r="F39" s="6">
         <v>0</v>
       </c>
-      <c r="G39" s="34">
+      <c r="G39" s="33">
         <f t="shared" ref="G39" si="57">F39-F40+E39</f>
         <v>-128.69999999999999</v>
       </c>
       <c r="H39" s="6">
         <v>0</v>
       </c>
-      <c r="I39" s="34">
+      <c r="I39" s="33">
         <f t="shared" ref="I39" si="58">H39-H40+G39</f>
         <v>-458.7</v>
       </c>
@@ -3122,7 +3122,7 @@
         <f>DEBOUC_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K39" s="34">
+      <c r="K39" s="33">
         <f t="shared" ref="K39" si="59">J39-J40+I39</f>
         <v>-485.03</v>
       </c>
@@ -3130,7 +3130,7 @@
         <f>DEBOUC_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M39" s="34">
+      <c r="M39" s="33">
         <f t="shared" ref="M39" si="60">L39-L40+K39</f>
         <v>-500.53</v>
       </c>
@@ -3138,92 +3138,92 @@
         <f>DEBOUC_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O39" s="34">
+      <c r="O39" s="33">
         <f t="shared" ref="O39" si="61">N39-N40+M39</f>
         <v>-500.53</v>
       </c>
       <c r="P39" s="6"/>
-      <c r="Q39" s="34">
+      <c r="Q39" s="33">
         <f>P39-P40+O39</f>
         <v>-500.53</v>
       </c>
       <c r="R39" s="6"/>
-      <c r="S39" s="34">
+      <c r="S39" s="33">
         <f t="shared" ref="S39" si="62">R39-R40+Q39</f>
         <v>-500.53</v>
       </c>
       <c r="T39" s="6">
         <v>128.69999999999999</v>
       </c>
-      <c r="U39" s="34">
+      <c r="U39" s="33">
         <f t="shared" ref="U39" si="63">T39-T40+S39</f>
         <v>-371.83</v>
       </c>
     </row>
-    <row r="40" spans="2:21">
+    <row r="40" spans="2:21" ht="15.5">
       <c r="B40" s="9"/>
-      <c r="C40" s="37"/>
+      <c r="C40" s="34"/>
       <c r="D40" s="7">
         <v>128.69999999999999</v>
       </c>
-      <c r="E40" s="34"/>
+      <c r="E40" s="33"/>
       <c r="F40" s="7">
         <v>0</v>
       </c>
-      <c r="G40" s="34"/>
+      <c r="G40" s="33"/>
       <c r="H40" s="7">
         <v>330</v>
       </c>
-      <c r="I40" s="34"/>
+      <c r="I40" s="33"/>
       <c r="J40" s="7">
         <f>DEBOUC_Clôtures!$B$5</f>
         <v>26.33</v>
       </c>
-      <c r="K40" s="34"/>
+      <c r="K40" s="33"/>
       <c r="L40" s="7">
         <f>DEBOUC_Clôtures!$C$5</f>
         <v>15.5</v>
       </c>
-      <c r="M40" s="34"/>
+      <c r="M40" s="33"/>
       <c r="N40" s="7">
         <f>DEBOUC_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O40" s="34"/>
+      <c r="O40" s="33"/>
       <c r="P40" s="7">
         <f>F39</f>
         <v>0</v>
       </c>
-      <c r="Q40" s="34"/>
+      <c r="Q40" s="33"/>
       <c r="R40" s="7">
         <f>H39</f>
         <v>0</v>
       </c>
-      <c r="S40" s="34"/>
+      <c r="S40" s="33"/>
       <c r="T40" s="7"/>
-      <c r="U40" s="34"/>
-    </row>
-    <row r="41" spans="2:21">
+      <c r="U40" s="33"/>
+    </row>
+    <row r="41" spans="2:21" ht="15.5">
       <c r="B41" s="9"/>
-      <c r="C41" s="37" t="s">
+      <c r="C41" s="34" t="s">
         <v>22</v>
       </c>
       <c r="D41" s="6">
         <v>114.95</v>
       </c>
-      <c r="E41" s="34">
+      <c r="E41" s="33">
         <f>D41-D42</f>
         <v>33.049999999999997</v>
       </c>
       <c r="F41" s="6"/>
-      <c r="G41" s="34">
+      <c r="G41" s="33">
         <f>F41-F42+E41</f>
         <v>33.049999999999997</v>
       </c>
       <c r="H41" s="6">
         <v>600</v>
       </c>
-      <c r="I41" s="34">
+      <c r="I41" s="33">
         <f t="shared" ref="I41" si="64">H41-H42+G41</f>
         <v>-966.95</v>
       </c>
@@ -3231,7 +3231,7 @@
         <f>EVA_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K41" s="34">
+      <c r="K41" s="33">
         <f t="shared" ref="K41" si="65">J41-J42+I41</f>
         <v>-1236</v>
       </c>
@@ -3239,7 +3239,7 @@
         <f>EVA_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M41" s="34">
+      <c r="M41" s="33">
         <f t="shared" ref="M41" si="66">L41-L42+K41</f>
         <v>-1764.35</v>
       </c>
@@ -3247,90 +3247,90 @@
         <f>EVA_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O41" s="34">
+      <c r="O41" s="33">
         <f t="shared" ref="O41" si="67">N41-N42+M41</f>
         <v>-1764.35</v>
       </c>
       <c r="P41" s="6"/>
-      <c r="Q41" s="34">
+      <c r="Q41" s="33">
         <f>P41-P42+O41</f>
         <v>-1764.35</v>
       </c>
       <c r="R41" s="6"/>
-      <c r="S41" s="34">
+      <c r="S41" s="33">
         <f t="shared" ref="S41" si="68">R41-R42+Q41</f>
         <v>-2364.35</v>
       </c>
       <c r="T41" s="6">
         <v>81.900000000000006</v>
       </c>
-      <c r="U41" s="34">
+      <c r="U41" s="33">
         <f t="shared" ref="U41" si="69">T41-T42+S41</f>
         <v>-2397.4</v>
       </c>
     </row>
-    <row r="42" spans="2:21">
+    <row r="42" spans="2:21" ht="15.5">
       <c r="B42" s="9"/>
-      <c r="C42" s="37"/>
+      <c r="C42" s="34"/>
       <c r="D42" s="7">
         <v>81.900000000000006</v>
       </c>
-      <c r="E42" s="34"/>
+      <c r="E42" s="33"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="34"/>
+      <c r="G42" s="33"/>
       <c r="H42" s="7">
         <v>1600</v>
       </c>
-      <c r="I42" s="34"/>
+      <c r="I42" s="33"/>
       <c r="J42" s="7">
         <f>EVA_Clôtures!$B$5</f>
         <v>269.05</v>
       </c>
-      <c r="K42" s="34"/>
+      <c r="K42" s="33"/>
       <c r="L42" s="7">
         <f>EVA_Clôtures!$C$5</f>
         <v>528.35</v>
       </c>
-      <c r="M42" s="34"/>
+      <c r="M42" s="33"/>
       <c r="N42" s="7">
         <f>EVA_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O42" s="34"/>
+      <c r="O42" s="33"/>
       <c r="P42" s="7">
         <f>F41</f>
         <v>0</v>
       </c>
-      <c r="Q42" s="34"/>
+      <c r="Q42" s="33"/>
       <c r="R42" s="7">
         <f>H41</f>
         <v>600</v>
       </c>
-      <c r="S42" s="34"/>
+      <c r="S42" s="33"/>
       <c r="T42" s="7">
         <v>114.95</v>
       </c>
-      <c r="U42" s="34"/>
-    </row>
-    <row r="43" spans="2:21">
+      <c r="U42" s="33"/>
+    </row>
+    <row r="43" spans="2:21" ht="15.5">
       <c r="B43" s="9"/>
-      <c r="C43" s="37" t="s">
+      <c r="C43" s="34" t="s">
         <v>23</v>
       </c>
       <c r="D43" s="6"/>
-      <c r="E43" s="34">
+      <c r="E43" s="33">
         <f>D43-D44</f>
         <v>0</v>
       </c>
       <c r="F43" s="6"/>
-      <c r="G43" s="34">
+      <c r="G43" s="33">
         <f>F43-F44+E43</f>
         <v>0</v>
       </c>
       <c r="H43" s="6">
         <v>0</v>
       </c>
-      <c r="I43" s="34">
+      <c r="I43" s="33">
         <f t="shared" ref="I43" si="70">H43-H44+G43</f>
         <v>-508</v>
       </c>
@@ -3338,7 +3338,7 @@
         <f>EPILIBRE_Clôtures!B2</f>
         <v>55.5</v>
       </c>
-      <c r="K43" s="34">
+      <c r="K43" s="33">
         <f t="shared" ref="K43" si="71">J43-J44+I43</f>
         <v>-711.85</v>
       </c>
@@ -3346,7 +3346,7 @@
         <f>EPILIBRE_Clôtures!C2</f>
         <v>0</v>
       </c>
-      <c r="M43" s="34">
+      <c r="M43" s="33">
         <f t="shared" ref="M43" si="72">L43-L44+K43</f>
         <v>-711.85</v>
       </c>
@@ -3354,86 +3354,86 @@
         <f>EPILIBRE_Clôtures!D2</f>
         <v>0</v>
       </c>
-      <c r="O43" s="34">
+      <c r="O43" s="33">
         <f t="shared" ref="O43" si="73">N43-N44+M43</f>
         <v>-711.85</v>
       </c>
       <c r="P43" s="6"/>
-      <c r="Q43" s="34">
+      <c r="Q43" s="33">
         <f>P43-P44+O43</f>
         <v>-711.85</v>
       </c>
       <c r="R43" s="6"/>
-      <c r="S43" s="34">
+      <c r="S43" s="33">
         <f t="shared" ref="S43" si="74">R43-R44+Q43</f>
         <v>-711.85</v>
       </c>
       <c r="T43" s="6">
         <v>351.1</v>
       </c>
-      <c r="U43" s="34">
+      <c r="U43" s="33">
         <f t="shared" ref="U43:U45" si="75">T43-T44+S43</f>
         <v>-538.5</v>
       </c>
     </row>
-    <row r="44" spans="2:21">
+    <row r="44" spans="2:21" ht="15.5">
       <c r="B44" s="9"/>
-      <c r="C44" s="37"/>
+      <c r="C44" s="34"/>
       <c r="D44" s="7"/>
-      <c r="E44" s="34"/>
+      <c r="E44" s="33"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="34"/>
+      <c r="G44" s="33"/>
       <c r="H44" s="7">
         <v>508</v>
       </c>
-      <c r="I44" s="34"/>
+      <c r="I44" s="33"/>
       <c r="J44" s="7">
         <f>EPILIBRE_Clôtures!B5</f>
         <v>259.35000000000002</v>
       </c>
-      <c r="K44" s="34"/>
+      <c r="K44" s="33"/>
       <c r="L44" s="7">
         <f>EPILIBRE_Clôtures!C5</f>
         <v>0</v>
       </c>
-      <c r="M44" s="34"/>
+      <c r="M44" s="33"/>
       <c r="N44" s="7">
         <f>EPILIBRE_Clôtures!D5</f>
         <v>0</v>
       </c>
-      <c r="O44" s="34"/>
+      <c r="O44" s="33"/>
       <c r="P44" s="7">
         <f>F43</f>
         <v>0</v>
       </c>
-      <c r="Q44" s="34"/>
+      <c r="Q44" s="33"/>
       <c r="R44" s="7">
         <f>H43</f>
         <v>0</v>
       </c>
-      <c r="S44" s="34"/>
+      <c r="S44" s="33"/>
       <c r="T44" s="7">
         <v>177.75</v>
       </c>
-      <c r="U44" s="34"/>
-    </row>
-    <row r="45" spans="2:21">
+      <c r="U44" s="33"/>
+    </row>
+    <row r="45" spans="2:21" ht="15.5">
       <c r="B45" s="9"/>
-      <c r="C45" s="37"/>
+      <c r="C45" s="34"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="34">
+      <c r="E45" s="33">
         <f>D45-D46</f>
         <v>0</v>
       </c>
       <c r="F45" s="6"/>
-      <c r="G45" s="34">
+      <c r="G45" s="33">
         <f>F45-F46+E45</f>
         <v>0</v>
       </c>
       <c r="H45" s="6">
         <v>1200</v>
       </c>
-      <c r="I45" s="34">
+      <c r="I45" s="33">
         <f t="shared" ref="I45" si="76">H45-H46+G45</f>
         <v>-300</v>
       </c>
@@ -3441,7 +3441,7 @@
         <f>EPILIBRE_Clôtures!B3</f>
         <v>488.15</v>
       </c>
-      <c r="K45" s="34">
+      <c r="K45" s="33">
         <f t="shared" ref="K45" si="77">J45-J46+I45</f>
         <v>188.14999999999998</v>
       </c>
@@ -3449,7 +3449,7 @@
         <f>EPILIBRE_Clôtures!C3</f>
         <v>0</v>
       </c>
-      <c r="M45" s="34">
+      <c r="M45" s="33">
         <f t="shared" ref="M45" si="78">L45-L46+K45</f>
         <v>188.14999999999998</v>
       </c>
@@ -3457,88 +3457,88 @@
         <f>EPILIBRE_Clôtures!D3</f>
         <v>0</v>
       </c>
-      <c r="O45" s="34">
+      <c r="O45" s="33">
         <f t="shared" ref="O45" si="79">N45-N46+M45</f>
         <v>188.14999999999998</v>
       </c>
       <c r="P45" s="6"/>
-      <c r="Q45" s="34">
+      <c r="Q45" s="33">
         <f>P45-P46+O45</f>
         <v>188.14999999999998</v>
       </c>
       <c r="R45" s="6"/>
-      <c r="S45" s="34">
+      <c r="S45" s="33">
         <f t="shared" ref="S45" si="80">R45-R46+Q45</f>
         <v>-1011.85</v>
       </c>
       <c r="T45" s="6">
         <v>1588.28</v>
       </c>
-      <c r="U45" s="55">
+      <c r="U45" s="46">
         <f t="shared" si="75"/>
         <v>-1192.9000000000001</v>
       </c>
     </row>
-    <row r="46" spans="2:21">
+    <row r="46" spans="2:21" ht="15.5">
       <c r="B46" s="9"/>
-      <c r="C46" s="37"/>
+      <c r="C46" s="34"/>
       <c r="D46" s="7"/>
-      <c r="E46" s="34"/>
+      <c r="E46" s="33"/>
       <c r="F46" s="7"/>
-      <c r="G46" s="34"/>
+      <c r="G46" s="33"/>
       <c r="H46" s="7">
         <v>1500</v>
       </c>
-      <c r="I46" s="34"/>
+      <c r="I46" s="33"/>
       <c r="J46" s="7">
         <f>EPILIBRE_Clôtures!B6</f>
         <v>0</v>
       </c>
-      <c r="K46" s="34"/>
+      <c r="K46" s="33"/>
       <c r="L46" s="7">
         <f>EPILIBRE_Clôtures!C6</f>
         <v>0</v>
       </c>
-      <c r="M46" s="34"/>
+      <c r="M46" s="33"/>
       <c r="N46" s="7">
         <f>EPILIBRE_Clôtures!D6</f>
         <v>0</v>
       </c>
-      <c r="O46" s="34"/>
+      <c r="O46" s="33"/>
       <c r="P46" s="7">
         <f>F45</f>
         <v>0</v>
       </c>
-      <c r="Q46" s="34"/>
+      <c r="Q46" s="33"/>
       <c r="R46" s="7">
         <f>H45</f>
         <v>1200</v>
       </c>
-      <c r="S46" s="34"/>
+      <c r="S46" s="33"/>
       <c r="T46" s="7">
         <v>1769.33</v>
       </c>
-      <c r="U46" s="55"/>
-    </row>
-    <row r="47" spans="2:21">
+      <c r="U46" s="46"/>
+    </row>
+    <row r="47" spans="2:21" ht="15.5">
       <c r="B47" s="9"/>
-      <c r="C47" s="37" t="s">
+      <c r="C47" s="34" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="6"/>
-      <c r="E47" s="34">
+      <c r="E47" s="33">
         <f>D47-D48</f>
         <v>0</v>
       </c>
       <c r="F47" s="6"/>
-      <c r="G47" s="34">
+      <c r="G47" s="33">
         <f t="shared" ref="G47" si="81">F47-F48+E47</f>
         <v>0</v>
       </c>
       <c r="H47" s="6">
         <v>0</v>
       </c>
-      <c r="I47" s="34">
+      <c r="I47" s="33">
         <f t="shared" ref="I47" si="82">H47-H48+G47</f>
         <v>-300</v>
       </c>
@@ -3546,7 +3546,7 @@
         <f>IE_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K47" s="34">
+      <c r="K47" s="33">
         <f t="shared" ref="K47" si="83">J47-J48+I47</f>
         <v>-300</v>
       </c>
@@ -3554,7 +3554,7 @@
         <f>IE_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M47" s="34">
+      <c r="M47" s="33">
         <f t="shared" ref="M47" si="84">L47-L48+K47</f>
         <v>-300</v>
       </c>
@@ -3562,86 +3562,86 @@
         <f>IE_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O47" s="34">
+      <c r="O47" s="33">
         <f t="shared" ref="O47" si="85">N47-N48+M47</f>
         <v>-300</v>
       </c>
       <c r="P47" s="6"/>
-      <c r="Q47" s="34">
+      <c r="Q47" s="33">
         <f>P47-P48+O47</f>
         <v>-300</v>
       </c>
       <c r="R47" s="6"/>
-      <c r="S47" s="34">
+      <c r="S47" s="33">
         <f t="shared" ref="S47" si="86">R47-R48+Q47</f>
         <v>-300</v>
       </c>
       <c r="T47" s="6">
         <v>71.709999999999994</v>
       </c>
-      <c r="U47" s="34">
+      <c r="U47" s="33">
         <f t="shared" ref="U47" si="87">T47-T48+S47</f>
         <v>-228.29000000000002</v>
       </c>
     </row>
-    <row r="48" spans="2:21">
+    <row r="48" spans="2:21" ht="15.5">
       <c r="B48" s="9"/>
-      <c r="C48" s="37"/>
+      <c r="C48" s="34"/>
       <c r="D48" s="7"/>
-      <c r="E48" s="34"/>
+      <c r="E48" s="33"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="34"/>
+      <c r="G48" s="33"/>
       <c r="H48" s="7">
         <v>300</v>
       </c>
-      <c r="I48" s="34"/>
+      <c r="I48" s="33"/>
       <c r="J48" s="7">
         <f>IE_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K48" s="34"/>
+      <c r="K48" s="33"/>
       <c r="L48" s="7">
         <f>IE_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M48" s="34"/>
+      <c r="M48" s="33"/>
       <c r="N48" s="7">
         <f>IE_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O48" s="34"/>
+      <c r="O48" s="33"/>
       <c r="P48" s="7">
         <f>F47</f>
         <v>0</v>
       </c>
-      <c r="Q48" s="34"/>
+      <c r="Q48" s="33"/>
       <c r="R48" s="7">
         <f>H47</f>
         <v>0</v>
       </c>
-      <c r="S48" s="34"/>
+      <c r="S48" s="33"/>
       <c r="T48" s="7"/>
-      <c r="U48" s="34"/>
-    </row>
-    <row r="49" spans="2:21">
+      <c r="U48" s="33"/>
+    </row>
+    <row r="49" spans="2:21" ht="15.5">
       <c r="B49" s="9"/>
-      <c r="C49" s="37" t="s">
+      <c r="C49" s="34" t="s">
         <v>29</v>
       </c>
       <c r="D49" s="6"/>
-      <c r="E49" s="34">
+      <c r="E49" s="33">
         <f>D49-D50</f>
         <v>0</v>
       </c>
       <c r="F49" s="6"/>
-      <c r="G49" s="34">
+      <c r="G49" s="33">
         <f t="shared" ref="G49" si="88">F49-F50+E49</f>
         <v>0</v>
       </c>
       <c r="H49" s="6">
         <v>8000</v>
       </c>
-      <c r="I49" s="34">
+      <c r="I49" s="33">
         <f t="shared" ref="I49" si="89">H49-H50+G49</f>
         <v>-2000</v>
       </c>
@@ -3649,7 +3649,7 @@
         <f>LOWTECH_Clôtures!$B$3</f>
         <v>292.47000000000003</v>
       </c>
-      <c r="K49" s="34">
+      <c r="K49" s="33">
         <f t="shared" ref="K49" si="90">J49-J50+I49</f>
         <v>-1721.78</v>
       </c>
@@ -3657,7 +3657,7 @@
         <f>LOWTECH_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M49" s="34">
+      <c r="M49" s="33">
         <f t="shared" ref="M49" si="91">L49-L50+K49</f>
         <v>-1721.78</v>
       </c>
@@ -3665,88 +3665,88 @@
         <f>LOWTECH_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O49" s="34">
+      <c r="O49" s="33">
         <f t="shared" ref="O49" si="92">N49-N50+M49</f>
         <v>-1721.78</v>
       </c>
       <c r="P49" s="6"/>
-      <c r="Q49" s="34">
+      <c r="Q49" s="33">
         <f>P49-P50+O49</f>
         <v>-1721.78</v>
       </c>
       <c r="R49" s="6"/>
-      <c r="S49" s="34">
+      <c r="S49" s="33">
         <f t="shared" ref="S49" si="93">R49-R50+Q49</f>
         <v>-9721.7800000000007</v>
       </c>
       <c r="T49" s="6">
         <v>292.47000000000003</v>
       </c>
-      <c r="U49" s="34">
+      <c r="U49" s="33">
         <f t="shared" ref="U49" si="94">T49-T50+S49</f>
         <v>-9711.7100000000009</v>
       </c>
     </row>
-    <row r="50" spans="2:21">
+    <row r="50" spans="2:21" ht="15.5">
       <c r="B50" s="9"/>
-      <c r="C50" s="37"/>
+      <c r="C50" s="34"/>
       <c r="D50" s="7"/>
-      <c r="E50" s="34"/>
+      <c r="E50" s="33"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="34"/>
+      <c r="G50" s="33"/>
       <c r="H50" s="7">
         <v>10000</v>
       </c>
-      <c r="I50" s="34"/>
+      <c r="I50" s="33"/>
       <c r="J50" s="7">
         <f>LOWTECH_Clôtures!$B$5</f>
         <v>14.25</v>
       </c>
-      <c r="K50" s="34"/>
+      <c r="K50" s="33"/>
       <c r="L50" s="7">
         <f>LOWTECH_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M50" s="34"/>
+      <c r="M50" s="33"/>
       <c r="N50" s="7">
         <f>LOWTECH_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O50" s="34"/>
+      <c r="O50" s="33"/>
       <c r="P50" s="7">
         <f>F49</f>
         <v>0</v>
       </c>
-      <c r="Q50" s="34"/>
+      <c r="Q50" s="33"/>
       <c r="R50" s="7">
         <f>H49</f>
         <v>8000</v>
       </c>
-      <c r="S50" s="34"/>
+      <c r="S50" s="33"/>
       <c r="T50" s="7">
         <v>282.39999999999998</v>
       </c>
-      <c r="U50" s="34"/>
-    </row>
-    <row r="51" spans="2:21">
+      <c r="U50" s="33"/>
+    </row>
+    <row r="51" spans="2:21" ht="15.5">
       <c r="B51" s="9"/>
-      <c r="C51" s="37" t="s">
+      <c r="C51" s="34" t="s">
         <v>24</v>
       </c>
       <c r="D51" s="6"/>
-      <c r="E51" s="34">
+      <c r="E51" s="33">
         <f>D51-D52</f>
         <v>0</v>
       </c>
       <c r="F51" s="6"/>
-      <c r="G51" s="34">
+      <c r="G51" s="33">
         <f t="shared" ref="G51" si="95">F51-F52+E51</f>
         <v>0</v>
       </c>
       <c r="H51" s="6">
         <v>0</v>
       </c>
-      <c r="I51" s="34">
+      <c r="I51" s="33">
         <f t="shared" ref="I51" si="96">H51-H52+G51</f>
         <v>-1050</v>
       </c>
@@ -3754,7 +3754,7 @@
         <f>JARDIN_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="34">
+      <c r="K51" s="33">
         <f t="shared" ref="K51" si="97">J51-J52+I51</f>
         <v>-1100</v>
       </c>
@@ -3762,7 +3762,7 @@
         <f>JARDIN_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M51" s="34">
+      <c r="M51" s="33">
         <f t="shared" ref="M51" si="98">L51-L52+K51</f>
         <v>-1205.95</v>
       </c>
@@ -3770,88 +3770,88 @@
         <f>JARDIN_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O51" s="34">
+      <c r="O51" s="33">
         <f t="shared" ref="O51" si="99">N51-N52+M51</f>
         <v>-1205.95</v>
       </c>
       <c r="P51" s="6"/>
-      <c r="Q51" s="34">
+      <c r="Q51" s="33">
         <f>P51-P52+O51</f>
         <v>-1205.95</v>
       </c>
       <c r="R51" s="6"/>
-      <c r="S51" s="34">
+      <c r="S51" s="33">
         <f t="shared" ref="S51" si="100">R51-R52+Q51</f>
         <v>-1205.95</v>
       </c>
       <c r="T51" s="6">
         <v>1022.8</v>
       </c>
-      <c r="U51" s="34">
+      <c r="U51" s="33">
         <f t="shared" ref="U51" si="101">T51-T52+S51</f>
         <v>-395.15000000000009</v>
       </c>
     </row>
-    <row r="52" spans="2:21">
+    <row r="52" spans="2:21" ht="15.5">
       <c r="B52" s="9"/>
-      <c r="C52" s="37"/>
+      <c r="C52" s="34"/>
       <c r="D52" s="7"/>
-      <c r="E52" s="34"/>
+      <c r="E52" s="33"/>
       <c r="F52" s="7"/>
-      <c r="G52" s="34"/>
+      <c r="G52" s="33"/>
       <c r="H52" s="7">
         <v>1050</v>
       </c>
-      <c r="I52" s="34"/>
+      <c r="I52" s="33"/>
       <c r="J52" s="7">
         <f>JARDIN_Clôtures!$B$5</f>
         <v>50</v>
       </c>
-      <c r="K52" s="34"/>
+      <c r="K52" s="33"/>
       <c r="L52" s="7">
         <f>JARDIN_Clôtures!$C$5</f>
         <v>105.95</v>
       </c>
-      <c r="M52" s="34"/>
+      <c r="M52" s="33"/>
       <c r="N52" s="7">
         <f>JARDIN_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O52" s="34"/>
+      <c r="O52" s="33"/>
       <c r="P52" s="7">
         <f>F51</f>
         <v>0</v>
       </c>
-      <c r="Q52" s="34"/>
+      <c r="Q52" s="33"/>
       <c r="R52" s="7">
         <f>H51</f>
         <v>0</v>
       </c>
-      <c r="S52" s="34"/>
+      <c r="S52" s="33"/>
       <c r="T52" s="7">
         <v>212</v>
       </c>
-      <c r="U52" s="34"/>
-    </row>
-    <row r="53" spans="2:21">
+      <c r="U52" s="33"/>
+    </row>
+    <row r="53" spans="2:21" ht="15.5">
       <c r="B53" s="9"/>
-      <c r="C53" s="37" t="s">
+      <c r="C53" s="34" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="6"/>
-      <c r="E53" s="34">
+      <c r="E53" s="33">
         <f>D53-D54</f>
         <v>0</v>
       </c>
       <c r="F53" s="6"/>
-      <c r="G53" s="34">
+      <c r="G53" s="33">
         <f t="shared" ref="G53" si="102">F53-F54+E53</f>
         <v>0</v>
       </c>
       <c r="H53" s="6">
         <v>0</v>
       </c>
-      <c r="I53" s="34">
+      <c r="I53" s="33">
         <f t="shared" ref="I53" si="103">H53-H54+G53</f>
         <v>-180</v>
       </c>
@@ -3859,98 +3859,98 @@
         <f>MEUBLE_Clôtures!$B$2</f>
         <v>2061.25</v>
       </c>
-      <c r="K53" s="34">
+      <c r="K53" s="33">
         <f t="shared" ref="K53" si="104">J53-J54+I53</f>
         <v>1116.4299999999998</v>
       </c>
       <c r="L53" s="6">
         <v>0</v>
       </c>
-      <c r="M53" s="34">
+      <c r="M53" s="33">
         <f t="shared" ref="M53" si="105">L53-L54+K53</f>
         <v>629.18999999999983</v>
       </c>
       <c r="N53" s="6">
         <v>0</v>
       </c>
-      <c r="O53" s="34">
+      <c r="O53" s="33">
         <f t="shared" ref="O53" si="106">N53-N54+M53</f>
         <v>629.18999999999983</v>
       </c>
       <c r="P53" s="6"/>
-      <c r="Q53" s="34">
+      <c r="Q53" s="33">
         <f>P53-P54+O53</f>
         <v>629.18999999999983</v>
       </c>
       <c r="R53" s="6"/>
-      <c r="S53" s="34">
+      <c r="S53" s="33">
         <f t="shared" ref="S53" si="107">R53-R54+Q53</f>
         <v>629.18999999999983</v>
       </c>
       <c r="T53" s="6">
         <v>1456.25</v>
       </c>
-      <c r="U53" s="34">
+      <c r="U53" s="33">
         <f t="shared" ref="U53" si="108">T53-T54+S53</f>
         <v>2085.4399999999996</v>
       </c>
     </row>
-    <row r="54" spans="2:21">
+    <row r="54" spans="2:21" ht="15.5">
       <c r="B54" s="9"/>
-      <c r="C54" s="37"/>
+      <c r="C54" s="34"/>
       <c r="D54" s="7"/>
-      <c r="E54" s="34"/>
+      <c r="E54" s="33"/>
       <c r="F54" s="7"/>
-      <c r="G54" s="34"/>
+      <c r="G54" s="33"/>
       <c r="H54" s="7">
         <v>180</v>
       </c>
-      <c r="I54" s="34"/>
+      <c r="I54" s="33"/>
       <c r="J54" s="7">
         <f>MEUBLE_Clôtures!$B$5</f>
         <v>764.82</v>
       </c>
-      <c r="K54" s="34"/>
+      <c r="K54" s="33"/>
       <c r="L54" s="7">
         <f>MEUBLE_Clôtures!$C$5</f>
         <v>487.24</v>
       </c>
-      <c r="M54" s="34"/>
+      <c r="M54" s="33"/>
       <c r="N54" s="7">
         <f>MEUBLE_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O54" s="34"/>
+      <c r="O54" s="33"/>
       <c r="P54" s="7">
         <f>F53</f>
         <v>0</v>
       </c>
-      <c r="Q54" s="34"/>
+      <c r="Q54" s="33"/>
       <c r="R54" s="7">
         <f>H53</f>
         <v>0</v>
       </c>
-      <c r="S54" s="34"/>
+      <c r="S54" s="33"/>
       <c r="T54" s="7"/>
-      <c r="U54" s="34"/>
-    </row>
-    <row r="55" spans="2:21">
+      <c r="U54" s="33"/>
+    </row>
+    <row r="55" spans="2:21" ht="15.5">
       <c r="B55" s="9"/>
-      <c r="C55" s="37"/>
+      <c r="C55" s="34"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="34">
+      <c r="E55" s="33">
         <f>D55-D56</f>
         <v>0</v>
       </c>
       <c r="F55" s="6"/>
-      <c r="G55" s="34">
+      <c r="G55" s="33">
         <f t="shared" ref="G55" si="109">F55-F56+E55</f>
         <v>0</v>
       </c>
       <c r="H55" s="6">
         <v>1630</v>
       </c>
-      <c r="I55" s="34">
+      <c r="I55" s="33">
         <f t="shared" ref="I55" si="110">H55-H56+G55</f>
         <v>-310</v>
       </c>
@@ -3958,7 +3958,7 @@
         <f>MEUBLE_Clôtures!$B$3</f>
         <v>1788.71</v>
       </c>
-      <c r="K55" s="34">
+      <c r="K55" s="33">
         <f>J55-J56+I55</f>
         <v>1478.71</v>
       </c>
@@ -3966,7 +3966,7 @@
         <f>MEUBLE_Clôtures!$C$2</f>
         <v>370.2</v>
       </c>
-      <c r="M55" s="34">
+      <c r="M55" s="33">
         <f t="shared" ref="M55" si="111">L55-L56+K55</f>
         <v>1683.91</v>
       </c>
@@ -3974,95 +3974,95 @@
         <f>MEUBLE_Clôtures!$D$2</f>
         <v>0</v>
       </c>
-      <c r="O55" s="34">
+      <c r="O55" s="33">
         <f t="shared" ref="O55" si="112">N55-N56+M55</f>
         <v>1683.91</v>
       </c>
       <c r="P55" s="6"/>
-      <c r="Q55" s="34">
+      <c r="Q55" s="33">
         <f>P55-P56+O55</f>
         <v>1683.91</v>
       </c>
       <c r="R55" s="6"/>
-      <c r="S55" s="34">
+      <c r="S55" s="33">
         <f t="shared" ref="S55" si="113">R55-R56+Q55</f>
         <v>53.910000000000082</v>
       </c>
       <c r="T55" s="6">
         <v>1545</v>
       </c>
-      <c r="U55" s="34">
+      <c r="U55" s="33">
         <f t="shared" ref="U55" si="114">T55-T56+S55</f>
         <v>969.71</v>
       </c>
     </row>
-    <row r="56" spans="2:21">
+    <row r="56" spans="2:21" ht="15.5">
       <c r="B56" s="9"/>
-      <c r="C56" s="37"/>
+      <c r="C56" s="34"/>
       <c r="D56" s="7"/>
-      <c r="E56" s="34"/>
+      <c r="E56" s="33"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="34"/>
+      <c r="G56" s="33"/>
       <c r="H56" s="7">
         <v>1940</v>
       </c>
-      <c r="I56" s="34"/>
+      <c r="I56" s="33"/>
       <c r="J56" s="7">
         <f>MEUBLE_Clôtures!$B$6</f>
         <v>0</v>
       </c>
-      <c r="K56" s="34"/>
+      <c r="K56" s="33"/>
       <c r="L56" s="7">
         <f>MEUBLE_Clôtures!$C$6</f>
         <v>165</v>
       </c>
-      <c r="M56" s="34"/>
+      <c r="M56" s="33"/>
       <c r="N56" s="7">
         <f>MEUBLE_Clôtures!$D$6</f>
         <v>0</v>
       </c>
-      <c r="O56" s="34"/>
+      <c r="O56" s="33"/>
       <c r="P56" s="7">
         <f>F55</f>
         <v>0</v>
       </c>
-      <c r="Q56" s="34"/>
+      <c r="Q56" s="33"/>
       <c r="R56" s="7">
         <f>H55</f>
         <v>1630</v>
       </c>
-      <c r="S56" s="34"/>
+      <c r="S56" s="33"/>
       <c r="T56" s="7">
         <v>629.20000000000005</v>
       </c>
-      <c r="U56" s="34"/>
-    </row>
-    <row r="57" spans="2:21">
+      <c r="U56" s="33"/>
+    </row>
+    <row r="57" spans="2:21" ht="15.5">
       <c r="B57" s="9"/>
-      <c r="C57" s="37" t="s">
+      <c r="C57" s="34" t="s">
         <v>26</v>
       </c>
       <c r="D57" s="6"/>
-      <c r="E57" s="34">
+      <c r="E57" s="33">
         <f>D57-D58</f>
         <v>0</v>
       </c>
       <c r="F57" s="6"/>
-      <c r="G57" s="34">
+      <c r="G57" s="33">
         <f t="shared" ref="G57" si="115">F57-F58+E57</f>
         <v>0</v>
       </c>
       <c r="H57" s="6">
         <v>10000</v>
       </c>
-      <c r="I57" s="34">
+      <c r="I57" s="33">
         <f t="shared" ref="I57" si="116">H57-H58+G57</f>
         <v>0</v>
       </c>
       <c r="J57" s="6">
         <v>0</v>
       </c>
-      <c r="K57" s="34">
+      <c r="K57" s="33">
         <f t="shared" ref="K57" si="117">J57-J58+I57</f>
         <v>0</v>
       </c>
@@ -4070,7 +4070,7 @@
         <f>DUDU_Clôtures!$C$3</f>
         <v>3916.98</v>
       </c>
-      <c r="M57" s="34">
+      <c r="M57" s="33">
         <f t="shared" ref="M57" si="118">L57-L58+K57</f>
         <v>-3171.68</v>
       </c>
@@ -4078,88 +4078,88 @@
         <f>DUDU_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O57" s="34">
+      <c r="O57" s="33">
         <f t="shared" ref="O57" si="119">N57-N58+M57</f>
         <v>-3171.68</v>
       </c>
       <c r="P57" s="6"/>
-      <c r="Q57" s="34">
+      <c r="Q57" s="33">
         <f>P57-P58+O57</f>
         <v>-3171.68</v>
       </c>
       <c r="R57" s="6"/>
-      <c r="S57" s="34">
+      <c r="S57" s="33">
         <f t="shared" ref="S57" si="120">R57-R58+Q57</f>
         <v>-13171.68</v>
       </c>
       <c r="T57" s="6">
         <v>6506.55</v>
       </c>
-      <c r="U57" s="34">
+      <c r="U57" s="33">
         <f t="shared" ref="U57" si="121">T57-T58+S57</f>
         <v>-13171.68</v>
       </c>
     </row>
-    <row r="58" spans="2:21">
+    <row r="58" spans="2:21" ht="15.5">
       <c r="B58" s="9"/>
-      <c r="C58" s="37"/>
+      <c r="C58" s="34"/>
       <c r="D58" s="7"/>
-      <c r="E58" s="34"/>
+      <c r="E58" s="33"/>
       <c r="F58" s="7"/>
-      <c r="G58" s="34"/>
+      <c r="G58" s="33"/>
       <c r="H58" s="7">
         <v>10000</v>
       </c>
-      <c r="I58" s="34"/>
+      <c r="I58" s="33"/>
       <c r="J58" s="7">
         <f>DUDU_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K58" s="34"/>
+      <c r="K58" s="33"/>
       <c r="L58" s="7">
         <f>DUDU_Clôtures!$C$5</f>
         <v>7088.66</v>
       </c>
-      <c r="M58" s="34"/>
+      <c r="M58" s="33"/>
       <c r="N58" s="7">
         <f>DUDU_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O58" s="34"/>
+      <c r="O58" s="33"/>
       <c r="P58" s="7">
         <f>F57</f>
         <v>0</v>
       </c>
-      <c r="Q58" s="34"/>
+      <c r="Q58" s="33"/>
       <c r="R58" s="7">
         <f>H57</f>
         <v>10000</v>
       </c>
-      <c r="S58" s="34"/>
+      <c r="S58" s="33"/>
       <c r="T58" s="7">
         <v>6506.55</v>
       </c>
-      <c r="U58" s="34"/>
+      <c r="U58" s="33"/>
     </row>
     <row r="59" spans="2:21" ht="15.5" customHeight="1">
       <c r="B59" s="10"/>
-      <c r="C59" s="37" t="s">
+      <c r="C59" s="34" t="s">
         <v>27</v>
       </c>
       <c r="D59" s="6"/>
-      <c r="E59" s="34">
+      <c r="E59" s="33">
         <f>D59-D60</f>
         <v>0</v>
       </c>
       <c r="F59" s="6"/>
-      <c r="G59" s="34">
+      <c r="G59" s="33">
         <f t="shared" ref="G59" si="122">F59-F60+E59</f>
         <v>0</v>
       </c>
       <c r="H59" s="6">
         <v>500</v>
       </c>
-      <c r="I59" s="34">
+      <c r="I59" s="33">
         <f>H59-H60+G59</f>
         <v>-6530</v>
       </c>
@@ -4167,98 +4167,98 @@
         <f>UPFL_Clôtures!$B$2</f>
         <v>1726.53</v>
       </c>
-      <c r="K59" s="34">
+      <c r="K59" s="33">
         <f t="shared" ref="K59" si="123">J59-J60+I59</f>
         <v>-6183.22</v>
       </c>
       <c r="L59" s="6">
         <v>0</v>
       </c>
-      <c r="M59" s="34">
+      <c r="M59" s="33">
         <f t="shared" ref="M59" si="124">L59-L60+K59</f>
         <v>-7927.4500000000007</v>
       </c>
       <c r="N59" s="6">
         <v>0</v>
       </c>
-      <c r="O59" s="34">
+      <c r="O59" s="33">
         <f t="shared" ref="O59" si="125">N59-N60+M59</f>
         <v>-7927.4500000000007</v>
       </c>
       <c r="P59" s="6"/>
-      <c r="Q59" s="34">
+      <c r="Q59" s="33">
         <f>P59-P60+O59</f>
         <v>-7927.4500000000007</v>
       </c>
       <c r="R59" s="6"/>
-      <c r="S59" s="34">
+      <c r="S59" s="33">
         <f>R59-R60+Q59</f>
         <v>-8427.4500000000007</v>
       </c>
       <c r="T59" s="6">
         <v>1576.53</v>
       </c>
-      <c r="U59" s="34">
+      <c r="U59" s="33">
         <f t="shared" ref="U59" si="126">T59-T60+S59</f>
         <v>-6850.920000000001</v>
       </c>
     </row>
     <row r="60" spans="2:21" ht="15.5" customHeight="1">
       <c r="B60" s="10"/>
-      <c r="C60" s="37"/>
+      <c r="C60" s="34"/>
       <c r="D60" s="7"/>
-      <c r="E60" s="34"/>
+      <c r="E60" s="33"/>
       <c r="F60" s="7"/>
-      <c r="G60" s="34"/>
+      <c r="G60" s="33"/>
       <c r="H60" s="7">
         <v>7030</v>
       </c>
-      <c r="I60" s="34"/>
+      <c r="I60" s="33"/>
       <c r="J60" s="7">
         <f>UPFL_Clôtures!$B$5</f>
         <v>1379.75</v>
       </c>
-      <c r="K60" s="34"/>
+      <c r="K60" s="33"/>
       <c r="L60" s="7">
         <f>UPFL_Clôtures!$C$5</f>
         <v>1744.23</v>
       </c>
-      <c r="M60" s="34"/>
+      <c r="M60" s="33"/>
       <c r="N60" s="7">
         <f>UPFL_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O60" s="34"/>
+      <c r="O60" s="33"/>
       <c r="P60" s="7">
         <f>F59</f>
         <v>0</v>
       </c>
-      <c r="Q60" s="34"/>
+      <c r="Q60" s="33"/>
       <c r="R60" s="7">
         <f>H59</f>
         <v>500</v>
       </c>
-      <c r="S60" s="34"/>
+      <c r="S60" s="33"/>
       <c r="T60" s="7"/>
-      <c r="U60" s="34"/>
+      <c r="U60" s="33"/>
     </row>
     <row r="61" spans="2:21" ht="15.5" customHeight="1">
       <c r="B61" s="10"/>
-      <c r="C61" s="37"/>
+      <c r="C61" s="34"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="34">
+      <c r="E61" s="33">
         <f>D61-D62</f>
         <v>0</v>
       </c>
       <c r="F61" s="6"/>
-      <c r="G61" s="34">
+      <c r="G61" s="33">
         <f>F61-F62+E61</f>
         <v>0</v>
       </c>
       <c r="H61" s="6">
         <v>2600</v>
       </c>
-      <c r="I61" s="34">
+      <c r="I61" s="33">
         <f>H61-H62+G61</f>
         <v>2600</v>
       </c>
@@ -4266,7 +4266,7 @@
         <f>UPFL_Clôtures!$B$3</f>
         <v>2498</v>
       </c>
-      <c r="K61" s="34">
+      <c r="K61" s="33">
         <f>J61-J62+I61</f>
         <v>5098</v>
       </c>
@@ -4274,7 +4274,7 @@
         <f>UPFL_Clôtures!$C$2</f>
         <v>0</v>
       </c>
-      <c r="M61" s="34">
+      <c r="M61" s="33">
         <f>L61-L62+K61</f>
         <v>5098</v>
       </c>
@@ -4282,93 +4282,93 @@
         <f>UPFL_Clôtures!$D$2</f>
         <v>0</v>
       </c>
-      <c r="O61" s="34">
+      <c r="O61" s="33">
         <f>N61-N62+M61</f>
         <v>5098</v>
       </c>
       <c r="P61" s="6"/>
-      <c r="Q61" s="34">
+      <c r="Q61" s="33">
         <f>P61-P62+O61</f>
         <v>5098</v>
       </c>
       <c r="R61" s="6"/>
-      <c r="S61" s="34">
+      <c r="S61" s="33">
         <f>R61-R62+Q61</f>
         <v>2498</v>
       </c>
       <c r="T61" s="6"/>
-      <c r="U61" s="34">
+      <c r="U61" s="33">
         <f>T61-T62+S61</f>
         <v>283.32999999999993</v>
       </c>
     </row>
     <row r="62" spans="2:21" ht="15.5" customHeight="1">
       <c r="B62" s="10"/>
-      <c r="C62" s="37"/>
+      <c r="C62" s="34"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="34"/>
+      <c r="E62" s="33"/>
       <c r="F62" s="6"/>
-      <c r="G62" s="34"/>
+      <c r="G62" s="33"/>
       <c r="H62" s="7">
         <v>0</v>
       </c>
-      <c r="I62" s="34"/>
+      <c r="I62" s="33"/>
       <c r="J62" s="7">
         <f>UPFL_Clôtures!$B$6</f>
         <v>0</v>
       </c>
-      <c r="K62" s="34"/>
+      <c r="K62" s="33"/>
       <c r="L62" s="7">
         <f>UPFL_Clôtures!$C$6</f>
         <v>0</v>
       </c>
-      <c r="M62" s="34"/>
+      <c r="M62" s="33"/>
       <c r="N62" s="7">
         <f>UPFL_Clôtures!$D$6</f>
         <v>0</v>
       </c>
-      <c r="O62" s="34"/>
+      <c r="O62" s="33"/>
       <c r="P62" s="7">
         <f>F61</f>
         <v>0</v>
       </c>
-      <c r="Q62" s="34"/>
+      <c r="Q62" s="33"/>
       <c r="R62" s="7">
         <f>H61</f>
         <v>2600</v>
       </c>
-      <c r="S62" s="34"/>
+      <c r="S62" s="33"/>
       <c r="T62" s="7">
         <v>2214.67</v>
       </c>
-      <c r="U62" s="34"/>
-    </row>
-    <row r="63" spans="2:21">
+      <c r="U62" s="33"/>
+    </row>
+    <row r="63" spans="2:21" ht="15.5">
       <c r="B63" s="9"/>
-      <c r="C63" s="37" t="s">
+      <c r="C63" s="34" t="s">
         <v>93</v>
       </c>
       <c r="D63" s="6"/>
-      <c r="E63" s="34">
+      <c r="E63" s="33">
         <f>D63-D64</f>
         <v>0</v>
       </c>
       <c r="F63" s="6"/>
-      <c r="G63" s="34">
+      <c r="G63" s="33">
         <f>F63-F64+E63</f>
         <v>0</v>
       </c>
       <c r="H63" s="6">
         <v>0</v>
       </c>
-      <c r="I63" s="34">
+      <c r="I63" s="33">
         <f>H63-H64+G63</f>
         <v>-2000</v>
       </c>
       <c r="J63" s="6">
         <v>5</v>
       </c>
-      <c r="K63" s="34">
+      <c r="K63" s="33">
         <f>J63-J64+I63</f>
         <v>-2103.16</v>
       </c>
@@ -4376,7 +4376,7 @@
         <f>FNR_Clôtures!$C$2</f>
         <v>5.3</v>
       </c>
-      <c r="M63" s="34">
+      <c r="M63" s="33">
         <f>L63-L64+K63</f>
         <v>-4030.0299999999997</v>
       </c>
@@ -4384,248 +4384,551 @@
         <f>FNR_Clôtures!$D$2</f>
         <v>0</v>
       </c>
-      <c r="O63" s="34">
+      <c r="O63" s="33">
         <f>N63-N64+M63</f>
         <v>-4030.0299999999997</v>
       </c>
       <c r="P63" s="6"/>
-      <c r="Q63" s="34">
+      <c r="Q63" s="33">
         <f>P63-P64+O63</f>
         <v>-4030.0299999999997</v>
       </c>
       <c r="R63" s="6"/>
-      <c r="S63" s="34">
+      <c r="S63" s="33">
         <f t="shared" ref="S63" si="127">R63-R64+Q63</f>
         <v>-4030.0299999999997</v>
       </c>
       <c r="T63" s="6">
         <v>720.75</v>
       </c>
-      <c r="U63" s="34">
+      <c r="U63" s="33">
         <f>T63-T64+S63</f>
         <v>-3383.8799999999997</v>
       </c>
     </row>
-    <row r="64" spans="2:21">
+    <row r="64" spans="2:21" ht="15.5">
       <c r="B64" s="9"/>
-      <c r="C64" s="37"/>
+      <c r="C64" s="34"/>
       <c r="D64" s="7"/>
-      <c r="E64" s="34"/>
+      <c r="E64" s="33"/>
       <c r="F64" s="7"/>
-      <c r="G64" s="34"/>
+      <c r="G64" s="33"/>
       <c r="H64" s="7">
         <v>2000</v>
       </c>
-      <c r="I64" s="34"/>
+      <c r="I64" s="33"/>
       <c r="J64" s="7">
         <v>108.16</v>
       </c>
-      <c r="K64" s="34"/>
+      <c r="K64" s="33"/>
       <c r="L64" s="7">
         <f>FNR_Clôtures!$C$4</f>
         <v>1932.17</v>
       </c>
-      <c r="M64" s="34"/>
+      <c r="M64" s="33"/>
       <c r="N64" s="7">
         <f>FNR_Clôtures!$D$4</f>
         <v>0</v>
       </c>
-      <c r="O64" s="34"/>
+      <c r="O64" s="33"/>
       <c r="P64" s="7">
         <f>F63</f>
         <v>0</v>
       </c>
-      <c r="Q64" s="34"/>
+      <c r="Q64" s="33"/>
       <c r="R64" s="7">
         <f>H63</f>
         <v>0</v>
       </c>
-      <c r="S64" s="34"/>
+      <c r="S64" s="33"/>
       <c r="T64" s="7">
         <v>74.599999999999994</v>
       </c>
-      <c r="U64" s="34"/>
-    </row>
-    <row r="65" spans="2:21">
+      <c r="U64" s="33"/>
+    </row>
+    <row r="65" spans="2:21" ht="15.5">
       <c r="B65" s="9"/>
-      <c r="C65" s="37" t="s">
+      <c r="C65" s="34" t="s">
         <v>88</v>
       </c>
       <c r="D65" s="6"/>
-      <c r="E65" s="34">
+      <c r="E65" s="33">
         <f>D65-D66</f>
         <v>0</v>
       </c>
       <c r="F65" s="6"/>
-      <c r="G65" s="34">
+      <c r="G65" s="33">
         <f>F65-F66+E65</f>
         <v>0</v>
       </c>
       <c r="H65" s="6">
         <v>0</v>
       </c>
-      <c r="I65" s="34">
+      <c r="I65" s="33">
         <f>H65-H66+G65</f>
         <v>0</v>
       </c>
       <c r="J65" s="6">
         <v>15.1</v>
       </c>
-      <c r="K65" s="34">
+      <c r="K65" s="33">
         <f>J65-J66+I65</f>
         <v>0</v>
       </c>
       <c r="L65" s="6">
         <f>REBUILT_Clôtures!$C$2</f>
-        <v>0</v>
-      </c>
-      <c r="M65" s="34">
+        <v>1000</v>
+      </c>
+      <c r="M65" s="33">
         <f>L65-L66+K65</f>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="N65" s="6">
         <f>REBUILT_Clôtures!$D$2</f>
         <v>0</v>
       </c>
-      <c r="O65" s="34">
+      <c r="O65" s="33">
         <f>N65-N66+M65</f>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="P65" s="6"/>
-      <c r="Q65" s="34">
+      <c r="Q65" s="33">
         <f>P65-P66+O65</f>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="R65" s="6"/>
-      <c r="S65" s="34">
+      <c r="S65" s="33">
         <f t="shared" ref="S65" si="128">R65-R66+Q65</f>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="T65" s="6">
         <v>720.75</v>
       </c>
-      <c r="U65" s="34">
+      <c r="U65" s="33">
         <f>T65-T66+S65</f>
-        <v>646.15</v>
-      </c>
-    </row>
-    <row r="66" spans="2:21">
+        <v>826.15</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" ht="15.5">
       <c r="B66" s="9"/>
-      <c r="C66" s="54"/>
+      <c r="C66" s="35"/>
       <c r="D66" s="7"/>
-      <c r="E66" s="34"/>
+      <c r="E66" s="33"/>
       <c r="F66" s="7"/>
-      <c r="G66" s="34"/>
+      <c r="G66" s="33"/>
       <c r="H66" s="7">
         <v>0</v>
       </c>
-      <c r="I66" s="48"/>
+      <c r="I66" s="42"/>
       <c r="J66" s="7">
         <v>15.1</v>
       </c>
-      <c r="K66" s="48"/>
+      <c r="K66" s="42"/>
       <c r="L66" s="7">
         <f>REBUILT_Clôtures!$C$4</f>
-        <v>0</v>
-      </c>
-      <c r="M66" s="34"/>
+        <v>820</v>
+      </c>
+      <c r="M66" s="33"/>
       <c r="N66" s="7">
         <f>REBUILT_Clôtures!$D$4</f>
         <v>0</v>
       </c>
-      <c r="O66" s="34"/>
+      <c r="O66" s="33"/>
       <c r="P66" s="7">
         <f>F65</f>
         <v>0</v>
       </c>
-      <c r="Q66" s="34"/>
+      <c r="Q66" s="33"/>
       <c r="R66" s="7">
         <f>H65</f>
         <v>0</v>
       </c>
-      <c r="S66" s="34"/>
+      <c r="S66" s="33"/>
       <c r="T66" s="7">
         <v>74.599999999999994</v>
       </c>
-      <c r="U66" s="34"/>
+      <c r="U66" s="33"/>
     </row>
     <row r="67" spans="2:21" ht="14" customHeight="1">
-      <c r="B67" s="50" t="s">
+      <c r="B67" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C67" s="51"/>
-      <c r="D67" s="35">
+      <c r="C67" s="48"/>
+      <c r="D67" s="36">
         <f>E5+E7+E31</f>
         <v>-3802.4599999999982</v>
       </c>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35">
+      <c r="E67" s="36"/>
+      <c r="F67" s="36">
         <f>G5+G7+G31</f>
         <v>6911.4500000000007</v>
       </c>
-      <c r="G67" s="35"/>
-      <c r="H67" s="35">
+      <c r="G67" s="36"/>
+      <c r="H67" s="36">
         <f>I5+I7+I31</f>
         <v>-27444.55</v>
       </c>
-      <c r="I67" s="35"/>
-      <c r="J67" s="35">
+      <c r="I67" s="36"/>
+      <c r="J67" s="36">
         <f>K5+K7+K31</f>
         <v>-20353.55</v>
       </c>
-      <c r="K67" s="35"/>
-      <c r="L67" s="35">
+      <c r="K67" s="36"/>
+      <c r="L67" s="36">
         <f>M5+M7+M31</f>
-        <v>-25029.829999999998</v>
-      </c>
-      <c r="M67" s="35"/>
-      <c r="N67" s="35">
+        <v>-24849.829999999998</v>
+      </c>
+      <c r="M67" s="36"/>
+      <c r="N67" s="36">
         <f>O5+O7+O31</f>
-        <v>-25029.829999999998</v>
-      </c>
-      <c r="O67" s="35"/>
-      <c r="P67" s="35">
+        <v>-24849.829999999998</v>
+      </c>
+      <c r="O67" s="36"/>
+      <c r="P67" s="36">
         <f>Q5+Q7+Q31</f>
-        <v>-25029.829999999998</v>
-      </c>
-      <c r="Q67" s="35"/>
-      <c r="R67" s="35">
+        <v>-24849.829999999998</v>
+      </c>
+      <c r="Q67" s="36"/>
+      <c r="R67" s="36">
         <f>S5+S7+S31</f>
-        <v>-25029.83</v>
-      </c>
-      <c r="S67" s="35"/>
-      <c r="T67" s="35">
+        <v>-24849.83</v>
+      </c>
+      <c r="S67" s="36"/>
+      <c r="T67" s="36">
         <f>U5+U7+U31</f>
-        <v>-24383.680000000004</v>
-      </c>
-      <c r="U67" s="35"/>
+        <v>-24203.680000000004</v>
+      </c>
+      <c r="U67" s="36"/>
     </row>
     <row r="68" spans="2:21" ht="14.5" customHeight="1">
-      <c r="B68" s="52"/>
-      <c r="C68" s="53"/>
-      <c r="D68" s="36"/>
-      <c r="E68" s="36"/>
-      <c r="F68" s="36"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="36"/>
-      <c r="I68" s="36"/>
-      <c r="J68" s="36"/>
-      <c r="K68" s="36"/>
-      <c r="L68" s="36"/>
-      <c r="M68" s="36"/>
-      <c r="N68" s="36"/>
-      <c r="O68" s="36"/>
-      <c r="P68" s="36"/>
-      <c r="Q68" s="36"/>
-      <c r="R68" s="36"/>
-      <c r="S68" s="36"/>
-      <c r="T68" s="36"/>
-      <c r="U68" s="36"/>
+      <c r="B68" s="49"/>
+      <c r="C68" s="50"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="37"/>
+      <c r="I68" s="37"/>
+      <c r="J68" s="37"/>
+      <c r="K68" s="37"/>
+      <c r="L68" s="37"/>
+      <c r="M68" s="37"/>
+      <c r="N68" s="37"/>
+      <c r="O68" s="37"/>
+      <c r="P68" s="37"/>
+      <c r="Q68" s="37"/>
+      <c r="R68" s="37"/>
+      <c r="S68" s="37"/>
+      <c r="T68" s="37"/>
+      <c r="U68" s="37"/>
     </row>
     <row r="69" spans="2:21"/>
     <row r="70" spans="2:21"/>
   </sheetData>
   <mergeCells count="327">
+    <mergeCell ref="N67:O68"/>
+    <mergeCell ref="T67:U68"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="U39:U40"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B31:C32"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="U21:U22"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="M61:M62"/>
+    <mergeCell ref="M57:M58"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="B67:C68"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="J67:K68"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="H67:I68"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="L67:M68"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="F67:G68"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="Q61:Q62"/>
+    <mergeCell ref="S61:S62"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="U31:U32"/>
+    <mergeCell ref="U33:U34"/>
+    <mergeCell ref="U35:U36"/>
+    <mergeCell ref="U37:U38"/>
+    <mergeCell ref="U41:U42"/>
+    <mergeCell ref="U43:U44"/>
+    <mergeCell ref="U45:U46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="S39:S40"/>
+    <mergeCell ref="S41:S42"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="U57:U58"/>
+    <mergeCell ref="U59:U60"/>
+    <mergeCell ref="O59:O60"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="O57:O58"/>
+    <mergeCell ref="Q53:Q54"/>
+    <mergeCell ref="Q55:Q56"/>
+    <mergeCell ref="Q57:Q58"/>
+    <mergeCell ref="Q59:Q60"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="D67:E68"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="Q47:Q48"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="Q31:Q32"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="Q37:Q38"/>
+    <mergeCell ref="Q39:Q40"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R67:S68"/>
+    <mergeCell ref="D2:U2"/>
+    <mergeCell ref="S43:S44"/>
+    <mergeCell ref="S45:S46"/>
+    <mergeCell ref="S47:S48"/>
+    <mergeCell ref="S49:S50"/>
+    <mergeCell ref="S51:S52"/>
+    <mergeCell ref="S53:S54"/>
+    <mergeCell ref="S55:S56"/>
+    <mergeCell ref="S57:S58"/>
+    <mergeCell ref="S59:S60"/>
+    <mergeCell ref="S21:S22"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="S31:S32"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="S37:S38"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="U29:U30"/>
+    <mergeCell ref="U65:U66"/>
+    <mergeCell ref="P67:Q68"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="Q65:Q66"/>
+    <mergeCell ref="S65:S66"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="S29:S30"/>
+    <mergeCell ref="Q51:Q52"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="K43:K44"/>
     <mergeCell ref="M63:M64"/>
     <mergeCell ref="O63:O64"/>
     <mergeCell ref="S63:S64"/>
@@ -4650,309 +4953,6 @@
     <mergeCell ref="U51:U52"/>
     <mergeCell ref="U53:U54"/>
     <mergeCell ref="U55:U56"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="O65:O66"/>
-    <mergeCell ref="Q65:Q66"/>
-    <mergeCell ref="S65:S66"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="S29:S30"/>
-    <mergeCell ref="Q51:Q52"/>
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="R67:S68"/>
-    <mergeCell ref="D2:U2"/>
-    <mergeCell ref="S43:S44"/>
-    <mergeCell ref="S45:S46"/>
-    <mergeCell ref="S47:S48"/>
-    <mergeCell ref="S49:S50"/>
-    <mergeCell ref="S51:S52"/>
-    <mergeCell ref="S53:S54"/>
-    <mergeCell ref="S55:S56"/>
-    <mergeCell ref="S57:S58"/>
-    <mergeCell ref="S59:S60"/>
-    <mergeCell ref="S21:S22"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="S27:S28"/>
-    <mergeCell ref="S31:S32"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="S35:S36"/>
-    <mergeCell ref="S37:S38"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="U29:U30"/>
-    <mergeCell ref="U65:U66"/>
-    <mergeCell ref="P67:Q68"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="Q47:Q48"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="Q31:Q32"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="Q37:Q38"/>
-    <mergeCell ref="Q39:Q40"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="D67:E68"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="U57:U58"/>
-    <mergeCell ref="U59:U60"/>
-    <mergeCell ref="O59:O60"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="O57:O58"/>
-    <mergeCell ref="Q53:Q54"/>
-    <mergeCell ref="Q55:Q56"/>
-    <mergeCell ref="Q57:Q58"/>
-    <mergeCell ref="Q59:Q60"/>
-    <mergeCell ref="Q61:Q62"/>
-    <mergeCell ref="S61:S62"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="U31:U32"/>
-    <mergeCell ref="U33:U34"/>
-    <mergeCell ref="U35:U36"/>
-    <mergeCell ref="U37:U38"/>
-    <mergeCell ref="U41:U42"/>
-    <mergeCell ref="U43:U44"/>
-    <mergeCell ref="U45:U46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="S39:S40"/>
-    <mergeCell ref="S41:S42"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="M61:M62"/>
-    <mergeCell ref="M57:M58"/>
-    <mergeCell ref="M59:M60"/>
-    <mergeCell ref="B67:C68"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="J67:K68"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="H67:I68"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="L67:M68"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="F67:G68"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="U21:U22"/>
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B31:C32"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="N67:O68"/>
-    <mergeCell ref="T67:U68"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="U39:U40"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="M25:M26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4967,12 +4967,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="15.5">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="12" t="s">
         <v>69</v>
       </c>
@@ -5009,7 +5009,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="15.5">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -5032,7 +5032,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="15.5">
       <c r="A4" s="12" t="s">
         <v>70</v>
       </c>
@@ -5052,7 +5052,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="15.5">
       <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
@@ -5097,12 +5097,12 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="37.1640625" customWidth="1"/>
+    <col min="1" max="1" width="37.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="15.5">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="12" t="s">
         <v>67</v>
       </c>
@@ -5139,7 +5139,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="15.5">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -5162,7 +5162,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="15.5">
       <c r="A4" s="12" t="s">
         <v>66</v>
       </c>
@@ -5180,7 +5180,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="15.5">
       <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
@@ -5273,12 +5273,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="1" max="1" width="31.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="15.5">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="15.5">
       <c r="A2" s="12" t="s">
         <v>91</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="15.5">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -5334,7 +5334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="15.5">
       <c r="A4" s="12" t="s">
         <v>92</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="15.5">
       <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
@@ -5386,12 +5386,12 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="37.1640625" customWidth="1"/>
+    <col min="1" max="1" width="37.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="15.5">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="12" t="s">
         <v>69</v>
       </c>
@@ -5428,7 +5428,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="15.5">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -5451,7 +5451,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="15.5">
       <c r="A4" s="12" t="s">
         <v>70</v>
       </c>
@@ -5471,7 +5471,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="15.5">
       <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
@@ -5564,12 +5564,12 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="37.1640625" customWidth="1"/>
+    <col min="1" max="1" width="37.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="15.5">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="26" t="s">
         <v>76</v>
       </c>
@@ -5604,7 +5604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="15.5">
       <c r="A3" s="26" t="s">
         <v>77</v>
       </c>
@@ -5624,7 +5624,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="15.5">
       <c r="A4" s="15" t="s">
         <v>38</v>
       </c>
@@ -5647,7 +5647,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="15.5">
       <c r="A5" s="12" t="s">
         <v>70</v>
       </c>
@@ -5667,7 +5667,7 @@
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="15.5">
       <c r="A6" s="13" t="s">
         <v>37</v>
       </c>
@@ -5760,12 +5760,12 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="37.1640625" customWidth="1"/>
+    <col min="1" max="1" width="37.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="15.5">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="12" t="s">
         <v>69</v>
       </c>
@@ -5802,7 +5802,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="15.5">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -5825,7 +5825,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="15.5">
       <c r="A4" s="12" t="s">
         <v>70</v>
       </c>
@@ -5845,7 +5845,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="15.5">
       <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
@@ -5938,12 +5938,12 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="37.1640625" customWidth="1"/>
+    <col min="1" max="1" width="37.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="15.5">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="12" t="s">
         <v>69</v>
       </c>
@@ -5980,7 +5980,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="15.5">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -6003,7 +6003,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="15.5">
       <c r="A4" s="12" t="s">
         <v>70</v>
       </c>
@@ -6023,7 +6023,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="15.5">
       <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
@@ -6116,12 +6116,12 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="37.1640625" customWidth="1"/>
+    <col min="1" max="1" width="37.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="15.5">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="12" t="s">
         <v>69</v>
       </c>
@@ -6158,7 +6158,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="15.5">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -6181,7 +6181,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="15.5">
       <c r="A4" s="12" t="s">
         <v>70</v>
       </c>
@@ -6201,7 +6201,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="15.5">
       <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
@@ -6294,12 +6294,12 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="48.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="15.5">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="12" t="s">
         <v>78</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="15.5">
       <c r="A3" s="12" t="s">
         <v>79</v>
       </c>
@@ -6354,7 +6354,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="15.5">
       <c r="A4" s="15" t="s">
         <v>38</v>
       </c>
@@ -6377,7 +6377,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="15.5">
       <c r="A5" s="12" t="s">
         <v>75</v>
       </c>
@@ -6397,7 +6397,7 @@
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="15.5">
       <c r="A6" s="12" t="s">
         <v>74</v>
       </c>
@@ -6417,7 +6417,7 @@
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="15.5">
       <c r="A7" s="13" t="s">
         <v>37</v>
       </c>
@@ -6510,12 +6510,12 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="37.1640625" customWidth="1"/>
+    <col min="1" max="1" width="37.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="15.5">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="12" t="s">
         <v>69</v>
       </c>
@@ -6552,7 +6552,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="15.5">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -6575,7 +6575,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="15.5">
       <c r="A4" s="12" t="s">
         <v>70</v>
       </c>
@@ -6595,7 +6595,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="15.5">
       <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
@@ -6688,13 +6688,13 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="16"/>
+    <col min="5" max="5" width="11.453125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="15.5">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="12" t="s">
         <v>40</v>
       </c>
@@ -6731,7 +6731,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="15.5">
       <c r="A3" s="12" t="s">
         <v>41</v>
       </c>
@@ -6751,7 +6751,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="15.5">
       <c r="A4" s="12" t="s">
         <v>42</v>
       </c>
@@ -6771,7 +6771,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" s="17" customFormat="1">
+    <row r="5" spans="1:7" s="17" customFormat="1" ht="15.5">
       <c r="A5" s="15" t="s">
         <v>38</v>
       </c>
@@ -6794,7 +6794,7 @@
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="15.5">
       <c r="A6" s="12" t="s">
         <v>33</v>
       </c>
@@ -6814,7 +6814,7 @@
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="15.5">
       <c r="A7" s="12" t="s">
         <v>35</v>
       </c>
@@ -6834,7 +6834,7 @@
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="15.5">
       <c r="A8" s="12" t="s">
         <v>36</v>
       </c>
@@ -6854,7 +6854,7 @@
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="15.5">
       <c r="A9" s="13" t="s">
         <v>37</v>
       </c>
@@ -6914,12 +6914,12 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="37.1640625" customWidth="1"/>
+    <col min="1" max="1" width="37.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="15.5">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="12" t="s">
         <v>69</v>
       </c>
@@ -6956,7 +6956,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="15.5">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -6979,7 +6979,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="15.5">
       <c r="A4" s="12" t="s">
         <v>70</v>
       </c>
@@ -6999,7 +6999,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="15.5">
       <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
@@ -7092,12 +7092,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="37.1640625" customWidth="1"/>
+    <col min="1" max="1" width="37.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="15.5">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="12" t="s">
         <v>69</v>
       </c>
@@ -7134,7 +7134,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="15.5">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -7157,7 +7157,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="15.5">
       <c r="A4" s="12" t="s">
         <v>70</v>
       </c>
@@ -7177,7 +7177,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="15.5">
       <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
@@ -7270,12 +7270,12 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="37.1640625" customWidth="1"/>
+    <col min="1" max="1" width="37.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="15.5">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -7292,7 +7292,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="12" t="s">
         <v>96</v>
       </c>
@@ -7312,7 +7312,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="15.5">
       <c r="A3" s="12" t="s">
         <v>95</v>
       </c>
@@ -7332,7 +7332,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="15.5">
       <c r="A4" s="15" t="s">
         <v>38</v>
       </c>
@@ -7355,7 +7355,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="15.5">
       <c r="A5" s="12" t="s">
         <v>75</v>
       </c>
@@ -7375,7 +7375,7 @@
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="15.5">
       <c r="A6" s="12" t="s">
         <v>74</v>
       </c>
@@ -7395,7 +7395,7 @@
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="15.5">
       <c r="A7" s="13" t="s">
         <v>37</v>
       </c>
@@ -7488,12 +7488,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="37.1640625" customWidth="1"/>
+    <col min="1" max="1" width="37.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="15.5">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -7510,7 +7510,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="12" t="s">
         <v>69</v>
       </c>
@@ -7530,7 +7530,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="15.5">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -7553,7 +7553,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="15.5">
       <c r="A4" s="12" t="s">
         <v>70</v>
       </c>
@@ -7573,7 +7573,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="15.5">
       <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
@@ -7666,12 +7666,12 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="37.1640625" customWidth="1"/>
+    <col min="1" max="1" width="37.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="15.5">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -7688,7 +7688,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="12" t="s">
         <v>96</v>
       </c>
@@ -7708,7 +7708,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="15.5">
       <c r="A3" s="12" t="s">
         <v>95</v>
       </c>
@@ -7728,7 +7728,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="15.5">
       <c r="A4" s="15" t="s">
         <v>38</v>
       </c>
@@ -7751,7 +7751,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="15.5">
       <c r="A5" s="12" t="s">
         <v>75</v>
       </c>
@@ -7771,7 +7771,7 @@
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="15.5">
       <c r="A6" s="12" t="s">
         <v>74</v>
       </c>
@@ -7791,7 +7791,7 @@
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="15.5">
       <c r="A7" s="13" t="s">
         <v>37</v>
       </c>
@@ -7880,16 +7880,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB1AFE0-5A9B-495B-9FC5-BB69210E89D8}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="37.1640625" customWidth="1"/>
+    <col min="1" max="1" width="37.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="15.5">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -7906,37 +7906,37 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="12" t="s">
         <v>69</v>
       </c>
       <c r="B2" s="18">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="C2" s="18">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="D2" s="18">
         <v>0</v>
       </c>
       <c r="E2" s="20">
         <f>SUM(B2:D2)</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="15.5">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="19">
         <f>SUM(B2:B2)</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="C3" s="19">
         <f>SUM(C2:C2)</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="D3" s="19">
         <f>SUM(D2:D2)</f>
@@ -7944,42 +7944,42 @@
       </c>
       <c r="E3" s="19">
         <f>SUM(E2:E2)</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="15.5">
       <c r="A4" s="12" t="s">
         <v>70</v>
       </c>
       <c r="B4" s="18">
-        <v>0</v>
+        <v>262.95</v>
       </c>
       <c r="C4" s="18">
-        <v>0</v>
+        <v>820</v>
       </c>
       <c r="D4" s="18">
         <v>0</v>
       </c>
       <c r="E4" s="20">
         <f>SUM(B4:D4)</f>
-        <v>0</v>
+        <v>1082.95</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="15.5">
       <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="21">
         <f>SUM(B4:B4)</f>
-        <v>0</v>
+        <v>262.95</v>
       </c>
       <c r="C5" s="21">
         <f>SUM(C4:C4)</f>
-        <v>0</v>
+        <v>820</v>
       </c>
       <c r="D5" s="21">
         <f>SUM(D4:D4)</f>
@@ -7987,7 +7987,7 @@
       </c>
       <c r="E5" s="21">
         <f>SUM(E4:E4)</f>
-        <v>0</v>
+        <v>1082.95</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
@@ -8059,15 +8059,15 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="15.5">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="15.5">
       <c r="A2" s="12" t="s">
         <v>69</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="15.5">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -8123,7 +8123,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="15.5">
       <c r="A4" s="12" t="s">
         <v>70</v>
       </c>
@@ -8141,7 +8141,7 @@
         <v>1932.17</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="15.5">
       <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
@@ -8175,12 +8175,12 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="15.5">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -8197,7 +8197,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="12" t="s">
         <v>43</v>
       </c>
@@ -8217,7 +8217,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="15.5">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -8240,7 +8240,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="15.5">
       <c r="A4" s="12" t="s">
         <v>44</v>
       </c>
@@ -8260,7 +8260,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="15.5">
       <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
@@ -8336,12 +8336,12 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="53.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="15.5">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -8358,7 +8358,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="15.5">
       <c r="A2" s="12" t="s">
         <v>45</v>
       </c>
@@ -8377,7 +8377,7 @@
       </c>
       <c r="F2" s="22"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="15.5">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -8399,7 +8399,7 @@
       </c>
       <c r="F3" s="22"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="15.5">
       <c r="A4" s="12" t="s">
         <v>46</v>
       </c>
@@ -8418,7 +8418,7 @@
       </c>
       <c r="F4" s="22"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="15.5">
       <c r="A5" s="12" t="s">
         <v>85</v>
       </c>
@@ -8437,7 +8437,7 @@
       </c>
       <c r="F5" s="22"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="15.5">
       <c r="A6" s="12" t="s">
         <v>86</v>
       </c>
@@ -8456,7 +8456,7 @@
       </c>
       <c r="F6" s="22"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="15.5">
       <c r="A7" s="13" t="s">
         <v>37</v>
       </c>
@@ -8506,12 +8506,12 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="15.5">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -8528,7 +8528,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="12" t="s">
         <v>47</v>
       </c>
@@ -8548,7 +8548,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="15.5">
       <c r="A3" s="12" t="s">
         <v>48</v>
       </c>
@@ -8568,7 +8568,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="15.5">
       <c r="A4" s="12" t="s">
         <v>49</v>
       </c>
@@ -8588,7 +8588,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="15.5">
       <c r="A5" s="15" t="s">
         <v>38</v>
       </c>
@@ -8611,7 +8611,7 @@
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="15.5">
       <c r="A6" s="12" t="s">
         <v>50</v>
       </c>
@@ -8632,7 +8632,7 @@
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="15.5">
       <c r="A7" s="12" t="s">
         <v>51</v>
       </c>
@@ -8652,7 +8652,7 @@
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="15.5">
       <c r="A8" s="12" t="s">
         <v>52</v>
       </c>
@@ -8672,7 +8672,7 @@
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="15.5">
       <c r="A9" s="12" t="s">
         <v>53</v>
       </c>
@@ -8692,7 +8692,7 @@
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="15.5">
       <c r="A10" s="12" t="s">
         <v>54</v>
       </c>
@@ -8712,7 +8712,7 @@
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="15.5">
       <c r="A11" s="12" t="s">
         <v>68</v>
       </c>
@@ -8732,7 +8732,7 @@
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="15.5">
       <c r="A12" s="13" t="s">
         <v>37</v>
       </c>
@@ -8763,10 +8763,10 @@
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="15.5">
       <c r="B14" s="18"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="15.5">
       <c r="D15" s="18"/>
     </row>
   </sheetData>
@@ -8783,12 +8783,12 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="15.5">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="12" t="s">
         <v>55</v>
       </c>
@@ -8825,7 +8825,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="15.5">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -8848,7 +8848,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="15.5">
       <c r="A4" s="12" t="s">
         <v>56</v>
       </c>
@@ -8868,7 +8868,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="15.5">
       <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
@@ -8952,12 +8952,12 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="15.5">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -8974,7 +8974,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="12" t="s">
         <v>62</v>
       </c>
@@ -8994,7 +8994,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="15.5">
       <c r="A3" s="12" t="s">
         <v>63</v>
       </c>
@@ -9014,7 +9014,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="15.5">
       <c r="A4" s="12" t="s">
         <v>64</v>
       </c>
@@ -9034,7 +9034,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="15.5">
       <c r="A5" s="15" t="s">
         <v>38</v>
       </c>
@@ -9057,7 +9057,7 @@
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="15.5">
       <c r="A6" s="12" t="s">
         <v>57</v>
       </c>
@@ -9077,7 +9077,7 @@
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="15.5">
       <c r="A7" s="12" t="s">
         <v>58</v>
       </c>
@@ -9097,7 +9097,7 @@
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="15.5">
       <c r="A8" s="12" t="s">
         <v>59</v>
       </c>
@@ -9117,7 +9117,7 @@
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="15.5">
       <c r="A9" s="12" t="s">
         <v>60</v>
       </c>
@@ -9137,7 +9137,7 @@
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="15.5">
       <c r="A10" s="12" t="s">
         <v>61</v>
       </c>
@@ -9157,7 +9157,7 @@
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="15.5">
       <c r="A11" s="12" t="s">
         <v>65</v>
       </c>
@@ -9177,7 +9177,7 @@
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="15.5">
       <c r="A12" s="13" t="s">
         <v>37</v>
       </c>
@@ -9246,12 +9246,12 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="15.5">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="15.5">
       <c r="A2" s="12" t="s">
         <v>69</v>
       </c>
@@ -9287,7 +9287,7 @@
       </c>
       <c r="F2" s="22"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="15.5">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -9309,7 +9309,7 @@
       </c>
       <c r="F3" s="22"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="15.5">
       <c r="A4" s="12" t="s">
         <v>70</v>
       </c>
@@ -9328,7 +9328,7 @@
       </c>
       <c r="F4" s="22"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="15.5">
       <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
@@ -9406,12 +9406,12 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="15.5">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -9428,7 +9428,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="15.5">
       <c r="A2" s="12" t="s">
         <v>69</v>
       </c>
@@ -9447,7 +9447,7 @@
       </c>
       <c r="F2" s="22"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="15.5">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -9469,7 +9469,7 @@
       </c>
       <c r="F3" s="22"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="15.5">
       <c r="A4" s="12" t="s">
         <v>71</v>
       </c>
@@ -9488,7 +9488,7 @@
       </c>
       <c r="F4" s="22"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="15.5">
       <c r="A5" s="12" t="s">
         <v>72</v>
       </c>
@@ -9507,7 +9507,7 @@
       </c>
       <c r="F5" s="22"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="15.5">
       <c r="A6" s="12" t="s">
         <v>87</v>
       </c>
@@ -9526,7 +9526,7 @@
       </c>
       <c r="F6" s="22"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="15.5">
       <c r="A7" s="12" t="s">
         <v>73</v>
       </c>
@@ -9545,7 +9545,7 @@
       </c>
       <c r="F7" s="22"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="15.5">
       <c r="A8" s="13" t="s">
         <v>37</v>
       </c>

--- a/2 - Bilans/2022-2023/Unipoly_Bilan_Quadrimestriel_22-23.xlsx
+++ b/2 - Bilans/2022-2023/Unipoly_Bilan_Quadrimestriel_22-23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\Clara\Unipoly\UPSecretrariat\2 - Bilans\2022-2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theodoresavary/Desktop/Unipoly/UPSecretrariat/2 - Bilans/2022-2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510F2C1A-1DD5-45ED-B19E-B09425318C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3ADB2CA-00FB-BE45-B1D5-42EB5513D31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="779" firstSheet="20" activeTab="24" xr2:uid="{34F8AD7C-3B1E-42A7-8AF2-50C33241ADA4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="779" activeTab="8" xr2:uid="{34F8AD7C-3B1E-42A7-8AF2-50C33241ADA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Bilan" sheetId="1" r:id="rId1"/>
@@ -725,59 +725,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -794,17 +770,41 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1122,19 +1122,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A55C92-786C-4AB3-96FC-7473E4CC0A9B}">
   <dimension ref="A1:Y70"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="110" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M57" sqref="M57:M58"/>
+    <sheetView topLeftCell="A34" zoomScale="110" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E35" sqref="E35:E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.36328125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="3.453125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="33.1796875" style="4" customWidth="1"/>
-    <col min="4" max="21" width="15.453125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="33.1640625" style="4" customWidth="1"/>
+    <col min="4" max="21" width="15.5" style="4" customWidth="1"/>
     <col min="22" max="25" width="0" style="4" hidden="1" customWidth="1"/>
-    <col min="26" max="16384" width="11.453125" style="4" hidden="1"/>
+    <col min="26" max="16384" width="11.5" style="4" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" ht="12" customHeight="1">
@@ -1143,74 +1143,74 @@
     <row r="2" spans="1:21" ht="36" customHeight="1">
       <c r="B2" s="29"/>
       <c r="C2" s="30"/>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="40"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="59"/>
     </row>
     <row r="3" spans="1:21" ht="14" customHeight="1">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="45" t="s">
+      <c r="C3" s="47"/>
+      <c r="D3" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41" t="s">
+      <c r="E3" s="42"/>
+      <c r="F3" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="51" t="s">
+      <c r="G3" s="42"/>
+      <c r="H3" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51" t="s">
+      <c r="I3" s="43"/>
+      <c r="J3" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="51"/>
-      <c r="L3" s="41" t="s">
+      <c r="K3" s="43"/>
+      <c r="L3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41" t="s">
+      <c r="M3" s="42"/>
+      <c r="N3" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41" t="s">
+      <c r="O3" s="42"/>
+      <c r="P3" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41" t="s">
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41" t="s">
+      <c r="S3" s="42"/>
+      <c r="T3" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="U3" s="51"/>
-    </row>
-    <row r="4" spans="1:21" ht="20">
-      <c r="B4" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="53"/>
+      <c r="U3" s="43"/>
+    </row>
+    <row r="4" spans="1:21" ht="18">
+      <c r="B4" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="45"/>
       <c r="D4" s="5" t="s">
         <v>39</v>
       </c>
@@ -1266,16 +1266,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.5">
-      <c r="B5" s="56" t="s">
+    <row r="5" spans="1:21">
+      <c r="B5" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="57"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="6">
         <f>D7+D31</f>
         <v>3136.0899999999997</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="36">
         <f>D5-D6</f>
         <v>-1901.2299999999991</v>
       </c>
@@ -1283,7 +1283,7 @@
         <f>F7+F31</f>
         <v>4406.34</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="36">
         <f>F5-F6+E5</f>
         <v>2505.110000000001</v>
       </c>
@@ -1291,22 +1291,22 @@
         <f>H7+H31</f>
         <v>31680</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="36">
         <f>H5-H6+G5</f>
         <v>-14672.89</v>
       </c>
       <c r="J5" s="6"/>
-      <c r="K5" s="33">
+      <c r="K5" s="36">
         <f>J5-J6+I5</f>
         <v>-14672.89</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="M5" s="33">
+      <c r="M5" s="36">
         <f>L5-L6+K5</f>
         <v>-14672.89</v>
       </c>
       <c r="N5" s="6"/>
-      <c r="O5" s="33">
+      <c r="O5" s="36">
         <f>N5-N6+M5</f>
         <v>-14672.89</v>
       </c>
@@ -1314,7 +1314,7 @@
         <f>P8+P32</f>
         <v>4406.34</v>
       </c>
-      <c r="Q5" s="33">
+      <c r="Q5" s="36">
         <f>P5-P6+O5</f>
         <v>-10266.549999999999</v>
       </c>
@@ -1322,59 +1322,59 @@
         <f>R8+R32</f>
         <v>31680</v>
       </c>
-      <c r="S5" s="33">
+      <c r="S5" s="36">
         <f>R5-R6+Q5</f>
         <v>21413.45</v>
       </c>
       <c r="T5" s="6">
         <v>2214.0300000000002</v>
       </c>
-      <c r="U5" s="44">
+      <c r="U5" s="37">
         <f>T5-T6+S5</f>
         <v>23627.48</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.5">
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
+    <row r="6" spans="1:21">
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="7">
         <f>D8+D32</f>
         <v>5037.3199999999988</v>
       </c>
-      <c r="E6" s="33"/>
+      <c r="E6" s="36"/>
       <c r="F6" s="7">
         <f>F8+F32</f>
         <v>0</v>
       </c>
-      <c r="G6" s="33"/>
+      <c r="G6" s="36"/>
       <c r="H6" s="7">
         <f>H8+H32</f>
         <v>48858</v>
       </c>
-      <c r="I6" s="42"/>
+      <c r="I6" s="48"/>
       <c r="J6" s="27"/>
-      <c r="K6" s="42"/>
+      <c r="K6" s="48"/>
       <c r="L6" s="27"/>
-      <c r="M6" s="42"/>
+      <c r="M6" s="48"/>
       <c r="N6" s="27"/>
-      <c r="O6" s="42"/>
+      <c r="O6" s="48"/>
       <c r="P6" s="27"/>
-      <c r="Q6" s="42"/>
+      <c r="Q6" s="48"/>
       <c r="R6" s="27"/>
-      <c r="S6" s="42"/>
+      <c r="S6" s="48"/>
       <c r="T6" s="27"/>
-      <c r="U6" s="42"/>
-    </row>
-    <row r="7" spans="1:21" ht="15.5">
-      <c r="B7" s="56" t="s">
+      <c r="U6" s="48"/>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="B7" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="57"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="8">
         <f>D9+D11+D13+D15+D17+D19+D21+D23+D25+D27</f>
         <v>0</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="37">
         <f>D7-D8</f>
         <v>0</v>
       </c>
@@ -1382,7 +1382,7 @@
         <f>F9+F11+F13+F15+F17+F19+F21+F23+F25+F27</f>
         <v>0</v>
       </c>
-      <c r="G7" s="44">
+      <c r="G7" s="37">
         <f>F7-F8+E7</f>
         <v>0</v>
       </c>
@@ -1390,7 +1390,7 @@
         <f>H9+H11+H13+H15+H17+H19+H21+H23+H25+H27+H29</f>
         <v>3400</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="36">
         <f>H7-H8+G7</f>
         <v>-4600</v>
       </c>
@@ -1398,119 +1398,119 @@
         <f>J9+J11+J13+J15+J17+J19+J21+J23+J25+J27+J29</f>
         <v>5533.92</v>
       </c>
-      <c r="K7" s="33">
+      <c r="K7" s="36">
         <f>J7-J8+I7</f>
         <v>-3468.9800000000005</v>
       </c>
       <c r="L7" s="6">
         <f>L9+L11+L13+L15+L17+L19+L21+L23+L25+L27+L29</f>
-        <v>7222.3</v>
-      </c>
-      <c r="M7" s="33">
+        <v>7362.3</v>
+      </c>
+      <c r="M7" s="36">
         <f>L7-L8+K7</f>
-        <v>-355.98000000000047</v>
+        <v>-215.98000000000047</v>
       </c>
       <c r="N7" s="6">
         <f>N9+N11+N13+N15+N17+N19+N21+N23+N25+N27+N29</f>
         <v>0</v>
       </c>
-      <c r="O7" s="33">
+      <c r="O7" s="36">
         <f>N7-N8+M7</f>
-        <v>-355.98000000000047</v>
+        <v>-215.98000000000047</v>
       </c>
       <c r="P7" s="6">
         <f>P9+P11+P13+P15+P17+P19+P21+P23+P25+P27+P29</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="33">
+      <c r="Q7" s="36">
         <f>P7-P8+O7</f>
-        <v>-355.98000000000047</v>
+        <v>-215.98000000000047</v>
       </c>
       <c r="R7" s="6">
         <f>R9+R11+R13+R15+R17+R19+R21+R23+R25+R27+R29</f>
         <v>0</v>
       </c>
-      <c r="S7" s="33">
+      <c r="S7" s="36">
         <f>R7-R8+Q7</f>
-        <v>-3755.9800000000005</v>
+        <v>-3615.9800000000005</v>
       </c>
       <c r="T7" s="6">
         <f>T9+T11+T13+T15+T17+T19+T21+T23+T25+T27+T29</f>
         <v>12560.309999999998</v>
       </c>
-      <c r="U7" s="43">
+      <c r="U7" s="49">
         <f>T7-T8+S7</f>
-        <v>-11136.18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="15.5">
-      <c r="B8" s="58"/>
-      <c r="C8" s="59"/>
+        <v>-10996.18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="B8" s="40"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="7">
         <f>D10+D12+D14+D16+D18+D20+D22+D24+D26+D28</f>
         <v>0</v>
       </c>
-      <c r="E8" s="33"/>
+      <c r="E8" s="36"/>
       <c r="F8" s="7">
         <f>F10+F12+F14+F16+F18+F20+F22+F24+F26+F28</f>
         <v>0</v>
       </c>
-      <c r="G8" s="33"/>
+      <c r="G8" s="36"/>
       <c r="H8" s="7">
         <f>H10+H12+H14+H16+H18+H20+H22+H24+H26+H28+H30</f>
         <v>8000</v>
       </c>
-      <c r="I8" s="33"/>
+      <c r="I8" s="36"/>
       <c r="J8" s="7">
         <f>J10+J12+J14+J16+J18+J20+J22+J24+J26+J28+J30</f>
         <v>4402.9000000000005</v>
       </c>
-      <c r="K8" s="33"/>
+      <c r="K8" s="36"/>
       <c r="L8" s="7">
         <f>L10+L12+L14+L16+L18+L20+L22+L24+L26+L28+L30</f>
         <v>4109.3</v>
       </c>
-      <c r="M8" s="33"/>
+      <c r="M8" s="36"/>
       <c r="N8" s="7">
         <f>N10+N12+N14+N16+N18+N20+N22+N24+N26+N28+N30</f>
         <v>0</v>
       </c>
-      <c r="O8" s="33"/>
+      <c r="O8" s="36"/>
       <c r="P8" s="7">
         <f>P10+P12+P14+P16+P18+P20+P22+P24+P26+P28+P30</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="33"/>
+      <c r="Q8" s="36"/>
       <c r="R8" s="7">
         <f>R10+R12+R14+R16+R18+R20+R22+R24+R26+R28+R30</f>
         <v>3400</v>
       </c>
-      <c r="S8" s="33"/>
+      <c r="S8" s="36"/>
       <c r="T8" s="7">
         <f>T10+T12+T14+T16+T18+T20+T22+T24+T26+T28+T30</f>
         <v>19940.509999999998</v>
       </c>
-      <c r="U8" s="43"/>
-    </row>
-    <row r="9" spans="1:21" ht="15.5">
+      <c r="U8" s="49"/>
+    </row>
+    <row r="9" spans="1:21">
       <c r="B9" s="9"/>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="35" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="33">
+      <c r="E9" s="36">
         <f>D9-D10</f>
         <v>0</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="33">
+      <c r="G9" s="36">
         <f>F9-F10+E9</f>
         <v>0</v>
       </c>
       <c r="H9" s="6">
         <v>600</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="36">
         <f>H9-H10+G9</f>
         <v>-2250</v>
       </c>
@@ -1518,7 +1518,7 @@
         <f>COHE_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K9" s="33">
+      <c r="K9" s="36">
         <f>J9-J10+I9</f>
         <v>-2563.5</v>
       </c>
@@ -1526,7 +1526,7 @@
         <f>COHE_Clôtures!C5</f>
         <v>1730.13</v>
       </c>
-      <c r="M9" s="33">
+      <c r="M9" s="36">
         <f>L9-L10+K9</f>
         <v>-2298.38</v>
       </c>
@@ -1534,88 +1534,88 @@
         <f>COHE_Clôtures!D5</f>
         <v>0</v>
       </c>
-      <c r="O9" s="33">
+      <c r="O9" s="36">
         <f>N9-N10+M9</f>
         <v>-2298.38</v>
       </c>
       <c r="P9" s="6"/>
-      <c r="Q9" s="33">
+      <c r="Q9" s="36">
         <f>P9-P10+O9</f>
         <v>-2298.38</v>
       </c>
       <c r="R9" s="6"/>
-      <c r="S9" s="33">
+      <c r="S9" s="36">
         <f>R9-R10+Q9</f>
         <v>-2898.38</v>
       </c>
       <c r="T9" s="6">
         <v>2309.38</v>
       </c>
-      <c r="U9" s="43">
+      <c r="U9" s="49">
         <f>T9-T10+S9</f>
         <v>-2482.4499999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.5">
+    <row r="10" spans="1:21">
       <c r="B10" s="9"/>
-      <c r="C10" s="34"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="33"/>
+      <c r="E10" s="36"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="33"/>
+      <c r="G10" s="36"/>
       <c r="H10" s="7">
         <v>2850</v>
       </c>
-      <c r="I10" s="33"/>
+      <c r="I10" s="36"/>
       <c r="J10" s="7">
         <f>COHE_Clôtures!$B$9</f>
         <v>313.5</v>
       </c>
-      <c r="K10" s="33"/>
+      <c r="K10" s="36"/>
       <c r="L10" s="7">
         <f>COHE_Clôtures!C9</f>
         <v>1465.01</v>
       </c>
-      <c r="M10" s="33"/>
+      <c r="M10" s="36"/>
       <c r="N10" s="7">
         <f>COHE_Clôtures!D9</f>
         <v>0</v>
       </c>
-      <c r="O10" s="33"/>
+      <c r="O10" s="36"/>
       <c r="P10" s="7">
         <f>F9</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="33"/>
+      <c r="Q10" s="36"/>
       <c r="R10" s="7">
         <f>H9</f>
         <v>600</v>
       </c>
-      <c r="S10" s="33"/>
+      <c r="S10" s="36"/>
       <c r="T10" s="7">
         <v>1893.45</v>
       </c>
-      <c r="U10" s="43"/>
-    </row>
-    <row r="11" spans="1:21" ht="15.5">
+      <c r="U10" s="49"/>
+    </row>
+    <row r="11" spans="1:21">
       <c r="B11" s="9"/>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="35" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="33">
+      <c r="E11" s="36">
         <f>D11-D12</f>
         <v>0</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="33">
+      <c r="G11" s="36">
         <f t="shared" ref="G11" si="0">F11-F12+E11</f>
         <v>0</v>
       </c>
       <c r="H11" s="6">
         <v>150</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="36">
         <f>H11-H12+G11</f>
         <v>-600</v>
       </c>
@@ -1623,7 +1623,7 @@
         <f>COM_Clôtures!$B$3</f>
         <v>35.1</v>
       </c>
-      <c r="K11" s="33">
+      <c r="K11" s="36">
         <f t="shared" ref="K11" si="1">J11-J12+I11</f>
         <v>-732.77</v>
       </c>
@@ -1631,7 +1631,7 @@
         <f>COM_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M11" s="33">
+      <c r="M11" s="36">
         <f>L11-L12+K11</f>
         <v>-732.77</v>
       </c>
@@ -1639,17 +1639,17 @@
         <f>COM_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O11" s="33">
+      <c r="O11" s="36">
         <f>N11-N12+M11</f>
         <v>-732.77</v>
       </c>
       <c r="P11" s="6"/>
-      <c r="Q11" s="33">
+      <c r="Q11" s="36">
         <f>P11-P12+O11</f>
         <v>-732.77</v>
       </c>
       <c r="R11" s="6"/>
-      <c r="S11" s="33">
+      <c r="S11" s="36">
         <f>R11-R12+Q11</f>
         <v>-882.77</v>
       </c>
@@ -1661,66 +1661,66 @@
         <v>-127.62999999999988</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15.5">
+    <row r="12" spans="1:21">
       <c r="B12" s="9"/>
-      <c r="C12" s="34"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="33"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="33"/>
+      <c r="G12" s="36"/>
       <c r="H12" s="7">
         <v>750</v>
       </c>
-      <c r="I12" s="33"/>
+      <c r="I12" s="36"/>
       <c r="J12" s="7">
         <f>COM_Clôtures!$B$5</f>
         <v>167.87</v>
       </c>
-      <c r="K12" s="33"/>
+      <c r="K12" s="36"/>
       <c r="L12" s="7">
         <f>COM_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M12" s="33"/>
+      <c r="M12" s="36"/>
       <c r="N12" s="7">
         <f>COM_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O12" s="33"/>
+      <c r="O12" s="36"/>
       <c r="P12" s="7">
         <f>F11</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="33"/>
+      <c r="Q12" s="36"/>
       <c r="R12" s="7">
         <f>H11</f>
         <v>150</v>
       </c>
-      <c r="S12" s="33"/>
+      <c r="S12" s="36"/>
       <c r="T12" s="7">
         <v>128.19999999999999</v>
       </c>
       <c r="U12" s="31"/>
     </row>
-    <row r="13" spans="1:21" ht="15.5">
+    <row r="13" spans="1:21">
       <c r="B13" s="9"/>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="35" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="33">
+      <c r="E13" s="36">
         <f>D13-D14</f>
         <v>0</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="33">
+      <c r="G13" s="36">
         <f t="shared" ref="G13" si="2">F13-F14+E13</f>
         <v>0</v>
       </c>
       <c r="H13" s="6">
         <v>0</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="36">
         <f>H13-H14+G13</f>
         <v>-500</v>
       </c>
@@ -1728,7 +1728,7 @@
         <f>CONTRIB_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K13" s="33">
+      <c r="K13" s="36">
         <f t="shared" ref="K13" si="3">J13-J14+I13</f>
         <v>-575.6</v>
       </c>
@@ -1736,7 +1736,7 @@
         <f>CONTRIB_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M13" s="33">
+      <c r="M13" s="36">
         <f>L13-L14+K13</f>
         <v>-625.9</v>
       </c>
@@ -1744,86 +1744,86 @@
         <f>CONTRIB_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O13" s="33">
+      <c r="O13" s="36">
         <f>N13-N14+M13</f>
         <v>-625.9</v>
       </c>
       <c r="P13" s="6"/>
-      <c r="Q13" s="33">
+      <c r="Q13" s="36">
         <f>P13-P14+O13</f>
         <v>-625.9</v>
       </c>
       <c r="R13" s="6"/>
-      <c r="S13" s="33">
+      <c r="S13" s="36">
         <f t="shared" ref="S13" si="4">R13-R14+Q13</f>
         <v>-625.9</v>
       </c>
       <c r="T13" s="6">
         <v>171.6</v>
       </c>
-      <c r="U13" s="43">
+      <c r="U13" s="49">
         <f t="shared" ref="U13" si="5">T13-T14+S13</f>
         <v>-454.29999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15.5">
+    <row r="14" spans="1:21">
       <c r="B14" s="9"/>
-      <c r="C14" s="34"/>
+      <c r="C14" s="35"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="33"/>
+      <c r="E14" s="36"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="33"/>
+      <c r="G14" s="36"/>
       <c r="H14" s="7">
         <v>500</v>
       </c>
-      <c r="I14" s="33"/>
+      <c r="I14" s="36"/>
       <c r="J14" s="7">
         <f>CONTRIB_Clôtures!$B$7</f>
         <v>75.599999999999994</v>
       </c>
-      <c r="K14" s="33"/>
+      <c r="K14" s="36"/>
       <c r="L14" s="7">
         <f>CONTRIB_Clôtures!$C$7</f>
         <v>50.3</v>
       </c>
-      <c r="M14" s="33"/>
+      <c r="M14" s="36"/>
       <c r="N14" s="7">
         <f>CONTRIB_Clôtures!$D$7</f>
         <v>0</v>
       </c>
-      <c r="O14" s="33"/>
+      <c r="O14" s="36"/>
       <c r="P14" s="7">
         <f>F13</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="33"/>
+      <c r="Q14" s="36"/>
       <c r="R14" s="7">
         <f>H13</f>
         <v>0</v>
       </c>
-      <c r="S14" s="33"/>
+      <c r="S14" s="36"/>
       <c r="T14" s="7"/>
-      <c r="U14" s="43"/>
-    </row>
-    <row r="15" spans="1:21" ht="15.5">
+      <c r="U14" s="49"/>
+    </row>
+    <row r="15" spans="1:21">
       <c r="B15" s="9"/>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="35" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="33">
+      <c r="E15" s="36">
         <f>D15-D16</f>
         <v>0</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="33">
+      <c r="G15" s="36">
         <f t="shared" ref="G15" si="6">F15-F16+E15</f>
         <v>0</v>
       </c>
       <c r="H15" s="6">
         <v>1750</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="36">
         <f t="shared" ref="I15" si="7">H15-H16+G15</f>
         <v>-1000</v>
       </c>
@@ -1831,104 +1831,104 @@
         <f>EVENT_Clôtures!$B$5</f>
         <v>599.13</v>
       </c>
-      <c r="K15" s="33">
+      <c r="K15" s="36">
         <f t="shared" ref="K15" si="8">J15-J16+I15</f>
         <v>-786.18000000000006</v>
       </c>
       <c r="L15" s="6">
         <f>EVENT_Clôtures!$C$5</f>
-        <v>617.29999999999995</v>
-      </c>
-      <c r="M15" s="33">
+        <v>657.3</v>
+      </c>
+      <c r="M15" s="36">
         <f>L15-L16+K15</f>
-        <v>-1817.41</v>
+        <v>-1777.41</v>
       </c>
       <c r="N15" s="6">
         <f>EVENT_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O15" s="33">
+      <c r="O15" s="36">
         <f>N15-N16+M15</f>
-        <v>-1817.41</v>
+        <v>-1777.41</v>
       </c>
       <c r="P15" s="6"/>
-      <c r="Q15" s="33">
+      <c r="Q15" s="36">
         <f>P15-P16+O15</f>
-        <v>-1817.41</v>
+        <v>-1777.41</v>
       </c>
       <c r="R15" s="6"/>
-      <c r="S15" s="33">
+      <c r="S15" s="36">
         <f t="shared" ref="S15" si="9">R15-R16+Q15</f>
-        <v>-3567.41</v>
+        <v>-3527.41</v>
       </c>
       <c r="T15" s="6">
         <v>2442.2199999999998</v>
       </c>
-      <c r="U15" s="43">
+      <c r="U15" s="49">
         <f t="shared" ref="U15" si="10">T15-T16+S15</f>
-        <v>-5499.0499999999993</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="15.5">
+        <v>-5459.0499999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="B16" s="9"/>
-      <c r="C16" s="34"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="33"/>
+      <c r="E16" s="36"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="33"/>
+      <c r="G16" s="36"/>
       <c r="H16" s="7">
         <v>2750</v>
       </c>
-      <c r="I16" s="33"/>
+      <c r="I16" s="36"/>
       <c r="J16" s="7">
         <f>EVENT_Clôtures!$B$12</f>
         <v>385.31</v>
       </c>
-      <c r="K16" s="33"/>
+      <c r="K16" s="36"/>
       <c r="L16" s="7">
         <f>EVENT_Clôtures!$C$12</f>
         <v>1648.53</v>
       </c>
-      <c r="M16" s="33"/>
+      <c r="M16" s="36"/>
       <c r="N16" s="7">
         <f>EVENT_Clôtures!$D$12</f>
         <v>0</v>
       </c>
-      <c r="O16" s="33"/>
+      <c r="O16" s="36"/>
       <c r="P16" s="7">
         <f>F15</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="33"/>
+      <c r="Q16" s="36"/>
       <c r="R16" s="7">
         <f>H15</f>
         <v>1750</v>
       </c>
-      <c r="S16" s="33"/>
+      <c r="S16" s="36"/>
       <c r="T16" s="7">
         <v>4373.8599999999997</v>
       </c>
-      <c r="U16" s="43"/>
-    </row>
-    <row r="17" spans="2:21" ht="15.5">
+      <c r="U16" s="49"/>
+    </row>
+    <row r="17" spans="2:21">
       <c r="B17" s="9"/>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="35" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="33">
+      <c r="E17" s="36">
         <f>D17-D18</f>
         <v>0</v>
       </c>
       <c r="F17" s="6"/>
-      <c r="G17" s="33">
+      <c r="G17" s="36">
         <f t="shared" ref="G17" si="11">F17-F18+E17</f>
         <v>0</v>
       </c>
       <c r="H17" s="6">
         <v>0</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="36">
         <f t="shared" ref="I17" si="12">H17-H18+G17</f>
         <v>0</v>
       </c>
@@ -1936,7 +1936,7 @@
         <f>EXTRA_Clôtures!$B$3</f>
         <v>1.38</v>
       </c>
-      <c r="K17" s="33">
+      <c r="K17" s="36">
         <f t="shared" ref="K17" si="13">J17-J18+I17</f>
         <v>-2010.02</v>
       </c>
@@ -1944,7 +1944,7 @@
         <f>EXTRA_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M17" s="33">
+      <c r="M17" s="36">
         <f>L17-L18+K17</f>
         <v>-2019.47</v>
       </c>
@@ -1952,88 +1952,88 @@
         <f>EXTRA_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O17" s="33">
+      <c r="O17" s="36">
         <f>N17-N18+M17</f>
         <v>-2019.47</v>
       </c>
       <c r="P17" s="6"/>
-      <c r="Q17" s="33">
+      <c r="Q17" s="36">
         <f>P17-P18+O17</f>
         <v>-2019.47</v>
       </c>
       <c r="R17" s="6"/>
-      <c r="S17" s="33">
+      <c r="S17" s="36">
         <f t="shared" ref="S17" si="14">R17-R18+Q17</f>
         <v>-2019.47</v>
       </c>
       <c r="T17" s="6">
         <v>395.9</v>
       </c>
-      <c r="U17" s="43">
+      <c r="U17" s="49">
         <f t="shared" ref="U17" si="15">T17-T18+S17</f>
         <v>-2221.4899999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:21" ht="15.5">
+    <row r="18" spans="2:21">
       <c r="B18" s="9"/>
-      <c r="C18" s="34"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="33"/>
+      <c r="E18" s="36"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="33"/>
+      <c r="G18" s="36"/>
       <c r="H18" s="7">
         <v>0</v>
       </c>
-      <c r="I18" s="33"/>
+      <c r="I18" s="36"/>
       <c r="J18" s="7">
         <f>EXTRA_Clôtures!$B$5</f>
         <v>2011.4</v>
       </c>
-      <c r="K18" s="33"/>
+      <c r="K18" s="36"/>
       <c r="L18" s="7">
         <f>EXTRA_Clôtures!$C$5</f>
         <v>9.4499999999999993</v>
       </c>
-      <c r="M18" s="33"/>
+      <c r="M18" s="36"/>
       <c r="N18" s="7">
         <f>EXTRA_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O18" s="33"/>
+      <c r="O18" s="36"/>
       <c r="P18" s="7">
         <f>F17</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="33"/>
+      <c r="Q18" s="36"/>
       <c r="R18" s="7">
         <f>H17</f>
         <v>0</v>
       </c>
-      <c r="S18" s="33"/>
+      <c r="S18" s="36"/>
       <c r="T18" s="7">
         <v>597.91999999999996</v>
       </c>
-      <c r="U18" s="43"/>
-    </row>
-    <row r="19" spans="2:21" ht="15.5">
+      <c r="U18" s="49"/>
+    </row>
+    <row r="19" spans="2:21">
       <c r="B19" s="9"/>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="35" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="33">
+      <c r="E19" s="36">
         <f>D19-D20</f>
         <v>0</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="33">
+      <c r="G19" s="36">
         <f t="shared" ref="G19" si="16">F19-F20+E19</f>
         <v>0</v>
       </c>
       <c r="H19" s="6">
         <v>900</v>
       </c>
-      <c r="I19" s="33">
+      <c r="I19" s="36">
         <f t="shared" ref="I19" si="17">H19-H20+G19</f>
         <v>100</v>
       </c>
@@ -2041,104 +2041,104 @@
         <f>FONCT_Clôtures!$B$5</f>
         <v>3472.44</v>
       </c>
-      <c r="K19" s="33">
+      <c r="K19" s="36">
         <f t="shared" ref="K19" si="18">J19-J20+I19</f>
         <v>3045.07</v>
       </c>
       <c r="L19" s="6">
         <f>FONCT_Clôtures!$C$5</f>
-        <v>4029.87</v>
-      </c>
-      <c r="M19" s="33">
+        <v>4129.87</v>
+      </c>
+      <c r="M19" s="36">
         <f>L19-L20+K19</f>
-        <v>7009.34</v>
+        <v>7109.34</v>
       </c>
       <c r="N19" s="6">
         <f>FONCT_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O19" s="33">
+      <c r="O19" s="36">
         <f>N19-N20+M19</f>
-        <v>7009.34</v>
+        <v>7109.34</v>
       </c>
       <c r="P19" s="6"/>
-      <c r="Q19" s="33">
+      <c r="Q19" s="36">
         <f>P19-P20+O19</f>
-        <v>7009.34</v>
+        <v>7109.34</v>
       </c>
       <c r="R19" s="6"/>
-      <c r="S19" s="33">
+      <c r="S19" s="36">
         <f t="shared" ref="S19" si="19">R19-R20+Q19</f>
-        <v>6109.34</v>
+        <v>6209.34</v>
       </c>
       <c r="T19" s="6">
         <v>1055.74</v>
       </c>
-      <c r="U19" s="43">
+      <c r="U19" s="49">
         <f t="shared" ref="U19" si="20">T19-T20+S19</f>
-        <v>-894.69999999999982</v>
-      </c>
-    </row>
-    <row r="20" spans="2:21" ht="15.5">
+        <v>-794.69999999999982</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21">
       <c r="B20" s="9"/>
-      <c r="C20" s="34"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="33"/>
+      <c r="E20" s="36"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="33"/>
+      <c r="G20" s="36"/>
       <c r="H20" s="7">
         <v>800</v>
       </c>
-      <c r="I20" s="33"/>
+      <c r="I20" s="36"/>
       <c r="J20" s="7">
         <f>FONCT_Clôtures!$B$12</f>
         <v>527.37</v>
       </c>
-      <c r="K20" s="33"/>
+      <c r="K20" s="36"/>
       <c r="L20" s="7">
         <f>FONCT_Clôtures!$C$12</f>
         <v>65.599999999999994</v>
       </c>
-      <c r="M20" s="33"/>
+      <c r="M20" s="36"/>
       <c r="N20" s="7">
         <f>FONCT_Clôtures!$D$12</f>
         <v>0</v>
       </c>
-      <c r="O20" s="33"/>
+      <c r="O20" s="36"/>
       <c r="P20" s="7">
         <f>F19</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="33"/>
+      <c r="Q20" s="36"/>
       <c r="R20" s="7">
         <f>H19</f>
         <v>900</v>
       </c>
-      <c r="S20" s="33"/>
+      <c r="S20" s="36"/>
       <c r="T20" s="7">
         <v>8059.78</v>
       </c>
-      <c r="U20" s="43"/>
-    </row>
-    <row r="21" spans="2:21" ht="15.5">
+      <c r="U20" s="49"/>
+    </row>
+    <row r="21" spans="2:21">
       <c r="B21" s="9"/>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="35" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="33">
+      <c r="E21" s="36">
         <f>D21-D22</f>
         <v>0</v>
       </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="33">
+      <c r="G21" s="36">
         <f t="shared" ref="G21" si="21">F21-F22+E21</f>
         <v>0</v>
       </c>
       <c r="H21" s="6">
         <v>0</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="36">
         <f t="shared" ref="I21" si="22">H21-H22+G21</f>
         <v>0</v>
       </c>
@@ -2146,7 +2146,7 @@
         <f>CONVER_Clôtures!$B$3</f>
         <v>605.41999999999996</v>
       </c>
-      <c r="K21" s="33">
+      <c r="K21" s="36">
         <f t="shared" ref="K21" si="23">J21-J22+I21</f>
         <v>605.41999999999996</v>
       </c>
@@ -2154,7 +2154,7 @@
         <f>CONVER_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M21" s="33">
+      <c r="M21" s="36">
         <f>L21-L22+K21</f>
         <v>605.41999999999996</v>
       </c>
@@ -2162,88 +2162,88 @@
         <f>CONVER_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O21" s="33">
+      <c r="O21" s="36">
         <f>N21-N22+M21</f>
         <v>605.41999999999996</v>
       </c>
       <c r="P21" s="6"/>
-      <c r="Q21" s="33">
+      <c r="Q21" s="36">
         <f>P21-P22+O21</f>
         <v>605.41999999999996</v>
       </c>
       <c r="R21" s="6"/>
-      <c r="S21" s="33">
+      <c r="S21" s="36">
         <f t="shared" ref="S21" si="24">R21-R22+Q21</f>
         <v>605.41999999999996</v>
       </c>
       <c r="T21" s="6">
         <v>2405.42</v>
       </c>
-      <c r="U21" s="43">
+      <c r="U21" s="49">
         <f t="shared" ref="U21" si="25">T21-T22+S21</f>
         <v>10.840000000000032</v>
       </c>
     </row>
-    <row r="22" spans="2:21" ht="15.5">
+    <row r="22" spans="2:21">
       <c r="B22" s="9"/>
-      <c r="C22" s="34"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="33"/>
+      <c r="E22" s="36"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="33"/>
+      <c r="G22" s="36"/>
       <c r="H22" s="7">
         <v>0</v>
       </c>
-      <c r="I22" s="33"/>
+      <c r="I22" s="36"/>
       <c r="J22" s="7">
         <f>CONVER_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K22" s="33"/>
+      <c r="K22" s="36"/>
       <c r="L22" s="7">
         <f>CONVER_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M22" s="33"/>
+      <c r="M22" s="36"/>
       <c r="N22" s="7">
         <f>CONVER_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O22" s="33"/>
+      <c r="O22" s="36"/>
       <c r="P22" s="7">
         <f>F21</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="33"/>
+      <c r="Q22" s="36"/>
       <c r="R22" s="7">
         <f>H21</f>
         <v>0</v>
       </c>
-      <c r="S22" s="33"/>
+      <c r="S22" s="36"/>
       <c r="T22" s="7">
         <v>3000</v>
       </c>
-      <c r="U22" s="43"/>
-    </row>
-    <row r="23" spans="2:21" ht="15.5">
+      <c r="U22" s="49"/>
+    </row>
+    <row r="23" spans="2:21">
       <c r="B23" s="9"/>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="35" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="6"/>
-      <c r="E23" s="33">
+      <c r="E23" s="36">
         <f>D23-D24</f>
         <v>0</v>
       </c>
       <c r="F23" s="6"/>
-      <c r="G23" s="33">
+      <c r="G23" s="36">
         <f t="shared" ref="G23" si="26">F23-F24+E23</f>
         <v>0</v>
       </c>
       <c r="H23" s="6">
         <v>0</v>
       </c>
-      <c r="I23" s="33">
+      <c r="I23" s="36">
         <f t="shared" ref="I23" si="27">H23-H24+G23</f>
         <v>-100</v>
       </c>
@@ -2251,7 +2251,7 @@
         <f>LOCAL_Clôtures!$B$3</f>
         <v>255.62</v>
       </c>
-      <c r="K23" s="33">
+      <c r="K23" s="36">
         <f t="shared" ref="K23" si="28">J23-J24+I23</f>
         <v>-96.080000000000013</v>
       </c>
@@ -2259,7 +2259,7 @@
         <f>LOCAL_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M23" s="33">
+      <c r="M23" s="36">
         <f>L23-L24+K23</f>
         <v>-121.48000000000002</v>
       </c>
@@ -2267,86 +2267,86 @@
         <f>LOCAL_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O23" s="33">
+      <c r="O23" s="36">
         <f>N23-N24+M23</f>
         <v>-121.48000000000002</v>
       </c>
       <c r="P23" s="6"/>
-      <c r="Q23" s="33">
+      <c r="Q23" s="36">
         <f>P23-P24+O23</f>
         <v>-121.48000000000002</v>
       </c>
       <c r="R23" s="6"/>
-      <c r="S23" s="33">
+      <c r="S23" s="36">
         <f t="shared" ref="S23" si="29">R23-R24+Q23</f>
         <v>-121.48000000000002</v>
       </c>
       <c r="T23" s="6">
         <v>654.46</v>
       </c>
-      <c r="U23" s="43">
+      <c r="U23" s="49">
         <f t="shared" ref="U23" si="30">T23-T24+S23</f>
         <v>532.98</v>
       </c>
     </row>
-    <row r="24" spans="2:21" ht="15.5">
+    <row r="24" spans="2:21">
       <c r="B24" s="9"/>
-      <c r="C24" s="34"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="33"/>
+      <c r="E24" s="36"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="33"/>
+      <c r="G24" s="36"/>
       <c r="H24" s="7">
         <v>100</v>
       </c>
-      <c r="I24" s="33"/>
+      <c r="I24" s="36"/>
       <c r="J24" s="7">
         <f>LOCAL_Clôtures!$B$8</f>
         <v>251.70000000000002</v>
       </c>
-      <c r="K24" s="33"/>
+      <c r="K24" s="36"/>
       <c r="L24" s="7">
         <f>LOCAL_Clôtures!$C$8</f>
         <v>25.4</v>
       </c>
-      <c r="M24" s="33"/>
+      <c r="M24" s="36"/>
       <c r="N24" s="7">
         <f>LOCAL_Clôtures!$D$8</f>
         <v>0</v>
       </c>
-      <c r="O24" s="33"/>
+      <c r="O24" s="36"/>
       <c r="P24" s="7">
         <f>F23</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="33"/>
+      <c r="Q24" s="36"/>
       <c r="R24" s="7">
         <f>H23</f>
         <v>0</v>
       </c>
-      <c r="S24" s="33"/>
+      <c r="S24" s="36"/>
       <c r="T24" s="7"/>
-      <c r="U24" s="43"/>
-    </row>
-    <row r="25" spans="2:21" ht="15.5">
+      <c r="U24" s="49"/>
+    </row>
+    <row r="25" spans="2:21">
       <c r="B25" s="9"/>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="6"/>
-      <c r="E25" s="33">
+      <c r="E25" s="36">
         <f>D25-D26</f>
         <v>0</v>
       </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="33">
+      <c r="G25" s="36">
         <f t="shared" ref="G25" si="31">F25-F26+E25</f>
         <v>0</v>
       </c>
       <c r="H25" s="6">
         <v>0</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="36">
         <f t="shared" ref="I25" si="32">H25-H26+G25</f>
         <v>-250</v>
       </c>
@@ -2354,7 +2354,7 @@
         <f>LOG_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K25" s="33">
+      <c r="K25" s="36">
         <f t="shared" ref="K25" si="33">J25-J26+I25</f>
         <v>-355.32</v>
       </c>
@@ -2362,7 +2362,7 @@
         <f>LOG_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M25" s="33">
+      <c r="M25" s="36">
         <f>L25-L26+K25</f>
         <v>-355.32</v>
       </c>
@@ -2370,86 +2370,86 @@
         <f>LOG_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O25" s="33">
+      <c r="O25" s="36">
         <f>N25-N26+M25</f>
         <v>-355.32</v>
       </c>
       <c r="P25" s="6"/>
-      <c r="Q25" s="33">
+      <c r="Q25" s="36">
         <f>P25-P26+O25</f>
         <v>-355.32</v>
       </c>
       <c r="R25" s="6"/>
-      <c r="S25" s="33">
+      <c r="S25" s="36">
         <f t="shared" ref="S25" si="34">R25-R26+Q25</f>
         <v>-355.32</v>
       </c>
       <c r="T25" s="6">
         <v>354.95</v>
       </c>
-      <c r="U25" s="43">
+      <c r="U25" s="49">
         <f t="shared" ref="U25" si="35">T25-T26+S25</f>
         <v>-0.37000000000000455</v>
       </c>
     </row>
-    <row r="26" spans="2:21" ht="15.5">
+    <row r="26" spans="2:21">
       <c r="B26" s="9"/>
-      <c r="C26" s="34"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="33"/>
+      <c r="E26" s="36"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="33"/>
+      <c r="G26" s="36"/>
       <c r="H26" s="7">
         <v>250</v>
       </c>
-      <c r="I26" s="33"/>
+      <c r="I26" s="36"/>
       <c r="J26" s="7">
         <f>LOG_Clôtures!$B$5</f>
         <v>105.32</v>
       </c>
-      <c r="K26" s="33"/>
+      <c r="K26" s="36"/>
       <c r="L26" s="7">
         <f>LOG_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M26" s="33"/>
+      <c r="M26" s="36"/>
       <c r="N26" s="7">
         <f>LOG_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O26" s="33"/>
+      <c r="O26" s="36"/>
       <c r="P26" s="7">
         <f>F25</f>
         <v>0</v>
       </c>
-      <c r="Q26" s="33"/>
+      <c r="Q26" s="36"/>
       <c r="R26" s="7">
         <f>H25</f>
         <v>0</v>
       </c>
-      <c r="S26" s="33"/>
+      <c r="S26" s="36"/>
       <c r="T26" s="7"/>
-      <c r="U26" s="43"/>
-    </row>
-    <row r="27" spans="2:21" ht="15.5">
+      <c r="U26" s="49"/>
+    </row>
+    <row r="27" spans="2:21">
       <c r="B27" s="9"/>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="35" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="6"/>
-      <c r="E27" s="33">
+      <c r="E27" s="36">
         <f>D27-D28</f>
         <v>0</v>
       </c>
       <c r="F27" s="6"/>
-      <c r="G27" s="33">
+      <c r="G27" s="36">
         <f>F27-F28+E27</f>
         <v>0</v>
       </c>
       <c r="H27" s="6">
         <v>0</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="36">
         <f>H27-H28+G27</f>
         <v>0</v>
       </c>
@@ -2457,7 +2457,7 @@
         <f>MOBILITY_Clôtures!$B$3</f>
         <v>564.83000000000004</v>
       </c>
-      <c r="K27" s="33">
+      <c r="K27" s="36">
         <f>J27-J28+I27</f>
         <v>0</v>
       </c>
@@ -2465,7 +2465,7 @@
         <f>MOBILITY_Clôtures!$C$3</f>
         <v>845</v>
       </c>
-      <c r="M27" s="33">
+      <c r="M27" s="36">
         <f>L27-L28+K27</f>
         <v>-9.9999999999909051E-3</v>
       </c>
@@ -2473,85 +2473,85 @@
         <f>MOBILITY_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O27" s="33">
+      <c r="O27" s="36">
         <f>N27-N28+M27</f>
         <v>-9.9999999999909051E-3</v>
       </c>
       <c r="P27" s="6"/>
-      <c r="Q27" s="33">
+      <c r="Q27" s="36">
         <f>P27-P28+O27</f>
         <v>-9.9999999999909051E-3</v>
       </c>
       <c r="R27" s="6"/>
-      <c r="S27" s="33">
+      <c r="S27" s="36">
         <f>R27-R28+Q27</f>
         <v>-9.9999999999909051E-3</v>
       </c>
       <c r="T27" s="6">
         <v>1887.3</v>
       </c>
-      <c r="U27" s="43">
+      <c r="U27" s="49">
         <f>T27-T28+S27</f>
         <v>-9.9999999999909051E-3</v>
       </c>
     </row>
-    <row r="28" spans="2:21" ht="15.5">
+    <row r="28" spans="2:21">
       <c r="B28" s="9"/>
-      <c r="C28" s="34"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="33"/>
+      <c r="E28" s="36"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="33"/>
+      <c r="G28" s="36"/>
       <c r="H28" s="7">
         <v>0</v>
       </c>
-      <c r="I28" s="33"/>
+      <c r="I28" s="36"/>
       <c r="J28" s="7">
         <f>MOBILITY_Clôtures!$B$5</f>
         <v>564.83000000000004</v>
       </c>
-      <c r="K28" s="33"/>
+      <c r="K28" s="36"/>
       <c r="L28" s="7">
         <f>MOBILITY_Clôtures!$C$5</f>
         <v>845.01</v>
       </c>
-      <c r="M28" s="33"/>
+      <c r="M28" s="36"/>
       <c r="N28" s="7">
         <f>MOBILITY_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O28" s="33"/>
+      <c r="O28" s="36"/>
       <c r="P28" s="7">
         <f>F27</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="33"/>
+      <c r="Q28" s="36"/>
       <c r="R28" s="7">
         <f>H27</f>
         <v>0</v>
       </c>
-      <c r="S28" s="33"/>
+      <c r="S28" s="36"/>
       <c r="T28" s="7">
         <v>1887.3</v>
       </c>
-      <c r="U28" s="43"/>
-    </row>
-    <row r="29" spans="2:21" ht="15.5">
+      <c r="U28" s="49"/>
+    </row>
+    <row r="29" spans="2:21">
       <c r="B29" s="9"/>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="35" t="s">
         <v>90</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="32"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="33">
+      <c r="G29" s="36">
         <f>F29-F30+E29</f>
         <v>0</v>
       </c>
       <c r="H29" s="6">
         <v>0</v>
       </c>
-      <c r="I29" s="33">
+      <c r="I29" s="36">
         <f>H29-H30+G29</f>
         <v>0</v>
       </c>
@@ -2559,7 +2559,7 @@
         <f>REPRO_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K29" s="33">
+      <c r="K29" s="36">
         <f>J29-J30+I29</f>
         <v>0</v>
       </c>
@@ -2567,7 +2567,7 @@
         <f>REPRO_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M29" s="33">
+      <c r="M29" s="36">
         <f>L29-L30+K29</f>
         <v>0</v>
       </c>
@@ -2575,69 +2575,69 @@
         <f>REPRO_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O29" s="33">
+      <c r="O29" s="36">
         <f>N29-N30+M29</f>
         <v>0</v>
       </c>
       <c r="P29" s="7"/>
-      <c r="Q29" s="33">
+      <c r="Q29" s="36">
         <f>P29-P30+O29</f>
         <v>0</v>
       </c>
       <c r="R29" s="7"/>
-      <c r="S29" s="33">
+      <c r="S29" s="36">
         <f>R29-R30+Q29</f>
         <v>0</v>
       </c>
       <c r="T29" s="7"/>
-      <c r="U29" s="43">
+      <c r="U29" s="49">
         <f>T29-T30+S29</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:21" ht="15.5">
+    <row r="30" spans="2:21">
       <c r="B30" s="9"/>
-      <c r="C30" s="35"/>
+      <c r="C30" s="54"/>
       <c r="D30" s="7"/>
       <c r="E30" s="32"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="33"/>
+      <c r="G30" s="36"/>
       <c r="H30" s="7">
         <v>0</v>
       </c>
-      <c r="I30" s="33"/>
+      <c r="I30" s="36"/>
       <c r="J30" s="7">
         <f>REPRO_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K30" s="33"/>
+      <c r="K30" s="36"/>
       <c r="L30" s="7">
         <f>REPRO_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M30" s="33"/>
+      <c r="M30" s="36"/>
       <c r="N30" s="7">
         <f>REPRO_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O30" s="33"/>
+      <c r="O30" s="36"/>
       <c r="P30" s="27"/>
-      <c r="Q30" s="33"/>
+      <c r="Q30" s="36"/>
       <c r="R30" s="27"/>
-      <c r="S30" s="33"/>
+      <c r="S30" s="36"/>
       <c r="T30" s="7"/>
-      <c r="U30" s="43"/>
-    </row>
-    <row r="31" spans="2:21" ht="15.5">
-      <c r="B31" s="56" t="s">
+      <c r="U30" s="49"/>
+    </row>
+    <row r="31" spans="2:21">
+      <c r="B31" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="57"/>
+      <c r="C31" s="39"/>
       <c r="D31" s="8">
         <f>D33+D35+D37+D41+D43+D45+D47+D49+D51+D53+D55+D57+D59+D61+D65</f>
         <v>3136.0899999999997</v>
       </c>
-      <c r="E31" s="44">
+      <c r="E31" s="37">
         <f>D31-D32</f>
         <v>-1901.2299999999991</v>
       </c>
@@ -2645,7 +2645,7 @@
         <f>F33+F35+F37+F39+F41+F43+F45+F47+F49+F51+F53+F55+F57+F59+F61+F65</f>
         <v>4406.34</v>
       </c>
-      <c r="G31" s="44">
+      <c r="G31" s="37">
         <f>F31-F32</f>
         <v>4406.34</v>
       </c>
@@ -2653,7 +2653,7 @@
         <f>H33+H35+H37+H39+H41+H43+H45+H47+H49+H51+H53+H55+H57+H59+H61+H63+H65</f>
         <v>28280</v>
       </c>
-      <c r="I31" s="44">
+      <c r="I31" s="37">
         <f>H31-H32+G31</f>
         <v>-8171.66</v>
       </c>
@@ -2661,123 +2661,123 @@
         <f>J33+J35+J37+J39+J41+J43+J45+J47+J49+J51+J53+J55+J57+J59+J61+J63+J65</f>
         <v>9661.83</v>
       </c>
-      <c r="K31" s="44">
+      <c r="K31" s="37">
         <f>J31-J32+I31</f>
         <v>-2211.6800000000003</v>
       </c>
       <c r="L31" s="8">
         <f>L33+L35+L37+L39+L41+L43+L45+L47+L49+L51+L53+L55+L57+L59+L61+L63+L65</f>
-        <v>5352.4800000000005</v>
-      </c>
-      <c r="M31" s="44">
+        <v>5609.03</v>
+      </c>
+      <c r="M31" s="37">
         <f>L31-L32+K31</f>
-        <v>-9820.9599999999991</v>
+        <v>-10135.310000000001</v>
       </c>
       <c r="N31" s="8">
         <f>N33+N35+N37+N39+N41+N43+N45+N47+N49+N51+N53+N55+N57+N59+N61+N63+N65</f>
         <v>0</v>
       </c>
-      <c r="O31" s="44">
+      <c r="O31" s="37">
         <f>N31-N32+M31</f>
-        <v>-9820.9599999999991</v>
+        <v>-10135.310000000001</v>
       </c>
       <c r="P31" s="6">
         <f>P33+P35+P37+P39+P41+P43+P45+P47+P49+P51+P53+P55+P57+P59+P61+P63+P65</f>
         <v>0</v>
       </c>
-      <c r="Q31" s="33">
+      <c r="Q31" s="36">
         <f>P31-P32+O31</f>
-        <v>-14227.3</v>
+        <v>-14541.650000000001</v>
       </c>
       <c r="R31" s="6">
         <f>R33+R35+R37+R39+R41+R43+R45+R47+R49+R51+R53+R55+R57+R59+R61+R63+R65</f>
         <v>0</v>
       </c>
-      <c r="S31" s="33">
+      <c r="S31" s="36">
         <f>R31-R32+Q31</f>
-        <v>-42507.3</v>
+        <v>-42821.65</v>
       </c>
       <c r="T31" s="8">
         <f>T33+T35+T37+T39+T41+T43+T45+T47+T49+T51+T53+T55+T57+T59+T61+T63+T65</f>
         <v>20889.509999999998</v>
       </c>
-      <c r="U31" s="44">
+      <c r="U31" s="37">
         <f>T31-T32+S31</f>
-        <v>-36694.980000000003</v>
-      </c>
-    </row>
-    <row r="32" spans="2:21" ht="15.5">
-      <c r="B32" s="58"/>
-      <c r="C32" s="59"/>
+        <v>-37009.33</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21">
+      <c r="B32" s="40"/>
+      <c r="C32" s="41"/>
       <c r="D32" s="7">
         <f>D34+D36+D38+D40+D42+D44+D46+D48+D50+D52+D54+D56+D58+D60+D62+D66</f>
         <v>5037.3199999999988</v>
       </c>
-      <c r="E32" s="33"/>
+      <c r="E32" s="36"/>
       <c r="F32" s="7">
         <f>F34+F36+F38+F40+F42+F44+F46+F48+F50+F52+F54+F56+F58+F60+F62+F66</f>
         <v>0</v>
       </c>
-      <c r="G32" s="33"/>
+      <c r="G32" s="36"/>
       <c r="H32" s="7">
         <f>H34+H36+H38+H40+H42+H44+H46+H48+H50+H52+H54+H56+H58+H60+H62+H64+H66</f>
         <v>40858</v>
       </c>
-      <c r="I32" s="33"/>
+      <c r="I32" s="36"/>
       <c r="J32" s="7">
         <f>J34+J36+J38+J40+J42+J44+J46+J48+J50+J52+J54+J56+J58+J60+J62+J64+J66</f>
         <v>3701.85</v>
       </c>
-      <c r="K32" s="33"/>
+      <c r="K32" s="36"/>
       <c r="L32" s="7">
         <f>L34+L36+L38+L40+L42+L44+L46+L48+L50+L52+L54+L56+L58+L60+L62+L64+L66</f>
-        <v>12961.76</v>
-      </c>
-      <c r="M32" s="33"/>
+        <v>13532.66</v>
+      </c>
+      <c r="M32" s="36"/>
       <c r="N32" s="7">
         <f>N34+N36+N38+N40+N42+N44+N46+N48+N50+N52+N54+N56+N58+N60+N62+N64+N66</f>
         <v>0</v>
       </c>
-      <c r="O32" s="33"/>
+      <c r="O32" s="36"/>
       <c r="P32" s="7">
         <f>P34+P36+P38+P40+P42+P44+P46+P48+P50+P52+P54+P56+P58+P60+P62+P64+P66</f>
         <v>4406.34</v>
       </c>
-      <c r="Q32" s="33"/>
+      <c r="Q32" s="36"/>
       <c r="R32" s="7">
         <f>R34+R36+R38+R40+R42+R44+R46+R48+R50+R52+R54+R56+R58+R60+R62+R64+R66</f>
         <v>28280</v>
       </c>
-      <c r="S32" s="33"/>
+      <c r="S32" s="36"/>
       <c r="T32" s="7">
         <f>T34+T36+T38+T40+T42+T44+T46+T48+T50+T52+T54+T56+T58+T60+T62+T64+T66</f>
         <v>15077.19</v>
       </c>
-      <c r="U32" s="33"/>
-    </row>
-    <row r="33" spans="2:21" ht="15.5">
+      <c r="U32" s="36"/>
+    </row>
+    <row r="33" spans="2:21">
       <c r="B33" s="9"/>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="35" t="s">
         <v>19</v>
       </c>
       <c r="D33" s="6">
         <v>0</v>
       </c>
-      <c r="E33" s="33">
+      <c r="E33" s="36">
         <f>D33-D34</f>
         <v>-917.79</v>
       </c>
       <c r="F33" s="6">
         <v>0</v>
       </c>
-      <c r="G33" s="33">
+      <c r="G33" s="36">
         <f t="shared" ref="G33" si="36">F33-F34+E33</f>
         <v>-917.79</v>
       </c>
       <c r="H33" s="6">
         <v>150</v>
       </c>
-      <c r="I33" s="33">
+      <c r="I33" s="36">
         <f t="shared" ref="I33" si="37">H33-H34+G33</f>
         <v>-1117.79</v>
       </c>
@@ -2785,7 +2785,7 @@
         <f>API_Clôtures!$B$3</f>
         <v>119</v>
       </c>
-      <c r="K33" s="33">
+      <c r="K33" s="36">
         <f t="shared" ref="K33" si="38">J33-J34+I33</f>
         <v>-998.79</v>
       </c>
@@ -2793,1172 +2793,1172 @@
         <f>API_Clôtures!$C$3</f>
         <v>60</v>
       </c>
-      <c r="M33" s="33">
-        <f t="shared" ref="M33" si="39">L33-L34+K33</f>
+      <c r="M33" s="36">
+        <f>L33-L34+K33</f>
         <v>-938.79</v>
       </c>
       <c r="N33" s="6">
         <f>API_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O33" s="33">
-        <f t="shared" ref="O33" si="40">N33-N34+M33</f>
+      <c r="O33" s="36">
+        <f t="shared" ref="O33" si="39">N33-N34+M33</f>
         <v>-938.79</v>
       </c>
       <c r="P33" s="6"/>
-      <c r="Q33" s="33">
+      <c r="Q33" s="36">
         <f>P33-P34+O33</f>
         <v>-938.79</v>
       </c>
       <c r="R33" s="6"/>
-      <c r="S33" s="33">
-        <f t="shared" ref="S33" si="41">R33-R34+Q33</f>
+      <c r="S33" s="36">
+        <f t="shared" ref="S33" si="40">R33-R34+Q33</f>
         <v>-1088.79</v>
       </c>
       <c r="T33" s="6">
         <v>917.79</v>
       </c>
-      <c r="U33" s="33">
-        <f t="shared" ref="U33" si="42">T33-T34+S33</f>
+      <c r="U33" s="36">
+        <f t="shared" ref="U33" si="41">T33-T34+S33</f>
         <v>-171</v>
       </c>
     </row>
-    <row r="34" spans="2:21" ht="15.5">
+    <row r="34" spans="2:21">
       <c r="B34" s="9"/>
-      <c r="C34" s="34"/>
+      <c r="C34" s="35"/>
       <c r="D34" s="7">
         <v>917.79</v>
       </c>
-      <c r="E34" s="33"/>
+      <c r="E34" s="36"/>
       <c r="F34" s="7">
         <v>0</v>
       </c>
-      <c r="G34" s="33"/>
+      <c r="G34" s="36"/>
       <c r="H34" s="7">
         <v>350</v>
       </c>
-      <c r="I34" s="33"/>
+      <c r="I34" s="36"/>
       <c r="J34" s="7">
         <f>API_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K34" s="33"/>
+      <c r="K34" s="36"/>
       <c r="L34" s="7">
         <f>API_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M34" s="33"/>
+      <c r="M34" s="36"/>
       <c r="N34" s="7">
         <f>API_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O34" s="33"/>
+      <c r="O34" s="36"/>
       <c r="P34" s="7">
         <f>F33</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="33"/>
+      <c r="Q34" s="36"/>
       <c r="R34" s="7">
         <f>H33</f>
         <v>150</v>
       </c>
-      <c r="S34" s="33"/>
+      <c r="S34" s="36"/>
       <c r="T34" s="7"/>
-      <c r="U34" s="33"/>
-    </row>
-    <row r="35" spans="2:21" ht="15.5">
+      <c r="U34" s="36"/>
+    </row>
+    <row r="35" spans="2:21">
       <c r="B35" s="9"/>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="35" t="s">
         <v>20</v>
       </c>
       <c r="D35" s="6">
         <v>641.85</v>
       </c>
-      <c r="E35" s="33">
+      <c r="E35" s="36">
         <f>D35-D36</f>
         <v>-1821.35</v>
       </c>
       <c r="F35" s="6">
         <v>0</v>
       </c>
-      <c r="G35" s="33">
-        <f t="shared" ref="G35" si="43">F35-F36+E35</f>
+      <c r="G35" s="36">
+        <f t="shared" ref="G35" si="42">F35-F36+E35</f>
         <v>-1821.35</v>
       </c>
       <c r="H35" s="6">
         <v>2000</v>
       </c>
-      <c r="I35" s="33">
-        <f t="shared" ref="I35" si="44">H35-H36+G35</f>
+      <c r="I35" s="36">
+        <f t="shared" ref="I35" si="43">H35-H36+G35</f>
         <v>-1921.35</v>
       </c>
       <c r="J35" s="6">
         <f>CANARD_Clôtures!$B$4</f>
         <v>14.93</v>
       </c>
-      <c r="K35" s="33">
-        <f t="shared" ref="K35" si="45">J35-J36+I35</f>
+      <c r="K35" s="36">
+        <f t="shared" ref="K35" si="44">J35-J36+I35</f>
         <v>-1931.4699999999998</v>
       </c>
       <c r="L35" s="6">
         <f>CANARD_Clôtures!$C$4</f>
         <v>0</v>
       </c>
-      <c r="M35" s="33">
-        <f t="shared" ref="M35" si="46">L35-L36+K35</f>
+      <c r="M35" s="36">
+        <f t="shared" ref="M35" si="45">L35-L36+K35</f>
         <v>-1931.4699999999998</v>
       </c>
       <c r="N35" s="6">
         <f>CANARD_Clôtures!$D$4</f>
         <v>0</v>
       </c>
-      <c r="O35" s="33">
-        <f t="shared" ref="O35" si="47">N35-N36+M35</f>
+      <c r="O35" s="36">
+        <f t="shared" ref="O35" si="46">N35-N36+M35</f>
         <v>-1931.4699999999998</v>
       </c>
       <c r="P35" s="6"/>
-      <c r="Q35" s="33">
+      <c r="Q35" s="36">
         <f>P35-P36+O35</f>
         <v>-1931.4699999999998</v>
       </c>
       <c r="R35" s="6"/>
-      <c r="S35" s="33">
-        <f t="shared" ref="S35" si="48">R35-R36+Q35</f>
+      <c r="S35" s="36">
+        <f t="shared" ref="S35" si="47">R35-R36+Q35</f>
         <v>-3931.47</v>
       </c>
       <c r="T35" s="6">
         <v>2463.1999999999998</v>
       </c>
-      <c r="U35" s="33">
-        <f t="shared" ref="U35" si="49">T35-T36+S35</f>
+      <c r="U35" s="36">
+        <f t="shared" ref="U35" si="48">T35-T36+S35</f>
         <v>-2110.12</v>
       </c>
     </row>
-    <row r="36" spans="2:21" ht="15.5">
+    <row r="36" spans="2:21">
       <c r="B36" s="9"/>
-      <c r="C36" s="34"/>
+      <c r="C36" s="35"/>
       <c r="D36" s="7">
         <v>2463.1999999999998</v>
       </c>
-      <c r="E36" s="33"/>
+      <c r="E36" s="36"/>
       <c r="F36" s="7">
         <v>0</v>
       </c>
-      <c r="G36" s="33"/>
+      <c r="G36" s="36"/>
       <c r="H36" s="7">
         <v>2100</v>
       </c>
-      <c r="I36" s="33"/>
+      <c r="I36" s="36"/>
       <c r="J36" s="7">
         <f>CANARD_Clôtures!$B$6</f>
         <v>25.05</v>
       </c>
-      <c r="K36" s="33"/>
+      <c r="K36" s="36"/>
       <c r="L36" s="7">
         <f>CANARD_Clôtures!$C$6</f>
         <v>0</v>
       </c>
-      <c r="M36" s="33"/>
+      <c r="M36" s="36"/>
       <c r="N36" s="7">
         <f>CANARD_Clôtures!$D$6</f>
         <v>0</v>
       </c>
-      <c r="O36" s="33"/>
+      <c r="O36" s="36"/>
       <c r="P36" s="7">
         <f>F35</f>
         <v>0</v>
       </c>
-      <c r="Q36" s="33"/>
+      <c r="Q36" s="36"/>
       <c r="R36" s="7">
         <f>H35</f>
         <v>2000</v>
       </c>
-      <c r="S36" s="33"/>
+      <c r="S36" s="36"/>
       <c r="T36" s="7">
         <v>641.85</v>
       </c>
-      <c r="U36" s="33"/>
-    </row>
-    <row r="37" spans="2:21" ht="15.5">
+      <c r="U36" s="36"/>
+    </row>
+    <row r="37" spans="2:21">
       <c r="B37" s="9"/>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="35" t="s">
         <v>21</v>
       </c>
       <c r="D37" s="6">
         <v>2379.29</v>
       </c>
-      <c r="E37" s="33">
+      <c r="E37" s="36">
         <f>D37-D38</f>
         <v>933.56</v>
       </c>
       <c r="F37" s="6">
         <v>4406.34</v>
       </c>
-      <c r="G37" s="33">
-        <f t="shared" ref="G37" si="50">F37-F38+E37</f>
+      <c r="G37" s="36">
+        <f t="shared" ref="G37" si="49">F37-F38+E37</f>
         <v>5339.9</v>
       </c>
       <c r="H37" s="6">
         <v>1600</v>
       </c>
-      <c r="I37" s="33">
-        <f t="shared" ref="I37" si="51">H37-H38+G37</f>
+      <c r="I37" s="36">
+        <f t="shared" ref="I37" si="50">H37-H38+G37</f>
         <v>4969.8999999999996</v>
       </c>
       <c r="J37" s="6">
         <f>CASTOR_Clôtures!$B$3</f>
         <v>597.19000000000005</v>
       </c>
-      <c r="K37" s="33">
-        <f t="shared" ref="K37" si="52">J37-J38+I37</f>
+      <c r="K37" s="36">
+        <f t="shared" ref="K37" si="51">J37-J38+I37</f>
         <v>4777.0999999999995</v>
       </c>
       <c r="L37" s="6">
         <f>CASTOR_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M37" s="33">
-        <f t="shared" ref="M37" si="53">L37-L38+K37</f>
+      <c r="M37" s="36">
+        <f t="shared" ref="M37" si="52">L37-L38+K37</f>
         <v>4702.4399999999996</v>
       </c>
       <c r="N37" s="6">
         <f>CASTOR_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O37" s="33">
-        <f t="shared" ref="O37" si="54">N37-N38+M37</f>
+      <c r="O37" s="36">
+        <f t="shared" ref="O37" si="53">N37-N38+M37</f>
         <v>4702.4399999999996</v>
       </c>
       <c r="P37" s="6"/>
-      <c r="Q37" s="33">
+      <c r="Q37" s="36">
         <f>P37-P38+O37</f>
         <v>296.09999999999945</v>
       </c>
       <c r="R37" s="6"/>
-      <c r="S37" s="33">
-        <f t="shared" ref="S37" si="55">R37-R38+Q37</f>
+      <c r="S37" s="36">
+        <f t="shared" ref="S37" si="54">R37-R38+Q37</f>
         <v>-1303.9000000000005</v>
       </c>
       <c r="T37" s="6">
         <v>1445.73</v>
       </c>
-      <c r="U37" s="46">
-        <f t="shared" ref="U37" si="56">T37-T38+S37</f>
+      <c r="U37" s="55">
+        <f t="shared" ref="U37" si="55">T37-T38+S37</f>
         <v>-2237.4600000000005</v>
       </c>
     </row>
-    <row r="38" spans="2:21" ht="15.5">
+    <row r="38" spans="2:21">
       <c r="B38" s="9"/>
-      <c r="C38" s="34"/>
+      <c r="C38" s="35"/>
       <c r="D38" s="7">
         <v>1445.73</v>
       </c>
-      <c r="E38" s="33"/>
+      <c r="E38" s="36"/>
       <c r="F38" s="7">
         <v>0</v>
       </c>
-      <c r="G38" s="33"/>
+      <c r="G38" s="36"/>
       <c r="H38" s="7">
         <v>1970</v>
       </c>
-      <c r="I38" s="33"/>
+      <c r="I38" s="36"/>
       <c r="J38" s="7">
         <f>CASTOR_Clôtures!$B$5</f>
         <v>789.99</v>
       </c>
-      <c r="K38" s="33"/>
+      <c r="K38" s="36"/>
       <c r="L38" s="7">
         <f>CASTOR_Clôtures!$C$5</f>
         <v>74.66</v>
       </c>
-      <c r="M38" s="33"/>
+      <c r="M38" s="36"/>
       <c r="N38" s="7">
         <f>CASTOR_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O38" s="33"/>
+      <c r="O38" s="36"/>
       <c r="P38" s="7">
         <f>F37</f>
         <v>4406.34</v>
       </c>
-      <c r="Q38" s="33"/>
+      <c r="Q38" s="36"/>
       <c r="R38" s="7">
         <f>H37</f>
         <v>1600</v>
       </c>
-      <c r="S38" s="33"/>
+      <c r="S38" s="36"/>
       <c r="T38" s="7">
         <v>2379.29</v>
       </c>
-      <c r="U38" s="46"/>
-    </row>
-    <row r="39" spans="2:21" ht="15.5">
+      <c r="U38" s="55"/>
+    </row>
+    <row r="39" spans="2:21">
       <c r="B39" s="9"/>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="35" t="s">
         <v>31</v>
       </c>
       <c r="D39" s="6">
         <v>0</v>
       </c>
-      <c r="E39" s="33">
+      <c r="E39" s="36">
         <f>D39-D40</f>
         <v>-128.69999999999999</v>
       </c>
       <c r="F39" s="6">
         <v>0</v>
       </c>
-      <c r="G39" s="33">
-        <f t="shared" ref="G39" si="57">F39-F40+E39</f>
+      <c r="G39" s="36">
+        <f t="shared" ref="G39" si="56">F39-F40+E39</f>
         <v>-128.69999999999999</v>
       </c>
       <c r="H39" s="6">
         <v>0</v>
       </c>
-      <c r="I39" s="33">
-        <f t="shared" ref="I39" si="58">H39-H40+G39</f>
+      <c r="I39" s="36">
+        <f t="shared" ref="I39" si="57">H39-H40+G39</f>
         <v>-458.7</v>
       </c>
       <c r="J39" s="6">
         <f>DEBOUC_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K39" s="33">
-        <f t="shared" ref="K39" si="59">J39-J40+I39</f>
+      <c r="K39" s="36">
+        <f t="shared" ref="K39" si="58">J39-J40+I39</f>
         <v>-485.03</v>
       </c>
       <c r="L39" s="6">
         <f>DEBOUC_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M39" s="33">
-        <f t="shared" ref="M39" si="60">L39-L40+K39</f>
+      <c r="M39" s="36">
+        <f t="shared" ref="M39" si="59">L39-L40+K39</f>
         <v>-500.53</v>
       </c>
       <c r="N39" s="6">
         <f>DEBOUC_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O39" s="33">
-        <f t="shared" ref="O39" si="61">N39-N40+M39</f>
+      <c r="O39" s="36">
+        <f t="shared" ref="O39" si="60">N39-N40+M39</f>
         <v>-500.53</v>
       </c>
       <c r="P39" s="6"/>
-      <c r="Q39" s="33">
+      <c r="Q39" s="36">
         <f>P39-P40+O39</f>
         <v>-500.53</v>
       </c>
       <c r="R39" s="6"/>
-      <c r="S39" s="33">
-        <f t="shared" ref="S39" si="62">R39-R40+Q39</f>
+      <c r="S39" s="36">
+        <f t="shared" ref="S39" si="61">R39-R40+Q39</f>
         <v>-500.53</v>
       </c>
       <c r="T39" s="6">
         <v>128.69999999999999</v>
       </c>
-      <c r="U39" s="33">
-        <f t="shared" ref="U39" si="63">T39-T40+S39</f>
+      <c r="U39" s="36">
+        <f t="shared" ref="U39" si="62">T39-T40+S39</f>
         <v>-371.83</v>
       </c>
     </row>
-    <row r="40" spans="2:21" ht="15.5">
+    <row r="40" spans="2:21">
       <c r="B40" s="9"/>
-      <c r="C40" s="34"/>
+      <c r="C40" s="35"/>
       <c r="D40" s="7">
         <v>128.69999999999999</v>
       </c>
-      <c r="E40" s="33"/>
+      <c r="E40" s="36"/>
       <c r="F40" s="7">
         <v>0</v>
       </c>
-      <c r="G40" s="33"/>
+      <c r="G40" s="36"/>
       <c r="H40" s="7">
         <v>330</v>
       </c>
-      <c r="I40" s="33"/>
+      <c r="I40" s="36"/>
       <c r="J40" s="7">
         <f>DEBOUC_Clôtures!$B$5</f>
         <v>26.33</v>
       </c>
-      <c r="K40" s="33"/>
+      <c r="K40" s="36"/>
       <c r="L40" s="7">
         <f>DEBOUC_Clôtures!$C$5</f>
         <v>15.5</v>
       </c>
-      <c r="M40" s="33"/>
+      <c r="M40" s="36"/>
       <c r="N40" s="7">
         <f>DEBOUC_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O40" s="33"/>
+      <c r="O40" s="36"/>
       <c r="P40" s="7">
         <f>F39</f>
         <v>0</v>
       </c>
-      <c r="Q40" s="33"/>
+      <c r="Q40" s="36"/>
       <c r="R40" s="7">
         <f>H39</f>
         <v>0</v>
       </c>
-      <c r="S40" s="33"/>
+      <c r="S40" s="36"/>
       <c r="T40" s="7"/>
-      <c r="U40" s="33"/>
-    </row>
-    <row r="41" spans="2:21" ht="15.5">
+      <c r="U40" s="36"/>
+    </row>
+    <row r="41" spans="2:21">
       <c r="B41" s="9"/>
-      <c r="C41" s="34" t="s">
+      <c r="C41" s="35" t="s">
         <v>22</v>
       </c>
       <c r="D41" s="6">
         <v>114.95</v>
       </c>
-      <c r="E41" s="33">
+      <c r="E41" s="36">
         <f>D41-D42</f>
         <v>33.049999999999997</v>
       </c>
       <c r="F41" s="6"/>
-      <c r="G41" s="33">
+      <c r="G41" s="36">
         <f>F41-F42+E41</f>
         <v>33.049999999999997</v>
       </c>
       <c r="H41" s="6">
         <v>600</v>
       </c>
-      <c r="I41" s="33">
-        <f t="shared" ref="I41" si="64">H41-H42+G41</f>
+      <c r="I41" s="36">
+        <f t="shared" ref="I41" si="63">H41-H42+G41</f>
         <v>-966.95</v>
       </c>
       <c r="J41" s="6">
         <f>EVA_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K41" s="33">
-        <f t="shared" ref="K41" si="65">J41-J42+I41</f>
+      <c r="K41" s="36">
+        <f t="shared" ref="K41" si="64">J41-J42+I41</f>
         <v>-1236</v>
       </c>
       <c r="L41" s="6">
         <f>EVA_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M41" s="33">
-        <f t="shared" ref="M41" si="66">L41-L42+K41</f>
+      <c r="M41" s="36">
+        <f t="shared" ref="M41" si="65">L41-L42+K41</f>
         <v>-1764.35</v>
       </c>
       <c r="N41" s="6">
         <f>EVA_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O41" s="33">
-        <f t="shared" ref="O41" si="67">N41-N42+M41</f>
+      <c r="O41" s="36">
+        <f t="shared" ref="O41" si="66">N41-N42+M41</f>
         <v>-1764.35</v>
       </c>
       <c r="P41" s="6"/>
-      <c r="Q41" s="33">
+      <c r="Q41" s="36">
         <f>P41-P42+O41</f>
         <v>-1764.35</v>
       </c>
       <c r="R41" s="6"/>
-      <c r="S41" s="33">
-        <f t="shared" ref="S41" si="68">R41-R42+Q41</f>
+      <c r="S41" s="36">
+        <f t="shared" ref="S41" si="67">R41-R42+Q41</f>
         <v>-2364.35</v>
       </c>
       <c r="T41" s="6">
         <v>81.900000000000006</v>
       </c>
-      <c r="U41" s="33">
-        <f t="shared" ref="U41" si="69">T41-T42+S41</f>
+      <c r="U41" s="36">
+        <f t="shared" ref="U41" si="68">T41-T42+S41</f>
         <v>-2397.4</v>
       </c>
     </row>
-    <row r="42" spans="2:21" ht="15.5">
+    <row r="42" spans="2:21">
       <c r="B42" s="9"/>
-      <c r="C42" s="34"/>
+      <c r="C42" s="35"/>
       <c r="D42" s="7">
         <v>81.900000000000006</v>
       </c>
-      <c r="E42" s="33"/>
+      <c r="E42" s="36"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="33"/>
+      <c r="G42" s="36"/>
       <c r="H42" s="7">
         <v>1600</v>
       </c>
-      <c r="I42" s="33"/>
+      <c r="I42" s="36"/>
       <c r="J42" s="7">
         <f>EVA_Clôtures!$B$5</f>
         <v>269.05</v>
       </c>
-      <c r="K42" s="33"/>
+      <c r="K42" s="36"/>
       <c r="L42" s="7">
         <f>EVA_Clôtures!$C$5</f>
         <v>528.35</v>
       </c>
-      <c r="M42" s="33"/>
+      <c r="M42" s="36"/>
       <c r="N42" s="7">
         <f>EVA_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O42" s="33"/>
+      <c r="O42" s="36"/>
       <c r="P42" s="7">
         <f>F41</f>
         <v>0</v>
       </c>
-      <c r="Q42" s="33"/>
+      <c r="Q42" s="36"/>
       <c r="R42" s="7">
         <f>H41</f>
         <v>600</v>
       </c>
-      <c r="S42" s="33"/>
+      <c r="S42" s="36"/>
       <c r="T42" s="7">
         <v>114.95</v>
       </c>
-      <c r="U42" s="33"/>
-    </row>
-    <row r="43" spans="2:21" ht="15.5">
+      <c r="U42" s="36"/>
+    </row>
+    <row r="43" spans="2:21">
       <c r="B43" s="9"/>
-      <c r="C43" s="34" t="s">
+      <c r="C43" s="35" t="s">
         <v>23</v>
       </c>
       <c r="D43" s="6"/>
-      <c r="E43" s="33">
+      <c r="E43" s="36">
         <f>D43-D44</f>
         <v>0</v>
       </c>
       <c r="F43" s="6"/>
-      <c r="G43" s="33">
+      <c r="G43" s="36">
         <f>F43-F44+E43</f>
         <v>0</v>
       </c>
       <c r="H43" s="6">
         <v>0</v>
       </c>
-      <c r="I43" s="33">
-        <f t="shared" ref="I43" si="70">H43-H44+G43</f>
+      <c r="I43" s="36">
+        <f t="shared" ref="I43" si="69">H43-H44+G43</f>
         <v>-508</v>
       </c>
       <c r="J43" s="6">
         <f>EPILIBRE_Clôtures!B2</f>
         <v>55.5</v>
       </c>
-      <c r="K43" s="33">
-        <f t="shared" ref="K43" si="71">J43-J44+I43</f>
+      <c r="K43" s="36">
+        <f t="shared" ref="K43" si="70">J43-J44+I43</f>
         <v>-711.85</v>
       </c>
       <c r="L43" s="6">
         <f>EPILIBRE_Clôtures!C2</f>
-        <v>0</v>
-      </c>
-      <c r="M43" s="33">
-        <f t="shared" ref="M43" si="72">L43-L44+K43</f>
+        <v>35</v>
+      </c>
+      <c r="M43" s="36">
+        <f t="shared" ref="M43" si="71">L43-L44+K43</f>
         <v>-711.85</v>
       </c>
       <c r="N43" s="6">
         <f>EPILIBRE_Clôtures!D2</f>
         <v>0</v>
       </c>
-      <c r="O43" s="33">
-        <f t="shared" ref="O43" si="73">N43-N44+M43</f>
+      <c r="O43" s="36">
+        <f t="shared" ref="O43" si="72">N43-N44+M43</f>
         <v>-711.85</v>
       </c>
       <c r="P43" s="6"/>
-      <c r="Q43" s="33">
+      <c r="Q43" s="36">
         <f>P43-P44+O43</f>
         <v>-711.85</v>
       </c>
       <c r="R43" s="6"/>
-      <c r="S43" s="33">
-        <f t="shared" ref="S43" si="74">R43-R44+Q43</f>
+      <c r="S43" s="36">
+        <f t="shared" ref="S43" si="73">R43-R44+Q43</f>
         <v>-711.85</v>
       </c>
       <c r="T43" s="6">
         <v>351.1</v>
       </c>
-      <c r="U43" s="33">
-        <f t="shared" ref="U43:U45" si="75">T43-T44+S43</f>
+      <c r="U43" s="36">
+        <f t="shared" ref="U43:U45" si="74">T43-T44+S43</f>
         <v>-538.5</v>
       </c>
     </row>
-    <row r="44" spans="2:21" ht="15.5">
+    <row r="44" spans="2:21">
       <c r="B44" s="9"/>
-      <c r="C44" s="34"/>
+      <c r="C44" s="35"/>
       <c r="D44" s="7"/>
-      <c r="E44" s="33"/>
+      <c r="E44" s="36"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="33"/>
+      <c r="G44" s="36"/>
       <c r="H44" s="7">
         <v>508</v>
       </c>
-      <c r="I44" s="33"/>
+      <c r="I44" s="36"/>
       <c r="J44" s="7">
         <f>EPILIBRE_Clôtures!B5</f>
         <v>259.35000000000002</v>
       </c>
-      <c r="K44" s="33"/>
+      <c r="K44" s="36"/>
       <c r="L44" s="7">
         <f>EPILIBRE_Clôtures!C5</f>
-        <v>0</v>
-      </c>
-      <c r="M44" s="33"/>
+        <v>35</v>
+      </c>
+      <c r="M44" s="36"/>
       <c r="N44" s="7">
         <f>EPILIBRE_Clôtures!D5</f>
         <v>0</v>
       </c>
-      <c r="O44" s="33"/>
+      <c r="O44" s="36"/>
       <c r="P44" s="7">
         <f>F43</f>
         <v>0</v>
       </c>
-      <c r="Q44" s="33"/>
+      <c r="Q44" s="36"/>
       <c r="R44" s="7">
         <f>H43</f>
         <v>0</v>
       </c>
-      <c r="S44" s="33"/>
+      <c r="S44" s="36"/>
       <c r="T44" s="7">
         <v>177.75</v>
       </c>
-      <c r="U44" s="33"/>
-    </row>
-    <row r="45" spans="2:21" ht="15.5">
+      <c r="U44" s="36"/>
+    </row>
+    <row r="45" spans="2:21">
       <c r="B45" s="9"/>
-      <c r="C45" s="34"/>
+      <c r="C45" s="35"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="33">
+      <c r="E45" s="36">
         <f>D45-D46</f>
         <v>0</v>
       </c>
       <c r="F45" s="6"/>
-      <c r="G45" s="33">
+      <c r="G45" s="36">
         <f>F45-F46+E45</f>
         <v>0</v>
       </c>
       <c r="H45" s="6">
         <v>1200</v>
       </c>
-      <c r="I45" s="33">
-        <f t="shared" ref="I45" si="76">H45-H46+G45</f>
+      <c r="I45" s="36">
+        <f t="shared" ref="I45" si="75">H45-H46+G45</f>
         <v>-300</v>
       </c>
       <c r="J45" s="6">
         <f>EPILIBRE_Clôtures!B3</f>
         <v>488.15</v>
       </c>
-      <c r="K45" s="33">
-        <f t="shared" ref="K45" si="77">J45-J46+I45</f>
+      <c r="K45" s="36">
+        <f t="shared" ref="K45" si="76">J45-J46+I45</f>
         <v>188.14999999999998</v>
       </c>
       <c r="L45" s="6">
         <f>EPILIBRE_Clôtures!C3</f>
-        <v>0</v>
-      </c>
-      <c r="M45" s="33">
-        <f t="shared" ref="M45" si="78">L45-L46+K45</f>
-        <v>188.14999999999998</v>
+        <v>221.55</v>
+      </c>
+      <c r="M45" s="36">
+        <f t="shared" ref="M45" si="77">L45-L46+K45</f>
+        <v>-126.19999999999999</v>
       </c>
       <c r="N45" s="6">
         <f>EPILIBRE_Clôtures!D3</f>
         <v>0</v>
       </c>
-      <c r="O45" s="33">
-        <f t="shared" ref="O45" si="79">N45-N46+M45</f>
-        <v>188.14999999999998</v>
+      <c r="O45" s="36">
+        <f t="shared" ref="O45" si="78">N45-N46+M45</f>
+        <v>-126.19999999999999</v>
       </c>
       <c r="P45" s="6"/>
-      <c r="Q45" s="33">
+      <c r="Q45" s="36">
         <f>P45-P46+O45</f>
-        <v>188.14999999999998</v>
+        <v>-126.19999999999999</v>
       </c>
       <c r="R45" s="6"/>
-      <c r="S45" s="33">
-        <f t="shared" ref="S45" si="80">R45-R46+Q45</f>
-        <v>-1011.85</v>
+      <c r="S45" s="36">
+        <f t="shared" ref="S45" si="79">R45-R46+Q45</f>
+        <v>-1326.2</v>
       </c>
       <c r="T45" s="6">
         <v>1588.28</v>
       </c>
-      <c r="U45" s="46">
-        <f t="shared" si="75"/>
-        <v>-1192.9000000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="2:21" ht="15.5">
+      <c r="U45" s="55">
+        <f t="shared" si="74"/>
+        <v>-1507.25</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21">
       <c r="B46" s="9"/>
-      <c r="C46" s="34"/>
+      <c r="C46" s="35"/>
       <c r="D46" s="7"/>
-      <c r="E46" s="33"/>
+      <c r="E46" s="36"/>
       <c r="F46" s="7"/>
-      <c r="G46" s="33"/>
+      <c r="G46" s="36"/>
       <c r="H46" s="7">
         <v>1500</v>
       </c>
-      <c r="I46" s="33"/>
+      <c r="I46" s="36"/>
       <c r="J46" s="7">
         <f>EPILIBRE_Clôtures!B6</f>
         <v>0</v>
       </c>
-      <c r="K46" s="33"/>
+      <c r="K46" s="36"/>
       <c r="L46" s="7">
         <f>EPILIBRE_Clôtures!C6</f>
-        <v>0</v>
-      </c>
-      <c r="M46" s="33"/>
+        <v>535.9</v>
+      </c>
+      <c r="M46" s="36"/>
       <c r="N46" s="7">
         <f>EPILIBRE_Clôtures!D6</f>
         <v>0</v>
       </c>
-      <c r="O46" s="33"/>
+      <c r="O46" s="36"/>
       <c r="P46" s="7">
         <f>F45</f>
         <v>0</v>
       </c>
-      <c r="Q46" s="33"/>
+      <c r="Q46" s="36"/>
       <c r="R46" s="7">
         <f>H45</f>
         <v>1200</v>
       </c>
-      <c r="S46" s="33"/>
+      <c r="S46" s="36"/>
       <c r="T46" s="7">
         <v>1769.33</v>
       </c>
-      <c r="U46" s="46"/>
-    </row>
-    <row r="47" spans="2:21" ht="15.5">
+      <c r="U46" s="55"/>
+    </row>
+    <row r="47" spans="2:21">
       <c r="B47" s="9"/>
-      <c r="C47" s="34" t="s">
+      <c r="C47" s="35" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="6"/>
-      <c r="E47" s="33">
+      <c r="E47" s="36">
         <f>D47-D48</f>
         <v>0</v>
       </c>
       <c r="F47" s="6"/>
-      <c r="G47" s="33">
-        <f t="shared" ref="G47" si="81">F47-F48+E47</f>
+      <c r="G47" s="36">
+        <f t="shared" ref="G47" si="80">F47-F48+E47</f>
         <v>0</v>
       </c>
       <c r="H47" s="6">
         <v>0</v>
       </c>
-      <c r="I47" s="33">
-        <f t="shared" ref="I47" si="82">H47-H48+G47</f>
+      <c r="I47" s="36">
+        <f t="shared" ref="I47" si="81">H47-H48+G47</f>
         <v>-300</v>
       </c>
       <c r="J47" s="6">
         <f>IE_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K47" s="33">
-        <f t="shared" ref="K47" si="83">J47-J48+I47</f>
+      <c r="K47" s="36">
+        <f t="shared" ref="K47" si="82">J47-J48+I47</f>
         <v>-300</v>
       </c>
       <c r="L47" s="6">
         <f>IE_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M47" s="33">
-        <f t="shared" ref="M47" si="84">L47-L48+K47</f>
+      <c r="M47" s="36">
+        <f t="shared" ref="M47" si="83">L47-L48+K47</f>
         <v>-300</v>
       </c>
       <c r="N47" s="6">
         <f>IE_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O47" s="33">
-        <f t="shared" ref="O47" si="85">N47-N48+M47</f>
+      <c r="O47" s="36">
+        <f t="shared" ref="O47" si="84">N47-N48+M47</f>
         <v>-300</v>
       </c>
       <c r="P47" s="6"/>
-      <c r="Q47" s="33">
+      <c r="Q47" s="36">
         <f>P47-P48+O47</f>
         <v>-300</v>
       </c>
       <c r="R47" s="6"/>
-      <c r="S47" s="33">
-        <f t="shared" ref="S47" si="86">R47-R48+Q47</f>
+      <c r="S47" s="36">
+        <f t="shared" ref="S47" si="85">R47-R48+Q47</f>
         <v>-300</v>
       </c>
       <c r="T47" s="6">
         <v>71.709999999999994</v>
       </c>
-      <c r="U47" s="33">
-        <f t="shared" ref="U47" si="87">T47-T48+S47</f>
+      <c r="U47" s="36">
+        <f t="shared" ref="U47" si="86">T47-T48+S47</f>
         <v>-228.29000000000002</v>
       </c>
     </row>
-    <row r="48" spans="2:21" ht="15.5">
+    <row r="48" spans="2:21">
       <c r="B48" s="9"/>
-      <c r="C48" s="34"/>
+      <c r="C48" s="35"/>
       <c r="D48" s="7"/>
-      <c r="E48" s="33"/>
+      <c r="E48" s="36"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="33"/>
+      <c r="G48" s="36"/>
       <c r="H48" s="7">
         <v>300</v>
       </c>
-      <c r="I48" s="33"/>
+      <c r="I48" s="36"/>
       <c r="J48" s="7">
         <f>IE_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K48" s="33"/>
+      <c r="K48" s="36"/>
       <c r="L48" s="7">
         <f>IE_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M48" s="33"/>
+      <c r="M48" s="36"/>
       <c r="N48" s="7">
         <f>IE_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O48" s="33"/>
+      <c r="O48" s="36"/>
       <c r="P48" s="7">
         <f>F47</f>
         <v>0</v>
       </c>
-      <c r="Q48" s="33"/>
+      <c r="Q48" s="36"/>
       <c r="R48" s="7">
         <f>H47</f>
         <v>0</v>
       </c>
-      <c r="S48" s="33"/>
+      <c r="S48" s="36"/>
       <c r="T48" s="7"/>
-      <c r="U48" s="33"/>
-    </row>
-    <row r="49" spans="2:21" ht="15.5">
+      <c r="U48" s="36"/>
+    </row>
+    <row r="49" spans="2:21">
       <c r="B49" s="9"/>
-      <c r="C49" s="34" t="s">
+      <c r="C49" s="35" t="s">
         <v>29</v>
       </c>
       <c r="D49" s="6"/>
-      <c r="E49" s="33">
+      <c r="E49" s="36">
         <f>D49-D50</f>
         <v>0</v>
       </c>
       <c r="F49" s="6"/>
-      <c r="G49" s="33">
-        <f t="shared" ref="G49" si="88">F49-F50+E49</f>
+      <c r="G49" s="36">
+        <f t="shared" ref="G49" si="87">F49-F50+E49</f>
         <v>0</v>
       </c>
       <c r="H49" s="6">
         <v>8000</v>
       </c>
-      <c r="I49" s="33">
-        <f t="shared" ref="I49" si="89">H49-H50+G49</f>
+      <c r="I49" s="36">
+        <f t="shared" ref="I49" si="88">H49-H50+G49</f>
         <v>-2000</v>
       </c>
       <c r="J49" s="6">
         <f>LOWTECH_Clôtures!$B$3</f>
         <v>292.47000000000003</v>
       </c>
-      <c r="K49" s="33">
-        <f t="shared" ref="K49" si="90">J49-J50+I49</f>
+      <c r="K49" s="36">
+        <f t="shared" ref="K49" si="89">J49-J50+I49</f>
         <v>-1721.78</v>
       </c>
       <c r="L49" s="6">
         <f>LOWTECH_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M49" s="33">
-        <f t="shared" ref="M49" si="91">L49-L50+K49</f>
+      <c r="M49" s="36">
+        <f t="shared" ref="M49" si="90">L49-L50+K49</f>
         <v>-1721.78</v>
       </c>
       <c r="N49" s="6">
         <f>LOWTECH_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O49" s="33">
-        <f t="shared" ref="O49" si="92">N49-N50+M49</f>
+      <c r="O49" s="36">
+        <f t="shared" ref="O49" si="91">N49-N50+M49</f>
         <v>-1721.78</v>
       </c>
       <c r="P49" s="6"/>
-      <c r="Q49" s="33">
+      <c r="Q49" s="36">
         <f>P49-P50+O49</f>
         <v>-1721.78</v>
       </c>
       <c r="R49" s="6"/>
-      <c r="S49" s="33">
-        <f t="shared" ref="S49" si="93">R49-R50+Q49</f>
+      <c r="S49" s="36">
+        <f t="shared" ref="S49" si="92">R49-R50+Q49</f>
         <v>-9721.7800000000007</v>
       </c>
       <c r="T49" s="6">
         <v>292.47000000000003</v>
       </c>
-      <c r="U49" s="33">
-        <f t="shared" ref="U49" si="94">T49-T50+S49</f>
+      <c r="U49" s="36">
+        <f t="shared" ref="U49" si="93">T49-T50+S49</f>
         <v>-9711.7100000000009</v>
       </c>
     </row>
-    <row r="50" spans="2:21" ht="15.5">
+    <row r="50" spans="2:21">
       <c r="B50" s="9"/>
-      <c r="C50" s="34"/>
+      <c r="C50" s="35"/>
       <c r="D50" s="7"/>
-      <c r="E50" s="33"/>
+      <c r="E50" s="36"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="33"/>
+      <c r="G50" s="36"/>
       <c r="H50" s="7">
         <v>10000</v>
       </c>
-      <c r="I50" s="33"/>
+      <c r="I50" s="36"/>
       <c r="J50" s="7">
         <f>LOWTECH_Clôtures!$B$5</f>
         <v>14.25</v>
       </c>
-      <c r="K50" s="33"/>
+      <c r="K50" s="36"/>
       <c r="L50" s="7">
         <f>LOWTECH_Clôtures!$C$5</f>
         <v>0</v>
       </c>
-      <c r="M50" s="33"/>
+      <c r="M50" s="36"/>
       <c r="N50" s="7">
         <f>LOWTECH_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O50" s="33"/>
+      <c r="O50" s="36"/>
       <c r="P50" s="7">
         <f>F49</f>
         <v>0</v>
       </c>
-      <c r="Q50" s="33"/>
+      <c r="Q50" s="36"/>
       <c r="R50" s="7">
         <f>H49</f>
         <v>8000</v>
       </c>
-      <c r="S50" s="33"/>
+      <c r="S50" s="36"/>
       <c r="T50" s="7">
         <v>282.39999999999998</v>
       </c>
-      <c r="U50" s="33"/>
-    </row>
-    <row r="51" spans="2:21" ht="15.5">
+      <c r="U50" s="36"/>
+    </row>
+    <row r="51" spans="2:21">
       <c r="B51" s="9"/>
-      <c r="C51" s="34" t="s">
+      <c r="C51" s="35" t="s">
         <v>24</v>
       </c>
       <c r="D51" s="6"/>
-      <c r="E51" s="33">
+      <c r="E51" s="36">
         <f>D51-D52</f>
         <v>0</v>
       </c>
       <c r="F51" s="6"/>
-      <c r="G51" s="33">
-        <f t="shared" ref="G51" si="95">F51-F52+E51</f>
+      <c r="G51" s="36">
+        <f t="shared" ref="G51" si="94">F51-F52+E51</f>
         <v>0</v>
       </c>
       <c r="H51" s="6">
         <v>0</v>
       </c>
-      <c r="I51" s="33">
-        <f t="shared" ref="I51" si="96">H51-H52+G51</f>
+      <c r="I51" s="36">
+        <f t="shared" ref="I51" si="95">H51-H52+G51</f>
         <v>-1050</v>
       </c>
       <c r="J51" s="6">
         <f>JARDIN_Clôtures!$B$3</f>
         <v>0</v>
       </c>
-      <c r="K51" s="33">
-        <f t="shared" ref="K51" si="97">J51-J52+I51</f>
+      <c r="K51" s="36">
+        <f t="shared" ref="K51" si="96">J51-J52+I51</f>
         <v>-1100</v>
       </c>
       <c r="L51" s="6">
         <f>JARDIN_Clôtures!$C$3</f>
         <v>0</v>
       </c>
-      <c r="M51" s="33">
-        <f t="shared" ref="M51" si="98">L51-L52+K51</f>
+      <c r="M51" s="36">
+        <f t="shared" ref="M51" si="97">L51-L52+K51</f>
         <v>-1205.95</v>
       </c>
       <c r="N51" s="6">
         <f>JARDIN_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O51" s="33">
-        <f t="shared" ref="O51" si="99">N51-N52+M51</f>
+      <c r="O51" s="36">
+        <f t="shared" ref="O51" si="98">N51-N52+M51</f>
         <v>-1205.95</v>
       </c>
       <c r="P51" s="6"/>
-      <c r="Q51" s="33">
+      <c r="Q51" s="36">
         <f>P51-P52+O51</f>
         <v>-1205.95</v>
       </c>
       <c r="R51" s="6"/>
-      <c r="S51" s="33">
-        <f t="shared" ref="S51" si="100">R51-R52+Q51</f>
+      <c r="S51" s="36">
+        <f t="shared" ref="S51" si="99">R51-R52+Q51</f>
         <v>-1205.95</v>
       </c>
       <c r="T51" s="6">
         <v>1022.8</v>
       </c>
-      <c r="U51" s="33">
-        <f t="shared" ref="U51" si="101">T51-T52+S51</f>
+      <c r="U51" s="36">
+        <f t="shared" ref="U51" si="100">T51-T52+S51</f>
         <v>-395.15000000000009</v>
       </c>
     </row>
-    <row r="52" spans="2:21" ht="15.5">
+    <row r="52" spans="2:21">
       <c r="B52" s="9"/>
-      <c r="C52" s="34"/>
+      <c r="C52" s="35"/>
       <c r="D52" s="7"/>
-      <c r="E52" s="33"/>
+      <c r="E52" s="36"/>
       <c r="F52" s="7"/>
-      <c r="G52" s="33"/>
+      <c r="G52" s="36"/>
       <c r="H52" s="7">
         <v>1050</v>
       </c>
-      <c r="I52" s="33"/>
+      <c r="I52" s="36"/>
       <c r="J52" s="7">
         <f>JARDIN_Clôtures!$B$5</f>
         <v>50</v>
       </c>
-      <c r="K52" s="33"/>
+      <c r="K52" s="36"/>
       <c r="L52" s="7">
         <f>JARDIN_Clôtures!$C$5</f>
         <v>105.95</v>
       </c>
-      <c r="M52" s="33"/>
+      <c r="M52" s="36"/>
       <c r="N52" s="7">
         <f>JARDIN_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O52" s="33"/>
+      <c r="O52" s="36"/>
       <c r="P52" s="7">
         <f>F51</f>
         <v>0</v>
       </c>
-      <c r="Q52" s="33"/>
+      <c r="Q52" s="36"/>
       <c r="R52" s="7">
         <f>H51</f>
         <v>0</v>
       </c>
-      <c r="S52" s="33"/>
+      <c r="S52" s="36"/>
       <c r="T52" s="7">
         <v>212</v>
       </c>
-      <c r="U52" s="33"/>
-    </row>
-    <row r="53" spans="2:21" ht="15.5">
+      <c r="U52" s="36"/>
+    </row>
+    <row r="53" spans="2:21">
       <c r="B53" s="9"/>
-      <c r="C53" s="34" t="s">
+      <c r="C53" s="35" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="6"/>
-      <c r="E53" s="33">
+      <c r="E53" s="36">
         <f>D53-D54</f>
         <v>0</v>
       </c>
       <c r="F53" s="6"/>
-      <c r="G53" s="33">
-        <f t="shared" ref="G53" si="102">F53-F54+E53</f>
+      <c r="G53" s="36">
+        <f t="shared" ref="G53" si="101">F53-F54+E53</f>
         <v>0</v>
       </c>
       <c r="H53" s="6">
         <v>0</v>
       </c>
-      <c r="I53" s="33">
-        <f t="shared" ref="I53" si="103">H53-H54+G53</f>
+      <c r="I53" s="36">
+        <f t="shared" ref="I53" si="102">H53-H54+G53</f>
         <v>-180</v>
       </c>
       <c r="J53" s="6">
         <f>MEUBLE_Clôtures!$B$2</f>
         <v>2061.25</v>
       </c>
-      <c r="K53" s="33">
-        <f t="shared" ref="K53" si="104">J53-J54+I53</f>
+      <c r="K53" s="36">
+        <f t="shared" ref="K53" si="103">J53-J54+I53</f>
         <v>1116.4299999999998</v>
       </c>
       <c r="L53" s="6">
         <v>0</v>
       </c>
-      <c r="M53" s="33">
-        <f t="shared" ref="M53" si="105">L53-L54+K53</f>
+      <c r="M53" s="36">
+        <f t="shared" ref="M53" si="104">L53-L54+K53</f>
         <v>629.18999999999983</v>
       </c>
       <c r="N53" s="6">
         <v>0</v>
       </c>
-      <c r="O53" s="33">
-        <f t="shared" ref="O53" si="106">N53-N54+M53</f>
+      <c r="O53" s="36">
+        <f t="shared" ref="O53" si="105">N53-N54+M53</f>
         <v>629.18999999999983</v>
       </c>
       <c r="P53" s="6"/>
-      <c r="Q53" s="33">
+      <c r="Q53" s="36">
         <f>P53-P54+O53</f>
         <v>629.18999999999983</v>
       </c>
       <c r="R53" s="6"/>
-      <c r="S53" s="33">
-        <f t="shared" ref="S53" si="107">R53-R54+Q53</f>
+      <c r="S53" s="36">
+        <f t="shared" ref="S53" si="106">R53-R54+Q53</f>
         <v>629.18999999999983</v>
       </c>
       <c r="T53" s="6">
         <v>1456.25</v>
       </c>
-      <c r="U53" s="33">
-        <f t="shared" ref="U53" si="108">T53-T54+S53</f>
+      <c r="U53" s="36">
+        <f t="shared" ref="U53" si="107">T53-T54+S53</f>
         <v>2085.4399999999996</v>
       </c>
     </row>
-    <row r="54" spans="2:21" ht="15.5">
+    <row r="54" spans="2:21">
       <c r="B54" s="9"/>
-      <c r="C54" s="34"/>
+      <c r="C54" s="35"/>
       <c r="D54" s="7"/>
-      <c r="E54" s="33"/>
+      <c r="E54" s="36"/>
       <c r="F54" s="7"/>
-      <c r="G54" s="33"/>
+      <c r="G54" s="36"/>
       <c r="H54" s="7">
         <v>180</v>
       </c>
-      <c r="I54" s="33"/>
+      <c r="I54" s="36"/>
       <c r="J54" s="7">
         <f>MEUBLE_Clôtures!$B$5</f>
         <v>764.82</v>
       </c>
-      <c r="K54" s="33"/>
+      <c r="K54" s="36"/>
       <c r="L54" s="7">
         <f>MEUBLE_Clôtures!$C$5</f>
         <v>487.24</v>
       </c>
-      <c r="M54" s="33"/>
+      <c r="M54" s="36"/>
       <c r="N54" s="7">
         <f>MEUBLE_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O54" s="33"/>
+      <c r="O54" s="36"/>
       <c r="P54" s="7">
         <f>F53</f>
         <v>0</v>
       </c>
-      <c r="Q54" s="33"/>
+      <c r="Q54" s="36"/>
       <c r="R54" s="7">
         <f>H53</f>
         <v>0</v>
       </c>
-      <c r="S54" s="33"/>
+      <c r="S54" s="36"/>
       <c r="T54" s="7"/>
-      <c r="U54" s="33"/>
-    </row>
-    <row r="55" spans="2:21" ht="15.5">
+      <c r="U54" s="36"/>
+    </row>
+    <row r="55" spans="2:21">
       <c r="B55" s="9"/>
-      <c r="C55" s="34"/>
+      <c r="C55" s="35"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="33">
+      <c r="E55" s="36">
         <f>D55-D56</f>
         <v>0</v>
       </c>
       <c r="F55" s="6"/>
-      <c r="G55" s="33">
-        <f t="shared" ref="G55" si="109">F55-F56+E55</f>
+      <c r="G55" s="36">
+        <f t="shared" ref="G55" si="108">F55-F56+E55</f>
         <v>0</v>
       </c>
       <c r="H55" s="6">
         <v>1630</v>
       </c>
-      <c r="I55" s="33">
-        <f t="shared" ref="I55" si="110">H55-H56+G55</f>
+      <c r="I55" s="36">
+        <f t="shared" ref="I55" si="109">H55-H56+G55</f>
         <v>-310</v>
       </c>
       <c r="J55" s="6">
         <f>MEUBLE_Clôtures!$B$3</f>
         <v>1788.71</v>
       </c>
-      <c r="K55" s="33">
+      <c r="K55" s="36">
         <f>J55-J56+I55</f>
         <v>1478.71</v>
       </c>
@@ -3966,200 +3966,200 @@
         <f>MEUBLE_Clôtures!$C$2</f>
         <v>370.2</v>
       </c>
-      <c r="M55" s="33">
-        <f t="shared" ref="M55" si="111">L55-L56+K55</f>
+      <c r="M55" s="36">
+        <f t="shared" ref="M55" si="110">L55-L56+K55</f>
         <v>1683.91</v>
       </c>
       <c r="N55" s="6">
         <f>MEUBLE_Clôtures!$D$2</f>
         <v>0</v>
       </c>
-      <c r="O55" s="33">
-        <f t="shared" ref="O55" si="112">N55-N56+M55</f>
+      <c r="O55" s="36">
+        <f t="shared" ref="O55" si="111">N55-N56+M55</f>
         <v>1683.91</v>
       </c>
       <c r="P55" s="6"/>
-      <c r="Q55" s="33">
+      <c r="Q55" s="36">
         <f>P55-P56+O55</f>
         <v>1683.91</v>
       </c>
       <c r="R55" s="6"/>
-      <c r="S55" s="33">
-        <f t="shared" ref="S55" si="113">R55-R56+Q55</f>
+      <c r="S55" s="36">
+        <f t="shared" ref="S55" si="112">R55-R56+Q55</f>
         <v>53.910000000000082</v>
       </c>
       <c r="T55" s="6">
         <v>1545</v>
       </c>
-      <c r="U55" s="33">
-        <f t="shared" ref="U55" si="114">T55-T56+S55</f>
+      <c r="U55" s="36">
+        <f t="shared" ref="U55" si="113">T55-T56+S55</f>
         <v>969.71</v>
       </c>
     </row>
-    <row r="56" spans="2:21" ht="15.5">
+    <row r="56" spans="2:21">
       <c r="B56" s="9"/>
-      <c r="C56" s="34"/>
+      <c r="C56" s="35"/>
       <c r="D56" s="7"/>
-      <c r="E56" s="33"/>
+      <c r="E56" s="36"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="33"/>
+      <c r="G56" s="36"/>
       <c r="H56" s="7">
         <v>1940</v>
       </c>
-      <c r="I56" s="33"/>
+      <c r="I56" s="36"/>
       <c r="J56" s="7">
         <f>MEUBLE_Clôtures!$B$6</f>
         <v>0</v>
       </c>
-      <c r="K56" s="33"/>
+      <c r="K56" s="36"/>
       <c r="L56" s="7">
         <f>MEUBLE_Clôtures!$C$6</f>
         <v>165</v>
       </c>
-      <c r="M56" s="33"/>
+      <c r="M56" s="36"/>
       <c r="N56" s="7">
         <f>MEUBLE_Clôtures!$D$6</f>
         <v>0</v>
       </c>
-      <c r="O56" s="33"/>
+      <c r="O56" s="36"/>
       <c r="P56" s="7">
         <f>F55</f>
         <v>0</v>
       </c>
-      <c r="Q56" s="33"/>
+      <c r="Q56" s="36"/>
       <c r="R56" s="7">
         <f>H55</f>
         <v>1630</v>
       </c>
-      <c r="S56" s="33"/>
+      <c r="S56" s="36"/>
       <c r="T56" s="7">
         <v>629.20000000000005</v>
       </c>
-      <c r="U56" s="33"/>
-    </row>
-    <row r="57" spans="2:21" ht="15.5">
+      <c r="U56" s="36"/>
+    </row>
+    <row r="57" spans="2:21">
       <c r="B57" s="9"/>
-      <c r="C57" s="34" t="s">
+      <c r="C57" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D57" s="6"/>
-      <c r="E57" s="33">
+      <c r="E57" s="36">
         <f>D57-D58</f>
         <v>0</v>
       </c>
       <c r="F57" s="6"/>
-      <c r="G57" s="33">
-        <f t="shared" ref="G57" si="115">F57-F58+E57</f>
+      <c r="G57" s="36">
+        <f t="shared" ref="G57" si="114">F57-F58+E57</f>
         <v>0</v>
       </c>
       <c r="H57" s="6">
         <v>10000</v>
       </c>
-      <c r="I57" s="33">
-        <f t="shared" ref="I57" si="116">H57-H58+G57</f>
+      <c r="I57" s="36">
+        <f t="shared" ref="I57" si="115">H57-H58+G57</f>
         <v>0</v>
       </c>
       <c r="J57" s="6">
         <v>0</v>
       </c>
-      <c r="K57" s="33">
-        <f t="shared" ref="K57" si="117">J57-J58+I57</f>
+      <c r="K57" s="36">
+        <f t="shared" ref="K57" si="116">J57-J58+I57</f>
         <v>0</v>
       </c>
       <c r="L57" s="6">
         <f>DUDU_Clôtures!$C$3</f>
         <v>3916.98</v>
       </c>
-      <c r="M57" s="33">
-        <f t="shared" ref="M57" si="118">L57-L58+K57</f>
+      <c r="M57" s="36">
+        <f t="shared" ref="M57" si="117">L57-L58+K57</f>
         <v>-3171.68</v>
       </c>
       <c r="N57" s="6">
         <f>DUDU_Clôtures!$D$3</f>
         <v>0</v>
       </c>
-      <c r="O57" s="33">
-        <f t="shared" ref="O57" si="119">N57-N58+M57</f>
+      <c r="O57" s="36">
+        <f t="shared" ref="O57" si="118">N57-N58+M57</f>
         <v>-3171.68</v>
       </c>
       <c r="P57" s="6"/>
-      <c r="Q57" s="33">
+      <c r="Q57" s="36">
         <f>P57-P58+O57</f>
         <v>-3171.68</v>
       </c>
       <c r="R57" s="6"/>
-      <c r="S57" s="33">
-        <f t="shared" ref="S57" si="120">R57-R58+Q57</f>
+      <c r="S57" s="36">
+        <f t="shared" ref="S57" si="119">R57-R58+Q57</f>
         <v>-13171.68</v>
       </c>
       <c r="T57" s="6">
         <v>6506.55</v>
       </c>
-      <c r="U57" s="33">
-        <f t="shared" ref="U57" si="121">T57-T58+S57</f>
+      <c r="U57" s="36">
+        <f t="shared" ref="U57" si="120">T57-T58+S57</f>
         <v>-13171.68</v>
       </c>
     </row>
-    <row r="58" spans="2:21" ht="15.5">
+    <row r="58" spans="2:21">
       <c r="B58" s="9"/>
-      <c r="C58" s="34"/>
+      <c r="C58" s="35"/>
       <c r="D58" s="7"/>
-      <c r="E58" s="33"/>
+      <c r="E58" s="36"/>
       <c r="F58" s="7"/>
-      <c r="G58" s="33"/>
+      <c r="G58" s="36"/>
       <c r="H58" s="7">
         <v>10000</v>
       </c>
-      <c r="I58" s="33"/>
+      <c r="I58" s="36"/>
       <c r="J58" s="7">
         <f>DUDU_Clôtures!$B$5</f>
         <v>0</v>
       </c>
-      <c r="K58" s="33"/>
+      <c r="K58" s="36"/>
       <c r="L58" s="7">
         <f>DUDU_Clôtures!$C$5</f>
         <v>7088.66</v>
       </c>
-      <c r="M58" s="33"/>
+      <c r="M58" s="36"/>
       <c r="N58" s="7">
         <f>DUDU_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O58" s="33"/>
+      <c r="O58" s="36"/>
       <c r="P58" s="7">
         <f>F57</f>
         <v>0</v>
       </c>
-      <c r="Q58" s="33"/>
+      <c r="Q58" s="36"/>
       <c r="R58" s="7">
         <f>H57</f>
         <v>10000</v>
       </c>
-      <c r="S58" s="33"/>
+      <c r="S58" s="36"/>
       <c r="T58" s="7">
         <v>6506.55</v>
       </c>
-      <c r="U58" s="33"/>
+      <c r="U58" s="36"/>
     </row>
     <row r="59" spans="2:21" ht="15.5" customHeight="1">
       <c r="B59" s="10"/>
-      <c r="C59" s="34" t="s">
+      <c r="C59" s="35" t="s">
         <v>27</v>
       </c>
       <c r="D59" s="6"/>
-      <c r="E59" s="33">
+      <c r="E59" s="36">
         <f>D59-D60</f>
         <v>0</v>
       </c>
       <c r="F59" s="6"/>
-      <c r="G59" s="33">
-        <f t="shared" ref="G59" si="122">F59-F60+E59</f>
+      <c r="G59" s="36">
+        <f t="shared" ref="G59" si="121">F59-F60+E59</f>
         <v>0</v>
       </c>
       <c r="H59" s="6">
         <v>500</v>
       </c>
-      <c r="I59" s="33">
+      <c r="I59" s="36">
         <f>H59-H60+G59</f>
         <v>-6530</v>
       </c>
@@ -4167,98 +4167,98 @@
         <f>UPFL_Clôtures!$B$2</f>
         <v>1726.53</v>
       </c>
-      <c r="K59" s="33">
-        <f t="shared" ref="K59" si="123">J59-J60+I59</f>
+      <c r="K59" s="36">
+        <f t="shared" ref="K59" si="122">J59-J60+I59</f>
         <v>-6183.22</v>
       </c>
       <c r="L59" s="6">
         <v>0</v>
       </c>
-      <c r="M59" s="33">
-        <f t="shared" ref="M59" si="124">L59-L60+K59</f>
+      <c r="M59" s="36">
+        <f t="shared" ref="M59" si="123">L59-L60+K59</f>
         <v>-7927.4500000000007</v>
       </c>
       <c r="N59" s="6">
         <v>0</v>
       </c>
-      <c r="O59" s="33">
-        <f t="shared" ref="O59" si="125">N59-N60+M59</f>
+      <c r="O59" s="36">
+        <f t="shared" ref="O59" si="124">N59-N60+M59</f>
         <v>-7927.4500000000007</v>
       </c>
       <c r="P59" s="6"/>
-      <c r="Q59" s="33">
+      <c r="Q59" s="36">
         <f>P59-P60+O59</f>
         <v>-7927.4500000000007</v>
       </c>
       <c r="R59" s="6"/>
-      <c r="S59" s="33">
+      <c r="S59" s="36">
         <f>R59-R60+Q59</f>
         <v>-8427.4500000000007</v>
       </c>
       <c r="T59" s="6">
         <v>1576.53</v>
       </c>
-      <c r="U59" s="33">
-        <f t="shared" ref="U59" si="126">T59-T60+S59</f>
+      <c r="U59" s="36">
+        <f t="shared" ref="U59" si="125">T59-T60+S59</f>
         <v>-6850.920000000001</v>
       </c>
     </row>
     <row r="60" spans="2:21" ht="15.5" customHeight="1">
       <c r="B60" s="10"/>
-      <c r="C60" s="34"/>
+      <c r="C60" s="35"/>
       <c r="D60" s="7"/>
-      <c r="E60" s="33"/>
+      <c r="E60" s="36"/>
       <c r="F60" s="7"/>
-      <c r="G60" s="33"/>
+      <c r="G60" s="36"/>
       <c r="H60" s="7">
         <v>7030</v>
       </c>
-      <c r="I60" s="33"/>
+      <c r="I60" s="36"/>
       <c r="J60" s="7">
         <f>UPFL_Clôtures!$B$5</f>
         <v>1379.75</v>
       </c>
-      <c r="K60" s="33"/>
+      <c r="K60" s="36"/>
       <c r="L60" s="7">
         <f>UPFL_Clôtures!$C$5</f>
         <v>1744.23</v>
       </c>
-      <c r="M60" s="33"/>
+      <c r="M60" s="36"/>
       <c r="N60" s="7">
         <f>UPFL_Clôtures!$D$5</f>
         <v>0</v>
       </c>
-      <c r="O60" s="33"/>
+      <c r="O60" s="36"/>
       <c r="P60" s="7">
         <f>F59</f>
         <v>0</v>
       </c>
-      <c r="Q60" s="33"/>
+      <c r="Q60" s="36"/>
       <c r="R60" s="7">
         <f>H59</f>
         <v>500</v>
       </c>
-      <c r="S60" s="33"/>
+      <c r="S60" s="36"/>
       <c r="T60" s="7"/>
-      <c r="U60" s="33"/>
+      <c r="U60" s="36"/>
     </row>
     <row r="61" spans="2:21" ht="15.5" customHeight="1">
       <c r="B61" s="10"/>
-      <c r="C61" s="34"/>
+      <c r="C61" s="35"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="33">
+      <c r="E61" s="36">
         <f>D61-D62</f>
         <v>0</v>
       </c>
       <c r="F61" s="6"/>
-      <c r="G61" s="33">
+      <c r="G61" s="36">
         <f>F61-F62+E61</f>
         <v>0</v>
       </c>
       <c r="H61" s="6">
         <v>2600</v>
       </c>
-      <c r="I61" s="33">
+      <c r="I61" s="36">
         <f>H61-H62+G61</f>
         <v>2600</v>
       </c>
@@ -4266,7 +4266,7 @@
         <f>UPFL_Clôtures!$B$3</f>
         <v>2498</v>
       </c>
-      <c r="K61" s="33">
+      <c r="K61" s="36">
         <f>J61-J62+I61</f>
         <v>5098</v>
       </c>
@@ -4274,7 +4274,7 @@
         <f>UPFL_Clôtures!$C$2</f>
         <v>0</v>
       </c>
-      <c r="M61" s="33">
+      <c r="M61" s="36">
         <f>L61-L62+K61</f>
         <v>5098</v>
       </c>
@@ -4282,93 +4282,93 @@
         <f>UPFL_Clôtures!$D$2</f>
         <v>0</v>
       </c>
-      <c r="O61" s="33">
+      <c r="O61" s="36">
         <f>N61-N62+M61</f>
         <v>5098</v>
       </c>
       <c r="P61" s="6"/>
-      <c r="Q61" s="33">
+      <c r="Q61" s="36">
         <f>P61-P62+O61</f>
         <v>5098</v>
       </c>
       <c r="R61" s="6"/>
-      <c r="S61" s="33">
+      <c r="S61" s="36">
         <f>R61-R62+Q61</f>
         <v>2498</v>
       </c>
       <c r="T61" s="6"/>
-      <c r="U61" s="33">
+      <c r="U61" s="36">
         <f>T61-T62+S61</f>
         <v>283.32999999999993</v>
       </c>
     </row>
     <row r="62" spans="2:21" ht="15.5" customHeight="1">
       <c r="B62" s="10"/>
-      <c r="C62" s="34"/>
+      <c r="C62" s="35"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="33"/>
+      <c r="E62" s="36"/>
       <c r="F62" s="6"/>
-      <c r="G62" s="33"/>
+      <c r="G62" s="36"/>
       <c r="H62" s="7">
         <v>0</v>
       </c>
-      <c r="I62" s="33"/>
+      <c r="I62" s="36"/>
       <c r="J62" s="7">
         <f>UPFL_Clôtures!$B$6</f>
         <v>0</v>
       </c>
-      <c r="K62" s="33"/>
+      <c r="K62" s="36"/>
       <c r="L62" s="7">
         <f>UPFL_Clôtures!$C$6</f>
         <v>0</v>
       </c>
-      <c r="M62" s="33"/>
+      <c r="M62" s="36"/>
       <c r="N62" s="7">
         <f>UPFL_Clôtures!$D$6</f>
         <v>0</v>
       </c>
-      <c r="O62" s="33"/>
+      <c r="O62" s="36"/>
       <c r="P62" s="7">
         <f>F61</f>
         <v>0</v>
       </c>
-      <c r="Q62" s="33"/>
+      <c r="Q62" s="36"/>
       <c r="R62" s="7">
         <f>H61</f>
         <v>2600</v>
       </c>
-      <c r="S62" s="33"/>
+      <c r="S62" s="36"/>
       <c r="T62" s="7">
         <v>2214.67</v>
       </c>
-      <c r="U62" s="33"/>
-    </row>
-    <row r="63" spans="2:21" ht="15.5">
+      <c r="U62" s="36"/>
+    </row>
+    <row r="63" spans="2:21">
       <c r="B63" s="9"/>
-      <c r="C63" s="34" t="s">
+      <c r="C63" s="35" t="s">
         <v>93</v>
       </c>
       <c r="D63" s="6"/>
-      <c r="E63" s="33">
+      <c r="E63" s="36">
         <f>D63-D64</f>
         <v>0</v>
       </c>
       <c r="F63" s="6"/>
-      <c r="G63" s="33">
+      <c r="G63" s="36">
         <f>F63-F64+E63</f>
         <v>0</v>
       </c>
       <c r="H63" s="6">
         <v>0</v>
       </c>
-      <c r="I63" s="33">
+      <c r="I63" s="36">
         <f>H63-H64+G63</f>
         <v>-2000</v>
       </c>
       <c r="J63" s="6">
         <v>5</v>
       </c>
-      <c r="K63" s="33">
+      <c r="K63" s="36">
         <f>J63-J64+I63</f>
         <v>-2103.16</v>
       </c>
@@ -4376,7 +4376,7 @@
         <f>FNR_Clôtures!$C$2</f>
         <v>5.3</v>
       </c>
-      <c r="M63" s="33">
+      <c r="M63" s="36">
         <f>L63-L64+K63</f>
         <v>-4030.0299999999997</v>
       </c>
@@ -4384,94 +4384,94 @@
         <f>FNR_Clôtures!$D$2</f>
         <v>0</v>
       </c>
-      <c r="O63" s="33">
+      <c r="O63" s="36">
         <f>N63-N64+M63</f>
         <v>-4030.0299999999997</v>
       </c>
       <c r="P63" s="6"/>
-      <c r="Q63" s="33">
+      <c r="Q63" s="36">
         <f>P63-P64+O63</f>
         <v>-4030.0299999999997</v>
       </c>
       <c r="R63" s="6"/>
-      <c r="S63" s="33">
-        <f t="shared" ref="S63" si="127">R63-R64+Q63</f>
+      <c r="S63" s="36">
+        <f t="shared" ref="S63" si="126">R63-R64+Q63</f>
         <v>-4030.0299999999997</v>
       </c>
       <c r="T63" s="6">
         <v>720.75</v>
       </c>
-      <c r="U63" s="33">
+      <c r="U63" s="36">
         <f>T63-T64+S63</f>
         <v>-3383.8799999999997</v>
       </c>
     </row>
-    <row r="64" spans="2:21" ht="15.5">
+    <row r="64" spans="2:21">
       <c r="B64" s="9"/>
-      <c r="C64" s="34"/>
+      <c r="C64" s="35"/>
       <c r="D64" s="7"/>
-      <c r="E64" s="33"/>
+      <c r="E64" s="36"/>
       <c r="F64" s="7"/>
-      <c r="G64" s="33"/>
+      <c r="G64" s="36"/>
       <c r="H64" s="7">
         <v>2000</v>
       </c>
-      <c r="I64" s="33"/>
+      <c r="I64" s="36"/>
       <c r="J64" s="7">
         <v>108.16</v>
       </c>
-      <c r="K64" s="33"/>
+      <c r="K64" s="36"/>
       <c r="L64" s="7">
         <f>FNR_Clôtures!$C$4</f>
         <v>1932.17</v>
       </c>
-      <c r="M64" s="33"/>
+      <c r="M64" s="36"/>
       <c r="N64" s="7">
         <f>FNR_Clôtures!$D$4</f>
         <v>0</v>
       </c>
-      <c r="O64" s="33"/>
+      <c r="O64" s="36"/>
       <c r="P64" s="7">
         <f>F63</f>
         <v>0</v>
       </c>
-      <c r="Q64" s="33"/>
+      <c r="Q64" s="36"/>
       <c r="R64" s="7">
         <f>H63</f>
         <v>0</v>
       </c>
-      <c r="S64" s="33"/>
+      <c r="S64" s="36"/>
       <c r="T64" s="7">
         <v>74.599999999999994</v>
       </c>
-      <c r="U64" s="33"/>
-    </row>
-    <row r="65" spans="2:21" ht="15.5">
+      <c r="U64" s="36"/>
+    </row>
+    <row r="65" spans="2:21">
       <c r="B65" s="9"/>
-      <c r="C65" s="34" t="s">
+      <c r="C65" s="35" t="s">
         <v>88</v>
       </c>
       <c r="D65" s="6"/>
-      <c r="E65" s="33">
+      <c r="E65" s="36">
         <f>D65-D66</f>
         <v>0</v>
       </c>
       <c r="F65" s="6"/>
-      <c r="G65" s="33">
+      <c r="G65" s="36">
         <f>F65-F66+E65</f>
         <v>0</v>
       </c>
       <c r="H65" s="6">
         <v>0</v>
       </c>
-      <c r="I65" s="33">
+      <c r="I65" s="36">
         <f>H65-H66+G65</f>
         <v>0</v>
       </c>
       <c r="J65" s="6">
         <v>15.1</v>
       </c>
-      <c r="K65" s="33">
+      <c r="K65" s="36">
         <f>J65-J66+I65</f>
         <v>0</v>
       </c>
@@ -4479,7 +4479,7 @@
         <f>REBUILT_Clôtures!$C$2</f>
         <v>1000</v>
       </c>
-      <c r="M65" s="33">
+      <c r="M65" s="36">
         <f>L65-L66+K65</f>
         <v>180</v>
       </c>
@@ -4487,175 +4487,413 @@
         <f>REBUILT_Clôtures!$D$2</f>
         <v>0</v>
       </c>
-      <c r="O65" s="33">
+      <c r="O65" s="36">
         <f>N65-N66+M65</f>
         <v>180</v>
       </c>
       <c r="P65" s="6"/>
-      <c r="Q65" s="33">
+      <c r="Q65" s="36">
         <f>P65-P66+O65</f>
         <v>180</v>
       </c>
       <c r="R65" s="6"/>
-      <c r="S65" s="33">
-        <f t="shared" ref="S65" si="128">R65-R66+Q65</f>
+      <c r="S65" s="36">
+        <f t="shared" ref="S65" si="127">R65-R66+Q65</f>
         <v>180</v>
       </c>
       <c r="T65" s="6">
         <v>720.75</v>
       </c>
-      <c r="U65" s="33">
+      <c r="U65" s="36">
         <f>T65-T66+S65</f>
         <v>826.15</v>
       </c>
     </row>
-    <row r="66" spans="2:21" ht="15.5">
+    <row r="66" spans="2:21">
       <c r="B66" s="9"/>
-      <c r="C66" s="35"/>
+      <c r="C66" s="54"/>
       <c r="D66" s="7"/>
-      <c r="E66" s="33"/>
+      <c r="E66" s="36"/>
       <c r="F66" s="7"/>
-      <c r="G66" s="33"/>
+      <c r="G66" s="36"/>
       <c r="H66" s="7">
         <v>0</v>
       </c>
-      <c r="I66" s="42"/>
+      <c r="I66" s="48"/>
       <c r="J66" s="7">
         <v>15.1</v>
       </c>
-      <c r="K66" s="42"/>
+      <c r="K66" s="48"/>
       <c r="L66" s="7">
         <f>REBUILT_Clôtures!$C$4</f>
         <v>820</v>
       </c>
-      <c r="M66" s="33"/>
+      <c r="M66" s="36"/>
       <c r="N66" s="7">
         <f>REBUILT_Clôtures!$D$4</f>
         <v>0</v>
       </c>
-      <c r="O66" s="33"/>
+      <c r="O66" s="36"/>
       <c r="P66" s="7">
         <f>F65</f>
         <v>0</v>
       </c>
-      <c r="Q66" s="33"/>
+      <c r="Q66" s="36"/>
       <c r="R66" s="7">
         <f>H65</f>
         <v>0</v>
       </c>
-      <c r="S66" s="33"/>
+      <c r="S66" s="36"/>
       <c r="T66" s="7">
         <v>74.599999999999994</v>
       </c>
-      <c r="U66" s="33"/>
+      <c r="U66" s="36"/>
     </row>
     <row r="67" spans="2:21" ht="14" customHeight="1">
-      <c r="B67" s="47" t="s">
+      <c r="B67" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C67" s="48"/>
-      <c r="D67" s="36">
+      <c r="C67" s="51"/>
+      <c r="D67" s="33">
         <f>E5+E7+E31</f>
         <v>-3802.4599999999982</v>
       </c>
-      <c r="E67" s="36"/>
-      <c r="F67" s="36">
+      <c r="E67" s="33"/>
+      <c r="F67" s="33">
         <f>G5+G7+G31</f>
         <v>6911.4500000000007</v>
       </c>
-      <c r="G67" s="36"/>
-      <c r="H67" s="36">
+      <c r="G67" s="33"/>
+      <c r="H67" s="33">
         <f>I5+I7+I31</f>
         <v>-27444.55</v>
       </c>
-      <c r="I67" s="36"/>
-      <c r="J67" s="36">
+      <c r="I67" s="33"/>
+      <c r="J67" s="33">
         <f>K5+K7+K31</f>
         <v>-20353.55</v>
       </c>
-      <c r="K67" s="36"/>
-      <c r="L67" s="36">
+      <c r="K67" s="33"/>
+      <c r="L67" s="33">
         <f>M5+M7+M31</f>
-        <v>-24849.829999999998</v>
-      </c>
-      <c r="M67" s="36"/>
-      <c r="N67" s="36">
+        <v>-25024.18</v>
+      </c>
+      <c r="M67" s="33"/>
+      <c r="N67" s="33">
         <f>O5+O7+O31</f>
-        <v>-24849.829999999998</v>
-      </c>
-      <c r="O67" s="36"/>
-      <c r="P67" s="36">
+        <v>-25024.18</v>
+      </c>
+      <c r="O67" s="33"/>
+      <c r="P67" s="33">
         <f>Q5+Q7+Q31</f>
-        <v>-24849.829999999998</v>
-      </c>
-      <c r="Q67" s="36"/>
-      <c r="R67" s="36">
+        <v>-25024.18</v>
+      </c>
+      <c r="Q67" s="33"/>
+      <c r="R67" s="33">
         <f>S5+S7+S31</f>
-        <v>-24849.83</v>
-      </c>
-      <c r="S67" s="36"/>
-      <c r="T67" s="36">
+        <v>-25024.18</v>
+      </c>
+      <c r="S67" s="33"/>
+      <c r="T67" s="33">
         <f>U5+U7+U31</f>
-        <v>-24203.680000000004</v>
-      </c>
-      <c r="U67" s="36"/>
+        <v>-24378.030000000002</v>
+      </c>
+      <c r="U67" s="33"/>
     </row>
     <row r="68" spans="2:21" ht="14.5" customHeight="1">
-      <c r="B68" s="49"/>
-      <c r="C68" s="50"/>
-      <c r="D68" s="37"/>
-      <c r="E68" s="37"/>
-      <c r="F68" s="37"/>
-      <c r="G68" s="37"/>
-      <c r="H68" s="37"/>
-      <c r="I68" s="37"/>
-      <c r="J68" s="37"/>
-      <c r="K68" s="37"/>
-      <c r="L68" s="37"/>
-      <c r="M68" s="37"/>
-      <c r="N68" s="37"/>
-      <c r="O68" s="37"/>
-      <c r="P68" s="37"/>
-      <c r="Q68" s="37"/>
-      <c r="R68" s="37"/>
-      <c r="S68" s="37"/>
-      <c r="T68" s="37"/>
-      <c r="U68" s="37"/>
+      <c r="B68" s="52"/>
+      <c r="C68" s="53"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="34"/>
+      <c r="I68" s="34"/>
+      <c r="J68" s="34"/>
+      <c r="K68" s="34"/>
+      <c r="L68" s="34"/>
+      <c r="M68" s="34"/>
+      <c r="N68" s="34"/>
+      <c r="O68" s="34"/>
+      <c r="P68" s="34"/>
+      <c r="Q68" s="34"/>
+      <c r="R68" s="34"/>
+      <c r="S68" s="34"/>
+      <c r="T68" s="34"/>
+      <c r="U68" s="34"/>
     </row>
     <row r="69" spans="2:21"/>
     <row r="70" spans="2:21"/>
   </sheetData>
   <mergeCells count="327">
-    <mergeCell ref="N67:O68"/>
-    <mergeCell ref="T67:U68"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="U39:U40"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B31:C32"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="O63:O64"/>
+    <mergeCell ref="S63:S64"/>
+    <mergeCell ref="U63:U64"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="Q63:Q64"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="O61:O62"/>
+    <mergeCell ref="U61:U62"/>
+    <mergeCell ref="U49:U50"/>
+    <mergeCell ref="U47:U48"/>
+    <mergeCell ref="U51:U52"/>
+    <mergeCell ref="U53:U54"/>
+    <mergeCell ref="U55:U56"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="Q65:Q66"/>
+    <mergeCell ref="S65:S66"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="S29:S30"/>
+    <mergeCell ref="Q51:Q52"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="R67:S68"/>
+    <mergeCell ref="D2:U2"/>
+    <mergeCell ref="S43:S44"/>
+    <mergeCell ref="S45:S46"/>
+    <mergeCell ref="S47:S48"/>
+    <mergeCell ref="S49:S50"/>
+    <mergeCell ref="S51:S52"/>
+    <mergeCell ref="S53:S54"/>
+    <mergeCell ref="S55:S56"/>
+    <mergeCell ref="S57:S58"/>
+    <mergeCell ref="S59:S60"/>
+    <mergeCell ref="S21:S22"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="S31:S32"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="S37:S38"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="U29:U30"/>
+    <mergeCell ref="U65:U66"/>
+    <mergeCell ref="P67:Q68"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="Q47:Q48"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="Q31:Q32"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="Q37:Q38"/>
+    <mergeCell ref="Q39:Q40"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="D67:E68"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="U57:U58"/>
+    <mergeCell ref="U59:U60"/>
+    <mergeCell ref="O59:O60"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="O51:O52"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="O57:O58"/>
+    <mergeCell ref="Q53:Q54"/>
+    <mergeCell ref="Q55:Q56"/>
+    <mergeCell ref="Q57:Q58"/>
+    <mergeCell ref="Q59:Q60"/>
+    <mergeCell ref="Q61:Q62"/>
+    <mergeCell ref="S61:S62"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="U31:U32"/>
+    <mergeCell ref="U33:U34"/>
+    <mergeCell ref="U35:U36"/>
+    <mergeCell ref="U37:U38"/>
+    <mergeCell ref="U41:U42"/>
+    <mergeCell ref="U43:U44"/>
+    <mergeCell ref="U45:U46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="O35:O36"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="S39:S40"/>
+    <mergeCell ref="S41:S42"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="L67:M68"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="F67:G68"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="B67:C68"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="J67:K68"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="H67:I68"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="M61:M62"/>
+    <mergeCell ref="M57:M58"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="U21:U22"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="K19:K20"/>
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C15:C16"/>
@@ -4680,279 +4918,41 @@
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="U21:U22"/>
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B31:C32"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="N67:O68"/>
+    <mergeCell ref="T67:U68"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="U39:U40"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="M25:M26"/>
     <mergeCell ref="M23:M24"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="O11:O12"/>
     <mergeCell ref="I37:I38"/>
     <mergeCell ref="K33:K34"/>
     <mergeCell ref="K35:K36"/>
     <mergeCell ref="K37:K38"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="M61:M62"/>
-    <mergeCell ref="M57:M58"/>
-    <mergeCell ref="M59:M60"/>
-    <mergeCell ref="B67:C68"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="J67:K68"/>
-    <mergeCell ref="I57:I58"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="H67:I68"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="L67:M68"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="F67:G68"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="Q61:Q62"/>
-    <mergeCell ref="S61:S62"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="U31:U32"/>
-    <mergeCell ref="U33:U34"/>
-    <mergeCell ref="U35:U36"/>
-    <mergeCell ref="U37:U38"/>
-    <mergeCell ref="U41:U42"/>
-    <mergeCell ref="U43:U44"/>
-    <mergeCell ref="U45:U46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="O35:O36"/>
-    <mergeCell ref="O37:O38"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="S39:S40"/>
-    <mergeCell ref="S41:S42"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="U57:U58"/>
-    <mergeCell ref="U59:U60"/>
-    <mergeCell ref="O59:O60"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="O57:O58"/>
-    <mergeCell ref="Q53:Q54"/>
-    <mergeCell ref="Q55:Q56"/>
-    <mergeCell ref="Q57:Q58"/>
-    <mergeCell ref="Q59:Q60"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="D67:E68"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="Q47:Q48"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="Q31:Q32"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="Q37:Q38"/>
-    <mergeCell ref="Q39:Q40"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R67:S68"/>
-    <mergeCell ref="D2:U2"/>
-    <mergeCell ref="S43:S44"/>
-    <mergeCell ref="S45:S46"/>
-    <mergeCell ref="S47:S48"/>
-    <mergeCell ref="S49:S50"/>
-    <mergeCell ref="S51:S52"/>
-    <mergeCell ref="S53:S54"/>
-    <mergeCell ref="S55:S56"/>
-    <mergeCell ref="S57:S58"/>
-    <mergeCell ref="S59:S60"/>
-    <mergeCell ref="S21:S22"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="S27:S28"/>
-    <mergeCell ref="S31:S32"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="S35:S36"/>
-    <mergeCell ref="S37:S38"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="U29:U30"/>
-    <mergeCell ref="U65:U66"/>
-    <mergeCell ref="P67:Q68"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="O65:O66"/>
-    <mergeCell ref="Q65:Q66"/>
-    <mergeCell ref="S65:S66"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="Q29:Q30"/>
-    <mergeCell ref="S29:S30"/>
-    <mergeCell ref="Q51:Q52"/>
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="O63:O64"/>
-    <mergeCell ref="S63:S64"/>
-    <mergeCell ref="U63:U64"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="Q63:Q64"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="O61:O62"/>
-    <mergeCell ref="U61:U62"/>
-    <mergeCell ref="U49:U50"/>
-    <mergeCell ref="U47:U48"/>
-    <mergeCell ref="U51:U52"/>
-    <mergeCell ref="U53:U54"/>
-    <mergeCell ref="U55:U56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4967,12 +4967,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5">
+    <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
         <v>69</v>
       </c>
@@ -5009,7 +5009,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7" ht="15.5">
+    <row r="3" spans="1:7">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -5032,7 +5032,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="15.5">
+    <row r="4" spans="1:7">
       <c r="A4" s="12" t="s">
         <v>70</v>
       </c>
@@ -5052,7 +5052,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7">
       <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
@@ -5097,12 +5097,12 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.1796875" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5">
+    <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
         <v>67</v>
       </c>
@@ -5139,7 +5139,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7" ht="15.5">
+    <row r="3" spans="1:7">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -5162,7 +5162,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="15.5">
+    <row r="4" spans="1:7">
       <c r="A4" s="12" t="s">
         <v>66</v>
       </c>
@@ -5180,7 +5180,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7">
       <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
@@ -5273,12 +5273,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.5">
+    <row r="1" spans="1:5">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.5">
+    <row r="2" spans="1:5">
       <c r="A2" s="12" t="s">
         <v>91</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.5">
+    <row r="3" spans="1:5">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -5334,7 +5334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.5">
+    <row r="4" spans="1:5">
       <c r="A4" s="12" t="s">
         <v>92</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.5">
+    <row r="5" spans="1:5">
       <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
@@ -5386,12 +5386,12 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.1796875" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5">
+    <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
         <v>69</v>
       </c>
@@ -5428,7 +5428,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7" ht="15.5">
+    <row r="3" spans="1:7">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -5451,7 +5451,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="15.5">
+    <row r="4" spans="1:7">
       <c r="A4" s="12" t="s">
         <v>70</v>
       </c>
@@ -5471,7 +5471,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7">
       <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
@@ -5564,12 +5564,12 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.1796875" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5">
+    <row r="2" spans="1:7">
       <c r="A2" s="26" t="s">
         <v>76</v>
       </c>
@@ -5604,7 +5604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.5">
+    <row r="3" spans="1:7">
       <c r="A3" s="26" t="s">
         <v>77</v>
       </c>
@@ -5624,7 +5624,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="15.5">
+    <row r="4" spans="1:7">
       <c r="A4" s="15" t="s">
         <v>38</v>
       </c>
@@ -5647,7 +5647,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7">
       <c r="A5" s="12" t="s">
         <v>70</v>
       </c>
@@ -5667,7 +5667,7 @@
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:7" ht="15.5">
+    <row r="6" spans="1:7">
       <c r="A6" s="13" t="s">
         <v>37</v>
       </c>
@@ -5760,12 +5760,12 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.1796875" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5">
+    <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
         <v>69</v>
       </c>
@@ -5802,7 +5802,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7" ht="15.5">
+    <row r="3" spans="1:7">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -5825,7 +5825,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="15.5">
+    <row r="4" spans="1:7">
       <c r="A4" s="12" t="s">
         <v>70</v>
       </c>
@@ -5845,7 +5845,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7">
       <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
@@ -5938,12 +5938,12 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.1796875" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5">
+    <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
         <v>69</v>
       </c>
@@ -5980,7 +5980,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7" ht="15.5">
+    <row r="3" spans="1:7">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -6003,7 +6003,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="15.5">
+    <row r="4" spans="1:7">
       <c r="A4" s="12" t="s">
         <v>70</v>
       </c>
@@ -6023,7 +6023,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7">
       <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
@@ -6116,12 +6116,12 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.1796875" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5">
+    <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
         <v>69</v>
       </c>
@@ -6158,7 +6158,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7" ht="15.5">
+    <row r="3" spans="1:7">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -6181,7 +6181,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="15.5">
+    <row r="4" spans="1:7">
       <c r="A4" s="12" t="s">
         <v>70</v>
       </c>
@@ -6201,7 +6201,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7">
       <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
@@ -6291,15 +6291,15 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5">
+    <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
         <v>78</v>
       </c>
@@ -6324,17 +6324,17 @@
         <v>55.5</v>
       </c>
       <c r="C2" s="18">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D2" s="18">
         <v>0</v>
       </c>
       <c r="E2" s="20">
         <f>SUM(B2:D2)</f>
-        <v>55.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.5">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="12" t="s">
         <v>79</v>
       </c>
@@ -6342,19 +6342,19 @@
         <v>488.15</v>
       </c>
       <c r="C3" s="18">
-        <v>0</v>
+        <v>221.55</v>
       </c>
       <c r="D3" s="18">
         <v>0</v>
       </c>
       <c r="E3" s="20">
         <f>SUM(B3:D3)</f>
-        <v>488.15</v>
+        <v>709.7</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="15.5">
+    <row r="4" spans="1:7">
       <c r="A4" s="15" t="s">
         <v>38</v>
       </c>
@@ -6364,7 +6364,7 @@
       </c>
       <c r="C4" s="19">
         <f t="shared" ref="C4:D4" si="0">SUM(C2:C3)</f>
-        <v>0</v>
+        <v>256.55</v>
       </c>
       <c r="D4" s="19">
         <f t="shared" si="0"/>
@@ -6372,12 +6372,12 @@
       </c>
       <c r="E4" s="19">
         <f>SUM(E2:E3)</f>
-        <v>543.65</v>
+        <v>800.2</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7">
       <c r="A5" s="12" t="s">
         <v>75</v>
       </c>
@@ -6385,19 +6385,19 @@
         <v>259.35000000000002</v>
       </c>
       <c r="C5" s="18">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D5" s="18">
         <v>0</v>
       </c>
       <c r="E5" s="20">
         <f>SUM(B5:D5)</f>
-        <v>259.35000000000002</v>
+        <v>294.35000000000002</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:7" ht="15.5">
+    <row r="6" spans="1:7">
       <c r="A6" s="12" t="s">
         <v>74</v>
       </c>
@@ -6405,19 +6405,19 @@
         <v>0</v>
       </c>
       <c r="C6" s="18">
-        <v>0</v>
+        <v>535.9</v>
       </c>
       <c r="D6" s="18">
         <v>0</v>
       </c>
       <c r="E6" s="20">
         <f>SUM(B6:D6)</f>
-        <v>0</v>
+        <v>535.9</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7" ht="15.5">
+    <row r="7" spans="1:7">
       <c r="A7" s="13" t="s">
         <v>37</v>
       </c>
@@ -6427,7 +6427,7 @@
       </c>
       <c r="C7" s="21">
         <f t="shared" ref="C7:D7" si="1">SUM(C5:C6)</f>
-        <v>0</v>
+        <v>570.9</v>
       </c>
       <c r="D7" s="21">
         <f t="shared" si="1"/>
@@ -6435,7 +6435,7 @@
       </c>
       <c r="E7" s="21">
         <f>SUM(E5:E6)</f>
-        <v>259.35000000000002</v>
+        <v>830.25</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
@@ -6510,12 +6510,12 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.1796875" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5">
+    <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
         <v>69</v>
       </c>
@@ -6552,7 +6552,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7" ht="15.5">
+    <row r="3" spans="1:7">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -6575,7 +6575,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="15.5">
+    <row r="4" spans="1:7">
       <c r="A4" s="12" t="s">
         <v>70</v>
       </c>
@@ -6595,7 +6595,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7">
       <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
@@ -6688,13 +6688,13 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" style="16"/>
+    <col min="5" max="5" width="11.5" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5">
+    <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
         <v>40</v>
       </c>
@@ -6731,7 +6731,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7" ht="15.5">
+    <row r="3" spans="1:7">
       <c r="A3" s="12" t="s">
         <v>41</v>
       </c>
@@ -6751,7 +6751,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="15.5">
+    <row r="4" spans="1:7">
       <c r="A4" s="12" t="s">
         <v>42</v>
       </c>
@@ -6771,7 +6771,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" s="17" customFormat="1" ht="15.5">
+    <row r="5" spans="1:7" s="17" customFormat="1">
       <c r="A5" s="15" t="s">
         <v>38</v>
       </c>
@@ -6794,7 +6794,7 @@
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
     </row>
-    <row r="6" spans="1:7" ht="15.5">
+    <row r="6" spans="1:7">
       <c r="A6" s="12" t="s">
         <v>33</v>
       </c>
@@ -6814,7 +6814,7 @@
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7" ht="15.5">
+    <row r="7" spans="1:7">
       <c r="A7" s="12" t="s">
         <v>35</v>
       </c>
@@ -6834,7 +6834,7 @@
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
     </row>
-    <row r="8" spans="1:7" ht="15.5">
+    <row r="8" spans="1:7">
       <c r="A8" s="12" t="s">
         <v>36</v>
       </c>
@@ -6854,7 +6854,7 @@
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
     </row>
-    <row r="9" spans="1:7" ht="15.5">
+    <row r="9" spans="1:7">
       <c r="A9" s="13" t="s">
         <v>37</v>
       </c>
@@ -6914,12 +6914,12 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.1796875" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5">
+    <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
         <v>69</v>
       </c>
@@ -6956,7 +6956,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7" ht="15.5">
+    <row r="3" spans="1:7">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -6979,7 +6979,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="15.5">
+    <row r="4" spans="1:7">
       <c r="A4" s="12" t="s">
         <v>70</v>
       </c>
@@ -6999,7 +6999,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7">
       <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
@@ -7092,12 +7092,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.1796875" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5">
+    <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
         <v>69</v>
       </c>
@@ -7134,7 +7134,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7" ht="15.5">
+    <row r="3" spans="1:7">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -7157,7 +7157,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="15.5">
+    <row r="4" spans="1:7">
       <c r="A4" s="12" t="s">
         <v>70</v>
       </c>
@@ -7177,7 +7177,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7">
       <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
@@ -7267,15 +7267,15 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.1796875" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -7292,7 +7292,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5">
+    <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
         <v>96</v>
       </c>
@@ -7312,7 +7312,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7" ht="15.5">
+    <row r="3" spans="1:7">
       <c r="A3" s="12" t="s">
         <v>95</v>
       </c>
@@ -7320,19 +7320,19 @@
         <v>1788.71</v>
       </c>
       <c r="C3" s="18">
-        <v>530.79</v>
+        <v>590.79</v>
       </c>
       <c r="D3" s="18">
         <v>0</v>
       </c>
       <c r="E3" s="20">
         <f>SUM(B3:D3)</f>
-        <v>2319.5</v>
+        <v>2379.5</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="15.5">
+    <row r="4" spans="1:7">
       <c r="A4" s="15" t="s">
         <v>38</v>
       </c>
@@ -7342,7 +7342,7 @@
       </c>
       <c r="C4" s="19">
         <f>SUM(C2:C3)</f>
-        <v>900.99</v>
+        <v>960.99</v>
       </c>
       <c r="D4" s="19">
         <f>SUM(D2:D3)</f>
@@ -7355,7 +7355,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7">
       <c r="A5" s="12" t="s">
         <v>75</v>
       </c>
@@ -7375,7 +7375,7 @@
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:7" ht="15.5">
+    <row r="6" spans="1:7">
       <c r="A6" s="12" t="s">
         <v>74</v>
       </c>
@@ -7395,7 +7395,7 @@
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7" ht="15.5">
+    <row r="7" spans="1:7">
       <c r="A7" s="13" t="s">
         <v>37</v>
       </c>
@@ -7488,12 +7488,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.1796875" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -7510,7 +7510,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5">
+    <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
         <v>69</v>
       </c>
@@ -7530,7 +7530,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7" ht="15.5">
+    <row r="3" spans="1:7">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -7553,7 +7553,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="15.5">
+    <row r="4" spans="1:7">
       <c r="A4" s="12" t="s">
         <v>70</v>
       </c>
@@ -7573,7 +7573,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7">
       <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
@@ -7666,12 +7666,12 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.1796875" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -7688,7 +7688,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5">
+    <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
         <v>96</v>
       </c>
@@ -7708,7 +7708,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7" ht="15.5">
+    <row r="3" spans="1:7">
       <c r="A3" s="12" t="s">
         <v>95</v>
       </c>
@@ -7728,7 +7728,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="15.5">
+    <row r="4" spans="1:7">
       <c r="A4" s="15" t="s">
         <v>38</v>
       </c>
@@ -7751,7 +7751,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7">
       <c r="A5" s="12" t="s">
         <v>75</v>
       </c>
@@ -7771,7 +7771,7 @@
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:7" ht="15.5">
+    <row r="6" spans="1:7">
       <c r="A6" s="12" t="s">
         <v>74</v>
       </c>
@@ -7791,7 +7791,7 @@
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7" ht="15.5">
+    <row r="7" spans="1:7">
       <c r="A7" s="13" t="s">
         <v>37</v>
       </c>
@@ -7880,16 +7880,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB1AFE0-5A9B-495B-9FC5-BB69210E89D8}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.1796875" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -7906,7 +7906,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5">
+    <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
         <v>69</v>
       </c>
@@ -7926,7 +7926,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7" ht="15.5">
+    <row r="3" spans="1:7">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -7949,7 +7949,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="15.5">
+    <row r="4" spans="1:7">
       <c r="A4" s="12" t="s">
         <v>70</v>
       </c>
@@ -7969,7 +7969,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7">
       <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
@@ -8062,12 +8062,12 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.36328125" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.5">
+    <row r="1" spans="1:5">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.5">
+    <row r="2" spans="1:5">
       <c r="A2" s="12" t="s">
         <v>69</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.5">
+    <row r="3" spans="1:5">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -8123,7 +8123,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.5">
+    <row r="4" spans="1:5">
       <c r="A4" s="12" t="s">
         <v>70</v>
       </c>
@@ -8141,7 +8141,7 @@
         <v>1932.17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.5">
+    <row r="5" spans="1:5">
       <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
@@ -8175,12 +8175,12 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -8197,7 +8197,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5">
+    <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
         <v>43</v>
       </c>
@@ -8217,7 +8217,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7" ht="15.5">
+    <row r="3" spans="1:7">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -8240,7 +8240,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="15.5">
+    <row r="4" spans="1:7">
       <c r="A4" s="12" t="s">
         <v>44</v>
       </c>
@@ -8260,7 +8260,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7">
       <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
@@ -8336,12 +8336,12 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="53.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.5">
+    <row r="1" spans="1:6">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -8358,7 +8358,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.5">
+    <row r="2" spans="1:6">
       <c r="A2" s="12" t="s">
         <v>45</v>
       </c>
@@ -8377,7 +8377,7 @@
       </c>
       <c r="F2" s="22"/>
     </row>
-    <row r="3" spans="1:6" ht="15.5">
+    <row r="3" spans="1:6">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -8399,7 +8399,7 @@
       </c>
       <c r="F3" s="22"/>
     </row>
-    <row r="4" spans="1:6" ht="15.5">
+    <row r="4" spans="1:6">
       <c r="A4" s="12" t="s">
         <v>46</v>
       </c>
@@ -8418,7 +8418,7 @@
       </c>
       <c r="F4" s="22"/>
     </row>
-    <row r="5" spans="1:6" ht="15.5">
+    <row r="5" spans="1:6">
       <c r="A5" s="12" t="s">
         <v>85</v>
       </c>
@@ -8437,7 +8437,7 @@
       </c>
       <c r="F5" s="22"/>
     </row>
-    <row r="6" spans="1:6" ht="15.5">
+    <row r="6" spans="1:6">
       <c r="A6" s="12" t="s">
         <v>86</v>
       </c>
@@ -8456,7 +8456,7 @@
       </c>
       <c r="F6" s="22"/>
     </row>
-    <row r="7" spans="1:6" ht="15.5">
+    <row r="7" spans="1:6">
       <c r="A7" s="13" t="s">
         <v>37</v>
       </c>
@@ -8503,15 +8503,15 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="47.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -8528,7 +8528,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5">
+    <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
         <v>47</v>
       </c>
@@ -8536,19 +8536,19 @@
         <v>343.02</v>
       </c>
       <c r="C2" s="18">
-        <v>617.29999999999995</v>
+        <v>657.3</v>
       </c>
       <c r="D2" s="18">
         <v>0</v>
       </c>
       <c r="E2" s="20">
         <f>SUM(B2:D2)</f>
-        <v>960.31999999999994</v>
+        <v>1000.3199999999999</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7" ht="15.5">
+    <row r="3" spans="1:7">
       <c r="A3" s="12" t="s">
         <v>48</v>
       </c>
@@ -8568,7 +8568,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="15.5">
+    <row r="4" spans="1:7">
       <c r="A4" s="12" t="s">
         <v>49</v>
       </c>
@@ -8588,7 +8588,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7">
       <c r="A5" s="15" t="s">
         <v>38</v>
       </c>
@@ -8598,7 +8598,7 @@
       </c>
       <c r="C5" s="19">
         <f>SUM(C2:C4)</f>
-        <v>617.29999999999995</v>
+        <v>657.3</v>
       </c>
       <c r="D5" s="19">
         <f>SUM(D2:D4)</f>
@@ -8606,12 +8606,12 @@
       </c>
       <c r="E5" s="19">
         <f>SUM(E2:E4)</f>
-        <v>1216.4299999999998</v>
+        <v>1256.4299999999998</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:7" ht="15.5">
+    <row r="6" spans="1:7">
       <c r="A6" s="12" t="s">
         <v>50</v>
       </c>
@@ -8632,7 +8632,7 @@
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7" ht="15.5">
+    <row r="7" spans="1:7">
       <c r="A7" s="12" t="s">
         <v>51</v>
       </c>
@@ -8652,7 +8652,7 @@
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
     </row>
-    <row r="8" spans="1:7" ht="15.5">
+    <row r="8" spans="1:7">
       <c r="A8" s="12" t="s">
         <v>52</v>
       </c>
@@ -8672,7 +8672,7 @@
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
     </row>
-    <row r="9" spans="1:7" ht="15.5">
+    <row r="9" spans="1:7">
       <c r="A9" s="12" t="s">
         <v>53</v>
       </c>
@@ -8692,7 +8692,7 @@
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
     </row>
-    <row r="10" spans="1:7" ht="15.5">
+    <row r="10" spans="1:7">
       <c r="A10" s="12" t="s">
         <v>54</v>
       </c>
@@ -8712,7 +8712,7 @@
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
     </row>
-    <row r="11" spans="1:7" ht="15.5">
+    <row r="11" spans="1:7">
       <c r="A11" s="12" t="s">
         <v>68</v>
       </c>
@@ -8732,7 +8732,7 @@
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
     </row>
-    <row r="12" spans="1:7" ht="15.5">
+    <row r="12" spans="1:7">
       <c r="A12" s="13" t="s">
         <v>37</v>
       </c>
@@ -8763,10 +8763,10 @@
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
     </row>
-    <row r="14" spans="1:7" ht="15.5">
+    <row r="14" spans="1:7">
       <c r="B14" s="18"/>
     </row>
-    <row r="15" spans="1:7" ht="15.5">
+    <row r="15" spans="1:7">
       <c r="D15" s="18"/>
     </row>
   </sheetData>
@@ -8783,12 +8783,12 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5">
+    <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
         <v>55</v>
       </c>
@@ -8825,7 +8825,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7" ht="15.5">
+    <row r="3" spans="1:7">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -8848,7 +8848,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="15.5">
+    <row r="4" spans="1:7">
       <c r="A4" s="12" t="s">
         <v>56</v>
       </c>
@@ -8868,7 +8868,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7">
       <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
@@ -8949,15 +8949,15 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -8974,7 +8974,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5">
+    <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
         <v>62</v>
       </c>
@@ -8994,7 +8994,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7" ht="15.5">
+    <row r="3" spans="1:7">
       <c r="A3" s="12" t="s">
         <v>63</v>
       </c>
@@ -9014,7 +9014,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="15.5">
+    <row r="4" spans="1:7">
       <c r="A4" s="12" t="s">
         <v>64</v>
       </c>
@@ -9022,19 +9022,19 @@
         <v>2120</v>
       </c>
       <c r="C4" s="18">
-        <v>3865</v>
+        <v>3965</v>
       </c>
       <c r="D4" s="18">
         <v>0</v>
       </c>
       <c r="E4" s="20">
         <f>SUM(B4:D4)</f>
-        <v>5985</v>
+        <v>6085</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7">
       <c r="A5" s="15" t="s">
         <v>38</v>
       </c>
@@ -9044,7 +9044,7 @@
       </c>
       <c r="C5" s="19">
         <f>SUM(C2:C4)</f>
-        <v>4029.87</v>
+        <v>4129.87</v>
       </c>
       <c r="D5" s="19">
         <f>SUM(D2:D4)</f>
@@ -9052,12 +9052,12 @@
       </c>
       <c r="E5" s="19">
         <f>SUM(E2:E4)</f>
-        <v>7502.3099999999995</v>
+        <v>7602.3099999999995</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:7" ht="15.5">
+    <row r="6" spans="1:7">
       <c r="A6" s="12" t="s">
         <v>57</v>
       </c>
@@ -9077,7 +9077,7 @@
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7" ht="15.5">
+    <row r="7" spans="1:7">
       <c r="A7" s="12" t="s">
         <v>58</v>
       </c>
@@ -9097,7 +9097,7 @@
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
     </row>
-    <row r="8" spans="1:7" ht="15.5">
+    <row r="8" spans="1:7">
       <c r="A8" s="12" t="s">
         <v>59</v>
       </c>
@@ -9117,7 +9117,7 @@
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
     </row>
-    <row r="9" spans="1:7" ht="15.5">
+    <row r="9" spans="1:7">
       <c r="A9" s="12" t="s">
         <v>60</v>
       </c>
@@ -9137,7 +9137,7 @@
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
     </row>
-    <row r="10" spans="1:7" ht="15.5">
+    <row r="10" spans="1:7">
       <c r="A10" s="12" t="s">
         <v>61</v>
       </c>
@@ -9157,7 +9157,7 @@
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
     </row>
-    <row r="11" spans="1:7" ht="15.5">
+    <row r="11" spans="1:7">
       <c r="A11" s="12" t="s">
         <v>65</v>
       </c>
@@ -9177,7 +9177,7 @@
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
     </row>
-    <row r="12" spans="1:7" ht="15.5">
+    <row r="12" spans="1:7">
       <c r="A12" s="13" t="s">
         <v>37</v>
       </c>
@@ -9246,12 +9246,12 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.5">
+    <row r="1" spans="1:6">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.5">
+    <row r="2" spans="1:6">
       <c r="A2" s="12" t="s">
         <v>69</v>
       </c>
@@ -9287,7 +9287,7 @@
       </c>
       <c r="F2" s="22"/>
     </row>
-    <row r="3" spans="1:6" ht="15.5">
+    <row r="3" spans="1:6">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -9309,7 +9309,7 @@
       </c>
       <c r="F3" s="22"/>
     </row>
-    <row r="4" spans="1:6" ht="15.5">
+    <row r="4" spans="1:6">
       <c r="A4" s="12" t="s">
         <v>70</v>
       </c>
@@ -9328,7 +9328,7 @@
       </c>
       <c r="F4" s="22"/>
     </row>
-    <row r="5" spans="1:6" ht="15.5">
+    <row r="5" spans="1:6">
       <c r="A5" s="13" t="s">
         <v>37</v>
       </c>
@@ -9402,16 +9402,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7441FD5C-2A5B-4184-A0E5-5FFDCA590A1F}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.5">
+    <row r="1" spans="1:6">
       <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
@@ -9428,7 +9428,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.5">
+    <row r="2" spans="1:6">
       <c r="A2" s="12" t="s">
         <v>69</v>
       </c>
@@ -9447,7 +9447,7 @@
       </c>
       <c r="F2" s="22"/>
     </row>
-    <row r="3" spans="1:6" ht="15.5">
+    <row r="3" spans="1:6">
       <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
@@ -9469,7 +9469,7 @@
       </c>
       <c r="F3" s="22"/>
     </row>
-    <row r="4" spans="1:6" ht="15.5">
+    <row r="4" spans="1:6">
       <c r="A4" s="12" t="s">
         <v>71</v>
       </c>
@@ -9488,7 +9488,7 @@
       </c>
       <c r="F4" s="22"/>
     </row>
-    <row r="5" spans="1:6" ht="15.5">
+    <row r="5" spans="1:6">
       <c r="A5" s="12" t="s">
         <v>72</v>
       </c>
@@ -9507,7 +9507,7 @@
       </c>
       <c r="F5" s="22"/>
     </row>
-    <row r="6" spans="1:6" ht="15.5">
+    <row r="6" spans="1:6">
       <c r="A6" s="12" t="s">
         <v>87</v>
       </c>
@@ -9526,7 +9526,7 @@
       </c>
       <c r="F6" s="22"/>
     </row>
-    <row r="7" spans="1:6" ht="15.5">
+    <row r="7" spans="1:6">
       <c r="A7" s="12" t="s">
         <v>73</v>
       </c>
@@ -9545,7 +9545,7 @@
       </c>
       <c r="F7" s="22"/>
     </row>
-    <row r="8" spans="1:6" ht="15.5">
+    <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
         <v>37</v>
       </c>
